--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1048738-FA56-3942-9082-636B2D6D6439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E771634-7F88-1D43-99DB-88A3EA6BF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7860" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8866" uniqueCount="349">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1010,6 +1010,60 @@
   </si>
   <si>
     <t>CLINCA PINARES MEDICA</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>AV 30 DE AGOSTO 48 - 74</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>1918</t>
+  </si>
+  <si>
+    <t>1919</t>
+  </si>
+  <si>
+    <t>1920</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>849</t>
+  </si>
+  <si>
+    <t>891</t>
+  </si>
+  <si>
+    <t>456</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>CRA 16 BIS ∑ 8-24 EDIFICIO OKO</t>
+  </si>
+  <si>
+    <t>6600100790</t>
+  </si>
+  <si>
+    <t>816007943</t>
+  </si>
+  <si>
+    <t>CORPORACION IPS EJE CAFETERO</t>
   </si>
   <si>
     <t>ano</t>
@@ -1019,15 +1073,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1050,10 +1099,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1436,10 +1484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX164"/>
+  <dimension ref="A1:AX185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1454,8 +1502,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>330</v>
+      <c r="D1" t="s">
+        <v>348</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -26327,6 +26375,3192 @@
         <v>66</v>
       </c>
       <c r="AX164" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="165" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A165" t="s">
+        <v>49</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C165" t="s">
+        <v>140</v>
+      </c>
+      <c r="D165" t="s">
+        <v>51</v>
+      </c>
+      <c r="E165" t="s">
+        <v>160</v>
+      </c>
+      <c r="F165" t="s">
+        <v>100</v>
+      </c>
+      <c r="G165" t="s">
+        <v>54</v>
+      </c>
+      <c r="H165" t="s">
+        <v>55</v>
+      </c>
+      <c r="I165" t="s">
+        <v>56</v>
+      </c>
+      <c r="J165" t="s">
+        <v>50</v>
+      </c>
+      <c r="K165" t="s">
+        <v>50</v>
+      </c>
+      <c r="L165" t="s">
+        <v>56</v>
+      </c>
+      <c r="M165" t="s">
+        <v>50</v>
+      </c>
+      <c r="N165" t="s">
+        <v>56</v>
+      </c>
+      <c r="O165" t="s">
+        <v>71</v>
+      </c>
+      <c r="P165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>50</v>
+      </c>
+      <c r="R165" t="s">
+        <v>56</v>
+      </c>
+      <c r="S165" t="s">
+        <v>56</v>
+      </c>
+      <c r="T165" t="s">
+        <v>50</v>
+      </c>
+      <c r="U165" t="s">
+        <v>56</v>
+      </c>
+      <c r="V165" t="s">
+        <v>56</v>
+      </c>
+      <c r="W165" t="s">
+        <v>56</v>
+      </c>
+      <c r="X165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y165" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD165" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE165" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF165" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG165" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH165" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK165" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL165" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM165" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN165" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO165" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP165" s="1">
+        <v>44614</v>
+      </c>
+      <c r="AQ165" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR165" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS165" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT165" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU165" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV165" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW165" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX165" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="166" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A166" t="s">
+        <v>49</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C166" t="s">
+        <v>83</v>
+      </c>
+      <c r="D166" t="s">
+        <v>51</v>
+      </c>
+      <c r="E166" t="s">
+        <v>160</v>
+      </c>
+      <c r="F166" t="s">
+        <v>68</v>
+      </c>
+      <c r="G166" t="s">
+        <v>54</v>
+      </c>
+      <c r="H166" t="s">
+        <v>89</v>
+      </c>
+      <c r="I166" t="s">
+        <v>50</v>
+      </c>
+      <c r="J166" t="s">
+        <v>71</v>
+      </c>
+      <c r="K166" t="s">
+        <v>50</v>
+      </c>
+      <c r="L166" t="s">
+        <v>56</v>
+      </c>
+      <c r="M166" t="s">
+        <v>50</v>
+      </c>
+      <c r="N166" t="s">
+        <v>72</v>
+      </c>
+      <c r="O166" t="s">
+        <v>72</v>
+      </c>
+      <c r="P166" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>50</v>
+      </c>
+      <c r="R166" t="s">
+        <v>71</v>
+      </c>
+      <c r="S166" t="s">
+        <v>71</v>
+      </c>
+      <c r="T166" t="s">
+        <v>71</v>
+      </c>
+      <c r="U166" t="s">
+        <v>56</v>
+      </c>
+      <c r="V166" t="s">
+        <v>50</v>
+      </c>
+      <c r="W166" t="s">
+        <v>56</v>
+      </c>
+      <c r="X166" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y166" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA166" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB166" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD166" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE166" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF166" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG166" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH166" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK166" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL166" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM166" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN166" t="s">
+        <v>331</v>
+      </c>
+      <c r="AO166" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP166" s="1">
+        <v>44618</v>
+      </c>
+      <c r="AQ166" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR166" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS166" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT166" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU166" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV166" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW166" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX166" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="167" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A167" t="s">
+        <v>49</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C167" t="s">
+        <v>83</v>
+      </c>
+      <c r="D167" t="s">
+        <v>51</v>
+      </c>
+      <c r="E167" t="s">
+        <v>87</v>
+      </c>
+      <c r="F167" t="s">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s">
+        <v>54</v>
+      </c>
+      <c r="H167" t="s">
+        <v>332</v>
+      </c>
+      <c r="I167" t="s">
+        <v>56</v>
+      </c>
+      <c r="J167" t="s">
+        <v>57</v>
+      </c>
+      <c r="K167" t="s">
+        <v>50</v>
+      </c>
+      <c r="L167" t="s">
+        <v>56</v>
+      </c>
+      <c r="M167" t="s">
+        <v>50</v>
+      </c>
+      <c r="N167" t="s">
+        <v>57</v>
+      </c>
+      <c r="O167" t="s">
+        <v>50</v>
+      </c>
+      <c r="P167" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>56</v>
+      </c>
+      <c r="R167" t="s">
+        <v>50</v>
+      </c>
+      <c r="S167" t="s">
+        <v>56</v>
+      </c>
+      <c r="T167" t="s">
+        <v>56</v>
+      </c>
+      <c r="U167" t="s">
+        <v>56</v>
+      </c>
+      <c r="V167" t="s">
+        <v>56</v>
+      </c>
+      <c r="W167" t="s">
+        <v>56</v>
+      </c>
+      <c r="X167" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y167" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA167" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB167" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD167" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE167" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF167" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG167" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH167" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK167" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL167" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM167" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN167" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO167" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP167" s="1">
+        <v>44618</v>
+      </c>
+      <c r="AQ167" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR167" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS167" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT167" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV167" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW167" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A168" t="s">
+        <v>49</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C168" t="s">
+        <v>83</v>
+      </c>
+      <c r="D168" t="s">
+        <v>51</v>
+      </c>
+      <c r="E168" t="s">
+        <v>87</v>
+      </c>
+      <c r="F168" t="s">
+        <v>68</v>
+      </c>
+      <c r="G168" t="s">
+        <v>54</v>
+      </c>
+      <c r="H168" t="s">
+        <v>333</v>
+      </c>
+      <c r="I168" t="s">
+        <v>56</v>
+      </c>
+      <c r="J168" t="s">
+        <v>50</v>
+      </c>
+      <c r="K168" t="s">
+        <v>50</v>
+      </c>
+      <c r="L168" t="s">
+        <v>56</v>
+      </c>
+      <c r="M168" t="s">
+        <v>50</v>
+      </c>
+      <c r="N168" t="s">
+        <v>50</v>
+      </c>
+      <c r="O168" t="s">
+        <v>71</v>
+      </c>
+      <c r="P168" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q168" t="s">
+        <v>71</v>
+      </c>
+      <c r="R168" t="s">
+        <v>71</v>
+      </c>
+      <c r="S168" t="s">
+        <v>50</v>
+      </c>
+      <c r="T168" t="s">
+        <v>71</v>
+      </c>
+      <c r="U168" t="s">
+        <v>50</v>
+      </c>
+      <c r="V168" t="s">
+        <v>56</v>
+      </c>
+      <c r="W168" t="s">
+        <v>56</v>
+      </c>
+      <c r="X168" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y168" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA168" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB168" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD168" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE168" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF168" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG168" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH168" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK168" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL168" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM168" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN168" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO168" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP168" s="1">
+        <v>44618</v>
+      </c>
+      <c r="AQ168" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR168" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS168" t="s">
+        <v>181</v>
+      </c>
+      <c r="AT168" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV168" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW168" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX168" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A169" t="s">
+        <v>49</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C169" t="s">
+        <v>83</v>
+      </c>
+      <c r="D169" t="s">
+        <v>51</v>
+      </c>
+      <c r="E169" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" t="s">
+        <v>68</v>
+      </c>
+      <c r="G169" t="s">
+        <v>54</v>
+      </c>
+      <c r="H169" t="s">
+        <v>334</v>
+      </c>
+      <c r="I169" t="s">
+        <v>71</v>
+      </c>
+      <c r="J169" t="s">
+        <v>71</v>
+      </c>
+      <c r="K169" t="s">
+        <v>58</v>
+      </c>
+      <c r="L169" t="s">
+        <v>56</v>
+      </c>
+      <c r="M169" t="s">
+        <v>50</v>
+      </c>
+      <c r="N169" t="s">
+        <v>56</v>
+      </c>
+      <c r="O169" t="s">
+        <v>50</v>
+      </c>
+      <c r="P169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q169" t="s">
+        <v>56</v>
+      </c>
+      <c r="R169" t="s">
+        <v>56</v>
+      </c>
+      <c r="S169" t="s">
+        <v>50</v>
+      </c>
+      <c r="T169" t="s">
+        <v>56</v>
+      </c>
+      <c r="U169" t="s">
+        <v>50</v>
+      </c>
+      <c r="V169" t="s">
+        <v>71</v>
+      </c>
+      <c r="W169" t="s">
+        <v>56</v>
+      </c>
+      <c r="X169" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y169" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA169" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB169" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD169" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE169" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF169" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG169" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH169" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK169" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL169" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM169" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN169" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO169" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP169" s="1">
+        <v>44619</v>
+      </c>
+      <c r="AQ169" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR169" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS169" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT169" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV169" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW169" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX169" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="170" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A170" t="s">
+        <v>49</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C170" t="s">
+        <v>140</v>
+      </c>
+      <c r="D170" t="s">
+        <v>51</v>
+      </c>
+      <c r="E170" t="s">
+        <v>123</v>
+      </c>
+      <c r="F170" t="s">
+        <v>95</v>
+      </c>
+      <c r="G170" t="s">
+        <v>54</v>
+      </c>
+      <c r="H170" t="s">
+        <v>335</v>
+      </c>
+      <c r="I170" t="s">
+        <v>56</v>
+      </c>
+      <c r="J170" t="s">
+        <v>56</v>
+      </c>
+      <c r="K170" t="s">
+        <v>50</v>
+      </c>
+      <c r="L170" t="s">
+        <v>56</v>
+      </c>
+      <c r="M170" t="s">
+        <v>56</v>
+      </c>
+      <c r="N170" t="s">
+        <v>56</v>
+      </c>
+      <c r="O170" t="s">
+        <v>56</v>
+      </c>
+      <c r="P170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q170" t="s">
+        <v>56</v>
+      </c>
+      <c r="R170" t="s">
+        <v>56</v>
+      </c>
+      <c r="S170" t="s">
+        <v>56</v>
+      </c>
+      <c r="T170" t="s">
+        <v>56</v>
+      </c>
+      <c r="U170" t="s">
+        <v>56</v>
+      </c>
+      <c r="V170" t="s">
+        <v>56</v>
+      </c>
+      <c r="W170" t="s">
+        <v>56</v>
+      </c>
+      <c r="X170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y170" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA170" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB170" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD170" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE170" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF170" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH170" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK170" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL170" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM170" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN170" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO170" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP170" s="1">
+        <v>44613</v>
+      </c>
+      <c r="AQ170" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR170" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS170" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT170" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV170" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW170" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX170" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A171" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C171" t="s">
+        <v>83</v>
+      </c>
+      <c r="D171" t="s">
+        <v>51</v>
+      </c>
+      <c r="E171" t="s">
+        <v>67</v>
+      </c>
+      <c r="F171" t="s">
+        <v>68</v>
+      </c>
+      <c r="G171" t="s">
+        <v>54</v>
+      </c>
+      <c r="H171" t="s">
+        <v>336</v>
+      </c>
+      <c r="I171" t="s">
+        <v>50</v>
+      </c>
+      <c r="J171" t="s">
+        <v>83</v>
+      </c>
+      <c r="K171" t="s">
+        <v>58</v>
+      </c>
+      <c r="L171" t="s">
+        <v>56</v>
+      </c>
+      <c r="M171" t="s">
+        <v>71</v>
+      </c>
+      <c r="N171" t="s">
+        <v>58</v>
+      </c>
+      <c r="O171" t="s">
+        <v>71</v>
+      </c>
+      <c r="P171" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q171" t="s">
+        <v>140</v>
+      </c>
+      <c r="R171" t="s">
+        <v>70</v>
+      </c>
+      <c r="S171" t="s">
+        <v>50</v>
+      </c>
+      <c r="T171" t="s">
+        <v>50</v>
+      </c>
+      <c r="U171" t="s">
+        <v>58</v>
+      </c>
+      <c r="V171" t="s">
+        <v>50</v>
+      </c>
+      <c r="W171" t="s">
+        <v>50</v>
+      </c>
+      <c r="X171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y171" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA171" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB171" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD171" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE171" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF171" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG171" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH171" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK171" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL171" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM171" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN171" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO171" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP171" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ171" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR171" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS171" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT171" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV171" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW171" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX171" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A172" t="s">
+        <v>49</v>
+      </c>
+      <c r="B172" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C172" t="s">
+        <v>83</v>
+      </c>
+      <c r="D172" t="s">
+        <v>51</v>
+      </c>
+      <c r="E172" t="s">
+        <v>67</v>
+      </c>
+      <c r="F172" t="s">
+        <v>78</v>
+      </c>
+      <c r="G172" t="s">
+        <v>54</v>
+      </c>
+      <c r="H172" t="s">
+        <v>337</v>
+      </c>
+      <c r="I172" t="s">
+        <v>50</v>
+      </c>
+      <c r="J172" t="s">
+        <v>140</v>
+      </c>
+      <c r="K172" t="s">
+        <v>50</v>
+      </c>
+      <c r="L172" t="s">
+        <v>56</v>
+      </c>
+      <c r="M172" t="s">
+        <v>50</v>
+      </c>
+      <c r="N172" t="s">
+        <v>71</v>
+      </c>
+      <c r="O172" t="s">
+        <v>71</v>
+      </c>
+      <c r="P172" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q172" t="s">
+        <v>72</v>
+      </c>
+      <c r="R172" t="s">
+        <v>71</v>
+      </c>
+      <c r="S172" t="s">
+        <v>50</v>
+      </c>
+      <c r="T172" t="s">
+        <v>50</v>
+      </c>
+      <c r="U172" t="s">
+        <v>58</v>
+      </c>
+      <c r="V172" t="s">
+        <v>50</v>
+      </c>
+      <c r="W172" t="s">
+        <v>50</v>
+      </c>
+      <c r="X172" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y172" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA172" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB172" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD172" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE172" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF172" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG172" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH172" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK172" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL172" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM172" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN172" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO172" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP172" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ172" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR172" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS172" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT172" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU172" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV172" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW172" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX172" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="173" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A173" t="s">
+        <v>49</v>
+      </c>
+      <c r="B173" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C173" t="s">
+        <v>83</v>
+      </c>
+      <c r="D173" t="s">
+        <v>51</v>
+      </c>
+      <c r="E173" t="s">
+        <v>67</v>
+      </c>
+      <c r="F173" t="s">
+        <v>81</v>
+      </c>
+      <c r="G173" t="s">
+        <v>54</v>
+      </c>
+      <c r="H173" t="s">
+        <v>338</v>
+      </c>
+      <c r="I173" t="s">
+        <v>81</v>
+      </c>
+      <c r="J173" t="s">
+        <v>226</v>
+      </c>
+      <c r="K173" t="s">
+        <v>140</v>
+      </c>
+      <c r="L173" t="s">
+        <v>72</v>
+      </c>
+      <c r="M173" t="s">
+        <v>71</v>
+      </c>
+      <c r="N173" t="s">
+        <v>71</v>
+      </c>
+      <c r="O173" t="s">
+        <v>71</v>
+      </c>
+      <c r="P173" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q173" t="s">
+        <v>50</v>
+      </c>
+      <c r="R173" t="s">
+        <v>71</v>
+      </c>
+      <c r="S173" t="s">
+        <v>71</v>
+      </c>
+      <c r="T173" t="s">
+        <v>71</v>
+      </c>
+      <c r="U173" t="s">
+        <v>50</v>
+      </c>
+      <c r="V173" t="s">
+        <v>56</v>
+      </c>
+      <c r="W173" t="s">
+        <v>56</v>
+      </c>
+      <c r="X173" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y173" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA173" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB173" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD173" t="s">
+        <v>339</v>
+      </c>
+      <c r="AE173" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF173" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG173" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH173" t="s">
+        <v>339</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ173" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK173" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL173" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM173" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN173" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO173" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP173" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ173" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR173" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS173" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT173" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU173" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV173" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW173" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX173" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="174" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A174" t="s">
+        <v>49</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C174" t="s">
+        <v>83</v>
+      </c>
+      <c r="D174" t="s">
+        <v>51</v>
+      </c>
+      <c r="E174" t="s">
+        <v>99</v>
+      </c>
+      <c r="F174" t="s">
+        <v>68</v>
+      </c>
+      <c r="G174" t="s">
+        <v>54</v>
+      </c>
+      <c r="H174" t="s">
+        <v>340</v>
+      </c>
+      <c r="I174" t="s">
+        <v>56</v>
+      </c>
+      <c r="J174" t="s">
+        <v>71</v>
+      </c>
+      <c r="K174" t="s">
+        <v>56</v>
+      </c>
+      <c r="L174" t="s">
+        <v>56</v>
+      </c>
+      <c r="M174" t="s">
+        <v>58</v>
+      </c>
+      <c r="N174" t="s">
+        <v>140</v>
+      </c>
+      <c r="O174" t="s">
+        <v>58</v>
+      </c>
+      <c r="P174" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q174" t="s">
+        <v>50</v>
+      </c>
+      <c r="R174" t="s">
+        <v>71</v>
+      </c>
+      <c r="S174" t="s">
+        <v>50</v>
+      </c>
+      <c r="T174" t="s">
+        <v>56</v>
+      </c>
+      <c r="U174" t="s">
+        <v>56</v>
+      </c>
+      <c r="V174" t="s">
+        <v>50</v>
+      </c>
+      <c r="W174" t="s">
+        <v>56</v>
+      </c>
+      <c r="X174" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y174" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA174" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB174" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD174" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE174" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF174" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG174" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH174" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK174" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL174" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM174" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN174" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO174" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP174" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ174" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR174" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS174" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT174" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV174" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX174" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="175" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A175" t="s">
+        <v>49</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44617</v>
+      </c>
+      <c r="C175" t="s">
+        <v>83</v>
+      </c>
+      <c r="D175" t="s">
+        <v>51</v>
+      </c>
+      <c r="E175" t="s">
+        <v>99</v>
+      </c>
+      <c r="F175" t="s">
+        <v>88</v>
+      </c>
+      <c r="G175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H175" t="s">
+        <v>298</v>
+      </c>
+      <c r="I175" t="s">
+        <v>56</v>
+      </c>
+      <c r="J175" t="s">
+        <v>56</v>
+      </c>
+      <c r="K175" t="s">
+        <v>56</v>
+      </c>
+      <c r="L175" t="s">
+        <v>56</v>
+      </c>
+      <c r="M175" t="s">
+        <v>56</v>
+      </c>
+      <c r="N175" t="s">
+        <v>56</v>
+      </c>
+      <c r="O175" t="s">
+        <v>56</v>
+      </c>
+      <c r="P175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q175" t="s">
+        <v>56</v>
+      </c>
+      <c r="R175" t="s">
+        <v>56</v>
+      </c>
+      <c r="S175" t="s">
+        <v>56</v>
+      </c>
+      <c r="T175" t="s">
+        <v>56</v>
+      </c>
+      <c r="U175" t="s">
+        <v>56</v>
+      </c>
+      <c r="V175" t="s">
+        <v>56</v>
+      </c>
+      <c r="W175" t="s">
+        <v>50</v>
+      </c>
+      <c r="X175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y175" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA175" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB175" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC175" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD175" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE175" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF175" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH175" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK175" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL175" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM175" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN175" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO175" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP175" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ175" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR175" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS175" t="s">
+        <v>115</v>
+      </c>
+      <c r="AT175" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV175" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW175" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX175" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A176" t="s">
+        <v>49</v>
+      </c>
+      <c r="B176" s="1">
+        <v>44617</v>
+      </c>
+      <c r="C176" t="s">
+        <v>83</v>
+      </c>
+      <c r="D176" t="s">
+        <v>51</v>
+      </c>
+      <c r="E176" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" t="s">
+        <v>105</v>
+      </c>
+      <c r="G176" t="s">
+        <v>54</v>
+      </c>
+      <c r="H176" t="s">
+        <v>299</v>
+      </c>
+      <c r="I176" t="s">
+        <v>71</v>
+      </c>
+      <c r="J176" t="s">
+        <v>72</v>
+      </c>
+      <c r="K176" t="s">
+        <v>50</v>
+      </c>
+      <c r="L176" t="s">
+        <v>50</v>
+      </c>
+      <c r="M176" t="s">
+        <v>56</v>
+      </c>
+      <c r="N176" t="s">
+        <v>50</v>
+      </c>
+      <c r="O176" t="s">
+        <v>50</v>
+      </c>
+      <c r="P176" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q176" t="s">
+        <v>56</v>
+      </c>
+      <c r="R176" t="s">
+        <v>50</v>
+      </c>
+      <c r="S176" t="s">
+        <v>50</v>
+      </c>
+      <c r="T176" t="s">
+        <v>56</v>
+      </c>
+      <c r="U176" t="s">
+        <v>71</v>
+      </c>
+      <c r="V176" t="s">
+        <v>56</v>
+      </c>
+      <c r="W176" t="s">
+        <v>56</v>
+      </c>
+      <c r="X176" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y176" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD176" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF176" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG176" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH176" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ176" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK176" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN176" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO176" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP176" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ176" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR176" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS176" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT176" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU176" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX176" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="177" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A177" t="s">
+        <v>49</v>
+      </c>
+      <c r="B177" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C177" t="s">
+        <v>83</v>
+      </c>
+      <c r="D177" t="s">
+        <v>51</v>
+      </c>
+      <c r="E177" t="s">
+        <v>138</v>
+      </c>
+      <c r="F177" t="s">
+        <v>68</v>
+      </c>
+      <c r="G177" t="s">
+        <v>54</v>
+      </c>
+      <c r="H177" t="s">
+        <v>341</v>
+      </c>
+      <c r="I177" t="s">
+        <v>56</v>
+      </c>
+      <c r="J177" t="s">
+        <v>102</v>
+      </c>
+      <c r="K177" t="s">
+        <v>70</v>
+      </c>
+      <c r="L177" t="s">
+        <v>58</v>
+      </c>
+      <c r="M177" t="s">
+        <v>71</v>
+      </c>
+      <c r="N177" t="s">
+        <v>140</v>
+      </c>
+      <c r="O177" t="s">
+        <v>57</v>
+      </c>
+      <c r="P177" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q177" t="s">
+        <v>57</v>
+      </c>
+      <c r="R177" t="s">
+        <v>50</v>
+      </c>
+      <c r="S177" t="s">
+        <v>71</v>
+      </c>
+      <c r="T177" t="s">
+        <v>50</v>
+      </c>
+      <c r="U177" t="s">
+        <v>56</v>
+      </c>
+      <c r="V177" t="s">
+        <v>50</v>
+      </c>
+      <c r="W177" t="s">
+        <v>56</v>
+      </c>
+      <c r="X177" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y177" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z177" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA177" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB177" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC177" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD177" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE177" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF177" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG177" t="s">
+        <v>198</v>
+      </c>
+      <c r="AH177" t="s">
+        <v>229</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK177" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL177" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM177" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN177" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO177" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP177" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ177" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR177" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS177" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT177" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV177" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW177" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B178" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C178" t="s">
+        <v>83</v>
+      </c>
+      <c r="D178" t="s">
+        <v>51</v>
+      </c>
+      <c r="E178" t="s">
+        <v>119</v>
+      </c>
+      <c r="F178" t="s">
+        <v>68</v>
+      </c>
+      <c r="G178" t="s">
+        <v>54</v>
+      </c>
+      <c r="H178" t="s">
+        <v>342</v>
+      </c>
+      <c r="I178" t="s">
+        <v>56</v>
+      </c>
+      <c r="J178" t="s">
+        <v>56</v>
+      </c>
+      <c r="K178" t="s">
+        <v>56</v>
+      </c>
+      <c r="L178" t="s">
+        <v>56</v>
+      </c>
+      <c r="M178" t="s">
+        <v>56</v>
+      </c>
+      <c r="N178" t="s">
+        <v>56</v>
+      </c>
+      <c r="O178" t="s">
+        <v>56</v>
+      </c>
+      <c r="P178" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q178" t="s">
+        <v>50</v>
+      </c>
+      <c r="R178" t="s">
+        <v>56</v>
+      </c>
+      <c r="S178" t="s">
+        <v>56</v>
+      </c>
+      <c r="T178" t="s">
+        <v>56</v>
+      </c>
+      <c r="U178" t="s">
+        <v>50</v>
+      </c>
+      <c r="V178" t="s">
+        <v>56</v>
+      </c>
+      <c r="W178" t="s">
+        <v>56</v>
+      </c>
+      <c r="X178" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y178" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA178" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB178" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC178" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD178" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE178" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF178" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG178" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH178" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK178" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL178" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM178" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN178" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO178" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP178" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ178" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR178" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS178" t="s">
+        <v>122</v>
+      </c>
+      <c r="AT178" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV178" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW178" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX178" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="179" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B179" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C179" t="s">
+        <v>83</v>
+      </c>
+      <c r="D179" t="s">
+        <v>51</v>
+      </c>
+      <c r="E179" t="s">
+        <v>146</v>
+      </c>
+      <c r="F179" t="s">
+        <v>68</v>
+      </c>
+      <c r="G179" t="s">
+        <v>54</v>
+      </c>
+      <c r="H179" t="s">
+        <v>55</v>
+      </c>
+      <c r="I179" t="s">
+        <v>56</v>
+      </c>
+      <c r="J179" t="s">
+        <v>50</v>
+      </c>
+      <c r="K179" t="s">
+        <v>56</v>
+      </c>
+      <c r="L179" t="s">
+        <v>56</v>
+      </c>
+      <c r="M179" t="s">
+        <v>50</v>
+      </c>
+      <c r="N179" t="s">
+        <v>50</v>
+      </c>
+      <c r="O179" t="s">
+        <v>50</v>
+      </c>
+      <c r="P179" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q179" t="s">
+        <v>50</v>
+      </c>
+      <c r="R179" t="s">
+        <v>56</v>
+      </c>
+      <c r="S179" t="s">
+        <v>50</v>
+      </c>
+      <c r="T179" t="s">
+        <v>71</v>
+      </c>
+      <c r="U179" t="s">
+        <v>50</v>
+      </c>
+      <c r="V179" t="s">
+        <v>58</v>
+      </c>
+      <c r="W179" t="s">
+        <v>50</v>
+      </c>
+      <c r="X179" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y179" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA179" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB179" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC179" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD179" t="s">
+        <v>205</v>
+      </c>
+      <c r="AE179" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF179" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG179" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH179" t="s">
+        <v>205</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK179" t="s">
+        <v>205</v>
+      </c>
+      <c r="AL179" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM179" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN179" t="s">
+        <v>177</v>
+      </c>
+      <c r="AO179" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP179" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ179" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR179" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS179" t="s">
+        <v>148</v>
+      </c>
+      <c r="AT179" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU179" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV179" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW179" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX179" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="180" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A180" t="s">
+        <v>49</v>
+      </c>
+      <c r="B180" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C180" t="s">
+        <v>83</v>
+      </c>
+      <c r="D180" t="s">
+        <v>51</v>
+      </c>
+      <c r="E180" t="s">
+        <v>132</v>
+      </c>
+      <c r="F180" t="s">
+        <v>68</v>
+      </c>
+      <c r="G180" t="s">
+        <v>54</v>
+      </c>
+      <c r="H180" t="s">
+        <v>343</v>
+      </c>
+      <c r="I180" t="s">
+        <v>56</v>
+      </c>
+      <c r="J180" t="s">
+        <v>71</v>
+      </c>
+      <c r="K180" t="s">
+        <v>71</v>
+      </c>
+      <c r="L180" t="s">
+        <v>50</v>
+      </c>
+      <c r="M180" t="s">
+        <v>50</v>
+      </c>
+      <c r="N180" t="s">
+        <v>50</v>
+      </c>
+      <c r="O180" t="s">
+        <v>56</v>
+      </c>
+      <c r="P180" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q180" t="s">
+        <v>56</v>
+      </c>
+      <c r="R180" t="s">
+        <v>56</v>
+      </c>
+      <c r="S180" t="s">
+        <v>50</v>
+      </c>
+      <c r="T180" t="s">
+        <v>56</v>
+      </c>
+      <c r="U180" t="s">
+        <v>56</v>
+      </c>
+      <c r="V180" t="s">
+        <v>56</v>
+      </c>
+      <c r="W180" t="s">
+        <v>56</v>
+      </c>
+      <c r="X180" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y180" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z180" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA180" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB180" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC180" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD180" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE180" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF180" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG180" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH180" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK180" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL180" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM180" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN180" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO180" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP180" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ180" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR180" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS180" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT180" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV180" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW180" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX180" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A181" t="s">
+        <v>49</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C181" t="s">
+        <v>83</v>
+      </c>
+      <c r="D181" t="s">
+        <v>51</v>
+      </c>
+      <c r="E181" t="s">
+        <v>160</v>
+      </c>
+      <c r="F181" t="s">
+        <v>100</v>
+      </c>
+      <c r="G181" t="s">
+        <v>54</v>
+      </c>
+      <c r="H181" t="s">
+        <v>55</v>
+      </c>
+      <c r="I181" t="s">
+        <v>56</v>
+      </c>
+      <c r="J181" t="s">
+        <v>56</v>
+      </c>
+      <c r="K181" t="s">
+        <v>50</v>
+      </c>
+      <c r="L181" t="s">
+        <v>56</v>
+      </c>
+      <c r="M181" t="s">
+        <v>56</v>
+      </c>
+      <c r="N181" t="s">
+        <v>56</v>
+      </c>
+      <c r="O181" t="s">
+        <v>71</v>
+      </c>
+      <c r="P181" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q181" t="s">
+        <v>56</v>
+      </c>
+      <c r="R181" t="s">
+        <v>50</v>
+      </c>
+      <c r="S181" t="s">
+        <v>56</v>
+      </c>
+      <c r="T181" t="s">
+        <v>56</v>
+      </c>
+      <c r="U181" t="s">
+        <v>56</v>
+      </c>
+      <c r="V181" t="s">
+        <v>56</v>
+      </c>
+      <c r="W181" t="s">
+        <v>71</v>
+      </c>
+      <c r="X181" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y181" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA181" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB181" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC181" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD181" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE181" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF181" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG181" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH181" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK181" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL181" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM181" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN181" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO181" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP181" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ181" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR181" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS181" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT181" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU181" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV181" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW181" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX181" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="182" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A182" t="s">
+        <v>49</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C182" t="s">
+        <v>83</v>
+      </c>
+      <c r="D182" t="s">
+        <v>51</v>
+      </c>
+      <c r="E182" t="s">
+        <v>128</v>
+      </c>
+      <c r="F182" t="s">
+        <v>68</v>
+      </c>
+      <c r="G182" t="s">
+        <v>54</v>
+      </c>
+      <c r="H182" t="s">
+        <v>141</v>
+      </c>
+      <c r="I182" t="s">
+        <v>56</v>
+      </c>
+      <c r="J182" t="s">
+        <v>56</v>
+      </c>
+      <c r="K182" t="s">
+        <v>56</v>
+      </c>
+      <c r="L182" t="s">
+        <v>56</v>
+      </c>
+      <c r="M182" t="s">
+        <v>56</v>
+      </c>
+      <c r="N182" t="s">
+        <v>50</v>
+      </c>
+      <c r="O182" t="s">
+        <v>50</v>
+      </c>
+      <c r="P182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q182" t="s">
+        <v>56</v>
+      </c>
+      <c r="R182" t="s">
+        <v>56</v>
+      </c>
+      <c r="S182" t="s">
+        <v>56</v>
+      </c>
+      <c r="T182" t="s">
+        <v>56</v>
+      </c>
+      <c r="U182" t="s">
+        <v>56</v>
+      </c>
+      <c r="V182" t="s">
+        <v>56</v>
+      </c>
+      <c r="W182" t="s">
+        <v>56</v>
+      </c>
+      <c r="X182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y182" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA182" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB182" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC182" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD182" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE182" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG182" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH182" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK182" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL182" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM182" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN182" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO182" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP182" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ182" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR182" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS182" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT182" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU182" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV182" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW182" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX182" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="183" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A183" t="s">
+        <v>49</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C183" t="s">
+        <v>83</v>
+      </c>
+      <c r="D183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E183" t="s">
+        <v>52</v>
+      </c>
+      <c r="F183" t="s">
+        <v>53</v>
+      </c>
+      <c r="G183" t="s">
+        <v>54</v>
+      </c>
+      <c r="H183" t="s">
+        <v>55</v>
+      </c>
+      <c r="I183" t="s">
+        <v>56</v>
+      </c>
+      <c r="J183" t="s">
+        <v>50</v>
+      </c>
+      <c r="K183" t="s">
+        <v>56</v>
+      </c>
+      <c r="L183" t="s">
+        <v>56</v>
+      </c>
+      <c r="M183" t="s">
+        <v>56</v>
+      </c>
+      <c r="N183" t="s">
+        <v>183</v>
+      </c>
+      <c r="O183" t="s">
+        <v>56</v>
+      </c>
+      <c r="P183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q183" t="s">
+        <v>56</v>
+      </c>
+      <c r="R183" t="s">
+        <v>50</v>
+      </c>
+      <c r="S183" t="s">
+        <v>50</v>
+      </c>
+      <c r="T183" t="s">
+        <v>56</v>
+      </c>
+      <c r="U183" t="s">
+        <v>56</v>
+      </c>
+      <c r="V183" t="s">
+        <v>56</v>
+      </c>
+      <c r="W183" t="s">
+        <v>56</v>
+      </c>
+      <c r="X183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y183" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA183" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB183" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC183" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD183" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE183" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF183" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG183" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH183" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK183" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL183" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM183" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN183" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO183" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP183" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ183" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR183" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS183" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT183" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU183" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV183" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW183" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX183" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="184" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A184" t="s">
+        <v>49</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C184" t="s">
+        <v>83</v>
+      </c>
+      <c r="D184" t="s">
+        <v>51</v>
+      </c>
+      <c r="E184" t="s">
+        <v>123</v>
+      </c>
+      <c r="F184" t="s">
+        <v>111</v>
+      </c>
+      <c r="G184" t="s">
+        <v>54</v>
+      </c>
+      <c r="H184" t="s">
+        <v>55</v>
+      </c>
+      <c r="I184" t="s">
+        <v>56</v>
+      </c>
+      <c r="J184" t="s">
+        <v>50</v>
+      </c>
+      <c r="K184" t="s">
+        <v>50</v>
+      </c>
+      <c r="L184" t="s">
+        <v>56</v>
+      </c>
+      <c r="M184" t="s">
+        <v>50</v>
+      </c>
+      <c r="N184" t="s">
+        <v>50</v>
+      </c>
+      <c r="O184" t="s">
+        <v>50</v>
+      </c>
+      <c r="P184" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q184" t="s">
+        <v>56</v>
+      </c>
+      <c r="R184" t="s">
+        <v>56</v>
+      </c>
+      <c r="S184" t="s">
+        <v>56</v>
+      </c>
+      <c r="T184" t="s">
+        <v>56</v>
+      </c>
+      <c r="U184" t="s">
+        <v>50</v>
+      </c>
+      <c r="V184" t="s">
+        <v>56</v>
+      </c>
+      <c r="W184" t="s">
+        <v>56</v>
+      </c>
+      <c r="X184" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y184" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD184" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE184" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF184" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG184" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH184" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK184" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL184" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM184" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN184" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO184" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP184" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ184" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR184" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS184" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT184" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU184" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV184" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW184" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX184" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="185" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44617</v>
+      </c>
+      <c r="C185" t="s">
+        <v>83</v>
+      </c>
+      <c r="D185" t="s">
+        <v>51</v>
+      </c>
+      <c r="E185" t="s">
+        <v>345</v>
+      </c>
+      <c r="F185" t="s">
+        <v>260</v>
+      </c>
+      <c r="G185" t="s">
+        <v>54</v>
+      </c>
+      <c r="H185" t="s">
+        <v>154</v>
+      </c>
+      <c r="I185" t="s">
+        <v>56</v>
+      </c>
+      <c r="J185" t="s">
+        <v>56</v>
+      </c>
+      <c r="K185" t="s">
+        <v>56</v>
+      </c>
+      <c r="L185" t="s">
+        <v>56</v>
+      </c>
+      <c r="M185" t="s">
+        <v>56</v>
+      </c>
+      <c r="N185" t="s">
+        <v>56</v>
+      </c>
+      <c r="O185" t="s">
+        <v>56</v>
+      </c>
+      <c r="P185" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q185" t="s">
+        <v>56</v>
+      </c>
+      <c r="R185" t="s">
+        <v>56</v>
+      </c>
+      <c r="S185" t="s">
+        <v>56</v>
+      </c>
+      <c r="T185" t="s">
+        <v>56</v>
+      </c>
+      <c r="U185" t="s">
+        <v>56</v>
+      </c>
+      <c r="V185" t="s">
+        <v>56</v>
+      </c>
+      <c r="W185" t="s">
+        <v>56</v>
+      </c>
+      <c r="X185" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y185" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA185" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB185" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC185" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD185" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE185" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF185" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH185" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK185" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL185" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM185" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN185" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO185" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP185" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ185" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR185" t="s">
+        <v>346</v>
+      </c>
+      <c r="AS185" t="s">
+        <v>347</v>
+      </c>
+      <c r="AT185" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU185" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV185" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW185" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX185" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E771634-7F88-1D43-99DB-88A3EA6BF21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B4F096-8C6F-B34B-8CE4-4409729E9D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8866" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9970" uniqueCount="377">
   <si>
     <t>cod_eve</t>
   </si>
@@ -343,6 +343,9 @@
     <t>12</t>
   </si>
   <si>
+    <t>816005003</t>
+  </si>
+  <si>
     <t>EMPRESA SOCIAL DEL ESTADO SALUD PEREIRA</t>
   </si>
   <si>
@@ -685,9 +688,6 @@
     <t>840</t>
   </si>
   <si>
-    <t>816005003</t>
-  </si>
-  <si>
     <t>CENTRO DE SALUD EL REMANSO</t>
   </si>
   <si>
@@ -1064,6 +1064,90 @@
   </si>
   <si>
     <t>CORPORACION IPS EJE CAFETERO</t>
+  </si>
+  <si>
+    <t>1108</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>AV 30 DE AGOSTO 48</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>1921</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>1922</t>
+  </si>
+  <si>
+    <t>1923</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>850</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1111</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1103</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>6600100762</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>HUSJ</t>
+  </si>
+  <si>
+    <t>8002312357</t>
+  </si>
+  <si>
+    <t>ESE HOSPITAL UNIVERSITARIO SAN JORGE DE PEREIRA</t>
+  </si>
+  <si>
+    <t>457</t>
+  </si>
+  <si>
+    <t>325</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
   </si>
   <si>
     <t>ano</t>
@@ -1484,10 +1568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX185"/>
+  <dimension ref="A1:AX208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1503,7 +1587,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -2839,10 +2923,10 @@
         <v>62</v>
       </c>
       <c r="AR9" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT9" t="s">
         <v>65</v>
@@ -2877,13 +2961,13 @@
         <v>99</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
         <v>54</v>
       </c>
       <c r="H10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
         <v>56</v>
@@ -2994,7 +3078,7 @@
         <v>103</v>
       </c>
       <c r="AS10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AT10" t="s">
         <v>65</v>
@@ -3029,13 +3113,13 @@
         <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
         <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
         <v>56</v>
@@ -3146,7 +3230,7 @@
         <v>103</v>
       </c>
       <c r="AS11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AT11" t="s">
         <v>65</v>
@@ -3187,7 +3271,7 @@
         <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
         <v>56</v>
@@ -3298,7 +3382,7 @@
         <v>103</v>
       </c>
       <c r="AS12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT12" t="s">
         <v>65</v>
@@ -3339,7 +3423,7 @@
         <v>54</v>
       </c>
       <c r="H13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I13" t="s">
         <v>50</v>
@@ -3405,7 +3489,7 @@
         <v>55</v>
       </c>
       <c r="AD13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE13" t="s">
         <v>55</v>
@@ -3417,7 +3501,7 @@
         <v>90</v>
       </c>
       <c r="AH13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI13" t="s">
         <v>56</v>
@@ -3426,7 +3510,7 @@
         <v>56</v>
       </c>
       <c r="AK13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL13" t="s">
         <v>59</v>
@@ -3450,7 +3534,7 @@
         <v>103</v>
       </c>
       <c r="AS13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT13" t="s">
         <v>65</v>
@@ -3482,7 +3566,7 @@
         <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
         <v>68</v>
@@ -3491,7 +3575,7 @@
         <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
         <v>56</v>
@@ -3599,10 +3683,10 @@
         <v>62</v>
       </c>
       <c r="AR14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT14" t="s">
         <v>65</v>
@@ -3634,16 +3718,16 @@
         <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
         <v>54</v>
       </c>
       <c r="H15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
         <v>50</v>
@@ -3709,7 +3793,7 @@
         <v>55</v>
       </c>
       <c r="AD15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AE15" t="s">
         <v>55</v>
@@ -3721,7 +3805,7 @@
         <v>102</v>
       </c>
       <c r="AH15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AI15" t="s">
         <v>56</v>
@@ -3730,7 +3814,7 @@
         <v>56</v>
       </c>
       <c r="AK15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="s">
         <v>59</v>
@@ -3751,10 +3835,10 @@
         <v>62</v>
       </c>
       <c r="AR15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT15" t="s">
         <v>65</v>
@@ -3786,7 +3870,7 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F16" t="s">
         <v>68</v>
@@ -3795,7 +3879,7 @@
         <v>54</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I16" t="s">
         <v>56</v>
@@ -3903,10 +3987,10 @@
         <v>62</v>
       </c>
       <c r="AR16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT16" t="s">
         <v>65</v>
@@ -3938,7 +4022,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s">
         <v>68</v>
@@ -3947,7 +4031,7 @@
         <v>54</v>
       </c>
       <c r="H17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="I17" t="s">
         <v>50</v>
@@ -4013,7 +4097,7 @@
         <v>55</v>
       </c>
       <c r="AD17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE17" t="s">
         <v>55</v>
@@ -4025,7 +4109,7 @@
         <v>106</v>
       </c>
       <c r="AH17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI17" t="s">
         <v>56</v>
@@ -4034,7 +4118,7 @@
         <v>56</v>
       </c>
       <c r="AK17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL17" t="s">
         <v>59</v>
@@ -4052,28 +4136,28 @@
         <v>44572</v>
       </c>
       <c r="AQ17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AR17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV17" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX17" t="s">
         <v>136</v>
-      </c>
-      <c r="AS17" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV17" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW17" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.15">
@@ -4090,7 +4174,7 @@
         <v>51</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s">
         <v>68</v>
@@ -4099,7 +4183,7 @@
         <v>54</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
         <v>56</v>
@@ -4120,7 +4204,7 @@
         <v>71</v>
       </c>
       <c r="O18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P18" t="s">
         <v>102</v>
@@ -4165,19 +4249,19 @@
         <v>55</v>
       </c>
       <c r="AD18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AE18" t="s">
         <v>55</v>
       </c>
       <c r="AF18" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG18" t="s">
         <v>85</v>
       </c>
       <c r="AH18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AI18" t="s">
         <v>56</v>
@@ -4186,7 +4270,7 @@
         <v>56</v>
       </c>
       <c r="AK18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AL18" t="s">
         <v>59</v>
@@ -4195,7 +4279,7 @@
         <v>60</v>
       </c>
       <c r="AN18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO18" t="s">
         <v>56</v>
@@ -4207,10 +4291,10 @@
         <v>62</v>
       </c>
       <c r="AR18" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS18" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT18" t="s">
         <v>65</v>
@@ -4242,7 +4326,7 @@
         <v>51</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
@@ -4359,10 +4443,10 @@
         <v>62</v>
       </c>
       <c r="AR19" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS19" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT19" t="s">
         <v>65</v>
@@ -4394,7 +4478,7 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s">
         <v>100</v>
@@ -4403,7 +4487,7 @@
         <v>54</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
         <v>56</v>
@@ -4475,7 +4559,7 @@
         <v>55</v>
       </c>
       <c r="AF20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG20" t="s">
         <v>72</v>
@@ -4511,10 +4595,10 @@
         <v>62</v>
       </c>
       <c r="AR20" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT20" t="s">
         <v>65</v>
@@ -4546,7 +4630,7 @@
         <v>51</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F21" t="s">
         <v>68</v>
@@ -4555,7 +4639,7 @@
         <v>54</v>
       </c>
       <c r="H21" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I21" t="s">
         <v>58</v>
@@ -4603,7 +4687,7 @@
         <v>106</v>
       </c>
       <c r="X21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Y21" t="s">
         <v>56</v>
@@ -4621,20 +4705,20 @@
         <v>55</v>
       </c>
       <c r="AD21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AE21" t="s">
         <v>55</v>
       </c>
       <c r="AF21" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG21" t="s">
+        <v>158</v>
+      </c>
+      <c r="AH21" t="s">
         <v>156</v>
       </c>
-      <c r="AG21" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>155</v>
-      </c>
       <c r="AI21" t="s">
         <v>56</v>
       </c>
@@ -4642,7 +4726,7 @@
         <v>56</v>
       </c>
       <c r="AK21" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL21" t="s">
         <v>59</v>
@@ -4663,10 +4747,10 @@
         <v>62</v>
       </c>
       <c r="AR21" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AS21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AT21" t="s">
         <v>65</v>
@@ -4698,7 +4782,7 @@
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
         <v>68</v>
@@ -4803,7 +4887,7 @@
         <v>60</v>
       </c>
       <c r="AN22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO22" t="s">
         <v>56</v>
@@ -4815,10 +4899,10 @@
         <v>62</v>
       </c>
       <c r="AR22" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS22" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT22" t="s">
         <v>65</v>
@@ -4859,7 +4943,7 @@
         <v>54</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I23" t="s">
         <v>50</v>
@@ -4931,7 +5015,7 @@
         <v>55</v>
       </c>
       <c r="AF23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG23" t="s">
         <v>71</v>
@@ -5002,7 +5086,7 @@
         <v>51</v>
       </c>
       <c r="E24" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
         <v>68</v>
@@ -5011,7 +5095,7 @@
         <v>54</v>
       </c>
       <c r="H24" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I24" t="s">
         <v>56</v>
@@ -5119,10 +5203,10 @@
         <v>62</v>
       </c>
       <c r="AR24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT24" t="s">
         <v>65</v>
@@ -5154,7 +5238,7 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" t="s">
         <v>100</v>
@@ -5163,7 +5247,7 @@
         <v>54</v>
       </c>
       <c r="H25" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I25" t="s">
         <v>56</v>
@@ -5271,10 +5355,10 @@
         <v>62</v>
       </c>
       <c r="AR25" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT25" t="s">
         <v>65</v>
@@ -5306,7 +5390,7 @@
         <v>51</v>
       </c>
       <c r="E26" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
@@ -5315,7 +5399,7 @@
         <v>54</v>
       </c>
       <c r="H26" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="I26" t="s">
         <v>56</v>
@@ -5390,7 +5474,7 @@
         <v>58</v>
       </c>
       <c r="AG26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH26" t="s">
         <v>81</v>
@@ -5420,28 +5504,28 @@
         <v>44578</v>
       </c>
       <c r="AQ26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AR26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX26" t="s">
         <v>136</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV26" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX26" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.15">
@@ -5458,7 +5542,7 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F27" t="s">
         <v>95</v>
@@ -5467,7 +5551,7 @@
         <v>54</v>
       </c>
       <c r="H27" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I27" t="s">
         <v>56</v>
@@ -5575,10 +5659,10 @@
         <v>62</v>
       </c>
       <c r="AR27" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS27" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT27" t="s">
         <v>65</v>
@@ -5619,7 +5703,7 @@
         <v>54</v>
       </c>
       <c r="H28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I28" t="s">
         <v>56</v>
@@ -5765,13 +5849,13 @@
         <v>99</v>
       </c>
       <c r="F29" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G29" t="s">
         <v>54</v>
       </c>
       <c r="H29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I29" t="s">
         <v>56</v>
@@ -5882,7 +5966,7 @@
         <v>103</v>
       </c>
       <c r="AS29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT29" t="s">
         <v>65</v>
@@ -5914,7 +5998,7 @@
         <v>51</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F30" t="s">
         <v>68</v>
@@ -5923,7 +6007,7 @@
         <v>54</v>
       </c>
       <c r="H30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I30" t="s">
         <v>56</v>
@@ -6031,10 +6115,10 @@
         <v>62</v>
       </c>
       <c r="AR30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AS30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AT30" t="s">
         <v>65</v>
@@ -6066,7 +6150,7 @@
         <v>51</v>
       </c>
       <c r="E31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F31" t="s">
         <v>68</v>
@@ -6183,10 +6267,10 @@
         <v>62</v>
       </c>
       <c r="AR31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AS31" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AT31" t="s">
         <v>65</v>
@@ -6218,7 +6302,7 @@
         <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F32" t="s">
         <v>68</v>
@@ -6299,10 +6383,10 @@
         <v>55</v>
       </c>
       <c r="AF32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH32" t="s">
         <v>75</v>
@@ -6323,7 +6407,7 @@
         <v>60</v>
       </c>
       <c r="AN32" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO32" t="s">
         <v>56</v>
@@ -6335,10 +6419,10 @@
         <v>62</v>
       </c>
       <c r="AR32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS32" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT32" t="s">
         <v>65</v>
@@ -6379,7 +6463,7 @@
         <v>54</v>
       </c>
       <c r="H33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I33" t="s">
         <v>50</v>
@@ -6484,7 +6568,7 @@
         <v>44578</v>
       </c>
       <c r="AQ33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR33" t="s">
         <v>91</v>
@@ -6505,7 +6589,7 @@
         <v>66</v>
       </c>
       <c r="AX33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.15">
@@ -6531,7 +6615,7 @@
         <v>54</v>
       </c>
       <c r="H34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I34" t="s">
         <v>56</v>
@@ -6642,7 +6726,7 @@
         <v>91</v>
       </c>
       <c r="AS34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT34" t="s">
         <v>65</v>
@@ -6674,7 +6758,7 @@
         <v>51</v>
       </c>
       <c r="E35" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F35" t="s">
         <v>68</v>
@@ -6683,7 +6767,7 @@
         <v>54</v>
       </c>
       <c r="H35" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I35" t="s">
         <v>50</v>
@@ -6791,10 +6875,10 @@
         <v>62</v>
       </c>
       <c r="AR35" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT35" t="s">
         <v>65</v>
@@ -6859,7 +6943,7 @@
         <v>50</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36" t="s">
         <v>56</v>
@@ -7095,10 +7179,10 @@
         <v>62</v>
       </c>
       <c r="AR37" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS37" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT37" t="s">
         <v>65</v>
@@ -7130,10 +7214,10 @@
         <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F38" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G38" t="s">
         <v>54</v>
@@ -7205,19 +7289,19 @@
         <v>55</v>
       </c>
       <c r="AD38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE38" t="s">
         <v>55</v>
       </c>
       <c r="AF38" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG38" t="s">
         <v>81</v>
       </c>
       <c r="AH38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI38" t="s">
         <v>56</v>
@@ -7226,7 +7310,7 @@
         <v>56</v>
       </c>
       <c r="AK38" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL38" t="s">
         <v>59</v>
@@ -7235,7 +7319,7 @@
         <v>60</v>
       </c>
       <c r="AN38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO38" t="s">
         <v>56</v>
@@ -7247,10 +7331,10 @@
         <v>62</v>
       </c>
       <c r="AR38" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT38" t="s">
         <v>65</v>
@@ -7291,7 +7375,7 @@
         <v>54</v>
       </c>
       <c r="H39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I39" t="s">
         <v>50</v>
@@ -7357,7 +7441,7 @@
         <v>55</v>
       </c>
       <c r="AD39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE39" t="s">
         <v>55</v>
@@ -7369,7 +7453,7 @@
         <v>83</v>
       </c>
       <c r="AH39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI39" t="s">
         <v>56</v>
@@ -7378,7 +7462,7 @@
         <v>56</v>
       </c>
       <c r="AK39" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL39" t="s">
         <v>59</v>
@@ -7402,7 +7486,7 @@
         <v>103</v>
       </c>
       <c r="AS39" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT39" t="s">
         <v>65</v>
@@ -7437,13 +7521,13 @@
         <v>99</v>
       </c>
       <c r="F40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
         <v>54</v>
       </c>
       <c r="H40" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I40" t="s">
         <v>56</v>
@@ -7554,7 +7638,7 @@
         <v>103</v>
       </c>
       <c r="AS40" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT40" t="s">
         <v>65</v>
@@ -7595,7 +7679,7 @@
         <v>54</v>
       </c>
       <c r="H41" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I41" t="s">
         <v>57</v>
@@ -7613,7 +7697,7 @@
         <v>50</v>
       </c>
       <c r="N41" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O41" t="s">
         <v>72</v>
@@ -7661,7 +7745,7 @@
         <v>55</v>
       </c>
       <c r="AD41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE41" t="s">
         <v>55</v>
@@ -7670,10 +7754,10 @@
         <v>74</v>
       </c>
       <c r="AG41" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AH41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AI41" t="s">
         <v>56</v>
@@ -7682,7 +7766,7 @@
         <v>56</v>
       </c>
       <c r="AK41" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL41" t="s">
         <v>59</v>
@@ -7747,7 +7831,7 @@
         <v>54</v>
       </c>
       <c r="H42" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I42" t="s">
         <v>56</v>
@@ -7819,7 +7903,7 @@
         <v>55</v>
       </c>
       <c r="AF42" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG42" t="s">
         <v>72</v>
@@ -7899,19 +7983,19 @@
         <v>54</v>
       </c>
       <c r="H43" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I43" t="s">
         <v>102</v>
       </c>
       <c r="J43" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s">
         <v>74</v>
       </c>
       <c r="L43" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M43" t="s">
         <v>58</v>
@@ -7965,19 +8049,19 @@
         <v>55</v>
       </c>
       <c r="AD43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AE43" t="s">
         <v>55</v>
       </c>
       <c r="AF43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AG43" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH43" t="s">
         <v>194</v>
-      </c>
-      <c r="AG43" t="s">
-        <v>195</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>193</v>
       </c>
       <c r="AI43" t="s">
         <v>56</v>
@@ -7986,7 +8070,7 @@
         <v>72</v>
       </c>
       <c r="AK43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AL43" t="s">
         <v>59</v>
@@ -8042,7 +8126,7 @@
         <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F44" t="s">
         <v>68</v>
@@ -8051,7 +8135,7 @@
         <v>54</v>
       </c>
       <c r="H44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I44" t="s">
         <v>56</v>
@@ -8117,19 +8201,19 @@
         <v>55</v>
       </c>
       <c r="AD44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE44" t="s">
         <v>55</v>
       </c>
       <c r="AF44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AI44" t="s">
         <v>56</v>
@@ -8138,7 +8222,7 @@
         <v>56</v>
       </c>
       <c r="AK44" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s">
         <v>59</v>
@@ -8147,7 +8231,7 @@
         <v>60</v>
       </c>
       <c r="AN44" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO44" t="s">
         <v>56</v>
@@ -8159,10 +8243,10 @@
         <v>62</v>
       </c>
       <c r="AR44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT44" t="s">
         <v>65</v>
@@ -8194,7 +8278,7 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F45" t="s">
         <v>68</v>
@@ -8269,7 +8353,7 @@
         <v>55</v>
       </c>
       <c r="AD45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE45" t="s">
         <v>55</v>
@@ -8278,10 +8362,10 @@
         <v>89</v>
       </c>
       <c r="AG45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AH45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI45" t="s">
         <v>56</v>
@@ -8290,7 +8374,7 @@
         <v>56</v>
       </c>
       <c r="AK45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL45" t="s">
         <v>59</v>
@@ -8299,7 +8383,7 @@
         <v>60</v>
       </c>
       <c r="AN45" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO45" t="s">
         <v>56</v>
@@ -8311,10 +8395,10 @@
         <v>62</v>
       </c>
       <c r="AR45" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT45" t="s">
         <v>65</v>
@@ -8346,7 +8430,7 @@
         <v>51</v>
       </c>
       <c r="E46" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F46" t="s">
         <v>68</v>
@@ -8421,7 +8505,7 @@
         <v>55</v>
       </c>
       <c r="AD46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AE46" t="s">
         <v>55</v>
@@ -8433,7 +8517,7 @@
         <v>90</v>
       </c>
       <c r="AH46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AI46" t="s">
         <v>56</v>
@@ -8442,7 +8526,7 @@
         <v>56</v>
       </c>
       <c r="AK46" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AL46" t="s">
         <v>59</v>
@@ -8451,7 +8535,7 @@
         <v>60</v>
       </c>
       <c r="AN46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO46" t="s">
         <v>56</v>
@@ -8463,10 +8547,10 @@
         <v>62</v>
       </c>
       <c r="AR46" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS46" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT46" t="s">
         <v>65</v>
@@ -8498,7 +8582,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F47" t="s">
         <v>68</v>
@@ -8507,7 +8591,7 @@
         <v>54</v>
       </c>
       <c r="H47" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I47" t="s">
         <v>56</v>
@@ -8615,10 +8699,10 @@
         <v>62</v>
       </c>
       <c r="AR47" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT47" t="s">
         <v>65</v>
@@ -8650,7 +8734,7 @@
         <v>51</v>
       </c>
       <c r="E48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
         <v>100</v>
@@ -8659,7 +8743,7 @@
         <v>54</v>
       </c>
       <c r="H48" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I48" t="s">
         <v>56</v>
@@ -8767,10 +8851,10 @@
         <v>62</v>
       </c>
       <c r="AR48" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT48" t="s">
         <v>65</v>
@@ -8802,7 +8886,7 @@
         <v>51</v>
       </c>
       <c r="E49" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F49" t="s">
         <v>68</v>
@@ -8811,7 +8895,7 @@
         <v>54</v>
       </c>
       <c r="H49" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I49" t="s">
         <v>50</v>
@@ -8916,28 +9000,28 @@
         <v>44585</v>
       </c>
       <c r="AQ49" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AR49" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX49" t="s">
         <v>136</v>
-      </c>
-      <c r="AS49" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT49" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU49" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV49" t="s">
-        <v>65</v>
-      </c>
-      <c r="AW49" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX49" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.15">
@@ -8957,7 +9041,7 @@
         <v>99</v>
       </c>
       <c r="F50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -9074,7 +9158,7 @@
         <v>103</v>
       </c>
       <c r="AS50" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT50" t="s">
         <v>65</v>
@@ -9115,7 +9199,7 @@
         <v>54</v>
       </c>
       <c r="H51" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I51" t="s">
         <v>56</v>
@@ -9181,7 +9265,7 @@
         <v>55</v>
       </c>
       <c r="AD51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE51" t="s">
         <v>55</v>
@@ -9193,7 +9277,7 @@
         <v>70</v>
       </c>
       <c r="AH51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI51" t="s">
         <v>56</v>
@@ -9202,7 +9286,7 @@
         <v>56</v>
       </c>
       <c r="AK51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL51" t="s">
         <v>59</v>
@@ -9258,7 +9342,7 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F52" t="s">
         <v>68</v>
@@ -9267,13 +9351,13 @@
         <v>54</v>
       </c>
       <c r="H52" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I52" t="s">
         <v>56</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K52" t="s">
         <v>83</v>
@@ -9306,7 +9390,7 @@
         <v>56</v>
       </c>
       <c r="U52" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="V52" t="s">
         <v>57</v>
@@ -9333,19 +9417,19 @@
         <v>55</v>
       </c>
       <c r="AD52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AE52" t="s">
         <v>55</v>
       </c>
       <c r="AF52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG52" t="s">
         <v>84</v>
       </c>
       <c r="AH52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AI52" t="s">
         <v>56</v>
@@ -9354,7 +9438,7 @@
         <v>56</v>
       </c>
       <c r="AK52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AL52" t="s">
         <v>59</v>
@@ -9375,10 +9459,10 @@
         <v>62</v>
       </c>
       <c r="AR52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AS52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AT52" t="s">
         <v>65</v>
@@ -9410,7 +9494,7 @@
         <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F53" t="s">
         <v>68</v>
@@ -9419,13 +9503,13 @@
         <v>54</v>
       </c>
       <c r="H53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I53" t="s">
         <v>50</v>
       </c>
       <c r="J53" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K53" t="s">
         <v>81</v>
@@ -9473,7 +9557,7 @@
         <v>71</v>
       </c>
       <c r="Z53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA53" t="s">
         <v>55</v>
@@ -9485,20 +9569,20 @@
         <v>55</v>
       </c>
       <c r="AD53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AE53" t="s">
         <v>55</v>
       </c>
       <c r="AF53" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG53" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH53" t="s">
         <v>210</v>
       </c>
-      <c r="AG53" t="s">
-        <v>211</v>
-      </c>
-      <c r="AH53" t="s">
-        <v>209</v>
-      </c>
       <c r="AI53" t="s">
         <v>56</v>
       </c>
@@ -9506,7 +9590,7 @@
         <v>56</v>
       </c>
       <c r="AK53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL53" t="s">
         <v>59</v>
@@ -9527,10 +9611,10 @@
         <v>62</v>
       </c>
       <c r="AR53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AS53" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AT53" t="s">
         <v>65</v>
@@ -9562,7 +9646,7 @@
         <v>51</v>
       </c>
       <c r="E54" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F54" t="s">
         <v>95</v>
@@ -9571,7 +9655,7 @@
         <v>54</v>
       </c>
       <c r="H54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I54" t="s">
         <v>56</v>
@@ -9679,10 +9763,10 @@
         <v>62</v>
       </c>
       <c r="AR54" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT54" t="s">
         <v>65</v>
@@ -9714,7 +9798,7 @@
         <v>51</v>
       </c>
       <c r="E55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F55" t="s">
         <v>68</v>
@@ -9831,10 +9915,10 @@
         <v>62</v>
       </c>
       <c r="AR55" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AS55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AT55" t="s">
         <v>65</v>
@@ -9866,7 +9950,7 @@
         <v>51</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F56" t="s">
         <v>68</v>
@@ -9971,7 +10055,7 @@
         <v>60</v>
       </c>
       <c r="AN56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AO56" t="s">
         <v>56</v>
@@ -9983,10 +10067,10 @@
         <v>62</v>
       </c>
       <c r="AR56" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS56" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT56" t="s">
         <v>65</v>
@@ -10027,7 +10111,7 @@
         <v>54</v>
       </c>
       <c r="H57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I57" t="s">
         <v>56</v>
@@ -10179,7 +10263,7 @@
         <v>54</v>
       </c>
       <c r="H58" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I58" t="s">
         <v>56</v>
@@ -10290,7 +10374,7 @@
         <v>91</v>
       </c>
       <c r="AS58" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT58" t="s">
         <v>65</v>
@@ -10322,7 +10406,7 @@
         <v>51</v>
       </c>
       <c r="E59" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F59" t="s">
         <v>68</v>
@@ -10331,7 +10415,7 @@
         <v>54</v>
       </c>
       <c r="H59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="I59" t="s">
         <v>56</v>
@@ -10439,10 +10523,10 @@
         <v>62</v>
       </c>
       <c r="AR59" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS59" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT59" t="s">
         <v>65</v>
@@ -10483,7 +10567,7 @@
         <v>54</v>
       </c>
       <c r="H60" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I60" t="s">
         <v>57</v>
@@ -10591,10 +10675,10 @@
         <v>62</v>
       </c>
       <c r="AR60" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS60" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT60" t="s">
         <v>65</v>
@@ -10635,7 +10719,7 @@
         <v>54</v>
       </c>
       <c r="H61" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I61" t="s">
         <v>56</v>
@@ -10746,7 +10830,7 @@
         <v>103</v>
       </c>
       <c r="AS61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT61" t="s">
         <v>65</v>
@@ -10781,7 +10865,7 @@
         <v>54</v>
       </c>
       <c r="H62" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I62" t="s">
         <v>71</v>
@@ -10847,7 +10931,7 @@
         <v>55</v>
       </c>
       <c r="AD62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AE62" t="s">
         <v>55</v>
@@ -10859,7 +10943,7 @@
         <v>83</v>
       </c>
       <c r="AH62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AI62" t="s">
         <v>56</v>
@@ -10868,7 +10952,7 @@
         <v>56</v>
       </c>
       <c r="AK62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AL62" t="s">
         <v>59</v>
@@ -10892,7 +10976,7 @@
         <v>103</v>
       </c>
       <c r="AS62" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT62" t="s">
         <v>65</v>
@@ -10927,13 +11011,13 @@
         <v>99</v>
       </c>
       <c r="F63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G63" t="s">
         <v>54</v>
       </c>
       <c r="H63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I63" t="s">
         <v>56</v>
@@ -11044,7 +11128,7 @@
         <v>103</v>
       </c>
       <c r="AS63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT63" t="s">
         <v>65</v>
@@ -11085,7 +11169,7 @@
         <v>54</v>
       </c>
       <c r="H64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I64" t="s">
         <v>56</v>
@@ -11193,7 +11277,7 @@
         <v>62</v>
       </c>
       <c r="AR64" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="AS64" t="s">
         <v>222</v>
@@ -11228,10 +11312,10 @@
         <v>51</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G65" t="s">
         <v>54</v>
@@ -11303,7 +11387,7 @@
         <v>55</v>
       </c>
       <c r="AD65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE65" t="s">
         <v>55</v>
@@ -11315,7 +11399,7 @@
         <v>70</v>
       </c>
       <c r="AH65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI65" t="s">
         <v>56</v>
@@ -11324,7 +11408,7 @@
         <v>56</v>
       </c>
       <c r="AK65" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL65" t="s">
         <v>59</v>
@@ -11345,10 +11429,10 @@
         <v>62</v>
       </c>
       <c r="AR65" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS65" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT65" t="s">
         <v>65</v>
@@ -11699,7 +11783,7 @@
         <v>72</v>
       </c>
       <c r="J68" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K68" t="s">
         <v>70</v>
@@ -11780,7 +11864,7 @@
         <v>58</v>
       </c>
       <c r="AK68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL68" t="s">
         <v>59</v>
@@ -11836,7 +11920,7 @@
         <v>51</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F69" t="s">
         <v>68</v>
@@ -11851,7 +11935,7 @@
         <v>56</v>
       </c>
       <c r="J69" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K69" t="s">
         <v>102</v>
@@ -11911,19 +11995,19 @@
         <v>55</v>
       </c>
       <c r="AD69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AE69" t="s">
         <v>55</v>
       </c>
       <c r="AF69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AI69" t="s">
         <v>56</v>
@@ -11932,7 +12016,7 @@
         <v>56</v>
       </c>
       <c r="AK69" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AL69" t="s">
         <v>59</v>
@@ -11941,7 +12025,7 @@
         <v>60</v>
       </c>
       <c r="AN69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO69" t="s">
         <v>56</v>
@@ -11953,10 +12037,10 @@
         <v>62</v>
       </c>
       <c r="AR69" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS69" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT69" t="s">
         <v>65</v>
@@ -12140,7 +12224,7 @@
         <v>51</v>
       </c>
       <c r="E71" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F71" t="s">
         <v>68</v>
@@ -12149,7 +12233,7 @@
         <v>54</v>
       </c>
       <c r="H71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I71" t="s">
         <v>56</v>
@@ -12245,7 +12329,7 @@
         <v>60</v>
       </c>
       <c r="AN71" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AO71" t="s">
         <v>56</v>
@@ -12257,10 +12341,10 @@
         <v>62</v>
       </c>
       <c r="AR71" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS71" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT71" t="s">
         <v>65</v>
@@ -12292,7 +12376,7 @@
         <v>51</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F72" t="s">
         <v>68</v>
@@ -12409,10 +12493,10 @@
         <v>233</v>
       </c>
       <c r="AR72" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS72" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT72" t="s">
         <v>65</v>
@@ -12444,7 +12528,7 @@
         <v>51</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
         <v>100</v>
@@ -12561,10 +12645,10 @@
         <v>235</v>
       </c>
       <c r="AR73" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS73" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT73" t="s">
         <v>65</v>
@@ -12596,7 +12680,7 @@
         <v>51</v>
       </c>
       <c r="E74" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F74" t="s">
         <v>68</v>
@@ -12680,7 +12764,7 @@
         <v>70</v>
       </c>
       <c r="AG74" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH74" t="s">
         <v>106</v>
@@ -12713,10 +12797,10 @@
         <v>62</v>
       </c>
       <c r="AR74" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS74" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT74" t="s">
         <v>65</v>
@@ -12975,7 +13059,7 @@
         <v>55</v>
       </c>
       <c r="AD76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE76" t="s">
         <v>55</v>
@@ -12987,7 +13071,7 @@
         <v>50</v>
       </c>
       <c r="AH76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI76" t="s">
         <v>56</v>
@@ -12996,7 +13080,7 @@
         <v>56</v>
       </c>
       <c r="AK76" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL76" t="s">
         <v>59</v>
@@ -13014,7 +13098,7 @@
         <v>44585</v>
       </c>
       <c r="AQ76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR76" t="s">
         <v>97</v>
@@ -13035,7 +13119,7 @@
         <v>66</v>
       </c>
       <c r="AX76" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.15">
@@ -13127,7 +13211,7 @@
         <v>55</v>
       </c>
       <c r="AD77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE77" t="s">
         <v>55</v>
@@ -13136,10 +13220,10 @@
         <v>81</v>
       </c>
       <c r="AG77" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI77" t="s">
         <v>56</v>
@@ -13148,7 +13232,7 @@
         <v>56</v>
       </c>
       <c r="AK77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL77" t="s">
         <v>59</v>
@@ -13204,10 +13288,10 @@
         <v>51</v>
       </c>
       <c r="E78" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F78" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G78" t="s">
         <v>54</v>
@@ -13321,10 +13405,10 @@
         <v>233</v>
       </c>
       <c r="AR78" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS78" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT78" t="s">
         <v>65</v>
@@ -13356,7 +13440,7 @@
         <v>51</v>
       </c>
       <c r="E79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F79" t="s">
         <v>95</v>
@@ -13473,10 +13557,10 @@
         <v>62</v>
       </c>
       <c r="AR79" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS79" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT79" t="s">
         <v>65</v>
@@ -13538,7 +13622,7 @@
         <v>70</v>
       </c>
       <c r="O80" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P80" t="s">
         <v>57</v>
@@ -13583,19 +13667,19 @@
         <v>55</v>
       </c>
       <c r="AD80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AE80" t="s">
         <v>55</v>
       </c>
       <c r="AF80" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG80" t="s">
         <v>226</v>
       </c>
       <c r="AH80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AI80" t="s">
         <v>56</v>
@@ -13604,7 +13688,7 @@
         <v>56</v>
       </c>
       <c r="AK80" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AL80" t="s">
         <v>59</v>
@@ -13735,7 +13819,7 @@
         <v>55</v>
       </c>
       <c r="AD81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE81" t="s">
         <v>55</v>
@@ -13747,7 +13831,7 @@
         <v>58</v>
       </c>
       <c r="AH81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI81" t="s">
         <v>56</v>
@@ -13756,7 +13840,7 @@
         <v>56</v>
       </c>
       <c r="AK81" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL81" t="s">
         <v>59</v>
@@ -13893,7 +13977,7 @@
         <v>55</v>
       </c>
       <c r="AF82" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG82" t="s">
         <v>247</v>
@@ -14131,7 +14215,7 @@
         <v>58</v>
       </c>
       <c r="J84" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K84" t="s">
         <v>71</v>
@@ -14236,7 +14320,7 @@
         <v>103</v>
       </c>
       <c r="AS84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT84" t="s">
         <v>65</v>
@@ -14271,7 +14355,7 @@
         <v>99</v>
       </c>
       <c r="F85" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G85" t="s">
         <v>54</v>
@@ -14388,7 +14472,7 @@
         <v>103</v>
       </c>
       <c r="AS85" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT85" t="s">
         <v>65</v>
@@ -14537,7 +14621,7 @@
         <v>233</v>
       </c>
       <c r="AR86" t="s">
-        <v>221</v>
+        <v>107</v>
       </c>
       <c r="AS86" t="s">
         <v>222</v>
@@ -14689,10 +14773,10 @@
         <v>235</v>
       </c>
       <c r="AR87" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT87" t="s">
         <v>65</v>
@@ -14727,13 +14811,13 @@
         <v>99</v>
       </c>
       <c r="F88" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G88" t="s">
         <v>54</v>
       </c>
       <c r="H88" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I88" t="s">
         <v>56</v>
@@ -14844,7 +14928,7 @@
         <v>103</v>
       </c>
       <c r="AS88" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AT88" t="s">
         <v>65</v>
@@ -14990,7 +15074,7 @@
         <v>103</v>
       </c>
       <c r="AS89" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT89" t="s">
         <v>65</v>
@@ -15016,7 +15100,7 @@
         <v>51</v>
       </c>
       <c r="E90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F90" t="s">
         <v>68</v>
@@ -15055,7 +15139,7 @@
         <v>71</v>
       </c>
       <c r="R90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="S90" t="s">
         <v>57</v>
@@ -15091,7 +15175,7 @@
         <v>55</v>
       </c>
       <c r="AD90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AE90" t="s">
         <v>55</v>
@@ -15100,10 +15184,10 @@
         <v>85</v>
       </c>
       <c r="AG90" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AI90" t="s">
         <v>56</v>
@@ -15112,7 +15196,7 @@
         <v>56</v>
       </c>
       <c r="AK90" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL90" t="s">
         <v>59</v>
@@ -15121,7 +15205,7 @@
         <v>60</v>
       </c>
       <c r="AN90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO90" t="s">
         <v>56</v>
@@ -15133,10 +15217,10 @@
         <v>235</v>
       </c>
       <c r="AR90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS90" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT90" t="s">
         <v>65</v>
@@ -15168,7 +15252,7 @@
         <v>51</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F91" t="s">
         <v>68</v>
@@ -15243,7 +15327,7 @@
         <v>55</v>
       </c>
       <c r="AD91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE91" t="s">
         <v>55</v>
@@ -15255,7 +15339,7 @@
         <v>70</v>
       </c>
       <c r="AH91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI91" t="s">
         <v>56</v>
@@ -15264,7 +15348,7 @@
         <v>56</v>
       </c>
       <c r="AK91" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL91" t="s">
         <v>59</v>
@@ -15273,7 +15357,7 @@
         <v>60</v>
       </c>
       <c r="AN91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO91" t="s">
         <v>56</v>
@@ -15285,10 +15369,10 @@
         <v>233</v>
       </c>
       <c r="AR91" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS91" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT91" t="s">
         <v>65</v>
@@ -15320,7 +15404,7 @@
         <v>51</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F92" t="s">
         <v>100</v>
@@ -15437,10 +15521,10 @@
         <v>235</v>
       </c>
       <c r="AR92" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS92" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT92" t="s">
         <v>65</v>
@@ -15556,7 +15640,7 @@
         <v>71</v>
       </c>
       <c r="AG93" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH93" t="s">
         <v>102</v>
@@ -15592,7 +15676,7 @@
         <v>91</v>
       </c>
       <c r="AS93" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT93" t="s">
         <v>65</v>
@@ -15699,7 +15783,7 @@
         <v>55</v>
       </c>
       <c r="AD94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE94" t="s">
         <v>55</v>
@@ -15711,7 +15795,7 @@
         <v>102</v>
       </c>
       <c r="AH94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI94" t="s">
         <v>56</v>
@@ -15720,7 +15804,7 @@
         <v>56</v>
       </c>
       <c r="AK94" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL94" t="s">
         <v>59</v>
@@ -15776,7 +15860,7 @@
         <v>51</v>
       </c>
       <c r="E95" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F95" t="s">
         <v>68</v>
@@ -15893,10 +15977,10 @@
         <v>235</v>
       </c>
       <c r="AR95" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS95" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT95" t="s">
         <v>65</v>
@@ -16226,7 +16310,7 @@
         <v>51</v>
       </c>
       <c r="E98" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F98" t="s">
         <v>68</v>
@@ -16343,10 +16427,10 @@
         <v>235</v>
       </c>
       <c r="AR98" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS98" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT98" t="s">
         <v>65</v>
@@ -16682,7 +16766,7 @@
         <v>51</v>
       </c>
       <c r="E101" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F101" t="s">
         <v>68</v>
@@ -16799,10 +16883,10 @@
         <v>235</v>
       </c>
       <c r="AR101" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT101" t="s">
         <v>65</v>
@@ -16834,7 +16918,7 @@
         <v>51</v>
       </c>
       <c r="E102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F102" t="s">
         <v>100</v>
@@ -16843,7 +16927,7 @@
         <v>54</v>
       </c>
       <c r="H102" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I102" t="s">
         <v>56</v>
@@ -16951,10 +17035,10 @@
         <v>235</v>
       </c>
       <c r="AR102" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS102" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT102" t="s">
         <v>65</v>
@@ -16986,7 +17070,7 @@
         <v>51</v>
       </c>
       <c r="E103" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F103" t="s">
         <v>68</v>
@@ -17103,10 +17187,10 @@
         <v>235</v>
       </c>
       <c r="AR103" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS103" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT103" t="s">
         <v>65</v>
@@ -17442,10 +17526,10 @@
         <v>51</v>
       </c>
       <c r="E106" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F106" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G106" t="s">
         <v>54</v>
@@ -17526,7 +17610,7 @@
         <v>70</v>
       </c>
       <c r="AG106" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH106" t="s">
         <v>106</v>
@@ -17559,10 +17643,10 @@
         <v>235</v>
       </c>
       <c r="AR106" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT106" t="s">
         <v>65</v>
@@ -17594,7 +17678,7 @@
         <v>51</v>
       </c>
       <c r="E107" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F107" t="s">
         <v>95</v>
@@ -17603,7 +17687,7 @@
         <v>54</v>
       </c>
       <c r="H107" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I107" t="s">
         <v>56</v>
@@ -17711,10 +17795,10 @@
         <v>233</v>
       </c>
       <c r="AR107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS107" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT107" t="s">
         <v>65</v>
@@ -17791,7 +17875,7 @@
         <v>71</v>
       </c>
       <c r="T108" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="U108" t="s">
         <v>58</v>
@@ -17827,7 +17911,7 @@
         <v>55</v>
       </c>
       <c r="AF108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG108" t="s">
         <v>226</v>
@@ -17860,7 +17944,7 @@
         <v>44599</v>
       </c>
       <c r="AQ108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR108" t="s">
         <v>76</v>
@@ -17881,7 +17965,7 @@
         <v>66</v>
       </c>
       <c r="AX108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="109" spans="1:50" x14ac:dyDescent="0.15">
@@ -18012,7 +18096,7 @@
         <v>44599</v>
       </c>
       <c r="AQ109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR109" t="s">
         <v>76</v>
@@ -18033,7 +18117,7 @@
         <v>66</v>
       </c>
       <c r="AX109" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:50" x14ac:dyDescent="0.15">
@@ -18065,10 +18149,10 @@
         <v>72</v>
       </c>
       <c r="J110" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K110" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L110" t="s">
         <v>70</v>
@@ -18164,7 +18248,7 @@
         <v>44599</v>
       </c>
       <c r="AQ110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AR110" t="s">
         <v>76</v>
@@ -18185,7 +18269,7 @@
         <v>66</v>
       </c>
       <c r="AX110" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.15">
@@ -18322,7 +18406,7 @@
         <v>103</v>
       </c>
       <c r="AS111" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT111" t="s">
         <v>65</v>
@@ -18357,7 +18441,7 @@
         <v>99</v>
       </c>
       <c r="F112" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G112" t="s">
         <v>54</v>
@@ -18474,7 +18558,7 @@
         <v>103</v>
       </c>
       <c r="AS112" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT112" t="s">
         <v>65</v>
@@ -18623,10 +18707,10 @@
         <v>235</v>
       </c>
       <c r="AR113" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS113" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT113" t="s">
         <v>65</v>
@@ -18694,7 +18778,7 @@
         <v>56</v>
       </c>
       <c r="Q114" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="R114" t="s">
         <v>56</v>
@@ -18924,7 +19008,7 @@
         <v>103</v>
       </c>
       <c r="AS115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT115" t="s">
         <v>65</v>
@@ -18950,7 +19034,7 @@
         <v>51</v>
       </c>
       <c r="E116" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F116" t="s">
         <v>68</v>
@@ -19034,7 +19118,7 @@
         <v>226</v>
       </c>
       <c r="AG116" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AH116" t="s">
         <v>284</v>
@@ -19055,7 +19139,7 @@
         <v>60</v>
       </c>
       <c r="AN116" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO116" t="s">
         <v>56</v>
@@ -19067,10 +19151,10 @@
         <v>235</v>
       </c>
       <c r="AR116" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS116" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT116" t="s">
         <v>65</v>
@@ -19102,7 +19186,7 @@
         <v>51</v>
       </c>
       <c r="E117" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F117" t="s">
         <v>68</v>
@@ -19207,7 +19291,7 @@
         <v>60</v>
       </c>
       <c r="AN117" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO117" t="s">
         <v>56</v>
@@ -19219,10 +19303,10 @@
         <v>235</v>
       </c>
       <c r="AR117" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS117" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT117" t="s">
         <v>65</v>
@@ -19374,7 +19458,7 @@
         <v>91</v>
       </c>
       <c r="AS118" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT118" t="s">
         <v>65</v>
@@ -19558,7 +19642,7 @@
         <v>51</v>
       </c>
       <c r="E120" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F120" t="s">
         <v>68</v>
@@ -19567,7 +19651,7 @@
         <v>54</v>
       </c>
       <c r="H120" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I120" t="s">
         <v>56</v>
@@ -19675,10 +19759,10 @@
         <v>235</v>
       </c>
       <c r="AR120" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS120" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT120" t="s">
         <v>65</v>
@@ -19710,7 +19794,7 @@
         <v>51</v>
       </c>
       <c r="E121" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F121" t="s">
         <v>100</v>
@@ -19827,10 +19911,10 @@
         <v>235</v>
       </c>
       <c r="AR121" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS121" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT121" t="s">
         <v>65</v>
@@ -19862,7 +19946,7 @@
         <v>51</v>
       </c>
       <c r="E122" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F122" t="s">
         <v>68</v>
@@ -19979,10 +20063,10 @@
         <v>235</v>
       </c>
       <c r="AR122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT122" t="s">
         <v>65</v>
@@ -20014,7 +20098,7 @@
         <v>51</v>
       </c>
       <c r="E123" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F123" t="s">
         <v>100</v>
@@ -20023,7 +20107,7 @@
         <v>54</v>
       </c>
       <c r="H123" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I123" t="s">
         <v>56</v>
@@ -20131,10 +20215,10 @@
         <v>235</v>
       </c>
       <c r="AR123" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS123" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT123" t="s">
         <v>65</v>
@@ -20318,7 +20402,7 @@
         <v>51</v>
       </c>
       <c r="E125" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F125" t="s">
         <v>68</v>
@@ -20327,7 +20411,7 @@
         <v>54</v>
       </c>
       <c r="H125" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I125" t="s">
         <v>50</v>
@@ -20435,10 +20519,10 @@
         <v>235</v>
       </c>
       <c r="AR125" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS125" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT125" t="s">
         <v>65</v>
@@ -20470,7 +20554,7 @@
         <v>51</v>
       </c>
       <c r="E126" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F126" t="s">
         <v>95</v>
@@ -20587,10 +20671,10 @@
         <v>233</v>
       </c>
       <c r="AR126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT126" t="s">
         <v>65</v>
@@ -20622,7 +20706,7 @@
         <v>51</v>
       </c>
       <c r="E127" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F127" t="s">
         <v>95</v>
@@ -20739,10 +20823,10 @@
         <v>233</v>
       </c>
       <c r="AR127" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT127" t="s">
         <v>65</v>
@@ -21233,7 +21317,7 @@
         <v>99</v>
       </c>
       <c r="F131" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G131" t="s">
         <v>54</v>
@@ -21350,7 +21434,7 @@
         <v>103</v>
       </c>
       <c r="AS131" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT131" t="s">
         <v>65</v>
@@ -21463,7 +21547,7 @@
         <v>55</v>
       </c>
       <c r="AF132" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG132" t="s">
         <v>70</v>
@@ -21534,7 +21618,7 @@
         <v>51</v>
       </c>
       <c r="E133" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F133" t="s">
         <v>68</v>
@@ -21651,10 +21735,10 @@
         <v>235</v>
       </c>
       <c r="AR133" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS133" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT133" t="s">
         <v>65</v>
@@ -21919,7 +22003,7 @@
         <v>55</v>
       </c>
       <c r="AF135" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG135" t="s">
         <v>57</v>
@@ -22005,10 +22089,10 @@
         <v>50</v>
       </c>
       <c r="J136" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K136" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L136" t="s">
         <v>71</v>
@@ -22262,7 +22346,7 @@
         <v>103</v>
       </c>
       <c r="AS137" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT137" t="s">
         <v>65</v>
@@ -22297,7 +22381,7 @@
         <v>99</v>
       </c>
       <c r="F138" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G138" t="s">
         <v>54</v>
@@ -22414,7 +22498,7 @@
         <v>103</v>
       </c>
       <c r="AS138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AT138" t="s">
         <v>65</v>
@@ -22551,7 +22635,7 @@
         <v>60</v>
       </c>
       <c r="AN139" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO139" t="s">
         <v>56</v>
@@ -22563,10 +22647,10 @@
         <v>235</v>
       </c>
       <c r="AR139" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS139" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT139" t="s">
         <v>65</v>
@@ -22598,7 +22682,7 @@
         <v>51</v>
       </c>
       <c r="E140" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F140" t="s">
         <v>68</v>
@@ -22682,7 +22766,7 @@
         <v>106</v>
       </c>
       <c r="AG140" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH140" t="s">
         <v>85</v>
@@ -22703,7 +22787,7 @@
         <v>60</v>
       </c>
       <c r="AN140" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO140" t="s">
         <v>56</v>
@@ -22715,10 +22799,10 @@
         <v>235</v>
       </c>
       <c r="AR140" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS140" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT140" t="s">
         <v>65</v>
@@ -22750,7 +22834,7 @@
         <v>51</v>
       </c>
       <c r="E141" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F141" t="s">
         <v>68</v>
@@ -22855,7 +22939,7 @@
         <v>60</v>
       </c>
       <c r="AN141" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO141" t="s">
         <v>56</v>
@@ -22867,10 +22951,10 @@
         <v>235</v>
       </c>
       <c r="AR141" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS141" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT141" t="s">
         <v>65</v>
@@ -22902,7 +22986,7 @@
         <v>51</v>
       </c>
       <c r="E142" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F142" t="s">
         <v>68</v>
@@ -23019,10 +23103,10 @@
         <v>235</v>
       </c>
       <c r="AR142" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS142" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT142" t="s">
         <v>65</v>
@@ -23206,10 +23290,10 @@
         <v>51</v>
       </c>
       <c r="E144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F144" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G144" t="s">
         <v>54</v>
@@ -23281,7 +23365,7 @@
         <v>55</v>
       </c>
       <c r="AD144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AE144" t="s">
         <v>55</v>
@@ -23293,7 +23377,7 @@
         <v>106</v>
       </c>
       <c r="AH144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AI144" t="s">
         <v>56</v>
@@ -23302,7 +23386,7 @@
         <v>56</v>
       </c>
       <c r="AK144" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL144" t="s">
         <v>59</v>
@@ -23323,10 +23407,10 @@
         <v>235</v>
       </c>
       <c r="AR144" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS144" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT144" t="s">
         <v>65</v>
@@ -23352,13 +23436,13 @@
         <v>44611</v>
       </c>
       <c r="C145" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D145" t="s">
         <v>51</v>
       </c>
       <c r="E145" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F145" t="s">
         <v>68</v>
@@ -23475,10 +23559,10 @@
         <v>235</v>
       </c>
       <c r="AR145" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS145" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT145" t="s">
         <v>65</v>
@@ -23504,13 +23588,13 @@
         <v>44611</v>
       </c>
       <c r="C146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D146" t="s">
         <v>51</v>
       </c>
       <c r="E146" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F146" t="s">
         <v>68</v>
@@ -23591,7 +23675,7 @@
         <v>55</v>
       </c>
       <c r="AF146" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG146" t="s">
         <v>102</v>
@@ -23627,10 +23711,10 @@
         <v>235</v>
       </c>
       <c r="AR146" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT146" t="s">
         <v>65</v>
@@ -23656,7 +23740,7 @@
         <v>44611</v>
       </c>
       <c r="C147" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D147" t="s">
         <v>51</v>
@@ -23758,7 +23842,7 @@
         <v>50</v>
       </c>
       <c r="AK147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL147" t="s">
         <v>59</v>
@@ -23808,7 +23892,7 @@
         <v>44611</v>
       </c>
       <c r="C148" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D148" t="s">
         <v>51</v>
@@ -23889,7 +23973,7 @@
         <v>55</v>
       </c>
       <c r="AD148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AE148" t="s">
         <v>55</v>
@@ -23898,10 +23982,10 @@
         <v>90</v>
       </c>
       <c r="AG148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AI148" t="s">
         <v>56</v>
@@ -23910,7 +23994,7 @@
         <v>56</v>
       </c>
       <c r="AK148" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AL148" t="s">
         <v>59</v>
@@ -23960,7 +24044,7 @@
         <v>44611</v>
       </c>
       <c r="C149" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D149" t="s">
         <v>51</v>
@@ -24041,7 +24125,7 @@
         <v>55</v>
       </c>
       <c r="AD149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE149" t="s">
         <v>55</v>
@@ -24053,7 +24137,7 @@
         <v>70</v>
       </c>
       <c r="AH149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI149" t="s">
         <v>56</v>
@@ -24062,7 +24146,7 @@
         <v>56</v>
       </c>
       <c r="AK149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL149" t="s">
         <v>59</v>
@@ -24112,7 +24196,7 @@
         <v>44611</v>
       </c>
       <c r="C150" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D150" t="s">
         <v>51</v>
@@ -24193,7 +24277,7 @@
         <v>55</v>
       </c>
       <c r="AD150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AE150" t="s">
         <v>55</v>
@@ -24205,7 +24289,7 @@
         <v>230</v>
       </c>
       <c r="AH150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AI150" t="s">
         <v>56</v>
@@ -24264,7 +24348,7 @@
         <v>44611</v>
       </c>
       <c r="C151" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s">
         <v>51</v>
@@ -24345,7 +24429,7 @@
         <v>55</v>
       </c>
       <c r="AD151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AE151" t="s">
         <v>55</v>
@@ -24354,10 +24438,10 @@
         <v>102</v>
       </c>
       <c r="AG151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AI151" t="s">
         <v>56</v>
@@ -24366,7 +24450,7 @@
         <v>56</v>
       </c>
       <c r="AK151" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL151" t="s">
         <v>59</v>
@@ -24390,7 +24474,7 @@
         <v>103</v>
       </c>
       <c r="AS151" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT151" t="s">
         <v>65</v>
@@ -24416,7 +24500,7 @@
         <v>44611</v>
       </c>
       <c r="C152" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D152" t="s">
         <v>51</v>
@@ -24425,7 +24509,7 @@
         <v>99</v>
       </c>
       <c r="F152" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G152" t="s">
         <v>54</v>
@@ -24473,7 +24557,7 @@
         <v>56</v>
       </c>
       <c r="V152" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W152" t="s">
         <v>56</v>
@@ -24542,7 +24626,7 @@
         <v>103</v>
       </c>
       <c r="AS152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AT152" t="s">
         <v>65</v>
@@ -24568,7 +24652,7 @@
         <v>44611</v>
       </c>
       <c r="C153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D153" t="s">
         <v>51</v>
@@ -24720,7 +24804,7 @@
         <v>44611</v>
       </c>
       <c r="C154" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D154" t="s">
         <v>51</v>
@@ -24729,7 +24813,7 @@
         <v>99</v>
       </c>
       <c r="F154" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G154" t="s">
         <v>54</v>
@@ -24872,7 +24956,7 @@
         <v>44611</v>
       </c>
       <c r="C155" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D155" t="s">
         <v>51</v>
@@ -24920,7 +25004,7 @@
         <v>56</v>
       </c>
       <c r="S155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="T155" t="s">
         <v>56</v>
@@ -24929,7 +25013,7 @@
         <v>56</v>
       </c>
       <c r="V155" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W155" t="s">
         <v>56</v>
@@ -25024,7 +25108,7 @@
         <v>44611</v>
       </c>
       <c r="C156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D156" t="s">
         <v>51</v>
@@ -25111,7 +25195,7 @@
         <v>55</v>
       </c>
       <c r="AF156" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG156" t="s">
         <v>70</v>
@@ -25176,7 +25260,7 @@
         <v>44610</v>
       </c>
       <c r="C157" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D157" t="s">
         <v>51</v>
@@ -25287,7 +25371,7 @@
         <v>60</v>
       </c>
       <c r="AN157" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO157" t="s">
         <v>56</v>
@@ -25299,10 +25383,10 @@
         <v>235</v>
       </c>
       <c r="AR157" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS157" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT157" t="s">
         <v>65</v>
@@ -25328,7 +25412,7 @@
         <v>44610</v>
       </c>
       <c r="C158" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D158" t="s">
         <v>51</v>
@@ -25474,13 +25558,13 @@
         <v>44611</v>
       </c>
       <c r="C159" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D159" t="s">
         <v>51</v>
       </c>
       <c r="E159" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F159" t="s">
         <v>68</v>
@@ -25513,7 +25597,7 @@
         <v>57</v>
       </c>
       <c r="P159" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q159" t="s">
         <v>58</v>
@@ -25561,10 +25645,10 @@
         <v>55</v>
       </c>
       <c r="AF159" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG159" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AH159" t="s">
         <v>305</v>
@@ -25585,7 +25669,7 @@
         <v>60</v>
       </c>
       <c r="AN159" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO159" t="s">
         <v>56</v>
@@ -25597,10 +25681,10 @@
         <v>235</v>
       </c>
       <c r="AR159" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS159" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT159" t="s">
         <v>65</v>
@@ -25626,13 +25710,13 @@
         <v>44611</v>
       </c>
       <c r="C160" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D160" t="s">
         <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F160" t="s">
         <v>100</v>
@@ -25749,10 +25833,10 @@
         <v>235</v>
       </c>
       <c r="AR160" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AS160" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AT160" t="s">
         <v>65</v>
@@ -25778,13 +25862,13 @@
         <v>44611</v>
       </c>
       <c r="C161" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D161" t="s">
         <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F161" t="s">
         <v>68</v>
@@ -25901,10 +25985,10 @@
         <v>235</v>
       </c>
       <c r="AR161" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS161" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT161" t="s">
         <v>65</v>
@@ -25930,7 +26014,7 @@
         <v>44611</v>
       </c>
       <c r="C162" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D162" t="s">
         <v>51</v>
@@ -26088,10 +26172,10 @@
         <v>51</v>
       </c>
       <c r="E163" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F163" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G163" t="s">
         <v>54</v>
@@ -26205,10 +26289,10 @@
         <v>235</v>
       </c>
       <c r="AR163" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS163" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT163" t="s">
         <v>65</v>
@@ -26234,13 +26318,13 @@
         <v>44611</v>
       </c>
       <c r="C164" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D164" t="s">
         <v>51</v>
       </c>
       <c r="E164" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F164" t="s">
         <v>68</v>
@@ -26357,10 +26441,10 @@
         <v>235</v>
       </c>
       <c r="AR164" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS164" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT164" t="s">
         <v>65</v>
@@ -26386,13 +26470,13 @@
         <v>44611</v>
       </c>
       <c r="C165" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D165" t="s">
         <v>51</v>
       </c>
       <c r="E165" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F165" t="s">
         <v>100</v>
@@ -26467,7 +26551,7 @@
         <v>55</v>
       </c>
       <c r="AD165" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AE165" t="s">
         <v>55</v>
@@ -26479,7 +26563,7 @@
         <v>58</v>
       </c>
       <c r="AH165" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AI165" t="s">
         <v>56</v>
@@ -26488,7 +26572,7 @@
         <v>56</v>
       </c>
       <c r="AK165" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AL165" t="s">
         <v>59</v>
@@ -26509,10 +26593,10 @@
         <v>235</v>
       </c>
       <c r="AR165" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS165" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT165" t="s">
         <v>65</v>
@@ -26544,7 +26628,7 @@
         <v>51</v>
       </c>
       <c r="E166" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F166" t="s">
         <v>68</v>
@@ -26628,7 +26712,7 @@
         <v>75</v>
       </c>
       <c r="AG166" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AH166" t="s">
         <v>330</v>
@@ -26661,10 +26745,10 @@
         <v>235</v>
       </c>
       <c r="AR166" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS166" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT166" t="s">
         <v>65</v>
@@ -26777,7 +26861,7 @@
         <v>55</v>
       </c>
       <c r="AF167" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG167" t="s">
         <v>72</v>
@@ -26923,19 +27007,19 @@
         <v>55</v>
       </c>
       <c r="AD168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE168" t="s">
         <v>55</v>
       </c>
       <c r="AF168" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG168" t="s">
         <v>83</v>
       </c>
       <c r="AH168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI168" t="s">
         <v>56</v>
@@ -26944,7 +27028,7 @@
         <v>56</v>
       </c>
       <c r="AK168" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL168" t="s">
         <v>59</v>
@@ -26968,7 +27052,7 @@
         <v>91</v>
       </c>
       <c r="AS168" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AT168" t="s">
         <v>65</v>
@@ -27075,7 +27159,7 @@
         <v>55</v>
       </c>
       <c r="AD169" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE169" t="s">
         <v>55</v>
@@ -27087,7 +27171,7 @@
         <v>57</v>
       </c>
       <c r="AH169" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI169" t="s">
         <v>56</v>
@@ -27096,7 +27180,7 @@
         <v>56</v>
       </c>
       <c r="AK169" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL169" t="s">
         <v>59</v>
@@ -27146,13 +27230,13 @@
         <v>44611</v>
       </c>
       <c r="C170" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D170" t="s">
         <v>51</v>
       </c>
       <c r="E170" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F170" t="s">
         <v>95</v>
@@ -27269,10 +27353,10 @@
         <v>233</v>
       </c>
       <c r="AR170" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS170" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT170" t="s">
         <v>65</v>
@@ -27340,7 +27424,7 @@
         <v>72</v>
       </c>
       <c r="Q171" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R171" t="s">
         <v>70</v>
@@ -27385,7 +27469,7 @@
         <v>55</v>
       </c>
       <c r="AF171" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AG171" t="s">
         <v>85</v>
@@ -27471,7 +27555,7 @@
         <v>50</v>
       </c>
       <c r="J172" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K172" t="s">
         <v>50</v>
@@ -27540,7 +27624,7 @@
         <v>106</v>
       </c>
       <c r="AG172" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH172" t="s">
         <v>274</v>
@@ -27626,7 +27710,7 @@
         <v>226</v>
       </c>
       <c r="K173" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L173" t="s">
         <v>72</v>
@@ -27689,7 +27773,7 @@
         <v>55</v>
       </c>
       <c r="AF173" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG173" t="s">
         <v>274</v>
@@ -27787,7 +27871,7 @@
         <v>58</v>
       </c>
       <c r="N174" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O174" t="s">
         <v>58</v>
@@ -27880,7 +27964,7 @@
         <v>103</v>
       </c>
       <c r="AS174" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AT174" t="s">
         <v>65</v>
@@ -28032,7 +28116,7 @@
         <v>103</v>
       </c>
       <c r="AS175" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AT175" t="s">
         <v>65</v>
@@ -28139,7 +28223,7 @@
         <v>55</v>
       </c>
       <c r="AD176" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AE176" t="s">
         <v>55</v>
@@ -28151,7 +28235,7 @@
         <v>83</v>
       </c>
       <c r="AH176" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI176" t="s">
         <v>56</v>
@@ -28181,10 +28265,10 @@
         <v>235</v>
       </c>
       <c r="AR176" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="AS176" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AT176" t="s">
         <v>65</v>
@@ -28210,7 +28294,7 @@
         <v>51</v>
       </c>
       <c r="E177" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F177" t="s">
         <v>68</v>
@@ -28237,7 +28321,7 @@
         <v>71</v>
       </c>
       <c r="N177" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O177" t="s">
         <v>57</v>
@@ -28291,10 +28375,10 @@
         <v>55</v>
       </c>
       <c r="AF177" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG177" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AH177" t="s">
         <v>229</v>
@@ -28315,7 +28399,7 @@
         <v>60</v>
       </c>
       <c r="AN177" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AO177" t="s">
         <v>56</v>
@@ -28327,10 +28411,10 @@
         <v>235</v>
       </c>
       <c r="AR177" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AS177" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AT177" t="s">
         <v>65</v>
@@ -28362,7 +28446,7 @@
         <v>51</v>
       </c>
       <c r="E178" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F178" t="s">
         <v>68</v>
@@ -28479,10 +28563,10 @@
         <v>235</v>
       </c>
       <c r="AR178" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AS178" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AT178" t="s">
         <v>65</v>
@@ -28514,7 +28598,7 @@
         <v>51</v>
       </c>
       <c r="E179" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F179" t="s">
         <v>68</v>
@@ -28589,7 +28673,7 @@
         <v>55</v>
       </c>
       <c r="AD179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AE179" t="s">
         <v>55</v>
@@ -28601,7 +28685,7 @@
         <v>81</v>
       </c>
       <c r="AH179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AI179" t="s">
         <v>56</v>
@@ -28610,7 +28694,7 @@
         <v>56</v>
       </c>
       <c r="AK179" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AL179" t="s">
         <v>59</v>
@@ -28619,7 +28703,7 @@
         <v>60</v>
       </c>
       <c r="AN179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO179" t="s">
         <v>56</v>
@@ -28631,10 +28715,10 @@
         <v>235</v>
       </c>
       <c r="AR179" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AS179" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AT179" t="s">
         <v>65</v>
@@ -28666,7 +28750,7 @@
         <v>51</v>
       </c>
       <c r="E180" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F180" t="s">
         <v>68</v>
@@ -28750,7 +28834,7 @@
         <v>57</v>
       </c>
       <c r="AG180" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AH180" t="s">
         <v>90</v>
@@ -28783,10 +28867,10 @@
         <v>235</v>
       </c>
       <c r="AR180" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AS180" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AT180" t="s">
         <v>65</v>
@@ -28818,7 +28902,7 @@
         <v>51</v>
       </c>
       <c r="E181" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F181" t="s">
         <v>100</v>
@@ -28935,10 +29019,10 @@
         <v>235</v>
       </c>
       <c r="AR181" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AS181" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AT181" t="s">
         <v>65</v>
@@ -28970,7 +29054,7 @@
         <v>51</v>
       </c>
       <c r="E182" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F182" t="s">
         <v>68</v>
@@ -28979,7 +29063,7 @@
         <v>54</v>
       </c>
       <c r="H182" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I182" t="s">
         <v>56</v>
@@ -29087,10 +29171,10 @@
         <v>235</v>
       </c>
       <c r="AR182" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS182" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AT182" t="s">
         <v>65</v>
@@ -29149,7 +29233,7 @@
         <v>56</v>
       </c>
       <c r="N183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O183" t="s">
         <v>56</v>
@@ -29274,10 +29358,10 @@
         <v>51</v>
       </c>
       <c r="E184" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F184" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G184" t="s">
         <v>54</v>
@@ -29391,10 +29475,10 @@
         <v>235</v>
       </c>
       <c r="AR184" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AS184" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AT184" t="s">
         <v>65</v>
@@ -29435,7 +29519,7 @@
         <v>54</v>
       </c>
       <c r="H185" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I185" t="s">
         <v>56</v>
@@ -29561,6 +29645,3502 @@
         <v>66</v>
       </c>
       <c r="AX185" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A186" t="s">
+        <v>49</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C186" t="s">
+        <v>83</v>
+      </c>
+      <c r="D186" t="s">
+        <v>51</v>
+      </c>
+      <c r="E186" t="s">
+        <v>99</v>
+      </c>
+      <c r="F186" t="s">
+        <v>100</v>
+      </c>
+      <c r="G186" t="s">
+        <v>54</v>
+      </c>
+      <c r="H186" t="s">
+        <v>348</v>
+      </c>
+      <c r="I186" t="s">
+        <v>50</v>
+      </c>
+      <c r="J186" t="s">
+        <v>141</v>
+      </c>
+      <c r="K186" t="s">
+        <v>50</v>
+      </c>
+      <c r="L186" t="s">
+        <v>50</v>
+      </c>
+      <c r="M186" t="s">
+        <v>56</v>
+      </c>
+      <c r="N186" t="s">
+        <v>71</v>
+      </c>
+      <c r="O186" t="s">
+        <v>56</v>
+      </c>
+      <c r="P186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q186" t="s">
+        <v>56</v>
+      </c>
+      <c r="R186" t="s">
+        <v>56</v>
+      </c>
+      <c r="S186" t="s">
+        <v>56</v>
+      </c>
+      <c r="T186" t="s">
+        <v>50</v>
+      </c>
+      <c r="U186" t="s">
+        <v>56</v>
+      </c>
+      <c r="V186" t="s">
+        <v>56</v>
+      </c>
+      <c r="W186" t="s">
+        <v>50</v>
+      </c>
+      <c r="X186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y186" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA186" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB186" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC186" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD186" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE186" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF186" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG186" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH186" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK186" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL186" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM186" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN186" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO186" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP186" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ186" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR186" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS186" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT186" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU186" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV186" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW186" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX186" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="187" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A187" t="s">
+        <v>49</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C187" t="s">
+        <v>83</v>
+      </c>
+      <c r="D187" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" t="s">
+        <v>99</v>
+      </c>
+      <c r="F187" t="s">
+        <v>90</v>
+      </c>
+      <c r="G187" t="s">
+        <v>54</v>
+      </c>
+      <c r="H187" t="s">
+        <v>349</v>
+      </c>
+      <c r="I187" t="s">
+        <v>56</v>
+      </c>
+      <c r="J187" t="s">
+        <v>56</v>
+      </c>
+      <c r="K187" t="s">
+        <v>56</v>
+      </c>
+      <c r="L187" t="s">
+        <v>56</v>
+      </c>
+      <c r="M187" t="s">
+        <v>56</v>
+      </c>
+      <c r="N187" t="s">
+        <v>56</v>
+      </c>
+      <c r="O187" t="s">
+        <v>56</v>
+      </c>
+      <c r="P187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q187" t="s">
+        <v>56</v>
+      </c>
+      <c r="R187" t="s">
+        <v>56</v>
+      </c>
+      <c r="S187" t="s">
+        <v>56</v>
+      </c>
+      <c r="T187" t="s">
+        <v>56</v>
+      </c>
+      <c r="U187" t="s">
+        <v>56</v>
+      </c>
+      <c r="V187" t="s">
+        <v>56</v>
+      </c>
+      <c r="W187" t="s">
+        <v>50</v>
+      </c>
+      <c r="X187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y187" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA187" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB187" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC187" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD187" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE187" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG187" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH187" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK187" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL187" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM187" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN187" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO187" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP187" s="1">
+        <v>44620</v>
+      </c>
+      <c r="AQ187" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR187" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS187" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT187" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU187" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV187" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW187" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX187" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="188" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C188" t="s">
+        <v>102</v>
+      </c>
+      <c r="D188" t="s">
+        <v>51</v>
+      </c>
+      <c r="E188" t="s">
+        <v>161</v>
+      </c>
+      <c r="F188" t="s">
+        <v>68</v>
+      </c>
+      <c r="G188" t="s">
+        <v>54</v>
+      </c>
+      <c r="H188" t="s">
+        <v>350</v>
+      </c>
+      <c r="I188" t="s">
+        <v>50</v>
+      </c>
+      <c r="J188" t="s">
+        <v>72</v>
+      </c>
+      <c r="K188" t="s">
+        <v>50</v>
+      </c>
+      <c r="L188" t="s">
+        <v>71</v>
+      </c>
+      <c r="M188" t="s">
+        <v>56</v>
+      </c>
+      <c r="N188" t="s">
+        <v>141</v>
+      </c>
+      <c r="O188" t="s">
+        <v>83</v>
+      </c>
+      <c r="P188" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q188" t="s">
+        <v>57</v>
+      </c>
+      <c r="R188" t="s">
+        <v>71</v>
+      </c>
+      <c r="S188" t="s">
+        <v>57</v>
+      </c>
+      <c r="T188" t="s">
+        <v>50</v>
+      </c>
+      <c r="U188" t="s">
+        <v>56</v>
+      </c>
+      <c r="V188" t="s">
+        <v>56</v>
+      </c>
+      <c r="W188" t="s">
+        <v>56</v>
+      </c>
+      <c r="X188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y188" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA188" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB188" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC188" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD188" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE188" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF188" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG188" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH188" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK188" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL188" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM188" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN188" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO188" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP188" s="1">
+        <v>44625</v>
+      </c>
+      <c r="AQ188" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR188" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS188" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT188" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV188" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW188" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX188" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="189" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A189" t="s">
+        <v>49</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C189" t="s">
+        <v>102</v>
+      </c>
+      <c r="D189" t="s">
+        <v>51</v>
+      </c>
+      <c r="E189" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" t="s">
+        <v>68</v>
+      </c>
+      <c r="G189" t="s">
+        <v>54</v>
+      </c>
+      <c r="H189" t="s">
+        <v>353</v>
+      </c>
+      <c r="I189" t="s">
+        <v>71</v>
+      </c>
+      <c r="J189" t="s">
+        <v>58</v>
+      </c>
+      <c r="K189" t="s">
+        <v>71</v>
+      </c>
+      <c r="L189" t="s">
+        <v>71</v>
+      </c>
+      <c r="M189" t="s">
+        <v>57</v>
+      </c>
+      <c r="N189" t="s">
+        <v>50</v>
+      </c>
+      <c r="O189" t="s">
+        <v>56</v>
+      </c>
+      <c r="P189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q189" t="s">
+        <v>56</v>
+      </c>
+      <c r="R189" t="s">
+        <v>56</v>
+      </c>
+      <c r="S189" t="s">
+        <v>56</v>
+      </c>
+      <c r="T189" t="s">
+        <v>71</v>
+      </c>
+      <c r="U189" t="s">
+        <v>71</v>
+      </c>
+      <c r="V189" t="s">
+        <v>71</v>
+      </c>
+      <c r="W189" t="s">
+        <v>57</v>
+      </c>
+      <c r="X189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y189" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z189" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA189" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB189" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC189" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD189" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE189" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF189" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG189" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH189" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ189" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK189" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL189" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM189" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN189" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO189" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP189" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ189" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR189" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS189" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT189" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU189" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV189" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW189" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A190" t="s">
+        <v>49</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C190" t="s">
+        <v>102</v>
+      </c>
+      <c r="D190" t="s">
+        <v>51</v>
+      </c>
+      <c r="E190" t="s">
+        <v>124</v>
+      </c>
+      <c r="F190" t="s">
+        <v>112</v>
+      </c>
+      <c r="G190" t="s">
+        <v>54</v>
+      </c>
+      <c r="H190" t="s">
+        <v>354</v>
+      </c>
+      <c r="I190" t="s">
+        <v>56</v>
+      </c>
+      <c r="J190" t="s">
+        <v>71</v>
+      </c>
+      <c r="K190" t="s">
+        <v>106</v>
+      </c>
+      <c r="L190" t="s">
+        <v>56</v>
+      </c>
+      <c r="M190" t="s">
+        <v>57</v>
+      </c>
+      <c r="N190" t="s">
+        <v>56</v>
+      </c>
+      <c r="O190" t="s">
+        <v>56</v>
+      </c>
+      <c r="P190" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q190" t="s">
+        <v>72</v>
+      </c>
+      <c r="R190" t="s">
+        <v>56</v>
+      </c>
+      <c r="S190" t="s">
+        <v>56</v>
+      </c>
+      <c r="T190" t="s">
+        <v>56</v>
+      </c>
+      <c r="U190" t="s">
+        <v>70</v>
+      </c>
+      <c r="V190" t="s">
+        <v>56</v>
+      </c>
+      <c r="W190" t="s">
+        <v>56</v>
+      </c>
+      <c r="X190" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y190" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA190" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB190" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC190" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD190" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE190" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF190" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG190" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH190" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK190" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL190" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM190" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN190" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO190" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP190" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ190" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR190" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS190" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT190" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU190" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV190" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW190" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX190" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="191" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A191" t="s">
+        <v>49</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C191" t="s">
+        <v>102</v>
+      </c>
+      <c r="D191" t="s">
+        <v>51</v>
+      </c>
+      <c r="E191" t="s">
+        <v>67</v>
+      </c>
+      <c r="F191" t="s">
+        <v>68</v>
+      </c>
+      <c r="G191" t="s">
+        <v>54</v>
+      </c>
+      <c r="H191" t="s">
+        <v>355</v>
+      </c>
+      <c r="I191" t="s">
+        <v>56</v>
+      </c>
+      <c r="J191" t="s">
+        <v>57</v>
+      </c>
+      <c r="K191" t="s">
+        <v>50</v>
+      </c>
+      <c r="L191" t="s">
+        <v>71</v>
+      </c>
+      <c r="M191" t="s">
+        <v>70</v>
+      </c>
+      <c r="N191" t="s">
+        <v>57</v>
+      </c>
+      <c r="O191" t="s">
+        <v>81</v>
+      </c>
+      <c r="P191" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q191" t="s">
+        <v>57</v>
+      </c>
+      <c r="R191" t="s">
+        <v>70</v>
+      </c>
+      <c r="S191" t="s">
+        <v>58</v>
+      </c>
+      <c r="T191" t="s">
+        <v>50</v>
+      </c>
+      <c r="U191" t="s">
+        <v>57</v>
+      </c>
+      <c r="V191" t="s">
+        <v>71</v>
+      </c>
+      <c r="W191" t="s">
+        <v>58</v>
+      </c>
+      <c r="X191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y191" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z191" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA191" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB191" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC191" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD191" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE191" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF191" t="s">
+        <v>330</v>
+      </c>
+      <c r="AG191" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH191" t="s">
+        <v>356</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK191" t="s">
+        <v>356</v>
+      </c>
+      <c r="AL191" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM191" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN191" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO191" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP191" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ191" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR191" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS191" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU191" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV191" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW191" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX191" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="192" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A192" t="s">
+        <v>49</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C192" t="s">
+        <v>102</v>
+      </c>
+      <c r="D192" t="s">
+        <v>51</v>
+      </c>
+      <c r="E192" t="s">
+        <v>67</v>
+      </c>
+      <c r="F192" t="s">
+        <v>78</v>
+      </c>
+      <c r="G192" t="s">
+        <v>54</v>
+      </c>
+      <c r="H192" t="s">
+        <v>357</v>
+      </c>
+      <c r="I192" t="s">
+        <v>56</v>
+      </c>
+      <c r="J192" t="s">
+        <v>70</v>
+      </c>
+      <c r="K192" t="s">
+        <v>50</v>
+      </c>
+      <c r="L192" t="s">
+        <v>50</v>
+      </c>
+      <c r="M192" t="s">
+        <v>50</v>
+      </c>
+      <c r="N192" t="s">
+        <v>58</v>
+      </c>
+      <c r="O192" t="s">
+        <v>50</v>
+      </c>
+      <c r="P192" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q192" t="s">
+        <v>56</v>
+      </c>
+      <c r="R192" t="s">
+        <v>58</v>
+      </c>
+      <c r="S192" t="s">
+        <v>56</v>
+      </c>
+      <c r="T192" t="s">
+        <v>56</v>
+      </c>
+      <c r="U192" t="s">
+        <v>56</v>
+      </c>
+      <c r="V192" t="s">
+        <v>56</v>
+      </c>
+      <c r="W192" t="s">
+        <v>56</v>
+      </c>
+      <c r="X192" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA192" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB192" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC192" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD192" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE192" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF192" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG192" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH192" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK192" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL192" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM192" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN192" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO192" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP192" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ192" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR192" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS192" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT192" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU192" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV192" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW192" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C193" t="s">
+        <v>102</v>
+      </c>
+      <c r="D193" t="s">
+        <v>51</v>
+      </c>
+      <c r="E193" t="s">
+        <v>67</v>
+      </c>
+      <c r="F193" t="s">
+        <v>81</v>
+      </c>
+      <c r="G193" t="s">
+        <v>54</v>
+      </c>
+      <c r="H193" t="s">
+        <v>358</v>
+      </c>
+      <c r="I193" t="s">
+        <v>71</v>
+      </c>
+      <c r="J193" t="s">
+        <v>89</v>
+      </c>
+      <c r="K193" t="s">
+        <v>75</v>
+      </c>
+      <c r="L193" t="s">
+        <v>83</v>
+      </c>
+      <c r="M193" t="s">
+        <v>141</v>
+      </c>
+      <c r="N193" t="s">
+        <v>50</v>
+      </c>
+      <c r="O193" t="s">
+        <v>58</v>
+      </c>
+      <c r="P193" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q193" t="s">
+        <v>50</v>
+      </c>
+      <c r="R193" t="s">
+        <v>50</v>
+      </c>
+      <c r="S193" t="s">
+        <v>71</v>
+      </c>
+      <c r="T193" t="s">
+        <v>56</v>
+      </c>
+      <c r="U193" t="s">
+        <v>58</v>
+      </c>
+      <c r="V193" t="s">
+        <v>50</v>
+      </c>
+      <c r="W193" t="s">
+        <v>50</v>
+      </c>
+      <c r="X193" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z193" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA193" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB193" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC193" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD193" t="s">
+        <v>359</v>
+      </c>
+      <c r="AE193" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF193" t="s">
+        <v>301</v>
+      </c>
+      <c r="AG193" t="s">
+        <v>274</v>
+      </c>
+      <c r="AH193" t="s">
+        <v>359</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ193" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK193" t="s">
+        <v>360</v>
+      </c>
+      <c r="AL193" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM193" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN193" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO193" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP193" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ193" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR193" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS193" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT193" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV193" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW193" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX193" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="194" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A194" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>51</v>
+      </c>
+      <c r="E194" t="s">
+        <v>99</v>
+      </c>
+      <c r="F194" t="s">
+        <v>68</v>
+      </c>
+      <c r="G194" t="s">
+        <v>54</v>
+      </c>
+      <c r="H194" t="s">
+        <v>361</v>
+      </c>
+      <c r="I194" t="s">
+        <v>71</v>
+      </c>
+      <c r="J194" t="s">
+        <v>70</v>
+      </c>
+      <c r="K194" t="s">
+        <v>50</v>
+      </c>
+      <c r="L194" t="s">
+        <v>56</v>
+      </c>
+      <c r="M194" t="s">
+        <v>57</v>
+      </c>
+      <c r="N194" t="s">
+        <v>57</v>
+      </c>
+      <c r="O194" t="s">
+        <v>70</v>
+      </c>
+      <c r="P194" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q194" t="s">
+        <v>50</v>
+      </c>
+      <c r="R194" t="s">
+        <v>50</v>
+      </c>
+      <c r="S194" t="s">
+        <v>56</v>
+      </c>
+      <c r="T194" t="s">
+        <v>56</v>
+      </c>
+      <c r="U194" t="s">
+        <v>71</v>
+      </c>
+      <c r="V194" t="s">
+        <v>71</v>
+      </c>
+      <c r="W194" t="s">
+        <v>56</v>
+      </c>
+      <c r="X194" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y194" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z194" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA194" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB194" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC194" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD194" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE194" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF194" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG194" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH194" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK194" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL194" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM194" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN194" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO194" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP194" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ194" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR194" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS194" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT194" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV194" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW194" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX194" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A195" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C195" t="s">
+        <v>102</v>
+      </c>
+      <c r="D195" t="s">
+        <v>51</v>
+      </c>
+      <c r="E195" t="s">
+        <v>99</v>
+      </c>
+      <c r="F195" t="s">
+        <v>81</v>
+      </c>
+      <c r="G195" t="s">
+        <v>54</v>
+      </c>
+      <c r="H195" t="s">
+        <v>362</v>
+      </c>
+      <c r="I195" t="s">
+        <v>56</v>
+      </c>
+      <c r="J195" t="s">
+        <v>56</v>
+      </c>
+      <c r="K195" t="s">
+        <v>56</v>
+      </c>
+      <c r="L195" t="s">
+        <v>56</v>
+      </c>
+      <c r="M195" t="s">
+        <v>50</v>
+      </c>
+      <c r="N195" t="s">
+        <v>56</v>
+      </c>
+      <c r="O195" t="s">
+        <v>56</v>
+      </c>
+      <c r="P195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q195" t="s">
+        <v>56</v>
+      </c>
+      <c r="R195" t="s">
+        <v>56</v>
+      </c>
+      <c r="S195" t="s">
+        <v>56</v>
+      </c>
+      <c r="T195" t="s">
+        <v>56</v>
+      </c>
+      <c r="U195" t="s">
+        <v>56</v>
+      </c>
+      <c r="V195" t="s">
+        <v>56</v>
+      </c>
+      <c r="W195" t="s">
+        <v>56</v>
+      </c>
+      <c r="X195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y195" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA195" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB195" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD195" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF195" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH195" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK195" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL195" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM195" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN195" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO195" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP195" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ195" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR195" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS195" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT195" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU195" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV195" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW195" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX195" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A196" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C196" t="s">
+        <v>102</v>
+      </c>
+      <c r="D196" t="s">
+        <v>51</v>
+      </c>
+      <c r="E196" t="s">
+        <v>99</v>
+      </c>
+      <c r="F196" t="s">
+        <v>171</v>
+      </c>
+      <c r="G196" t="s">
+        <v>54</v>
+      </c>
+      <c r="H196" t="s">
+        <v>363</v>
+      </c>
+      <c r="I196" t="s">
+        <v>56</v>
+      </c>
+      <c r="J196" t="s">
+        <v>56</v>
+      </c>
+      <c r="K196" t="s">
+        <v>56</v>
+      </c>
+      <c r="L196" t="s">
+        <v>56</v>
+      </c>
+      <c r="M196" t="s">
+        <v>56</v>
+      </c>
+      <c r="N196" t="s">
+        <v>50</v>
+      </c>
+      <c r="O196" t="s">
+        <v>56</v>
+      </c>
+      <c r="P196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q196" t="s">
+        <v>56</v>
+      </c>
+      <c r="R196" t="s">
+        <v>56</v>
+      </c>
+      <c r="S196" t="s">
+        <v>56</v>
+      </c>
+      <c r="T196" t="s">
+        <v>56</v>
+      </c>
+      <c r="U196" t="s">
+        <v>56</v>
+      </c>
+      <c r="V196" t="s">
+        <v>56</v>
+      </c>
+      <c r="W196" t="s">
+        <v>56</v>
+      </c>
+      <c r="X196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y196" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA196" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB196" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC196" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD196" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE196" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG196" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH196" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK196" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL196" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM196" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN196" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO196" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP196" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ196" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR196" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS196" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT196" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU196" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV196" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW196" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX196" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="197" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A197" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C197" t="s">
+        <v>102</v>
+      </c>
+      <c r="D197" t="s">
+        <v>51</v>
+      </c>
+      <c r="E197" t="s">
+        <v>99</v>
+      </c>
+      <c r="F197" t="s">
+        <v>100</v>
+      </c>
+      <c r="G197" t="s">
+        <v>54</v>
+      </c>
+      <c r="H197" t="s">
+        <v>364</v>
+      </c>
+      <c r="I197" t="s">
+        <v>56</v>
+      </c>
+      <c r="J197" t="s">
+        <v>70</v>
+      </c>
+      <c r="K197" t="s">
+        <v>56</v>
+      </c>
+      <c r="L197" t="s">
+        <v>56</v>
+      </c>
+      <c r="M197" t="s">
+        <v>50</v>
+      </c>
+      <c r="N197" t="s">
+        <v>50</v>
+      </c>
+      <c r="O197" t="s">
+        <v>56</v>
+      </c>
+      <c r="P197" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q197" t="s">
+        <v>56</v>
+      </c>
+      <c r="R197" t="s">
+        <v>56</v>
+      </c>
+      <c r="S197" t="s">
+        <v>56</v>
+      </c>
+      <c r="T197" t="s">
+        <v>56</v>
+      </c>
+      <c r="U197" t="s">
+        <v>56</v>
+      </c>
+      <c r="V197" t="s">
+        <v>56</v>
+      </c>
+      <c r="W197" t="s">
+        <v>56</v>
+      </c>
+      <c r="X197" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y197" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD197" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE197" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF197" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG197" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH197" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK197" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL197" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM197" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN197" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO197" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP197" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ197" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR197" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS197" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT197" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU197" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV197" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW197" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX197" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="198" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A198" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C198" t="s">
+        <v>102</v>
+      </c>
+      <c r="D198" t="s">
+        <v>51</v>
+      </c>
+      <c r="E198" t="s">
+        <v>99</v>
+      </c>
+      <c r="F198" t="s">
+        <v>105</v>
+      </c>
+      <c r="G198" t="s">
+        <v>54</v>
+      </c>
+      <c r="H198" t="s">
+        <v>365</v>
+      </c>
+      <c r="I198" t="s">
+        <v>56</v>
+      </c>
+      <c r="J198" t="s">
+        <v>72</v>
+      </c>
+      <c r="K198" t="s">
+        <v>56</v>
+      </c>
+      <c r="L198" t="s">
+        <v>56</v>
+      </c>
+      <c r="M198" t="s">
+        <v>71</v>
+      </c>
+      <c r="N198" t="s">
+        <v>56</v>
+      </c>
+      <c r="O198" t="s">
+        <v>56</v>
+      </c>
+      <c r="P198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q198" t="s">
+        <v>50</v>
+      </c>
+      <c r="R198" t="s">
+        <v>50</v>
+      </c>
+      <c r="S198" t="s">
+        <v>56</v>
+      </c>
+      <c r="T198" t="s">
+        <v>50</v>
+      </c>
+      <c r="U198" t="s">
+        <v>56</v>
+      </c>
+      <c r="V198" t="s">
+        <v>56</v>
+      </c>
+      <c r="W198" t="s">
+        <v>56</v>
+      </c>
+      <c r="X198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y198" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA198" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB198" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC198" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD198" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE198" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF198" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG198" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH198" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ198" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK198" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL198" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM198" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN198" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO198" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP198" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ198" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR198" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS198" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT198" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU198" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV198" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW198" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX198" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="199" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A199" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C199" t="s">
+        <v>102</v>
+      </c>
+      <c r="D199" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" t="s">
+        <v>139</v>
+      </c>
+      <c r="F199" t="s">
+        <v>68</v>
+      </c>
+      <c r="G199" t="s">
+        <v>54</v>
+      </c>
+      <c r="H199" t="s">
+        <v>366</v>
+      </c>
+      <c r="I199" t="s">
+        <v>56</v>
+      </c>
+      <c r="J199" t="s">
+        <v>70</v>
+      </c>
+      <c r="K199" t="s">
+        <v>70</v>
+      </c>
+      <c r="L199" t="s">
+        <v>50</v>
+      </c>
+      <c r="M199" t="s">
+        <v>56</v>
+      </c>
+      <c r="N199" t="s">
+        <v>83</v>
+      </c>
+      <c r="O199" t="s">
+        <v>57</v>
+      </c>
+      <c r="P199" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q199" t="s">
+        <v>71</v>
+      </c>
+      <c r="R199" t="s">
+        <v>50</v>
+      </c>
+      <c r="S199" t="s">
+        <v>56</v>
+      </c>
+      <c r="T199" t="s">
+        <v>56</v>
+      </c>
+      <c r="U199" t="s">
+        <v>56</v>
+      </c>
+      <c r="V199" t="s">
+        <v>71</v>
+      </c>
+      <c r="W199" t="s">
+        <v>56</v>
+      </c>
+      <c r="X199" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y199" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA199" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD199" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE199" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF199" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG199" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH199" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK199" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL199" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM199" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN199" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO199" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP199" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ199" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR199" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS199" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT199" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU199" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV199" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW199" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX199" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="200" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A200" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C200" t="s">
+        <v>102</v>
+      </c>
+      <c r="D200" t="s">
+        <v>51</v>
+      </c>
+      <c r="E200" t="s">
+        <v>367</v>
+      </c>
+      <c r="F200" t="s">
+        <v>68</v>
+      </c>
+      <c r="G200" t="s">
+        <v>54</v>
+      </c>
+      <c r="H200" t="s">
+        <v>368</v>
+      </c>
+      <c r="I200" t="s">
+        <v>56</v>
+      </c>
+      <c r="J200" t="s">
+        <v>56</v>
+      </c>
+      <c r="K200" t="s">
+        <v>56</v>
+      </c>
+      <c r="L200" t="s">
+        <v>56</v>
+      </c>
+      <c r="M200" t="s">
+        <v>56</v>
+      </c>
+      <c r="N200" t="s">
+        <v>50</v>
+      </c>
+      <c r="O200" t="s">
+        <v>56</v>
+      </c>
+      <c r="P200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q200" t="s">
+        <v>56</v>
+      </c>
+      <c r="R200" t="s">
+        <v>56</v>
+      </c>
+      <c r="S200" t="s">
+        <v>56</v>
+      </c>
+      <c r="T200" t="s">
+        <v>56</v>
+      </c>
+      <c r="U200" t="s">
+        <v>56</v>
+      </c>
+      <c r="V200" t="s">
+        <v>56</v>
+      </c>
+      <c r="W200" t="s">
+        <v>56</v>
+      </c>
+      <c r="X200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y200" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA200" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD200" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE200" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG200" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH200" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK200" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL200" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM200" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN200" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO200" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP200" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ200" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR200" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS200" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT200" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU200" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV200" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW200" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="201" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A201" t="s">
+        <v>49</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C201" t="s">
+        <v>102</v>
+      </c>
+      <c r="D201" t="s">
+        <v>51</v>
+      </c>
+      <c r="E201" t="s">
+        <v>120</v>
+      </c>
+      <c r="F201" t="s">
+        <v>68</v>
+      </c>
+      <c r="G201" t="s">
+        <v>54</v>
+      </c>
+      <c r="H201" t="s">
+        <v>372</v>
+      </c>
+      <c r="I201" t="s">
+        <v>56</v>
+      </c>
+      <c r="J201" t="s">
+        <v>56</v>
+      </c>
+      <c r="K201" t="s">
+        <v>56</v>
+      </c>
+      <c r="L201" t="s">
+        <v>56</v>
+      </c>
+      <c r="M201" t="s">
+        <v>56</v>
+      </c>
+      <c r="N201" t="s">
+        <v>56</v>
+      </c>
+      <c r="O201" t="s">
+        <v>56</v>
+      </c>
+      <c r="P201" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q201" t="s">
+        <v>50</v>
+      </c>
+      <c r="R201" t="s">
+        <v>56</v>
+      </c>
+      <c r="S201" t="s">
+        <v>50</v>
+      </c>
+      <c r="T201" t="s">
+        <v>56</v>
+      </c>
+      <c r="U201" t="s">
+        <v>56</v>
+      </c>
+      <c r="V201" t="s">
+        <v>56</v>
+      </c>
+      <c r="W201" t="s">
+        <v>56</v>
+      </c>
+      <c r="X201" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y201" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE201" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF201" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG201" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK201" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL201" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM201" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN201" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO201" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP201" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ201" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR201" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS201" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV201" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW201" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX201" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A202" t="s">
+        <v>49</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C202" t="s">
+        <v>102</v>
+      </c>
+      <c r="D202" t="s">
+        <v>51</v>
+      </c>
+      <c r="E202" t="s">
+        <v>147</v>
+      </c>
+      <c r="F202" t="s">
+        <v>68</v>
+      </c>
+      <c r="G202" t="s">
+        <v>54</v>
+      </c>
+      <c r="H202" t="s">
+        <v>55</v>
+      </c>
+      <c r="I202" t="s">
+        <v>56</v>
+      </c>
+      <c r="J202" t="s">
+        <v>56</v>
+      </c>
+      <c r="K202" t="s">
+        <v>56</v>
+      </c>
+      <c r="L202" t="s">
+        <v>50</v>
+      </c>
+      <c r="M202" t="s">
+        <v>56</v>
+      </c>
+      <c r="N202" t="s">
+        <v>50</v>
+      </c>
+      <c r="O202" t="s">
+        <v>56</v>
+      </c>
+      <c r="P202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>58</v>
+      </c>
+      <c r="R202" t="s">
+        <v>50</v>
+      </c>
+      <c r="S202" t="s">
+        <v>56</v>
+      </c>
+      <c r="T202" t="s">
+        <v>56</v>
+      </c>
+      <c r="U202" t="s">
+        <v>56</v>
+      </c>
+      <c r="V202" t="s">
+        <v>56</v>
+      </c>
+      <c r="W202" t="s">
+        <v>56</v>
+      </c>
+      <c r="X202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK202" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP202" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ202" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR202" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS202" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT202" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV202" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX202" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="203" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A203" t="s">
+        <v>49</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C203" t="s">
+        <v>102</v>
+      </c>
+      <c r="D203" t="s">
+        <v>51</v>
+      </c>
+      <c r="E203" t="s">
+        <v>133</v>
+      </c>
+      <c r="F203" t="s">
+        <v>68</v>
+      </c>
+      <c r="G203" t="s">
+        <v>54</v>
+      </c>
+      <c r="H203" t="s">
+        <v>373</v>
+      </c>
+      <c r="I203" t="s">
+        <v>56</v>
+      </c>
+      <c r="J203" t="s">
+        <v>71</v>
+      </c>
+      <c r="K203" t="s">
+        <v>50</v>
+      </c>
+      <c r="L203" t="s">
+        <v>56</v>
+      </c>
+      <c r="M203" t="s">
+        <v>50</v>
+      </c>
+      <c r="N203" t="s">
+        <v>50</v>
+      </c>
+      <c r="O203" t="s">
+        <v>71</v>
+      </c>
+      <c r="P203" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>56</v>
+      </c>
+      <c r="R203" t="s">
+        <v>56</v>
+      </c>
+      <c r="S203" t="s">
+        <v>71</v>
+      </c>
+      <c r="T203" t="s">
+        <v>56</v>
+      </c>
+      <c r="U203" t="s">
+        <v>50</v>
+      </c>
+      <c r="V203" t="s">
+        <v>71</v>
+      </c>
+      <c r="W203" t="s">
+        <v>72</v>
+      </c>
+      <c r="X203" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP203" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR203" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT203" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW203" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A204" t="s">
+        <v>49</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C204" t="s">
+        <v>102</v>
+      </c>
+      <c r="D204" t="s">
+        <v>51</v>
+      </c>
+      <c r="E204" t="s">
+        <v>161</v>
+      </c>
+      <c r="F204" t="s">
+        <v>100</v>
+      </c>
+      <c r="G204" t="s">
+        <v>54</v>
+      </c>
+      <c r="H204" t="s">
+        <v>55</v>
+      </c>
+      <c r="I204" t="s">
+        <v>56</v>
+      </c>
+      <c r="J204" t="s">
+        <v>57</v>
+      </c>
+      <c r="K204" t="s">
+        <v>56</v>
+      </c>
+      <c r="L204" t="s">
+        <v>56</v>
+      </c>
+      <c r="M204" t="s">
+        <v>56</v>
+      </c>
+      <c r="N204" t="s">
+        <v>56</v>
+      </c>
+      <c r="O204" t="s">
+        <v>56</v>
+      </c>
+      <c r="P204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>50</v>
+      </c>
+      <c r="R204" t="s">
+        <v>50</v>
+      </c>
+      <c r="S204" t="s">
+        <v>71</v>
+      </c>
+      <c r="T204" t="s">
+        <v>56</v>
+      </c>
+      <c r="U204" t="s">
+        <v>56</v>
+      </c>
+      <c r="V204" t="s">
+        <v>56</v>
+      </c>
+      <c r="W204" t="s">
+        <v>50</v>
+      </c>
+      <c r="X204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP204" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR204" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS204" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW204" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX204" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="205" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A205" t="s">
+        <v>49</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C205" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" t="s">
+        <v>51</v>
+      </c>
+      <c r="E205" t="s">
+        <v>87</v>
+      </c>
+      <c r="F205" t="s">
+        <v>68</v>
+      </c>
+      <c r="G205" t="s">
+        <v>54</v>
+      </c>
+      <c r="H205" t="s">
+        <v>374</v>
+      </c>
+      <c r="I205" t="s">
+        <v>56</v>
+      </c>
+      <c r="J205" t="s">
+        <v>56</v>
+      </c>
+      <c r="K205" t="s">
+        <v>50</v>
+      </c>
+      <c r="L205" t="s">
+        <v>56</v>
+      </c>
+      <c r="M205" t="s">
+        <v>56</v>
+      </c>
+      <c r="N205" t="s">
+        <v>50</v>
+      </c>
+      <c r="O205" t="s">
+        <v>58</v>
+      </c>
+      <c r="P205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>71</v>
+      </c>
+      <c r="R205" t="s">
+        <v>56</v>
+      </c>
+      <c r="S205" t="s">
+        <v>50</v>
+      </c>
+      <c r="T205" t="s">
+        <v>56</v>
+      </c>
+      <c r="U205" t="s">
+        <v>56</v>
+      </c>
+      <c r="V205" t="s">
+        <v>56</v>
+      </c>
+      <c r="W205" t="s">
+        <v>56</v>
+      </c>
+      <c r="X205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP205" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR205" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS205" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT205" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX205" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="206" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A206" t="s">
+        <v>49</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C206" t="s">
+        <v>102</v>
+      </c>
+      <c r="D206" t="s">
+        <v>51</v>
+      </c>
+      <c r="E206" t="s">
+        <v>87</v>
+      </c>
+      <c r="F206" t="s">
+        <v>88</v>
+      </c>
+      <c r="G206" t="s">
+        <v>54</v>
+      </c>
+      <c r="H206" t="s">
+        <v>375</v>
+      </c>
+      <c r="I206" t="s">
+        <v>56</v>
+      </c>
+      <c r="J206" t="s">
+        <v>50</v>
+      </c>
+      <c r="K206" t="s">
+        <v>50</v>
+      </c>
+      <c r="L206" t="s">
+        <v>71</v>
+      </c>
+      <c r="M206" t="s">
+        <v>50</v>
+      </c>
+      <c r="N206" t="s">
+        <v>50</v>
+      </c>
+      <c r="O206" t="s">
+        <v>71</v>
+      </c>
+      <c r="P206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>71</v>
+      </c>
+      <c r="R206" t="s">
+        <v>56</v>
+      </c>
+      <c r="S206" t="s">
+        <v>56</v>
+      </c>
+      <c r="T206" t="s">
+        <v>56</v>
+      </c>
+      <c r="U206" t="s">
+        <v>56</v>
+      </c>
+      <c r="V206" t="s">
+        <v>56</v>
+      </c>
+      <c r="W206" t="s">
+        <v>56</v>
+      </c>
+      <c r="X206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP206" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR206" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS206" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A207" t="s">
+        <v>49</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C207" t="s">
+        <v>102</v>
+      </c>
+      <c r="D207" t="s">
+        <v>51</v>
+      </c>
+      <c r="E207" t="s">
+        <v>129</v>
+      </c>
+      <c r="F207" t="s">
+        <v>68</v>
+      </c>
+      <c r="G207" t="s">
+        <v>54</v>
+      </c>
+      <c r="H207" t="s">
+        <v>86</v>
+      </c>
+      <c r="I207" t="s">
+        <v>50</v>
+      </c>
+      <c r="J207" t="s">
+        <v>56</v>
+      </c>
+      <c r="K207" t="s">
+        <v>56</v>
+      </c>
+      <c r="L207" t="s">
+        <v>56</v>
+      </c>
+      <c r="M207" t="s">
+        <v>56</v>
+      </c>
+      <c r="N207" t="s">
+        <v>56</v>
+      </c>
+      <c r="O207" t="s">
+        <v>56</v>
+      </c>
+      <c r="P207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>56</v>
+      </c>
+      <c r="R207" t="s">
+        <v>56</v>
+      </c>
+      <c r="S207" t="s">
+        <v>56</v>
+      </c>
+      <c r="T207" t="s">
+        <v>56</v>
+      </c>
+      <c r="U207" t="s">
+        <v>56</v>
+      </c>
+      <c r="V207" t="s">
+        <v>56</v>
+      </c>
+      <c r="W207" t="s">
+        <v>56</v>
+      </c>
+      <c r="X207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP207" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR207" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS207" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT207" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX207" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="208" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A208" t="s">
+        <v>49</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C208" t="s">
+        <v>102</v>
+      </c>
+      <c r="D208" t="s">
+        <v>51</v>
+      </c>
+      <c r="E208" t="s">
+        <v>52</v>
+      </c>
+      <c r="F208" t="s">
+        <v>53</v>
+      </c>
+      <c r="G208" t="s">
+        <v>54</v>
+      </c>
+      <c r="H208" t="s">
+        <v>55</v>
+      </c>
+      <c r="I208" t="s">
+        <v>56</v>
+      </c>
+      <c r="J208" t="s">
+        <v>56</v>
+      </c>
+      <c r="K208" t="s">
+        <v>50</v>
+      </c>
+      <c r="L208" t="s">
+        <v>56</v>
+      </c>
+      <c r="M208" t="s">
+        <v>56</v>
+      </c>
+      <c r="N208" t="s">
+        <v>50</v>
+      </c>
+      <c r="O208" t="s">
+        <v>56</v>
+      </c>
+      <c r="P208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>56</v>
+      </c>
+      <c r="R208" t="s">
+        <v>56</v>
+      </c>
+      <c r="S208" t="s">
+        <v>56</v>
+      </c>
+      <c r="T208" t="s">
+        <v>56</v>
+      </c>
+      <c r="U208" t="s">
+        <v>56</v>
+      </c>
+      <c r="V208" t="s">
+        <v>56</v>
+      </c>
+      <c r="W208" t="s">
+        <v>56</v>
+      </c>
+      <c r="X208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP208" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR208" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS208" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT208" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX208" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52B4F096-8C6F-B34B-8CE4-4409729E9D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A86E799-0FB5-FE44-A084-811EF4503663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9970" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11314" uniqueCount="396">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1148,6 +1148,63 @@
   </si>
   <si>
     <t>269</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>1925</t>
+  </si>
+  <si>
+    <t>1926</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>851</t>
+  </si>
+  <si>
+    <t>852</t>
+  </si>
+  <si>
+    <t>853</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>1115</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD CAIMALITO</t>
+  </si>
+  <si>
+    <t>1116</t>
+  </si>
+  <si>
+    <t>893</t>
+  </si>
+  <si>
+    <t>458</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>999999</t>
   </si>
   <si>
     <t>ano</t>
@@ -1157,10 +1214,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1183,9 +1245,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,10 +1631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX208"/>
+  <dimension ref="A1:AX236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1586,8 +1649,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>376</v>
+      <c r="D1" s="2" t="s">
+        <v>395</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -33141,6 +33204,4262 @@
         <v>66</v>
       </c>
       <c r="AX208" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="209" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A209" t="s">
+        <v>49</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C209" t="s">
+        <v>81</v>
+      </c>
+      <c r="D209" t="s">
+        <v>51</v>
+      </c>
+      <c r="E209" t="s">
+        <v>161</v>
+      </c>
+      <c r="F209" t="s">
+        <v>68</v>
+      </c>
+      <c r="G209" t="s">
+        <v>54</v>
+      </c>
+      <c r="H209" t="s">
+        <v>208</v>
+      </c>
+      <c r="I209" t="s">
+        <v>50</v>
+      </c>
+      <c r="J209" t="s">
+        <v>57</v>
+      </c>
+      <c r="K209" t="s">
+        <v>50</v>
+      </c>
+      <c r="L209" t="s">
+        <v>56</v>
+      </c>
+      <c r="M209" t="s">
+        <v>56</v>
+      </c>
+      <c r="N209" t="s">
+        <v>57</v>
+      </c>
+      <c r="O209" t="s">
+        <v>71</v>
+      </c>
+      <c r="P209" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>71</v>
+      </c>
+      <c r="R209" t="s">
+        <v>56</v>
+      </c>
+      <c r="S209" t="s">
+        <v>71</v>
+      </c>
+      <c r="T209" t="s">
+        <v>56</v>
+      </c>
+      <c r="U209" t="s">
+        <v>56</v>
+      </c>
+      <c r="V209" t="s">
+        <v>56</v>
+      </c>
+      <c r="W209" t="s">
+        <v>56</v>
+      </c>
+      <c r="X209" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP209" s="1">
+        <v>44632</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR209" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="210" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A210" t="s">
+        <v>49</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C210" t="s">
+        <v>81</v>
+      </c>
+      <c r="D210" t="s">
+        <v>51</v>
+      </c>
+      <c r="E210" t="s">
+        <v>87</v>
+      </c>
+      <c r="F210" t="s">
+        <v>68</v>
+      </c>
+      <c r="G210" t="s">
+        <v>54</v>
+      </c>
+      <c r="H210" t="s">
+        <v>376</v>
+      </c>
+      <c r="I210" t="s">
+        <v>50</v>
+      </c>
+      <c r="J210" t="s">
+        <v>50</v>
+      </c>
+      <c r="K210" t="s">
+        <v>56</v>
+      </c>
+      <c r="L210" t="s">
+        <v>56</v>
+      </c>
+      <c r="M210" t="s">
+        <v>56</v>
+      </c>
+      <c r="N210" t="s">
+        <v>71</v>
+      </c>
+      <c r="O210" t="s">
+        <v>70</v>
+      </c>
+      <c r="P210" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>56</v>
+      </c>
+      <c r="R210" t="s">
+        <v>56</v>
+      </c>
+      <c r="S210" t="s">
+        <v>71</v>
+      </c>
+      <c r="T210" t="s">
+        <v>56</v>
+      </c>
+      <c r="U210" t="s">
+        <v>56</v>
+      </c>
+      <c r="V210" t="s">
+        <v>56</v>
+      </c>
+      <c r="W210" t="s">
+        <v>56</v>
+      </c>
+      <c r="X210" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP210" s="1">
+        <v>44632</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR210" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW210" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="211" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A211" t="s">
+        <v>49</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C211" t="s">
+        <v>81</v>
+      </c>
+      <c r="D211" t="s">
+        <v>51</v>
+      </c>
+      <c r="E211" t="s">
+        <v>87</v>
+      </c>
+      <c r="F211" t="s">
+        <v>88</v>
+      </c>
+      <c r="G211" t="s">
+        <v>54</v>
+      </c>
+      <c r="H211" t="s">
+        <v>377</v>
+      </c>
+      <c r="I211" t="s">
+        <v>56</v>
+      </c>
+      <c r="J211" t="s">
+        <v>141</v>
+      </c>
+      <c r="K211" t="s">
+        <v>50</v>
+      </c>
+      <c r="L211" t="s">
+        <v>56</v>
+      </c>
+      <c r="M211" t="s">
+        <v>56</v>
+      </c>
+      <c r="N211" t="s">
+        <v>70</v>
+      </c>
+      <c r="O211" t="s">
+        <v>71</v>
+      </c>
+      <c r="P211" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>141</v>
+      </c>
+      <c r="R211" t="s">
+        <v>50</v>
+      </c>
+      <c r="S211" t="s">
+        <v>56</v>
+      </c>
+      <c r="T211" t="s">
+        <v>50</v>
+      </c>
+      <c r="U211" t="s">
+        <v>50</v>
+      </c>
+      <c r="V211" t="s">
+        <v>56</v>
+      </c>
+      <c r="W211" t="s">
+        <v>56</v>
+      </c>
+      <c r="X211" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP211" s="1">
+        <v>44632</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR211" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW211" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="212" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A212" t="s">
+        <v>49</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C212" t="s">
+        <v>83</v>
+      </c>
+      <c r="D212" t="s">
+        <v>51</v>
+      </c>
+      <c r="E212" t="s">
+        <v>124</v>
+      </c>
+      <c r="F212" t="s">
+        <v>95</v>
+      </c>
+      <c r="G212" t="s">
+        <v>54</v>
+      </c>
+      <c r="H212" t="s">
+        <v>272</v>
+      </c>
+      <c r="I212" t="s">
+        <v>50</v>
+      </c>
+      <c r="J212" t="s">
+        <v>50</v>
+      </c>
+      <c r="K212" t="s">
+        <v>56</v>
+      </c>
+      <c r="L212" t="s">
+        <v>56</v>
+      </c>
+      <c r="M212" t="s">
+        <v>56</v>
+      </c>
+      <c r="N212" t="s">
+        <v>56</v>
+      </c>
+      <c r="O212" t="s">
+        <v>56</v>
+      </c>
+      <c r="P212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>56</v>
+      </c>
+      <c r="R212" t="s">
+        <v>56</v>
+      </c>
+      <c r="S212" t="s">
+        <v>56</v>
+      </c>
+      <c r="T212" t="s">
+        <v>56</v>
+      </c>
+      <c r="U212" t="s">
+        <v>56</v>
+      </c>
+      <c r="V212" t="s">
+        <v>56</v>
+      </c>
+      <c r="W212" t="s">
+        <v>56</v>
+      </c>
+      <c r="X212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP212" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR212" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="213" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A213" t="s">
+        <v>49</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44625</v>
+      </c>
+      <c r="C213" t="s">
+        <v>102</v>
+      </c>
+      <c r="D213" t="s">
+        <v>51</v>
+      </c>
+      <c r="E213" t="s">
+        <v>124</v>
+      </c>
+      <c r="F213" t="s">
+        <v>95</v>
+      </c>
+      <c r="G213" t="s">
+        <v>54</v>
+      </c>
+      <c r="H213" t="s">
+        <v>312</v>
+      </c>
+      <c r="I213" t="s">
+        <v>56</v>
+      </c>
+      <c r="J213" t="s">
+        <v>56</v>
+      </c>
+      <c r="K213" t="s">
+        <v>56</v>
+      </c>
+      <c r="L213" t="s">
+        <v>71</v>
+      </c>
+      <c r="M213" t="s">
+        <v>56</v>
+      </c>
+      <c r="N213" t="s">
+        <v>70</v>
+      </c>
+      <c r="O213" t="s">
+        <v>71</v>
+      </c>
+      <c r="P213" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>50</v>
+      </c>
+      <c r="R213" t="s">
+        <v>50</v>
+      </c>
+      <c r="S213" t="s">
+        <v>56</v>
+      </c>
+      <c r="T213" t="s">
+        <v>56</v>
+      </c>
+      <c r="U213" t="s">
+        <v>50</v>
+      </c>
+      <c r="V213" t="s">
+        <v>56</v>
+      </c>
+      <c r="W213" t="s">
+        <v>56</v>
+      </c>
+      <c r="X213" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP213" s="1">
+        <v>44627</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>233</v>
+      </c>
+      <c r="AR213" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A214" t="s">
+        <v>49</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C214" t="s">
+        <v>81</v>
+      </c>
+      <c r="D214" t="s">
+        <v>51</v>
+      </c>
+      <c r="E214" t="s">
+        <v>67</v>
+      </c>
+      <c r="F214" t="s">
+        <v>68</v>
+      </c>
+      <c r="G214" t="s">
+        <v>54</v>
+      </c>
+      <c r="H214" t="s">
+        <v>55</v>
+      </c>
+      <c r="I214" t="s">
+        <v>50</v>
+      </c>
+      <c r="J214" t="s">
+        <v>72</v>
+      </c>
+      <c r="K214" t="s">
+        <v>71</v>
+      </c>
+      <c r="L214" t="s">
+        <v>58</v>
+      </c>
+      <c r="M214" t="s">
+        <v>56</v>
+      </c>
+      <c r="N214" t="s">
+        <v>70</v>
+      </c>
+      <c r="O214" t="s">
+        <v>72</v>
+      </c>
+      <c r="P214" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>81</v>
+      </c>
+      <c r="R214" t="s">
+        <v>102</v>
+      </c>
+      <c r="S214" t="s">
+        <v>50</v>
+      </c>
+      <c r="T214" t="s">
+        <v>72</v>
+      </c>
+      <c r="U214" t="s">
+        <v>71</v>
+      </c>
+      <c r="V214" t="s">
+        <v>50</v>
+      </c>
+      <c r="W214" t="s">
+        <v>58</v>
+      </c>
+      <c r="X214" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>212</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>230</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>230</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP214" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR214" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="215" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A215" t="s">
+        <v>49</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C215" t="s">
+        <v>81</v>
+      </c>
+      <c r="D215" t="s">
+        <v>51</v>
+      </c>
+      <c r="E215" t="s">
+        <v>67</v>
+      </c>
+      <c r="F215" t="s">
+        <v>78</v>
+      </c>
+      <c r="G215" t="s">
+        <v>54</v>
+      </c>
+      <c r="H215" t="s">
+        <v>378</v>
+      </c>
+      <c r="I215" t="s">
+        <v>56</v>
+      </c>
+      <c r="J215" t="s">
+        <v>71</v>
+      </c>
+      <c r="K215" t="s">
+        <v>57</v>
+      </c>
+      <c r="L215" t="s">
+        <v>56</v>
+      </c>
+      <c r="M215" t="s">
+        <v>71</v>
+      </c>
+      <c r="N215" t="s">
+        <v>71</v>
+      </c>
+      <c r="O215" t="s">
+        <v>58</v>
+      </c>
+      <c r="P215" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>58</v>
+      </c>
+      <c r="R215" t="s">
+        <v>56</v>
+      </c>
+      <c r="S215" t="s">
+        <v>56</v>
+      </c>
+      <c r="T215" t="s">
+        <v>71</v>
+      </c>
+      <c r="U215" t="s">
+        <v>50</v>
+      </c>
+      <c r="V215" t="s">
+        <v>56</v>
+      </c>
+      <c r="W215" t="s">
+        <v>56</v>
+      </c>
+      <c r="X215" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP215" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR215" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A216" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C216" t="s">
+        <v>81</v>
+      </c>
+      <c r="D216" t="s">
+        <v>51</v>
+      </c>
+      <c r="E216" t="s">
+        <v>67</v>
+      </c>
+      <c r="F216" t="s">
+        <v>81</v>
+      </c>
+      <c r="G216" t="s">
+        <v>54</v>
+      </c>
+      <c r="H216" t="s">
+        <v>379</v>
+      </c>
+      <c r="I216" t="s">
+        <v>57</v>
+      </c>
+      <c r="J216" t="s">
+        <v>143</v>
+      </c>
+      <c r="K216" t="s">
+        <v>95</v>
+      </c>
+      <c r="L216" t="s">
+        <v>70</v>
+      </c>
+      <c r="M216" t="s">
+        <v>72</v>
+      </c>
+      <c r="N216" t="s">
+        <v>50</v>
+      </c>
+      <c r="O216" t="s">
+        <v>83</v>
+      </c>
+      <c r="P216" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>58</v>
+      </c>
+      <c r="R216" t="s">
+        <v>71</v>
+      </c>
+      <c r="S216" t="s">
+        <v>56</v>
+      </c>
+      <c r="T216" t="s">
+        <v>50</v>
+      </c>
+      <c r="U216" t="s">
+        <v>56</v>
+      </c>
+      <c r="V216" t="s">
+        <v>56</v>
+      </c>
+      <c r="W216" t="s">
+        <v>56</v>
+      </c>
+      <c r="X216" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>247</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>380</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP216" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR216" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="217" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A217" t="s">
+        <v>49</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C217" t="s">
+        <v>81</v>
+      </c>
+      <c r="D217" t="s">
+        <v>51</v>
+      </c>
+      <c r="E217" t="s">
+        <v>99</v>
+      </c>
+      <c r="F217" t="s">
+        <v>68</v>
+      </c>
+      <c r="G217" t="s">
+        <v>54</v>
+      </c>
+      <c r="H217" t="s">
+        <v>381</v>
+      </c>
+      <c r="I217" t="s">
+        <v>50</v>
+      </c>
+      <c r="J217" t="s">
+        <v>70</v>
+      </c>
+      <c r="K217" t="s">
+        <v>71</v>
+      </c>
+      <c r="L217" t="s">
+        <v>50</v>
+      </c>
+      <c r="M217" t="s">
+        <v>56</v>
+      </c>
+      <c r="N217" t="s">
+        <v>71</v>
+      </c>
+      <c r="O217" t="s">
+        <v>56</v>
+      </c>
+      <c r="P217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>50</v>
+      </c>
+      <c r="R217" t="s">
+        <v>50</v>
+      </c>
+      <c r="S217" t="s">
+        <v>50</v>
+      </c>
+      <c r="T217" t="s">
+        <v>71</v>
+      </c>
+      <c r="U217" t="s">
+        <v>56</v>
+      </c>
+      <c r="V217" t="s">
+        <v>56</v>
+      </c>
+      <c r="W217" t="s">
+        <v>50</v>
+      </c>
+      <c r="X217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP217" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR217" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="218" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A218" t="s">
+        <v>49</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C218" t="s">
+        <v>81</v>
+      </c>
+      <c r="D218" t="s">
+        <v>51</v>
+      </c>
+      <c r="E218" t="s">
+        <v>99</v>
+      </c>
+      <c r="F218" t="s">
+        <v>187</v>
+      </c>
+      <c r="G218" t="s">
+        <v>54</v>
+      </c>
+      <c r="H218" t="s">
+        <v>382</v>
+      </c>
+      <c r="I218" t="s">
+        <v>56</v>
+      </c>
+      <c r="J218" t="s">
+        <v>56</v>
+      </c>
+      <c r="K218" t="s">
+        <v>56</v>
+      </c>
+      <c r="L218" t="s">
+        <v>56</v>
+      </c>
+      <c r="M218" t="s">
+        <v>56</v>
+      </c>
+      <c r="N218" t="s">
+        <v>56</v>
+      </c>
+      <c r="O218" t="s">
+        <v>56</v>
+      </c>
+      <c r="P218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>56</v>
+      </c>
+      <c r="R218" t="s">
+        <v>56</v>
+      </c>
+      <c r="S218" t="s">
+        <v>56</v>
+      </c>
+      <c r="T218" t="s">
+        <v>56</v>
+      </c>
+      <c r="U218" t="s">
+        <v>50</v>
+      </c>
+      <c r="V218" t="s">
+        <v>56</v>
+      </c>
+      <c r="W218" t="s">
+        <v>56</v>
+      </c>
+      <c r="X218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP218" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR218" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS218" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT218" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="219" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A219" t="s">
+        <v>49</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C219" t="s">
+        <v>81</v>
+      </c>
+      <c r="D219" t="s">
+        <v>51</v>
+      </c>
+      <c r="E219" t="s">
+        <v>99</v>
+      </c>
+      <c r="F219" t="s">
+        <v>85</v>
+      </c>
+      <c r="G219" t="s">
+        <v>54</v>
+      </c>
+      <c r="H219" t="s">
+        <v>383</v>
+      </c>
+      <c r="I219" t="s">
+        <v>56</v>
+      </c>
+      <c r="J219" t="s">
+        <v>50</v>
+      </c>
+      <c r="K219" t="s">
+        <v>56</v>
+      </c>
+      <c r="L219" t="s">
+        <v>56</v>
+      </c>
+      <c r="M219" t="s">
+        <v>56</v>
+      </c>
+      <c r="N219" t="s">
+        <v>56</v>
+      </c>
+      <c r="O219" t="s">
+        <v>56</v>
+      </c>
+      <c r="P219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>56</v>
+      </c>
+      <c r="R219" t="s">
+        <v>56</v>
+      </c>
+      <c r="S219" t="s">
+        <v>56</v>
+      </c>
+      <c r="T219" t="s">
+        <v>56</v>
+      </c>
+      <c r="U219" t="s">
+        <v>56</v>
+      </c>
+      <c r="V219" t="s">
+        <v>56</v>
+      </c>
+      <c r="W219" t="s">
+        <v>56</v>
+      </c>
+      <c r="X219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP219" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR219" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT219" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="220" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A220" t="s">
+        <v>49</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C220" t="s">
+        <v>81</v>
+      </c>
+      <c r="D220" t="s">
+        <v>51</v>
+      </c>
+      <c r="E220" t="s">
+        <v>99</v>
+      </c>
+      <c r="F220" t="s">
+        <v>171</v>
+      </c>
+      <c r="G220" t="s">
+        <v>54</v>
+      </c>
+      <c r="H220" t="s">
+        <v>384</v>
+      </c>
+      <c r="I220" t="s">
+        <v>56</v>
+      </c>
+      <c r="J220" t="s">
+        <v>50</v>
+      </c>
+      <c r="K220" t="s">
+        <v>56</v>
+      </c>
+      <c r="L220" t="s">
+        <v>56</v>
+      </c>
+      <c r="M220" t="s">
+        <v>56</v>
+      </c>
+      <c r="N220" t="s">
+        <v>50</v>
+      </c>
+      <c r="O220" t="s">
+        <v>56</v>
+      </c>
+      <c r="P220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>56</v>
+      </c>
+      <c r="R220" t="s">
+        <v>56</v>
+      </c>
+      <c r="S220" t="s">
+        <v>50</v>
+      </c>
+      <c r="T220" t="s">
+        <v>56</v>
+      </c>
+      <c r="U220" t="s">
+        <v>56</v>
+      </c>
+      <c r="V220" t="s">
+        <v>56</v>
+      </c>
+      <c r="W220" t="s">
+        <v>56</v>
+      </c>
+      <c r="X220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP220" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR220" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT220" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="221" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A221" t="s">
+        <v>49</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C221" t="s">
+        <v>81</v>
+      </c>
+      <c r="D221" t="s">
+        <v>51</v>
+      </c>
+      <c r="E221" t="s">
+        <v>99</v>
+      </c>
+      <c r="F221" t="s">
+        <v>90</v>
+      </c>
+      <c r="G221" t="s">
+        <v>54</v>
+      </c>
+      <c r="H221" t="s">
+        <v>385</v>
+      </c>
+      <c r="I221" t="s">
+        <v>56</v>
+      </c>
+      <c r="J221" t="s">
+        <v>50</v>
+      </c>
+      <c r="K221" t="s">
+        <v>56</v>
+      </c>
+      <c r="L221" t="s">
+        <v>56</v>
+      </c>
+      <c r="M221" t="s">
+        <v>56</v>
+      </c>
+      <c r="N221" t="s">
+        <v>56</v>
+      </c>
+      <c r="O221" t="s">
+        <v>56</v>
+      </c>
+      <c r="P221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>56</v>
+      </c>
+      <c r="R221" t="s">
+        <v>56</v>
+      </c>
+      <c r="S221" t="s">
+        <v>56</v>
+      </c>
+      <c r="T221" t="s">
+        <v>56</v>
+      </c>
+      <c r="U221" t="s">
+        <v>50</v>
+      </c>
+      <c r="V221" t="s">
+        <v>56</v>
+      </c>
+      <c r="W221" t="s">
+        <v>56</v>
+      </c>
+      <c r="X221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP221" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR221" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT221" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW221" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="222" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A222" t="s">
+        <v>49</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C222" t="s">
+        <v>81</v>
+      </c>
+      <c r="D222" t="s">
+        <v>51</v>
+      </c>
+      <c r="E222" t="s">
+        <v>99</v>
+      </c>
+      <c r="F222" t="s">
+        <v>106</v>
+      </c>
+      <c r="G222" t="s">
+        <v>54</v>
+      </c>
+      <c r="H222" t="s">
+        <v>386</v>
+      </c>
+      <c r="I222" t="s">
+        <v>56</v>
+      </c>
+      <c r="J222" t="s">
+        <v>56</v>
+      </c>
+      <c r="K222" t="s">
+        <v>56</v>
+      </c>
+      <c r="L222" t="s">
+        <v>56</v>
+      </c>
+      <c r="M222" t="s">
+        <v>56</v>
+      </c>
+      <c r="N222" t="s">
+        <v>56</v>
+      </c>
+      <c r="O222" t="s">
+        <v>56</v>
+      </c>
+      <c r="P222" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>56</v>
+      </c>
+      <c r="R222" t="s">
+        <v>56</v>
+      </c>
+      <c r="S222" t="s">
+        <v>56</v>
+      </c>
+      <c r="T222" t="s">
+        <v>56</v>
+      </c>
+      <c r="U222" t="s">
+        <v>56</v>
+      </c>
+      <c r="V222" t="s">
+        <v>184</v>
+      </c>
+      <c r="W222" t="s">
+        <v>56</v>
+      </c>
+      <c r="X222" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP222" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR222" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT222" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="223" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A223" t="s">
+        <v>49</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C223" t="s">
+        <v>81</v>
+      </c>
+      <c r="D223" t="s">
+        <v>51</v>
+      </c>
+      <c r="E223" t="s">
+        <v>99</v>
+      </c>
+      <c r="F223" t="s">
+        <v>100</v>
+      </c>
+      <c r="G223" t="s">
+        <v>54</v>
+      </c>
+      <c r="H223" t="s">
+        <v>388</v>
+      </c>
+      <c r="I223" t="s">
+        <v>50</v>
+      </c>
+      <c r="J223" t="s">
+        <v>58</v>
+      </c>
+      <c r="K223" t="s">
+        <v>56</v>
+      </c>
+      <c r="L223" t="s">
+        <v>56</v>
+      </c>
+      <c r="M223" t="s">
+        <v>71</v>
+      </c>
+      <c r="N223" t="s">
+        <v>50</v>
+      </c>
+      <c r="O223" t="s">
+        <v>50</v>
+      </c>
+      <c r="P223" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>56</v>
+      </c>
+      <c r="R223" t="s">
+        <v>56</v>
+      </c>
+      <c r="S223" t="s">
+        <v>50</v>
+      </c>
+      <c r="T223" t="s">
+        <v>58</v>
+      </c>
+      <c r="U223" t="s">
+        <v>56</v>
+      </c>
+      <c r="V223" t="s">
+        <v>56</v>
+      </c>
+      <c r="W223" t="s">
+        <v>50</v>
+      </c>
+      <c r="X223" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP223" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR223" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="224" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A224" t="s">
+        <v>49</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C224" t="s">
+        <v>81</v>
+      </c>
+      <c r="D224" t="s">
+        <v>51</v>
+      </c>
+      <c r="E224" t="s">
+        <v>99</v>
+      </c>
+      <c r="F224" t="s">
+        <v>105</v>
+      </c>
+      <c r="G224" t="s">
+        <v>54</v>
+      </c>
+      <c r="H224" t="s">
+        <v>323</v>
+      </c>
+      <c r="I224" t="s">
+        <v>56</v>
+      </c>
+      <c r="J224" t="s">
+        <v>57</v>
+      </c>
+      <c r="K224" t="s">
+        <v>56</v>
+      </c>
+      <c r="L224" t="s">
+        <v>56</v>
+      </c>
+      <c r="M224" t="s">
+        <v>50</v>
+      </c>
+      <c r="N224" t="s">
+        <v>58</v>
+      </c>
+      <c r="O224" t="s">
+        <v>50</v>
+      </c>
+      <c r="P224" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>56</v>
+      </c>
+      <c r="R224" t="s">
+        <v>56</v>
+      </c>
+      <c r="S224" t="s">
+        <v>71</v>
+      </c>
+      <c r="T224" t="s">
+        <v>56</v>
+      </c>
+      <c r="U224" t="s">
+        <v>56</v>
+      </c>
+      <c r="V224" t="s">
+        <v>56</v>
+      </c>
+      <c r="W224" t="s">
+        <v>50</v>
+      </c>
+      <c r="X224" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP224" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR224" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A225" t="s">
+        <v>49</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C225" t="s">
+        <v>81</v>
+      </c>
+      <c r="D225" t="s">
+        <v>51</v>
+      </c>
+      <c r="E225" t="s">
+        <v>99</v>
+      </c>
+      <c r="F225" t="s">
+        <v>280</v>
+      </c>
+      <c r="G225" t="s">
+        <v>54</v>
+      </c>
+      <c r="H225" t="s">
+        <v>325</v>
+      </c>
+      <c r="I225" t="s">
+        <v>56</v>
+      </c>
+      <c r="J225" t="s">
+        <v>56</v>
+      </c>
+      <c r="K225" t="s">
+        <v>56</v>
+      </c>
+      <c r="L225" t="s">
+        <v>56</v>
+      </c>
+      <c r="M225" t="s">
+        <v>56</v>
+      </c>
+      <c r="N225" t="s">
+        <v>56</v>
+      </c>
+      <c r="O225" t="s">
+        <v>56</v>
+      </c>
+      <c r="P225" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>56</v>
+      </c>
+      <c r="R225" t="s">
+        <v>56</v>
+      </c>
+      <c r="S225" t="s">
+        <v>50</v>
+      </c>
+      <c r="T225" t="s">
+        <v>50</v>
+      </c>
+      <c r="U225" t="s">
+        <v>56</v>
+      </c>
+      <c r="V225" t="s">
+        <v>56</v>
+      </c>
+      <c r="W225" t="s">
+        <v>56</v>
+      </c>
+      <c r="X225" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP225" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR225" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="226" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A226" t="s">
+        <v>49</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C226" t="s">
+        <v>81</v>
+      </c>
+      <c r="D226" t="s">
+        <v>51</v>
+      </c>
+      <c r="E226" t="s">
+        <v>99</v>
+      </c>
+      <c r="F226" t="s">
+        <v>112</v>
+      </c>
+      <c r="G226" t="s">
+        <v>54</v>
+      </c>
+      <c r="H226" t="s">
+        <v>326</v>
+      </c>
+      <c r="I226" t="s">
+        <v>56</v>
+      </c>
+      <c r="J226" t="s">
+        <v>56</v>
+      </c>
+      <c r="K226" t="s">
+        <v>56</v>
+      </c>
+      <c r="L226" t="s">
+        <v>56</v>
+      </c>
+      <c r="M226" t="s">
+        <v>56</v>
+      </c>
+      <c r="N226" t="s">
+        <v>50</v>
+      </c>
+      <c r="O226" t="s">
+        <v>56</v>
+      </c>
+      <c r="P226" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>56</v>
+      </c>
+      <c r="R226" t="s">
+        <v>56</v>
+      </c>
+      <c r="S226" t="s">
+        <v>56</v>
+      </c>
+      <c r="T226" t="s">
+        <v>56</v>
+      </c>
+      <c r="U226" t="s">
+        <v>56</v>
+      </c>
+      <c r="V226" t="s">
+        <v>56</v>
+      </c>
+      <c r="W226" t="s">
+        <v>56</v>
+      </c>
+      <c r="X226" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP226" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR226" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A227" t="s">
+        <v>49</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C227" t="s">
+        <v>81</v>
+      </c>
+      <c r="D227" t="s">
+        <v>51</v>
+      </c>
+      <c r="E227" t="s">
+        <v>139</v>
+      </c>
+      <c r="F227" t="s">
+        <v>68</v>
+      </c>
+      <c r="G227" t="s">
+        <v>54</v>
+      </c>
+      <c r="H227" t="s">
+        <v>389</v>
+      </c>
+      <c r="I227" t="s">
+        <v>56</v>
+      </c>
+      <c r="J227" t="s">
+        <v>83</v>
+      </c>
+      <c r="K227" t="s">
+        <v>58</v>
+      </c>
+      <c r="L227" t="s">
+        <v>58</v>
+      </c>
+      <c r="M227" t="s">
+        <v>56</v>
+      </c>
+      <c r="N227" t="s">
+        <v>70</v>
+      </c>
+      <c r="O227" t="s">
+        <v>141</v>
+      </c>
+      <c r="P227" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>70</v>
+      </c>
+      <c r="R227" t="s">
+        <v>58</v>
+      </c>
+      <c r="S227" t="s">
+        <v>50</v>
+      </c>
+      <c r="T227" t="s">
+        <v>56</v>
+      </c>
+      <c r="U227" t="s">
+        <v>50</v>
+      </c>
+      <c r="V227" t="s">
+        <v>71</v>
+      </c>
+      <c r="W227" t="s">
+        <v>56</v>
+      </c>
+      <c r="X227" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>200</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>200</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP227" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR227" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A228" t="s">
+        <v>49</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C228" t="s">
+        <v>81</v>
+      </c>
+      <c r="D228" t="s">
+        <v>51</v>
+      </c>
+      <c r="E228" t="s">
+        <v>367</v>
+      </c>
+      <c r="F228" t="s">
+        <v>68</v>
+      </c>
+      <c r="G228" t="s">
+        <v>54</v>
+      </c>
+      <c r="H228" t="s">
+        <v>254</v>
+      </c>
+      <c r="I228" t="s">
+        <v>56</v>
+      </c>
+      <c r="J228" t="s">
+        <v>56</v>
+      </c>
+      <c r="K228" t="s">
+        <v>56</v>
+      </c>
+      <c r="L228" t="s">
+        <v>71</v>
+      </c>
+      <c r="M228" t="s">
+        <v>56</v>
+      </c>
+      <c r="N228" t="s">
+        <v>56</v>
+      </c>
+      <c r="O228" t="s">
+        <v>56</v>
+      </c>
+      <c r="P228" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>56</v>
+      </c>
+      <c r="R228" t="s">
+        <v>56</v>
+      </c>
+      <c r="S228" t="s">
+        <v>56</v>
+      </c>
+      <c r="T228" t="s">
+        <v>56</v>
+      </c>
+      <c r="U228" t="s">
+        <v>56</v>
+      </c>
+      <c r="V228" t="s">
+        <v>56</v>
+      </c>
+      <c r="W228" t="s">
+        <v>56</v>
+      </c>
+      <c r="X228" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>369</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP228" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ228" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR228" t="s">
+        <v>370</v>
+      </c>
+      <c r="AS228" t="s">
+        <v>371</v>
+      </c>
+      <c r="AT228" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU228" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX228" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A229" t="s">
+        <v>49</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C229" t="s">
+        <v>81</v>
+      </c>
+      <c r="D229" t="s">
+        <v>51</v>
+      </c>
+      <c r="E229" t="s">
+        <v>120</v>
+      </c>
+      <c r="F229" t="s">
+        <v>68</v>
+      </c>
+      <c r="G229" t="s">
+        <v>54</v>
+      </c>
+      <c r="H229" t="s">
+        <v>390</v>
+      </c>
+      <c r="I229" t="s">
+        <v>56</v>
+      </c>
+      <c r="J229" t="s">
+        <v>56</v>
+      </c>
+      <c r="K229" t="s">
+        <v>56</v>
+      </c>
+      <c r="L229" t="s">
+        <v>56</v>
+      </c>
+      <c r="M229" t="s">
+        <v>56</v>
+      </c>
+      <c r="N229" t="s">
+        <v>50</v>
+      </c>
+      <c r="O229" t="s">
+        <v>56</v>
+      </c>
+      <c r="P229" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>56</v>
+      </c>
+      <c r="R229" t="s">
+        <v>71</v>
+      </c>
+      <c r="S229" t="s">
+        <v>56</v>
+      </c>
+      <c r="T229" t="s">
+        <v>56</v>
+      </c>
+      <c r="U229" t="s">
+        <v>50</v>
+      </c>
+      <c r="V229" t="s">
+        <v>56</v>
+      </c>
+      <c r="W229" t="s">
+        <v>56</v>
+      </c>
+      <c r="X229" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK229" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP229" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ229" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR229" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS229" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT229" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU229" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV229" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW229" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX229" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="230" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A230" t="s">
+        <v>49</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C230" t="s">
+        <v>81</v>
+      </c>
+      <c r="D230" t="s">
+        <v>51</v>
+      </c>
+      <c r="E230" t="s">
+        <v>147</v>
+      </c>
+      <c r="F230" t="s">
+        <v>68</v>
+      </c>
+      <c r="G230" t="s">
+        <v>54</v>
+      </c>
+      <c r="H230" t="s">
+        <v>55</v>
+      </c>
+      <c r="I230" t="s">
+        <v>56</v>
+      </c>
+      <c r="J230" t="s">
+        <v>50</v>
+      </c>
+      <c r="K230" t="s">
+        <v>50</v>
+      </c>
+      <c r="L230" t="s">
+        <v>56</v>
+      </c>
+      <c r="M230" t="s">
+        <v>50</v>
+      </c>
+      <c r="N230" t="s">
+        <v>56</v>
+      </c>
+      <c r="O230" t="s">
+        <v>56</v>
+      </c>
+      <c r="P230" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>56</v>
+      </c>
+      <c r="R230" t="s">
+        <v>50</v>
+      </c>
+      <c r="S230" t="s">
+        <v>56</v>
+      </c>
+      <c r="T230" t="s">
+        <v>56</v>
+      </c>
+      <c r="U230" t="s">
+        <v>50</v>
+      </c>
+      <c r="V230" t="s">
+        <v>50</v>
+      </c>
+      <c r="W230" t="s">
+        <v>56</v>
+      </c>
+      <c r="X230" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK230" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP230" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ230" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR230" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS230" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT230" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW230" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX230" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A231" t="s">
+        <v>49</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C231" t="s">
+        <v>81</v>
+      </c>
+      <c r="D231" t="s">
+        <v>51</v>
+      </c>
+      <c r="E231" t="s">
+        <v>150</v>
+      </c>
+      <c r="F231" t="s">
+        <v>100</v>
+      </c>
+      <c r="G231" t="s">
+        <v>54</v>
+      </c>
+      <c r="H231" t="s">
+        <v>55</v>
+      </c>
+      <c r="I231" t="s">
+        <v>50</v>
+      </c>
+      <c r="J231" t="s">
+        <v>56</v>
+      </c>
+      <c r="K231" t="s">
+        <v>56</v>
+      </c>
+      <c r="L231" t="s">
+        <v>50</v>
+      </c>
+      <c r="M231" t="s">
+        <v>56</v>
+      </c>
+      <c r="N231" t="s">
+        <v>56</v>
+      </c>
+      <c r="O231" t="s">
+        <v>50</v>
+      </c>
+      <c r="P231" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>56</v>
+      </c>
+      <c r="R231" t="s">
+        <v>50</v>
+      </c>
+      <c r="S231" t="s">
+        <v>56</v>
+      </c>
+      <c r="T231" t="s">
+        <v>56</v>
+      </c>
+      <c r="U231" t="s">
+        <v>56</v>
+      </c>
+      <c r="V231" t="s">
+        <v>56</v>
+      </c>
+      <c r="W231" t="s">
+        <v>50</v>
+      </c>
+      <c r="X231" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP231" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ231" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR231" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS231" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT231" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX231" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A232" t="s">
+        <v>49</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C232" t="s">
+        <v>81</v>
+      </c>
+      <c r="D232" t="s">
+        <v>51</v>
+      </c>
+      <c r="E232" t="s">
+        <v>133</v>
+      </c>
+      <c r="F232" t="s">
+        <v>68</v>
+      </c>
+      <c r="G232" t="s">
+        <v>54</v>
+      </c>
+      <c r="H232" t="s">
+        <v>391</v>
+      </c>
+      <c r="I232" t="s">
+        <v>56</v>
+      </c>
+      <c r="J232" t="s">
+        <v>57</v>
+      </c>
+      <c r="K232" t="s">
+        <v>58</v>
+      </c>
+      <c r="L232" t="s">
+        <v>56</v>
+      </c>
+      <c r="M232" t="s">
+        <v>58</v>
+      </c>
+      <c r="N232" t="s">
+        <v>50</v>
+      </c>
+      <c r="O232" t="s">
+        <v>50</v>
+      </c>
+      <c r="P232" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>50</v>
+      </c>
+      <c r="R232" t="s">
+        <v>50</v>
+      </c>
+      <c r="S232" t="s">
+        <v>50</v>
+      </c>
+      <c r="T232" t="s">
+        <v>56</v>
+      </c>
+      <c r="U232" t="s">
+        <v>71</v>
+      </c>
+      <c r="V232" t="s">
+        <v>71</v>
+      </c>
+      <c r="W232" t="s">
+        <v>71</v>
+      </c>
+      <c r="X232" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP232" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ232" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR232" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS232" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT232" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV232" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW232" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX232" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="233" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A233" t="s">
+        <v>49</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C233" t="s">
+        <v>81</v>
+      </c>
+      <c r="D233" t="s">
+        <v>51</v>
+      </c>
+      <c r="E233" t="s">
+        <v>161</v>
+      </c>
+      <c r="F233" t="s">
+        <v>100</v>
+      </c>
+      <c r="G233" t="s">
+        <v>54</v>
+      </c>
+      <c r="H233" t="s">
+        <v>55</v>
+      </c>
+      <c r="I233" t="s">
+        <v>71</v>
+      </c>
+      <c r="J233" t="s">
+        <v>56</v>
+      </c>
+      <c r="K233" t="s">
+        <v>56</v>
+      </c>
+      <c r="L233" t="s">
+        <v>56</v>
+      </c>
+      <c r="M233" t="s">
+        <v>50</v>
+      </c>
+      <c r="N233" t="s">
+        <v>50</v>
+      </c>
+      <c r="O233" t="s">
+        <v>56</v>
+      </c>
+      <c r="P233" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>56</v>
+      </c>
+      <c r="R233" t="s">
+        <v>58</v>
+      </c>
+      <c r="S233" t="s">
+        <v>50</v>
+      </c>
+      <c r="T233" t="s">
+        <v>56</v>
+      </c>
+      <c r="U233" t="s">
+        <v>56</v>
+      </c>
+      <c r="V233" t="s">
+        <v>56</v>
+      </c>
+      <c r="W233" t="s">
+        <v>56</v>
+      </c>
+      <c r="X233" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>255</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP233" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR233" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT233" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU233" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV233" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW233" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX233" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="234" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A234" t="s">
+        <v>49</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C234" t="s">
+        <v>81</v>
+      </c>
+      <c r="D234" t="s">
+        <v>51</v>
+      </c>
+      <c r="E234" t="s">
+        <v>154</v>
+      </c>
+      <c r="F234" t="s">
+        <v>68</v>
+      </c>
+      <c r="G234" t="s">
+        <v>54</v>
+      </c>
+      <c r="H234" t="s">
+        <v>392</v>
+      </c>
+      <c r="I234" t="s">
+        <v>50</v>
+      </c>
+      <c r="J234" t="s">
+        <v>81</v>
+      </c>
+      <c r="K234" t="s">
+        <v>81</v>
+      </c>
+      <c r="L234" t="s">
+        <v>50</v>
+      </c>
+      <c r="M234" t="s">
+        <v>58</v>
+      </c>
+      <c r="N234" t="s">
+        <v>72</v>
+      </c>
+      <c r="O234" t="s">
+        <v>71</v>
+      </c>
+      <c r="P234" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>71</v>
+      </c>
+      <c r="R234" t="s">
+        <v>58</v>
+      </c>
+      <c r="S234" t="s">
+        <v>57</v>
+      </c>
+      <c r="T234" t="s">
+        <v>58</v>
+      </c>
+      <c r="U234" t="s">
+        <v>56</v>
+      </c>
+      <c r="V234" t="s">
+        <v>57</v>
+      </c>
+      <c r="W234" t="s">
+        <v>70</v>
+      </c>
+      <c r="X234" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>393</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK234" t="s">
+        <v>393</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP234" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR234" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS234" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT234" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU234" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV234" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW234" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A235" t="s">
+        <v>49</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C235" t="s">
+        <v>81</v>
+      </c>
+      <c r="D235" t="s">
+        <v>51</v>
+      </c>
+      <c r="E235" t="s">
+        <v>52</v>
+      </c>
+      <c r="F235" t="s">
+        <v>53</v>
+      </c>
+      <c r="G235" t="s">
+        <v>54</v>
+      </c>
+      <c r="H235" t="s">
+        <v>55</v>
+      </c>
+      <c r="I235" t="s">
+        <v>56</v>
+      </c>
+      <c r="J235" t="s">
+        <v>56</v>
+      </c>
+      <c r="K235" t="s">
+        <v>50</v>
+      </c>
+      <c r="L235" t="s">
+        <v>56</v>
+      </c>
+      <c r="M235" t="s">
+        <v>50</v>
+      </c>
+      <c r="N235" t="s">
+        <v>56</v>
+      </c>
+      <c r="O235" t="s">
+        <v>56</v>
+      </c>
+      <c r="P235" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>56</v>
+      </c>
+      <c r="R235" t="s">
+        <v>56</v>
+      </c>
+      <c r="S235" t="s">
+        <v>56</v>
+      </c>
+      <c r="T235" t="s">
+        <v>56</v>
+      </c>
+      <c r="U235" t="s">
+        <v>56</v>
+      </c>
+      <c r="V235" t="s">
+        <v>56</v>
+      </c>
+      <c r="W235" t="s">
+        <v>56</v>
+      </c>
+      <c r="X235" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP235" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR235" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT235" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV235" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW235" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX235" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A236" t="s">
+        <v>49</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C236" t="s">
+        <v>81</v>
+      </c>
+      <c r="D236" t="s">
+        <v>51</v>
+      </c>
+      <c r="E236" t="s">
+        <v>124</v>
+      </c>
+      <c r="F236" t="s">
+        <v>112</v>
+      </c>
+      <c r="G236" t="s">
+        <v>54</v>
+      </c>
+      <c r="H236" t="s">
+        <v>55</v>
+      </c>
+      <c r="I236" t="s">
+        <v>56</v>
+      </c>
+      <c r="J236" t="s">
+        <v>50</v>
+      </c>
+      <c r="K236" t="s">
+        <v>56</v>
+      </c>
+      <c r="L236" t="s">
+        <v>50</v>
+      </c>
+      <c r="M236" t="s">
+        <v>102</v>
+      </c>
+      <c r="N236" t="s">
+        <v>56</v>
+      </c>
+      <c r="O236" t="s">
+        <v>141</v>
+      </c>
+      <c r="P236" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>56</v>
+      </c>
+      <c r="R236" t="s">
+        <v>57</v>
+      </c>
+      <c r="S236" t="s">
+        <v>71</v>
+      </c>
+      <c r="T236" t="s">
+        <v>56</v>
+      </c>
+      <c r="U236" t="s">
+        <v>58</v>
+      </c>
+      <c r="V236" t="s">
+        <v>56</v>
+      </c>
+      <c r="W236" t="s">
+        <v>71</v>
+      </c>
+      <c r="X236" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK236" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP236" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR236" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX236" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A86E799-0FB5-FE44-A084-811EF4503663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEE18F3-B6C2-AE4E-A941-67AAB44316D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11314" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12368" uniqueCount="414">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1205,6 +1205,60 @@
   </si>
   <si>
     <t>999999</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.4.1$0$0.0</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>99999</t>
+  </si>
+  <si>
+    <t>6617002601</t>
+  </si>
+  <si>
+    <t>66170</t>
+  </si>
+  <si>
+    <t>638</t>
+  </si>
+  <si>
+    <t>DOSQUEBRADAS</t>
+  </si>
+  <si>
+    <t>854</t>
+  </si>
+  <si>
+    <t>855</t>
+  </si>
+  <si>
+    <t>CENTRO DE SALUD CASA DEL ABUELO</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>327</t>
+  </si>
+  <si>
+    <t>894</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>AV30 AGOSTO 48-74</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>CLINICA PINSRES MEDICA</t>
   </si>
   <si>
     <t>ano</t>
@@ -1214,15 +1268,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1245,10 +1294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1631,10 +1679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX236"/>
+  <dimension ref="A1:AX258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1649,8 +1697,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>395</v>
+      <c r="D1" t="s">
+        <v>413</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -37460,6 +37508,3344 @@
         <v>66</v>
       </c>
       <c r="AX236" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A237" t="s">
+        <v>49</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C237" t="s">
+        <v>90</v>
+      </c>
+      <c r="D237" t="s">
+        <v>51</v>
+      </c>
+      <c r="E237" t="s">
+        <v>67</v>
+      </c>
+      <c r="F237" t="s">
+        <v>68</v>
+      </c>
+      <c r="G237" t="s">
+        <v>54</v>
+      </c>
+      <c r="H237" t="s">
+        <v>55</v>
+      </c>
+      <c r="I237" t="s">
+        <v>56</v>
+      </c>
+      <c r="J237" t="s">
+        <v>70</v>
+      </c>
+      <c r="K237" t="s">
+        <v>50</v>
+      </c>
+      <c r="L237" t="s">
+        <v>71</v>
+      </c>
+      <c r="M237" t="s">
+        <v>58</v>
+      </c>
+      <c r="N237" t="s">
+        <v>50</v>
+      </c>
+      <c r="O237" t="s">
+        <v>58</v>
+      </c>
+      <c r="P237" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>71</v>
+      </c>
+      <c r="R237" t="s">
+        <v>71</v>
+      </c>
+      <c r="S237" t="s">
+        <v>50</v>
+      </c>
+      <c r="T237" t="s">
+        <v>56</v>
+      </c>
+      <c r="U237" t="s">
+        <v>50</v>
+      </c>
+      <c r="V237" t="s">
+        <v>71</v>
+      </c>
+      <c r="W237" t="s">
+        <v>50</v>
+      </c>
+      <c r="X237" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP237" s="1">
+        <v>44638</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR237" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX237" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="238" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A238" t="s">
+        <v>49</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C238" t="s">
+        <v>90</v>
+      </c>
+      <c r="D238" t="s">
+        <v>51</v>
+      </c>
+      <c r="E238" t="s">
+        <v>67</v>
+      </c>
+      <c r="F238" t="s">
+        <v>78</v>
+      </c>
+      <c r="G238" t="s">
+        <v>54</v>
+      </c>
+      <c r="H238" t="s">
+        <v>55</v>
+      </c>
+      <c r="I238" t="s">
+        <v>56</v>
+      </c>
+      <c r="J238" t="s">
+        <v>71</v>
+      </c>
+      <c r="K238" t="s">
+        <v>71</v>
+      </c>
+      <c r="L238" t="s">
+        <v>58</v>
+      </c>
+      <c r="M238" t="s">
+        <v>71</v>
+      </c>
+      <c r="N238" t="s">
+        <v>50</v>
+      </c>
+      <c r="O238" t="s">
+        <v>58</v>
+      </c>
+      <c r="P238" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>58</v>
+      </c>
+      <c r="R238" t="s">
+        <v>56</v>
+      </c>
+      <c r="S238" t="s">
+        <v>56</v>
+      </c>
+      <c r="T238" t="s">
+        <v>50</v>
+      </c>
+      <c r="U238" t="s">
+        <v>56</v>
+      </c>
+      <c r="V238" t="s">
+        <v>56</v>
+      </c>
+      <c r="W238" t="s">
+        <v>56</v>
+      </c>
+      <c r="X238" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>199</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>199</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP238" s="1">
+        <v>44638</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR238" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="239" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C239" t="s">
+        <v>90</v>
+      </c>
+      <c r="D239" t="s">
+        <v>51</v>
+      </c>
+      <c r="E239" t="s">
+        <v>67</v>
+      </c>
+      <c r="F239" t="s">
+        <v>81</v>
+      </c>
+      <c r="G239" t="s">
+        <v>54</v>
+      </c>
+      <c r="H239" t="s">
+        <v>55</v>
+      </c>
+      <c r="I239" t="s">
+        <v>70</v>
+      </c>
+      <c r="J239" t="s">
+        <v>118</v>
+      </c>
+      <c r="K239" t="s">
+        <v>58</v>
+      </c>
+      <c r="L239" t="s">
+        <v>141</v>
+      </c>
+      <c r="M239" t="s">
+        <v>58</v>
+      </c>
+      <c r="N239" t="s">
+        <v>71</v>
+      </c>
+      <c r="O239" t="s">
+        <v>72</v>
+      </c>
+      <c r="P239" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>50</v>
+      </c>
+      <c r="R239" t="s">
+        <v>58</v>
+      </c>
+      <c r="S239" t="s">
+        <v>50</v>
+      </c>
+      <c r="T239" t="s">
+        <v>50</v>
+      </c>
+      <c r="U239" t="s">
+        <v>56</v>
+      </c>
+      <c r="V239" t="s">
+        <v>56</v>
+      </c>
+      <c r="W239" t="s">
+        <v>56</v>
+      </c>
+      <c r="X239" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK239" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP239" s="1">
+        <v>44638</v>
+      </c>
+      <c r="AQ239" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR239" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT239" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A240" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C240" t="s">
+        <v>90</v>
+      </c>
+      <c r="D240" t="s">
+        <v>51</v>
+      </c>
+      <c r="E240" t="s">
+        <v>52</v>
+      </c>
+      <c r="F240" t="s">
+        <v>53</v>
+      </c>
+      <c r="G240" t="s">
+        <v>54</v>
+      </c>
+      <c r="H240" t="s">
+        <v>55</v>
+      </c>
+      <c r="I240" t="s">
+        <v>50</v>
+      </c>
+      <c r="J240" t="s">
+        <v>56</v>
+      </c>
+      <c r="K240" t="s">
+        <v>56</v>
+      </c>
+      <c r="L240" t="s">
+        <v>50</v>
+      </c>
+      <c r="M240" t="s">
+        <v>56</v>
+      </c>
+      <c r="N240" t="s">
+        <v>56</v>
+      </c>
+      <c r="O240" t="s">
+        <v>56</v>
+      </c>
+      <c r="P240" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>56</v>
+      </c>
+      <c r="R240" t="s">
+        <v>56</v>
+      </c>
+      <c r="S240" t="s">
+        <v>56</v>
+      </c>
+      <c r="T240" t="s">
+        <v>56</v>
+      </c>
+      <c r="U240" t="s">
+        <v>50</v>
+      </c>
+      <c r="V240" t="s">
+        <v>56</v>
+      </c>
+      <c r="W240" t="s">
+        <v>56</v>
+      </c>
+      <c r="X240" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP240" s="1">
+        <v>44638</v>
+      </c>
+      <c r="AQ240" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR240" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT240" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A241" t="s">
+        <v>49</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44611</v>
+      </c>
+      <c r="C241" t="s">
+        <v>141</v>
+      </c>
+      <c r="D241" t="s">
+        <v>51</v>
+      </c>
+      <c r="E241" t="s">
+        <v>87</v>
+      </c>
+      <c r="F241" t="s">
+        <v>68</v>
+      </c>
+      <c r="G241" t="s">
+        <v>54</v>
+      </c>
+      <c r="H241" t="s">
+        <v>396</v>
+      </c>
+      <c r="I241" t="s">
+        <v>50</v>
+      </c>
+      <c r="J241" t="s">
+        <v>56</v>
+      </c>
+      <c r="K241" t="s">
+        <v>50</v>
+      </c>
+      <c r="L241" t="s">
+        <v>50</v>
+      </c>
+      <c r="M241" t="s">
+        <v>56</v>
+      </c>
+      <c r="N241" t="s">
+        <v>71</v>
+      </c>
+      <c r="O241" t="s">
+        <v>50</v>
+      </c>
+      <c r="P241" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>56</v>
+      </c>
+      <c r="R241" t="s">
+        <v>71</v>
+      </c>
+      <c r="S241" t="s">
+        <v>56</v>
+      </c>
+      <c r="T241" t="s">
+        <v>56</v>
+      </c>
+      <c r="U241" t="s">
+        <v>56</v>
+      </c>
+      <c r="V241" t="s">
+        <v>56</v>
+      </c>
+      <c r="W241" t="s">
+        <v>56</v>
+      </c>
+      <c r="X241" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK241" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP241" s="1">
+        <v>44611</v>
+      </c>
+      <c r="AQ241" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR241" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS241" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT241" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV241" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX241" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="242" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A242" t="s">
+        <v>49</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C242" t="s">
+        <v>90</v>
+      </c>
+      <c r="D242" t="s">
+        <v>51</v>
+      </c>
+      <c r="E242" t="s">
+        <v>87</v>
+      </c>
+      <c r="F242" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" t="s">
+        <v>54</v>
+      </c>
+      <c r="H242" t="s">
+        <v>397</v>
+      </c>
+      <c r="I242" t="s">
+        <v>56</v>
+      </c>
+      <c r="J242" t="s">
+        <v>58</v>
+      </c>
+      <c r="K242" t="s">
+        <v>56</v>
+      </c>
+      <c r="L242" t="s">
+        <v>56</v>
+      </c>
+      <c r="M242" t="s">
+        <v>56</v>
+      </c>
+      <c r="N242" t="s">
+        <v>56</v>
+      </c>
+      <c r="O242" t="s">
+        <v>57</v>
+      </c>
+      <c r="P242" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>71</v>
+      </c>
+      <c r="R242" t="s">
+        <v>56</v>
+      </c>
+      <c r="S242" t="s">
+        <v>56</v>
+      </c>
+      <c r="T242" t="s">
+        <v>50</v>
+      </c>
+      <c r="U242" t="s">
+        <v>56</v>
+      </c>
+      <c r="V242" t="s">
+        <v>56</v>
+      </c>
+      <c r="W242" t="s">
+        <v>56</v>
+      </c>
+      <c r="X242" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP242" s="1">
+        <v>44639</v>
+      </c>
+      <c r="AQ242" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR242" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS242" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT242" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU242" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX242" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="243" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A243" t="s">
+        <v>49</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44618</v>
+      </c>
+      <c r="C243" t="s">
+        <v>83</v>
+      </c>
+      <c r="D243" t="s">
+        <v>51</v>
+      </c>
+      <c r="E243" t="s">
+        <v>399</v>
+      </c>
+      <c r="F243" t="s">
+        <v>109</v>
+      </c>
+      <c r="G243" t="s">
+        <v>400</v>
+      </c>
+      <c r="H243" t="s">
+        <v>401</v>
+      </c>
+      <c r="I243" t="s">
+        <v>56</v>
+      </c>
+      <c r="J243" t="s">
+        <v>56</v>
+      </c>
+      <c r="K243" t="s">
+        <v>56</v>
+      </c>
+      <c r="L243" t="s">
+        <v>50</v>
+      </c>
+      <c r="M243" t="s">
+        <v>50</v>
+      </c>
+      <c r="N243" t="s">
+        <v>50</v>
+      </c>
+      <c r="O243" t="s">
+        <v>56</v>
+      </c>
+      <c r="P243" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>56</v>
+      </c>
+      <c r="R243" t="s">
+        <v>50</v>
+      </c>
+      <c r="S243" t="s">
+        <v>50</v>
+      </c>
+      <c r="T243" t="s">
+        <v>50</v>
+      </c>
+      <c r="U243" t="s">
+        <v>56</v>
+      </c>
+      <c r="V243" t="s">
+        <v>56</v>
+      </c>
+      <c r="W243" t="s">
+        <v>56</v>
+      </c>
+      <c r="X243" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO243" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP243" s="1">
+        <v>44618</v>
+      </c>
+      <c r="AQ243" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT243" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU243" t="s">
+        <v>402</v>
+      </c>
+      <c r="AV243" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW243" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX243" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A244" t="s">
+        <v>49</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C244" t="s">
+        <v>106</v>
+      </c>
+      <c r="D244" t="s">
+        <v>51</v>
+      </c>
+      <c r="E244" t="s">
+        <v>93</v>
+      </c>
+      <c r="F244" t="s">
+        <v>68</v>
+      </c>
+      <c r="G244" t="s">
+        <v>54</v>
+      </c>
+      <c r="H244" t="s">
+        <v>350</v>
+      </c>
+      <c r="I244" t="s">
+        <v>56</v>
+      </c>
+      <c r="J244" t="s">
+        <v>58</v>
+      </c>
+      <c r="K244" t="s">
+        <v>71</v>
+      </c>
+      <c r="L244" t="s">
+        <v>50</v>
+      </c>
+      <c r="M244" t="s">
+        <v>71</v>
+      </c>
+      <c r="N244" t="s">
+        <v>56</v>
+      </c>
+      <c r="O244" t="s">
+        <v>56</v>
+      </c>
+      <c r="P244" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>56</v>
+      </c>
+      <c r="R244" t="s">
+        <v>56</v>
+      </c>
+      <c r="S244" t="s">
+        <v>56</v>
+      </c>
+      <c r="T244" t="s">
+        <v>71</v>
+      </c>
+      <c r="U244" t="s">
+        <v>50</v>
+      </c>
+      <c r="V244" t="s">
+        <v>58</v>
+      </c>
+      <c r="W244" t="s">
+        <v>56</v>
+      </c>
+      <c r="X244" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF244" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK244" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP244" s="1">
+        <v>44641</v>
+      </c>
+      <c r="AQ244" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR244" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS244" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT244" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU244" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV244" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW244" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="245" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A245" t="s">
+        <v>49</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C245" t="s">
+        <v>90</v>
+      </c>
+      <c r="D245" t="s">
+        <v>51</v>
+      </c>
+      <c r="E245" t="s">
+        <v>99</v>
+      </c>
+      <c r="F245" t="s">
+        <v>68</v>
+      </c>
+      <c r="G245" t="s">
+        <v>54</v>
+      </c>
+      <c r="H245" t="s">
+        <v>403</v>
+      </c>
+      <c r="I245" t="s">
+        <v>56</v>
+      </c>
+      <c r="J245" t="s">
+        <v>72</v>
+      </c>
+      <c r="K245" t="s">
+        <v>50</v>
+      </c>
+      <c r="L245" t="s">
+        <v>50</v>
+      </c>
+      <c r="M245" t="s">
+        <v>50</v>
+      </c>
+      <c r="N245" t="s">
+        <v>50</v>
+      </c>
+      <c r="O245" t="s">
+        <v>50</v>
+      </c>
+      <c r="P245" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>50</v>
+      </c>
+      <c r="R245" t="s">
+        <v>50</v>
+      </c>
+      <c r="S245" t="s">
+        <v>56</v>
+      </c>
+      <c r="T245" t="s">
+        <v>56</v>
+      </c>
+      <c r="U245" t="s">
+        <v>50</v>
+      </c>
+      <c r="V245" t="s">
+        <v>56</v>
+      </c>
+      <c r="W245" t="s">
+        <v>50</v>
+      </c>
+      <c r="X245" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP245" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ245" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR245" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT245" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU245" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW245" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="246" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A246" t="s">
+        <v>49</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C246" t="s">
+        <v>90</v>
+      </c>
+      <c r="D246" t="s">
+        <v>51</v>
+      </c>
+      <c r="E246" t="s">
+        <v>99</v>
+      </c>
+      <c r="F246" t="s">
+        <v>187</v>
+      </c>
+      <c r="G246" t="s">
+        <v>54</v>
+      </c>
+      <c r="H246" t="s">
+        <v>404</v>
+      </c>
+      <c r="I246" t="s">
+        <v>56</v>
+      </c>
+      <c r="J246" t="s">
+        <v>50</v>
+      </c>
+      <c r="K246" t="s">
+        <v>56</v>
+      </c>
+      <c r="L246" t="s">
+        <v>56</v>
+      </c>
+      <c r="M246" t="s">
+        <v>56</v>
+      </c>
+      <c r="N246" t="s">
+        <v>56</v>
+      </c>
+      <c r="O246" t="s">
+        <v>56</v>
+      </c>
+      <c r="P246" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>56</v>
+      </c>
+      <c r="R246" t="s">
+        <v>56</v>
+      </c>
+      <c r="S246" t="s">
+        <v>56</v>
+      </c>
+      <c r="T246" t="s">
+        <v>56</v>
+      </c>
+      <c r="U246" t="s">
+        <v>56</v>
+      </c>
+      <c r="V246" t="s">
+        <v>56</v>
+      </c>
+      <c r="W246" t="s">
+        <v>56</v>
+      </c>
+      <c r="X246" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP246" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR246" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT246" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW246" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX246" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="247" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A247" t="s">
+        <v>49</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C247" t="s">
+        <v>90</v>
+      </c>
+      <c r="D247" t="s">
+        <v>51</v>
+      </c>
+      <c r="E247" t="s">
+        <v>99</v>
+      </c>
+      <c r="F247" t="s">
+        <v>105</v>
+      </c>
+      <c r="G247" t="s">
+        <v>54</v>
+      </c>
+      <c r="H247" t="s">
+        <v>348</v>
+      </c>
+      <c r="I247" t="s">
+        <v>56</v>
+      </c>
+      <c r="J247" t="s">
+        <v>57</v>
+      </c>
+      <c r="K247" t="s">
+        <v>50</v>
+      </c>
+      <c r="L247" t="s">
+        <v>58</v>
+      </c>
+      <c r="M247" t="s">
+        <v>56</v>
+      </c>
+      <c r="N247" t="s">
+        <v>50</v>
+      </c>
+      <c r="O247" t="s">
+        <v>58</v>
+      </c>
+      <c r="P247" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>56</v>
+      </c>
+      <c r="R247" t="s">
+        <v>56</v>
+      </c>
+      <c r="S247" t="s">
+        <v>56</v>
+      </c>
+      <c r="T247" t="s">
+        <v>50</v>
+      </c>
+      <c r="U247" t="s">
+        <v>56</v>
+      </c>
+      <c r="V247" t="s">
+        <v>56</v>
+      </c>
+      <c r="W247" t="s">
+        <v>50</v>
+      </c>
+      <c r="X247" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP247" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR247" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT247" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV247" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW247" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX247" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="248" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A248" t="s">
+        <v>49</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C248" t="s">
+        <v>90</v>
+      </c>
+      <c r="D248" t="s">
+        <v>51</v>
+      </c>
+      <c r="E248" t="s">
+        <v>99</v>
+      </c>
+      <c r="F248" t="s">
+        <v>143</v>
+      </c>
+      <c r="G248" t="s">
+        <v>54</v>
+      </c>
+      <c r="H248" t="s">
+        <v>349</v>
+      </c>
+      <c r="I248" t="s">
+        <v>56</v>
+      </c>
+      <c r="J248" t="s">
+        <v>50</v>
+      </c>
+      <c r="K248" t="s">
+        <v>56</v>
+      </c>
+      <c r="L248" t="s">
+        <v>56</v>
+      </c>
+      <c r="M248" t="s">
+        <v>56</v>
+      </c>
+      <c r="N248" t="s">
+        <v>56</v>
+      </c>
+      <c r="O248" t="s">
+        <v>56</v>
+      </c>
+      <c r="P248" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>56</v>
+      </c>
+      <c r="R248" t="s">
+        <v>56</v>
+      </c>
+      <c r="S248" t="s">
+        <v>56</v>
+      </c>
+      <c r="T248" t="s">
+        <v>56</v>
+      </c>
+      <c r="U248" t="s">
+        <v>56</v>
+      </c>
+      <c r="V248" t="s">
+        <v>56</v>
+      </c>
+      <c r="W248" t="s">
+        <v>56</v>
+      </c>
+      <c r="X248" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH248" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP248" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR248" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS248" t="s">
+        <v>405</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV248" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW248" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX248" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="249" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A249" t="s">
+        <v>49</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C249" t="s">
+        <v>90</v>
+      </c>
+      <c r="D249" t="s">
+        <v>51</v>
+      </c>
+      <c r="E249" t="s">
+        <v>120</v>
+      </c>
+      <c r="F249" t="s">
+        <v>68</v>
+      </c>
+      <c r="G249" t="s">
+        <v>54</v>
+      </c>
+      <c r="H249" t="s">
+        <v>406</v>
+      </c>
+      <c r="I249" t="s">
+        <v>56</v>
+      </c>
+      <c r="J249" t="s">
+        <v>56</v>
+      </c>
+      <c r="K249" t="s">
+        <v>56</v>
+      </c>
+      <c r="L249" t="s">
+        <v>56</v>
+      </c>
+      <c r="M249" t="s">
+        <v>56</v>
+      </c>
+      <c r="N249" t="s">
+        <v>56</v>
+      </c>
+      <c r="O249" t="s">
+        <v>50</v>
+      </c>
+      <c r="P249" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>56</v>
+      </c>
+      <c r="R249" t="s">
+        <v>56</v>
+      </c>
+      <c r="S249" t="s">
+        <v>56</v>
+      </c>
+      <c r="T249" t="s">
+        <v>56</v>
+      </c>
+      <c r="U249" t="s">
+        <v>56</v>
+      </c>
+      <c r="V249" t="s">
+        <v>56</v>
+      </c>
+      <c r="W249" t="s">
+        <v>50</v>
+      </c>
+      <c r="X249" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP249" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR249" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX249" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="250" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A250" t="s">
+        <v>49</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C250" t="s">
+        <v>90</v>
+      </c>
+      <c r="D250" t="s">
+        <v>51</v>
+      </c>
+      <c r="E250" t="s">
+        <v>150</v>
+      </c>
+      <c r="F250" t="s">
+        <v>100</v>
+      </c>
+      <c r="G250" t="s">
+        <v>54</v>
+      </c>
+      <c r="H250" t="s">
+        <v>256</v>
+      </c>
+      <c r="I250" t="s">
+        <v>56</v>
+      </c>
+      <c r="J250" t="s">
+        <v>58</v>
+      </c>
+      <c r="K250" t="s">
+        <v>56</v>
+      </c>
+      <c r="L250" t="s">
+        <v>56</v>
+      </c>
+      <c r="M250" t="s">
+        <v>56</v>
+      </c>
+      <c r="N250" t="s">
+        <v>56</v>
+      </c>
+      <c r="O250" t="s">
+        <v>50</v>
+      </c>
+      <c r="P250" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>50</v>
+      </c>
+      <c r="R250" t="s">
+        <v>56</v>
+      </c>
+      <c r="S250" t="s">
+        <v>56</v>
+      </c>
+      <c r="T250" t="s">
+        <v>56</v>
+      </c>
+      <c r="U250" t="s">
+        <v>56</v>
+      </c>
+      <c r="V250" t="s">
+        <v>56</v>
+      </c>
+      <c r="W250" t="s">
+        <v>56</v>
+      </c>
+      <c r="X250" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP250" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR250" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX250" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A251" t="s">
+        <v>49</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C251" t="s">
+        <v>90</v>
+      </c>
+      <c r="D251" t="s">
+        <v>51</v>
+      </c>
+      <c r="E251" t="s">
+        <v>133</v>
+      </c>
+      <c r="F251" t="s">
+        <v>68</v>
+      </c>
+      <c r="G251" t="s">
+        <v>54</v>
+      </c>
+      <c r="H251" t="s">
+        <v>407</v>
+      </c>
+      <c r="I251" t="s">
+        <v>56</v>
+      </c>
+      <c r="J251" t="s">
+        <v>57</v>
+      </c>
+      <c r="K251" t="s">
+        <v>71</v>
+      </c>
+      <c r="L251" t="s">
+        <v>71</v>
+      </c>
+      <c r="M251" t="s">
+        <v>56</v>
+      </c>
+      <c r="N251" t="s">
+        <v>56</v>
+      </c>
+      <c r="O251" t="s">
+        <v>50</v>
+      </c>
+      <c r="P251" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>57</v>
+      </c>
+      <c r="R251" t="s">
+        <v>56</v>
+      </c>
+      <c r="S251" t="s">
+        <v>71</v>
+      </c>
+      <c r="T251" t="s">
+        <v>71</v>
+      </c>
+      <c r="U251" t="s">
+        <v>50</v>
+      </c>
+      <c r="V251" t="s">
+        <v>50</v>
+      </c>
+      <c r="W251" t="s">
+        <v>71</v>
+      </c>
+      <c r="X251" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP251" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR251" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A252" t="s">
+        <v>49</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C252" t="s">
+        <v>90</v>
+      </c>
+      <c r="D252" t="s">
+        <v>51</v>
+      </c>
+      <c r="E252" t="s">
+        <v>129</v>
+      </c>
+      <c r="F252" t="s">
+        <v>68</v>
+      </c>
+      <c r="G252" t="s">
+        <v>54</v>
+      </c>
+      <c r="H252" t="s">
+        <v>356</v>
+      </c>
+      <c r="I252" t="s">
+        <v>56</v>
+      </c>
+      <c r="J252" t="s">
+        <v>56</v>
+      </c>
+      <c r="K252" t="s">
+        <v>56</v>
+      </c>
+      <c r="L252" t="s">
+        <v>56</v>
+      </c>
+      <c r="M252" t="s">
+        <v>56</v>
+      </c>
+      <c r="N252" t="s">
+        <v>56</v>
+      </c>
+      <c r="O252" t="s">
+        <v>56</v>
+      </c>
+      <c r="P252" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>56</v>
+      </c>
+      <c r="R252" t="s">
+        <v>56</v>
+      </c>
+      <c r="S252" t="s">
+        <v>56</v>
+      </c>
+      <c r="T252" t="s">
+        <v>56</v>
+      </c>
+      <c r="U252" t="s">
+        <v>56</v>
+      </c>
+      <c r="V252" t="s">
+        <v>56</v>
+      </c>
+      <c r="W252" t="s">
+        <v>56</v>
+      </c>
+      <c r="X252" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP252" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR252" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS252" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX252" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="253" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A253" t="s">
+        <v>49</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C253" t="s">
+        <v>90</v>
+      </c>
+      <c r="D253" t="s">
+        <v>51</v>
+      </c>
+      <c r="E253" t="s">
+        <v>139</v>
+      </c>
+      <c r="F253" t="s">
+        <v>68</v>
+      </c>
+      <c r="G253" t="s">
+        <v>54</v>
+      </c>
+      <c r="H253" t="s">
+        <v>408</v>
+      </c>
+      <c r="I253" t="s">
+        <v>56</v>
+      </c>
+      <c r="J253" t="s">
+        <v>102</v>
+      </c>
+      <c r="K253" t="s">
+        <v>141</v>
+      </c>
+      <c r="L253" t="s">
+        <v>56</v>
+      </c>
+      <c r="M253" t="s">
+        <v>50</v>
+      </c>
+      <c r="N253" t="s">
+        <v>70</v>
+      </c>
+      <c r="O253" t="s">
+        <v>50</v>
+      </c>
+      <c r="P253" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>57</v>
+      </c>
+      <c r="R253" t="s">
+        <v>56</v>
+      </c>
+      <c r="S253" t="s">
+        <v>56</v>
+      </c>
+      <c r="T253" t="s">
+        <v>58</v>
+      </c>
+      <c r="U253" t="s">
+        <v>56</v>
+      </c>
+      <c r="V253" t="s">
+        <v>50</v>
+      </c>
+      <c r="W253" t="s">
+        <v>50</v>
+      </c>
+      <c r="X253" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP253" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR253" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS253" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT253" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX253" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="254" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A254" t="s">
+        <v>49</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C254" t="s">
+        <v>90</v>
+      </c>
+      <c r="D254" t="s">
+        <v>51</v>
+      </c>
+      <c r="E254" t="s">
+        <v>161</v>
+      </c>
+      <c r="F254" t="s">
+        <v>68</v>
+      </c>
+      <c r="G254" t="s">
+        <v>54</v>
+      </c>
+      <c r="H254" t="s">
+        <v>409</v>
+      </c>
+      <c r="I254" t="s">
+        <v>56</v>
+      </c>
+      <c r="J254" t="s">
+        <v>57</v>
+      </c>
+      <c r="K254" t="s">
+        <v>71</v>
+      </c>
+      <c r="L254" t="s">
+        <v>50</v>
+      </c>
+      <c r="M254" t="s">
+        <v>56</v>
+      </c>
+      <c r="N254" t="s">
+        <v>71</v>
+      </c>
+      <c r="O254" t="s">
+        <v>141</v>
+      </c>
+      <c r="P254" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>58</v>
+      </c>
+      <c r="R254" t="s">
+        <v>50</v>
+      </c>
+      <c r="S254" t="s">
+        <v>56</v>
+      </c>
+      <c r="T254" t="s">
+        <v>50</v>
+      </c>
+      <c r="U254" t="s">
+        <v>56</v>
+      </c>
+      <c r="V254" t="s">
+        <v>56</v>
+      </c>
+      <c r="W254" t="s">
+        <v>56</v>
+      </c>
+      <c r="X254" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP254" s="1">
+        <v>44639</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR254" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT254" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX254" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A255" t="s">
+        <v>49</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44636</v>
+      </c>
+      <c r="C255" t="s">
+        <v>90</v>
+      </c>
+      <c r="D255" t="s">
+        <v>51</v>
+      </c>
+      <c r="E255" t="s">
+        <v>154</v>
+      </c>
+      <c r="F255" t="s">
+        <v>68</v>
+      </c>
+      <c r="G255" t="s">
+        <v>54</v>
+      </c>
+      <c r="H255" t="s">
+        <v>411</v>
+      </c>
+      <c r="I255" t="s">
+        <v>50</v>
+      </c>
+      <c r="J255" t="s">
+        <v>95</v>
+      </c>
+      <c r="K255" t="s">
+        <v>106</v>
+      </c>
+      <c r="L255" t="s">
+        <v>71</v>
+      </c>
+      <c r="M255" t="s">
+        <v>50</v>
+      </c>
+      <c r="N255" t="s">
+        <v>141</v>
+      </c>
+      <c r="O255" t="s">
+        <v>70</v>
+      </c>
+      <c r="P255" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>83</v>
+      </c>
+      <c r="R255" t="s">
+        <v>57</v>
+      </c>
+      <c r="S255" t="s">
+        <v>71</v>
+      </c>
+      <c r="T255" t="s">
+        <v>50</v>
+      </c>
+      <c r="U255" t="s">
+        <v>72</v>
+      </c>
+      <c r="V255" t="s">
+        <v>57</v>
+      </c>
+      <c r="W255" t="s">
+        <v>72</v>
+      </c>
+      <c r="X255" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>360</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP255" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR255" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS255" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT255" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU255" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV255" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW255" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX255" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="256" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A256" t="s">
+        <v>49</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C256" t="s">
+        <v>90</v>
+      </c>
+      <c r="D256" t="s">
+        <v>51</v>
+      </c>
+      <c r="E256" t="s">
+        <v>147</v>
+      </c>
+      <c r="F256" t="s">
+        <v>68</v>
+      </c>
+      <c r="G256" t="s">
+        <v>54</v>
+      </c>
+      <c r="H256" t="s">
+        <v>55</v>
+      </c>
+      <c r="I256" t="s">
+        <v>50</v>
+      </c>
+      <c r="J256" t="s">
+        <v>56</v>
+      </c>
+      <c r="K256" t="s">
+        <v>50</v>
+      </c>
+      <c r="L256" t="s">
+        <v>50</v>
+      </c>
+      <c r="M256" t="s">
+        <v>50</v>
+      </c>
+      <c r="N256" t="s">
+        <v>71</v>
+      </c>
+      <c r="O256" t="s">
+        <v>56</v>
+      </c>
+      <c r="P256" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>50</v>
+      </c>
+      <c r="R256" t="s">
+        <v>58</v>
+      </c>
+      <c r="S256" t="s">
+        <v>57</v>
+      </c>
+      <c r="T256" t="s">
+        <v>50</v>
+      </c>
+      <c r="U256" t="s">
+        <v>50</v>
+      </c>
+      <c r="V256" t="s">
+        <v>50</v>
+      </c>
+      <c r="W256" t="s">
+        <v>50</v>
+      </c>
+      <c r="X256" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>412</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP256" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR256" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS256" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT256" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU256" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV256" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW256" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX256" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="257" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A257" t="s">
+        <v>49</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44632</v>
+      </c>
+      <c r="C257" t="s">
+        <v>81</v>
+      </c>
+      <c r="D257" t="s">
+        <v>51</v>
+      </c>
+      <c r="E257" t="s">
+        <v>124</v>
+      </c>
+      <c r="F257" t="s">
+        <v>95</v>
+      </c>
+      <c r="G257" t="s">
+        <v>54</v>
+      </c>
+      <c r="H257" t="s">
+        <v>328</v>
+      </c>
+      <c r="I257" t="s">
+        <v>56</v>
+      </c>
+      <c r="J257" t="s">
+        <v>58</v>
+      </c>
+      <c r="K257" t="s">
+        <v>56</v>
+      </c>
+      <c r="L257" t="s">
+        <v>56</v>
+      </c>
+      <c r="M257" t="s">
+        <v>50</v>
+      </c>
+      <c r="N257" t="s">
+        <v>56</v>
+      </c>
+      <c r="O257" t="s">
+        <v>56</v>
+      </c>
+      <c r="P257" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>56</v>
+      </c>
+      <c r="R257" t="s">
+        <v>56</v>
+      </c>
+      <c r="S257" t="s">
+        <v>56</v>
+      </c>
+      <c r="T257" t="s">
+        <v>56</v>
+      </c>
+      <c r="U257" t="s">
+        <v>56</v>
+      </c>
+      <c r="V257" t="s">
+        <v>56</v>
+      </c>
+      <c r="W257" t="s">
+        <v>56</v>
+      </c>
+      <c r="X257" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP257" s="1">
+        <v>44634</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR257" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT257" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU257" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV257" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX257" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A258" t="s">
+        <v>49</v>
+      </c>
+      <c r="B258" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C258" t="s">
+        <v>90</v>
+      </c>
+      <c r="D258" t="s">
+        <v>51</v>
+      </c>
+      <c r="E258" t="s">
+        <v>161</v>
+      </c>
+      <c r="F258" t="s">
+        <v>100</v>
+      </c>
+      <c r="G258" t="s">
+        <v>54</v>
+      </c>
+      <c r="H258" t="s">
+        <v>81</v>
+      </c>
+      <c r="I258" t="s">
+        <v>50</v>
+      </c>
+      <c r="J258" t="s">
+        <v>71</v>
+      </c>
+      <c r="K258" t="s">
+        <v>56</v>
+      </c>
+      <c r="L258" t="s">
+        <v>50</v>
+      </c>
+      <c r="M258" t="s">
+        <v>56</v>
+      </c>
+      <c r="N258" t="s">
+        <v>58</v>
+      </c>
+      <c r="O258" t="s">
+        <v>50</v>
+      </c>
+      <c r="P258" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>71</v>
+      </c>
+      <c r="R258" t="s">
+        <v>50</v>
+      </c>
+      <c r="S258" t="s">
+        <v>50</v>
+      </c>
+      <c r="T258" t="s">
+        <v>56</v>
+      </c>
+      <c r="U258" t="s">
+        <v>56</v>
+      </c>
+      <c r="V258" t="s">
+        <v>56</v>
+      </c>
+      <c r="W258" t="s">
+        <v>56</v>
+      </c>
+      <c r="X258" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>344</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP258" s="1">
+        <v>44642</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>235</v>
+      </c>
+      <c r="AR258" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX258" t="s">
         <v>235</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAEE18F3-B6C2-AE4E-A941-67AAB44316D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA677648-6423-564A-B5F7-5747F2C4B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="15360"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12368" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13616" uniqueCount="435">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1261,6 +1261,69 @@
     <t>CLINICA PINSRES MEDICA</t>
   </si>
   <si>
+    <t>AVENIDA 30 AGOSTO 48-74</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>1122</t>
+  </si>
+  <si>
+    <t>1123</t>
+  </si>
+  <si>
+    <t>1124</t>
+  </si>
+  <si>
+    <t>1125</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>856</t>
+  </si>
+  <si>
+    <t>857</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD LA FLORIDA</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.3.0$0$0.1</t>
+  </si>
+  <si>
+    <t>VIRREY SOLIS IPS SA ALPES</t>
+  </si>
+  <si>
+    <t>CRA 16 BIS  8-24 EIDIFICIO OK</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>1931</t>
+  </si>
+  <si>
+    <t>1932</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1268,10 +1331,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1294,9 +1362,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX258"/>
+  <dimension ref="A1:AX284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1697,8 +1766,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>413</v>
+      <c r="D1" s="2" t="s">
+        <v>434</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -40847,6 +40916,3958 @@
       </c>
       <c r="AX258" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="259" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A259" t="s">
+        <v>49</v>
+      </c>
+      <c r="B259" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C259" t="s">
+        <v>106</v>
+      </c>
+      <c r="D259" t="s">
+        <v>51</v>
+      </c>
+      <c r="E259" t="s">
+        <v>161</v>
+      </c>
+      <c r="F259" t="s">
+        <v>68</v>
+      </c>
+      <c r="G259" t="s">
+        <v>54</v>
+      </c>
+      <c r="H259" t="s">
+        <v>55</v>
+      </c>
+      <c r="I259" t="s">
+        <v>56</v>
+      </c>
+      <c r="J259" t="s">
+        <v>56</v>
+      </c>
+      <c r="K259" t="s">
+        <v>70</v>
+      </c>
+      <c r="L259" t="s">
+        <v>50</v>
+      </c>
+      <c r="M259" t="s">
+        <v>50</v>
+      </c>
+      <c r="N259" t="s">
+        <v>141</v>
+      </c>
+      <c r="O259" t="s">
+        <v>72</v>
+      </c>
+      <c r="P259" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>71</v>
+      </c>
+      <c r="R259" t="s">
+        <v>50</v>
+      </c>
+      <c r="S259" t="s">
+        <v>56</v>
+      </c>
+      <c r="T259" t="s">
+        <v>56</v>
+      </c>
+      <c r="U259" t="s">
+        <v>50</v>
+      </c>
+      <c r="V259" t="s">
+        <v>56</v>
+      </c>
+      <c r="W259" t="s">
+        <v>56</v>
+      </c>
+      <c r="X259" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP259" s="1">
+        <v>44646</v>
+      </c>
+      <c r="AQ259" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR259" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS259" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU259" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV259" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW259" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX259" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="260" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A260" t="s">
+        <v>49</v>
+      </c>
+      <c r="B260" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C260" t="s">
+        <v>106</v>
+      </c>
+      <c r="D260" t="s">
+        <v>51</v>
+      </c>
+      <c r="E260" t="s">
+        <v>124</v>
+      </c>
+      <c r="F260" t="s">
+        <v>112</v>
+      </c>
+      <c r="G260" t="s">
+        <v>54</v>
+      </c>
+      <c r="H260" t="s">
+        <v>55</v>
+      </c>
+      <c r="I260" t="s">
+        <v>56</v>
+      </c>
+      <c r="J260" t="s">
+        <v>50</v>
+      </c>
+      <c r="K260" t="s">
+        <v>50</v>
+      </c>
+      <c r="L260" t="s">
+        <v>71</v>
+      </c>
+      <c r="M260" t="s">
+        <v>58</v>
+      </c>
+      <c r="N260" t="s">
+        <v>57</v>
+      </c>
+      <c r="O260" t="s">
+        <v>58</v>
+      </c>
+      <c r="P260" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>70</v>
+      </c>
+      <c r="R260" t="s">
+        <v>56</v>
+      </c>
+      <c r="S260" t="s">
+        <v>50</v>
+      </c>
+      <c r="T260" t="s">
+        <v>56</v>
+      </c>
+      <c r="U260" t="s">
+        <v>50</v>
+      </c>
+      <c r="V260" t="s">
+        <v>50</v>
+      </c>
+      <c r="W260" t="s">
+        <v>50</v>
+      </c>
+      <c r="X260" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>330</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP260" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR260" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT260" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU260" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV260" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW260" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX260" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="261" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A261" t="s">
+        <v>49</v>
+      </c>
+      <c r="B261" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C261" t="s">
+        <v>90</v>
+      </c>
+      <c r="D261" t="s">
+        <v>51</v>
+      </c>
+      <c r="E261" t="s">
+        <v>124</v>
+      </c>
+      <c r="F261" t="s">
+        <v>95</v>
+      </c>
+      <c r="G261" t="s">
+        <v>54</v>
+      </c>
+      <c r="H261" t="s">
+        <v>414</v>
+      </c>
+      <c r="I261" t="s">
+        <v>71</v>
+      </c>
+      <c r="J261" t="s">
+        <v>58</v>
+      </c>
+      <c r="K261" t="s">
+        <v>56</v>
+      </c>
+      <c r="L261" t="s">
+        <v>56</v>
+      </c>
+      <c r="M261" t="s">
+        <v>56</v>
+      </c>
+      <c r="N261" t="s">
+        <v>56</v>
+      </c>
+      <c r="O261" t="s">
+        <v>56</v>
+      </c>
+      <c r="P261" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>56</v>
+      </c>
+      <c r="R261" t="s">
+        <v>56</v>
+      </c>
+      <c r="S261" t="s">
+        <v>56</v>
+      </c>
+      <c r="T261" t="s">
+        <v>56</v>
+      </c>
+      <c r="U261" t="s">
+        <v>56</v>
+      </c>
+      <c r="V261" t="s">
+        <v>56</v>
+      </c>
+      <c r="W261" t="s">
+        <v>56</v>
+      </c>
+      <c r="X261" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP261" s="1">
+        <v>44643</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR261" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS261" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT261" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU261" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV261" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW261" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX261" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="262" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A262" t="s">
+        <v>49</v>
+      </c>
+      <c r="B262" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C262" t="s">
+        <v>106</v>
+      </c>
+      <c r="D262" t="s">
+        <v>51</v>
+      </c>
+      <c r="E262" t="s">
+        <v>99</v>
+      </c>
+      <c r="F262" t="s">
+        <v>100</v>
+      </c>
+      <c r="G262" t="s">
+        <v>54</v>
+      </c>
+      <c r="H262" t="s">
+        <v>415</v>
+      </c>
+      <c r="I262" t="s">
+        <v>56</v>
+      </c>
+      <c r="J262" t="s">
+        <v>57</v>
+      </c>
+      <c r="K262" t="s">
+        <v>71</v>
+      </c>
+      <c r="L262" t="s">
+        <v>50</v>
+      </c>
+      <c r="M262" t="s">
+        <v>56</v>
+      </c>
+      <c r="N262" t="s">
+        <v>71</v>
+      </c>
+      <c r="O262" t="s">
+        <v>50</v>
+      </c>
+      <c r="P262" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>50</v>
+      </c>
+      <c r="R262" t="s">
+        <v>56</v>
+      </c>
+      <c r="S262" t="s">
+        <v>56</v>
+      </c>
+      <c r="T262" t="s">
+        <v>50</v>
+      </c>
+      <c r="U262" t="s">
+        <v>56</v>
+      </c>
+      <c r="V262" t="s">
+        <v>56</v>
+      </c>
+      <c r="W262" t="s">
+        <v>56</v>
+      </c>
+      <c r="X262" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP262" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ262" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR262" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS262" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT262" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU262" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV262" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW262" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX262" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="263" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A263" t="s">
+        <v>49</v>
+      </c>
+      <c r="B263" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C263" t="s">
+        <v>106</v>
+      </c>
+      <c r="D263" t="s">
+        <v>51</v>
+      </c>
+      <c r="E263" t="s">
+        <v>99</v>
+      </c>
+      <c r="F263" t="s">
+        <v>81</v>
+      </c>
+      <c r="G263" t="s">
+        <v>54</v>
+      </c>
+      <c r="H263" t="s">
+        <v>416</v>
+      </c>
+      <c r="I263" t="s">
+        <v>56</v>
+      </c>
+      <c r="J263" t="s">
+        <v>56</v>
+      </c>
+      <c r="K263" t="s">
+        <v>56</v>
+      </c>
+      <c r="L263" t="s">
+        <v>56</v>
+      </c>
+      <c r="M263" t="s">
+        <v>56</v>
+      </c>
+      <c r="N263" t="s">
+        <v>50</v>
+      </c>
+      <c r="O263" t="s">
+        <v>56</v>
+      </c>
+      <c r="P263" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>56</v>
+      </c>
+      <c r="R263" t="s">
+        <v>56</v>
+      </c>
+      <c r="S263" t="s">
+        <v>56</v>
+      </c>
+      <c r="T263" t="s">
+        <v>56</v>
+      </c>
+      <c r="U263" t="s">
+        <v>56</v>
+      </c>
+      <c r="V263" t="s">
+        <v>56</v>
+      </c>
+      <c r="W263" t="s">
+        <v>56</v>
+      </c>
+      <c r="X263" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP263" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR263" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS263" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT263" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU263" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV263" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW263" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX263" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="264" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A264" t="s">
+        <v>49</v>
+      </c>
+      <c r="B264" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C264" t="s">
+        <v>106</v>
+      </c>
+      <c r="D264" t="s">
+        <v>51</v>
+      </c>
+      <c r="E264" t="s">
+        <v>99</v>
+      </c>
+      <c r="F264" t="s">
+        <v>171</v>
+      </c>
+      <c r="G264" t="s">
+        <v>54</v>
+      </c>
+      <c r="H264" t="s">
+        <v>417</v>
+      </c>
+      <c r="I264" t="s">
+        <v>56</v>
+      </c>
+      <c r="J264" t="s">
+        <v>50</v>
+      </c>
+      <c r="K264" t="s">
+        <v>56</v>
+      </c>
+      <c r="L264" t="s">
+        <v>56</v>
+      </c>
+      <c r="M264" t="s">
+        <v>56</v>
+      </c>
+      <c r="N264" t="s">
+        <v>56</v>
+      </c>
+      <c r="O264" t="s">
+        <v>56</v>
+      </c>
+      <c r="P264" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>56</v>
+      </c>
+      <c r="R264" t="s">
+        <v>56</v>
+      </c>
+      <c r="S264" t="s">
+        <v>56</v>
+      </c>
+      <c r="T264" t="s">
+        <v>56</v>
+      </c>
+      <c r="U264" t="s">
+        <v>56</v>
+      </c>
+      <c r="V264" t="s">
+        <v>56</v>
+      </c>
+      <c r="W264" t="s">
+        <v>56</v>
+      </c>
+      <c r="X264" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP264" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR264" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS264" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT264" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU264" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV264" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX264" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="265" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A265" t="s">
+        <v>49</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C265" t="s">
+        <v>106</v>
+      </c>
+      <c r="D265" t="s">
+        <v>51</v>
+      </c>
+      <c r="E265" t="s">
+        <v>99</v>
+      </c>
+      <c r="F265" t="s">
+        <v>106</v>
+      </c>
+      <c r="G265" t="s">
+        <v>54</v>
+      </c>
+      <c r="H265" t="s">
+        <v>418</v>
+      </c>
+      <c r="I265" t="s">
+        <v>56</v>
+      </c>
+      <c r="J265" t="s">
+        <v>56</v>
+      </c>
+      <c r="K265" t="s">
+        <v>56</v>
+      </c>
+      <c r="L265" t="s">
+        <v>50</v>
+      </c>
+      <c r="M265" t="s">
+        <v>56</v>
+      </c>
+      <c r="N265" t="s">
+        <v>56</v>
+      </c>
+      <c r="O265" t="s">
+        <v>56</v>
+      </c>
+      <c r="P265" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>56</v>
+      </c>
+      <c r="R265" t="s">
+        <v>56</v>
+      </c>
+      <c r="S265" t="s">
+        <v>56</v>
+      </c>
+      <c r="T265" t="s">
+        <v>56</v>
+      </c>
+      <c r="U265" t="s">
+        <v>56</v>
+      </c>
+      <c r="V265" t="s">
+        <v>56</v>
+      </c>
+      <c r="W265" t="s">
+        <v>56</v>
+      </c>
+      <c r="X265" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP265" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR265" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS265" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT265" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU265" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV265" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW265" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX265" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="266" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A266" t="s">
+        <v>49</v>
+      </c>
+      <c r="B266" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C266" t="s">
+        <v>106</v>
+      </c>
+      <c r="D266" t="s">
+        <v>51</v>
+      </c>
+      <c r="E266" t="s">
+        <v>99</v>
+      </c>
+      <c r="F266" t="s">
+        <v>90</v>
+      </c>
+      <c r="G266" t="s">
+        <v>54</v>
+      </c>
+      <c r="H266" t="s">
+        <v>419</v>
+      </c>
+      <c r="I266" t="s">
+        <v>56</v>
+      </c>
+      <c r="J266" t="s">
+        <v>56</v>
+      </c>
+      <c r="K266" t="s">
+        <v>56</v>
+      </c>
+      <c r="L266" t="s">
+        <v>56</v>
+      </c>
+      <c r="M266" t="s">
+        <v>56</v>
+      </c>
+      <c r="N266" t="s">
+        <v>56</v>
+      </c>
+      <c r="O266" t="s">
+        <v>56</v>
+      </c>
+      <c r="P266" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>56</v>
+      </c>
+      <c r="R266" t="s">
+        <v>56</v>
+      </c>
+      <c r="S266" t="s">
+        <v>56</v>
+      </c>
+      <c r="T266" t="s">
+        <v>56</v>
+      </c>
+      <c r="U266" t="s">
+        <v>56</v>
+      </c>
+      <c r="V266" t="s">
+        <v>56</v>
+      </c>
+      <c r="W266" t="s">
+        <v>50</v>
+      </c>
+      <c r="X266" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP266" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR266" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT266" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU266" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV266" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW266" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX266" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="267" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A267" t="s">
+        <v>49</v>
+      </c>
+      <c r="B267" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C267" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" t="s">
+        <v>51</v>
+      </c>
+      <c r="E267" t="s">
+        <v>120</v>
+      </c>
+      <c r="F267" t="s">
+        <v>68</v>
+      </c>
+      <c r="G267" t="s">
+        <v>54</v>
+      </c>
+      <c r="H267" t="s">
+        <v>420</v>
+      </c>
+      <c r="I267" t="s">
+        <v>56</v>
+      </c>
+      <c r="J267" t="s">
+        <v>56</v>
+      </c>
+      <c r="K267" t="s">
+        <v>56</v>
+      </c>
+      <c r="L267" t="s">
+        <v>56</v>
+      </c>
+      <c r="M267" t="s">
+        <v>56</v>
+      </c>
+      <c r="N267" t="s">
+        <v>56</v>
+      </c>
+      <c r="O267" t="s">
+        <v>56</v>
+      </c>
+      <c r="P267" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>56</v>
+      </c>
+      <c r="R267" t="s">
+        <v>50</v>
+      </c>
+      <c r="S267" t="s">
+        <v>56</v>
+      </c>
+      <c r="T267" t="s">
+        <v>56</v>
+      </c>
+      <c r="U267" t="s">
+        <v>50</v>
+      </c>
+      <c r="V267" t="s">
+        <v>56</v>
+      </c>
+      <c r="W267" t="s">
+        <v>56</v>
+      </c>
+      <c r="X267" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP267" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR267" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS267" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT267" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU267" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV267" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW267" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX267" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="268" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A268" t="s">
+        <v>49</v>
+      </c>
+      <c r="B268" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C268" t="s">
+        <v>106</v>
+      </c>
+      <c r="D268" t="s">
+        <v>51</v>
+      </c>
+      <c r="E268" t="s">
+        <v>52</v>
+      </c>
+      <c r="F268" t="s">
+        <v>53</v>
+      </c>
+      <c r="G268" t="s">
+        <v>54</v>
+      </c>
+      <c r="H268" t="s">
+        <v>55</v>
+      </c>
+      <c r="I268" t="s">
+        <v>56</v>
+      </c>
+      <c r="J268" t="s">
+        <v>50</v>
+      </c>
+      <c r="K268" t="s">
+        <v>56</v>
+      </c>
+      <c r="L268" t="s">
+        <v>56</v>
+      </c>
+      <c r="M268" t="s">
+        <v>56</v>
+      </c>
+      <c r="N268" t="s">
+        <v>56</v>
+      </c>
+      <c r="O268" t="s">
+        <v>56</v>
+      </c>
+      <c r="P268" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>56</v>
+      </c>
+      <c r="R268" t="s">
+        <v>50</v>
+      </c>
+      <c r="S268" t="s">
+        <v>56</v>
+      </c>
+      <c r="T268" t="s">
+        <v>56</v>
+      </c>
+      <c r="U268" t="s">
+        <v>56</v>
+      </c>
+      <c r="V268" t="s">
+        <v>56</v>
+      </c>
+      <c r="W268" t="s">
+        <v>50</v>
+      </c>
+      <c r="X268" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP268" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR268" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS268" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT268" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU268" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV268" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX268" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="269" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A269" t="s">
+        <v>49</v>
+      </c>
+      <c r="B269" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C269" t="s">
+        <v>106</v>
+      </c>
+      <c r="D269" t="s">
+        <v>51</v>
+      </c>
+      <c r="E269" t="s">
+        <v>133</v>
+      </c>
+      <c r="F269" t="s">
+        <v>68</v>
+      </c>
+      <c r="G269" t="s">
+        <v>54</v>
+      </c>
+      <c r="H269" t="s">
+        <v>421</v>
+      </c>
+      <c r="I269" t="s">
+        <v>56</v>
+      </c>
+      <c r="J269" t="s">
+        <v>50</v>
+      </c>
+      <c r="K269" t="s">
+        <v>50</v>
+      </c>
+      <c r="L269" t="s">
+        <v>50</v>
+      </c>
+      <c r="M269" t="s">
+        <v>71</v>
+      </c>
+      <c r="N269" t="s">
+        <v>56</v>
+      </c>
+      <c r="O269" t="s">
+        <v>50</v>
+      </c>
+      <c r="P269" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>50</v>
+      </c>
+      <c r="R269" t="s">
+        <v>56</v>
+      </c>
+      <c r="S269" t="s">
+        <v>56</v>
+      </c>
+      <c r="T269" t="s">
+        <v>56</v>
+      </c>
+      <c r="U269" t="s">
+        <v>56</v>
+      </c>
+      <c r="V269" t="s">
+        <v>56</v>
+      </c>
+      <c r="W269" t="s">
+        <v>50</v>
+      </c>
+      <c r="X269" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP269" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR269" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT269" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU269" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV269" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW269" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX269" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="270" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A270" t="s">
+        <v>49</v>
+      </c>
+      <c r="B270" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C270" t="s">
+        <v>106</v>
+      </c>
+      <c r="D270" t="s">
+        <v>51</v>
+      </c>
+      <c r="E270" t="s">
+        <v>93</v>
+      </c>
+      <c r="F270" t="s">
+        <v>68</v>
+      </c>
+      <c r="G270" t="s">
+        <v>54</v>
+      </c>
+      <c r="H270" t="s">
+        <v>208</v>
+      </c>
+      <c r="I270" t="s">
+        <v>56</v>
+      </c>
+      <c r="J270" t="s">
+        <v>56</v>
+      </c>
+      <c r="K270" t="s">
+        <v>56</v>
+      </c>
+      <c r="L270" t="s">
+        <v>71</v>
+      </c>
+      <c r="M270" t="s">
+        <v>71</v>
+      </c>
+      <c r="N270" t="s">
+        <v>50</v>
+      </c>
+      <c r="O270" t="s">
+        <v>50</v>
+      </c>
+      <c r="P270" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>56</v>
+      </c>
+      <c r="R270" t="s">
+        <v>56</v>
+      </c>
+      <c r="S270" t="s">
+        <v>56</v>
+      </c>
+      <c r="T270" t="s">
+        <v>56</v>
+      </c>
+      <c r="U270" t="s">
+        <v>50</v>
+      </c>
+      <c r="V270" t="s">
+        <v>50</v>
+      </c>
+      <c r="W270" t="s">
+        <v>71</v>
+      </c>
+      <c r="X270" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE270" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP270" s="1">
+        <v>44647</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR270" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS270" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT270" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU270" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV270" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW270" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX270" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="271" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A271" t="s">
+        <v>49</v>
+      </c>
+      <c r="B271" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C271" t="s">
+        <v>106</v>
+      </c>
+      <c r="D271" t="s">
+        <v>51</v>
+      </c>
+      <c r="E271" t="s">
+        <v>99</v>
+      </c>
+      <c r="F271" t="s">
+        <v>68</v>
+      </c>
+      <c r="G271" t="s">
+        <v>54</v>
+      </c>
+      <c r="H271" t="s">
+        <v>422</v>
+      </c>
+      <c r="I271" t="s">
+        <v>50</v>
+      </c>
+      <c r="J271" t="s">
+        <v>57</v>
+      </c>
+      <c r="K271" t="s">
+        <v>50</v>
+      </c>
+      <c r="L271" t="s">
+        <v>56</v>
+      </c>
+      <c r="M271" t="s">
+        <v>71</v>
+      </c>
+      <c r="N271" t="s">
+        <v>58</v>
+      </c>
+      <c r="O271" t="s">
+        <v>50</v>
+      </c>
+      <c r="P271" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>50</v>
+      </c>
+      <c r="R271" t="s">
+        <v>56</v>
+      </c>
+      <c r="S271" t="s">
+        <v>56</v>
+      </c>
+      <c r="T271" t="s">
+        <v>50</v>
+      </c>
+      <c r="U271" t="s">
+        <v>50</v>
+      </c>
+      <c r="V271" t="s">
+        <v>50</v>
+      </c>
+      <c r="W271" t="s">
+        <v>56</v>
+      </c>
+      <c r="X271" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ271" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP271" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR271" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU271" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV271" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW271" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX271" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="272" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A272" t="s">
+        <v>49</v>
+      </c>
+      <c r="B272" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C272" t="s">
+        <v>106</v>
+      </c>
+      <c r="D272" t="s">
+        <v>51</v>
+      </c>
+      <c r="E272" t="s">
+        <v>99</v>
+      </c>
+      <c r="F272" t="s">
+        <v>226</v>
+      </c>
+      <c r="G272" t="s">
+        <v>54</v>
+      </c>
+      <c r="H272" t="s">
+        <v>423</v>
+      </c>
+      <c r="I272" t="s">
+        <v>56</v>
+      </c>
+      <c r="J272" t="s">
+        <v>56</v>
+      </c>
+      <c r="K272" t="s">
+        <v>56</v>
+      </c>
+      <c r="L272" t="s">
+        <v>56</v>
+      </c>
+      <c r="M272" t="s">
+        <v>56</v>
+      </c>
+      <c r="N272" t="s">
+        <v>56</v>
+      </c>
+      <c r="O272" t="s">
+        <v>56</v>
+      </c>
+      <c r="P272" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>56</v>
+      </c>
+      <c r="R272" t="s">
+        <v>56</v>
+      </c>
+      <c r="S272" t="s">
+        <v>56</v>
+      </c>
+      <c r="T272" t="s">
+        <v>56</v>
+      </c>
+      <c r="U272" t="s">
+        <v>56</v>
+      </c>
+      <c r="V272" t="s">
+        <v>56</v>
+      </c>
+      <c r="W272" t="s">
+        <v>50</v>
+      </c>
+      <c r="X272" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP272" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR272" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>424</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU272" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV272" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW272" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="273" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A273" t="s">
+        <v>49</v>
+      </c>
+      <c r="B273" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C273" t="s">
+        <v>106</v>
+      </c>
+      <c r="D273" t="s">
+        <v>51</v>
+      </c>
+      <c r="E273" t="s">
+        <v>99</v>
+      </c>
+      <c r="F273" t="s">
+        <v>105</v>
+      </c>
+      <c r="G273" t="s">
+        <v>54</v>
+      </c>
+      <c r="H273" t="s">
+        <v>362</v>
+      </c>
+      <c r="I273" t="s">
+        <v>56</v>
+      </c>
+      <c r="J273" t="s">
+        <v>50</v>
+      </c>
+      <c r="K273" t="s">
+        <v>58</v>
+      </c>
+      <c r="L273" t="s">
+        <v>50</v>
+      </c>
+      <c r="M273" t="s">
+        <v>50</v>
+      </c>
+      <c r="N273" t="s">
+        <v>71</v>
+      </c>
+      <c r="O273" t="s">
+        <v>71</v>
+      </c>
+      <c r="P273" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>56</v>
+      </c>
+      <c r="R273" t="s">
+        <v>56</v>
+      </c>
+      <c r="S273" t="s">
+        <v>56</v>
+      </c>
+      <c r="T273" t="s">
+        <v>57</v>
+      </c>
+      <c r="U273" t="s">
+        <v>50</v>
+      </c>
+      <c r="V273" t="s">
+        <v>56</v>
+      </c>
+      <c r="W273" t="s">
+        <v>56</v>
+      </c>
+      <c r="X273" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF273" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG273" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH273" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI273" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ273" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO273" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP273" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ273" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR273" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU273" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV273" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW273" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX273" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="274" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A274" t="s">
+        <v>49</v>
+      </c>
+      <c r="B274" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C274" t="s">
+        <v>106</v>
+      </c>
+      <c r="D274" t="s">
+        <v>51</v>
+      </c>
+      <c r="E274" t="s">
+        <v>87</v>
+      </c>
+      <c r="F274" t="s">
+        <v>260</v>
+      </c>
+      <c r="G274" t="s">
+        <v>54</v>
+      </c>
+      <c r="H274" t="s">
+        <v>71</v>
+      </c>
+      <c r="I274" t="s">
+        <v>56</v>
+      </c>
+      <c r="J274" t="s">
+        <v>56</v>
+      </c>
+      <c r="K274" t="s">
+        <v>50</v>
+      </c>
+      <c r="L274" t="s">
+        <v>56</v>
+      </c>
+      <c r="M274" t="s">
+        <v>56</v>
+      </c>
+      <c r="N274" t="s">
+        <v>56</v>
+      </c>
+      <c r="O274" t="s">
+        <v>56</v>
+      </c>
+      <c r="P274" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>56</v>
+      </c>
+      <c r="R274" t="s">
+        <v>56</v>
+      </c>
+      <c r="S274" t="s">
+        <v>56</v>
+      </c>
+      <c r="T274" t="s">
+        <v>56</v>
+      </c>
+      <c r="U274" t="s">
+        <v>56</v>
+      </c>
+      <c r="V274" t="s">
+        <v>56</v>
+      </c>
+      <c r="W274" t="s">
+        <v>56</v>
+      </c>
+      <c r="X274" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG274" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH274" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI274" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ274" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK274" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO274" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP274" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>425</v>
+      </c>
+      <c r="AR274" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS274" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU274" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV274" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW274" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX274" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="275" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A275" t="s">
+        <v>49</v>
+      </c>
+      <c r="B275" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C275" t="s">
+        <v>106</v>
+      </c>
+      <c r="D275" t="s">
+        <v>51</v>
+      </c>
+      <c r="E275" t="s">
+        <v>150</v>
+      </c>
+      <c r="F275" t="s">
+        <v>100</v>
+      </c>
+      <c r="G275" t="s">
+        <v>54</v>
+      </c>
+      <c r="H275" t="s">
+        <v>257</v>
+      </c>
+      <c r="I275" t="s">
+        <v>56</v>
+      </c>
+      <c r="J275" t="s">
+        <v>70</v>
+      </c>
+      <c r="K275" t="s">
+        <v>56</v>
+      </c>
+      <c r="L275" t="s">
+        <v>56</v>
+      </c>
+      <c r="M275" t="s">
+        <v>56</v>
+      </c>
+      <c r="N275" t="s">
+        <v>50</v>
+      </c>
+      <c r="O275" t="s">
+        <v>71</v>
+      </c>
+      <c r="P275" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>50</v>
+      </c>
+      <c r="R275" t="s">
+        <v>56</v>
+      </c>
+      <c r="S275" t="s">
+        <v>56</v>
+      </c>
+      <c r="T275" t="s">
+        <v>56</v>
+      </c>
+      <c r="U275" t="s">
+        <v>71</v>
+      </c>
+      <c r="V275" t="s">
+        <v>56</v>
+      </c>
+      <c r="W275" t="s">
+        <v>56</v>
+      </c>
+      <c r="X275" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG275" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH275" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI275" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ275" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO275" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP275" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR275" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS275" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU275" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV275" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW275" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX275" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="276" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A276" t="s">
+        <v>49</v>
+      </c>
+      <c r="B276" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C276" t="s">
+        <v>106</v>
+      </c>
+      <c r="D276" t="s">
+        <v>51</v>
+      </c>
+      <c r="E276" t="s">
+        <v>161</v>
+      </c>
+      <c r="F276" t="s">
+        <v>100</v>
+      </c>
+      <c r="G276" t="s">
+        <v>54</v>
+      </c>
+      <c r="H276" t="s">
+        <v>90</v>
+      </c>
+      <c r="I276" t="s">
+        <v>56</v>
+      </c>
+      <c r="J276" t="s">
+        <v>56</v>
+      </c>
+      <c r="K276" t="s">
+        <v>56</v>
+      </c>
+      <c r="L276" t="s">
+        <v>56</v>
+      </c>
+      <c r="M276" t="s">
+        <v>56</v>
+      </c>
+      <c r="N276" t="s">
+        <v>50</v>
+      </c>
+      <c r="O276" t="s">
+        <v>71</v>
+      </c>
+      <c r="P276" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>56</v>
+      </c>
+      <c r="R276" t="s">
+        <v>58</v>
+      </c>
+      <c r="S276" t="s">
+        <v>50</v>
+      </c>
+      <c r="T276" t="s">
+        <v>56</v>
+      </c>
+      <c r="U276" t="s">
+        <v>56</v>
+      </c>
+      <c r="V276" t="s">
+        <v>56</v>
+      </c>
+      <c r="W276" t="s">
+        <v>56</v>
+      </c>
+      <c r="X276" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH276" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI276" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP276" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR276" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU276" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV276" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW276" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX276" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="277" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A277" t="s">
+        <v>49</v>
+      </c>
+      <c r="B277" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C277" t="s">
+        <v>106</v>
+      </c>
+      <c r="D277" t="s">
+        <v>51</v>
+      </c>
+      <c r="E277" t="s">
+        <v>147</v>
+      </c>
+      <c r="F277" t="s">
+        <v>68</v>
+      </c>
+      <c r="G277" t="s">
+        <v>54</v>
+      </c>
+      <c r="H277" t="s">
+        <v>314</v>
+      </c>
+      <c r="I277" t="s">
+        <v>56</v>
+      </c>
+      <c r="J277" t="s">
+        <v>56</v>
+      </c>
+      <c r="K277" t="s">
+        <v>56</v>
+      </c>
+      <c r="L277" t="s">
+        <v>56</v>
+      </c>
+      <c r="M277" t="s">
+        <v>56</v>
+      </c>
+      <c r="N277" t="s">
+        <v>56</v>
+      </c>
+      <c r="O277" t="s">
+        <v>56</v>
+      </c>
+      <c r="P277" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>50</v>
+      </c>
+      <c r="R277" t="s">
+        <v>50</v>
+      </c>
+      <c r="S277" t="s">
+        <v>56</v>
+      </c>
+      <c r="T277" t="s">
+        <v>56</v>
+      </c>
+      <c r="U277" t="s">
+        <v>50</v>
+      </c>
+      <c r="V277" t="s">
+        <v>71</v>
+      </c>
+      <c r="W277" t="s">
+        <v>50</v>
+      </c>
+      <c r="X277" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL277" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN277" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO277" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP277" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ277" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR277" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS277" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX277" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="278" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A278" t="s">
+        <v>49</v>
+      </c>
+      <c r="B278" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C278" t="s">
+        <v>106</v>
+      </c>
+      <c r="D278" t="s">
+        <v>51</v>
+      </c>
+      <c r="E278" t="s">
+        <v>67</v>
+      </c>
+      <c r="F278" t="s">
+        <v>68</v>
+      </c>
+      <c r="G278" t="s">
+        <v>54</v>
+      </c>
+      <c r="H278" t="s">
+        <v>428</v>
+      </c>
+      <c r="I278" t="s">
+        <v>50</v>
+      </c>
+      <c r="J278" t="s">
+        <v>72</v>
+      </c>
+      <c r="K278" t="s">
+        <v>71</v>
+      </c>
+      <c r="L278" t="s">
+        <v>71</v>
+      </c>
+      <c r="M278" t="s">
+        <v>58</v>
+      </c>
+      <c r="N278" t="s">
+        <v>58</v>
+      </c>
+      <c r="O278" t="s">
+        <v>57</v>
+      </c>
+      <c r="P278" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>50</v>
+      </c>
+      <c r="R278" t="s">
+        <v>71</v>
+      </c>
+      <c r="S278" t="s">
+        <v>50</v>
+      </c>
+      <c r="T278" t="s">
+        <v>50</v>
+      </c>
+      <c r="U278" t="s">
+        <v>71</v>
+      </c>
+      <c r="V278" t="s">
+        <v>56</v>
+      </c>
+      <c r="W278" t="s">
+        <v>50</v>
+      </c>
+      <c r="X278" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN278" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO278" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP278" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ278" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR278" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS278" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT278" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="279" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A279" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C279" t="s">
+        <v>106</v>
+      </c>
+      <c r="D279" t="s">
+        <v>51</v>
+      </c>
+      <c r="E279" t="s">
+        <v>67</v>
+      </c>
+      <c r="F279" t="s">
+        <v>78</v>
+      </c>
+      <c r="G279" t="s">
+        <v>54</v>
+      </c>
+      <c r="H279" t="s">
+        <v>429</v>
+      </c>
+      <c r="I279" t="s">
+        <v>50</v>
+      </c>
+      <c r="J279" t="s">
+        <v>71</v>
+      </c>
+      <c r="K279" t="s">
+        <v>71</v>
+      </c>
+      <c r="L279" t="s">
+        <v>50</v>
+      </c>
+      <c r="M279" t="s">
+        <v>57</v>
+      </c>
+      <c r="N279" t="s">
+        <v>50</v>
+      </c>
+      <c r="O279" t="s">
+        <v>58</v>
+      </c>
+      <c r="P279" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>141</v>
+      </c>
+      <c r="R279" t="s">
+        <v>58</v>
+      </c>
+      <c r="S279" t="s">
+        <v>56</v>
+      </c>
+      <c r="T279" t="s">
+        <v>50</v>
+      </c>
+      <c r="U279" t="s">
+        <v>56</v>
+      </c>
+      <c r="V279" t="s">
+        <v>56</v>
+      </c>
+      <c r="W279" t="s">
+        <v>56</v>
+      </c>
+      <c r="X279" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP279" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR279" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX279" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="280" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A280" t="s">
+        <v>49</v>
+      </c>
+      <c r="B280" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C280" t="s">
+        <v>106</v>
+      </c>
+      <c r="D280" t="s">
+        <v>51</v>
+      </c>
+      <c r="E280" t="s">
+        <v>67</v>
+      </c>
+      <c r="F280" t="s">
+        <v>81</v>
+      </c>
+      <c r="G280" t="s">
+        <v>54</v>
+      </c>
+      <c r="H280" t="s">
+        <v>430</v>
+      </c>
+      <c r="I280" t="s">
+        <v>71</v>
+      </c>
+      <c r="J280" t="s">
+        <v>72</v>
+      </c>
+      <c r="K280" t="s">
+        <v>70</v>
+      </c>
+      <c r="L280" t="s">
+        <v>56</v>
+      </c>
+      <c r="M280" t="s">
+        <v>57</v>
+      </c>
+      <c r="N280" t="s">
+        <v>58</v>
+      </c>
+      <c r="O280" t="s">
+        <v>71</v>
+      </c>
+      <c r="P280" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>50</v>
+      </c>
+      <c r="R280" t="s">
+        <v>56</v>
+      </c>
+      <c r="S280" t="s">
+        <v>50</v>
+      </c>
+      <c r="T280" t="s">
+        <v>56</v>
+      </c>
+      <c r="U280" t="s">
+        <v>71</v>
+      </c>
+      <c r="V280" t="s">
+        <v>50</v>
+      </c>
+      <c r="W280" t="s">
+        <v>58</v>
+      </c>
+      <c r="X280" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP280" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR280" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS280" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT280" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU280" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV280" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW280" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX280" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="281" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A281" t="s">
+        <v>49</v>
+      </c>
+      <c r="B281" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C281" t="s">
+        <v>106</v>
+      </c>
+      <c r="D281" t="s">
+        <v>51</v>
+      </c>
+      <c r="E281" t="s">
+        <v>139</v>
+      </c>
+      <c r="F281" t="s">
+        <v>68</v>
+      </c>
+      <c r="G281" t="s">
+        <v>54</v>
+      </c>
+      <c r="H281" t="s">
+        <v>431</v>
+      </c>
+      <c r="I281" t="s">
+        <v>56</v>
+      </c>
+      <c r="J281" t="s">
+        <v>90</v>
+      </c>
+      <c r="K281" t="s">
+        <v>141</v>
+      </c>
+      <c r="L281" t="s">
+        <v>71</v>
+      </c>
+      <c r="M281" t="s">
+        <v>56</v>
+      </c>
+      <c r="N281" t="s">
+        <v>70</v>
+      </c>
+      <c r="O281" t="s">
+        <v>50</v>
+      </c>
+      <c r="P281" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>71</v>
+      </c>
+      <c r="R281" t="s">
+        <v>57</v>
+      </c>
+      <c r="S281" t="s">
+        <v>50</v>
+      </c>
+      <c r="T281" t="s">
+        <v>58</v>
+      </c>
+      <c r="U281" t="s">
+        <v>56</v>
+      </c>
+      <c r="V281" t="s">
+        <v>58</v>
+      </c>
+      <c r="W281" t="s">
+        <v>71</v>
+      </c>
+      <c r="X281" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI281" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ281" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN281" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO281" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP281" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ281" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR281" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS281" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT281" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU281" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV281" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW281" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX281" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="282" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A282" t="s">
+        <v>49</v>
+      </c>
+      <c r="B282" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C282" t="s">
+        <v>106</v>
+      </c>
+      <c r="D282" t="s">
+        <v>51</v>
+      </c>
+      <c r="E282" t="s">
+        <v>87</v>
+      </c>
+      <c r="F282" t="s">
+        <v>68</v>
+      </c>
+      <c r="G282" t="s">
+        <v>54</v>
+      </c>
+      <c r="H282" t="s">
+        <v>432</v>
+      </c>
+      <c r="I282" t="s">
+        <v>56</v>
+      </c>
+      <c r="J282" t="s">
+        <v>56</v>
+      </c>
+      <c r="K282" t="s">
+        <v>50</v>
+      </c>
+      <c r="L282" t="s">
+        <v>56</v>
+      </c>
+      <c r="M282" t="s">
+        <v>56</v>
+      </c>
+      <c r="N282" t="s">
+        <v>57</v>
+      </c>
+      <c r="O282" t="s">
+        <v>50</v>
+      </c>
+      <c r="P282" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>50</v>
+      </c>
+      <c r="R282" t="s">
+        <v>56</v>
+      </c>
+      <c r="S282" t="s">
+        <v>56</v>
+      </c>
+      <c r="T282" t="s">
+        <v>56</v>
+      </c>
+      <c r="U282" t="s">
+        <v>56</v>
+      </c>
+      <c r="V282" t="s">
+        <v>56</v>
+      </c>
+      <c r="W282" t="s">
+        <v>56</v>
+      </c>
+      <c r="X282" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP282" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR282" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS282" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV282" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW282" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX282" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="283" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A283" t="s">
+        <v>49</v>
+      </c>
+      <c r="B283" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C283" t="s">
+        <v>106</v>
+      </c>
+      <c r="D283" t="s">
+        <v>51</v>
+      </c>
+      <c r="E283" t="s">
+        <v>87</v>
+      </c>
+      <c r="F283" t="s">
+        <v>88</v>
+      </c>
+      <c r="G283" t="s">
+        <v>54</v>
+      </c>
+      <c r="H283" t="s">
+        <v>433</v>
+      </c>
+      <c r="I283" t="s">
+        <v>56</v>
+      </c>
+      <c r="J283" t="s">
+        <v>56</v>
+      </c>
+      <c r="K283" t="s">
+        <v>71</v>
+      </c>
+      <c r="L283" t="s">
+        <v>56</v>
+      </c>
+      <c r="M283" t="s">
+        <v>56</v>
+      </c>
+      <c r="N283" t="s">
+        <v>71</v>
+      </c>
+      <c r="O283" t="s">
+        <v>50</v>
+      </c>
+      <c r="P283" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>56</v>
+      </c>
+      <c r="R283" t="s">
+        <v>50</v>
+      </c>
+      <c r="S283" t="s">
+        <v>50</v>
+      </c>
+      <c r="T283" t="s">
+        <v>50</v>
+      </c>
+      <c r="U283" t="s">
+        <v>56</v>
+      </c>
+      <c r="V283" t="s">
+        <v>56</v>
+      </c>
+      <c r="W283" t="s">
+        <v>56</v>
+      </c>
+      <c r="X283" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP283" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR283" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS283" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV283" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="284" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A284" t="s">
+        <v>49</v>
+      </c>
+      <c r="B284" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C284" t="s">
+        <v>106</v>
+      </c>
+      <c r="D284" t="s">
+        <v>51</v>
+      </c>
+      <c r="E284" t="s">
+        <v>129</v>
+      </c>
+      <c r="F284" t="s">
+        <v>68</v>
+      </c>
+      <c r="G284" t="s">
+        <v>54</v>
+      </c>
+      <c r="H284" t="s">
+        <v>84</v>
+      </c>
+      <c r="I284" t="s">
+        <v>56</v>
+      </c>
+      <c r="J284" t="s">
+        <v>50</v>
+      </c>
+      <c r="K284" t="s">
+        <v>56</v>
+      </c>
+      <c r="L284" t="s">
+        <v>56</v>
+      </c>
+      <c r="M284" t="s">
+        <v>56</v>
+      </c>
+      <c r="N284" t="s">
+        <v>56</v>
+      </c>
+      <c r="O284" t="s">
+        <v>56</v>
+      </c>
+      <c r="P284" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>56</v>
+      </c>
+      <c r="R284" t="s">
+        <v>56</v>
+      </c>
+      <c r="S284" t="s">
+        <v>56</v>
+      </c>
+      <c r="T284" t="s">
+        <v>56</v>
+      </c>
+      <c r="U284" t="s">
+        <v>56</v>
+      </c>
+      <c r="V284" t="s">
+        <v>56</v>
+      </c>
+      <c r="W284" t="s">
+        <v>56</v>
+      </c>
+      <c r="X284" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG284" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH284" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI284" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ284" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL284" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO284" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP284" s="1">
+        <v>44648</v>
+      </c>
+      <c r="AQ284" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR284" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS284" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT284" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV284" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX284" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA677648-6423-564A-B5F7-5747F2C4B607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E576129A-0C5C-D949-A05F-A3BFEB572317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="20480" windowHeight="15360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13616" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14860" uniqueCount="452">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1324,6 +1324,57 @@
     <t>274</t>
   </si>
   <si>
+    <t>AVENIDA 30 DE AGOSTO 48-74</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>329</t>
+  </si>
+  <si>
+    <t>SANIDAD PEREIRA</t>
+  </si>
+  <si>
+    <t>1933</t>
+  </si>
+  <si>
+    <t>1934</t>
+  </si>
+  <si>
+    <t>1935</t>
+  </si>
+  <si>
+    <t>858</t>
+  </si>
+  <si>
+    <t>859</t>
+  </si>
+  <si>
+    <t>1126</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>1128</t>
+  </si>
+  <si>
+    <t>1129</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>896</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1748,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX284"/>
+  <dimension ref="A1:AX310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1767,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>434</v>
+        <v>451</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -44867,6 +44918,3946 @@
         <v>66</v>
       </c>
       <c r="AX284" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="285" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A285" t="s">
+        <v>49</v>
+      </c>
+      <c r="B285" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C285" t="s">
+        <v>95</v>
+      </c>
+      <c r="D285" t="s">
+        <v>51</v>
+      </c>
+      <c r="E285" t="s">
+        <v>161</v>
+      </c>
+      <c r="F285" t="s">
+        <v>68</v>
+      </c>
+      <c r="G285" t="s">
+        <v>54</v>
+      </c>
+      <c r="H285" t="s">
+        <v>156</v>
+      </c>
+      <c r="I285" t="s">
+        <v>56</v>
+      </c>
+      <c r="J285" t="s">
+        <v>50</v>
+      </c>
+      <c r="K285" t="s">
+        <v>71</v>
+      </c>
+      <c r="L285" t="s">
+        <v>50</v>
+      </c>
+      <c r="M285" t="s">
+        <v>50</v>
+      </c>
+      <c r="N285" t="s">
+        <v>58</v>
+      </c>
+      <c r="O285" t="s">
+        <v>70</v>
+      </c>
+      <c r="P285" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>56</v>
+      </c>
+      <c r="R285" t="s">
+        <v>56</v>
+      </c>
+      <c r="S285" t="s">
+        <v>50</v>
+      </c>
+      <c r="T285" t="s">
+        <v>71</v>
+      </c>
+      <c r="U285" t="s">
+        <v>50</v>
+      </c>
+      <c r="V285" t="s">
+        <v>50</v>
+      </c>
+      <c r="W285" t="s">
+        <v>56</v>
+      </c>
+      <c r="X285" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>206</v>
+      </c>
+      <c r="AH285" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI285" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ285" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL285" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN285" t="s">
+        <v>434</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP285" s="1">
+        <v>44653</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR285" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS285" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT285" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV285" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX285" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="286" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A286" t="s">
+        <v>49</v>
+      </c>
+      <c r="B286" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C286" t="s">
+        <v>95</v>
+      </c>
+      <c r="D286" t="s">
+        <v>51</v>
+      </c>
+      <c r="E286" t="s">
+        <v>87</v>
+      </c>
+      <c r="F286" t="s">
+        <v>68</v>
+      </c>
+      <c r="G286" t="s">
+        <v>54</v>
+      </c>
+      <c r="H286" t="s">
+        <v>435</v>
+      </c>
+      <c r="I286" t="s">
+        <v>56</v>
+      </c>
+      <c r="J286" t="s">
+        <v>50</v>
+      </c>
+      <c r="K286" t="s">
+        <v>56</v>
+      </c>
+      <c r="L286" t="s">
+        <v>56</v>
+      </c>
+      <c r="M286" t="s">
+        <v>56</v>
+      </c>
+      <c r="N286" t="s">
+        <v>56</v>
+      </c>
+      <c r="O286" t="s">
+        <v>56</v>
+      </c>
+      <c r="P286" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>50</v>
+      </c>
+      <c r="R286" t="s">
+        <v>50</v>
+      </c>
+      <c r="S286" t="s">
+        <v>50</v>
+      </c>
+      <c r="T286" t="s">
+        <v>56</v>
+      </c>
+      <c r="U286" t="s">
+        <v>50</v>
+      </c>
+      <c r="V286" t="s">
+        <v>56</v>
+      </c>
+      <c r="W286" t="s">
+        <v>56</v>
+      </c>
+      <c r="X286" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP286" s="1">
+        <v>44653</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR286" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX286" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="287" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A287" t="s">
+        <v>49</v>
+      </c>
+      <c r="B287" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C287" t="s">
+        <v>95</v>
+      </c>
+      <c r="D287" t="s">
+        <v>51</v>
+      </c>
+      <c r="E287" t="s">
+        <v>124</v>
+      </c>
+      <c r="F287" t="s">
+        <v>112</v>
+      </c>
+      <c r="G287" t="s">
+        <v>54</v>
+      </c>
+      <c r="H287" t="s">
+        <v>436</v>
+      </c>
+      <c r="I287" t="s">
+        <v>56</v>
+      </c>
+      <c r="J287" t="s">
+        <v>83</v>
+      </c>
+      <c r="K287" t="s">
+        <v>71</v>
+      </c>
+      <c r="L287" t="s">
+        <v>50</v>
+      </c>
+      <c r="M287" t="s">
+        <v>56</v>
+      </c>
+      <c r="N287" t="s">
+        <v>102</v>
+      </c>
+      <c r="O287" t="s">
+        <v>58</v>
+      </c>
+      <c r="P287" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>57</v>
+      </c>
+      <c r="R287" t="s">
+        <v>50</v>
+      </c>
+      <c r="S287" t="s">
+        <v>58</v>
+      </c>
+      <c r="T287" t="s">
+        <v>71</v>
+      </c>
+      <c r="U287" t="s">
+        <v>56</v>
+      </c>
+      <c r="V287" t="s">
+        <v>56</v>
+      </c>
+      <c r="W287" t="s">
+        <v>58</v>
+      </c>
+      <c r="X287" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>330</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>284</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP287" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR287" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW287" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX287" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="288" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A288" t="s">
+        <v>49</v>
+      </c>
+      <c r="B288" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C288" t="s">
+        <v>95</v>
+      </c>
+      <c r="D288" t="s">
+        <v>51</v>
+      </c>
+      <c r="E288" t="s">
+        <v>120</v>
+      </c>
+      <c r="F288" t="s">
+        <v>68</v>
+      </c>
+      <c r="G288" t="s">
+        <v>54</v>
+      </c>
+      <c r="H288" t="s">
+        <v>437</v>
+      </c>
+      <c r="I288" t="s">
+        <v>56</v>
+      </c>
+      <c r="J288" t="s">
+        <v>56</v>
+      </c>
+      <c r="K288" t="s">
+        <v>56</v>
+      </c>
+      <c r="L288" t="s">
+        <v>56</v>
+      </c>
+      <c r="M288" t="s">
+        <v>56</v>
+      </c>
+      <c r="N288" t="s">
+        <v>56</v>
+      </c>
+      <c r="O288" t="s">
+        <v>56</v>
+      </c>
+      <c r="P288" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>50</v>
+      </c>
+      <c r="R288" t="s">
+        <v>56</v>
+      </c>
+      <c r="S288" t="s">
+        <v>56</v>
+      </c>
+      <c r="T288" t="s">
+        <v>56</v>
+      </c>
+      <c r="U288" t="s">
+        <v>56</v>
+      </c>
+      <c r="V288" t="s">
+        <v>50</v>
+      </c>
+      <c r="W288" t="s">
+        <v>50</v>
+      </c>
+      <c r="X288" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP288" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR288" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT288" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX288" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="289" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A289" t="s">
+        <v>49</v>
+      </c>
+      <c r="B289" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C289" t="s">
+        <v>95</v>
+      </c>
+      <c r="D289" t="s">
+        <v>51</v>
+      </c>
+      <c r="E289" t="s">
+        <v>133</v>
+      </c>
+      <c r="F289" t="s">
+        <v>68</v>
+      </c>
+      <c r="G289" t="s">
+        <v>54</v>
+      </c>
+      <c r="H289" t="s">
+        <v>438</v>
+      </c>
+      <c r="I289" t="s">
+        <v>56</v>
+      </c>
+      <c r="J289" t="s">
+        <v>56</v>
+      </c>
+      <c r="K289" t="s">
+        <v>50</v>
+      </c>
+      <c r="L289" t="s">
+        <v>50</v>
+      </c>
+      <c r="M289" t="s">
+        <v>50</v>
+      </c>
+      <c r="N289" t="s">
+        <v>56</v>
+      </c>
+      <c r="O289" t="s">
+        <v>50</v>
+      </c>
+      <c r="P289" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>56</v>
+      </c>
+      <c r="R289" t="s">
+        <v>56</v>
+      </c>
+      <c r="S289" t="s">
+        <v>56</v>
+      </c>
+      <c r="T289" t="s">
+        <v>50</v>
+      </c>
+      <c r="U289" t="s">
+        <v>56</v>
+      </c>
+      <c r="V289" t="s">
+        <v>71</v>
+      </c>
+      <c r="W289" t="s">
+        <v>50</v>
+      </c>
+      <c r="X289" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH289" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI289" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ289" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL289" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO289" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP289" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ289" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR289" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS289" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT289" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU289" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW289" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX289" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="290" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A290" t="s">
+        <v>49</v>
+      </c>
+      <c r="B290" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C290" t="s">
+        <v>95</v>
+      </c>
+      <c r="D290" t="s">
+        <v>51</v>
+      </c>
+      <c r="E290" t="s">
+        <v>93</v>
+      </c>
+      <c r="F290" t="s">
+        <v>68</v>
+      </c>
+      <c r="G290" t="s">
+        <v>54</v>
+      </c>
+      <c r="H290" t="s">
+        <v>409</v>
+      </c>
+      <c r="I290" t="s">
+        <v>56</v>
+      </c>
+      <c r="J290" t="s">
+        <v>56</v>
+      </c>
+      <c r="K290" t="s">
+        <v>56</v>
+      </c>
+      <c r="L290" t="s">
+        <v>71</v>
+      </c>
+      <c r="M290" t="s">
+        <v>71</v>
+      </c>
+      <c r="N290" t="s">
+        <v>56</v>
+      </c>
+      <c r="O290" t="s">
+        <v>56</v>
+      </c>
+      <c r="P290" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>56</v>
+      </c>
+      <c r="R290" t="s">
+        <v>56</v>
+      </c>
+      <c r="S290" t="s">
+        <v>56</v>
+      </c>
+      <c r="T290" t="s">
+        <v>56</v>
+      </c>
+      <c r="U290" t="s">
+        <v>56</v>
+      </c>
+      <c r="V290" t="s">
+        <v>56</v>
+      </c>
+      <c r="W290" t="s">
+        <v>56</v>
+      </c>
+      <c r="X290" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>439</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP290" s="1">
+        <v>44654</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR290" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT290" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU290" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW290" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="291" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A291" t="s">
+        <v>49</v>
+      </c>
+      <c r="B291" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C291" t="s">
+        <v>106</v>
+      </c>
+      <c r="D291" t="s">
+        <v>51</v>
+      </c>
+      <c r="E291" t="s">
+        <v>124</v>
+      </c>
+      <c r="F291" t="s">
+        <v>95</v>
+      </c>
+      <c r="G291" t="s">
+        <v>54</v>
+      </c>
+      <c r="H291" t="s">
+        <v>354</v>
+      </c>
+      <c r="I291" t="s">
+        <v>56</v>
+      </c>
+      <c r="J291" t="s">
+        <v>56</v>
+      </c>
+      <c r="K291" t="s">
+        <v>50</v>
+      </c>
+      <c r="L291" t="s">
+        <v>56</v>
+      </c>
+      <c r="M291" t="s">
+        <v>50</v>
+      </c>
+      <c r="N291" t="s">
+        <v>56</v>
+      </c>
+      <c r="O291" t="s">
+        <v>50</v>
+      </c>
+      <c r="P291" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>56</v>
+      </c>
+      <c r="R291" t="s">
+        <v>50</v>
+      </c>
+      <c r="S291" t="s">
+        <v>56</v>
+      </c>
+      <c r="T291" t="s">
+        <v>56</v>
+      </c>
+      <c r="U291" t="s">
+        <v>56</v>
+      </c>
+      <c r="V291" t="s">
+        <v>56</v>
+      </c>
+      <c r="W291" t="s">
+        <v>56</v>
+      </c>
+      <c r="X291" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP291" s="1">
+        <v>44649</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR291" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="292" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A292" t="s">
+        <v>49</v>
+      </c>
+      <c r="B292" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C292" t="s">
+        <v>95</v>
+      </c>
+      <c r="D292" t="s">
+        <v>51</v>
+      </c>
+      <c r="E292" t="s">
+        <v>67</v>
+      </c>
+      <c r="F292" t="s">
+        <v>68</v>
+      </c>
+      <c r="G292" t="s">
+        <v>54</v>
+      </c>
+      <c r="H292" t="s">
+        <v>440</v>
+      </c>
+      <c r="I292" t="s">
+        <v>56</v>
+      </c>
+      <c r="J292" t="s">
+        <v>72</v>
+      </c>
+      <c r="K292" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" t="s">
+        <v>58</v>
+      </c>
+      <c r="M292" t="s">
+        <v>71</v>
+      </c>
+      <c r="N292" t="s">
+        <v>57</v>
+      </c>
+      <c r="O292" t="s">
+        <v>102</v>
+      </c>
+      <c r="P292" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>58</v>
+      </c>
+      <c r="R292" t="s">
+        <v>70</v>
+      </c>
+      <c r="S292" t="s">
+        <v>71</v>
+      </c>
+      <c r="T292" t="s">
+        <v>56</v>
+      </c>
+      <c r="U292" t="s">
+        <v>71</v>
+      </c>
+      <c r="V292" t="s">
+        <v>71</v>
+      </c>
+      <c r="W292" t="s">
+        <v>50</v>
+      </c>
+      <c r="X292" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL292" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO292" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP292" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR292" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX292" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="293" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A293" t="s">
+        <v>49</v>
+      </c>
+      <c r="B293" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C293" t="s">
+        <v>95</v>
+      </c>
+      <c r="D293" t="s">
+        <v>51</v>
+      </c>
+      <c r="E293" t="s">
+        <v>67</v>
+      </c>
+      <c r="F293" t="s">
+        <v>78</v>
+      </c>
+      <c r="G293" t="s">
+        <v>54</v>
+      </c>
+      <c r="H293" t="s">
+        <v>441</v>
+      </c>
+      <c r="I293" t="s">
+        <v>56</v>
+      </c>
+      <c r="J293" t="s">
+        <v>70</v>
+      </c>
+      <c r="K293" t="s">
+        <v>71</v>
+      </c>
+      <c r="L293" t="s">
+        <v>56</v>
+      </c>
+      <c r="M293" t="s">
+        <v>56</v>
+      </c>
+      <c r="N293" t="s">
+        <v>141</v>
+      </c>
+      <c r="O293" t="s">
+        <v>72</v>
+      </c>
+      <c r="P293" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>58</v>
+      </c>
+      <c r="R293" t="s">
+        <v>184</v>
+      </c>
+      <c r="S293" t="s">
+        <v>56</v>
+      </c>
+      <c r="T293" t="s">
+        <v>56</v>
+      </c>
+      <c r="U293" t="s">
+        <v>56</v>
+      </c>
+      <c r="V293" t="s">
+        <v>56</v>
+      </c>
+      <c r="W293" t="s">
+        <v>56</v>
+      </c>
+      <c r="X293" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG293" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH293" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI293" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ293" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN293" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO293" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP293" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR293" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS293" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT293" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU293" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV293" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW293" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX293" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="294" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A294" t="s">
+        <v>49</v>
+      </c>
+      <c r="B294" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C294" t="s">
+        <v>95</v>
+      </c>
+      <c r="D294" t="s">
+        <v>51</v>
+      </c>
+      <c r="E294" t="s">
+        <v>67</v>
+      </c>
+      <c r="F294" t="s">
+        <v>81</v>
+      </c>
+      <c r="G294" t="s">
+        <v>54</v>
+      </c>
+      <c r="H294" t="s">
+        <v>442</v>
+      </c>
+      <c r="I294" t="s">
+        <v>50</v>
+      </c>
+      <c r="J294" t="s">
+        <v>81</v>
+      </c>
+      <c r="K294" t="s">
+        <v>56</v>
+      </c>
+      <c r="L294" t="s">
+        <v>50</v>
+      </c>
+      <c r="M294" t="s">
+        <v>50</v>
+      </c>
+      <c r="N294" t="s">
+        <v>58</v>
+      </c>
+      <c r="O294" t="s">
+        <v>57</v>
+      </c>
+      <c r="P294" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>71</v>
+      </c>
+      <c r="R294" t="s">
+        <v>56</v>
+      </c>
+      <c r="S294" t="s">
+        <v>71</v>
+      </c>
+      <c r="T294" t="s">
+        <v>56</v>
+      </c>
+      <c r="U294" t="s">
+        <v>71</v>
+      </c>
+      <c r="V294" t="s">
+        <v>56</v>
+      </c>
+      <c r="W294" t="s">
+        <v>56</v>
+      </c>
+      <c r="X294" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO294" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP294" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ294" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR294" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS294" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT294" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV294" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX294" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="295" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A295" t="s">
+        <v>49</v>
+      </c>
+      <c r="B295" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C295" t="s">
+        <v>95</v>
+      </c>
+      <c r="D295" t="s">
+        <v>51</v>
+      </c>
+      <c r="E295" t="s">
+        <v>99</v>
+      </c>
+      <c r="F295" t="s">
+        <v>68</v>
+      </c>
+      <c r="G295" t="s">
+        <v>54</v>
+      </c>
+      <c r="H295" t="s">
+        <v>443</v>
+      </c>
+      <c r="I295" t="s">
+        <v>50</v>
+      </c>
+      <c r="J295" t="s">
+        <v>57</v>
+      </c>
+      <c r="K295" t="s">
+        <v>58</v>
+      </c>
+      <c r="L295" t="s">
+        <v>71</v>
+      </c>
+      <c r="M295" t="s">
+        <v>50</v>
+      </c>
+      <c r="N295" t="s">
+        <v>57</v>
+      </c>
+      <c r="O295" t="s">
+        <v>56</v>
+      </c>
+      <c r="P295" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>56</v>
+      </c>
+      <c r="R295" t="s">
+        <v>56</v>
+      </c>
+      <c r="S295" t="s">
+        <v>58</v>
+      </c>
+      <c r="T295" t="s">
+        <v>50</v>
+      </c>
+      <c r="U295" t="s">
+        <v>56</v>
+      </c>
+      <c r="V295" t="s">
+        <v>56</v>
+      </c>
+      <c r="W295" t="s">
+        <v>50</v>
+      </c>
+      <c r="X295" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP295" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR295" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS295" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT295" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV295" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX295" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="296" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A296" t="s">
+        <v>49</v>
+      </c>
+      <c r="B296" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C296" t="s">
+        <v>95</v>
+      </c>
+      <c r="D296" t="s">
+        <v>51</v>
+      </c>
+      <c r="E296" t="s">
+        <v>99</v>
+      </c>
+      <c r="F296" t="s">
+        <v>85</v>
+      </c>
+      <c r="G296" t="s">
+        <v>54</v>
+      </c>
+      <c r="H296" t="s">
+        <v>444</v>
+      </c>
+      <c r="I296" t="s">
+        <v>50</v>
+      </c>
+      <c r="J296" t="s">
+        <v>56</v>
+      </c>
+      <c r="K296" t="s">
+        <v>56</v>
+      </c>
+      <c r="L296" t="s">
+        <v>56</v>
+      </c>
+      <c r="M296" t="s">
+        <v>56</v>
+      </c>
+      <c r="N296" t="s">
+        <v>56</v>
+      </c>
+      <c r="O296" t="s">
+        <v>50</v>
+      </c>
+      <c r="P296" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>56</v>
+      </c>
+      <c r="R296" t="s">
+        <v>56</v>
+      </c>
+      <c r="S296" t="s">
+        <v>56</v>
+      </c>
+      <c r="T296" t="s">
+        <v>56</v>
+      </c>
+      <c r="U296" t="s">
+        <v>56</v>
+      </c>
+      <c r="V296" t="s">
+        <v>56</v>
+      </c>
+      <c r="W296" t="s">
+        <v>56</v>
+      </c>
+      <c r="X296" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP296" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR296" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS296" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT296" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU296" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV296" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW296" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX296" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A297" t="s">
+        <v>49</v>
+      </c>
+      <c r="B297" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C297" t="s">
+        <v>95</v>
+      </c>
+      <c r="D297" t="s">
+        <v>51</v>
+      </c>
+      <c r="E297" t="s">
+        <v>99</v>
+      </c>
+      <c r="F297" t="s">
+        <v>100</v>
+      </c>
+      <c r="G297" t="s">
+        <v>54</v>
+      </c>
+      <c r="H297" t="s">
+        <v>445</v>
+      </c>
+      <c r="I297" t="s">
+        <v>71</v>
+      </c>
+      <c r="J297" t="s">
+        <v>56</v>
+      </c>
+      <c r="K297" t="s">
+        <v>71</v>
+      </c>
+      <c r="L297" t="s">
+        <v>50</v>
+      </c>
+      <c r="M297" t="s">
+        <v>56</v>
+      </c>
+      <c r="N297" t="s">
+        <v>56</v>
+      </c>
+      <c r="O297" t="s">
+        <v>56</v>
+      </c>
+      <c r="P297" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>50</v>
+      </c>
+      <c r="R297" t="s">
+        <v>56</v>
+      </c>
+      <c r="S297" t="s">
+        <v>56</v>
+      </c>
+      <c r="T297" t="s">
+        <v>56</v>
+      </c>
+      <c r="U297" t="s">
+        <v>58</v>
+      </c>
+      <c r="V297" t="s">
+        <v>56</v>
+      </c>
+      <c r="W297" t="s">
+        <v>71</v>
+      </c>
+      <c r="X297" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO297" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP297" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ297" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR297" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS297" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT297" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU297" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV297" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW297" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX297" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="298" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A298" t="s">
+        <v>49</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C298" t="s">
+        <v>95</v>
+      </c>
+      <c r="D298" t="s">
+        <v>51</v>
+      </c>
+      <c r="E298" t="s">
+        <v>99</v>
+      </c>
+      <c r="F298" t="s">
+        <v>78</v>
+      </c>
+      <c r="G298" t="s">
+        <v>54</v>
+      </c>
+      <c r="H298" t="s">
+        <v>446</v>
+      </c>
+      <c r="I298" t="s">
+        <v>56</v>
+      </c>
+      <c r="J298" t="s">
+        <v>56</v>
+      </c>
+      <c r="K298" t="s">
+        <v>56</v>
+      </c>
+      <c r="L298" t="s">
+        <v>56</v>
+      </c>
+      <c r="M298" t="s">
+        <v>56</v>
+      </c>
+      <c r="N298" t="s">
+        <v>56</v>
+      </c>
+      <c r="O298" t="s">
+        <v>56</v>
+      </c>
+      <c r="P298" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>50</v>
+      </c>
+      <c r="R298" t="s">
+        <v>56</v>
+      </c>
+      <c r="S298" t="s">
+        <v>56</v>
+      </c>
+      <c r="T298" t="s">
+        <v>56</v>
+      </c>
+      <c r="U298" t="s">
+        <v>56</v>
+      </c>
+      <c r="V298" t="s">
+        <v>56</v>
+      </c>
+      <c r="W298" t="s">
+        <v>56</v>
+      </c>
+      <c r="X298" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO298" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP298" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR298" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS298" t="s">
+        <v>294</v>
+      </c>
+      <c r="AT298" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV298" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX298" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="299" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A299" t="s">
+        <v>49</v>
+      </c>
+      <c r="B299" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C299" t="s">
+        <v>95</v>
+      </c>
+      <c r="D299" t="s">
+        <v>51</v>
+      </c>
+      <c r="E299" t="s">
+        <v>99</v>
+      </c>
+      <c r="F299" t="s">
+        <v>81</v>
+      </c>
+      <c r="G299" t="s">
+        <v>54</v>
+      </c>
+      <c r="H299" t="s">
+        <v>447</v>
+      </c>
+      <c r="I299" t="s">
+        <v>50</v>
+      </c>
+      <c r="J299" t="s">
+        <v>56</v>
+      </c>
+      <c r="K299" t="s">
+        <v>56</v>
+      </c>
+      <c r="L299" t="s">
+        <v>56</v>
+      </c>
+      <c r="M299" t="s">
+        <v>56</v>
+      </c>
+      <c r="N299" t="s">
+        <v>56</v>
+      </c>
+      <c r="O299" t="s">
+        <v>56</v>
+      </c>
+      <c r="P299" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>56</v>
+      </c>
+      <c r="R299" t="s">
+        <v>56</v>
+      </c>
+      <c r="S299" t="s">
+        <v>56</v>
+      </c>
+      <c r="T299" t="s">
+        <v>56</v>
+      </c>
+      <c r="U299" t="s">
+        <v>56</v>
+      </c>
+      <c r="V299" t="s">
+        <v>56</v>
+      </c>
+      <c r="W299" t="s">
+        <v>56</v>
+      </c>
+      <c r="X299" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL299" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO299" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP299" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR299" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS299" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT299" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU299" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV299" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW299" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX299" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="300" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A300" t="s">
+        <v>49</v>
+      </c>
+      <c r="B300" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C300" t="s">
+        <v>95</v>
+      </c>
+      <c r="D300" t="s">
+        <v>51</v>
+      </c>
+      <c r="E300" t="s">
+        <v>99</v>
+      </c>
+      <c r="F300" t="s">
+        <v>199</v>
+      </c>
+      <c r="G300" t="s">
+        <v>54</v>
+      </c>
+      <c r="H300" t="s">
+        <v>448</v>
+      </c>
+      <c r="I300" t="s">
+        <v>56</v>
+      </c>
+      <c r="J300" t="s">
+        <v>50</v>
+      </c>
+      <c r="K300" t="s">
+        <v>56</v>
+      </c>
+      <c r="L300" t="s">
+        <v>56</v>
+      </c>
+      <c r="M300" t="s">
+        <v>56</v>
+      </c>
+      <c r="N300" t="s">
+        <v>56</v>
+      </c>
+      <c r="O300" t="s">
+        <v>56</v>
+      </c>
+      <c r="P300" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>56</v>
+      </c>
+      <c r="R300" t="s">
+        <v>56</v>
+      </c>
+      <c r="S300" t="s">
+        <v>56</v>
+      </c>
+      <c r="T300" t="s">
+        <v>56</v>
+      </c>
+      <c r="U300" t="s">
+        <v>56</v>
+      </c>
+      <c r="V300" t="s">
+        <v>56</v>
+      </c>
+      <c r="W300" t="s">
+        <v>56</v>
+      </c>
+      <c r="X300" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP300" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR300" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS300" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT300" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU300" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX300" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="301" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A301" t="s">
+        <v>49</v>
+      </c>
+      <c r="B301" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C301" t="s">
+        <v>95</v>
+      </c>
+      <c r="D301" t="s">
+        <v>51</v>
+      </c>
+      <c r="E301" t="s">
+        <v>99</v>
+      </c>
+      <c r="F301" t="s">
+        <v>90</v>
+      </c>
+      <c r="G301" t="s">
+        <v>54</v>
+      </c>
+      <c r="H301" t="s">
+        <v>449</v>
+      </c>
+      <c r="I301" t="s">
+        <v>56</v>
+      </c>
+      <c r="J301" t="s">
+        <v>56</v>
+      </c>
+      <c r="K301" t="s">
+        <v>56</v>
+      </c>
+      <c r="L301" t="s">
+        <v>56</v>
+      </c>
+      <c r="M301" t="s">
+        <v>56</v>
+      </c>
+      <c r="N301" t="s">
+        <v>56</v>
+      </c>
+      <c r="O301" t="s">
+        <v>56</v>
+      </c>
+      <c r="P301" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>56</v>
+      </c>
+      <c r="R301" t="s">
+        <v>56</v>
+      </c>
+      <c r="S301" t="s">
+        <v>56</v>
+      </c>
+      <c r="T301" t="s">
+        <v>56</v>
+      </c>
+      <c r="U301" t="s">
+        <v>56</v>
+      </c>
+      <c r="V301" t="s">
+        <v>56</v>
+      </c>
+      <c r="W301" t="s">
+        <v>56</v>
+      </c>
+      <c r="X301" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG301" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP301" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ301" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR301" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS301" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT301" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU301" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX301" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="302" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A302" t="s">
+        <v>49</v>
+      </c>
+      <c r="B302" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C302" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" t="s">
+        <v>51</v>
+      </c>
+      <c r="E302" t="s">
+        <v>99</v>
+      </c>
+      <c r="F302" t="s">
+        <v>105</v>
+      </c>
+      <c r="G302" t="s">
+        <v>54</v>
+      </c>
+      <c r="H302" t="s">
+        <v>363</v>
+      </c>
+      <c r="I302" t="s">
+        <v>71</v>
+      </c>
+      <c r="J302" t="s">
+        <v>83</v>
+      </c>
+      <c r="K302" t="s">
+        <v>71</v>
+      </c>
+      <c r="L302" t="s">
+        <v>56</v>
+      </c>
+      <c r="M302" t="s">
+        <v>56</v>
+      </c>
+      <c r="N302" t="s">
+        <v>50</v>
+      </c>
+      <c r="O302" t="s">
+        <v>50</v>
+      </c>
+      <c r="P302" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>56</v>
+      </c>
+      <c r="R302" t="s">
+        <v>56</v>
+      </c>
+      <c r="S302" t="s">
+        <v>56</v>
+      </c>
+      <c r="T302" t="s">
+        <v>50</v>
+      </c>
+      <c r="U302" t="s">
+        <v>56</v>
+      </c>
+      <c r="V302" t="s">
+        <v>56</v>
+      </c>
+      <c r="W302" t="s">
+        <v>50</v>
+      </c>
+      <c r="X302" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG302" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI302" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN302" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO302" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP302" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ302" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR302" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS302" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT302" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU302" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV302" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW302" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX302" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="303" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A303" t="s">
+        <v>49</v>
+      </c>
+      <c r="B303" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C303" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" t="s">
+        <v>51</v>
+      </c>
+      <c r="E303" t="s">
+        <v>99</v>
+      </c>
+      <c r="F303" t="s">
+        <v>112</v>
+      </c>
+      <c r="G303" t="s">
+        <v>54</v>
+      </c>
+      <c r="H303" t="s">
+        <v>364</v>
+      </c>
+      <c r="I303" t="s">
+        <v>56</v>
+      </c>
+      <c r="J303" t="s">
+        <v>56</v>
+      </c>
+      <c r="K303" t="s">
+        <v>56</v>
+      </c>
+      <c r="L303" t="s">
+        <v>56</v>
+      </c>
+      <c r="M303" t="s">
+        <v>56</v>
+      </c>
+      <c r="N303" t="s">
+        <v>56</v>
+      </c>
+      <c r="O303" t="s">
+        <v>50</v>
+      </c>
+      <c r="P303" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>56</v>
+      </c>
+      <c r="R303" t="s">
+        <v>56</v>
+      </c>
+      <c r="S303" t="s">
+        <v>56</v>
+      </c>
+      <c r="T303" t="s">
+        <v>56</v>
+      </c>
+      <c r="U303" t="s">
+        <v>56</v>
+      </c>
+      <c r="V303" t="s">
+        <v>56</v>
+      </c>
+      <c r="W303" t="s">
+        <v>56</v>
+      </c>
+      <c r="X303" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG303" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH303" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN303" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP303" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR303" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS303" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT303" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX303" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="304" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A304" t="s">
+        <v>49</v>
+      </c>
+      <c r="B304" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C304" t="s">
+        <v>95</v>
+      </c>
+      <c r="D304" t="s">
+        <v>51</v>
+      </c>
+      <c r="E304" t="s">
+        <v>99</v>
+      </c>
+      <c r="F304" t="s">
+        <v>88</v>
+      </c>
+      <c r="G304" t="s">
+        <v>54</v>
+      </c>
+      <c r="H304" t="s">
+        <v>384</v>
+      </c>
+      <c r="I304" t="s">
+        <v>56</v>
+      </c>
+      <c r="J304" t="s">
+        <v>56</v>
+      </c>
+      <c r="K304" t="s">
+        <v>56</v>
+      </c>
+      <c r="L304" t="s">
+        <v>56</v>
+      </c>
+      <c r="M304" t="s">
+        <v>56</v>
+      </c>
+      <c r="N304" t="s">
+        <v>56</v>
+      </c>
+      <c r="O304" t="s">
+        <v>56</v>
+      </c>
+      <c r="P304" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>50</v>
+      </c>
+      <c r="R304" t="s">
+        <v>56</v>
+      </c>
+      <c r="S304" t="s">
+        <v>56</v>
+      </c>
+      <c r="T304" t="s">
+        <v>56</v>
+      </c>
+      <c r="U304" t="s">
+        <v>56</v>
+      </c>
+      <c r="V304" t="s">
+        <v>56</v>
+      </c>
+      <c r="W304" t="s">
+        <v>56</v>
+      </c>
+      <c r="X304" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG304" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH304" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI304" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ304" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN304" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP304" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR304" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS304" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT304" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU304" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX304" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="305" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A305" t="s">
+        <v>49</v>
+      </c>
+      <c r="B305" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C305" t="s">
+        <v>95</v>
+      </c>
+      <c r="D305" t="s">
+        <v>51</v>
+      </c>
+      <c r="E305" t="s">
+        <v>139</v>
+      </c>
+      <c r="F305" t="s">
+        <v>68</v>
+      </c>
+      <c r="G305" t="s">
+        <v>54</v>
+      </c>
+      <c r="H305" t="s">
+        <v>450</v>
+      </c>
+      <c r="I305" t="s">
+        <v>56</v>
+      </c>
+      <c r="J305" t="s">
+        <v>75</v>
+      </c>
+      <c r="K305" t="s">
+        <v>70</v>
+      </c>
+      <c r="L305" t="s">
+        <v>50</v>
+      </c>
+      <c r="M305" t="s">
+        <v>50</v>
+      </c>
+      <c r="N305" t="s">
+        <v>50</v>
+      </c>
+      <c r="O305" t="s">
+        <v>70</v>
+      </c>
+      <c r="P305" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>56</v>
+      </c>
+      <c r="R305" t="s">
+        <v>70</v>
+      </c>
+      <c r="S305" t="s">
+        <v>56</v>
+      </c>
+      <c r="T305" t="s">
+        <v>56</v>
+      </c>
+      <c r="U305" t="s">
+        <v>56</v>
+      </c>
+      <c r="V305" t="s">
+        <v>56</v>
+      </c>
+      <c r="W305" t="s">
+        <v>71</v>
+      </c>
+      <c r="X305" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG305" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH305" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI305" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ305" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM305" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN305" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO305" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP305" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ305" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR305" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS305" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT305" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU305" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV305" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW305" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX305" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="306" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A306" t="s">
+        <v>49</v>
+      </c>
+      <c r="B306" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C306" t="s">
+        <v>95</v>
+      </c>
+      <c r="D306" t="s">
+        <v>51</v>
+      </c>
+      <c r="E306" t="s">
+        <v>52</v>
+      </c>
+      <c r="F306" t="s">
+        <v>53</v>
+      </c>
+      <c r="G306" t="s">
+        <v>54</v>
+      </c>
+      <c r="H306" t="s">
+        <v>55</v>
+      </c>
+      <c r="I306" t="s">
+        <v>56</v>
+      </c>
+      <c r="J306" t="s">
+        <v>50</v>
+      </c>
+      <c r="K306" t="s">
+        <v>56</v>
+      </c>
+      <c r="L306" t="s">
+        <v>56</v>
+      </c>
+      <c r="M306" t="s">
+        <v>56</v>
+      </c>
+      <c r="N306" t="s">
+        <v>56</v>
+      </c>
+      <c r="O306" t="s">
+        <v>56</v>
+      </c>
+      <c r="P306" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>56</v>
+      </c>
+      <c r="R306" t="s">
+        <v>56</v>
+      </c>
+      <c r="S306" t="s">
+        <v>50</v>
+      </c>
+      <c r="T306" t="s">
+        <v>56</v>
+      </c>
+      <c r="U306" t="s">
+        <v>56</v>
+      </c>
+      <c r="V306" t="s">
+        <v>56</v>
+      </c>
+      <c r="W306" t="s">
+        <v>56</v>
+      </c>
+      <c r="X306" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG306" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL306" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM306" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO306" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP306" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ306" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR306" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS306" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT306" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU306" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV306" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW306" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX306" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="307" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A307" t="s">
+        <v>49</v>
+      </c>
+      <c r="B307" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C307" t="s">
+        <v>95</v>
+      </c>
+      <c r="D307" t="s">
+        <v>51</v>
+      </c>
+      <c r="E307" t="s">
+        <v>147</v>
+      </c>
+      <c r="F307" t="s">
+        <v>68</v>
+      </c>
+      <c r="G307" t="s">
+        <v>54</v>
+      </c>
+      <c r="H307" t="s">
+        <v>55</v>
+      </c>
+      <c r="I307" t="s">
+        <v>50</v>
+      </c>
+      <c r="J307" t="s">
+        <v>50</v>
+      </c>
+      <c r="K307" t="s">
+        <v>71</v>
+      </c>
+      <c r="L307" t="s">
+        <v>56</v>
+      </c>
+      <c r="M307" t="s">
+        <v>71</v>
+      </c>
+      <c r="N307" t="s">
+        <v>56</v>
+      </c>
+      <c r="O307" t="s">
+        <v>56</v>
+      </c>
+      <c r="P307" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>50</v>
+      </c>
+      <c r="R307" t="s">
+        <v>71</v>
+      </c>
+      <c r="S307" t="s">
+        <v>50</v>
+      </c>
+      <c r="T307" t="s">
+        <v>56</v>
+      </c>
+      <c r="U307" t="s">
+        <v>71</v>
+      </c>
+      <c r="V307" t="s">
+        <v>50</v>
+      </c>
+      <c r="W307" t="s">
+        <v>50</v>
+      </c>
+      <c r="X307" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB307" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD307" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF307" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG307" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH307" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI307" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ307" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK307" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL307" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM307" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN307" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO307" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP307" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ307" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR307" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS307" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT307" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU307" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV307" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW307" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX307" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="308" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A308" t="s">
+        <v>49</v>
+      </c>
+      <c r="B308" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C308" t="s">
+        <v>95</v>
+      </c>
+      <c r="D308" t="s">
+        <v>51</v>
+      </c>
+      <c r="E308" t="s">
+        <v>150</v>
+      </c>
+      <c r="F308" t="s">
+        <v>100</v>
+      </c>
+      <c r="G308" t="s">
+        <v>54</v>
+      </c>
+      <c r="H308" t="s">
+        <v>286</v>
+      </c>
+      <c r="I308" t="s">
+        <v>56</v>
+      </c>
+      <c r="J308" t="s">
+        <v>50</v>
+      </c>
+      <c r="K308" t="s">
+        <v>71</v>
+      </c>
+      <c r="L308" t="s">
+        <v>50</v>
+      </c>
+      <c r="M308" t="s">
+        <v>56</v>
+      </c>
+      <c r="N308" t="s">
+        <v>56</v>
+      </c>
+      <c r="O308" t="s">
+        <v>50</v>
+      </c>
+      <c r="P308" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>56</v>
+      </c>
+      <c r="R308" t="s">
+        <v>56</v>
+      </c>
+      <c r="S308" t="s">
+        <v>56</v>
+      </c>
+      <c r="T308" t="s">
+        <v>56</v>
+      </c>
+      <c r="U308" t="s">
+        <v>56</v>
+      </c>
+      <c r="V308" t="s">
+        <v>56</v>
+      </c>
+      <c r="W308" t="s">
+        <v>56</v>
+      </c>
+      <c r="X308" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI308" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ308" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK308" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL308" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM308" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO308" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP308" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ308" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR308" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS308" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT308" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU308" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV308" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW308" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX308" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="309" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A309" t="s">
+        <v>49</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C309" t="s">
+        <v>95</v>
+      </c>
+      <c r="D309" t="s">
+        <v>51</v>
+      </c>
+      <c r="E309" t="s">
+        <v>161</v>
+      </c>
+      <c r="F309" t="s">
+        <v>100</v>
+      </c>
+      <c r="G309" t="s">
+        <v>54</v>
+      </c>
+      <c r="H309" t="s">
+        <v>106</v>
+      </c>
+      <c r="I309" t="s">
+        <v>50</v>
+      </c>
+      <c r="J309" t="s">
+        <v>58</v>
+      </c>
+      <c r="K309" t="s">
+        <v>56</v>
+      </c>
+      <c r="L309" t="s">
+        <v>50</v>
+      </c>
+      <c r="M309" t="s">
+        <v>56</v>
+      </c>
+      <c r="N309" t="s">
+        <v>50</v>
+      </c>
+      <c r="O309" t="s">
+        <v>56</v>
+      </c>
+      <c r="P309" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>56</v>
+      </c>
+      <c r="R309" t="s">
+        <v>71</v>
+      </c>
+      <c r="S309" t="s">
+        <v>56</v>
+      </c>
+      <c r="T309" t="s">
+        <v>56</v>
+      </c>
+      <c r="U309" t="s">
+        <v>56</v>
+      </c>
+      <c r="V309" t="s">
+        <v>56</v>
+      </c>
+      <c r="W309" t="s">
+        <v>56</v>
+      </c>
+      <c r="X309" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG309" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH309" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI309" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ309" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK309" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL309" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM309" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN309" t="s">
+        <v>288</v>
+      </c>
+      <c r="AO309" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP309" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ309" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR309" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS309" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT309" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU309" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV309" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW309" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX309" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="310" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A310" t="s">
+        <v>49</v>
+      </c>
+      <c r="B310" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C310" t="s">
+        <v>95</v>
+      </c>
+      <c r="D310" t="s">
+        <v>51</v>
+      </c>
+      <c r="E310" t="s">
+        <v>129</v>
+      </c>
+      <c r="F310" t="s">
+        <v>68</v>
+      </c>
+      <c r="G310" t="s">
+        <v>54</v>
+      </c>
+      <c r="H310" t="s">
+        <v>339</v>
+      </c>
+      <c r="I310" t="s">
+        <v>50</v>
+      </c>
+      <c r="J310" t="s">
+        <v>56</v>
+      </c>
+      <c r="K310" t="s">
+        <v>56</v>
+      </c>
+      <c r="L310" t="s">
+        <v>56</v>
+      </c>
+      <c r="M310" t="s">
+        <v>56</v>
+      </c>
+      <c r="N310" t="s">
+        <v>56</v>
+      </c>
+      <c r="O310" t="s">
+        <v>56</v>
+      </c>
+      <c r="P310" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>56</v>
+      </c>
+      <c r="R310" t="s">
+        <v>56</v>
+      </c>
+      <c r="S310" t="s">
+        <v>56</v>
+      </c>
+      <c r="T310" t="s">
+        <v>56</v>
+      </c>
+      <c r="U310" t="s">
+        <v>56</v>
+      </c>
+      <c r="V310" t="s">
+        <v>56</v>
+      </c>
+      <c r="W310" t="s">
+        <v>56</v>
+      </c>
+      <c r="X310" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE310" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF310" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG310" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH310" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI310" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ310" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK310" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL310" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM310" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO310" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP310" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ310" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR310" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS310" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT310" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU310" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV310" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW310" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX310" t="s">
         <v>395</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E576129A-0C5C-D949-A05F-A3BFEB572317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E583A83-5B87-7547-970F-2ADB134A735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14860" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16154" uniqueCount="469">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1375,6 +1375,57 @@
     <t>896</t>
   </si>
   <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>861</t>
+  </si>
+  <si>
+    <t>862</t>
+  </si>
+  <si>
+    <t>1132</t>
+  </si>
+  <si>
+    <t>1133</t>
+  </si>
+  <si>
+    <t>1134</t>
+  </si>
+  <si>
+    <t>462</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>SANIDAD POLICIA NACIONAL</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>897</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>1937</t>
+  </si>
+  <si>
+    <t>1938</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1382,15 +1433,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1413,10 +1459,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1799,10 +1844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX310"/>
+  <dimension ref="A1:AX337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1817,8 +1862,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>451</v>
+      <c r="D1" t="s">
+        <v>468</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -48858,6 +48903,4104 @@
         <v>66</v>
       </c>
       <c r="AX310" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="311" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A311" t="s">
+        <v>49</v>
+      </c>
+      <c r="B311" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C311" t="s">
+        <v>75</v>
+      </c>
+      <c r="D311" t="s">
+        <v>51</v>
+      </c>
+      <c r="E311" t="s">
+        <v>161</v>
+      </c>
+      <c r="F311" t="s">
+        <v>68</v>
+      </c>
+      <c r="G311" t="s">
+        <v>54</v>
+      </c>
+      <c r="H311" t="s">
+        <v>451</v>
+      </c>
+      <c r="I311" t="s">
+        <v>56</v>
+      </c>
+      <c r="J311" t="s">
+        <v>70</v>
+      </c>
+      <c r="K311" t="s">
+        <v>56</v>
+      </c>
+      <c r="L311" t="s">
+        <v>71</v>
+      </c>
+      <c r="M311" t="s">
+        <v>56</v>
+      </c>
+      <c r="N311" t="s">
+        <v>57</v>
+      </c>
+      <c r="O311" t="s">
+        <v>57</v>
+      </c>
+      <c r="P311" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>57</v>
+      </c>
+      <c r="R311" t="s">
+        <v>71</v>
+      </c>
+      <c r="S311" t="s">
+        <v>50</v>
+      </c>
+      <c r="T311" t="s">
+        <v>56</v>
+      </c>
+      <c r="U311" t="s">
+        <v>56</v>
+      </c>
+      <c r="V311" t="s">
+        <v>56</v>
+      </c>
+      <c r="W311" t="s">
+        <v>56</v>
+      </c>
+      <c r="X311" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD311" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE311" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF311" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG311" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH311" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI311" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ311" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK311" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL311" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM311" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN311" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO311" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP311" s="1">
+        <v>44660</v>
+      </c>
+      <c r="AQ311" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR311" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS311" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT311" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU311" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV311" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW311" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX311" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="312" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A312" t="s">
+        <v>49</v>
+      </c>
+      <c r="B312" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C312" t="s">
+        <v>75</v>
+      </c>
+      <c r="D312" t="s">
+        <v>51</v>
+      </c>
+      <c r="E312" t="s">
+        <v>124</v>
+      </c>
+      <c r="F312" t="s">
+        <v>112</v>
+      </c>
+      <c r="G312" t="s">
+        <v>54</v>
+      </c>
+      <c r="H312" t="s">
+        <v>55</v>
+      </c>
+      <c r="I312" t="s">
+        <v>56</v>
+      </c>
+      <c r="J312" t="s">
+        <v>50</v>
+      </c>
+      <c r="K312" t="s">
+        <v>50</v>
+      </c>
+      <c r="L312" t="s">
+        <v>71</v>
+      </c>
+      <c r="M312" t="s">
+        <v>56</v>
+      </c>
+      <c r="N312" t="s">
+        <v>56</v>
+      </c>
+      <c r="O312" t="s">
+        <v>71</v>
+      </c>
+      <c r="P312" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>56</v>
+      </c>
+      <c r="R312" t="s">
+        <v>56</v>
+      </c>
+      <c r="S312" t="s">
+        <v>57</v>
+      </c>
+      <c r="T312" t="s">
+        <v>58</v>
+      </c>
+      <c r="U312" t="s">
+        <v>58</v>
+      </c>
+      <c r="V312" t="s">
+        <v>71</v>
+      </c>
+      <c r="W312" t="s">
+        <v>50</v>
+      </c>
+      <c r="X312" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG312" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH312" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI312" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ312" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK312" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL312" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM312" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO312" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP312" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ312" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR312" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS312" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT312" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU312" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV312" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW312" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX312" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="313" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A313" t="s">
+        <v>49</v>
+      </c>
+      <c r="B313" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C313" t="s">
+        <v>75</v>
+      </c>
+      <c r="D313" t="s">
+        <v>51</v>
+      </c>
+      <c r="E313" t="s">
+        <v>99</v>
+      </c>
+      <c r="F313" t="s">
+        <v>68</v>
+      </c>
+      <c r="G313" t="s">
+        <v>54</v>
+      </c>
+      <c r="H313" t="s">
+        <v>452</v>
+      </c>
+      <c r="I313" t="s">
+        <v>58</v>
+      </c>
+      <c r="J313" t="s">
+        <v>72</v>
+      </c>
+      <c r="K313" t="s">
+        <v>58</v>
+      </c>
+      <c r="L313" t="s">
+        <v>56</v>
+      </c>
+      <c r="M313" t="s">
+        <v>50</v>
+      </c>
+      <c r="N313" t="s">
+        <v>50</v>
+      </c>
+      <c r="O313" t="s">
+        <v>50</v>
+      </c>
+      <c r="P313" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>56</v>
+      </c>
+      <c r="R313" t="s">
+        <v>50</v>
+      </c>
+      <c r="S313" t="s">
+        <v>56</v>
+      </c>
+      <c r="T313" t="s">
+        <v>56</v>
+      </c>
+      <c r="U313" t="s">
+        <v>56</v>
+      </c>
+      <c r="V313" t="s">
+        <v>50</v>
+      </c>
+      <c r="W313" t="s">
+        <v>56</v>
+      </c>
+      <c r="X313" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE313" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF313" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG313" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH313" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI313" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ313" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK313" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL313" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM313" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO313" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP313" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ313" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR313" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS313" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT313" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU313" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV313" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW313" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX313" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="314" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A314" t="s">
+        <v>49</v>
+      </c>
+      <c r="B314" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C314" t="s">
+        <v>75</v>
+      </c>
+      <c r="D314" t="s">
+        <v>51</v>
+      </c>
+      <c r="E314" t="s">
+        <v>99</v>
+      </c>
+      <c r="F314" t="s">
+        <v>187</v>
+      </c>
+      <c r="G314" t="s">
+        <v>54</v>
+      </c>
+      <c r="H314" t="s">
+        <v>453</v>
+      </c>
+      <c r="I314" t="s">
+        <v>56</v>
+      </c>
+      <c r="J314" t="s">
+        <v>56</v>
+      </c>
+      <c r="K314" t="s">
+        <v>56</v>
+      </c>
+      <c r="L314" t="s">
+        <v>56</v>
+      </c>
+      <c r="M314" t="s">
+        <v>56</v>
+      </c>
+      <c r="N314" t="s">
+        <v>56</v>
+      </c>
+      <c r="O314" t="s">
+        <v>56</v>
+      </c>
+      <c r="P314" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>56</v>
+      </c>
+      <c r="R314" t="s">
+        <v>56</v>
+      </c>
+      <c r="S314" t="s">
+        <v>56</v>
+      </c>
+      <c r="T314" t="s">
+        <v>50</v>
+      </c>
+      <c r="U314" t="s">
+        <v>56</v>
+      </c>
+      <c r="V314" t="s">
+        <v>56</v>
+      </c>
+      <c r="W314" t="s">
+        <v>56</v>
+      </c>
+      <c r="X314" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG314" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH314" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI314" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ314" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK314" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL314" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM314" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO314" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP314" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ314" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR314" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS314" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT314" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU314" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV314" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW314" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX314" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="315" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A315" t="s">
+        <v>49</v>
+      </c>
+      <c r="B315" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C315" t="s">
+        <v>75</v>
+      </c>
+      <c r="D315" t="s">
+        <v>51</v>
+      </c>
+      <c r="E315" t="s">
+        <v>99</v>
+      </c>
+      <c r="F315" t="s">
+        <v>85</v>
+      </c>
+      <c r="G315" t="s">
+        <v>54</v>
+      </c>
+      <c r="H315" t="s">
+        <v>454</v>
+      </c>
+      <c r="I315" t="s">
+        <v>56</v>
+      </c>
+      <c r="J315" t="s">
+        <v>56</v>
+      </c>
+      <c r="K315" t="s">
+        <v>56</v>
+      </c>
+      <c r="L315" t="s">
+        <v>56</v>
+      </c>
+      <c r="M315" t="s">
+        <v>56</v>
+      </c>
+      <c r="N315" t="s">
+        <v>50</v>
+      </c>
+      <c r="O315" t="s">
+        <v>56</v>
+      </c>
+      <c r="P315" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>56</v>
+      </c>
+      <c r="R315" t="s">
+        <v>56</v>
+      </c>
+      <c r="S315" t="s">
+        <v>56</v>
+      </c>
+      <c r="T315" t="s">
+        <v>56</v>
+      </c>
+      <c r="U315" t="s">
+        <v>56</v>
+      </c>
+      <c r="V315" t="s">
+        <v>56</v>
+      </c>
+      <c r="W315" t="s">
+        <v>56</v>
+      </c>
+      <c r="X315" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG315" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH315" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI315" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ315" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK315" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL315" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM315" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO315" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP315" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ315" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR315" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS315" t="s">
+        <v>222</v>
+      </c>
+      <c r="AT315" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU315" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV315" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW315" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX315" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="316" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A316" t="s">
+        <v>49</v>
+      </c>
+      <c r="B316" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C316" t="s">
+        <v>75</v>
+      </c>
+      <c r="D316" t="s">
+        <v>51</v>
+      </c>
+      <c r="E316" t="s">
+        <v>99</v>
+      </c>
+      <c r="F316" t="s">
+        <v>100</v>
+      </c>
+      <c r="G316" t="s">
+        <v>54</v>
+      </c>
+      <c r="H316" t="s">
+        <v>55</v>
+      </c>
+      <c r="I316" t="s">
+        <v>50</v>
+      </c>
+      <c r="J316" t="s">
+        <v>141</v>
+      </c>
+      <c r="K316" t="s">
+        <v>58</v>
+      </c>
+      <c r="L316" t="s">
+        <v>50</v>
+      </c>
+      <c r="M316" t="s">
+        <v>50</v>
+      </c>
+      <c r="N316" t="s">
+        <v>50</v>
+      </c>
+      <c r="O316" t="s">
+        <v>56</v>
+      </c>
+      <c r="P316" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>50</v>
+      </c>
+      <c r="R316" t="s">
+        <v>50</v>
+      </c>
+      <c r="S316" t="s">
+        <v>56</v>
+      </c>
+      <c r="T316" t="s">
+        <v>56</v>
+      </c>
+      <c r="U316" t="s">
+        <v>56</v>
+      </c>
+      <c r="V316" t="s">
+        <v>56</v>
+      </c>
+      <c r="W316" t="s">
+        <v>50</v>
+      </c>
+      <c r="X316" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF316" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG316" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH316" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI316" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ316" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK316" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL316" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM316" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO316" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP316" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ316" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR316" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS316" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT316" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU316" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV316" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW316" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX316" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="317" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A317" t="s">
+        <v>49</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C317" t="s">
+        <v>75</v>
+      </c>
+      <c r="D317" t="s">
+        <v>51</v>
+      </c>
+      <c r="E317" t="s">
+        <v>99</v>
+      </c>
+      <c r="F317" t="s">
+        <v>171</v>
+      </c>
+      <c r="G317" t="s">
+        <v>54</v>
+      </c>
+      <c r="H317" t="s">
+        <v>455</v>
+      </c>
+      <c r="I317" t="s">
+        <v>56</v>
+      </c>
+      <c r="J317" t="s">
+        <v>56</v>
+      </c>
+      <c r="K317" t="s">
+        <v>56</v>
+      </c>
+      <c r="L317" t="s">
+        <v>56</v>
+      </c>
+      <c r="M317" t="s">
+        <v>56</v>
+      </c>
+      <c r="N317" t="s">
+        <v>50</v>
+      </c>
+      <c r="O317" t="s">
+        <v>56</v>
+      </c>
+      <c r="P317" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>56</v>
+      </c>
+      <c r="R317" t="s">
+        <v>56</v>
+      </c>
+      <c r="S317" t="s">
+        <v>56</v>
+      </c>
+      <c r="T317" t="s">
+        <v>56</v>
+      </c>
+      <c r="U317" t="s">
+        <v>56</v>
+      </c>
+      <c r="V317" t="s">
+        <v>56</v>
+      </c>
+      <c r="W317" t="s">
+        <v>56</v>
+      </c>
+      <c r="X317" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF317" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG317" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH317" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI317" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ317" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK317" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL317" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM317" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO317" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP317" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ317" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR317" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS317" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU317" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV317" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW317" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX317" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="318" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A318" t="s">
+        <v>49</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C318" t="s">
+        <v>75</v>
+      </c>
+      <c r="D318" t="s">
+        <v>51</v>
+      </c>
+      <c r="E318" t="s">
+        <v>99</v>
+      </c>
+      <c r="F318" t="s">
+        <v>199</v>
+      </c>
+      <c r="G318" t="s">
+        <v>54</v>
+      </c>
+      <c r="H318" t="s">
+        <v>456</v>
+      </c>
+      <c r="I318" t="s">
+        <v>56</v>
+      </c>
+      <c r="J318" t="s">
+        <v>50</v>
+      </c>
+      <c r="K318" t="s">
+        <v>56</v>
+      </c>
+      <c r="L318" t="s">
+        <v>56</v>
+      </c>
+      <c r="M318" t="s">
+        <v>56</v>
+      </c>
+      <c r="N318" t="s">
+        <v>56</v>
+      </c>
+      <c r="O318" t="s">
+        <v>56</v>
+      </c>
+      <c r="P318" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>56</v>
+      </c>
+      <c r="R318" t="s">
+        <v>56</v>
+      </c>
+      <c r="S318" t="s">
+        <v>56</v>
+      </c>
+      <c r="T318" t="s">
+        <v>56</v>
+      </c>
+      <c r="U318" t="s">
+        <v>56</v>
+      </c>
+      <c r="V318" t="s">
+        <v>56</v>
+      </c>
+      <c r="W318" t="s">
+        <v>56</v>
+      </c>
+      <c r="X318" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF318" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG318" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH318" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI318" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ318" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK318" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL318" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM318" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO318" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP318" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ318" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR318" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS318" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT318" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU318" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV318" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW318" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX318" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="319" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A319" t="s">
+        <v>49</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C319" t="s">
+        <v>75</v>
+      </c>
+      <c r="D319" t="s">
+        <v>51</v>
+      </c>
+      <c r="E319" t="s">
+        <v>99</v>
+      </c>
+      <c r="F319" t="s">
+        <v>106</v>
+      </c>
+      <c r="G319" t="s">
+        <v>54</v>
+      </c>
+      <c r="H319" t="s">
+        <v>457</v>
+      </c>
+      <c r="I319" t="s">
+        <v>56</v>
+      </c>
+      <c r="J319" t="s">
+        <v>56</v>
+      </c>
+      <c r="K319" t="s">
+        <v>50</v>
+      </c>
+      <c r="L319" t="s">
+        <v>56</v>
+      </c>
+      <c r="M319" t="s">
+        <v>56</v>
+      </c>
+      <c r="N319" t="s">
+        <v>56</v>
+      </c>
+      <c r="O319" t="s">
+        <v>56</v>
+      </c>
+      <c r="P319" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>56</v>
+      </c>
+      <c r="R319" t="s">
+        <v>56</v>
+      </c>
+      <c r="S319" t="s">
+        <v>56</v>
+      </c>
+      <c r="T319" t="s">
+        <v>56</v>
+      </c>
+      <c r="U319" t="s">
+        <v>56</v>
+      </c>
+      <c r="V319" t="s">
+        <v>56</v>
+      </c>
+      <c r="W319" t="s">
+        <v>56</v>
+      </c>
+      <c r="X319" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE319" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF319" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG319" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH319" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI319" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ319" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK319" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL319" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM319" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO319" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP319" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ319" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR319" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS319" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT319" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU319" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV319" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW319" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX319" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="320" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A320" t="s">
+        <v>49</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C320" t="s">
+        <v>75</v>
+      </c>
+      <c r="D320" t="s">
+        <v>51</v>
+      </c>
+      <c r="E320" t="s">
+        <v>99</v>
+      </c>
+      <c r="F320" t="s">
+        <v>105</v>
+      </c>
+      <c r="G320" t="s">
+        <v>54</v>
+      </c>
+      <c r="H320" t="s">
+        <v>385</v>
+      </c>
+      <c r="I320" t="s">
+        <v>56</v>
+      </c>
+      <c r="J320" t="s">
+        <v>50</v>
+      </c>
+      <c r="K320" t="s">
+        <v>50</v>
+      </c>
+      <c r="L320" t="s">
+        <v>56</v>
+      </c>
+      <c r="M320" t="s">
+        <v>50</v>
+      </c>
+      <c r="N320" t="s">
+        <v>58</v>
+      </c>
+      <c r="O320" t="s">
+        <v>71</v>
+      </c>
+      <c r="P320" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>71</v>
+      </c>
+      <c r="R320" t="s">
+        <v>50</v>
+      </c>
+      <c r="S320" t="s">
+        <v>56</v>
+      </c>
+      <c r="T320" t="s">
+        <v>71</v>
+      </c>
+      <c r="U320" t="s">
+        <v>56</v>
+      </c>
+      <c r="V320" t="s">
+        <v>50</v>
+      </c>
+      <c r="W320" t="s">
+        <v>50</v>
+      </c>
+      <c r="X320" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD320" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE320" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF320" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG320" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH320" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI320" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ320" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK320" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL320" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM320" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN320" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO320" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP320" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ320" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR320" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS320" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT320" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU320" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV320" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW320" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX320" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="321" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A321" t="s">
+        <v>49</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44659</v>
+      </c>
+      <c r="C321" t="s">
+        <v>75</v>
+      </c>
+      <c r="D321" t="s">
+        <v>51</v>
+      </c>
+      <c r="E321" t="s">
+        <v>99</v>
+      </c>
+      <c r="F321" t="s">
+        <v>88</v>
+      </c>
+      <c r="G321" t="s">
+        <v>54</v>
+      </c>
+      <c r="H321" t="s">
+        <v>386</v>
+      </c>
+      <c r="I321" t="s">
+        <v>56</v>
+      </c>
+      <c r="J321" t="s">
+        <v>56</v>
+      </c>
+      <c r="K321" t="s">
+        <v>56</v>
+      </c>
+      <c r="L321" t="s">
+        <v>56</v>
+      </c>
+      <c r="M321" t="s">
+        <v>56</v>
+      </c>
+      <c r="N321" t="s">
+        <v>56</v>
+      </c>
+      <c r="O321" t="s">
+        <v>56</v>
+      </c>
+      <c r="P321" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>56</v>
+      </c>
+      <c r="R321" t="s">
+        <v>50</v>
+      </c>
+      <c r="S321" t="s">
+        <v>56</v>
+      </c>
+      <c r="T321" t="s">
+        <v>56</v>
+      </c>
+      <c r="U321" t="s">
+        <v>56</v>
+      </c>
+      <c r="V321" t="s">
+        <v>56</v>
+      </c>
+      <c r="W321" t="s">
+        <v>56</v>
+      </c>
+      <c r="X321" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF321" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG321" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH321" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI321" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ321" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK321" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN321" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO321" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP321" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ321" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR321" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS321" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT321" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU321" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX321" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="322" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A322" t="s">
+        <v>49</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C322" t="s">
+        <v>75</v>
+      </c>
+      <c r="D322" t="s">
+        <v>51</v>
+      </c>
+      <c r="E322" t="s">
+        <v>120</v>
+      </c>
+      <c r="F322" t="s">
+        <v>68</v>
+      </c>
+      <c r="G322" t="s">
+        <v>54</v>
+      </c>
+      <c r="H322" t="s">
+        <v>458</v>
+      </c>
+      <c r="I322" t="s">
+        <v>56</v>
+      </c>
+      <c r="J322" t="s">
+        <v>56</v>
+      </c>
+      <c r="K322" t="s">
+        <v>56</v>
+      </c>
+      <c r="L322" t="s">
+        <v>56</v>
+      </c>
+      <c r="M322" t="s">
+        <v>56</v>
+      </c>
+      <c r="N322" t="s">
+        <v>56</v>
+      </c>
+      <c r="O322" t="s">
+        <v>56</v>
+      </c>
+      <c r="P322" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>56</v>
+      </c>
+      <c r="R322" t="s">
+        <v>56</v>
+      </c>
+      <c r="S322" t="s">
+        <v>56</v>
+      </c>
+      <c r="T322" t="s">
+        <v>56</v>
+      </c>
+      <c r="U322" t="s">
+        <v>50</v>
+      </c>
+      <c r="V322" t="s">
+        <v>50</v>
+      </c>
+      <c r="W322" t="s">
+        <v>56</v>
+      </c>
+      <c r="X322" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL322" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM322" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO322" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP322" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ322" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR322" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS322" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU322" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW322" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX322" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="323" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A323" t="s">
+        <v>49</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C323" t="s">
+        <v>75</v>
+      </c>
+      <c r="D323" t="s">
+        <v>51</v>
+      </c>
+      <c r="E323" t="s">
+        <v>52</v>
+      </c>
+      <c r="F323" t="s">
+        <v>53</v>
+      </c>
+      <c r="G323" t="s">
+        <v>54</v>
+      </c>
+      <c r="H323" t="s">
+        <v>55</v>
+      </c>
+      <c r="I323" t="s">
+        <v>56</v>
+      </c>
+      <c r="J323" t="s">
+        <v>56</v>
+      </c>
+      <c r="K323" t="s">
+        <v>56</v>
+      </c>
+      <c r="L323" t="s">
+        <v>50</v>
+      </c>
+      <c r="M323" t="s">
+        <v>56</v>
+      </c>
+      <c r="N323" t="s">
+        <v>56</v>
+      </c>
+      <c r="O323" t="s">
+        <v>56</v>
+      </c>
+      <c r="P323" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>56</v>
+      </c>
+      <c r="R323" t="s">
+        <v>56</v>
+      </c>
+      <c r="S323" t="s">
+        <v>56</v>
+      </c>
+      <c r="T323" t="s">
+        <v>56</v>
+      </c>
+      <c r="U323" t="s">
+        <v>50</v>
+      </c>
+      <c r="V323" t="s">
+        <v>56</v>
+      </c>
+      <c r="W323" t="s">
+        <v>56</v>
+      </c>
+      <c r="X323" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG323" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI323" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ323" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL323" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM323" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO323" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP323" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ323" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR323" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS323" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT323" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU323" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV323" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW323" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX323" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="324" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A324" t="s">
+        <v>49</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C324" t="s">
+        <v>75</v>
+      </c>
+      <c r="D324" t="s">
+        <v>51</v>
+      </c>
+      <c r="E324" t="s">
+        <v>150</v>
+      </c>
+      <c r="F324" t="s">
+        <v>100</v>
+      </c>
+      <c r="G324" t="s">
+        <v>54</v>
+      </c>
+      <c r="H324" t="s">
+        <v>287</v>
+      </c>
+      <c r="I324" t="s">
+        <v>56</v>
+      </c>
+      <c r="J324" t="s">
+        <v>56</v>
+      </c>
+      <c r="K324" t="s">
+        <v>56</v>
+      </c>
+      <c r="L324" t="s">
+        <v>56</v>
+      </c>
+      <c r="M324" t="s">
+        <v>50</v>
+      </c>
+      <c r="N324" t="s">
+        <v>56</v>
+      </c>
+      <c r="O324" t="s">
+        <v>56</v>
+      </c>
+      <c r="P324" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>50</v>
+      </c>
+      <c r="R324" t="s">
+        <v>71</v>
+      </c>
+      <c r="S324" t="s">
+        <v>56</v>
+      </c>
+      <c r="T324" t="s">
+        <v>56</v>
+      </c>
+      <c r="U324" t="s">
+        <v>56</v>
+      </c>
+      <c r="V324" t="s">
+        <v>56</v>
+      </c>
+      <c r="W324" t="s">
+        <v>56</v>
+      </c>
+      <c r="X324" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF324" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG324" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI324" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK324" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL324" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM324" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO324" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP324" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ324" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR324" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS324" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT324" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU324" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV324" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW324" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX324" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="325" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A325" t="s">
+        <v>49</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C325" t="s">
+        <v>75</v>
+      </c>
+      <c r="D325" t="s">
+        <v>51</v>
+      </c>
+      <c r="E325" t="s">
+        <v>133</v>
+      </c>
+      <c r="F325" t="s">
+        <v>68</v>
+      </c>
+      <c r="G325" t="s">
+        <v>54</v>
+      </c>
+      <c r="H325" t="s">
+        <v>459</v>
+      </c>
+      <c r="I325" t="s">
+        <v>56</v>
+      </c>
+      <c r="J325" t="s">
+        <v>50</v>
+      </c>
+      <c r="K325" t="s">
+        <v>57</v>
+      </c>
+      <c r="L325" t="s">
+        <v>71</v>
+      </c>
+      <c r="M325" t="s">
+        <v>58</v>
+      </c>
+      <c r="N325" t="s">
+        <v>50</v>
+      </c>
+      <c r="O325" t="s">
+        <v>58</v>
+      </c>
+      <c r="P325" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>56</v>
+      </c>
+      <c r="R325" t="s">
+        <v>50</v>
+      </c>
+      <c r="S325" t="s">
+        <v>56</v>
+      </c>
+      <c r="T325" t="s">
+        <v>56</v>
+      </c>
+      <c r="U325" t="s">
+        <v>50</v>
+      </c>
+      <c r="V325" t="s">
+        <v>50</v>
+      </c>
+      <c r="W325" t="s">
+        <v>71</v>
+      </c>
+      <c r="X325" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF325" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG325" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH325" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI325" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK325" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL325" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM325" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO325" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP325" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ325" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR325" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS325" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT325" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU325" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV325" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW325" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX325" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="326" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A326" t="s">
+        <v>49</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C326" t="s">
+        <v>75</v>
+      </c>
+      <c r="D326" t="s">
+        <v>51</v>
+      </c>
+      <c r="E326" t="s">
+        <v>161</v>
+      </c>
+      <c r="F326" t="s">
+        <v>100</v>
+      </c>
+      <c r="G326" t="s">
+        <v>54</v>
+      </c>
+      <c r="H326" t="s">
+        <v>55</v>
+      </c>
+      <c r="I326" t="s">
+        <v>58</v>
+      </c>
+      <c r="J326" t="s">
+        <v>71</v>
+      </c>
+      <c r="K326" t="s">
+        <v>56</v>
+      </c>
+      <c r="L326" t="s">
+        <v>56</v>
+      </c>
+      <c r="M326" t="s">
+        <v>56</v>
+      </c>
+      <c r="N326" t="s">
+        <v>50</v>
+      </c>
+      <c r="O326" t="s">
+        <v>50</v>
+      </c>
+      <c r="P326" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>56</v>
+      </c>
+      <c r="R326" t="s">
+        <v>50</v>
+      </c>
+      <c r="S326" t="s">
+        <v>56</v>
+      </c>
+      <c r="T326" t="s">
+        <v>56</v>
+      </c>
+      <c r="U326" t="s">
+        <v>56</v>
+      </c>
+      <c r="V326" t="s">
+        <v>56</v>
+      </c>
+      <c r="W326" t="s">
+        <v>56</v>
+      </c>
+      <c r="X326" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF326" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG326" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI326" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ326" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK326" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL326" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM326" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN326" t="s">
+        <v>427</v>
+      </c>
+      <c r="AO326" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP326" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ326" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR326" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS326" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT326" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU326" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV326" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW326" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX326" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="327" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A327" t="s">
+        <v>49</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C327" t="s">
+        <v>75</v>
+      </c>
+      <c r="D327" t="s">
+        <v>51</v>
+      </c>
+      <c r="E327" t="s">
+        <v>93</v>
+      </c>
+      <c r="F327" t="s">
+        <v>68</v>
+      </c>
+      <c r="G327" t="s">
+        <v>54</v>
+      </c>
+      <c r="H327" t="s">
+        <v>210</v>
+      </c>
+      <c r="I327" t="s">
+        <v>71</v>
+      </c>
+      <c r="J327" t="s">
+        <v>71</v>
+      </c>
+      <c r="K327" t="s">
+        <v>56</v>
+      </c>
+      <c r="L327" t="s">
+        <v>56</v>
+      </c>
+      <c r="M327" t="s">
+        <v>56</v>
+      </c>
+      <c r="N327" t="s">
+        <v>56</v>
+      </c>
+      <c r="O327" t="s">
+        <v>56</v>
+      </c>
+      <c r="P327" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>56</v>
+      </c>
+      <c r="R327" t="s">
+        <v>56</v>
+      </c>
+      <c r="S327" t="s">
+        <v>56</v>
+      </c>
+      <c r="T327" t="s">
+        <v>56</v>
+      </c>
+      <c r="U327" t="s">
+        <v>56</v>
+      </c>
+      <c r="V327" t="s">
+        <v>56</v>
+      </c>
+      <c r="W327" t="s">
+        <v>50</v>
+      </c>
+      <c r="X327" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE327" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG327" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI327" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ327" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL327" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM327" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN327" t="s">
+        <v>460</v>
+      </c>
+      <c r="AO327" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP327" s="1">
+        <v>44661</v>
+      </c>
+      <c r="AQ327" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR327" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS327" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT327" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU327" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV327" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW327" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX327" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A328" t="s">
+        <v>49</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C328" t="s">
+        <v>95</v>
+      </c>
+      <c r="D328" t="s">
+        <v>51</v>
+      </c>
+      <c r="E328" t="s">
+        <v>124</v>
+      </c>
+      <c r="F328" t="s">
+        <v>95</v>
+      </c>
+      <c r="G328" t="s">
+        <v>54</v>
+      </c>
+      <c r="H328" t="s">
+        <v>461</v>
+      </c>
+      <c r="I328" t="s">
+        <v>56</v>
+      </c>
+      <c r="J328" t="s">
+        <v>71</v>
+      </c>
+      <c r="K328" t="s">
+        <v>56</v>
+      </c>
+      <c r="L328" t="s">
+        <v>56</v>
+      </c>
+      <c r="M328" t="s">
+        <v>56</v>
+      </c>
+      <c r="N328" t="s">
+        <v>56</v>
+      </c>
+      <c r="O328" t="s">
+        <v>56</v>
+      </c>
+      <c r="P328" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>56</v>
+      </c>
+      <c r="R328" t="s">
+        <v>56</v>
+      </c>
+      <c r="S328" t="s">
+        <v>56</v>
+      </c>
+      <c r="T328" t="s">
+        <v>56</v>
+      </c>
+      <c r="U328" t="s">
+        <v>56</v>
+      </c>
+      <c r="V328" t="s">
+        <v>56</v>
+      </c>
+      <c r="W328" t="s">
+        <v>56</v>
+      </c>
+      <c r="X328" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE328" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG328" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI328" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ328" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL328" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM328" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO328" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP328" s="1">
+        <v>44655</v>
+      </c>
+      <c r="AQ328" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR328" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS328" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT328" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU328" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV328" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW328" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX328" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="329" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A329" t="s">
+        <v>49</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C329" t="s">
+        <v>75</v>
+      </c>
+      <c r="D329" t="s">
+        <v>51</v>
+      </c>
+      <c r="E329" t="s">
+        <v>139</v>
+      </c>
+      <c r="F329" t="s">
+        <v>68</v>
+      </c>
+      <c r="G329" t="s">
+        <v>54</v>
+      </c>
+      <c r="H329" t="s">
+        <v>462</v>
+      </c>
+      <c r="I329" t="s">
+        <v>56</v>
+      </c>
+      <c r="J329" t="s">
+        <v>81</v>
+      </c>
+      <c r="K329" t="s">
+        <v>57</v>
+      </c>
+      <c r="L329" t="s">
+        <v>56</v>
+      </c>
+      <c r="M329" t="s">
+        <v>71</v>
+      </c>
+      <c r="N329" t="s">
+        <v>71</v>
+      </c>
+      <c r="O329" t="s">
+        <v>58</v>
+      </c>
+      <c r="P329" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>70</v>
+      </c>
+      <c r="R329" t="s">
+        <v>56</v>
+      </c>
+      <c r="S329" t="s">
+        <v>50</v>
+      </c>
+      <c r="T329" t="s">
+        <v>56</v>
+      </c>
+      <c r="U329" t="s">
+        <v>56</v>
+      </c>
+      <c r="V329" t="s">
+        <v>56</v>
+      </c>
+      <c r="W329" t="s">
+        <v>56</v>
+      </c>
+      <c r="X329" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD329" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE329" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF329" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG329" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH329" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI329" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ329" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK329" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL329" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM329" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN329" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO329" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP329" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ329" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR329" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS329" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT329" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU329" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV329" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW329" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX329" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="330" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A330" t="s">
+        <v>49</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C330" t="s">
+        <v>75</v>
+      </c>
+      <c r="D330" t="s">
+        <v>51</v>
+      </c>
+      <c r="E330" t="s">
+        <v>147</v>
+      </c>
+      <c r="F330" t="s">
+        <v>68</v>
+      </c>
+      <c r="G330" t="s">
+        <v>54</v>
+      </c>
+      <c r="H330" t="s">
+        <v>55</v>
+      </c>
+      <c r="I330" t="s">
+        <v>56</v>
+      </c>
+      <c r="J330" t="s">
+        <v>71</v>
+      </c>
+      <c r="K330" t="s">
+        <v>56</v>
+      </c>
+      <c r="L330" t="s">
+        <v>56</v>
+      </c>
+      <c r="M330" t="s">
+        <v>50</v>
+      </c>
+      <c r="N330" t="s">
+        <v>71</v>
+      </c>
+      <c r="O330" t="s">
+        <v>56</v>
+      </c>
+      <c r="P330" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>58</v>
+      </c>
+      <c r="R330" t="s">
+        <v>50</v>
+      </c>
+      <c r="S330" t="s">
+        <v>56</v>
+      </c>
+      <c r="T330" t="s">
+        <v>50</v>
+      </c>
+      <c r="U330" t="s">
+        <v>56</v>
+      </c>
+      <c r="V330" t="s">
+        <v>56</v>
+      </c>
+      <c r="W330" t="s">
+        <v>56</v>
+      </c>
+      <c r="X330" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE330" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG330" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI330" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ330" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK330" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL330" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM330" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN330" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO330" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP330" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ330" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR330" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS330" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT330" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU330" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV330" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW330" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX330" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="331" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A331" t="s">
+        <v>49</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C331" t="s">
+        <v>75</v>
+      </c>
+      <c r="D331" t="s">
+        <v>51</v>
+      </c>
+      <c r="E331" t="s">
+        <v>87</v>
+      </c>
+      <c r="F331" t="s">
+        <v>68</v>
+      </c>
+      <c r="G331" t="s">
+        <v>54</v>
+      </c>
+      <c r="H331" t="s">
+        <v>463</v>
+      </c>
+      <c r="I331" t="s">
+        <v>56</v>
+      </c>
+      <c r="J331" t="s">
+        <v>50</v>
+      </c>
+      <c r="K331" t="s">
+        <v>56</v>
+      </c>
+      <c r="L331" t="s">
+        <v>56</v>
+      </c>
+      <c r="M331" t="s">
+        <v>56</v>
+      </c>
+      <c r="N331" t="s">
+        <v>50</v>
+      </c>
+      <c r="O331" t="s">
+        <v>50</v>
+      </c>
+      <c r="P331" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>50</v>
+      </c>
+      <c r="R331" t="s">
+        <v>56</v>
+      </c>
+      <c r="S331" t="s">
+        <v>71</v>
+      </c>
+      <c r="T331" t="s">
+        <v>56</v>
+      </c>
+      <c r="U331" t="s">
+        <v>50</v>
+      </c>
+      <c r="V331" t="s">
+        <v>56</v>
+      </c>
+      <c r="W331" t="s">
+        <v>56</v>
+      </c>
+      <c r="X331" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE331" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF331" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG331" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK331" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL331" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM331" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO331" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP331" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ331" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR331" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS331" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT331" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU331" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV331" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW331" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX331" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="332" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A332" t="s">
+        <v>49</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C332" t="s">
+        <v>75</v>
+      </c>
+      <c r="D332" t="s">
+        <v>51</v>
+      </c>
+      <c r="E332" t="s">
+        <v>87</v>
+      </c>
+      <c r="F332" t="s">
+        <v>88</v>
+      </c>
+      <c r="G332" t="s">
+        <v>54</v>
+      </c>
+      <c r="H332" t="s">
+        <v>55</v>
+      </c>
+      <c r="I332" t="s">
+        <v>56</v>
+      </c>
+      <c r="J332" t="s">
+        <v>141</v>
+      </c>
+      <c r="K332" t="s">
+        <v>50</v>
+      </c>
+      <c r="L332" t="s">
+        <v>56</v>
+      </c>
+      <c r="M332" t="s">
+        <v>56</v>
+      </c>
+      <c r="N332" t="s">
+        <v>50</v>
+      </c>
+      <c r="O332" t="s">
+        <v>58</v>
+      </c>
+      <c r="P332" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>71</v>
+      </c>
+      <c r="R332" t="s">
+        <v>50</v>
+      </c>
+      <c r="S332" t="s">
+        <v>71</v>
+      </c>
+      <c r="T332" t="s">
+        <v>56</v>
+      </c>
+      <c r="U332" t="s">
+        <v>56</v>
+      </c>
+      <c r="V332" t="s">
+        <v>56</v>
+      </c>
+      <c r="W332" t="s">
+        <v>56</v>
+      </c>
+      <c r="X332" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD332" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE332" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF332" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG332" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH332" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI332" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ332" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK332" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL332" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM332" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO332" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP332" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ332" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR332" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS332" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT332" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU332" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV332" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW332" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX332" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="333" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A333" t="s">
+        <v>49</v>
+      </c>
+      <c r="B333" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C333" t="s">
+        <v>75</v>
+      </c>
+      <c r="D333" t="s">
+        <v>51</v>
+      </c>
+      <c r="E333" t="s">
+        <v>87</v>
+      </c>
+      <c r="F333" t="s">
+        <v>260</v>
+      </c>
+      <c r="G333" t="s">
+        <v>54</v>
+      </c>
+      <c r="H333" t="s">
+        <v>58</v>
+      </c>
+      <c r="I333" t="s">
+        <v>56</v>
+      </c>
+      <c r="J333" t="s">
+        <v>56</v>
+      </c>
+      <c r="K333" t="s">
+        <v>56</v>
+      </c>
+      <c r="L333" t="s">
+        <v>56</v>
+      </c>
+      <c r="M333" t="s">
+        <v>56</v>
+      </c>
+      <c r="N333" t="s">
+        <v>56</v>
+      </c>
+      <c r="O333" t="s">
+        <v>50</v>
+      </c>
+      <c r="P333" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>56</v>
+      </c>
+      <c r="R333" t="s">
+        <v>56</v>
+      </c>
+      <c r="S333" t="s">
+        <v>56</v>
+      </c>
+      <c r="T333" t="s">
+        <v>56</v>
+      </c>
+      <c r="U333" t="s">
+        <v>56</v>
+      </c>
+      <c r="V333" t="s">
+        <v>56</v>
+      </c>
+      <c r="W333" t="s">
+        <v>56</v>
+      </c>
+      <c r="X333" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF333" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG333" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH333" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI333" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ333" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK333" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL333" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM333" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO333" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP333" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ333" t="s">
+        <v>425</v>
+      </c>
+      <c r="AR333" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS333" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT333" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU333" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV333" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW333" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX333" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="334" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A334" t="s">
+        <v>49</v>
+      </c>
+      <c r="B334" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C334" t="s">
+        <v>75</v>
+      </c>
+      <c r="D334" t="s">
+        <v>51</v>
+      </c>
+      <c r="E334" t="s">
+        <v>67</v>
+      </c>
+      <c r="F334" t="s">
+        <v>68</v>
+      </c>
+      <c r="G334" t="s">
+        <v>54</v>
+      </c>
+      <c r="H334" t="s">
+        <v>55</v>
+      </c>
+      <c r="I334" t="s">
+        <v>58</v>
+      </c>
+      <c r="J334" t="s">
+        <v>141</v>
+      </c>
+      <c r="K334" t="s">
+        <v>50</v>
+      </c>
+      <c r="L334" t="s">
+        <v>50</v>
+      </c>
+      <c r="M334" t="s">
+        <v>50</v>
+      </c>
+      <c r="N334" t="s">
+        <v>83</v>
+      </c>
+      <c r="O334" t="s">
+        <v>57</v>
+      </c>
+      <c r="P334" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>57</v>
+      </c>
+      <c r="R334" t="s">
+        <v>50</v>
+      </c>
+      <c r="S334" t="s">
+        <v>58</v>
+      </c>
+      <c r="T334" t="s">
+        <v>56</v>
+      </c>
+      <c r="U334" t="s">
+        <v>50</v>
+      </c>
+      <c r="V334" t="s">
+        <v>71</v>
+      </c>
+      <c r="W334" t="s">
+        <v>50</v>
+      </c>
+      <c r="X334" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF334" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG334" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH334" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI334" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ334" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK334" t="s">
+        <v>464</v>
+      </c>
+      <c r="AL334" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM334" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN334" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO334" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP334" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ334" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR334" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS334" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT334" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU334" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV334" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW334" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX334" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="335" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A335" t="s">
+        <v>49</v>
+      </c>
+      <c r="B335" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C335" t="s">
+        <v>75</v>
+      </c>
+      <c r="D335" t="s">
+        <v>51</v>
+      </c>
+      <c r="E335" t="s">
+        <v>67</v>
+      </c>
+      <c r="F335" t="s">
+        <v>78</v>
+      </c>
+      <c r="G335" t="s">
+        <v>54</v>
+      </c>
+      <c r="H335" t="s">
+        <v>465</v>
+      </c>
+      <c r="I335" t="s">
+        <v>56</v>
+      </c>
+      <c r="J335" t="s">
+        <v>50</v>
+      </c>
+      <c r="K335" t="s">
+        <v>71</v>
+      </c>
+      <c r="L335" t="s">
+        <v>56</v>
+      </c>
+      <c r="M335" t="s">
+        <v>50</v>
+      </c>
+      <c r="N335" t="s">
+        <v>70</v>
+      </c>
+      <c r="O335" t="s">
+        <v>71</v>
+      </c>
+      <c r="P335" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>58</v>
+      </c>
+      <c r="R335" t="s">
+        <v>56</v>
+      </c>
+      <c r="S335" t="s">
+        <v>50</v>
+      </c>
+      <c r="T335" t="s">
+        <v>71</v>
+      </c>
+      <c r="U335" t="s">
+        <v>50</v>
+      </c>
+      <c r="V335" t="s">
+        <v>50</v>
+      </c>
+      <c r="W335" t="s">
+        <v>56</v>
+      </c>
+      <c r="X335" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF335" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG335" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH335" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI335" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ335" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK335" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL335" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM335" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN335" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO335" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP335" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ335" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR335" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS335" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT335" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU335" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV335" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW335" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX335" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="336" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A336" t="s">
+        <v>49</v>
+      </c>
+      <c r="B336" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C336" t="s">
+        <v>75</v>
+      </c>
+      <c r="D336" t="s">
+        <v>51</v>
+      </c>
+      <c r="E336" t="s">
+        <v>67</v>
+      </c>
+      <c r="F336" t="s">
+        <v>81</v>
+      </c>
+      <c r="G336" t="s">
+        <v>54</v>
+      </c>
+      <c r="H336" t="s">
+        <v>466</v>
+      </c>
+      <c r="I336" t="s">
+        <v>56</v>
+      </c>
+      <c r="J336" t="s">
+        <v>102</v>
+      </c>
+      <c r="K336" t="s">
+        <v>71</v>
+      </c>
+      <c r="L336" t="s">
+        <v>50</v>
+      </c>
+      <c r="M336" t="s">
+        <v>71</v>
+      </c>
+      <c r="N336" t="s">
+        <v>57</v>
+      </c>
+      <c r="O336" t="s">
+        <v>57</v>
+      </c>
+      <c r="P336" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>58</v>
+      </c>
+      <c r="R336" t="s">
+        <v>58</v>
+      </c>
+      <c r="S336" t="s">
+        <v>56</v>
+      </c>
+      <c r="T336" t="s">
+        <v>58</v>
+      </c>
+      <c r="U336" t="s">
+        <v>70</v>
+      </c>
+      <c r="V336" t="s">
+        <v>58</v>
+      </c>
+      <c r="W336" t="s">
+        <v>71</v>
+      </c>
+      <c r="X336" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE336" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF336" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG336" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH336" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI336" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ336" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK336" t="s">
+        <v>284</v>
+      </c>
+      <c r="AL336" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM336" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN336" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO336" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP336" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ336" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR336" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS336" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT336" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU336" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV336" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW336" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX336" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="337" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A337" t="s">
+        <v>49</v>
+      </c>
+      <c r="B337" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C337" t="s">
+        <v>75</v>
+      </c>
+      <c r="D337" t="s">
+        <v>51</v>
+      </c>
+      <c r="E337" t="s">
+        <v>129</v>
+      </c>
+      <c r="F337" t="s">
+        <v>68</v>
+      </c>
+      <c r="G337" t="s">
+        <v>54</v>
+      </c>
+      <c r="H337" t="s">
+        <v>467</v>
+      </c>
+      <c r="I337" t="s">
+        <v>56</v>
+      </c>
+      <c r="J337" t="s">
+        <v>50</v>
+      </c>
+      <c r="K337" t="s">
+        <v>56</v>
+      </c>
+      <c r="L337" t="s">
+        <v>56</v>
+      </c>
+      <c r="M337" t="s">
+        <v>56</v>
+      </c>
+      <c r="N337" t="s">
+        <v>56</v>
+      </c>
+      <c r="O337" t="s">
+        <v>56</v>
+      </c>
+      <c r="P337" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>56</v>
+      </c>
+      <c r="R337" t="s">
+        <v>56</v>
+      </c>
+      <c r="S337" t="s">
+        <v>56</v>
+      </c>
+      <c r="T337" t="s">
+        <v>56</v>
+      </c>
+      <c r="U337" t="s">
+        <v>56</v>
+      </c>
+      <c r="V337" t="s">
+        <v>56</v>
+      </c>
+      <c r="W337" t="s">
+        <v>56</v>
+      </c>
+      <c r="X337" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF337" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG337" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH337" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI337" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ337" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK337" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL337" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM337" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO337" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP337" s="1">
+        <v>44662</v>
+      </c>
+      <c r="AQ337" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR337" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS337" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT337" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU337" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV337" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW337" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX337" t="s">
         <v>395</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E583A83-5B87-7547-970F-2ADB134A735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ED6CBF46-D141-4D4C-947D-DDEFA5B2B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16154" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="481">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1426,6 +1426,42 @@
     <t>59</t>
   </si>
   <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>863</t>
+  </si>
+  <si>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>CRA 16 BIS 8-24 EDIFICIO OKO</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1941</t>
+  </si>
+  <si>
+    <t>898</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1844,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX337"/>
+  <dimension ref="A1:AX355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1863,7 +1899,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -53001,6 +53037,2736 @@
         <v>66</v>
       </c>
       <c r="AX337" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="338" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A338" t="s">
+        <v>49</v>
+      </c>
+      <c r="B338" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C338" t="s">
+        <v>206</v>
+      </c>
+      <c r="D338" t="s">
+        <v>51</v>
+      </c>
+      <c r="E338" t="s">
+        <v>161</v>
+      </c>
+      <c r="F338" t="s">
+        <v>68</v>
+      </c>
+      <c r="G338" t="s">
+        <v>54</v>
+      </c>
+      <c r="H338" t="s">
+        <v>468</v>
+      </c>
+      <c r="I338" t="s">
+        <v>56</v>
+      </c>
+      <c r="J338" t="s">
+        <v>71</v>
+      </c>
+      <c r="K338" t="s">
+        <v>71</v>
+      </c>
+      <c r="L338" t="s">
+        <v>56</v>
+      </c>
+      <c r="M338" t="s">
+        <v>56</v>
+      </c>
+      <c r="N338" t="s">
+        <v>71</v>
+      </c>
+      <c r="O338" t="s">
+        <v>70</v>
+      </c>
+      <c r="P338" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>50</v>
+      </c>
+      <c r="R338" t="s">
+        <v>50</v>
+      </c>
+      <c r="S338" t="s">
+        <v>50</v>
+      </c>
+      <c r="T338" t="s">
+        <v>56</v>
+      </c>
+      <c r="U338" t="s">
+        <v>56</v>
+      </c>
+      <c r="V338" t="s">
+        <v>56</v>
+      </c>
+      <c r="W338" t="s">
+        <v>56</v>
+      </c>
+      <c r="X338" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG338" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI338" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ338" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK338" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL338" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM338" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN338" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO338" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP338" s="1">
+        <v>44667</v>
+      </c>
+      <c r="AQ338" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR338" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS338" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT338" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU338" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV338" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW338" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX338" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="339" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A339" t="s">
+        <v>49</v>
+      </c>
+      <c r="B339" s="1">
+        <v>44660</v>
+      </c>
+      <c r="C339" t="s">
+        <v>75</v>
+      </c>
+      <c r="D339" t="s">
+        <v>51</v>
+      </c>
+      <c r="E339" t="s">
+        <v>124</v>
+      </c>
+      <c r="F339" t="s">
+        <v>95</v>
+      </c>
+      <c r="G339" t="s">
+        <v>54</v>
+      </c>
+      <c r="H339" t="s">
+        <v>469</v>
+      </c>
+      <c r="I339" t="s">
+        <v>56</v>
+      </c>
+      <c r="J339" t="s">
+        <v>50</v>
+      </c>
+      <c r="K339" t="s">
+        <v>56</v>
+      </c>
+      <c r="L339" t="s">
+        <v>56</v>
+      </c>
+      <c r="M339" t="s">
+        <v>56</v>
+      </c>
+      <c r="N339" t="s">
+        <v>56</v>
+      </c>
+      <c r="O339" t="s">
+        <v>56</v>
+      </c>
+      <c r="P339" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>56</v>
+      </c>
+      <c r="R339" t="s">
+        <v>56</v>
+      </c>
+      <c r="S339" t="s">
+        <v>56</v>
+      </c>
+      <c r="T339" t="s">
+        <v>56</v>
+      </c>
+      <c r="U339" t="s">
+        <v>56</v>
+      </c>
+      <c r="V339" t="s">
+        <v>56</v>
+      </c>
+      <c r="W339" t="s">
+        <v>56</v>
+      </c>
+      <c r="X339" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE339" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF339" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH339" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI339" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ339" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK339" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL339" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM339" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO339" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP339" s="1">
+        <v>44664</v>
+      </c>
+      <c r="AQ339" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR339" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS339" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT339" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU339" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV339" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW339" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX339" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="340" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A340" t="s">
+        <v>49</v>
+      </c>
+      <c r="B340" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C340" t="s">
+        <v>206</v>
+      </c>
+      <c r="D340" t="s">
+        <v>51</v>
+      </c>
+      <c r="E340" t="s">
+        <v>150</v>
+      </c>
+      <c r="F340" t="s">
+        <v>100</v>
+      </c>
+      <c r="G340" t="s">
+        <v>54</v>
+      </c>
+      <c r="H340" t="s">
+        <v>470</v>
+      </c>
+      <c r="I340" t="s">
+        <v>56</v>
+      </c>
+      <c r="J340" t="s">
+        <v>71</v>
+      </c>
+      <c r="K340" t="s">
+        <v>56</v>
+      </c>
+      <c r="L340" t="s">
+        <v>56</v>
+      </c>
+      <c r="M340" t="s">
+        <v>56</v>
+      </c>
+      <c r="N340" t="s">
+        <v>56</v>
+      </c>
+      <c r="O340" t="s">
+        <v>56</v>
+      </c>
+      <c r="P340" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>56</v>
+      </c>
+      <c r="R340" t="s">
+        <v>50</v>
+      </c>
+      <c r="S340" t="s">
+        <v>56</v>
+      </c>
+      <c r="T340" t="s">
+        <v>56</v>
+      </c>
+      <c r="U340" t="s">
+        <v>56</v>
+      </c>
+      <c r="V340" t="s">
+        <v>56</v>
+      </c>
+      <c r="W340" t="s">
+        <v>56</v>
+      </c>
+      <c r="X340" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG340" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI340" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ340" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL340" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM340" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO340" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP340" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ340" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR340" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS340" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT340" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU340" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV340" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW340" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX340" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="341" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A341" t="s">
+        <v>49</v>
+      </c>
+      <c r="B341" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C341" t="s">
+        <v>74</v>
+      </c>
+      <c r="D341" t="s">
+        <v>51</v>
+      </c>
+      <c r="E341" t="s">
+        <v>93</v>
+      </c>
+      <c r="F341" t="s">
+        <v>68</v>
+      </c>
+      <c r="G341" t="s">
+        <v>54</v>
+      </c>
+      <c r="H341" t="s">
+        <v>156</v>
+      </c>
+      <c r="I341" t="s">
+        <v>71</v>
+      </c>
+      <c r="J341" t="s">
+        <v>58</v>
+      </c>
+      <c r="K341" t="s">
+        <v>70</v>
+      </c>
+      <c r="L341" t="s">
+        <v>71</v>
+      </c>
+      <c r="M341" t="s">
+        <v>56</v>
+      </c>
+      <c r="N341" t="s">
+        <v>50</v>
+      </c>
+      <c r="O341" t="s">
+        <v>56</v>
+      </c>
+      <c r="P341" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>56</v>
+      </c>
+      <c r="R341" t="s">
+        <v>56</v>
+      </c>
+      <c r="S341" t="s">
+        <v>71</v>
+      </c>
+      <c r="T341" t="s">
+        <v>50</v>
+      </c>
+      <c r="U341" t="s">
+        <v>57</v>
+      </c>
+      <c r="V341" t="s">
+        <v>71</v>
+      </c>
+      <c r="W341" t="s">
+        <v>71</v>
+      </c>
+      <c r="X341" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG341" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI341" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ341" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK341" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL341" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM341" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN341" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO341" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP341" s="1">
+        <v>44668</v>
+      </c>
+      <c r="AQ341" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR341" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS341" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT341" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU341" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV341" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW341" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX341" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="342" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A342" t="s">
+        <v>49</v>
+      </c>
+      <c r="B342" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C342" t="s">
+        <v>206</v>
+      </c>
+      <c r="D342" t="s">
+        <v>51</v>
+      </c>
+      <c r="E342" t="s">
+        <v>147</v>
+      </c>
+      <c r="F342" t="s">
+        <v>68</v>
+      </c>
+      <c r="G342" t="s">
+        <v>54</v>
+      </c>
+      <c r="H342" t="s">
+        <v>55</v>
+      </c>
+      <c r="I342" t="s">
+        <v>56</v>
+      </c>
+      <c r="J342" t="s">
+        <v>56</v>
+      </c>
+      <c r="K342" t="s">
+        <v>56</v>
+      </c>
+      <c r="L342" t="s">
+        <v>50</v>
+      </c>
+      <c r="M342" t="s">
+        <v>56</v>
+      </c>
+      <c r="N342" t="s">
+        <v>50</v>
+      </c>
+      <c r="O342" t="s">
+        <v>56</v>
+      </c>
+      <c r="P342" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>50</v>
+      </c>
+      <c r="R342" t="s">
+        <v>56</v>
+      </c>
+      <c r="S342" t="s">
+        <v>50</v>
+      </c>
+      <c r="T342" t="s">
+        <v>56</v>
+      </c>
+      <c r="U342" t="s">
+        <v>50</v>
+      </c>
+      <c r="V342" t="s">
+        <v>71</v>
+      </c>
+      <c r="W342" t="s">
+        <v>56</v>
+      </c>
+      <c r="X342" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE342" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF342" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG342" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH342" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI342" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ342" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK342" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL342" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM342" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN342" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO342" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP342" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ342" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR342" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS342" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT342" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU342" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV342" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW342" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX342" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="343" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A343" t="s">
+        <v>49</v>
+      </c>
+      <c r="B343" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C343" t="s">
+        <v>206</v>
+      </c>
+      <c r="D343" t="s">
+        <v>51</v>
+      </c>
+      <c r="E343" t="s">
+        <v>133</v>
+      </c>
+      <c r="F343" t="s">
+        <v>68</v>
+      </c>
+      <c r="G343" t="s">
+        <v>54</v>
+      </c>
+      <c r="H343" t="s">
+        <v>55</v>
+      </c>
+      <c r="I343" t="s">
+        <v>71</v>
+      </c>
+      <c r="J343" t="s">
+        <v>50</v>
+      </c>
+      <c r="K343" t="s">
+        <v>50</v>
+      </c>
+      <c r="L343" t="s">
+        <v>50</v>
+      </c>
+      <c r="M343" t="s">
+        <v>56</v>
+      </c>
+      <c r="N343" t="s">
+        <v>56</v>
+      </c>
+      <c r="O343" t="s">
+        <v>56</v>
+      </c>
+      <c r="P343" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>56</v>
+      </c>
+      <c r="R343" t="s">
+        <v>56</v>
+      </c>
+      <c r="S343" t="s">
+        <v>56</v>
+      </c>
+      <c r="T343" t="s">
+        <v>56</v>
+      </c>
+      <c r="U343" t="s">
+        <v>71</v>
+      </c>
+      <c r="V343" t="s">
+        <v>56</v>
+      </c>
+      <c r="W343" t="s">
+        <v>56</v>
+      </c>
+      <c r="X343" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG343" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH343" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI343" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ343" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK343" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL343" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM343" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO343" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP343" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ343" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR343" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS343" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT343" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU343" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV343" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW343" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX343" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="344" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A344" t="s">
+        <v>49</v>
+      </c>
+      <c r="B344" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C344" t="s">
+        <v>206</v>
+      </c>
+      <c r="D344" t="s">
+        <v>51</v>
+      </c>
+      <c r="E344" t="s">
+        <v>124</v>
+      </c>
+      <c r="F344" t="s">
+        <v>112</v>
+      </c>
+      <c r="G344" t="s">
+        <v>54</v>
+      </c>
+      <c r="H344" t="s">
+        <v>55</v>
+      </c>
+      <c r="I344" t="s">
+        <v>56</v>
+      </c>
+      <c r="J344" t="s">
+        <v>58</v>
+      </c>
+      <c r="K344" t="s">
+        <v>71</v>
+      </c>
+      <c r="L344" t="s">
+        <v>56</v>
+      </c>
+      <c r="M344" t="s">
+        <v>56</v>
+      </c>
+      <c r="N344" t="s">
+        <v>50</v>
+      </c>
+      <c r="O344" t="s">
+        <v>50</v>
+      </c>
+      <c r="P344" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>71</v>
+      </c>
+      <c r="R344" t="s">
+        <v>56</v>
+      </c>
+      <c r="S344" t="s">
+        <v>56</v>
+      </c>
+      <c r="T344" t="s">
+        <v>50</v>
+      </c>
+      <c r="U344" t="s">
+        <v>50</v>
+      </c>
+      <c r="V344" t="s">
+        <v>50</v>
+      </c>
+      <c r="W344" t="s">
+        <v>71</v>
+      </c>
+      <c r="X344" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF344" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG344" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH344" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI344" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ344" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK344" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL344" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM344" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO344" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP344" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ344" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR344" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS344" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT344" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU344" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV344" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW344" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX344" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="345" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A345" t="s">
+        <v>49</v>
+      </c>
+      <c r="B345" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C345" t="s">
+        <v>206</v>
+      </c>
+      <c r="D345" t="s">
+        <v>51</v>
+      </c>
+      <c r="E345" t="s">
+        <v>99</v>
+      </c>
+      <c r="F345" t="s">
+        <v>187</v>
+      </c>
+      <c r="G345" t="s">
+        <v>54</v>
+      </c>
+      <c r="H345" t="s">
+        <v>471</v>
+      </c>
+      <c r="I345" t="s">
+        <v>56</v>
+      </c>
+      <c r="J345" t="s">
+        <v>56</v>
+      </c>
+      <c r="K345" t="s">
+        <v>56</v>
+      </c>
+      <c r="L345" t="s">
+        <v>56</v>
+      </c>
+      <c r="M345" t="s">
+        <v>56</v>
+      </c>
+      <c r="N345" t="s">
+        <v>56</v>
+      </c>
+      <c r="O345" t="s">
+        <v>56</v>
+      </c>
+      <c r="P345" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>56</v>
+      </c>
+      <c r="R345" t="s">
+        <v>56</v>
+      </c>
+      <c r="S345" t="s">
+        <v>56</v>
+      </c>
+      <c r="T345" t="s">
+        <v>56</v>
+      </c>
+      <c r="U345" t="s">
+        <v>56</v>
+      </c>
+      <c r="V345" t="s">
+        <v>50</v>
+      </c>
+      <c r="W345" t="s">
+        <v>56</v>
+      </c>
+      <c r="X345" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF345" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG345" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH345" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI345" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ345" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK345" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL345" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM345" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO345" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP345" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ345" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR345" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS345" t="s">
+        <v>189</v>
+      </c>
+      <c r="AT345" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU345" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV345" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW345" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX345" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="346" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A346" t="s">
+        <v>49</v>
+      </c>
+      <c r="B346" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C346" t="s">
+        <v>206</v>
+      </c>
+      <c r="D346" t="s">
+        <v>51</v>
+      </c>
+      <c r="E346" t="s">
+        <v>99</v>
+      </c>
+      <c r="F346" t="s">
+        <v>105</v>
+      </c>
+      <c r="G346" t="s">
+        <v>54</v>
+      </c>
+      <c r="H346" t="s">
+        <v>388</v>
+      </c>
+      <c r="I346" t="s">
+        <v>50</v>
+      </c>
+      <c r="J346" t="s">
+        <v>58</v>
+      </c>
+      <c r="K346" t="s">
+        <v>70</v>
+      </c>
+      <c r="L346" t="s">
+        <v>56</v>
+      </c>
+      <c r="M346" t="s">
+        <v>56</v>
+      </c>
+      <c r="N346" t="s">
+        <v>50</v>
+      </c>
+      <c r="O346" t="s">
+        <v>50</v>
+      </c>
+      <c r="P346" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>56</v>
+      </c>
+      <c r="R346" t="s">
+        <v>50</v>
+      </c>
+      <c r="S346" t="s">
+        <v>58</v>
+      </c>
+      <c r="T346" t="s">
+        <v>56</v>
+      </c>
+      <c r="U346" t="s">
+        <v>56</v>
+      </c>
+      <c r="V346" t="s">
+        <v>50</v>
+      </c>
+      <c r="W346" t="s">
+        <v>56</v>
+      </c>
+      <c r="X346" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE346" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF346" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG346" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH346" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI346" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ346" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK346" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL346" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM346" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO346" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP346" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ346" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR346" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS346" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT346" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU346" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV346" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW346" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX346" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="347" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A347" t="s">
+        <v>49</v>
+      </c>
+      <c r="B347" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C347" t="s">
+        <v>206</v>
+      </c>
+      <c r="D347" t="s">
+        <v>51</v>
+      </c>
+      <c r="E347" t="s">
+        <v>99</v>
+      </c>
+      <c r="F347" t="s">
+        <v>112</v>
+      </c>
+      <c r="G347" t="s">
+        <v>54</v>
+      </c>
+      <c r="H347" t="s">
+        <v>472</v>
+      </c>
+      <c r="I347" t="s">
+        <v>56</v>
+      </c>
+      <c r="J347" t="s">
+        <v>56</v>
+      </c>
+      <c r="K347" t="s">
+        <v>56</v>
+      </c>
+      <c r="L347" t="s">
+        <v>56</v>
+      </c>
+      <c r="M347" t="s">
+        <v>56</v>
+      </c>
+      <c r="N347" t="s">
+        <v>56</v>
+      </c>
+      <c r="O347" t="s">
+        <v>56</v>
+      </c>
+      <c r="P347" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>56</v>
+      </c>
+      <c r="R347" t="s">
+        <v>56</v>
+      </c>
+      <c r="S347" t="s">
+        <v>56</v>
+      </c>
+      <c r="T347" t="s">
+        <v>56</v>
+      </c>
+      <c r="U347" t="s">
+        <v>56</v>
+      </c>
+      <c r="V347" t="s">
+        <v>56</v>
+      </c>
+      <c r="W347" t="s">
+        <v>56</v>
+      </c>
+      <c r="X347" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF347" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG347" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH347" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI347" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ347" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK347" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN347" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO347" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP347" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ347" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR347" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS347" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT347" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU347" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX347" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="348" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A348" t="s">
+        <v>49</v>
+      </c>
+      <c r="B348" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C348" t="s">
+        <v>206</v>
+      </c>
+      <c r="D348" t="s">
+        <v>51</v>
+      </c>
+      <c r="E348" t="s">
+        <v>161</v>
+      </c>
+      <c r="F348" t="s">
+        <v>100</v>
+      </c>
+      <c r="G348" t="s">
+        <v>54</v>
+      </c>
+      <c r="H348" t="s">
+        <v>75</v>
+      </c>
+      <c r="I348" t="s">
+        <v>50</v>
+      </c>
+      <c r="J348" t="s">
+        <v>71</v>
+      </c>
+      <c r="K348" t="s">
+        <v>56</v>
+      </c>
+      <c r="L348" t="s">
+        <v>56</v>
+      </c>
+      <c r="M348" t="s">
+        <v>50</v>
+      </c>
+      <c r="N348" t="s">
+        <v>50</v>
+      </c>
+      <c r="O348" t="s">
+        <v>50</v>
+      </c>
+      <c r="P348" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>56</v>
+      </c>
+      <c r="R348" t="s">
+        <v>56</v>
+      </c>
+      <c r="S348" t="s">
+        <v>56</v>
+      </c>
+      <c r="T348" t="s">
+        <v>50</v>
+      </c>
+      <c r="U348" t="s">
+        <v>50</v>
+      </c>
+      <c r="V348" t="s">
+        <v>56</v>
+      </c>
+      <c r="W348" t="s">
+        <v>56</v>
+      </c>
+      <c r="X348" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF348" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH348" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI348" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ348" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK348" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL348" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM348" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN348" t="s">
+        <v>473</v>
+      </c>
+      <c r="AO348" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP348" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ348" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR348" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS348" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT348" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU348" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV348" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW348" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX348" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="349" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A349" t="s">
+        <v>49</v>
+      </c>
+      <c r="B349" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C349" t="s">
+        <v>206</v>
+      </c>
+      <c r="D349" t="s">
+        <v>51</v>
+      </c>
+      <c r="E349" t="s">
+        <v>87</v>
+      </c>
+      <c r="F349" t="s">
+        <v>68</v>
+      </c>
+      <c r="G349" t="s">
+        <v>54</v>
+      </c>
+      <c r="H349" t="s">
+        <v>55</v>
+      </c>
+      <c r="I349" t="s">
+        <v>56</v>
+      </c>
+      <c r="J349" t="s">
+        <v>56</v>
+      </c>
+      <c r="K349" t="s">
+        <v>71</v>
+      </c>
+      <c r="L349" t="s">
+        <v>56</v>
+      </c>
+      <c r="M349" t="s">
+        <v>56</v>
+      </c>
+      <c r="N349" t="s">
+        <v>50</v>
+      </c>
+      <c r="O349" t="s">
+        <v>56</v>
+      </c>
+      <c r="P349" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>56</v>
+      </c>
+      <c r="R349" t="s">
+        <v>56</v>
+      </c>
+      <c r="S349" t="s">
+        <v>56</v>
+      </c>
+      <c r="T349" t="s">
+        <v>56</v>
+      </c>
+      <c r="U349" t="s">
+        <v>56</v>
+      </c>
+      <c r="V349" t="s">
+        <v>56</v>
+      </c>
+      <c r="W349" t="s">
+        <v>56</v>
+      </c>
+      <c r="X349" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF349" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG349" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH349" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI349" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ349" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK349" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL349" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM349" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO349" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP349" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ349" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR349" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS349" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT349" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU349" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV349" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW349" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX349" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="350" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A350" t="s">
+        <v>49</v>
+      </c>
+      <c r="B350" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C350" t="s">
+        <v>206</v>
+      </c>
+      <c r="D350" t="s">
+        <v>51</v>
+      </c>
+      <c r="E350" t="s">
+        <v>87</v>
+      </c>
+      <c r="F350" t="s">
+        <v>88</v>
+      </c>
+      <c r="G350" t="s">
+        <v>54</v>
+      </c>
+      <c r="H350" t="s">
+        <v>474</v>
+      </c>
+      <c r="I350" t="s">
+        <v>56</v>
+      </c>
+      <c r="J350" t="s">
+        <v>56</v>
+      </c>
+      <c r="K350" t="s">
+        <v>50</v>
+      </c>
+      <c r="L350" t="s">
+        <v>50</v>
+      </c>
+      <c r="M350" t="s">
+        <v>56</v>
+      </c>
+      <c r="N350" t="s">
+        <v>56</v>
+      </c>
+      <c r="O350" t="s">
+        <v>71</v>
+      </c>
+      <c r="P350" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>71</v>
+      </c>
+      <c r="R350" t="s">
+        <v>71</v>
+      </c>
+      <c r="S350" t="s">
+        <v>58</v>
+      </c>
+      <c r="T350" t="s">
+        <v>50</v>
+      </c>
+      <c r="U350" t="s">
+        <v>56</v>
+      </c>
+      <c r="V350" t="s">
+        <v>56</v>
+      </c>
+      <c r="W350" t="s">
+        <v>56</v>
+      </c>
+      <c r="X350" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG350" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI350" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ350" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL350" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM350" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO350" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP350" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ350" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR350" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS350" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT350" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU350" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV350" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW350" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX350" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="351" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A351" t="s">
+        <v>49</v>
+      </c>
+      <c r="B351" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C351" t="s">
+        <v>206</v>
+      </c>
+      <c r="D351" t="s">
+        <v>51</v>
+      </c>
+      <c r="E351" t="s">
+        <v>67</v>
+      </c>
+      <c r="F351" t="s">
+        <v>68</v>
+      </c>
+      <c r="G351" t="s">
+        <v>54</v>
+      </c>
+      <c r="H351" t="s">
+        <v>475</v>
+      </c>
+      <c r="I351" t="s">
+        <v>56</v>
+      </c>
+      <c r="J351" t="s">
+        <v>50</v>
+      </c>
+      <c r="K351" t="s">
+        <v>50</v>
+      </c>
+      <c r="L351" t="s">
+        <v>56</v>
+      </c>
+      <c r="M351" t="s">
+        <v>56</v>
+      </c>
+      <c r="N351" t="s">
+        <v>58</v>
+      </c>
+      <c r="O351" t="s">
+        <v>57</v>
+      </c>
+      <c r="P351" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>56</v>
+      </c>
+      <c r="R351" t="s">
+        <v>50</v>
+      </c>
+      <c r="S351" t="s">
+        <v>56</v>
+      </c>
+      <c r="T351" t="s">
+        <v>56</v>
+      </c>
+      <c r="U351" t="s">
+        <v>71</v>
+      </c>
+      <c r="V351" t="s">
+        <v>56</v>
+      </c>
+      <c r="W351" t="s">
+        <v>56</v>
+      </c>
+      <c r="X351" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG351" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI351" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ351" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK351" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL351" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN351" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO351" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP351" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ351" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR351" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS351" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT351" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU351" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV351" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW351" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX351" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="352" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A352" t="s">
+        <v>49</v>
+      </c>
+      <c r="B352" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C352" t="s">
+        <v>206</v>
+      </c>
+      <c r="D352" t="s">
+        <v>51</v>
+      </c>
+      <c r="E352" t="s">
+        <v>67</v>
+      </c>
+      <c r="F352" t="s">
+        <v>78</v>
+      </c>
+      <c r="G352" t="s">
+        <v>54</v>
+      </c>
+      <c r="H352" t="s">
+        <v>476</v>
+      </c>
+      <c r="I352" t="s">
+        <v>56</v>
+      </c>
+      <c r="J352" t="s">
+        <v>56</v>
+      </c>
+      <c r="K352" t="s">
+        <v>56</v>
+      </c>
+      <c r="L352" t="s">
+        <v>56</v>
+      </c>
+      <c r="M352" t="s">
+        <v>56</v>
+      </c>
+      <c r="N352" t="s">
+        <v>58</v>
+      </c>
+      <c r="O352" t="s">
+        <v>50</v>
+      </c>
+      <c r="P352" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>56</v>
+      </c>
+      <c r="R352" t="s">
+        <v>71</v>
+      </c>
+      <c r="S352" t="s">
+        <v>50</v>
+      </c>
+      <c r="T352" t="s">
+        <v>50</v>
+      </c>
+      <c r="U352" t="s">
+        <v>50</v>
+      </c>
+      <c r="V352" t="s">
+        <v>56</v>
+      </c>
+      <c r="W352" t="s">
+        <v>56</v>
+      </c>
+      <c r="X352" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE352" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF352" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG352" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH352" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI352" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ352" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK352" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL352" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM352" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN352" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO352" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP352" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ352" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR352" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS352" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT352" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU352" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV352" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW352" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX352" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="353" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A353" t="s">
+        <v>49</v>
+      </c>
+      <c r="B353" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C353" t="s">
+        <v>206</v>
+      </c>
+      <c r="D353" t="s">
+        <v>51</v>
+      </c>
+      <c r="E353" t="s">
+        <v>67</v>
+      </c>
+      <c r="F353" t="s">
+        <v>81</v>
+      </c>
+      <c r="G353" t="s">
+        <v>54</v>
+      </c>
+      <c r="H353" t="s">
+        <v>477</v>
+      </c>
+      <c r="I353" t="s">
+        <v>71</v>
+      </c>
+      <c r="J353" t="s">
+        <v>70</v>
+      </c>
+      <c r="K353" t="s">
+        <v>58</v>
+      </c>
+      <c r="L353" t="s">
+        <v>50</v>
+      </c>
+      <c r="M353" t="s">
+        <v>58</v>
+      </c>
+      <c r="N353" t="s">
+        <v>57</v>
+      </c>
+      <c r="O353" t="s">
+        <v>50</v>
+      </c>
+      <c r="P353" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>71</v>
+      </c>
+      <c r="R353" t="s">
+        <v>58</v>
+      </c>
+      <c r="S353" t="s">
+        <v>57</v>
+      </c>
+      <c r="T353" t="s">
+        <v>50</v>
+      </c>
+      <c r="U353" t="s">
+        <v>56</v>
+      </c>
+      <c r="V353" t="s">
+        <v>58</v>
+      </c>
+      <c r="W353" t="s">
+        <v>50</v>
+      </c>
+      <c r="X353" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>351</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG353" t="s">
+        <v>171</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI353" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ353" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK353" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL353" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM353" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN353" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO353" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP353" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ353" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR353" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS353" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT353" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU353" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV353" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW353" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX353" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="354" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A354" t="s">
+        <v>49</v>
+      </c>
+      <c r="B354" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C354" t="s">
+        <v>206</v>
+      </c>
+      <c r="D354" t="s">
+        <v>51</v>
+      </c>
+      <c r="E354" t="s">
+        <v>139</v>
+      </c>
+      <c r="F354" t="s">
+        <v>68</v>
+      </c>
+      <c r="G354" t="s">
+        <v>54</v>
+      </c>
+      <c r="H354" t="s">
+        <v>478</v>
+      </c>
+      <c r="I354" t="s">
+        <v>56</v>
+      </c>
+      <c r="J354" t="s">
+        <v>75</v>
+      </c>
+      <c r="K354" t="s">
+        <v>71</v>
+      </c>
+      <c r="L354" t="s">
+        <v>71</v>
+      </c>
+      <c r="M354" t="s">
+        <v>50</v>
+      </c>
+      <c r="N354" t="s">
+        <v>71</v>
+      </c>
+      <c r="O354" t="s">
+        <v>71</v>
+      </c>
+      <c r="P354" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>71</v>
+      </c>
+      <c r="R354" t="s">
+        <v>50</v>
+      </c>
+      <c r="S354" t="s">
+        <v>56</v>
+      </c>
+      <c r="T354" t="s">
+        <v>71</v>
+      </c>
+      <c r="U354" t="s">
+        <v>56</v>
+      </c>
+      <c r="V354" t="s">
+        <v>56</v>
+      </c>
+      <c r="W354" t="s">
+        <v>71</v>
+      </c>
+      <c r="X354" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE354" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF354" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG354" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH354" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI354" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ354" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK354" t="s">
+        <v>274</v>
+      </c>
+      <c r="AL354" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM354" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN354" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO354" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP354" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ354" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR354" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS354" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT354" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU354" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV354" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW354" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX354" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="355" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A355" t="s">
+        <v>49</v>
+      </c>
+      <c r="B355" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C355" t="s">
+        <v>206</v>
+      </c>
+      <c r="D355" t="s">
+        <v>51</v>
+      </c>
+      <c r="E355" t="s">
+        <v>129</v>
+      </c>
+      <c r="F355" t="s">
+        <v>68</v>
+      </c>
+      <c r="G355" t="s">
+        <v>54</v>
+      </c>
+      <c r="H355" t="s">
+        <v>479</v>
+      </c>
+      <c r="I355" t="s">
+        <v>56</v>
+      </c>
+      <c r="J355" t="s">
+        <v>56</v>
+      </c>
+      <c r="K355" t="s">
+        <v>56</v>
+      </c>
+      <c r="L355" t="s">
+        <v>56</v>
+      </c>
+      <c r="M355" t="s">
+        <v>56</v>
+      </c>
+      <c r="N355" t="s">
+        <v>56</v>
+      </c>
+      <c r="O355" t="s">
+        <v>50</v>
+      </c>
+      <c r="P355" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>56</v>
+      </c>
+      <c r="R355" t="s">
+        <v>56</v>
+      </c>
+      <c r="S355" t="s">
+        <v>56</v>
+      </c>
+      <c r="T355" t="s">
+        <v>56</v>
+      </c>
+      <c r="U355" t="s">
+        <v>56</v>
+      </c>
+      <c r="V355" t="s">
+        <v>56</v>
+      </c>
+      <c r="W355" t="s">
+        <v>56</v>
+      </c>
+      <c r="X355" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y355" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB355" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC355" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD355" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE355" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF355" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG355" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH355" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI355" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ355" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK355" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL355" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM355" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN355" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO355" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP355" s="1">
+        <v>44669</v>
+      </c>
+      <c r="AQ355" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR355" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS355" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT355" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU355" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV355" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW355" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX355" t="s">
         <v>395</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{ED6CBF46-D141-4D4C-947D-DDEFA5B2B178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{637725C1-6E5A-3544-963C-EA5BFBCEFB93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17016" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18214" uniqueCount="498">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1462,6 +1462,57 @@
     <t>60</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.4.2$0$1.0</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>1118</t>
+  </si>
+  <si>
+    <t>1119</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>1943</t>
+  </si>
+  <si>
+    <t>1944</t>
+  </si>
+  <si>
+    <t>1138</t>
+  </si>
+  <si>
+    <t>1139</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>899</t>
+  </si>
+  <si>
+    <t>463</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>CRA 18  8-24 EIDIFICIO OKO</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>283</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1469,10 +1520,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1495,9 +1551,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1880,7 +1937,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX355"/>
+  <dimension ref="A1:AX380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -1898,8 +1955,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>480</v>
+      <c r="D1" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -55767,6 +55824,3800 @@
         <v>66</v>
       </c>
       <c r="AX355" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="356" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A356" t="s">
+        <v>49</v>
+      </c>
+      <c r="B356" s="1">
+        <v>44664</v>
+      </c>
+      <c r="C356" t="s">
+        <v>206</v>
+      </c>
+      <c r="D356" t="s">
+        <v>51</v>
+      </c>
+      <c r="E356" t="s">
+        <v>52</v>
+      </c>
+      <c r="F356" t="s">
+        <v>53</v>
+      </c>
+      <c r="G356" t="s">
+        <v>54</v>
+      </c>
+      <c r="H356" t="s">
+        <v>55</v>
+      </c>
+      <c r="I356" t="s">
+        <v>56</v>
+      </c>
+      <c r="J356" t="s">
+        <v>56</v>
+      </c>
+      <c r="K356" t="s">
+        <v>50</v>
+      </c>
+      <c r="L356" t="s">
+        <v>56</v>
+      </c>
+      <c r="M356" t="s">
+        <v>56</v>
+      </c>
+      <c r="N356" t="s">
+        <v>56</v>
+      </c>
+      <c r="O356" t="s">
+        <v>56</v>
+      </c>
+      <c r="P356" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>56</v>
+      </c>
+      <c r="R356" t="s">
+        <v>56</v>
+      </c>
+      <c r="S356" t="s">
+        <v>56</v>
+      </c>
+      <c r="T356" t="s">
+        <v>56</v>
+      </c>
+      <c r="U356" t="s">
+        <v>56</v>
+      </c>
+      <c r="V356" t="s">
+        <v>56</v>
+      </c>
+      <c r="W356" t="s">
+        <v>56</v>
+      </c>
+      <c r="X356" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y356" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB356" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC356" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD356" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE356" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF356" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG356" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH356" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI356" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ356" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK356" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL356" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM356" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN356" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO356" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP356" s="1">
+        <v>44664</v>
+      </c>
+      <c r="AQ356" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR356" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS356" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT356" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU356" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV356" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW356" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX356" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="357" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A357" t="s">
+        <v>49</v>
+      </c>
+      <c r="B357" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C357" t="s">
+        <v>74</v>
+      </c>
+      <c r="D357" t="s">
+        <v>51</v>
+      </c>
+      <c r="E357" t="s">
+        <v>161</v>
+      </c>
+      <c r="F357" t="s">
+        <v>68</v>
+      </c>
+      <c r="G357" t="s">
+        <v>54</v>
+      </c>
+      <c r="H357" t="s">
+        <v>480</v>
+      </c>
+      <c r="I357" t="s">
+        <v>56</v>
+      </c>
+      <c r="J357" t="s">
+        <v>90</v>
+      </c>
+      <c r="K357" t="s">
+        <v>141</v>
+      </c>
+      <c r="L357" t="s">
+        <v>57</v>
+      </c>
+      <c r="M357" t="s">
+        <v>56</v>
+      </c>
+      <c r="N357" t="s">
+        <v>56</v>
+      </c>
+      <c r="O357" t="s">
+        <v>56</v>
+      </c>
+      <c r="P357" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>56</v>
+      </c>
+      <c r="R357" t="s">
+        <v>56</v>
+      </c>
+      <c r="S357" t="s">
+        <v>56</v>
+      </c>
+      <c r="T357" t="s">
+        <v>56</v>
+      </c>
+      <c r="U357" t="s">
+        <v>56</v>
+      </c>
+      <c r="V357" t="s">
+        <v>56</v>
+      </c>
+      <c r="W357" t="s">
+        <v>56</v>
+      </c>
+      <c r="X357" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y357" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB357" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC357" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD357" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE357" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF357" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG357" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH357" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI357" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ357" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK357" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL357" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM357" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN357" t="s">
+        <v>413</v>
+      </c>
+      <c r="AO357" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP357" s="1">
+        <v>44674</v>
+      </c>
+      <c r="AQ357" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR357" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS357" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT357" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU357" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV357" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW357" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX357" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="358" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A358" t="s">
+        <v>49</v>
+      </c>
+      <c r="B358" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C358" t="s">
+        <v>74</v>
+      </c>
+      <c r="D358" t="s">
+        <v>51</v>
+      </c>
+      <c r="E358" t="s">
+        <v>52</v>
+      </c>
+      <c r="F358" t="s">
+        <v>53</v>
+      </c>
+      <c r="G358" t="s">
+        <v>54</v>
+      </c>
+      <c r="H358" t="s">
+        <v>94</v>
+      </c>
+      <c r="I358" t="s">
+        <v>56</v>
+      </c>
+      <c r="J358" t="s">
+        <v>50</v>
+      </c>
+      <c r="K358" t="s">
+        <v>56</v>
+      </c>
+      <c r="L358" t="s">
+        <v>56</v>
+      </c>
+      <c r="M358" t="s">
+        <v>56</v>
+      </c>
+      <c r="N358" t="s">
+        <v>56</v>
+      </c>
+      <c r="O358" t="s">
+        <v>50</v>
+      </c>
+      <c r="P358" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>50</v>
+      </c>
+      <c r="R358" t="s">
+        <v>56</v>
+      </c>
+      <c r="S358" t="s">
+        <v>56</v>
+      </c>
+      <c r="T358" t="s">
+        <v>56</v>
+      </c>
+      <c r="U358" t="s">
+        <v>56</v>
+      </c>
+      <c r="V358" t="s">
+        <v>56</v>
+      </c>
+      <c r="W358" t="s">
+        <v>56</v>
+      </c>
+      <c r="X358" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y358" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB358" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC358" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD358" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE358" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF358" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG358" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH358" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI358" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ358" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK358" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL358" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM358" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN358" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO358" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP358" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ358" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR358" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS358" t="s">
+        <v>64</v>
+      </c>
+      <c r="AT358" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU358" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV358" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW358" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX358" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A359" t="s">
+        <v>49</v>
+      </c>
+      <c r="B359" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C359" t="s">
+        <v>118</v>
+      </c>
+      <c r="D359" t="s">
+        <v>51</v>
+      </c>
+      <c r="E359" t="s">
+        <v>93</v>
+      </c>
+      <c r="F359" t="s">
+        <v>68</v>
+      </c>
+      <c r="G359" t="s">
+        <v>54</v>
+      </c>
+      <c r="H359" t="s">
+        <v>451</v>
+      </c>
+      <c r="I359" t="s">
+        <v>71</v>
+      </c>
+      <c r="J359" t="s">
+        <v>71</v>
+      </c>
+      <c r="K359" t="s">
+        <v>71</v>
+      </c>
+      <c r="L359" t="s">
+        <v>58</v>
+      </c>
+      <c r="M359" t="s">
+        <v>58</v>
+      </c>
+      <c r="N359" t="s">
+        <v>56</v>
+      </c>
+      <c r="O359" t="s">
+        <v>56</v>
+      </c>
+      <c r="P359" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>56</v>
+      </c>
+      <c r="R359" t="s">
+        <v>56</v>
+      </c>
+      <c r="S359" t="s">
+        <v>56</v>
+      </c>
+      <c r="T359" t="s">
+        <v>50</v>
+      </c>
+      <c r="U359" t="s">
+        <v>50</v>
+      </c>
+      <c r="V359" t="s">
+        <v>56</v>
+      </c>
+      <c r="W359" t="s">
+        <v>56</v>
+      </c>
+      <c r="X359" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y359" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB359" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC359" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD359" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE359" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF359" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG359" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH359" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI359" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ359" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK359" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL359" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM359" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN359" t="s">
+        <v>316</v>
+      </c>
+      <c r="AO359" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP359" s="1">
+        <v>44675</v>
+      </c>
+      <c r="AQ359" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR359" t="s">
+        <v>97</v>
+      </c>
+      <c r="AS359" t="s">
+        <v>98</v>
+      </c>
+      <c r="AT359" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU359" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV359" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW359" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX359" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="360" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A360" t="s">
+        <v>49</v>
+      </c>
+      <c r="B360" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C360" t="s">
+        <v>74</v>
+      </c>
+      <c r="D360" t="s">
+        <v>51</v>
+      </c>
+      <c r="E360" t="s">
+        <v>99</v>
+      </c>
+      <c r="F360" t="s">
+        <v>68</v>
+      </c>
+      <c r="G360" t="s">
+        <v>54</v>
+      </c>
+      <c r="H360" t="s">
+        <v>482</v>
+      </c>
+      <c r="I360" t="s">
+        <v>50</v>
+      </c>
+      <c r="J360" t="s">
+        <v>58</v>
+      </c>
+      <c r="K360" t="s">
+        <v>56</v>
+      </c>
+      <c r="L360" t="s">
+        <v>71</v>
+      </c>
+      <c r="M360" t="s">
+        <v>57</v>
+      </c>
+      <c r="N360" t="s">
+        <v>58</v>
+      </c>
+      <c r="O360" t="s">
+        <v>50</v>
+      </c>
+      <c r="P360" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>50</v>
+      </c>
+      <c r="R360" t="s">
+        <v>56</v>
+      </c>
+      <c r="S360" t="s">
+        <v>58</v>
+      </c>
+      <c r="T360" t="s">
+        <v>57</v>
+      </c>
+      <c r="U360" t="s">
+        <v>56</v>
+      </c>
+      <c r="V360" t="s">
+        <v>50</v>
+      </c>
+      <c r="W360" t="s">
+        <v>56</v>
+      </c>
+      <c r="X360" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y360" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z360" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB360" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC360" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD360" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE360" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF360" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG360" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH360" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI360" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ360" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK360" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL360" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM360" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN360" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO360" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP360" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ360" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR360" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS360" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT360" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU360" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV360" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW360" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX360" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="361" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A361" t="s">
+        <v>49</v>
+      </c>
+      <c r="B361" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C361" t="s">
+        <v>74</v>
+      </c>
+      <c r="D361" t="s">
+        <v>51</v>
+      </c>
+      <c r="E361" t="s">
+        <v>133</v>
+      </c>
+      <c r="F361" t="s">
+        <v>68</v>
+      </c>
+      <c r="G361" t="s">
+        <v>54</v>
+      </c>
+      <c r="H361" t="s">
+        <v>55</v>
+      </c>
+      <c r="I361" t="s">
+        <v>56</v>
+      </c>
+      <c r="J361" t="s">
+        <v>71</v>
+      </c>
+      <c r="K361" t="s">
+        <v>56</v>
+      </c>
+      <c r="L361" t="s">
+        <v>50</v>
+      </c>
+      <c r="M361" t="s">
+        <v>56</v>
+      </c>
+      <c r="N361" t="s">
+        <v>56</v>
+      </c>
+      <c r="O361" t="s">
+        <v>56</v>
+      </c>
+      <c r="P361" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q361" t="s">
+        <v>50</v>
+      </c>
+      <c r="R361" t="s">
+        <v>56</v>
+      </c>
+      <c r="S361" t="s">
+        <v>50</v>
+      </c>
+      <c r="T361" t="s">
+        <v>50</v>
+      </c>
+      <c r="U361" t="s">
+        <v>50</v>
+      </c>
+      <c r="V361" t="s">
+        <v>50</v>
+      </c>
+      <c r="W361" t="s">
+        <v>50</v>
+      </c>
+      <c r="X361" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y361" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z361" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA361" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB361" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC361" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD361" t="s">
+        <v>118</v>
+      </c>
+      <c r="AE361" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF361" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG361" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH361" t="s">
+        <v>118</v>
+      </c>
+      <c r="AI361" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ361" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK361" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL361" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM361" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN361" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO361" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP361" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ361" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR361" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS361" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT361" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU361" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV361" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW361" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX361" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="362" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A362" t="s">
+        <v>49</v>
+      </c>
+      <c r="B362" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C362" t="s">
+        <v>74</v>
+      </c>
+      <c r="D362" t="s">
+        <v>51</v>
+      </c>
+      <c r="E362" t="s">
+        <v>99</v>
+      </c>
+      <c r="F362" t="s">
+        <v>105</v>
+      </c>
+      <c r="G362" t="s">
+        <v>54</v>
+      </c>
+      <c r="H362" t="s">
+        <v>483</v>
+      </c>
+      <c r="I362" t="s">
+        <v>71</v>
+      </c>
+      <c r="J362" t="s">
+        <v>70</v>
+      </c>
+      <c r="K362" t="s">
+        <v>71</v>
+      </c>
+      <c r="L362" t="s">
+        <v>57</v>
+      </c>
+      <c r="M362" t="s">
+        <v>58</v>
+      </c>
+      <c r="N362" t="s">
+        <v>58</v>
+      </c>
+      <c r="O362" t="s">
+        <v>71</v>
+      </c>
+      <c r="P362" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q362" t="s">
+        <v>56</v>
+      </c>
+      <c r="R362" t="s">
+        <v>50</v>
+      </c>
+      <c r="S362" t="s">
+        <v>71</v>
+      </c>
+      <c r="T362" t="s">
+        <v>50</v>
+      </c>
+      <c r="U362" t="s">
+        <v>50</v>
+      </c>
+      <c r="V362" t="s">
+        <v>56</v>
+      </c>
+      <c r="W362" t="s">
+        <v>50</v>
+      </c>
+      <c r="X362" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y362" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z362" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA362" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB362" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC362" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD362" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE362" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF362" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG362" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH362" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI362" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ362" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK362" t="s">
+        <v>330</v>
+      </c>
+      <c r="AL362" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM362" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN362" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO362" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP362" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ362" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR362" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS362" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT362" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU362" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV362" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW362" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX362" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="363" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A363" t="s">
+        <v>49</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C363" t="s">
+        <v>74</v>
+      </c>
+      <c r="D363" t="s">
+        <v>51</v>
+      </c>
+      <c r="E363" t="s">
+        <v>99</v>
+      </c>
+      <c r="F363" t="s">
+        <v>280</v>
+      </c>
+      <c r="G363" t="s">
+        <v>54</v>
+      </c>
+      <c r="H363" t="s">
+        <v>484</v>
+      </c>
+      <c r="I363" t="s">
+        <v>56</v>
+      </c>
+      <c r="J363" t="s">
+        <v>50</v>
+      </c>
+      <c r="K363" t="s">
+        <v>56</v>
+      </c>
+      <c r="L363" t="s">
+        <v>56</v>
+      </c>
+      <c r="M363" t="s">
+        <v>56</v>
+      </c>
+      <c r="N363" t="s">
+        <v>50</v>
+      </c>
+      <c r="O363" t="s">
+        <v>56</v>
+      </c>
+      <c r="P363" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q363" t="s">
+        <v>56</v>
+      </c>
+      <c r="R363" t="s">
+        <v>56</v>
+      </c>
+      <c r="S363" t="s">
+        <v>56</v>
+      </c>
+      <c r="T363" t="s">
+        <v>56</v>
+      </c>
+      <c r="U363" t="s">
+        <v>56</v>
+      </c>
+      <c r="V363" t="s">
+        <v>56</v>
+      </c>
+      <c r="W363" t="s">
+        <v>56</v>
+      </c>
+      <c r="X363" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y363" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z363" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD363" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF363" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG363" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH363" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI363" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ363" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK363" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN363" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO363" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP363" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ363" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR363" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS363" t="s">
+        <v>281</v>
+      </c>
+      <c r="AT363" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU363" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX363" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="364" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A364" t="s">
+        <v>49</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C364" t="s">
+        <v>74</v>
+      </c>
+      <c r="D364" t="s">
+        <v>51</v>
+      </c>
+      <c r="E364" t="s">
+        <v>124</v>
+      </c>
+      <c r="F364" t="s">
+        <v>112</v>
+      </c>
+      <c r="G364" t="s">
+        <v>54</v>
+      </c>
+      <c r="H364" t="s">
+        <v>485</v>
+      </c>
+      <c r="I364" t="s">
+        <v>56</v>
+      </c>
+      <c r="J364" t="s">
+        <v>70</v>
+      </c>
+      <c r="K364" t="s">
+        <v>56</v>
+      </c>
+      <c r="L364" t="s">
+        <v>50</v>
+      </c>
+      <c r="M364" t="s">
+        <v>56</v>
+      </c>
+      <c r="N364" t="s">
+        <v>83</v>
+      </c>
+      <c r="O364" t="s">
+        <v>102</v>
+      </c>
+      <c r="P364" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q364" t="s">
+        <v>70</v>
+      </c>
+      <c r="R364" t="s">
+        <v>58</v>
+      </c>
+      <c r="S364" t="s">
+        <v>58</v>
+      </c>
+      <c r="T364" t="s">
+        <v>71</v>
+      </c>
+      <c r="U364" t="s">
+        <v>71</v>
+      </c>
+      <c r="V364" t="s">
+        <v>50</v>
+      </c>
+      <c r="W364" t="s">
+        <v>56</v>
+      </c>
+      <c r="X364" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y364" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z364" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA364" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB364" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC364" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD364" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE364" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF364" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG364" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH364" t="s">
+        <v>191</v>
+      </c>
+      <c r="AI364" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ364" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK364" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL364" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM364" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN364" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO364" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP364" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ364" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR364" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS364" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT364" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU364" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV364" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW364" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX364" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="365" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A365" t="s">
+        <v>49</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C365" t="s">
+        <v>206</v>
+      </c>
+      <c r="D365" t="s">
+        <v>51</v>
+      </c>
+      <c r="E365" t="s">
+        <v>124</v>
+      </c>
+      <c r="F365" t="s">
+        <v>95</v>
+      </c>
+      <c r="G365" t="s">
+        <v>54</v>
+      </c>
+      <c r="H365" t="s">
+        <v>436</v>
+      </c>
+      <c r="I365" t="s">
+        <v>56</v>
+      </c>
+      <c r="J365" t="s">
+        <v>56</v>
+      </c>
+      <c r="K365" t="s">
+        <v>71</v>
+      </c>
+      <c r="L365" t="s">
+        <v>56</v>
+      </c>
+      <c r="M365" t="s">
+        <v>56</v>
+      </c>
+      <c r="N365" t="s">
+        <v>56</v>
+      </c>
+      <c r="O365" t="s">
+        <v>56</v>
+      </c>
+      <c r="P365" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q365" t="s">
+        <v>56</v>
+      </c>
+      <c r="R365" t="s">
+        <v>56</v>
+      </c>
+      <c r="S365" t="s">
+        <v>56</v>
+      </c>
+      <c r="T365" t="s">
+        <v>56</v>
+      </c>
+      <c r="U365" t="s">
+        <v>56</v>
+      </c>
+      <c r="V365" t="s">
+        <v>56</v>
+      </c>
+      <c r="W365" t="s">
+        <v>56</v>
+      </c>
+      <c r="X365" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y365" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z365" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA365" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB365" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC365" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD365" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE365" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF365" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG365" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH365" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI365" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ365" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK365" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL365" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM365" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN365" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO365" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP365" s="1">
+        <v>44670</v>
+      </c>
+      <c r="AQ365" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR365" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS365" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT365" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU365" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV365" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW365" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX365" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="366" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A366" t="s">
+        <v>49</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C366" t="s">
+        <v>74</v>
+      </c>
+      <c r="D366" t="s">
+        <v>51</v>
+      </c>
+      <c r="E366" t="s">
+        <v>67</v>
+      </c>
+      <c r="F366" t="s">
+        <v>68</v>
+      </c>
+      <c r="G366" t="s">
+        <v>54</v>
+      </c>
+      <c r="H366" t="s">
+        <v>55</v>
+      </c>
+      <c r="I366" t="s">
+        <v>50</v>
+      </c>
+      <c r="J366" t="s">
+        <v>71</v>
+      </c>
+      <c r="K366" t="s">
+        <v>50</v>
+      </c>
+      <c r="L366" t="s">
+        <v>56</v>
+      </c>
+      <c r="M366" t="s">
+        <v>58</v>
+      </c>
+      <c r="N366" t="s">
+        <v>83</v>
+      </c>
+      <c r="O366" t="s">
+        <v>102</v>
+      </c>
+      <c r="P366" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q366" t="s">
+        <v>81</v>
+      </c>
+      <c r="R366" t="s">
+        <v>57</v>
+      </c>
+      <c r="S366" t="s">
+        <v>70</v>
+      </c>
+      <c r="T366" t="s">
+        <v>58</v>
+      </c>
+      <c r="U366" t="s">
+        <v>57</v>
+      </c>
+      <c r="V366" t="s">
+        <v>58</v>
+      </c>
+      <c r="W366" t="s">
+        <v>56</v>
+      </c>
+      <c r="X366" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y366" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z366" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD366" t="s">
+        <v>320</v>
+      </c>
+      <c r="AE366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF366" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG366" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH366" t="s">
+        <v>320</v>
+      </c>
+      <c r="AI366" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ366" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK366" t="s">
+        <v>320</v>
+      </c>
+      <c r="AL366" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM366" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN366" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO366" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP366" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ366" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR366" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS366" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT366" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU366" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV366" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW366" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX366" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="367" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A367" t="s">
+        <v>49</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C367" t="s">
+        <v>74</v>
+      </c>
+      <c r="D367" t="s">
+        <v>51</v>
+      </c>
+      <c r="E367" t="s">
+        <v>67</v>
+      </c>
+      <c r="F367" t="s">
+        <v>78</v>
+      </c>
+      <c r="G367" t="s">
+        <v>54</v>
+      </c>
+      <c r="H367" t="s">
+        <v>486</v>
+      </c>
+      <c r="I367" t="s">
+        <v>56</v>
+      </c>
+      <c r="J367" t="s">
+        <v>70</v>
+      </c>
+      <c r="K367" t="s">
+        <v>56</v>
+      </c>
+      <c r="L367" t="s">
+        <v>56</v>
+      </c>
+      <c r="M367" t="s">
+        <v>56</v>
+      </c>
+      <c r="N367" t="s">
+        <v>57</v>
+      </c>
+      <c r="O367" t="s">
+        <v>57</v>
+      </c>
+      <c r="P367" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q367" t="s">
+        <v>57</v>
+      </c>
+      <c r="R367" t="s">
+        <v>56</v>
+      </c>
+      <c r="S367" t="s">
+        <v>50</v>
+      </c>
+      <c r="T367" t="s">
+        <v>56</v>
+      </c>
+      <c r="U367" t="s">
+        <v>50</v>
+      </c>
+      <c r="V367" t="s">
+        <v>56</v>
+      </c>
+      <c r="W367" t="s">
+        <v>56</v>
+      </c>
+      <c r="X367" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y367" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z367" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA367" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB367" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC367" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD367" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE367" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF367" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG367" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH367" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI367" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ367" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK367" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL367" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM367" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN367" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO367" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP367" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ367" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR367" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS367" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT367" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU367" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV367" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW367" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX367" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="368" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A368" t="s">
+        <v>49</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C368" t="s">
+        <v>74</v>
+      </c>
+      <c r="D368" t="s">
+        <v>51</v>
+      </c>
+      <c r="E368" t="s">
+        <v>67</v>
+      </c>
+      <c r="F368" t="s">
+        <v>81</v>
+      </c>
+      <c r="G368" t="s">
+        <v>54</v>
+      </c>
+      <c r="H368" t="s">
+        <v>487</v>
+      </c>
+      <c r="I368" t="s">
+        <v>50</v>
+      </c>
+      <c r="J368" t="s">
+        <v>81</v>
+      </c>
+      <c r="K368" t="s">
+        <v>72</v>
+      </c>
+      <c r="L368" t="s">
+        <v>58</v>
+      </c>
+      <c r="M368" t="s">
+        <v>50</v>
+      </c>
+      <c r="N368" t="s">
+        <v>56</v>
+      </c>
+      <c r="O368" t="s">
+        <v>72</v>
+      </c>
+      <c r="P368" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q368" t="s">
+        <v>50</v>
+      </c>
+      <c r="R368" t="s">
+        <v>56</v>
+      </c>
+      <c r="S368" t="s">
+        <v>50</v>
+      </c>
+      <c r="T368" t="s">
+        <v>50</v>
+      </c>
+      <c r="U368" t="s">
+        <v>50</v>
+      </c>
+      <c r="V368" t="s">
+        <v>71</v>
+      </c>
+      <c r="W368" t="s">
+        <v>71</v>
+      </c>
+      <c r="X368" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y368" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z368" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA368" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB368" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC368" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD368" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE368" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF368" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG368" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH368" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI368" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ368" t="s">
+        <v>50</v>
+      </c>
+      <c r="AK368" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL368" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM368" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN368" t="s">
+        <v>56</v>
+      </c>
+      <c r="AO368" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP368" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ368" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR368" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS368" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT368" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU368" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV368" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW368" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX368" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="369" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A369" t="s">
+        <v>49</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C369" t="s">
+        <v>74</v>
+      </c>
+      <c r="D369" t="s">
+        <v>51</v>
+      </c>
+      <c r="E369" t="s">
+        <v>99</v>
+      </c>
+      <c r="F369" t="s">
+        <v>100</v>
+      </c>
+      <c r="G369" t="s">
+        <v>54</v>
+      </c>
+      <c r="H369" t="s">
+        <v>55</v>
+      </c>
+      <c r="I369" t="s">
+        <v>56</v>
+      </c>
+      <c r="J369" t="s">
+        <v>70</v>
+      </c>
+      <c r="K369" t="s">
+        <v>71</v>
+      </c>
+      <c r="L369" t="s">
+        <v>71</v>
+      </c>
+      <c r="M369" t="s">
+        <v>50</v>
+      </c>
+      <c r="N369" t="s">
+        <v>57</v>
+      </c>
+      <c r="O369" t="s">
+        <v>71</v>
+      </c>
+      <c r="P369" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q369" t="s">
+        <v>71</v>
+      </c>
+      <c r="R369" t="s">
+        <v>50</v>
+      </c>
+      <c r="S369" t="s">
+        <v>50</v>
+      </c>
+      <c r="T369" t="s">
+        <v>56</v>
+      </c>
+      <c r="U369" t="s">
+        <v>50</v>
+      </c>
+      <c r="V369" t="s">
+        <v>58</v>
+      </c>
+      <c r="W369" t="s">
+        <v>56</v>
+      </c>
+      <c r="X369" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y369" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z369" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA369" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB369" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC369" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD369" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE369" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF369" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG369" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH369" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI369" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ369" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK369" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL369" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM369" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN369" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO369" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP369" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ369" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR369" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS369" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT369" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU369" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV369" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW369" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX369" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="370" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A370" t="s">
+        <v>49</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C370" t="s">
+        <v>74</v>
+      </c>
+      <c r="D370" t="s">
+        <v>51</v>
+      </c>
+      <c r="E370" t="s">
+        <v>99</v>
+      </c>
+      <c r="F370" t="s">
+        <v>171</v>
+      </c>
+      <c r="G370" t="s">
+        <v>54</v>
+      </c>
+      <c r="H370" t="s">
+        <v>488</v>
+      </c>
+      <c r="I370" t="s">
+        <v>56</v>
+      </c>
+      <c r="J370" t="s">
+        <v>56</v>
+      </c>
+      <c r="K370" t="s">
+        <v>50</v>
+      </c>
+      <c r="L370" t="s">
+        <v>56</v>
+      </c>
+      <c r="M370" t="s">
+        <v>56</v>
+      </c>
+      <c r="N370" t="s">
+        <v>56</v>
+      </c>
+      <c r="O370" t="s">
+        <v>50</v>
+      </c>
+      <c r="P370" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q370" t="s">
+        <v>56</v>
+      </c>
+      <c r="R370" t="s">
+        <v>56</v>
+      </c>
+      <c r="S370" t="s">
+        <v>56</v>
+      </c>
+      <c r="T370" t="s">
+        <v>56</v>
+      </c>
+      <c r="U370" t="s">
+        <v>56</v>
+      </c>
+      <c r="V370" t="s">
+        <v>56</v>
+      </c>
+      <c r="W370" t="s">
+        <v>56</v>
+      </c>
+      <c r="X370" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y370" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z370" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA370" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB370" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC370" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD370" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE370" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF370" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG370" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH370" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI370" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ370" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK370" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL370" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM370" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN370" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO370" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP370" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ370" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR370" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS370" t="s">
+        <v>173</v>
+      </c>
+      <c r="AT370" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU370" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV370" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW370" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX370" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="371" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A371" t="s">
+        <v>49</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C371" t="s">
+        <v>74</v>
+      </c>
+      <c r="D371" t="s">
+        <v>51</v>
+      </c>
+      <c r="E371" t="s">
+        <v>99</v>
+      </c>
+      <c r="F371" t="s">
+        <v>199</v>
+      </c>
+      <c r="G371" t="s">
+        <v>54</v>
+      </c>
+      <c r="H371" t="s">
+        <v>489</v>
+      </c>
+      <c r="I371" t="s">
+        <v>56</v>
+      </c>
+      <c r="J371" t="s">
+        <v>56</v>
+      </c>
+      <c r="K371" t="s">
+        <v>56</v>
+      </c>
+      <c r="L371" t="s">
+        <v>56</v>
+      </c>
+      <c r="M371" t="s">
+        <v>56</v>
+      </c>
+      <c r="N371" t="s">
+        <v>56</v>
+      </c>
+      <c r="O371" t="s">
+        <v>56</v>
+      </c>
+      <c r="P371" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q371" t="s">
+        <v>56</v>
+      </c>
+      <c r="R371" t="s">
+        <v>56</v>
+      </c>
+      <c r="S371" t="s">
+        <v>56</v>
+      </c>
+      <c r="T371" t="s">
+        <v>56</v>
+      </c>
+      <c r="U371" t="s">
+        <v>56</v>
+      </c>
+      <c r="V371" t="s">
+        <v>56</v>
+      </c>
+      <c r="W371" t="s">
+        <v>56</v>
+      </c>
+      <c r="X371" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y371" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z371" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA371" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB371" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC371" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD371" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE371" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF371" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG371" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH371" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI371" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ371" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK371" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL371" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM371" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN371" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO371" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP371" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ371" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR371" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS371" t="s">
+        <v>324</v>
+      </c>
+      <c r="AT371" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU371" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV371" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW371" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX371" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="372" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A372" t="s">
+        <v>49</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C372" t="s">
+        <v>74</v>
+      </c>
+      <c r="D372" t="s">
+        <v>51</v>
+      </c>
+      <c r="E372" t="s">
+        <v>99</v>
+      </c>
+      <c r="F372" t="s">
+        <v>106</v>
+      </c>
+      <c r="G372" t="s">
+        <v>54</v>
+      </c>
+      <c r="H372" t="s">
+        <v>490</v>
+      </c>
+      <c r="I372" t="s">
+        <v>56</v>
+      </c>
+      <c r="J372" t="s">
+        <v>50</v>
+      </c>
+      <c r="K372" t="s">
+        <v>56</v>
+      </c>
+      <c r="L372" t="s">
+        <v>56</v>
+      </c>
+      <c r="M372" t="s">
+        <v>56</v>
+      </c>
+      <c r="N372" t="s">
+        <v>56</v>
+      </c>
+      <c r="O372" t="s">
+        <v>56</v>
+      </c>
+      <c r="P372" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q372" t="s">
+        <v>56</v>
+      </c>
+      <c r="R372" t="s">
+        <v>56</v>
+      </c>
+      <c r="S372" t="s">
+        <v>56</v>
+      </c>
+      <c r="T372" t="s">
+        <v>56</v>
+      </c>
+      <c r="U372" t="s">
+        <v>56</v>
+      </c>
+      <c r="V372" t="s">
+        <v>56</v>
+      </c>
+      <c r="W372" t="s">
+        <v>56</v>
+      </c>
+      <c r="X372" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y372" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z372" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA372" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB372" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC372" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD372" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE372" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF372" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG372" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH372" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI372" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ372" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK372" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL372" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM372" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN372" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO372" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP372" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ372" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR372" t="s">
+        <v>103</v>
+      </c>
+      <c r="AS372" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT372" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU372" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV372" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW372" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX372" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="373" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A373" t="s">
+        <v>49</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C373" t="s">
+        <v>74</v>
+      </c>
+      <c r="D373" t="s">
+        <v>51</v>
+      </c>
+      <c r="E373" t="s">
+        <v>139</v>
+      </c>
+      <c r="F373" t="s">
+        <v>68</v>
+      </c>
+      <c r="G373" t="s">
+        <v>54</v>
+      </c>
+      <c r="H373" t="s">
+        <v>491</v>
+      </c>
+      <c r="I373" t="s">
+        <v>56</v>
+      </c>
+      <c r="J373" t="s">
+        <v>70</v>
+      </c>
+      <c r="K373" t="s">
+        <v>58</v>
+      </c>
+      <c r="L373" t="s">
+        <v>56</v>
+      </c>
+      <c r="M373" t="s">
+        <v>58</v>
+      </c>
+      <c r="N373" t="s">
+        <v>57</v>
+      </c>
+      <c r="O373" t="s">
+        <v>50</v>
+      </c>
+      <c r="P373" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q373" t="s">
+        <v>56</v>
+      </c>
+      <c r="R373" t="s">
+        <v>56</v>
+      </c>
+      <c r="S373" t="s">
+        <v>50</v>
+      </c>
+      <c r="T373" t="s">
+        <v>56</v>
+      </c>
+      <c r="U373" t="s">
+        <v>56</v>
+      </c>
+      <c r="V373" t="s">
+        <v>56</v>
+      </c>
+      <c r="W373" t="s">
+        <v>58</v>
+      </c>
+      <c r="X373" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y373" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z373" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA373" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB373" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC373" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD373" t="s">
+        <v>271</v>
+      </c>
+      <c r="AE373" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF373" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG373" t="s">
+        <v>95</v>
+      </c>
+      <c r="AH373" t="s">
+        <v>271</v>
+      </c>
+      <c r="AI373" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ373" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK373" t="s">
+        <v>271</v>
+      </c>
+      <c r="AL373" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM373" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN373" t="s">
+        <v>144</v>
+      </c>
+      <c r="AO373" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP373" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ373" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR373" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS373" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT373" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU373" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV373" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW373" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX373" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="374" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A374" t="s">
+        <v>49</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C374" t="s">
+        <v>74</v>
+      </c>
+      <c r="D374" t="s">
+        <v>51</v>
+      </c>
+      <c r="E374" t="s">
+        <v>120</v>
+      </c>
+      <c r="F374" t="s">
+        <v>68</v>
+      </c>
+      <c r="G374" t="s">
+        <v>54</v>
+      </c>
+      <c r="H374" t="s">
+        <v>492</v>
+      </c>
+      <c r="I374" t="s">
+        <v>56</v>
+      </c>
+      <c r="J374" t="s">
+        <v>50</v>
+      </c>
+      <c r="K374" t="s">
+        <v>56</v>
+      </c>
+      <c r="L374" t="s">
+        <v>50</v>
+      </c>
+      <c r="M374" t="s">
+        <v>56</v>
+      </c>
+      <c r="N374" t="s">
+        <v>56</v>
+      </c>
+      <c r="O374" t="s">
+        <v>56</v>
+      </c>
+      <c r="P374" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q374" t="s">
+        <v>56</v>
+      </c>
+      <c r="R374" t="s">
+        <v>58</v>
+      </c>
+      <c r="S374" t="s">
+        <v>56</v>
+      </c>
+      <c r="T374" t="s">
+        <v>56</v>
+      </c>
+      <c r="U374" t="s">
+        <v>50</v>
+      </c>
+      <c r="V374" t="s">
+        <v>50</v>
+      </c>
+      <c r="W374" t="s">
+        <v>56</v>
+      </c>
+      <c r="X374" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y374" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z374" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA374" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB374" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC374" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD374" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE374" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF374" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG374" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH374" t="s">
+        <v>81</v>
+      </c>
+      <c r="AI374" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ374" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK374" t="s">
+        <v>81</v>
+      </c>
+      <c r="AL374" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM374" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN374" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO374" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP374" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ374" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR374" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS374" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT374" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU374" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV374" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW374" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX374" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="375" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A375" t="s">
+        <v>49</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C375" t="s">
+        <v>74</v>
+      </c>
+      <c r="D375" t="s">
+        <v>51</v>
+      </c>
+      <c r="E375" t="s">
+        <v>147</v>
+      </c>
+      <c r="F375" t="s">
+        <v>68</v>
+      </c>
+      <c r="G375" t="s">
+        <v>54</v>
+      </c>
+      <c r="H375" t="s">
+        <v>55</v>
+      </c>
+      <c r="I375" t="s">
+        <v>56</v>
+      </c>
+      <c r="J375" t="s">
+        <v>56</v>
+      </c>
+      <c r="K375" t="s">
+        <v>56</v>
+      </c>
+      <c r="L375" t="s">
+        <v>56</v>
+      </c>
+      <c r="M375" t="s">
+        <v>71</v>
+      </c>
+      <c r="N375" t="s">
+        <v>50</v>
+      </c>
+      <c r="O375" t="s">
+        <v>56</v>
+      </c>
+      <c r="P375" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q375" t="s">
+        <v>50</v>
+      </c>
+      <c r="R375" t="s">
+        <v>50</v>
+      </c>
+      <c r="S375" t="s">
+        <v>50</v>
+      </c>
+      <c r="T375" t="s">
+        <v>56</v>
+      </c>
+      <c r="U375" t="s">
+        <v>71</v>
+      </c>
+      <c r="V375" t="s">
+        <v>71</v>
+      </c>
+      <c r="W375" t="s">
+        <v>56</v>
+      </c>
+      <c r="X375" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y375" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z375" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA375" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB375" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC375" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD375" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE375" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF375" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG375" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH375" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI375" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ375" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK375" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL375" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM375" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN375" t="s">
+        <v>178</v>
+      </c>
+      <c r="AO375" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP375" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ375" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR375" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS375" t="s">
+        <v>149</v>
+      </c>
+      <c r="AT375" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU375" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV375" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW375" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX375" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="376" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A376" t="s">
+        <v>49</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C376" t="s">
+        <v>74</v>
+      </c>
+      <c r="D376" t="s">
+        <v>51</v>
+      </c>
+      <c r="E376" t="s">
+        <v>150</v>
+      </c>
+      <c r="F376" t="s">
+        <v>100</v>
+      </c>
+      <c r="G376" t="s">
+        <v>54</v>
+      </c>
+      <c r="H376" t="s">
+        <v>493</v>
+      </c>
+      <c r="I376" t="s">
+        <v>56</v>
+      </c>
+      <c r="J376" t="s">
+        <v>56</v>
+      </c>
+      <c r="K376" t="s">
+        <v>56</v>
+      </c>
+      <c r="L376" t="s">
+        <v>71</v>
+      </c>
+      <c r="M376" t="s">
+        <v>50</v>
+      </c>
+      <c r="N376" t="s">
+        <v>50</v>
+      </c>
+      <c r="O376" t="s">
+        <v>71</v>
+      </c>
+      <c r="P376" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q376" t="s">
+        <v>71</v>
+      </c>
+      <c r="R376" t="s">
+        <v>56</v>
+      </c>
+      <c r="S376" t="s">
+        <v>56</v>
+      </c>
+      <c r="T376" t="s">
+        <v>71</v>
+      </c>
+      <c r="U376" t="s">
+        <v>56</v>
+      </c>
+      <c r="V376" t="s">
+        <v>56</v>
+      </c>
+      <c r="W376" t="s">
+        <v>56</v>
+      </c>
+      <c r="X376" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y376" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z376" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA376" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB376" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC376" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD376" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE376" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF376" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG376" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH376" t="s">
+        <v>95</v>
+      </c>
+      <c r="AI376" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ376" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK376" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL376" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM376" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN376" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO376" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP376" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ376" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR376" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS376" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT376" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU376" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV376" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW376" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX376" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="377" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A377" t="s">
+        <v>49</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C377" t="s">
+        <v>74</v>
+      </c>
+      <c r="D377" t="s">
+        <v>51</v>
+      </c>
+      <c r="E377" t="s">
+        <v>161</v>
+      </c>
+      <c r="F377" t="s">
+        <v>100</v>
+      </c>
+      <c r="G377" t="s">
+        <v>54</v>
+      </c>
+      <c r="H377" t="s">
+        <v>206</v>
+      </c>
+      <c r="I377" t="s">
+        <v>56</v>
+      </c>
+      <c r="J377" t="s">
+        <v>50</v>
+      </c>
+      <c r="K377" t="s">
+        <v>71</v>
+      </c>
+      <c r="L377" t="s">
+        <v>50</v>
+      </c>
+      <c r="M377" t="s">
+        <v>56</v>
+      </c>
+      <c r="N377" t="s">
+        <v>71</v>
+      </c>
+      <c r="O377" t="s">
+        <v>50</v>
+      </c>
+      <c r="P377" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>71</v>
+      </c>
+      <c r="R377" t="s">
+        <v>56</v>
+      </c>
+      <c r="S377" t="s">
+        <v>50</v>
+      </c>
+      <c r="T377" t="s">
+        <v>56</v>
+      </c>
+      <c r="U377" t="s">
+        <v>56</v>
+      </c>
+      <c r="V377" t="s">
+        <v>50</v>
+      </c>
+      <c r="W377" t="s">
+        <v>50</v>
+      </c>
+      <c r="X377" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF377" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG377" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH377" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI377" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ377" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK377" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL377" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM377" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN377" t="s">
+        <v>494</v>
+      </c>
+      <c r="AO377" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP377" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ377" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR377" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS377" t="s">
+        <v>164</v>
+      </c>
+      <c r="AT377" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU377" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV377" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW377" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX377" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="378" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A378" t="s">
+        <v>49</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C378" t="s">
+        <v>74</v>
+      </c>
+      <c r="D378" t="s">
+        <v>51</v>
+      </c>
+      <c r="E378" t="s">
+        <v>87</v>
+      </c>
+      <c r="F378" t="s">
+        <v>68</v>
+      </c>
+      <c r="G378" t="s">
+        <v>54</v>
+      </c>
+      <c r="H378" t="s">
+        <v>495</v>
+      </c>
+      <c r="I378" t="s">
+        <v>56</v>
+      </c>
+      <c r="J378" t="s">
+        <v>56</v>
+      </c>
+      <c r="K378" t="s">
+        <v>56</v>
+      </c>
+      <c r="L378" t="s">
+        <v>71</v>
+      </c>
+      <c r="M378" t="s">
+        <v>56</v>
+      </c>
+      <c r="N378" t="s">
+        <v>71</v>
+      </c>
+      <c r="O378" t="s">
+        <v>50</v>
+      </c>
+      <c r="P378" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>50</v>
+      </c>
+      <c r="R378" t="s">
+        <v>50</v>
+      </c>
+      <c r="S378" t="s">
+        <v>56</v>
+      </c>
+      <c r="T378" t="s">
+        <v>50</v>
+      </c>
+      <c r="U378" t="s">
+        <v>56</v>
+      </c>
+      <c r="V378" t="s">
+        <v>56</v>
+      </c>
+      <c r="W378" t="s">
+        <v>56</v>
+      </c>
+      <c r="X378" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH378" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI378" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ378" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK378" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL378" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM378" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN378" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO378" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP378" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ378" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR378" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS378" t="s">
+        <v>182</v>
+      </c>
+      <c r="AT378" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU378" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV378" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW378" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX378" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="379" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A379" t="s">
+        <v>49</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C379" t="s">
+        <v>74</v>
+      </c>
+      <c r="D379" t="s">
+        <v>51</v>
+      </c>
+      <c r="E379" t="s">
+        <v>87</v>
+      </c>
+      <c r="F379" t="s">
+        <v>88</v>
+      </c>
+      <c r="G379" t="s">
+        <v>54</v>
+      </c>
+      <c r="H379" t="s">
+        <v>496</v>
+      </c>
+      <c r="I379" t="s">
+        <v>56</v>
+      </c>
+      <c r="J379" t="s">
+        <v>50</v>
+      </c>
+      <c r="K379" t="s">
+        <v>50</v>
+      </c>
+      <c r="L379" t="s">
+        <v>56</v>
+      </c>
+      <c r="M379" t="s">
+        <v>56</v>
+      </c>
+      <c r="N379" t="s">
+        <v>58</v>
+      </c>
+      <c r="O379" t="s">
+        <v>71</v>
+      </c>
+      <c r="P379" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>71</v>
+      </c>
+      <c r="R379" t="s">
+        <v>57</v>
+      </c>
+      <c r="S379" t="s">
+        <v>58</v>
+      </c>
+      <c r="T379" t="s">
+        <v>56</v>
+      </c>
+      <c r="U379" t="s">
+        <v>71</v>
+      </c>
+      <c r="V379" t="s">
+        <v>56</v>
+      </c>
+      <c r="W379" t="s">
+        <v>56</v>
+      </c>
+      <c r="X379" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD379" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF379" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG379" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH379" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI379" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ379" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK379" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL379" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM379" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN379" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO379" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP379" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ379" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR379" t="s">
+        <v>91</v>
+      </c>
+      <c r="AS379" t="s">
+        <v>92</v>
+      </c>
+      <c r="AT379" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU379" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV379" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW379" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX379" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="380" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A380" t="s">
+        <v>49</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C380" t="s">
+        <v>74</v>
+      </c>
+      <c r="D380" t="s">
+        <v>51</v>
+      </c>
+      <c r="E380" t="s">
+        <v>129</v>
+      </c>
+      <c r="F380" t="s">
+        <v>68</v>
+      </c>
+      <c r="G380" t="s">
+        <v>54</v>
+      </c>
+      <c r="H380" t="s">
+        <v>158</v>
+      </c>
+      <c r="I380" t="s">
+        <v>56</v>
+      </c>
+      <c r="J380" t="s">
+        <v>56</v>
+      </c>
+      <c r="K380" t="s">
+        <v>56</v>
+      </c>
+      <c r="L380" t="s">
+        <v>56</v>
+      </c>
+      <c r="M380" t="s">
+        <v>50</v>
+      </c>
+      <c r="N380" t="s">
+        <v>56</v>
+      </c>
+      <c r="O380" t="s">
+        <v>56</v>
+      </c>
+      <c r="P380" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>56</v>
+      </c>
+      <c r="R380" t="s">
+        <v>56</v>
+      </c>
+      <c r="S380" t="s">
+        <v>50</v>
+      </c>
+      <c r="T380" t="s">
+        <v>56</v>
+      </c>
+      <c r="U380" t="s">
+        <v>56</v>
+      </c>
+      <c r="V380" t="s">
+        <v>56</v>
+      </c>
+      <c r="W380" t="s">
+        <v>50</v>
+      </c>
+      <c r="X380" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC380" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF380" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>71</v>
+      </c>
+      <c r="AH380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI380" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ380" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL380" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM380" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN380" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO380" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP380" s="1">
+        <v>44676</v>
+      </c>
+      <c r="AQ380" t="s">
+        <v>395</v>
+      </c>
+      <c r="AR380" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS380" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT380" t="s">
+        <v>65</v>
+      </c>
+      <c r="AU380" t="s">
+        <v>66</v>
+      </c>
+      <c r="AV380" t="s">
+        <v>65</v>
+      </c>
+      <c r="AW380" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX380" t="s">
         <v>395</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAB1953F-EF1E-7243-A6FD-D1F34E9FDF22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A199DC63-14CF-DD47-A5E7-50E194852170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19552" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20556" uniqueCount="533">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1579,6 +1579,45 @@
     <t>866</t>
   </si>
   <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>867</t>
+  </si>
+  <si>
+    <t>1144</t>
+  </si>
+  <si>
+    <t>465</t>
+  </si>
+  <si>
+    <t>PINARES MEDICA</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.4.3$0$0.0</t>
+  </si>
+  <si>
+    <t>334</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>901</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -1997,10 +2036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX408"/>
+  <dimension ref="A1:AX429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2016,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>519</v>
+        <v>532</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -63916,6 +63955,3186 @@
         <v>77</v>
       </c>
       <c r="AX408" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="409" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A409" t="s">
+        <v>49</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C409" t="s">
+        <v>224</v>
+      </c>
+      <c r="D409" t="s">
+        <v>51</v>
+      </c>
+      <c r="E409" t="s">
+        <v>167</v>
+      </c>
+      <c r="F409" t="s">
+        <v>84</v>
+      </c>
+      <c r="G409" t="s">
+        <v>53</v>
+      </c>
+      <c r="H409" t="s">
+        <v>519</v>
+      </c>
+      <c r="I409" t="s">
+        <v>64</v>
+      </c>
+      <c r="J409" t="s">
+        <v>64</v>
+      </c>
+      <c r="K409" t="s">
+        <v>55</v>
+      </c>
+      <c r="L409" t="s">
+        <v>60</v>
+      </c>
+      <c r="M409" t="s">
+        <v>63</v>
+      </c>
+      <c r="N409" t="s">
+        <v>58</v>
+      </c>
+      <c r="O409" t="s">
+        <v>55</v>
+      </c>
+      <c r="P409" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>60</v>
+      </c>
+      <c r="R409" t="s">
+        <v>62</v>
+      </c>
+      <c r="S409" t="s">
+        <v>64</v>
+      </c>
+      <c r="T409" t="s">
+        <v>60</v>
+      </c>
+      <c r="U409" t="s">
+        <v>60</v>
+      </c>
+      <c r="V409" t="s">
+        <v>60</v>
+      </c>
+      <c r="W409" t="s">
+        <v>64</v>
+      </c>
+      <c r="X409" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC409" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF409" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH409" t="s">
+        <v>275</v>
+      </c>
+      <c r="AI409" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ409" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK409" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL409" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM409" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN409" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO409" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP409" s="1">
+        <v>44688</v>
+      </c>
+      <c r="AQ409" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR409" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS409" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT409" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU409" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV409" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW409" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX409" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="410" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A410" t="s">
+        <v>49</v>
+      </c>
+      <c r="B410" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C410" t="s">
+        <v>224</v>
+      </c>
+      <c r="D410" t="s">
+        <v>51</v>
+      </c>
+      <c r="E410" t="s">
+        <v>132</v>
+      </c>
+      <c r="F410" t="s">
+        <v>120</v>
+      </c>
+      <c r="G410" t="s">
+        <v>53</v>
+      </c>
+      <c r="H410" t="s">
+        <v>65</v>
+      </c>
+      <c r="I410" t="s">
+        <v>64</v>
+      </c>
+      <c r="J410" t="s">
+        <v>60</v>
+      </c>
+      <c r="K410" t="s">
+        <v>64</v>
+      </c>
+      <c r="L410" t="s">
+        <v>58</v>
+      </c>
+      <c r="M410" t="s">
+        <v>62</v>
+      </c>
+      <c r="N410" t="s">
+        <v>64</v>
+      </c>
+      <c r="O410" t="s">
+        <v>63</v>
+      </c>
+      <c r="P410" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>63</v>
+      </c>
+      <c r="R410" t="s">
+        <v>64</v>
+      </c>
+      <c r="S410" t="s">
+        <v>64</v>
+      </c>
+      <c r="T410" t="s">
+        <v>64</v>
+      </c>
+      <c r="U410" t="s">
+        <v>60</v>
+      </c>
+      <c r="V410" t="s">
+        <v>55</v>
+      </c>
+      <c r="W410" t="s">
+        <v>63</v>
+      </c>
+      <c r="X410" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC410" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF410" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH410" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI410" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ410" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK410" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL410" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM410" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN410" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO410" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP410" s="1">
+        <v>44688</v>
+      </c>
+      <c r="AQ410" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR410" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS410" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT410" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU410" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV410" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW410" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX410" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="411" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A411" t="s">
+        <v>49</v>
+      </c>
+      <c r="B411" s="1">
+        <v>44681</v>
+      </c>
+      <c r="C411" t="s">
+        <v>126</v>
+      </c>
+      <c r="D411" t="s">
+        <v>51</v>
+      </c>
+      <c r="E411" t="s">
+        <v>132</v>
+      </c>
+      <c r="F411" t="s">
+        <v>57</v>
+      </c>
+      <c r="G411" t="s">
+        <v>53</v>
+      </c>
+      <c r="H411" t="s">
+        <v>520</v>
+      </c>
+      <c r="I411" t="s">
+        <v>60</v>
+      </c>
+      <c r="J411" t="s">
+        <v>60</v>
+      </c>
+      <c r="K411" t="s">
+        <v>64</v>
+      </c>
+      <c r="L411" t="s">
+        <v>64</v>
+      </c>
+      <c r="M411" t="s">
+        <v>64</v>
+      </c>
+      <c r="N411" t="s">
+        <v>64</v>
+      </c>
+      <c r="O411" t="s">
+        <v>64</v>
+      </c>
+      <c r="P411" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>64</v>
+      </c>
+      <c r="R411" t="s">
+        <v>64</v>
+      </c>
+      <c r="S411" t="s">
+        <v>64</v>
+      </c>
+      <c r="T411" t="s">
+        <v>64</v>
+      </c>
+      <c r="U411" t="s">
+        <v>64</v>
+      </c>
+      <c r="V411" t="s">
+        <v>64</v>
+      </c>
+      <c r="W411" t="s">
+        <v>64</v>
+      </c>
+      <c r="X411" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF411" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH411" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI411" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ411" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK411" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL411" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM411" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN411" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO411" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP411" s="1">
+        <v>44684</v>
+      </c>
+      <c r="AQ411" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR411" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS411" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT411" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU411" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV411" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW411" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX411" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="412" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A412" t="s">
+        <v>49</v>
+      </c>
+      <c r="B412" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C412" t="s">
+        <v>224</v>
+      </c>
+      <c r="D412" t="s">
+        <v>51</v>
+      </c>
+      <c r="E412" t="s">
+        <v>107</v>
+      </c>
+      <c r="F412" t="s">
+        <v>84</v>
+      </c>
+      <c r="G412" t="s">
+        <v>53</v>
+      </c>
+      <c r="H412" t="s">
+        <v>521</v>
+      </c>
+      <c r="I412" t="s">
+        <v>55</v>
+      </c>
+      <c r="J412" t="s">
+        <v>59</v>
+      </c>
+      <c r="K412" t="s">
+        <v>62</v>
+      </c>
+      <c r="L412" t="s">
+        <v>60</v>
+      </c>
+      <c r="M412" t="s">
+        <v>62</v>
+      </c>
+      <c r="N412" t="s">
+        <v>72</v>
+      </c>
+      <c r="O412" t="s">
+        <v>64</v>
+      </c>
+      <c r="P412" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>60</v>
+      </c>
+      <c r="R412" t="s">
+        <v>60</v>
+      </c>
+      <c r="S412" t="s">
+        <v>64</v>
+      </c>
+      <c r="T412" t="s">
+        <v>64</v>
+      </c>
+      <c r="U412" t="s">
+        <v>64</v>
+      </c>
+      <c r="V412" t="s">
+        <v>60</v>
+      </c>
+      <c r="W412" t="s">
+        <v>63</v>
+      </c>
+      <c r="X412" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y412" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z412" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC412" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD412" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE412" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF412" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH412" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI412" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ412" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK412" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL412" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM412" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN412" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO412" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP412" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ412" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR412" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS412" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT412" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU412" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV412" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW412" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX412" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="413" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A413" t="s">
+        <v>49</v>
+      </c>
+      <c r="B413" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C413" t="s">
+        <v>224</v>
+      </c>
+      <c r="D413" t="s">
+        <v>51</v>
+      </c>
+      <c r="E413" t="s">
+        <v>107</v>
+      </c>
+      <c r="F413" t="s">
+        <v>108</v>
+      </c>
+      <c r="G413" t="s">
+        <v>53</v>
+      </c>
+      <c r="H413" t="s">
+        <v>65</v>
+      </c>
+      <c r="I413" t="s">
+        <v>65</v>
+      </c>
+      <c r="J413" t="s">
+        <v>59</v>
+      </c>
+      <c r="K413" t="s">
+        <v>62</v>
+      </c>
+      <c r="L413" t="s">
+        <v>60</v>
+      </c>
+      <c r="M413" t="s">
+        <v>60</v>
+      </c>
+      <c r="N413" t="s">
+        <v>63</v>
+      </c>
+      <c r="O413" t="s">
+        <v>60</v>
+      </c>
+      <c r="P413" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>63</v>
+      </c>
+      <c r="R413" t="s">
+        <v>64</v>
+      </c>
+      <c r="S413" t="s">
+        <v>64</v>
+      </c>
+      <c r="T413" t="s">
+        <v>64</v>
+      </c>
+      <c r="U413" t="s">
+        <v>64</v>
+      </c>
+      <c r="V413" t="s">
+        <v>64</v>
+      </c>
+      <c r="W413" t="s">
+        <v>64</v>
+      </c>
+      <c r="X413" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD413" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF413" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH413" t="s">
+        <v>224</v>
+      </c>
+      <c r="AI413" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ413" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK413" t="s">
+        <v>224</v>
+      </c>
+      <c r="AL413" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM413" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN413" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO413" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP413" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ413" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR413" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS413" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT413" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU413" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV413" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW413" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX413" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="414" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A414" t="s">
+        <v>49</v>
+      </c>
+      <c r="B414" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C414" t="s">
+        <v>224</v>
+      </c>
+      <c r="D414" t="s">
+        <v>51</v>
+      </c>
+      <c r="E414" t="s">
+        <v>107</v>
+      </c>
+      <c r="F414" t="s">
+        <v>99</v>
+      </c>
+      <c r="G414" t="s">
+        <v>53</v>
+      </c>
+      <c r="H414" t="s">
+        <v>522</v>
+      </c>
+      <c r="I414" t="s">
+        <v>64</v>
+      </c>
+      <c r="J414" t="s">
+        <v>64</v>
+      </c>
+      <c r="K414" t="s">
+        <v>60</v>
+      </c>
+      <c r="L414" t="s">
+        <v>60</v>
+      </c>
+      <c r="M414" t="s">
+        <v>64</v>
+      </c>
+      <c r="N414" t="s">
+        <v>64</v>
+      </c>
+      <c r="O414" t="s">
+        <v>64</v>
+      </c>
+      <c r="P414" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>64</v>
+      </c>
+      <c r="R414" t="s">
+        <v>64</v>
+      </c>
+      <c r="S414" t="s">
+        <v>64</v>
+      </c>
+      <c r="T414" t="s">
+        <v>64</v>
+      </c>
+      <c r="U414" t="s">
+        <v>64</v>
+      </c>
+      <c r="V414" t="s">
+        <v>64</v>
+      </c>
+      <c r="W414" t="s">
+        <v>64</v>
+      </c>
+      <c r="X414" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC414" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD414" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF414" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH414" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI414" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ414" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK414" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL414" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM414" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN414" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO414" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP414" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ414" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR414" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS414" t="s">
+        <v>271</v>
+      </c>
+      <c r="AT414" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU414" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV414" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW414" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX414" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="415" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A415" t="s">
+        <v>49</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C415" t="s">
+        <v>224</v>
+      </c>
+      <c r="D415" t="s">
+        <v>51</v>
+      </c>
+      <c r="E415" t="s">
+        <v>128</v>
+      </c>
+      <c r="F415" t="s">
+        <v>84</v>
+      </c>
+      <c r="G415" t="s">
+        <v>53</v>
+      </c>
+      <c r="H415" t="s">
+        <v>523</v>
+      </c>
+      <c r="I415" t="s">
+        <v>64</v>
+      </c>
+      <c r="J415" t="s">
+        <v>60</v>
+      </c>
+      <c r="K415" t="s">
+        <v>64</v>
+      </c>
+      <c r="L415" t="s">
+        <v>60</v>
+      </c>
+      <c r="M415" t="s">
+        <v>64</v>
+      </c>
+      <c r="N415" t="s">
+        <v>64</v>
+      </c>
+      <c r="O415" t="s">
+        <v>64</v>
+      </c>
+      <c r="P415" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>64</v>
+      </c>
+      <c r="R415" t="s">
+        <v>64</v>
+      </c>
+      <c r="S415" t="s">
+        <v>64</v>
+      </c>
+      <c r="T415" t="s">
+        <v>60</v>
+      </c>
+      <c r="U415" t="s">
+        <v>60</v>
+      </c>
+      <c r="V415" t="s">
+        <v>64</v>
+      </c>
+      <c r="W415" t="s">
+        <v>64</v>
+      </c>
+      <c r="X415" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y415" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z415" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC415" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD415" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE415" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF415" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH415" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI415" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ415" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK415" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL415" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM415" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN415" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO415" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP415" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ415" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR415" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS415" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT415" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU415" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV415" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW415" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX415" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="416" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A416" t="s">
+        <v>49</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C416" t="s">
+        <v>224</v>
+      </c>
+      <c r="D416" t="s">
+        <v>51</v>
+      </c>
+      <c r="E416" t="s">
+        <v>78</v>
+      </c>
+      <c r="F416" t="s">
+        <v>79</v>
+      </c>
+      <c r="G416" t="s">
+        <v>53</v>
+      </c>
+      <c r="H416" t="s">
+        <v>65</v>
+      </c>
+      <c r="I416" t="s">
+        <v>64</v>
+      </c>
+      <c r="J416" t="s">
+        <v>64</v>
+      </c>
+      <c r="K416" t="s">
+        <v>64</v>
+      </c>
+      <c r="L416" t="s">
+        <v>64</v>
+      </c>
+      <c r="M416" t="s">
+        <v>64</v>
+      </c>
+      <c r="N416" t="s">
+        <v>60</v>
+      </c>
+      <c r="O416" t="s">
+        <v>64</v>
+      </c>
+      <c r="P416" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>64</v>
+      </c>
+      <c r="R416" t="s">
+        <v>64</v>
+      </c>
+      <c r="S416" t="s">
+        <v>64</v>
+      </c>
+      <c r="T416" t="s">
+        <v>64</v>
+      </c>
+      <c r="U416" t="s">
+        <v>64</v>
+      </c>
+      <c r="V416" t="s">
+        <v>64</v>
+      </c>
+      <c r="W416" t="s">
+        <v>64</v>
+      </c>
+      <c r="X416" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y416" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB416" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC416" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD416" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE416" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF416" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH416" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK416" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL416" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM416" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN416" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP416" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ416" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR416" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS416" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT416" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU416" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV416" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW416" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX416" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="417" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A417" t="s">
+        <v>49</v>
+      </c>
+      <c r="B417" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C417" t="s">
+        <v>224</v>
+      </c>
+      <c r="D417" t="s">
+        <v>51</v>
+      </c>
+      <c r="E417" t="s">
+        <v>153</v>
+      </c>
+      <c r="F417" t="s">
+        <v>84</v>
+      </c>
+      <c r="G417" t="s">
+        <v>53</v>
+      </c>
+      <c r="H417" t="s">
+        <v>439</v>
+      </c>
+      <c r="I417" t="s">
+        <v>64</v>
+      </c>
+      <c r="J417" t="s">
+        <v>63</v>
+      </c>
+      <c r="K417" t="s">
+        <v>64</v>
+      </c>
+      <c r="L417" t="s">
+        <v>60</v>
+      </c>
+      <c r="M417" t="s">
+        <v>60</v>
+      </c>
+      <c r="N417" t="s">
+        <v>64</v>
+      </c>
+      <c r="O417" t="s">
+        <v>60</v>
+      </c>
+      <c r="P417" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>64</v>
+      </c>
+      <c r="R417" t="s">
+        <v>62</v>
+      </c>
+      <c r="S417" t="s">
+        <v>63</v>
+      </c>
+      <c r="T417" t="s">
+        <v>60</v>
+      </c>
+      <c r="U417" t="s">
+        <v>64</v>
+      </c>
+      <c r="V417" t="s">
+        <v>64</v>
+      </c>
+      <c r="W417" t="s">
+        <v>64</v>
+      </c>
+      <c r="X417" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB417" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC417" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE417" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF417" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG417" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI417" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ417" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL417" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM417" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN417" t="s">
+        <v>524</v>
+      </c>
+      <c r="AO417" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP417" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ417" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR417" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS417" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT417" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU417" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV417" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW417" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX417" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="418" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A418" t="s">
+        <v>49</v>
+      </c>
+      <c r="B418" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C418" t="s">
+        <v>224</v>
+      </c>
+      <c r="D418" t="s">
+        <v>51</v>
+      </c>
+      <c r="E418" t="s">
+        <v>141</v>
+      </c>
+      <c r="F418" t="s">
+        <v>84</v>
+      </c>
+      <c r="G418" t="s">
+        <v>53</v>
+      </c>
+      <c r="H418" t="s">
+        <v>526</v>
+      </c>
+      <c r="I418" t="s">
+        <v>64</v>
+      </c>
+      <c r="J418" t="s">
+        <v>63</v>
+      </c>
+      <c r="K418" t="s">
+        <v>64</v>
+      </c>
+      <c r="L418" t="s">
+        <v>60</v>
+      </c>
+      <c r="M418" t="s">
+        <v>64</v>
+      </c>
+      <c r="N418" t="s">
+        <v>64</v>
+      </c>
+      <c r="O418" t="s">
+        <v>64</v>
+      </c>
+      <c r="P418" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>60</v>
+      </c>
+      <c r="R418" t="s">
+        <v>60</v>
+      </c>
+      <c r="S418" t="s">
+        <v>60</v>
+      </c>
+      <c r="T418" t="s">
+        <v>60</v>
+      </c>
+      <c r="U418" t="s">
+        <v>60</v>
+      </c>
+      <c r="V418" t="s">
+        <v>63</v>
+      </c>
+      <c r="W418" t="s">
+        <v>64</v>
+      </c>
+      <c r="X418" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y418" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z418" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB418" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC418" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE418" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF418" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG418" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI418" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ418" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL418" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM418" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN418" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO418" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP418" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ418" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR418" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS418" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT418" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU418" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV418" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW418" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX418" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="419" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A419" t="s">
+        <v>49</v>
+      </c>
+      <c r="B419" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C419" t="s">
+        <v>224</v>
+      </c>
+      <c r="D419" t="s">
+        <v>51</v>
+      </c>
+      <c r="E419" t="s">
+        <v>107</v>
+      </c>
+      <c r="F419" t="s">
+        <v>113</v>
+      </c>
+      <c r="G419" t="s">
+        <v>53</v>
+      </c>
+      <c r="H419" t="s">
+        <v>419</v>
+      </c>
+      <c r="I419" t="s">
+        <v>62</v>
+      </c>
+      <c r="J419" t="s">
+        <v>62</v>
+      </c>
+      <c r="K419" t="s">
+        <v>63</v>
+      </c>
+      <c r="L419" t="s">
+        <v>63</v>
+      </c>
+      <c r="M419" t="s">
+        <v>63</v>
+      </c>
+      <c r="N419" t="s">
+        <v>63</v>
+      </c>
+      <c r="O419" t="s">
+        <v>64</v>
+      </c>
+      <c r="P419" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>63</v>
+      </c>
+      <c r="R419" t="s">
+        <v>60</v>
+      </c>
+      <c r="S419" t="s">
+        <v>60</v>
+      </c>
+      <c r="T419" t="s">
+        <v>62</v>
+      </c>
+      <c r="U419" t="s">
+        <v>62</v>
+      </c>
+      <c r="V419" t="s">
+        <v>60</v>
+      </c>
+      <c r="W419" t="s">
+        <v>60</v>
+      </c>
+      <c r="X419" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y419" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z419" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB419" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC419" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD419" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE419" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG419" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH419" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI419" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ419" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK419" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL419" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM419" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN419" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO419" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP419" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ419" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR419" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS419" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT419" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU419" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV419" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW419" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX419" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="420" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A420" t="s">
+        <v>49</v>
+      </c>
+      <c r="B420" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C420" t="s">
+        <v>224</v>
+      </c>
+      <c r="D420" t="s">
+        <v>51</v>
+      </c>
+      <c r="E420" t="s">
+        <v>107</v>
+      </c>
+      <c r="F420" t="s">
+        <v>284</v>
+      </c>
+      <c r="G420" t="s">
+        <v>53</v>
+      </c>
+      <c r="H420" t="s">
+        <v>420</v>
+      </c>
+      <c r="I420" t="s">
+        <v>64</v>
+      </c>
+      <c r="J420" t="s">
+        <v>64</v>
+      </c>
+      <c r="K420" t="s">
+        <v>64</v>
+      </c>
+      <c r="L420" t="s">
+        <v>64</v>
+      </c>
+      <c r="M420" t="s">
+        <v>64</v>
+      </c>
+      <c r="N420" t="s">
+        <v>64</v>
+      </c>
+      <c r="O420" t="s">
+        <v>64</v>
+      </c>
+      <c r="P420" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>60</v>
+      </c>
+      <c r="R420" t="s">
+        <v>64</v>
+      </c>
+      <c r="S420" t="s">
+        <v>64</v>
+      </c>
+      <c r="T420" t="s">
+        <v>64</v>
+      </c>
+      <c r="U420" t="s">
+        <v>64</v>
+      </c>
+      <c r="V420" t="s">
+        <v>64</v>
+      </c>
+      <c r="W420" t="s">
+        <v>64</v>
+      </c>
+      <c r="X420" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD420" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH420" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK420" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP420" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ420" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR420" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS420" t="s">
+        <v>285</v>
+      </c>
+      <c r="AT420" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU420" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX420" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="421" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A421" t="s">
+        <v>49</v>
+      </c>
+      <c r="B421" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C421" t="s">
+        <v>224</v>
+      </c>
+      <c r="D421" t="s">
+        <v>51</v>
+      </c>
+      <c r="E421" t="s">
+        <v>107</v>
+      </c>
+      <c r="F421" t="s">
+        <v>97</v>
+      </c>
+      <c r="G421" t="s">
+        <v>53</v>
+      </c>
+      <c r="H421" t="s">
+        <v>446</v>
+      </c>
+      <c r="I421" t="s">
+        <v>64</v>
+      </c>
+      <c r="J421" t="s">
+        <v>60</v>
+      </c>
+      <c r="K421" t="s">
+        <v>64</v>
+      </c>
+      <c r="L421" t="s">
+        <v>64</v>
+      </c>
+      <c r="M421" t="s">
+        <v>64</v>
+      </c>
+      <c r="N421" t="s">
+        <v>64</v>
+      </c>
+      <c r="O421" t="s">
+        <v>64</v>
+      </c>
+      <c r="P421" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>64</v>
+      </c>
+      <c r="R421" t="s">
+        <v>64</v>
+      </c>
+      <c r="S421" t="s">
+        <v>64</v>
+      </c>
+      <c r="T421" t="s">
+        <v>64</v>
+      </c>
+      <c r="U421" t="s">
+        <v>64</v>
+      </c>
+      <c r="V421" t="s">
+        <v>64</v>
+      </c>
+      <c r="W421" t="s">
+        <v>64</v>
+      </c>
+      <c r="X421" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD421" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF421" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH421" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK421" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP421" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ421" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR421" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS421" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT421" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU421" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX421" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="422" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A422" t="s">
+        <v>49</v>
+      </c>
+      <c r="B422" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C422" t="s">
+        <v>224</v>
+      </c>
+      <c r="D422" t="s">
+        <v>51</v>
+      </c>
+      <c r="E422" t="s">
+        <v>52</v>
+      </c>
+      <c r="F422" t="s">
+        <v>84</v>
+      </c>
+      <c r="G422" t="s">
+        <v>53</v>
+      </c>
+      <c r="H422" t="s">
+        <v>65</v>
+      </c>
+      <c r="I422" t="s">
+        <v>64</v>
+      </c>
+      <c r="J422" t="s">
+        <v>58</v>
+      </c>
+      <c r="K422" t="s">
+        <v>63</v>
+      </c>
+      <c r="L422" t="s">
+        <v>64</v>
+      </c>
+      <c r="M422" t="s">
+        <v>60</v>
+      </c>
+      <c r="N422" t="s">
+        <v>63</v>
+      </c>
+      <c r="O422" t="s">
+        <v>55</v>
+      </c>
+      <c r="P422" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>62</v>
+      </c>
+      <c r="R422" t="s">
+        <v>55</v>
+      </c>
+      <c r="S422" t="s">
+        <v>63</v>
+      </c>
+      <c r="T422" t="s">
+        <v>62</v>
+      </c>
+      <c r="U422" t="s">
+        <v>60</v>
+      </c>
+      <c r="V422" t="s">
+        <v>60</v>
+      </c>
+      <c r="W422" t="s">
+        <v>60</v>
+      </c>
+      <c r="X422" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y422" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z422" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD422" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF422" t="s">
+        <v>211</v>
+      </c>
+      <c r="AG422" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH422" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI422" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ422" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK422" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL422" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM422" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO422" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP422" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ422" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR422" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS422" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT422" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU422" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV422" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW422" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX422" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="423" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A423" t="s">
+        <v>49</v>
+      </c>
+      <c r="B423" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C423" t="s">
+        <v>224</v>
+      </c>
+      <c r="D423" t="s">
+        <v>51</v>
+      </c>
+      <c r="E423" t="s">
+        <v>52</v>
+      </c>
+      <c r="F423" t="s">
+        <v>90</v>
+      </c>
+      <c r="G423" t="s">
+        <v>53</v>
+      </c>
+      <c r="H423" t="s">
+        <v>527</v>
+      </c>
+      <c r="I423" t="s">
+        <v>64</v>
+      </c>
+      <c r="J423" t="s">
+        <v>63</v>
+      </c>
+      <c r="K423" t="s">
+        <v>64</v>
+      </c>
+      <c r="L423" t="s">
+        <v>64</v>
+      </c>
+      <c r="M423" t="s">
+        <v>64</v>
+      </c>
+      <c r="N423" t="s">
+        <v>63</v>
+      </c>
+      <c r="O423" t="s">
+        <v>63</v>
+      </c>
+      <c r="P423" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>63</v>
+      </c>
+      <c r="R423" t="s">
+        <v>64</v>
+      </c>
+      <c r="S423" t="s">
+        <v>63</v>
+      </c>
+      <c r="T423" t="s">
+        <v>63</v>
+      </c>
+      <c r="U423" t="s">
+        <v>64</v>
+      </c>
+      <c r="V423" t="s">
+        <v>60</v>
+      </c>
+      <c r="W423" t="s">
+        <v>64</v>
+      </c>
+      <c r="X423" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y423" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z423" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD423" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF423" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG423" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH423" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI423" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ423" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK423" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL423" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM423" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO423" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP423" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ423" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR423" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS423" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT423" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU423" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV423" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW423" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX423" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="424" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A424" t="s">
+        <v>49</v>
+      </c>
+      <c r="B424" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C424" t="s">
+        <v>224</v>
+      </c>
+      <c r="D424" t="s">
+        <v>51</v>
+      </c>
+      <c r="E424" t="s">
+        <v>52</v>
+      </c>
+      <c r="F424" t="s">
+        <v>50</v>
+      </c>
+      <c r="G424" t="s">
+        <v>53</v>
+      </c>
+      <c r="H424" t="s">
+        <v>528</v>
+      </c>
+      <c r="I424" t="s">
+        <v>63</v>
+      </c>
+      <c r="J424" t="s">
+        <v>58</v>
+      </c>
+      <c r="K424" t="s">
+        <v>62</v>
+      </c>
+      <c r="L424" t="s">
+        <v>60</v>
+      </c>
+      <c r="M424" t="s">
+        <v>62</v>
+      </c>
+      <c r="N424" t="s">
+        <v>59</v>
+      </c>
+      <c r="O424" t="s">
+        <v>62</v>
+      </c>
+      <c r="P424" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>63</v>
+      </c>
+      <c r="R424" t="s">
+        <v>63</v>
+      </c>
+      <c r="S424" t="s">
+        <v>60</v>
+      </c>
+      <c r="T424" t="s">
+        <v>60</v>
+      </c>
+      <c r="U424" t="s">
+        <v>63</v>
+      </c>
+      <c r="V424" t="s">
+        <v>64</v>
+      </c>
+      <c r="W424" t="s">
+        <v>63</v>
+      </c>
+      <c r="X424" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y424" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD424" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF424" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG424" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH424" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI424" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ424" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK424" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL424" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM424" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO424" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP424" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ424" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR424" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS424" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT424" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU424" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV424" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW424" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX424" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="425" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A425" t="s">
+        <v>49</v>
+      </c>
+      <c r="B425" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C425" t="s">
+        <v>224</v>
+      </c>
+      <c r="D425" t="s">
+        <v>51</v>
+      </c>
+      <c r="E425" t="s">
+        <v>147</v>
+      </c>
+      <c r="F425" t="s">
+        <v>84</v>
+      </c>
+      <c r="G425" t="s">
+        <v>53</v>
+      </c>
+      <c r="H425" t="s">
+        <v>529</v>
+      </c>
+      <c r="I425" t="s">
+        <v>64</v>
+      </c>
+      <c r="J425" t="s">
+        <v>114</v>
+      </c>
+      <c r="K425" t="s">
+        <v>58</v>
+      </c>
+      <c r="L425" t="s">
+        <v>63</v>
+      </c>
+      <c r="M425" t="s">
+        <v>62</v>
+      </c>
+      <c r="N425" t="s">
+        <v>63</v>
+      </c>
+      <c r="O425" t="s">
+        <v>63</v>
+      </c>
+      <c r="P425" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>64</v>
+      </c>
+      <c r="R425" t="s">
+        <v>64</v>
+      </c>
+      <c r="S425" t="s">
+        <v>60</v>
+      </c>
+      <c r="T425" t="s">
+        <v>60</v>
+      </c>
+      <c r="U425" t="s">
+        <v>60</v>
+      </c>
+      <c r="V425" t="s">
+        <v>60</v>
+      </c>
+      <c r="W425" t="s">
+        <v>60</v>
+      </c>
+      <c r="X425" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y425" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC425" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD425" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE425" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF425" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH425" t="s">
+        <v>310</v>
+      </c>
+      <c r="AI425" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ425" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK425" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL425" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM425" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN425" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO425" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP425" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ425" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR425" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS425" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT425" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU425" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV425" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW425" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX425" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="426" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A426" t="s">
+        <v>49</v>
+      </c>
+      <c r="B426" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C426" t="s">
+        <v>224</v>
+      </c>
+      <c r="D426" t="s">
+        <v>51</v>
+      </c>
+      <c r="E426" t="s">
+        <v>167</v>
+      </c>
+      <c r="F426" t="s">
+        <v>108</v>
+      </c>
+      <c r="G426" t="s">
+        <v>53</v>
+      </c>
+      <c r="H426" t="s">
+        <v>126</v>
+      </c>
+      <c r="I426" t="s">
+        <v>64</v>
+      </c>
+      <c r="J426" t="s">
+        <v>72</v>
+      </c>
+      <c r="K426" t="s">
+        <v>64</v>
+      </c>
+      <c r="L426" t="s">
+        <v>64</v>
+      </c>
+      <c r="M426" t="s">
+        <v>60</v>
+      </c>
+      <c r="N426" t="s">
+        <v>60</v>
+      </c>
+      <c r="O426" t="s">
+        <v>64</v>
+      </c>
+      <c r="P426" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>64</v>
+      </c>
+      <c r="R426" t="s">
+        <v>60</v>
+      </c>
+      <c r="S426" t="s">
+        <v>60</v>
+      </c>
+      <c r="T426" t="s">
+        <v>63</v>
+      </c>
+      <c r="U426" t="s">
+        <v>63</v>
+      </c>
+      <c r="V426" t="s">
+        <v>64</v>
+      </c>
+      <c r="W426" t="s">
+        <v>60</v>
+      </c>
+      <c r="X426" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y426" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC426" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD426" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE426" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH426" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI426" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ426" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK426" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL426" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM426" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN426" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO426" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP426" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ426" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR426" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS426" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT426" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU426" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV426" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW426" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX426" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="427" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A427" t="s">
+        <v>49</v>
+      </c>
+      <c r="B427" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C427" t="s">
+        <v>224</v>
+      </c>
+      <c r="D427" t="s">
+        <v>51</v>
+      </c>
+      <c r="E427" t="s">
+        <v>160</v>
+      </c>
+      <c r="F427" t="s">
+        <v>84</v>
+      </c>
+      <c r="G427" t="s">
+        <v>53</v>
+      </c>
+      <c r="H427" t="s">
+        <v>530</v>
+      </c>
+      <c r="I427" t="s">
+        <v>58</v>
+      </c>
+      <c r="J427" t="s">
+        <v>67</v>
+      </c>
+      <c r="K427" t="s">
+        <v>113</v>
+      </c>
+      <c r="L427" t="s">
+        <v>211</v>
+      </c>
+      <c r="M427" t="s">
+        <v>55</v>
+      </c>
+      <c r="N427" t="s">
+        <v>59</v>
+      </c>
+      <c r="O427" t="s">
+        <v>110</v>
+      </c>
+      <c r="P427" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>59</v>
+      </c>
+      <c r="R427" t="s">
+        <v>59</v>
+      </c>
+      <c r="S427" t="s">
+        <v>72</v>
+      </c>
+      <c r="T427" t="s">
+        <v>59</v>
+      </c>
+      <c r="U427" t="s">
+        <v>55</v>
+      </c>
+      <c r="V427" t="s">
+        <v>110</v>
+      </c>
+      <c r="W427" t="s">
+        <v>72</v>
+      </c>
+      <c r="X427" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y427" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z427" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB427" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC427" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD427" t="s">
+        <v>531</v>
+      </c>
+      <c r="AE427" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF427" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG427" t="s">
+        <v>469</v>
+      </c>
+      <c r="AH427" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI427" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ427" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK427" t="s">
+        <v>531</v>
+      </c>
+      <c r="AL427" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM427" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN427" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO427" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP427" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ427" t="s">
+        <v>73</v>
+      </c>
+      <c r="AR427" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS427" t="s">
+        <v>166</v>
+      </c>
+      <c r="AT427" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU427" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV427" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW427" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX427" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="428" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A428" t="s">
+        <v>49</v>
+      </c>
+      <c r="B428" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C428" t="s">
+        <v>224</v>
+      </c>
+      <c r="D428" t="s">
+        <v>51</v>
+      </c>
+      <c r="E428" t="s">
+        <v>137</v>
+      </c>
+      <c r="F428" t="s">
+        <v>84</v>
+      </c>
+      <c r="G428" t="s">
+        <v>53</v>
+      </c>
+      <c r="H428" t="s">
+        <v>363</v>
+      </c>
+      <c r="I428" t="s">
+        <v>64</v>
+      </c>
+      <c r="J428" t="s">
+        <v>63</v>
+      </c>
+      <c r="K428" t="s">
+        <v>64</v>
+      </c>
+      <c r="L428" t="s">
+        <v>64</v>
+      </c>
+      <c r="M428" t="s">
+        <v>64</v>
+      </c>
+      <c r="N428" t="s">
+        <v>64</v>
+      </c>
+      <c r="O428" t="s">
+        <v>64</v>
+      </c>
+      <c r="P428" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q428" t="s">
+        <v>64</v>
+      </c>
+      <c r="R428" t="s">
+        <v>64</v>
+      </c>
+      <c r="S428" t="s">
+        <v>64</v>
+      </c>
+      <c r="T428" t="s">
+        <v>64</v>
+      </c>
+      <c r="U428" t="s">
+        <v>64</v>
+      </c>
+      <c r="V428" t="s">
+        <v>64</v>
+      </c>
+      <c r="W428" t="s">
+        <v>64</v>
+      </c>
+      <c r="X428" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y428" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z428" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA428" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB428" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC428" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD428" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE428" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF428" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG428" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH428" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI428" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ428" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK428" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL428" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM428" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN428" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO428" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP428" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ428" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR428" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS428" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT428" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU428" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV428" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW428" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX428" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="429" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A429" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C429" t="s">
+        <v>224</v>
+      </c>
+      <c r="D429" t="s">
+        <v>51</v>
+      </c>
+      <c r="E429" t="s">
+        <v>156</v>
+      </c>
+      <c r="F429" t="s">
+        <v>108</v>
+      </c>
+      <c r="G429" t="s">
+        <v>53</v>
+      </c>
+      <c r="H429" t="s">
+        <v>65</v>
+      </c>
+      <c r="I429" t="s">
+        <v>64</v>
+      </c>
+      <c r="J429" t="s">
+        <v>64</v>
+      </c>
+      <c r="K429" t="s">
+        <v>64</v>
+      </c>
+      <c r="L429" t="s">
+        <v>60</v>
+      </c>
+      <c r="M429" t="s">
+        <v>60</v>
+      </c>
+      <c r="N429" t="s">
+        <v>63</v>
+      </c>
+      <c r="O429" t="s">
+        <v>60</v>
+      </c>
+      <c r="P429" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q429" t="s">
+        <v>64</v>
+      </c>
+      <c r="R429" t="s">
+        <v>64</v>
+      </c>
+      <c r="S429" t="s">
+        <v>64</v>
+      </c>
+      <c r="T429" t="s">
+        <v>64</v>
+      </c>
+      <c r="U429" t="s">
+        <v>64</v>
+      </c>
+      <c r="V429" t="s">
+        <v>64</v>
+      </c>
+      <c r="W429" t="s">
+        <v>64</v>
+      </c>
+      <c r="X429" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y429" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z429" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA429" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB429" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC429" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD429" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE429" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF429" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG429" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH429" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI429" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ429" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK429" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL429" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM429" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN429" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO429" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP429" s="1">
+        <v>44690</v>
+      </c>
+      <c r="AQ429" t="s">
+        <v>482</v>
+      </c>
+      <c r="AR429" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS429" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT429" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU429" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV429" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW429" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX429" t="s">
         <v>482</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A199DC63-14CF-DD47-A5E7-50E194852170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDE0E6EA-7C46-BB46-A658-3D22FCD855E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16460"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20556" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21418" uniqueCount="542">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1618,6 +1618,33 @@
     <t>183</t>
   </si>
   <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>868</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>1145</t>
+  </si>
+  <si>
+    <t>902</t>
+  </si>
+  <si>
+    <t>466</t>
+  </si>
+  <si>
+    <t>335</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2036,10 +2063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX429"/>
+  <dimension ref="A1:AX447"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2055,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -67136,6 +67163,2736 @@
       </c>
       <c r="AX429" t="s">
         <v>482</v>
+      </c>
+    </row>
+    <row r="430" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A430" t="s">
+        <v>49</v>
+      </c>
+      <c r="B430" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C430" t="s">
+        <v>98</v>
+      </c>
+      <c r="D430" t="s">
+        <v>51</v>
+      </c>
+      <c r="E430" t="s">
+        <v>132</v>
+      </c>
+      <c r="F430" t="s">
+        <v>120</v>
+      </c>
+      <c r="G430" t="s">
+        <v>53</v>
+      </c>
+      <c r="H430" t="s">
+        <v>65</v>
+      </c>
+      <c r="I430" t="s">
+        <v>64</v>
+      </c>
+      <c r="J430" t="s">
+        <v>64</v>
+      </c>
+      <c r="K430" t="s">
+        <v>62</v>
+      </c>
+      <c r="L430" t="s">
+        <v>64</v>
+      </c>
+      <c r="M430" t="s">
+        <v>58</v>
+      </c>
+      <c r="N430" t="s">
+        <v>63</v>
+      </c>
+      <c r="O430" t="s">
+        <v>60</v>
+      </c>
+      <c r="P430" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q430" t="s">
+        <v>55</v>
+      </c>
+      <c r="R430" t="s">
+        <v>59</v>
+      </c>
+      <c r="S430" t="s">
+        <v>63</v>
+      </c>
+      <c r="T430" t="s">
+        <v>63</v>
+      </c>
+      <c r="U430" t="s">
+        <v>63</v>
+      </c>
+      <c r="V430" t="s">
+        <v>64</v>
+      </c>
+      <c r="W430" t="s">
+        <v>64</v>
+      </c>
+      <c r="X430" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y430" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z430" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA430" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB430" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC430" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD430" t="s">
+        <v>333</v>
+      </c>
+      <c r="AE430" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF430" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG430" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH430" t="s">
+        <v>333</v>
+      </c>
+      <c r="AI430" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ430" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK430" t="s">
+        <v>333</v>
+      </c>
+      <c r="AL430" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM430" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN430" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO430" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP430" s="1">
+        <v>44695</v>
+      </c>
+      <c r="AQ430" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR430" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS430" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT430" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU430" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV430" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW430" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX430" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="431" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A431" t="s">
+        <v>49</v>
+      </c>
+      <c r="B431" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C431" t="s">
+        <v>98</v>
+      </c>
+      <c r="D431" t="s">
+        <v>51</v>
+      </c>
+      <c r="E431" t="s">
+        <v>167</v>
+      </c>
+      <c r="F431" t="s">
+        <v>84</v>
+      </c>
+      <c r="G431" t="s">
+        <v>53</v>
+      </c>
+      <c r="H431" t="s">
+        <v>501</v>
+      </c>
+      <c r="I431" t="s">
+        <v>64</v>
+      </c>
+      <c r="J431" t="s">
+        <v>55</v>
+      </c>
+      <c r="K431" t="s">
+        <v>64</v>
+      </c>
+      <c r="L431" t="s">
+        <v>60</v>
+      </c>
+      <c r="M431" t="s">
+        <v>64</v>
+      </c>
+      <c r="N431" t="s">
+        <v>61</v>
+      </c>
+      <c r="O431" t="s">
+        <v>61</v>
+      </c>
+      <c r="P431" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q431" t="s">
+        <v>62</v>
+      </c>
+      <c r="R431" t="s">
+        <v>64</v>
+      </c>
+      <c r="S431" t="s">
+        <v>64</v>
+      </c>
+      <c r="T431" t="s">
+        <v>63</v>
+      </c>
+      <c r="U431" t="s">
+        <v>60</v>
+      </c>
+      <c r="V431" t="s">
+        <v>64</v>
+      </c>
+      <c r="W431" t="s">
+        <v>64</v>
+      </c>
+      <c r="X431" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y431" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z431" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA431" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB431" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC431" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD431" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE431" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF431" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG431" t="s">
+        <v>211</v>
+      </c>
+      <c r="AH431" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI431" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ431" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK431" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL431" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM431" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN431" t="s">
+        <v>414</v>
+      </c>
+      <c r="AO431" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP431" s="1">
+        <v>44695</v>
+      </c>
+      <c r="AQ431" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR431" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS431" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT431" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU431" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV431" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW431" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX431" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="432" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A432" t="s">
+        <v>49</v>
+      </c>
+      <c r="B432" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C432" t="s">
+        <v>98</v>
+      </c>
+      <c r="D432" t="s">
+        <v>51</v>
+      </c>
+      <c r="E432" t="s">
+        <v>52</v>
+      </c>
+      <c r="F432" t="s">
+        <v>84</v>
+      </c>
+      <c r="G432" t="s">
+        <v>53</v>
+      </c>
+      <c r="H432" t="s">
+        <v>532</v>
+      </c>
+      <c r="I432" t="s">
+        <v>64</v>
+      </c>
+      <c r="J432" t="s">
+        <v>62</v>
+      </c>
+      <c r="K432" t="s">
+        <v>60</v>
+      </c>
+      <c r="L432" t="s">
+        <v>63</v>
+      </c>
+      <c r="M432" t="s">
+        <v>60</v>
+      </c>
+      <c r="N432" t="s">
+        <v>58</v>
+      </c>
+      <c r="O432" t="s">
+        <v>59</v>
+      </c>
+      <c r="P432" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q432" t="s">
+        <v>61</v>
+      </c>
+      <c r="R432" t="s">
+        <v>62</v>
+      </c>
+      <c r="S432" t="s">
+        <v>64</v>
+      </c>
+      <c r="T432" t="s">
+        <v>60</v>
+      </c>
+      <c r="U432" t="s">
+        <v>64</v>
+      </c>
+      <c r="V432" t="s">
+        <v>64</v>
+      </c>
+      <c r="W432" t="s">
+        <v>63</v>
+      </c>
+      <c r="X432" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y432" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z432" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA432" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB432" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC432" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD432" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE432" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF432" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG432" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH432" t="s">
+        <v>305</v>
+      </c>
+      <c r="AI432" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ432" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK432" t="s">
+        <v>305</v>
+      </c>
+      <c r="AL432" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM432" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN432" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO432" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP432" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ432" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR432" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS432" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT432" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU432" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV432" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW432" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX432" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="433" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A433" t="s">
+        <v>49</v>
+      </c>
+      <c r="B433" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C433" t="s">
+        <v>98</v>
+      </c>
+      <c r="D433" t="s">
+        <v>51</v>
+      </c>
+      <c r="E433" t="s">
+        <v>52</v>
+      </c>
+      <c r="F433" t="s">
+        <v>90</v>
+      </c>
+      <c r="G433" t="s">
+        <v>53</v>
+      </c>
+      <c r="H433" t="s">
+        <v>533</v>
+      </c>
+      <c r="I433" t="s">
+        <v>64</v>
+      </c>
+      <c r="J433" t="s">
+        <v>62</v>
+      </c>
+      <c r="K433" t="s">
+        <v>64</v>
+      </c>
+      <c r="L433" t="s">
+        <v>60</v>
+      </c>
+      <c r="M433" t="s">
+        <v>62</v>
+      </c>
+      <c r="N433" t="s">
+        <v>58</v>
+      </c>
+      <c r="O433" t="s">
+        <v>62</v>
+      </c>
+      <c r="P433" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q433" t="s">
+        <v>55</v>
+      </c>
+      <c r="R433" t="s">
+        <v>62</v>
+      </c>
+      <c r="S433" t="s">
+        <v>60</v>
+      </c>
+      <c r="T433" t="s">
+        <v>63</v>
+      </c>
+      <c r="U433" t="s">
+        <v>64</v>
+      </c>
+      <c r="V433" t="s">
+        <v>64</v>
+      </c>
+      <c r="W433" t="s">
+        <v>60</v>
+      </c>
+      <c r="X433" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y433" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z433" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA433" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB433" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC433" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD433" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE433" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF433" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG433" t="s">
+        <v>231</v>
+      </c>
+      <c r="AH433" t="s">
+        <v>230</v>
+      </c>
+      <c r="AI433" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ433" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK433" t="s">
+        <v>230</v>
+      </c>
+      <c r="AL433" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM433" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN433" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO433" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP433" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ433" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR433" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS433" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT433" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU433" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV433" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW433" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX433" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="434" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A434" t="s">
+        <v>49</v>
+      </c>
+      <c r="B434" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C434" t="s">
+        <v>98</v>
+      </c>
+      <c r="D434" t="s">
+        <v>51</v>
+      </c>
+      <c r="E434" t="s">
+        <v>52</v>
+      </c>
+      <c r="F434" t="s">
+        <v>50</v>
+      </c>
+      <c r="G434" t="s">
+        <v>53</v>
+      </c>
+      <c r="H434" t="s">
+        <v>534</v>
+      </c>
+      <c r="I434" t="s">
+        <v>64</v>
+      </c>
+      <c r="J434" t="s">
+        <v>58</v>
+      </c>
+      <c r="K434" t="s">
+        <v>63</v>
+      </c>
+      <c r="L434" t="s">
+        <v>63</v>
+      </c>
+      <c r="M434" t="s">
+        <v>64</v>
+      </c>
+      <c r="N434" t="s">
+        <v>62</v>
+      </c>
+      <c r="O434" t="s">
+        <v>62</v>
+      </c>
+      <c r="P434" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q434" t="s">
+        <v>60</v>
+      </c>
+      <c r="R434" t="s">
+        <v>64</v>
+      </c>
+      <c r="S434" t="s">
+        <v>60</v>
+      </c>
+      <c r="T434" t="s">
+        <v>64</v>
+      </c>
+      <c r="U434" t="s">
+        <v>60</v>
+      </c>
+      <c r="V434" t="s">
+        <v>64</v>
+      </c>
+      <c r="W434" t="s">
+        <v>60</v>
+      </c>
+      <c r="X434" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y434" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z434" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA434" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB434" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC434" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD434" t="s">
+        <v>177</v>
+      </c>
+      <c r="AE434" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF434" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG434" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH434" t="s">
+        <v>177</v>
+      </c>
+      <c r="AI434" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ434" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK434" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL434" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM434" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN434" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO434" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP434" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ434" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR434" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS434" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT434" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU434" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV434" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW434" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX434" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="435" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A435" t="s">
+        <v>49</v>
+      </c>
+      <c r="B435" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C435" t="s">
+        <v>98</v>
+      </c>
+      <c r="D435" t="s">
+        <v>51</v>
+      </c>
+      <c r="E435" t="s">
+        <v>107</v>
+      </c>
+      <c r="F435" t="s">
+        <v>84</v>
+      </c>
+      <c r="G435" t="s">
+        <v>53</v>
+      </c>
+      <c r="H435" t="s">
+        <v>535</v>
+      </c>
+      <c r="I435" t="s">
+        <v>60</v>
+      </c>
+      <c r="J435" t="s">
+        <v>59</v>
+      </c>
+      <c r="K435" t="s">
+        <v>62</v>
+      </c>
+      <c r="L435" t="s">
+        <v>64</v>
+      </c>
+      <c r="M435" t="s">
+        <v>62</v>
+      </c>
+      <c r="N435" t="s">
+        <v>60</v>
+      </c>
+      <c r="O435" t="s">
+        <v>64</v>
+      </c>
+      <c r="P435" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q435" t="s">
+        <v>60</v>
+      </c>
+      <c r="R435" t="s">
+        <v>64</v>
+      </c>
+      <c r="S435" t="s">
+        <v>60</v>
+      </c>
+      <c r="T435" t="s">
+        <v>60</v>
+      </c>
+      <c r="U435" t="s">
+        <v>64</v>
+      </c>
+      <c r="V435" t="s">
+        <v>63</v>
+      </c>
+      <c r="W435" t="s">
+        <v>62</v>
+      </c>
+      <c r="X435" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y435" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z435" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA435" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB435" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC435" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD435" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE435" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF435" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG435" t="s">
+        <v>99</v>
+      </c>
+      <c r="AH435" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI435" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ435" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK435" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL435" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM435" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN435" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO435" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP435" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ435" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR435" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS435" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT435" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU435" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV435" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW435" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX435" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="436" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A436" t="s">
+        <v>49</v>
+      </c>
+      <c r="B436" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C436" t="s">
+        <v>98</v>
+      </c>
+      <c r="D436" t="s">
+        <v>51</v>
+      </c>
+      <c r="E436" t="s">
+        <v>107</v>
+      </c>
+      <c r="F436" t="s">
+        <v>193</v>
+      </c>
+      <c r="G436" t="s">
+        <v>53</v>
+      </c>
+      <c r="H436" t="s">
+        <v>536</v>
+      </c>
+      <c r="I436" t="s">
+        <v>64</v>
+      </c>
+      <c r="J436" t="s">
+        <v>64</v>
+      </c>
+      <c r="K436" t="s">
+        <v>60</v>
+      </c>
+      <c r="L436" t="s">
+        <v>64</v>
+      </c>
+      <c r="M436" t="s">
+        <v>64</v>
+      </c>
+      <c r="N436" t="s">
+        <v>64</v>
+      </c>
+      <c r="O436" t="s">
+        <v>64</v>
+      </c>
+      <c r="P436" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q436" t="s">
+        <v>64</v>
+      </c>
+      <c r="R436" t="s">
+        <v>64</v>
+      </c>
+      <c r="S436" t="s">
+        <v>64</v>
+      </c>
+      <c r="T436" t="s">
+        <v>64</v>
+      </c>
+      <c r="U436" t="s">
+        <v>64</v>
+      </c>
+      <c r="V436" t="s">
+        <v>64</v>
+      </c>
+      <c r="W436" t="s">
+        <v>64</v>
+      </c>
+      <c r="X436" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y436" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z436" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA436" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB436" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC436" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD436" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE436" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF436" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG436" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH436" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI436" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ436" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK436" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL436" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM436" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN436" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO436" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP436" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ436" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR436" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS436" t="s">
+        <v>195</v>
+      </c>
+      <c r="AT436" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU436" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV436" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW436" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX436" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="437" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A437" t="s">
+        <v>49</v>
+      </c>
+      <c r="B437" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C437" t="s">
+        <v>98</v>
+      </c>
+      <c r="D437" t="s">
+        <v>51</v>
+      </c>
+      <c r="E437" t="s">
+        <v>107</v>
+      </c>
+      <c r="F437" t="s">
+        <v>108</v>
+      </c>
+      <c r="G437" t="s">
+        <v>53</v>
+      </c>
+      <c r="H437" t="s">
+        <v>537</v>
+      </c>
+      <c r="I437" t="s">
+        <v>62</v>
+      </c>
+      <c r="J437" t="s">
+        <v>60</v>
+      </c>
+      <c r="K437" t="s">
+        <v>63</v>
+      </c>
+      <c r="L437" t="s">
+        <v>64</v>
+      </c>
+      <c r="M437" t="s">
+        <v>63</v>
+      </c>
+      <c r="N437" t="s">
+        <v>64</v>
+      </c>
+      <c r="O437" t="s">
+        <v>60</v>
+      </c>
+      <c r="P437" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q437" t="s">
+        <v>60</v>
+      </c>
+      <c r="R437" t="s">
+        <v>64</v>
+      </c>
+      <c r="S437" t="s">
+        <v>64</v>
+      </c>
+      <c r="T437" t="s">
+        <v>60</v>
+      </c>
+      <c r="U437" t="s">
+        <v>64</v>
+      </c>
+      <c r="V437" t="s">
+        <v>60</v>
+      </c>
+      <c r="W437" t="s">
+        <v>64</v>
+      </c>
+      <c r="X437" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y437" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z437" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA437" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB437" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC437" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD437" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE437" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF437" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG437" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH437" t="s">
+        <v>87</v>
+      </c>
+      <c r="AI437" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ437" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK437" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL437" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM437" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN437" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO437" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP437" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ437" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR437" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS437" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT437" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU437" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV437" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW437" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX437" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="438" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A438" t="s">
+        <v>49</v>
+      </c>
+      <c r="B438" s="1">
+        <v>44694</v>
+      </c>
+      <c r="C438" t="s">
+        <v>98</v>
+      </c>
+      <c r="D438" t="s">
+        <v>51</v>
+      </c>
+      <c r="E438" t="s">
+        <v>107</v>
+      </c>
+      <c r="F438" t="s">
+        <v>113</v>
+      </c>
+      <c r="G438" t="s">
+        <v>53</v>
+      </c>
+      <c r="H438" t="s">
+        <v>447</v>
+      </c>
+      <c r="I438" t="s">
+        <v>60</v>
+      </c>
+      <c r="J438" t="s">
+        <v>55</v>
+      </c>
+      <c r="K438" t="s">
+        <v>63</v>
+      </c>
+      <c r="L438" t="s">
+        <v>64</v>
+      </c>
+      <c r="M438" t="s">
+        <v>55</v>
+      </c>
+      <c r="N438" t="s">
+        <v>62</v>
+      </c>
+      <c r="O438" t="s">
+        <v>63</v>
+      </c>
+      <c r="P438" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q438" t="s">
+        <v>60</v>
+      </c>
+      <c r="R438" t="s">
+        <v>64</v>
+      </c>
+      <c r="S438" t="s">
+        <v>64</v>
+      </c>
+      <c r="T438" t="s">
+        <v>60</v>
+      </c>
+      <c r="U438" t="s">
+        <v>60</v>
+      </c>
+      <c r="V438" t="s">
+        <v>64</v>
+      </c>
+      <c r="W438" t="s">
+        <v>64</v>
+      </c>
+      <c r="X438" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y438" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z438" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA438" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB438" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC438" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD438" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE438" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF438" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG438" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH438" t="s">
+        <v>231</v>
+      </c>
+      <c r="AI438" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ438" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK438" t="s">
+        <v>231</v>
+      </c>
+      <c r="AL438" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM438" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN438" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO438" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP438" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ438" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR438" t="s">
+        <v>115</v>
+      </c>
+      <c r="AS438" t="s">
+        <v>116</v>
+      </c>
+      <c r="AT438" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU438" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV438" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW438" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX438" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="439" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A439" t="s">
+        <v>49</v>
+      </c>
+      <c r="B439" s="1">
+        <v>44694</v>
+      </c>
+      <c r="C439" t="s">
+        <v>98</v>
+      </c>
+      <c r="D439" t="s">
+        <v>51</v>
+      </c>
+      <c r="E439" t="s">
+        <v>107</v>
+      </c>
+      <c r="F439" t="s">
+        <v>97</v>
+      </c>
+      <c r="G439" t="s">
+        <v>53</v>
+      </c>
+      <c r="H439" t="s">
+        <v>448</v>
+      </c>
+      <c r="I439" t="s">
+        <v>64</v>
+      </c>
+      <c r="J439" t="s">
+        <v>60</v>
+      </c>
+      <c r="K439" t="s">
+        <v>64</v>
+      </c>
+      <c r="L439" t="s">
+        <v>64</v>
+      </c>
+      <c r="M439" t="s">
+        <v>64</v>
+      </c>
+      <c r="N439" t="s">
+        <v>64</v>
+      </c>
+      <c r="O439" t="s">
+        <v>64</v>
+      </c>
+      <c r="P439" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q439" t="s">
+        <v>64</v>
+      </c>
+      <c r="R439" t="s">
+        <v>64</v>
+      </c>
+      <c r="S439" t="s">
+        <v>64</v>
+      </c>
+      <c r="T439" t="s">
+        <v>64</v>
+      </c>
+      <c r="U439" t="s">
+        <v>64</v>
+      </c>
+      <c r="V439" t="s">
+        <v>64</v>
+      </c>
+      <c r="W439" t="s">
+        <v>64</v>
+      </c>
+      <c r="X439" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y439" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z439" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD439" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF439" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG439" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH439" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI439" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ439" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK439" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN439" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO439" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP439" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ439" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR439" t="s">
+        <v>111</v>
+      </c>
+      <c r="AS439" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT439" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU439" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX439" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="440" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A440" t="s">
+        <v>49</v>
+      </c>
+      <c r="B440" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C440" t="s">
+        <v>98</v>
+      </c>
+      <c r="D440" t="s">
+        <v>51</v>
+      </c>
+      <c r="E440" t="s">
+        <v>147</v>
+      </c>
+      <c r="F440" t="s">
+        <v>84</v>
+      </c>
+      <c r="G440" t="s">
+        <v>53</v>
+      </c>
+      <c r="H440" t="s">
+        <v>538</v>
+      </c>
+      <c r="I440" t="s">
+        <v>64</v>
+      </c>
+      <c r="J440" t="s">
+        <v>110</v>
+      </c>
+      <c r="K440" t="s">
+        <v>55</v>
+      </c>
+      <c r="L440" t="s">
+        <v>60</v>
+      </c>
+      <c r="M440" t="s">
+        <v>64</v>
+      </c>
+      <c r="N440" t="s">
+        <v>64</v>
+      </c>
+      <c r="O440" t="s">
+        <v>63</v>
+      </c>
+      <c r="P440" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q440" t="s">
+        <v>63</v>
+      </c>
+      <c r="R440" t="s">
+        <v>63</v>
+      </c>
+      <c r="S440" t="s">
+        <v>64</v>
+      </c>
+      <c r="T440" t="s">
+        <v>64</v>
+      </c>
+      <c r="U440" t="s">
+        <v>64</v>
+      </c>
+      <c r="V440" t="s">
+        <v>60</v>
+      </c>
+      <c r="W440" t="s">
+        <v>64</v>
+      </c>
+      <c r="X440" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y440" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z440" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA440" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB440" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC440" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD440" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE440" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF440" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG440" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH440" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI440" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ440" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK440" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL440" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM440" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN440" t="s">
+        <v>150</v>
+      </c>
+      <c r="AO440" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP440" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ440" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR440" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS440" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT440" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU440" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV440" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW440" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX440" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="441" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A441" t="s">
+        <v>49</v>
+      </c>
+      <c r="B441" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C441" t="s">
+        <v>98</v>
+      </c>
+      <c r="D441" t="s">
+        <v>51</v>
+      </c>
+      <c r="E441" t="s">
+        <v>128</v>
+      </c>
+      <c r="F441" t="s">
+        <v>84</v>
+      </c>
+      <c r="G441" t="s">
+        <v>53</v>
+      </c>
+      <c r="H441" t="s">
+        <v>539</v>
+      </c>
+      <c r="I441" t="s">
+        <v>64</v>
+      </c>
+      <c r="J441" t="s">
+        <v>64</v>
+      </c>
+      <c r="K441" t="s">
+        <v>60</v>
+      </c>
+      <c r="L441" t="s">
+        <v>64</v>
+      </c>
+      <c r="M441" t="s">
+        <v>64</v>
+      </c>
+      <c r="N441" t="s">
+        <v>60</v>
+      </c>
+      <c r="O441" t="s">
+        <v>64</v>
+      </c>
+      <c r="P441" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q441" t="s">
+        <v>64</v>
+      </c>
+      <c r="R441" t="s">
+        <v>64</v>
+      </c>
+      <c r="S441" t="s">
+        <v>64</v>
+      </c>
+      <c r="T441" t="s">
+        <v>64</v>
+      </c>
+      <c r="U441" t="s">
+        <v>64</v>
+      </c>
+      <c r="V441" t="s">
+        <v>64</v>
+      </c>
+      <c r="W441" t="s">
+        <v>64</v>
+      </c>
+      <c r="X441" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y441" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z441" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA441" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB441" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC441" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD441" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE441" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF441" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG441" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH441" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI441" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ441" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK441" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL441" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM441" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN441" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO441" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP441" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ441" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR441" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS441" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT441" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU441" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV441" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW441" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX441" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="442" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A442" t="s">
+        <v>49</v>
+      </c>
+      <c r="B442" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C442" t="s">
+        <v>98</v>
+      </c>
+      <c r="D442" t="s">
+        <v>51</v>
+      </c>
+      <c r="E442" t="s">
+        <v>78</v>
+      </c>
+      <c r="F442" t="s">
+        <v>79</v>
+      </c>
+      <c r="G442" t="s">
+        <v>53</v>
+      </c>
+      <c r="H442" t="s">
+        <v>65</v>
+      </c>
+      <c r="I442" t="s">
+        <v>64</v>
+      </c>
+      <c r="J442" t="s">
+        <v>64</v>
+      </c>
+      <c r="K442" t="s">
+        <v>64</v>
+      </c>
+      <c r="L442" t="s">
+        <v>64</v>
+      </c>
+      <c r="M442" t="s">
+        <v>60</v>
+      </c>
+      <c r="N442" t="s">
+        <v>64</v>
+      </c>
+      <c r="O442" t="s">
+        <v>64</v>
+      </c>
+      <c r="P442" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q442" t="s">
+        <v>64</v>
+      </c>
+      <c r="R442" t="s">
+        <v>64</v>
+      </c>
+      <c r="S442" t="s">
+        <v>64</v>
+      </c>
+      <c r="T442" t="s">
+        <v>64</v>
+      </c>
+      <c r="U442" t="s">
+        <v>64</v>
+      </c>
+      <c r="V442" t="s">
+        <v>64</v>
+      </c>
+      <c r="W442" t="s">
+        <v>64</v>
+      </c>
+      <c r="X442" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y442" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z442" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA442" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB442" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC442" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD442" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE442" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF442" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG442" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH442" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI442" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ442" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK442" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL442" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM442" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN442" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO442" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP442" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ442" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR442" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS442" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT442" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU442" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV442" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW442" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX442" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="443" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A443" t="s">
+        <v>49</v>
+      </c>
+      <c r="B443" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C443" t="s">
+        <v>98</v>
+      </c>
+      <c r="D443" t="s">
+        <v>51</v>
+      </c>
+      <c r="E443" t="s">
+        <v>153</v>
+      </c>
+      <c r="F443" t="s">
+        <v>84</v>
+      </c>
+      <c r="G443" t="s">
+        <v>53</v>
+      </c>
+      <c r="H443" t="s">
+        <v>65</v>
+      </c>
+      <c r="I443" t="s">
+        <v>64</v>
+      </c>
+      <c r="J443" t="s">
+        <v>60</v>
+      </c>
+      <c r="K443" t="s">
+        <v>64</v>
+      </c>
+      <c r="L443" t="s">
+        <v>64</v>
+      </c>
+      <c r="M443" t="s">
+        <v>64</v>
+      </c>
+      <c r="N443" t="s">
+        <v>60</v>
+      </c>
+      <c r="O443" t="s">
+        <v>63</v>
+      </c>
+      <c r="P443" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q443" t="s">
+        <v>64</v>
+      </c>
+      <c r="R443" t="s">
+        <v>62</v>
+      </c>
+      <c r="S443" t="s">
+        <v>63</v>
+      </c>
+      <c r="T443" t="s">
+        <v>63</v>
+      </c>
+      <c r="U443" t="s">
+        <v>64</v>
+      </c>
+      <c r="V443" t="s">
+        <v>64</v>
+      </c>
+      <c r="W443" t="s">
+        <v>64</v>
+      </c>
+      <c r="X443" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y443" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z443" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA443" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB443" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC443" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD443" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE443" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF443" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG443" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH443" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI443" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ443" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK443" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL443" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM443" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN443" t="s">
+        <v>184</v>
+      </c>
+      <c r="AO443" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP443" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ443" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR443" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS443" t="s">
+        <v>155</v>
+      </c>
+      <c r="AT443" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU443" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV443" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW443" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX443" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="444" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A444" t="s">
+        <v>49</v>
+      </c>
+      <c r="B444" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C444" t="s">
+        <v>98</v>
+      </c>
+      <c r="D444" t="s">
+        <v>51</v>
+      </c>
+      <c r="E444" t="s">
+        <v>156</v>
+      </c>
+      <c r="F444" t="s">
+        <v>108</v>
+      </c>
+      <c r="G444" t="s">
+        <v>53</v>
+      </c>
+      <c r="H444" t="s">
+        <v>65</v>
+      </c>
+      <c r="I444" t="s">
+        <v>64</v>
+      </c>
+      <c r="J444" t="s">
+        <v>62</v>
+      </c>
+      <c r="K444" t="s">
+        <v>60</v>
+      </c>
+      <c r="L444" t="s">
+        <v>64</v>
+      </c>
+      <c r="M444" t="s">
+        <v>64</v>
+      </c>
+      <c r="N444" t="s">
+        <v>64</v>
+      </c>
+      <c r="O444" t="s">
+        <v>60</v>
+      </c>
+      <c r="P444" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q444" t="s">
+        <v>64</v>
+      </c>
+      <c r="R444" t="s">
+        <v>64</v>
+      </c>
+      <c r="S444" t="s">
+        <v>60</v>
+      </c>
+      <c r="T444" t="s">
+        <v>64</v>
+      </c>
+      <c r="U444" t="s">
+        <v>64</v>
+      </c>
+      <c r="V444" t="s">
+        <v>64</v>
+      </c>
+      <c r="W444" t="s">
+        <v>64</v>
+      </c>
+      <c r="X444" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y444" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z444" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA444" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB444" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC444" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD444" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE444" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF444" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG444" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH444" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI444" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ444" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK444" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL444" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM444" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN444" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO444" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP444" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ444" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR444" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS444" t="s">
+        <v>159</v>
+      </c>
+      <c r="AT444" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU444" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV444" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW444" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX444" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="445" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A445" t="s">
+        <v>49</v>
+      </c>
+      <c r="B445" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C445" t="s">
+        <v>98</v>
+      </c>
+      <c r="D445" t="s">
+        <v>51</v>
+      </c>
+      <c r="E445" t="s">
+        <v>141</v>
+      </c>
+      <c r="F445" t="s">
+        <v>84</v>
+      </c>
+      <c r="G445" t="s">
+        <v>53</v>
+      </c>
+      <c r="H445" t="s">
+        <v>540</v>
+      </c>
+      <c r="I445" t="s">
+        <v>63</v>
+      </c>
+      <c r="J445" t="s">
+        <v>60</v>
+      </c>
+      <c r="K445" t="s">
+        <v>62</v>
+      </c>
+      <c r="L445" t="s">
+        <v>64</v>
+      </c>
+      <c r="M445" t="s">
+        <v>64</v>
+      </c>
+      <c r="N445" t="s">
+        <v>64</v>
+      </c>
+      <c r="O445" t="s">
+        <v>64</v>
+      </c>
+      <c r="P445" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q445" t="s">
+        <v>64</v>
+      </c>
+      <c r="R445" t="s">
+        <v>64</v>
+      </c>
+      <c r="S445" t="s">
+        <v>60</v>
+      </c>
+      <c r="T445" t="s">
+        <v>64</v>
+      </c>
+      <c r="U445" t="s">
+        <v>60</v>
+      </c>
+      <c r="V445" t="s">
+        <v>60</v>
+      </c>
+      <c r="W445" t="s">
+        <v>63</v>
+      </c>
+      <c r="X445" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y445" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z445" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA445" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB445" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC445" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD445" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE445" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF445" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG445" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH445" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI445" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ445" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK445" t="s">
+        <v>88</v>
+      </c>
+      <c r="AL445" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM445" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN445" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO445" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP445" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ445" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR445" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS445" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT445" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU445" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV445" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW445" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX445" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="446" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A446" t="s">
+        <v>49</v>
+      </c>
+      <c r="B446" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C446" t="s">
+        <v>98</v>
+      </c>
+      <c r="D446" t="s">
+        <v>51</v>
+      </c>
+      <c r="E446" t="s">
+        <v>167</v>
+      </c>
+      <c r="F446" t="s">
+        <v>108</v>
+      </c>
+      <c r="G446" t="s">
+        <v>53</v>
+      </c>
+      <c r="H446" t="s">
+        <v>224</v>
+      </c>
+      <c r="I446" t="s">
+        <v>64</v>
+      </c>
+      <c r="J446" t="s">
+        <v>55</v>
+      </c>
+      <c r="K446" t="s">
+        <v>63</v>
+      </c>
+      <c r="L446" t="s">
+        <v>60</v>
+      </c>
+      <c r="M446" t="s">
+        <v>60</v>
+      </c>
+      <c r="N446" t="s">
+        <v>62</v>
+      </c>
+      <c r="O446" t="s">
+        <v>63</v>
+      </c>
+      <c r="P446" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q446" t="s">
+        <v>63</v>
+      </c>
+      <c r="R446" t="s">
+        <v>64</v>
+      </c>
+      <c r="S446" t="s">
+        <v>60</v>
+      </c>
+      <c r="T446" t="s">
+        <v>64</v>
+      </c>
+      <c r="U446" t="s">
+        <v>60</v>
+      </c>
+      <c r="V446" t="s">
+        <v>64</v>
+      </c>
+      <c r="W446" t="s">
+        <v>64</v>
+      </c>
+      <c r="X446" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y446" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z446" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA446" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB446" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC446" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD446" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE446" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF446" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG446" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH446" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI446" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ446" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK446" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL446" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM446" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN446" t="s">
+        <v>292</v>
+      </c>
+      <c r="AO446" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP446" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ446" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR446" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS446" t="s">
+        <v>170</v>
+      </c>
+      <c r="AT446" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU446" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV446" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW446" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX446" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="447" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A447" t="s">
+        <v>49</v>
+      </c>
+      <c r="B447" s="1">
+        <v>44695</v>
+      </c>
+      <c r="C447" t="s">
+        <v>98</v>
+      </c>
+      <c r="D447" t="s">
+        <v>51</v>
+      </c>
+      <c r="E447" t="s">
+        <v>137</v>
+      </c>
+      <c r="F447" t="s">
+        <v>84</v>
+      </c>
+      <c r="G447" t="s">
+        <v>53</v>
+      </c>
+      <c r="H447" t="s">
+        <v>217</v>
+      </c>
+      <c r="I447" t="s">
+        <v>64</v>
+      </c>
+      <c r="J447" t="s">
+        <v>64</v>
+      </c>
+      <c r="K447" t="s">
+        <v>64</v>
+      </c>
+      <c r="L447" t="s">
+        <v>64</v>
+      </c>
+      <c r="M447" t="s">
+        <v>64</v>
+      </c>
+      <c r="N447" t="s">
+        <v>64</v>
+      </c>
+      <c r="O447" t="s">
+        <v>64</v>
+      </c>
+      <c r="P447" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q447" t="s">
+        <v>60</v>
+      </c>
+      <c r="R447" t="s">
+        <v>64</v>
+      </c>
+      <c r="S447" t="s">
+        <v>64</v>
+      </c>
+      <c r="T447" t="s">
+        <v>64</v>
+      </c>
+      <c r="U447" t="s">
+        <v>64</v>
+      </c>
+      <c r="V447" t="s">
+        <v>64</v>
+      </c>
+      <c r="W447" t="s">
+        <v>64</v>
+      </c>
+      <c r="X447" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y447" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z447" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA447" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB447" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC447" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD447" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE447" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF447" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG447" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH447" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI447" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ447" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK447" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL447" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM447" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN447" t="s">
+        <v>80</v>
+      </c>
+      <c r="AO447" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP447" s="1">
+        <v>44697</v>
+      </c>
+      <c r="AQ447" t="s">
+        <v>525</v>
+      </c>
+      <c r="AR447" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS447" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT447" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU447" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV447" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW447" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX447" t="s">
+        <v>525</v>
       </c>
     </row>
   </sheetData>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375F9D7D-3F28-C041-9959-385A3B3783AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF97F3E4-B1FE-F548-BCC0-487E2482D7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26204" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27496" uniqueCount="632">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1855,13 +1855,73 @@
     <t>PINARES CRA 16 BIS 8-24 ED OK</t>
   </si>
   <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>471</t>
+  </si>
+  <si>
+    <t>800065396</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>293</t>
+  </si>
+  <si>
+    <t>292</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>877</t>
+  </si>
+  <si>
+    <t>878</t>
+  </si>
+  <si>
+    <t>1157</t>
+  </si>
+  <si>
+    <t>CUBA</t>
+  </si>
+  <si>
+    <t>1158</t>
+  </si>
+  <si>
+    <t>1137</t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>CRA 17 BIS  8-24 EDIFICIO OKO</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2272,8 +2332,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AX547"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AX574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2292,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -85260,6 +85320,4098 @@
         <v>76</v>
       </c>
       <c r="AX547" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="548" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A548" t="s">
+        <v>49</v>
+      </c>
+      <c r="B548" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C548" t="s">
+        <v>144</v>
+      </c>
+      <c r="D548" t="s">
+        <v>51</v>
+      </c>
+      <c r="E548" t="s">
+        <v>79</v>
+      </c>
+      <c r="F548" t="s">
+        <v>80</v>
+      </c>
+      <c r="G548" t="s">
+        <v>53</v>
+      </c>
+      <c r="H548" t="s">
+        <v>65</v>
+      </c>
+      <c r="I548" t="s">
+        <v>64</v>
+      </c>
+      <c r="J548" t="s">
+        <v>64</v>
+      </c>
+      <c r="K548" t="s">
+        <v>64</v>
+      </c>
+      <c r="L548" t="s">
+        <v>64</v>
+      </c>
+      <c r="M548" t="s">
+        <v>60</v>
+      </c>
+      <c r="N548" t="s">
+        <v>64</v>
+      </c>
+      <c r="O548" t="s">
+        <v>64</v>
+      </c>
+      <c r="P548" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q548" t="s">
+        <v>60</v>
+      </c>
+      <c r="R548" t="s">
+        <v>64</v>
+      </c>
+      <c r="S548" t="s">
+        <v>64</v>
+      </c>
+      <c r="T548" t="s">
+        <v>63</v>
+      </c>
+      <c r="U548" t="s">
+        <v>64</v>
+      </c>
+      <c r="V548" t="s">
+        <v>64</v>
+      </c>
+      <c r="W548" t="s">
+        <v>64</v>
+      </c>
+      <c r="X548" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y548" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z548" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA548" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB548" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC548" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD548" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE548" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF548" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG548" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH548" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI548" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ548" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK548" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL548" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM548" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN548" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO548" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP548" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ548" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR548" t="s">
+        <v>83</v>
+      </c>
+      <c r="AS548" t="s">
+        <v>84</v>
+      </c>
+      <c r="AT548" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU548" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV548" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW548" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX548" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="549" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A549" t="s">
+        <v>49</v>
+      </c>
+      <c r="B549" s="1">
+        <v>44728</v>
+      </c>
+      <c r="C549" t="s">
+        <v>144</v>
+      </c>
+      <c r="D549" t="s">
+        <v>51</v>
+      </c>
+      <c r="E549" t="s">
+        <v>161</v>
+      </c>
+      <c r="F549" t="s">
+        <v>85</v>
+      </c>
+      <c r="G549" t="s">
+        <v>53</v>
+      </c>
+      <c r="H549" t="s">
+        <v>230</v>
+      </c>
+      <c r="I549" t="s">
+        <v>63</v>
+      </c>
+      <c r="J549" t="s">
+        <v>226</v>
+      </c>
+      <c r="K549" t="s">
+        <v>226</v>
+      </c>
+      <c r="L549" t="s">
+        <v>213</v>
+      </c>
+      <c r="M549" t="s">
+        <v>60</v>
+      </c>
+      <c r="N549" t="s">
+        <v>77</v>
+      </c>
+      <c r="O549" t="s">
+        <v>59</v>
+      </c>
+      <c r="P549" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q549" t="s">
+        <v>111</v>
+      </c>
+      <c r="R549" t="s">
+        <v>58</v>
+      </c>
+      <c r="S549" t="s">
+        <v>61</v>
+      </c>
+      <c r="T549" t="s">
+        <v>62</v>
+      </c>
+      <c r="U549" t="s">
+        <v>63</v>
+      </c>
+      <c r="V549" t="s">
+        <v>115</v>
+      </c>
+      <c r="W549" t="s">
+        <v>58</v>
+      </c>
+      <c r="X549" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y549" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z549" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA549" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB549" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC549" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD549" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE549" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF549" t="s">
+        <v>324</v>
+      </c>
+      <c r="AG549" t="s">
+        <v>612</v>
+      </c>
+      <c r="AH549" t="s">
+        <v>611</v>
+      </c>
+      <c r="AI549" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ549" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK549" t="s">
+        <v>611</v>
+      </c>
+      <c r="AL549" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM549" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN549" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO549" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP549" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ549" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR549" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS549" t="s">
+        <v>167</v>
+      </c>
+      <c r="AT549" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU549" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV549" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW549" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX549" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="550" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A550" t="s">
+        <v>49</v>
+      </c>
+      <c r="B550" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C550" t="s">
+        <v>144</v>
+      </c>
+      <c r="D550" t="s">
+        <v>51</v>
+      </c>
+      <c r="E550" t="s">
+        <v>52</v>
+      </c>
+      <c r="F550" t="s">
+        <v>85</v>
+      </c>
+      <c r="G550" t="s">
+        <v>53</v>
+      </c>
+      <c r="H550" t="s">
+        <v>613</v>
+      </c>
+      <c r="I550" t="s">
+        <v>192</v>
+      </c>
+      <c r="J550" t="s">
+        <v>60</v>
+      </c>
+      <c r="K550" t="s">
+        <v>60</v>
+      </c>
+      <c r="L550" t="s">
+        <v>64</v>
+      </c>
+      <c r="M550" t="s">
+        <v>55</v>
+      </c>
+      <c r="N550" t="s">
+        <v>55</v>
+      </c>
+      <c r="O550" t="s">
+        <v>63</v>
+      </c>
+      <c r="P550" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q550" t="s">
+        <v>58</v>
+      </c>
+      <c r="R550" t="s">
+        <v>63</v>
+      </c>
+      <c r="S550" t="s">
+        <v>63</v>
+      </c>
+      <c r="T550" t="s">
+        <v>62</v>
+      </c>
+      <c r="U550" t="s">
+        <v>63</v>
+      </c>
+      <c r="V550" t="s">
+        <v>60</v>
+      </c>
+      <c r="W550" t="s">
+        <v>64</v>
+      </c>
+      <c r="X550" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y550" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z550" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA550" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB550" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC550" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD550" t="s">
+        <v>237</v>
+      </c>
+      <c r="AE550" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF550" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG550" t="s">
+        <v>233</v>
+      </c>
+      <c r="AH550" t="s">
+        <v>237</v>
+      </c>
+      <c r="AI550" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ550" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK550" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL550" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM550" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN550" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO550" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP550" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ550" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR550" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS550" t="s">
+        <v>90</v>
+      </c>
+      <c r="AT550" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU550" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV550" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW550" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX550" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="551" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A551" t="s">
+        <v>49</v>
+      </c>
+      <c r="B551" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C551" t="s">
+        <v>144</v>
+      </c>
+      <c r="D551" t="s">
+        <v>51</v>
+      </c>
+      <c r="E551" t="s">
+        <v>52</v>
+      </c>
+      <c r="F551" t="s">
+        <v>91</v>
+      </c>
+      <c r="G551" t="s">
+        <v>53</v>
+      </c>
+      <c r="H551" t="s">
+        <v>614</v>
+      </c>
+      <c r="I551" t="s">
+        <v>64</v>
+      </c>
+      <c r="J551" t="s">
+        <v>60</v>
+      </c>
+      <c r="K551" t="s">
+        <v>60</v>
+      </c>
+      <c r="L551" t="s">
+        <v>64</v>
+      </c>
+      <c r="M551" t="s">
+        <v>64</v>
+      </c>
+      <c r="N551" t="s">
+        <v>64</v>
+      </c>
+      <c r="O551" t="s">
+        <v>55</v>
+      </c>
+      <c r="P551" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q551" t="s">
+        <v>64</v>
+      </c>
+      <c r="R551" t="s">
+        <v>64</v>
+      </c>
+      <c r="S551" t="s">
+        <v>55</v>
+      </c>
+      <c r="T551" t="s">
+        <v>60</v>
+      </c>
+      <c r="U551" t="s">
+        <v>64</v>
+      </c>
+      <c r="V551" t="s">
+        <v>64</v>
+      </c>
+      <c r="W551" t="s">
+        <v>64</v>
+      </c>
+      <c r="X551" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y551" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z551" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA551" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB551" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC551" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD551" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE551" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF551" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG551" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH551" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI551" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ551" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK551" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL551" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM551" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN551" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO551" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP551" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ551" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR551" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS551" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT551" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU551" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV551" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW551" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX551" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="552" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A552" t="s">
+        <v>49</v>
+      </c>
+      <c r="B552" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C552" t="s">
+        <v>144</v>
+      </c>
+      <c r="D552" t="s">
+        <v>51</v>
+      </c>
+      <c r="E552" t="s">
+        <v>52</v>
+      </c>
+      <c r="F552" t="s">
+        <v>50</v>
+      </c>
+      <c r="G552" t="s">
+        <v>53</v>
+      </c>
+      <c r="H552" t="s">
+        <v>615</v>
+      </c>
+      <c r="I552" t="s">
+        <v>62</v>
+      </c>
+      <c r="J552" t="s">
+        <v>62</v>
+      </c>
+      <c r="K552" t="s">
+        <v>58</v>
+      </c>
+      <c r="L552" t="s">
+        <v>60</v>
+      </c>
+      <c r="M552" t="s">
+        <v>63</v>
+      </c>
+      <c r="N552" t="s">
+        <v>64</v>
+      </c>
+      <c r="O552" t="s">
+        <v>63</v>
+      </c>
+      <c r="P552" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q552" t="s">
+        <v>62</v>
+      </c>
+      <c r="R552" t="s">
+        <v>64</v>
+      </c>
+      <c r="S552" t="s">
+        <v>60</v>
+      </c>
+      <c r="T552" t="s">
+        <v>63</v>
+      </c>
+      <c r="U552" t="s">
+        <v>60</v>
+      </c>
+      <c r="V552" t="s">
+        <v>60</v>
+      </c>
+      <c r="W552" t="s">
+        <v>64</v>
+      </c>
+      <c r="X552" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y552" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z552" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA552" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB552" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC552" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD552" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE552" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF552" t="s">
+        <v>213</v>
+      </c>
+      <c r="AG552" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH552" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI552" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ552" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK552" t="s">
+        <v>206</v>
+      </c>
+      <c r="AL552" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM552" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN552" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO552" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP552" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ552" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR552" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS552" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT552" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU552" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV552" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW552" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX552" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="553" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A553" t="s">
+        <v>49</v>
+      </c>
+      <c r="B553" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C553" t="s">
+        <v>57</v>
+      </c>
+      <c r="D553" t="s">
+        <v>51</v>
+      </c>
+      <c r="E553" t="s">
+        <v>97</v>
+      </c>
+      <c r="F553" t="s">
+        <v>98</v>
+      </c>
+      <c r="G553" t="s">
+        <v>53</v>
+      </c>
+      <c r="H553" t="s">
+        <v>616</v>
+      </c>
+      <c r="I553" t="s">
+        <v>64</v>
+      </c>
+      <c r="J553" t="s">
+        <v>63</v>
+      </c>
+      <c r="K553" t="s">
+        <v>63</v>
+      </c>
+      <c r="L553" t="s">
+        <v>64</v>
+      </c>
+      <c r="M553" t="s">
+        <v>64</v>
+      </c>
+      <c r="N553" t="s">
+        <v>64</v>
+      </c>
+      <c r="O553" t="s">
+        <v>63</v>
+      </c>
+      <c r="P553" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q553" t="s">
+        <v>60</v>
+      </c>
+      <c r="R553" t="s">
+        <v>55</v>
+      </c>
+      <c r="S553" t="s">
+        <v>64</v>
+      </c>
+      <c r="T553" t="s">
+        <v>60</v>
+      </c>
+      <c r="U553" t="s">
+        <v>64</v>
+      </c>
+      <c r="V553" t="s">
+        <v>64</v>
+      </c>
+      <c r="W553" t="s">
+        <v>64</v>
+      </c>
+      <c r="X553" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y553" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z553" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA553" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB553" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC553" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD553" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE553" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF553" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG553" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH553" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI553" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ553" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK553" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL553" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM553" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN553" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO553" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP553" s="1">
+        <v>44653</v>
+      </c>
+      <c r="AQ553" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR553" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS553" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT553" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU553" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV553" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW553" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX553" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="554" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A554" t="s">
+        <v>49</v>
+      </c>
+      <c r="B554" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C554" t="s">
+        <v>144</v>
+      </c>
+      <c r="D554" t="s">
+        <v>51</v>
+      </c>
+      <c r="E554" t="s">
+        <v>129</v>
+      </c>
+      <c r="F554" t="s">
+        <v>85</v>
+      </c>
+      <c r="G554" t="s">
+        <v>53</v>
+      </c>
+      <c r="H554" t="s">
+        <v>617</v>
+      </c>
+      <c r="I554" t="s">
+        <v>64</v>
+      </c>
+      <c r="J554" t="s">
+        <v>60</v>
+      </c>
+      <c r="K554" t="s">
+        <v>64</v>
+      </c>
+      <c r="L554" t="s">
+        <v>64</v>
+      </c>
+      <c r="M554" t="s">
+        <v>64</v>
+      </c>
+      <c r="N554" t="s">
+        <v>64</v>
+      </c>
+      <c r="O554" t="s">
+        <v>64</v>
+      </c>
+      <c r="P554" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q554" t="s">
+        <v>64</v>
+      </c>
+      <c r="R554" t="s">
+        <v>63</v>
+      </c>
+      <c r="S554" t="s">
+        <v>64</v>
+      </c>
+      <c r="T554" t="s">
+        <v>64</v>
+      </c>
+      <c r="U554" t="s">
+        <v>60</v>
+      </c>
+      <c r="V554" t="s">
+        <v>64</v>
+      </c>
+      <c r="W554" t="s">
+        <v>64</v>
+      </c>
+      <c r="X554" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y554" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z554" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA554" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB554" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC554" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD554" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE554" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF554" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG554" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH554" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI554" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ554" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK554" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL554" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM554" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN554" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO554" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP554" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ554" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR554" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS554" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT554" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU554" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV554" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW554" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX554" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="555" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A555" t="s">
+        <v>49</v>
+      </c>
+      <c r="B555" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C555" t="s">
+        <v>144</v>
+      </c>
+      <c r="D555" t="s">
+        <v>51</v>
+      </c>
+      <c r="E555" t="s">
+        <v>133</v>
+      </c>
+      <c r="F555" t="s">
+        <v>109</v>
+      </c>
+      <c r="G555" t="s">
+        <v>53</v>
+      </c>
+      <c r="H555" t="s">
+        <v>65</v>
+      </c>
+      <c r="I555" t="s">
+        <v>64</v>
+      </c>
+      <c r="J555" t="s">
+        <v>64</v>
+      </c>
+      <c r="K555" t="s">
+        <v>60</v>
+      </c>
+      <c r="L555" t="s">
+        <v>64</v>
+      </c>
+      <c r="M555" t="s">
+        <v>64</v>
+      </c>
+      <c r="N555" t="s">
+        <v>64</v>
+      </c>
+      <c r="O555" t="s">
+        <v>64</v>
+      </c>
+      <c r="P555" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q555" t="s">
+        <v>64</v>
+      </c>
+      <c r="R555" t="s">
+        <v>64</v>
+      </c>
+      <c r="S555" t="s">
+        <v>64</v>
+      </c>
+      <c r="T555" t="s">
+        <v>64</v>
+      </c>
+      <c r="U555" t="s">
+        <v>64</v>
+      </c>
+      <c r="V555" t="s">
+        <v>64</v>
+      </c>
+      <c r="W555" t="s">
+        <v>64</v>
+      </c>
+      <c r="X555" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y555" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z555" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA555" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB555" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC555" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD555" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE555" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF555" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG555" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH555" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI555" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ555" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK555" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL555" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM555" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN555" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO555" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP555" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ555" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR555" t="s">
+        <v>618</v>
+      </c>
+      <c r="AS555" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT555" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU555" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV555" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW555" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX555" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="556" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A556" t="s">
+        <v>49</v>
+      </c>
+      <c r="B556" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C556" t="s">
+        <v>144</v>
+      </c>
+      <c r="D556" t="s">
+        <v>51</v>
+      </c>
+      <c r="E556" t="s">
+        <v>148</v>
+      </c>
+      <c r="F556" t="s">
+        <v>85</v>
+      </c>
+      <c r="G556" t="s">
+        <v>53</v>
+      </c>
+      <c r="H556" t="s">
+        <v>619</v>
+      </c>
+      <c r="I556" t="s">
+        <v>64</v>
+      </c>
+      <c r="J556" t="s">
+        <v>62</v>
+      </c>
+      <c r="K556" t="s">
+        <v>60</v>
+      </c>
+      <c r="L556" t="s">
+        <v>60</v>
+      </c>
+      <c r="M556" t="s">
+        <v>64</v>
+      </c>
+      <c r="N556" t="s">
+        <v>64</v>
+      </c>
+      <c r="O556" t="s">
+        <v>58</v>
+      </c>
+      <c r="P556" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q556" t="s">
+        <v>60</v>
+      </c>
+      <c r="R556" t="s">
+        <v>63</v>
+      </c>
+      <c r="S556" t="s">
+        <v>60</v>
+      </c>
+      <c r="T556" t="s">
+        <v>64</v>
+      </c>
+      <c r="U556" t="s">
+        <v>64</v>
+      </c>
+      <c r="V556" t="s">
+        <v>64</v>
+      </c>
+      <c r="W556" t="s">
+        <v>64</v>
+      </c>
+      <c r="X556" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y556" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z556" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA556" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB556" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC556" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD556" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE556" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF556" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG556" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH556" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI556" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ556" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK556" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL556" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM556" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN556" t="s">
+        <v>151</v>
+      </c>
+      <c r="AO556" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP556" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ556" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR556" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS556" t="s">
+        <v>153</v>
+      </c>
+      <c r="AT556" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU556" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV556" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW556" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX556" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="557" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A557" t="s">
+        <v>49</v>
+      </c>
+      <c r="B557" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C557" t="s">
+        <v>144</v>
+      </c>
+      <c r="D557" t="s">
+        <v>51</v>
+      </c>
+      <c r="E557" t="s">
+        <v>157</v>
+      </c>
+      <c r="F557" t="s">
+        <v>109</v>
+      </c>
+      <c r="G557" t="s">
+        <v>53</v>
+      </c>
+      <c r="H557" t="s">
+        <v>65</v>
+      </c>
+      <c r="I557" t="s">
+        <v>64</v>
+      </c>
+      <c r="J557" t="s">
+        <v>60</v>
+      </c>
+      <c r="K557" t="s">
+        <v>64</v>
+      </c>
+      <c r="L557" t="s">
+        <v>60</v>
+      </c>
+      <c r="M557" t="s">
+        <v>64</v>
+      </c>
+      <c r="N557" t="s">
+        <v>60</v>
+      </c>
+      <c r="O557" t="s">
+        <v>60</v>
+      </c>
+      <c r="P557" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q557" t="s">
+        <v>60</v>
+      </c>
+      <c r="R557" t="s">
+        <v>60</v>
+      </c>
+      <c r="S557" t="s">
+        <v>60</v>
+      </c>
+      <c r="T557" t="s">
+        <v>64</v>
+      </c>
+      <c r="U557" t="s">
+        <v>64</v>
+      </c>
+      <c r="V557" t="s">
+        <v>64</v>
+      </c>
+      <c r="W557" t="s">
+        <v>64</v>
+      </c>
+      <c r="X557" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y557" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z557" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA557" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB557" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC557" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD557" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE557" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF557" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG557" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH557" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI557" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ557" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK557" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL557" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM557" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN557" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO557" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP557" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ557" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR557" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS557" t="s">
+        <v>160</v>
+      </c>
+      <c r="AT557" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU557" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV557" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW557" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX557" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="558" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A558" t="s">
+        <v>49</v>
+      </c>
+      <c r="B558" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C558" t="s">
+        <v>144</v>
+      </c>
+      <c r="D558" t="s">
+        <v>51</v>
+      </c>
+      <c r="E558" t="s">
+        <v>168</v>
+      </c>
+      <c r="F558" t="s">
+        <v>85</v>
+      </c>
+      <c r="G558" t="s">
+        <v>53</v>
+      </c>
+      <c r="H558" t="s">
+        <v>65</v>
+      </c>
+      <c r="I558" t="s">
+        <v>64</v>
+      </c>
+      <c r="J558" t="s">
+        <v>60</v>
+      </c>
+      <c r="K558" t="s">
+        <v>64</v>
+      </c>
+      <c r="L558" t="s">
+        <v>64</v>
+      </c>
+      <c r="M558" t="s">
+        <v>60</v>
+      </c>
+      <c r="N558" t="s">
+        <v>55</v>
+      </c>
+      <c r="O558" t="s">
+        <v>62</v>
+      </c>
+      <c r="P558" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q558" t="s">
+        <v>60</v>
+      </c>
+      <c r="R558" t="s">
+        <v>60</v>
+      </c>
+      <c r="S558" t="s">
+        <v>60</v>
+      </c>
+      <c r="T558" t="s">
+        <v>63</v>
+      </c>
+      <c r="U558" t="s">
+        <v>60</v>
+      </c>
+      <c r="V558" t="s">
+        <v>64</v>
+      </c>
+      <c r="W558" t="s">
+        <v>64</v>
+      </c>
+      <c r="X558" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y558" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z558" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA558" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB558" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC558" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD558" t="s">
+        <v>135</v>
+      </c>
+      <c r="AE558" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF558" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG558" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH558" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI558" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ558" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK558" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL558" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM558" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN558" t="s">
+        <v>415</v>
+      </c>
+      <c r="AO558" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP558" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ558" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR558" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS558" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT558" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU558" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV558" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW558" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX558" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="559" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A559" t="s">
+        <v>49</v>
+      </c>
+      <c r="B559" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C559" t="s">
+        <v>144</v>
+      </c>
+      <c r="D559" t="s">
+        <v>51</v>
+      </c>
+      <c r="E559" t="s">
+        <v>97</v>
+      </c>
+      <c r="F559" t="s">
+        <v>85</v>
+      </c>
+      <c r="G559" t="s">
+        <v>53</v>
+      </c>
+      <c r="H559" t="s">
+        <v>620</v>
+      </c>
+      <c r="I559" t="s">
+        <v>64</v>
+      </c>
+      <c r="J559" t="s">
+        <v>60</v>
+      </c>
+      <c r="K559" t="s">
+        <v>60</v>
+      </c>
+      <c r="L559" t="s">
+        <v>64</v>
+      </c>
+      <c r="M559" t="s">
+        <v>60</v>
+      </c>
+      <c r="N559" t="s">
+        <v>60</v>
+      </c>
+      <c r="O559" t="s">
+        <v>63</v>
+      </c>
+      <c r="P559" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q559" t="s">
+        <v>63</v>
+      </c>
+      <c r="R559" t="s">
+        <v>60</v>
+      </c>
+      <c r="S559" t="s">
+        <v>64</v>
+      </c>
+      <c r="T559" t="s">
+        <v>60</v>
+      </c>
+      <c r="U559" t="s">
+        <v>63</v>
+      </c>
+      <c r="V559" t="s">
+        <v>64</v>
+      </c>
+      <c r="W559" t="s">
+        <v>64</v>
+      </c>
+      <c r="X559" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y559" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z559" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA559" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB559" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC559" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD559" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE559" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF559" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG559" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH559" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI559" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ559" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK559" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL559" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM559" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN559" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO559" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP559" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ559" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR559" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS559" t="s">
+        <v>190</v>
+      </c>
+      <c r="AT559" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU559" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV559" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW559" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX559" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="560" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A560" t="s">
+        <v>49</v>
+      </c>
+      <c r="B560" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C560" t="s">
+        <v>144</v>
+      </c>
+      <c r="D560" t="s">
+        <v>51</v>
+      </c>
+      <c r="E560" t="s">
+        <v>97</v>
+      </c>
+      <c r="F560" t="s">
+        <v>98</v>
+      </c>
+      <c r="G560" t="s">
+        <v>53</v>
+      </c>
+      <c r="H560" t="s">
+        <v>621</v>
+      </c>
+      <c r="I560" t="s">
+        <v>60</v>
+      </c>
+      <c r="J560" t="s">
+        <v>60</v>
+      </c>
+      <c r="K560" t="s">
+        <v>60</v>
+      </c>
+      <c r="L560" t="s">
+        <v>63</v>
+      </c>
+      <c r="M560" t="s">
+        <v>64</v>
+      </c>
+      <c r="N560" t="s">
+        <v>58</v>
+      </c>
+      <c r="O560" t="s">
+        <v>55</v>
+      </c>
+      <c r="P560" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q560" t="s">
+        <v>62</v>
+      </c>
+      <c r="R560" t="s">
+        <v>64</v>
+      </c>
+      <c r="S560" t="s">
+        <v>63</v>
+      </c>
+      <c r="T560" t="s">
+        <v>63</v>
+      </c>
+      <c r="U560" t="s">
+        <v>60</v>
+      </c>
+      <c r="V560" t="s">
+        <v>64</v>
+      </c>
+      <c r="W560" t="s">
+        <v>64</v>
+      </c>
+      <c r="X560" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y560" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z560" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA560" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB560" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC560" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD560" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE560" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF560" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG560" t="s">
+        <v>213</v>
+      </c>
+      <c r="AH560" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI560" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ560" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK560" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL560" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM560" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN560" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO560" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP560" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ560" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR560" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS560" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT560" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU560" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV560" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW560" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX560" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="561" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A561" t="s">
+        <v>49</v>
+      </c>
+      <c r="B561" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C561" t="s">
+        <v>144</v>
+      </c>
+      <c r="D561" t="s">
+        <v>51</v>
+      </c>
+      <c r="E561" t="s">
+        <v>97</v>
+      </c>
+      <c r="F561" t="s">
+        <v>265</v>
+      </c>
+      <c r="G561" t="s">
+        <v>53</v>
+      </c>
+      <c r="H561" t="s">
+        <v>50</v>
+      </c>
+      <c r="I561" t="s">
+        <v>64</v>
+      </c>
+      <c r="J561" t="s">
+        <v>64</v>
+      </c>
+      <c r="K561" t="s">
+        <v>60</v>
+      </c>
+      <c r="L561" t="s">
+        <v>60</v>
+      </c>
+      <c r="M561" t="s">
+        <v>62</v>
+      </c>
+      <c r="N561" t="s">
+        <v>55</v>
+      </c>
+      <c r="O561" t="s">
+        <v>62</v>
+      </c>
+      <c r="P561" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q561" t="s">
+        <v>64</v>
+      </c>
+      <c r="R561" t="s">
+        <v>64</v>
+      </c>
+      <c r="S561" t="s">
+        <v>63</v>
+      </c>
+      <c r="T561" t="s">
+        <v>64</v>
+      </c>
+      <c r="U561" t="s">
+        <v>64</v>
+      </c>
+      <c r="V561" t="s">
+        <v>64</v>
+      </c>
+      <c r="W561" t="s">
+        <v>64</v>
+      </c>
+      <c r="X561" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y561" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z561" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA561" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB561" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC561" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD561" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE561" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF561" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG561" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH561" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI561" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ561" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK561" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL561" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM561" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN561" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO561" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP561" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ561" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR561" t="s">
+        <v>101</v>
+      </c>
+      <c r="AS561" t="s">
+        <v>428</v>
+      </c>
+      <c r="AT561" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU561" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV561" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW561" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX561" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="562" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A562" t="s">
+        <v>49</v>
+      </c>
+      <c r="B562" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C562" t="s">
+        <v>144</v>
+      </c>
+      <c r="D562" t="s">
+        <v>51</v>
+      </c>
+      <c r="E562" t="s">
+        <v>133</v>
+      </c>
+      <c r="F562" t="s">
+        <v>121</v>
+      </c>
+      <c r="G562" t="s">
+        <v>53</v>
+      </c>
+      <c r="H562" t="s">
+        <v>622</v>
+      </c>
+      <c r="I562" t="s">
+        <v>64</v>
+      </c>
+      <c r="J562" t="s">
+        <v>64</v>
+      </c>
+      <c r="K562" t="s">
+        <v>60</v>
+      </c>
+      <c r="L562" t="s">
+        <v>64</v>
+      </c>
+      <c r="M562" t="s">
+        <v>64</v>
+      </c>
+      <c r="N562" t="s">
+        <v>62</v>
+      </c>
+      <c r="O562" t="s">
+        <v>59</v>
+      </c>
+      <c r="P562" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q562" t="s">
+        <v>63</v>
+      </c>
+      <c r="R562" t="s">
+        <v>63</v>
+      </c>
+      <c r="S562" t="s">
+        <v>64</v>
+      </c>
+      <c r="T562" t="s">
+        <v>60</v>
+      </c>
+      <c r="U562" t="s">
+        <v>60</v>
+      </c>
+      <c r="V562" t="s">
+        <v>60</v>
+      </c>
+      <c r="W562" t="s">
+        <v>60</v>
+      </c>
+      <c r="X562" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y562" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z562" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA562" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB562" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC562" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD562" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE562" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF562" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG562" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH562" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI562" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ562" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK562" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL562" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM562" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN562" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO562" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP562" s="1">
+        <v>44730</v>
+      </c>
+      <c r="AQ562" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR562" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS562" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT562" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU562" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV562" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW562" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX562" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="563" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A563" t="s">
+        <v>49</v>
+      </c>
+      <c r="B563" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C563" t="s">
+        <v>144</v>
+      </c>
+      <c r="D563" t="s">
+        <v>51</v>
+      </c>
+      <c r="E563" t="s">
+        <v>108</v>
+      </c>
+      <c r="F563" t="s">
+        <v>85</v>
+      </c>
+      <c r="G563" t="s">
+        <v>53</v>
+      </c>
+      <c r="H563" t="s">
+        <v>623</v>
+      </c>
+      <c r="I563" t="s">
+        <v>63</v>
+      </c>
+      <c r="J563" t="s">
+        <v>63</v>
+      </c>
+      <c r="K563" t="s">
+        <v>63</v>
+      </c>
+      <c r="L563" t="s">
+        <v>64</v>
+      </c>
+      <c r="M563" t="s">
+        <v>60</v>
+      </c>
+      <c r="N563" t="s">
+        <v>63</v>
+      </c>
+      <c r="O563" t="s">
+        <v>63</v>
+      </c>
+      <c r="P563" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q563" t="s">
+        <v>64</v>
+      </c>
+      <c r="R563" t="s">
+        <v>64</v>
+      </c>
+      <c r="S563" t="s">
+        <v>62</v>
+      </c>
+      <c r="T563" t="s">
+        <v>60</v>
+      </c>
+      <c r="U563" t="s">
+        <v>60</v>
+      </c>
+      <c r="V563" t="s">
+        <v>60</v>
+      </c>
+      <c r="W563" t="s">
+        <v>64</v>
+      </c>
+      <c r="X563" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y563" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z563" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA563" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB563" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC563" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD563" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE563" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF563" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG563" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH563" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI563" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ563" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK563" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL563" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM563" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN563" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO563" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP563" s="1">
+        <v>44732</v>
+      </c>
+      <c r="AQ563" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR563" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS563" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT563" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU563" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV563" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW563" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX563" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="564" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A564" t="s">
+        <v>49</v>
+      </c>
+      <c r="B564" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C564" t="s">
+        <v>144</v>
+      </c>
+      <c r="D564" t="s">
+        <v>51</v>
+      </c>
+      <c r="E564" t="s">
+        <v>108</v>
+      </c>
+      <c r="F564" t="s">
+        <v>195</v>
+      </c>
+      <c r="G564" t="s">
+        <v>53</v>
+      </c>
+      <c r="H564" t="s">
+        <v>624</v>
+      </c>
+      <c r="I564" t="s">
+        <v>64</v>
+      </c>
+      <c r="J564" t="s">
+        <v>64</v>
+      </c>
+      <c r="K564" t="s">
+        <v>64</v>
+      </c>
+      <c r="L564" t="s">
+        <v>64</v>
+      </c>
+      <c r="M564" t="s">
+        <v>64</v>
+      </c>
+      <c r="N564" t="s">
+        <v>64</v>
+      </c>
+      <c r="O564" t="s">
+        <v>64</v>
+      </c>
+      <c r="P564" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q564" t="s">
+        <v>64</v>
+      </c>
+      <c r="R564" t="s">
+        <v>64</v>
+      </c>
+      <c r="S564" t="s">
+        <v>64</v>
+      </c>
+      <c r="T564" t="s">
+        <v>64</v>
+      </c>
+      <c r="U564" t="s">
+        <v>60</v>
+      </c>
+      <c r="V564" t="s">
+        <v>64</v>
+      </c>
+      <c r="W564" t="s">
+        <v>64</v>
+      </c>
+      <c r="X564" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y564" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z564" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA564" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB564" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC564" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD564" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE564" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF564" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG564" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH564" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI564" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ564" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK564" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL564" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM564" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN564" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO564" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP564" s="1">
+        <v>44732</v>
+      </c>
+      <c r="AQ564" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR564" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS564" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT564" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU564" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV564" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW564" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX564" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="565" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A565" t="s">
+        <v>49</v>
+      </c>
+      <c r="B565" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C565" t="s">
+        <v>144</v>
+      </c>
+      <c r="D565" t="s">
+        <v>51</v>
+      </c>
+      <c r="E565" t="s">
+        <v>108</v>
+      </c>
+      <c r="F565" t="s">
+        <v>109</v>
+      </c>
+      <c r="G565" t="s">
+        <v>53</v>
+      </c>
+      <c r="H565" t="s">
+        <v>625</v>
+      </c>
+      <c r="I565" t="s">
+        <v>60</v>
+      </c>
+      <c r="J565" t="s">
+        <v>59</v>
+      </c>
+      <c r="K565" t="s">
+        <v>63</v>
+      </c>
+      <c r="L565" t="s">
+        <v>60</v>
+      </c>
+      <c r="M565" t="s">
+        <v>64</v>
+      </c>
+      <c r="N565" t="s">
+        <v>60</v>
+      </c>
+      <c r="O565" t="s">
+        <v>60</v>
+      </c>
+      <c r="P565" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q565" t="s">
+        <v>64</v>
+      </c>
+      <c r="R565" t="s">
+        <v>60</v>
+      </c>
+      <c r="S565" t="s">
+        <v>64</v>
+      </c>
+      <c r="T565" t="s">
+        <v>60</v>
+      </c>
+      <c r="U565" t="s">
+        <v>60</v>
+      </c>
+      <c r="V565" t="s">
+        <v>60</v>
+      </c>
+      <c r="W565" t="s">
+        <v>62</v>
+      </c>
+      <c r="X565" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y565" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z565" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA565" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB565" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC565" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD565" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE565" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF565" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG565" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH565" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI565" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ565" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK565" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL565" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM565" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN565" t="s">
+        <v>626</v>
+      </c>
+      <c r="AO565" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP565" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ565" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR565" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS565" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT565" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU565" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV565" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW565" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX565" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="566" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A566" t="s">
+        <v>49</v>
+      </c>
+      <c r="B566" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C566" t="s">
+        <v>144</v>
+      </c>
+      <c r="D566" t="s">
+        <v>51</v>
+      </c>
+      <c r="E566" t="s">
+        <v>108</v>
+      </c>
+      <c r="F566" t="s">
+        <v>115</v>
+      </c>
+      <c r="G566" t="s">
+        <v>53</v>
+      </c>
+      <c r="H566" t="s">
+        <v>627</v>
+      </c>
+      <c r="I566" t="s">
+        <v>64</v>
+      </c>
+      <c r="J566" t="s">
+        <v>64</v>
+      </c>
+      <c r="K566" t="s">
+        <v>64</v>
+      </c>
+      <c r="L566" t="s">
+        <v>64</v>
+      </c>
+      <c r="M566" t="s">
+        <v>64</v>
+      </c>
+      <c r="N566" t="s">
+        <v>64</v>
+      </c>
+      <c r="O566" t="s">
+        <v>64</v>
+      </c>
+      <c r="P566" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q566" t="s">
+        <v>64</v>
+      </c>
+      <c r="R566" t="s">
+        <v>64</v>
+      </c>
+      <c r="S566" t="s">
+        <v>64</v>
+      </c>
+      <c r="T566" t="s">
+        <v>64</v>
+      </c>
+      <c r="U566" t="s">
+        <v>64</v>
+      </c>
+      <c r="V566" t="s">
+        <v>64</v>
+      </c>
+      <c r="W566" t="s">
+        <v>64</v>
+      </c>
+      <c r="X566" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y566" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z566" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD566" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF566" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG566" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH566" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI566" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ566" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK566" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN566" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO566" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP566" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ566" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR566" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS566" t="s">
+        <v>389</v>
+      </c>
+      <c r="AT566" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU566" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX566" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="567" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A567" t="s">
+        <v>49</v>
+      </c>
+      <c r="B567" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C567" t="s">
+        <v>144</v>
+      </c>
+      <c r="D567" t="s">
+        <v>51</v>
+      </c>
+      <c r="E567" t="s">
+        <v>108</v>
+      </c>
+      <c r="F567" t="s">
+        <v>114</v>
+      </c>
+      <c r="G567" t="s">
+        <v>53</v>
+      </c>
+      <c r="H567" t="s">
+        <v>628</v>
+      </c>
+      <c r="I567" t="s">
+        <v>64</v>
+      </c>
+      <c r="J567" t="s">
+        <v>55</v>
+      </c>
+      <c r="K567" t="s">
+        <v>60</v>
+      </c>
+      <c r="L567" t="s">
+        <v>64</v>
+      </c>
+      <c r="M567" t="s">
+        <v>63</v>
+      </c>
+      <c r="N567" t="s">
+        <v>60</v>
+      </c>
+      <c r="O567" t="s">
+        <v>64</v>
+      </c>
+      <c r="P567" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q567" t="s">
+        <v>60</v>
+      </c>
+      <c r="R567" t="s">
+        <v>60</v>
+      </c>
+      <c r="S567" t="s">
+        <v>60</v>
+      </c>
+      <c r="T567" t="s">
+        <v>64</v>
+      </c>
+      <c r="U567" t="s">
+        <v>64</v>
+      </c>
+      <c r="V567" t="s">
+        <v>64</v>
+      </c>
+      <c r="W567" t="s">
+        <v>60</v>
+      </c>
+      <c r="X567" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y567" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z567" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA567" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB567" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC567" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD567" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE567" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF567" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG567" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH567" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI567" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ567" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK567" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL567" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM567" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN567" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO567" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP567" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ567" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR567" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS567" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT567" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU567" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV567" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW567" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX567" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="568" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A568" t="s">
+        <v>49</v>
+      </c>
+      <c r="B568" s="1">
+        <v>44729</v>
+      </c>
+      <c r="C568" t="s">
+        <v>144</v>
+      </c>
+      <c r="D568" t="s">
+        <v>51</v>
+      </c>
+      <c r="E568" t="s">
+        <v>108</v>
+      </c>
+      <c r="F568" t="s">
+        <v>98</v>
+      </c>
+      <c r="G568" t="s">
+        <v>53</v>
+      </c>
+      <c r="H568" t="s">
+        <v>490</v>
+      </c>
+      <c r="I568" t="s">
+        <v>64</v>
+      </c>
+      <c r="J568" t="s">
+        <v>60</v>
+      </c>
+      <c r="K568" t="s">
+        <v>64</v>
+      </c>
+      <c r="L568" t="s">
+        <v>64</v>
+      </c>
+      <c r="M568" t="s">
+        <v>64</v>
+      </c>
+      <c r="N568" t="s">
+        <v>64</v>
+      </c>
+      <c r="O568" t="s">
+        <v>64</v>
+      </c>
+      <c r="P568" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q568" t="s">
+        <v>64</v>
+      </c>
+      <c r="R568" t="s">
+        <v>64</v>
+      </c>
+      <c r="S568" t="s">
+        <v>64</v>
+      </c>
+      <c r="T568" t="s">
+        <v>64</v>
+      </c>
+      <c r="U568" t="s">
+        <v>64</v>
+      </c>
+      <c r="V568" t="s">
+        <v>64</v>
+      </c>
+      <c r="W568" t="s">
+        <v>64</v>
+      </c>
+      <c r="X568" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y568" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z568" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD568" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF568" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG568" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH568" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI568" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ568" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK568" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN568" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO568" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP568" s="1">
+        <v>44729</v>
+      </c>
+      <c r="AQ568" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR568" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS568" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT568" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU568" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX568" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="569" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A569" t="s">
+        <v>49</v>
+      </c>
+      <c r="B569" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C569" t="s">
+        <v>144</v>
+      </c>
+      <c r="D569" t="s">
+        <v>51</v>
+      </c>
+      <c r="E569" t="s">
+        <v>103</v>
+      </c>
+      <c r="F569" t="s">
+        <v>85</v>
+      </c>
+      <c r="G569" t="s">
+        <v>53</v>
+      </c>
+      <c r="H569" t="s">
+        <v>504</v>
+      </c>
+      <c r="I569" t="s">
+        <v>64</v>
+      </c>
+      <c r="J569" t="s">
+        <v>62</v>
+      </c>
+      <c r="K569" t="s">
+        <v>60</v>
+      </c>
+      <c r="L569" t="s">
+        <v>63</v>
+      </c>
+      <c r="M569" t="s">
+        <v>60</v>
+      </c>
+      <c r="N569" t="s">
+        <v>63</v>
+      </c>
+      <c r="O569" t="s">
+        <v>64</v>
+      </c>
+      <c r="P569" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q569" t="s">
+        <v>63</v>
+      </c>
+      <c r="R569" t="s">
+        <v>60</v>
+      </c>
+      <c r="S569" t="s">
+        <v>64</v>
+      </c>
+      <c r="T569" t="s">
+        <v>63</v>
+      </c>
+      <c r="U569" t="s">
+        <v>60</v>
+      </c>
+      <c r="V569" t="s">
+        <v>64</v>
+      </c>
+      <c r="W569" t="s">
+        <v>64</v>
+      </c>
+      <c r="X569" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y569" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z569" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA569" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB569" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC569" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD569" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE569" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF569" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG569" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH569" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI569" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ569" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK569" t="s">
+        <v>226</v>
+      </c>
+      <c r="AL569" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM569" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN569" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO569" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP569" s="1">
+        <v>44733</v>
+      </c>
+      <c r="AQ569" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR569" t="s">
+        <v>106</v>
+      </c>
+      <c r="AS569" t="s">
+        <v>107</v>
+      </c>
+      <c r="AT569" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU569" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV569" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW569" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX569" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="570" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A570" t="s">
+        <v>49</v>
+      </c>
+      <c r="B570" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C570" t="s">
+        <v>144</v>
+      </c>
+      <c r="D570" t="s">
+        <v>51</v>
+      </c>
+      <c r="E570" t="s">
+        <v>142</v>
+      </c>
+      <c r="F570" t="s">
+        <v>85</v>
+      </c>
+      <c r="G570" t="s">
+        <v>53</v>
+      </c>
+      <c r="H570" t="s">
+        <v>629</v>
+      </c>
+      <c r="I570" t="s">
+        <v>60</v>
+      </c>
+      <c r="J570" t="s">
+        <v>63</v>
+      </c>
+      <c r="K570" t="s">
+        <v>60</v>
+      </c>
+      <c r="L570" t="s">
+        <v>60</v>
+      </c>
+      <c r="M570" t="s">
+        <v>64</v>
+      </c>
+      <c r="N570" t="s">
+        <v>64</v>
+      </c>
+      <c r="O570" t="s">
+        <v>60</v>
+      </c>
+      <c r="P570" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q570" t="s">
+        <v>60</v>
+      </c>
+      <c r="R570" t="s">
+        <v>63</v>
+      </c>
+      <c r="S570" t="s">
+        <v>62</v>
+      </c>
+      <c r="T570" t="s">
+        <v>64</v>
+      </c>
+      <c r="U570" t="s">
+        <v>64</v>
+      </c>
+      <c r="V570" t="s">
+        <v>64</v>
+      </c>
+      <c r="W570" t="s">
+        <v>60</v>
+      </c>
+      <c r="X570" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y570" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z570" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA570" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB570" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC570" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD570" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE570" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF570" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG570" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH570" t="s">
+        <v>213</v>
+      </c>
+      <c r="AI570" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ570" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK570" t="s">
+        <v>213</v>
+      </c>
+      <c r="AL570" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM570" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN570" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO570" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP570" s="1">
+        <v>44732</v>
+      </c>
+      <c r="AQ570" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR570" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS570" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT570" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU570" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV570" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW570" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX570" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="571" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A571" t="s">
+        <v>49</v>
+      </c>
+      <c r="B571" s="1">
+        <v>44716</v>
+      </c>
+      <c r="C571" t="s">
+        <v>179</v>
+      </c>
+      <c r="D571" t="s">
+        <v>51</v>
+      </c>
+      <c r="E571" t="s">
+        <v>133</v>
+      </c>
+      <c r="F571" t="s">
+        <v>57</v>
+      </c>
+      <c r="G571" t="s">
+        <v>53</v>
+      </c>
+      <c r="H571" t="s">
+        <v>62</v>
+      </c>
+      <c r="I571" t="s">
+        <v>64</v>
+      </c>
+      <c r="J571" t="s">
+        <v>63</v>
+      </c>
+      <c r="K571" t="s">
+        <v>64</v>
+      </c>
+      <c r="L571" t="s">
+        <v>64</v>
+      </c>
+      <c r="M571" t="s">
+        <v>64</v>
+      </c>
+      <c r="N571" t="s">
+        <v>64</v>
+      </c>
+      <c r="O571" t="s">
+        <v>64</v>
+      </c>
+      <c r="P571" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q571" t="s">
+        <v>64</v>
+      </c>
+      <c r="R571" t="s">
+        <v>64</v>
+      </c>
+      <c r="S571" t="s">
+        <v>64</v>
+      </c>
+      <c r="T571" t="s">
+        <v>64</v>
+      </c>
+      <c r="U571" t="s">
+        <v>64</v>
+      </c>
+      <c r="V571" t="s">
+        <v>64</v>
+      </c>
+      <c r="W571" t="s">
+        <v>64</v>
+      </c>
+      <c r="X571" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y571" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z571" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA571" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB571" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC571" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD571" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE571" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF571" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG571" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH571" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI571" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ571" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK571" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL571" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM571" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN571" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO571" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP571" s="1">
+        <v>44726</v>
+      </c>
+      <c r="AQ571" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR571" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS571" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT571" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU571" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV571" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW571" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX571" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="572" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A572" t="s">
+        <v>49</v>
+      </c>
+      <c r="B572" s="1">
+        <v>44723</v>
+      </c>
+      <c r="C572" t="s">
+        <v>206</v>
+      </c>
+      <c r="D572" t="s">
+        <v>51</v>
+      </c>
+      <c r="E572" t="s">
+        <v>133</v>
+      </c>
+      <c r="F572" t="s">
+        <v>57</v>
+      </c>
+      <c r="G572" t="s">
+        <v>53</v>
+      </c>
+      <c r="H572" t="s">
+        <v>55</v>
+      </c>
+      <c r="I572" t="s">
+        <v>64</v>
+      </c>
+      <c r="J572" t="s">
+        <v>63</v>
+      </c>
+      <c r="K572" t="s">
+        <v>64</v>
+      </c>
+      <c r="L572" t="s">
+        <v>64</v>
+      </c>
+      <c r="M572" t="s">
+        <v>64</v>
+      </c>
+      <c r="N572" t="s">
+        <v>64</v>
+      </c>
+      <c r="O572" t="s">
+        <v>64</v>
+      </c>
+      <c r="P572" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q572" t="s">
+        <v>64</v>
+      </c>
+      <c r="R572" t="s">
+        <v>64</v>
+      </c>
+      <c r="S572" t="s">
+        <v>64</v>
+      </c>
+      <c r="T572" t="s">
+        <v>64</v>
+      </c>
+      <c r="U572" t="s">
+        <v>64</v>
+      </c>
+      <c r="V572" t="s">
+        <v>64</v>
+      </c>
+      <c r="W572" t="s">
+        <v>64</v>
+      </c>
+      <c r="X572" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y572" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z572" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA572" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB572" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC572" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD572" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE572" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF572" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG572" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH572" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI572" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ572" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK572" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL572" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM572" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN572" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO572" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP572" s="1">
+        <v>44726</v>
+      </c>
+      <c r="AQ572" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR572" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS572" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT572" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU572" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV572" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW572" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX572" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="573" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A573" t="s">
+        <v>49</v>
+      </c>
+      <c r="B573" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C573" t="s">
+        <v>144</v>
+      </c>
+      <c r="D573" t="s">
+        <v>51</v>
+      </c>
+      <c r="E573" t="s">
+        <v>154</v>
+      </c>
+      <c r="F573" t="s">
+        <v>85</v>
+      </c>
+      <c r="G573" t="s">
+        <v>53</v>
+      </c>
+      <c r="H573" t="s">
+        <v>541</v>
+      </c>
+      <c r="I573" t="s">
+        <v>64</v>
+      </c>
+      <c r="J573" t="s">
+        <v>60</v>
+      </c>
+      <c r="K573" t="s">
+        <v>64</v>
+      </c>
+      <c r="L573" t="s">
+        <v>64</v>
+      </c>
+      <c r="M573" t="s">
+        <v>64</v>
+      </c>
+      <c r="N573" t="s">
+        <v>64</v>
+      </c>
+      <c r="O573" t="s">
+        <v>64</v>
+      </c>
+      <c r="P573" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q573" t="s">
+        <v>64</v>
+      </c>
+      <c r="R573" t="s">
+        <v>60</v>
+      </c>
+      <c r="S573" t="s">
+        <v>64</v>
+      </c>
+      <c r="T573" t="s">
+        <v>64</v>
+      </c>
+      <c r="U573" t="s">
+        <v>64</v>
+      </c>
+      <c r="V573" t="s">
+        <v>60</v>
+      </c>
+      <c r="W573" t="s">
+        <v>64</v>
+      </c>
+      <c r="X573" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y573" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z573" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA573" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB573" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC573" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD573" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE573" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF573" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG573" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH573" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI573" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ573" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK573" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL573" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM573" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN573" t="s">
+        <v>186</v>
+      </c>
+      <c r="AO573" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP573" s="1">
+        <v>44733</v>
+      </c>
+      <c r="AQ573" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR573" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS573" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT573" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU573" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV573" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW573" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX573" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="574" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A574" t="s">
+        <v>49</v>
+      </c>
+      <c r="B574" s="1">
+        <v>44733</v>
+      </c>
+      <c r="C574" t="s">
+        <v>114</v>
+      </c>
+      <c r="D574" t="s">
+        <v>51</v>
+      </c>
+      <c r="E574" t="s">
+        <v>168</v>
+      </c>
+      <c r="F574" t="s">
+        <v>109</v>
+      </c>
+      <c r="G574" t="s">
+        <v>53</v>
+      </c>
+      <c r="H574" t="s">
+        <v>206</v>
+      </c>
+      <c r="I574" t="s">
+        <v>60</v>
+      </c>
+      <c r="J574" t="s">
+        <v>60</v>
+      </c>
+      <c r="K574" t="s">
+        <v>60</v>
+      </c>
+      <c r="L574" t="s">
+        <v>64</v>
+      </c>
+      <c r="M574" t="s">
+        <v>64</v>
+      </c>
+      <c r="N574" t="s">
+        <v>62</v>
+      </c>
+      <c r="O574" t="s">
+        <v>63</v>
+      </c>
+      <c r="P574" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q574" t="s">
+        <v>60</v>
+      </c>
+      <c r="R574" t="s">
+        <v>64</v>
+      </c>
+      <c r="S574" t="s">
+        <v>64</v>
+      </c>
+      <c r="T574" t="s">
+        <v>64</v>
+      </c>
+      <c r="U574" t="s">
+        <v>64</v>
+      </c>
+      <c r="V574" t="s">
+        <v>64</v>
+      </c>
+      <c r="W574" t="s">
+        <v>64</v>
+      </c>
+      <c r="X574" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y574" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z574" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA574" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB574" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC574" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD574" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE574" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF574" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG574" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH574" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI574" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ574" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK574" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL574" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM574" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN574" t="s">
+        <v>630</v>
+      </c>
+      <c r="AO574" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP574" s="1">
+        <v>44733</v>
+      </c>
+      <c r="AQ574" t="s">
+        <v>526</v>
+      </c>
+      <c r="AR574" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS574" t="s">
+        <v>171</v>
+      </c>
+      <c r="AT574" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU574" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV574" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW574" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX574" t="s">
         <v>526</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JorgeMario/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4F4BFD9-5059-5140-94D8-A0ADC4FCCD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC0C9A22-1238-9F47-9531-C600FD184904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30224" uniqueCount="661">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31424" uniqueCount="673">
   <si>
     <t>cod_eve</t>
   </si>
@@ -2002,6 +2002,42 @@
     <t>1162</t>
   </si>
   <si>
+    <t>CR 16 BIS  8-24 EIDIFI OKO TO</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 - 18.6.0</t>
+  </si>
+  <si>
+    <t>299</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1163</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>343</t>
+  </si>
+  <si>
+    <t>CRA 16 BIS  8-24 EDIF OKO TOW</t>
+  </si>
+  <si>
     <t>ano</t>
   </si>
 </sst>
@@ -2420,7 +2456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX631"/>
+  <dimension ref="A1:AX656"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -2439,7 +2475,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>660</v>
+        <v>672</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -98139,6 +98175,3806 @@
         <v>76</v>
       </c>
       <c r="AX631" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="632" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A632" t="s">
+        <v>49</v>
+      </c>
+      <c r="B632" s="1">
+        <v>44744</v>
+      </c>
+      <c r="C632" t="s">
+        <v>56</v>
+      </c>
+      <c r="D632" t="s">
+        <v>51</v>
+      </c>
+      <c r="E632" t="s">
+        <v>177</v>
+      </c>
+      <c r="F632" t="s">
+        <v>121</v>
+      </c>
+      <c r="G632" t="s">
+        <v>53</v>
+      </c>
+      <c r="H632" t="s">
+        <v>84</v>
+      </c>
+      <c r="I632" t="s">
+        <v>64</v>
+      </c>
+      <c r="J632" t="s">
+        <v>64</v>
+      </c>
+      <c r="K632" t="s">
+        <v>64</v>
+      </c>
+      <c r="L632" t="s">
+        <v>64</v>
+      </c>
+      <c r="M632" t="s">
+        <v>64</v>
+      </c>
+      <c r="N632" t="s">
+        <v>60</v>
+      </c>
+      <c r="O632" t="s">
+        <v>62</v>
+      </c>
+      <c r="P632" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q632" t="s">
+        <v>55</v>
+      </c>
+      <c r="R632" t="s">
+        <v>60</v>
+      </c>
+      <c r="S632" t="s">
+        <v>64</v>
+      </c>
+      <c r="T632" t="s">
+        <v>64</v>
+      </c>
+      <c r="U632" t="s">
+        <v>64</v>
+      </c>
+      <c r="V632" t="s">
+        <v>64</v>
+      </c>
+      <c r="W632" t="s">
+        <v>64</v>
+      </c>
+      <c r="X632" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y632" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z632" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA632" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB632" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC632" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD632" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE632" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF632" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG632" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH632" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI632" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ632" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK632" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL632" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM632" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN632" t="s">
+        <v>660</v>
+      </c>
+      <c r="AO632" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP632" s="1">
+        <v>44747</v>
+      </c>
+      <c r="AQ632" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR632" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS632" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT632" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU632" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV632" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW632" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX632" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="633" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A633" t="s">
+        <v>49</v>
+      </c>
+      <c r="B633" s="1">
+        <v>44744</v>
+      </c>
+      <c r="C633" t="s">
+        <v>56</v>
+      </c>
+      <c r="D633" t="s">
+        <v>51</v>
+      </c>
+      <c r="E633" t="s">
+        <v>143</v>
+      </c>
+      <c r="F633" t="s">
+        <v>121</v>
+      </c>
+      <c r="G633" t="s">
+        <v>53</v>
+      </c>
+      <c r="H633" t="s">
+        <v>60</v>
+      </c>
+      <c r="I633" t="s">
+        <v>60</v>
+      </c>
+      <c r="J633" t="s">
+        <v>60</v>
+      </c>
+      <c r="K633" t="s">
+        <v>60</v>
+      </c>
+      <c r="L633" t="s">
+        <v>64</v>
+      </c>
+      <c r="M633" t="s">
+        <v>64</v>
+      </c>
+      <c r="N633" t="s">
+        <v>64</v>
+      </c>
+      <c r="O633" t="s">
+        <v>64</v>
+      </c>
+      <c r="P633" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q633" t="s">
+        <v>64</v>
+      </c>
+      <c r="R633" t="s">
+        <v>64</v>
+      </c>
+      <c r="S633" t="s">
+        <v>64</v>
+      </c>
+      <c r="T633" t="s">
+        <v>64</v>
+      </c>
+      <c r="U633" t="s">
+        <v>64</v>
+      </c>
+      <c r="V633" t="s">
+        <v>64</v>
+      </c>
+      <c r="W633" t="s">
+        <v>64</v>
+      </c>
+      <c r="X633" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y633" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z633" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA633" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB633" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC633" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD633" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE633" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF633" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG633" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH633" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI633" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ633" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK633" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL633" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM633" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN633" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO633" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP633" s="1">
+        <v>44747</v>
+      </c>
+      <c r="AQ633" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR633" t="s">
+        <v>619</v>
+      </c>
+      <c r="AS633" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT633" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU633" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV633" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW633" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX633" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="634" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A634" t="s">
+        <v>49</v>
+      </c>
+      <c r="B634" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C634" t="s">
+        <v>107</v>
+      </c>
+      <c r="D634" t="s">
+        <v>51</v>
+      </c>
+      <c r="E634" t="s">
+        <v>143</v>
+      </c>
+      <c r="F634" t="s">
+        <v>90</v>
+      </c>
+      <c r="G634" t="s">
+        <v>53</v>
+      </c>
+      <c r="H634" t="s">
+        <v>65</v>
+      </c>
+      <c r="I634" t="s">
+        <v>64</v>
+      </c>
+      <c r="J634" t="s">
+        <v>60</v>
+      </c>
+      <c r="K634" t="s">
+        <v>63</v>
+      </c>
+      <c r="L634" t="s">
+        <v>62</v>
+      </c>
+      <c r="M634" t="s">
+        <v>63</v>
+      </c>
+      <c r="N634" t="s">
+        <v>60</v>
+      </c>
+      <c r="O634" t="s">
+        <v>64</v>
+      </c>
+      <c r="P634" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q634" t="s">
+        <v>64</v>
+      </c>
+      <c r="R634" t="s">
+        <v>63</v>
+      </c>
+      <c r="S634" t="s">
+        <v>64</v>
+      </c>
+      <c r="T634" t="s">
+        <v>64</v>
+      </c>
+      <c r="U634" t="s">
+        <v>64</v>
+      </c>
+      <c r="V634" t="s">
+        <v>58</v>
+      </c>
+      <c r="W634" t="s">
+        <v>63</v>
+      </c>
+      <c r="X634" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y634" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z634" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA634" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB634" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC634" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD634" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE634" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF634" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG634" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH634" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI634" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ634" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK634" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL634" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM634" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN634" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO634" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP634" s="1">
+        <v>44751</v>
+      </c>
+      <c r="AQ634" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR634" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS634" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT634" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU634" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV634" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW634" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX634" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="635" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A635" t="s">
+        <v>49</v>
+      </c>
+      <c r="B635" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C635" t="s">
+        <v>107</v>
+      </c>
+      <c r="D635" t="s">
+        <v>51</v>
+      </c>
+      <c r="E635" t="s">
+        <v>177</v>
+      </c>
+      <c r="F635" t="s">
+        <v>80</v>
+      </c>
+      <c r="G635" t="s">
+        <v>53</v>
+      </c>
+      <c r="H635" t="s">
+        <v>661</v>
+      </c>
+      <c r="I635" t="s">
+        <v>64</v>
+      </c>
+      <c r="J635" t="s">
+        <v>60</v>
+      </c>
+      <c r="K635" t="s">
+        <v>64</v>
+      </c>
+      <c r="L635" t="s">
+        <v>60</v>
+      </c>
+      <c r="M635" t="s">
+        <v>64</v>
+      </c>
+      <c r="N635" t="s">
+        <v>59</v>
+      </c>
+      <c r="O635" t="s">
+        <v>112</v>
+      </c>
+      <c r="P635" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q635" t="s">
+        <v>77</v>
+      </c>
+      <c r="R635" t="s">
+        <v>63</v>
+      </c>
+      <c r="S635" t="s">
+        <v>60</v>
+      </c>
+      <c r="T635" t="s">
+        <v>60</v>
+      </c>
+      <c r="U635" t="s">
+        <v>64</v>
+      </c>
+      <c r="V635" t="s">
+        <v>64</v>
+      </c>
+      <c r="W635" t="s">
+        <v>64</v>
+      </c>
+      <c r="X635" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y635" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z635" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA635" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB635" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC635" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD635" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE635" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF635" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG635" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH635" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI635" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ635" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK635" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL635" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM635" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN635" t="s">
+        <v>441</v>
+      </c>
+      <c r="AO635" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP635" s="1">
+        <v>44751</v>
+      </c>
+      <c r="AQ635" t="s">
+        <v>662</v>
+      </c>
+      <c r="AR635" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS635" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT635" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU635" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV635" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW635" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX635" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="636" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A636" t="s">
+        <v>49</v>
+      </c>
+      <c r="B636" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C636" t="s">
+        <v>107</v>
+      </c>
+      <c r="D636" t="s">
+        <v>51</v>
+      </c>
+      <c r="E636" t="s">
+        <v>109</v>
+      </c>
+      <c r="F636" t="s">
+        <v>80</v>
+      </c>
+      <c r="G636" t="s">
+        <v>53</v>
+      </c>
+      <c r="H636" t="s">
+        <v>663</v>
+      </c>
+      <c r="I636" t="s">
+        <v>60</v>
+      </c>
+      <c r="J636" t="s">
+        <v>64</v>
+      </c>
+      <c r="K636" t="s">
+        <v>64</v>
+      </c>
+      <c r="L636" t="s">
+        <v>64</v>
+      </c>
+      <c r="M636" t="s">
+        <v>60</v>
+      </c>
+      <c r="N636" t="s">
+        <v>63</v>
+      </c>
+      <c r="O636" t="s">
+        <v>60</v>
+      </c>
+      <c r="P636" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q636" t="s">
+        <v>60</v>
+      </c>
+      <c r="R636" t="s">
+        <v>60</v>
+      </c>
+      <c r="S636" t="s">
+        <v>63</v>
+      </c>
+      <c r="T636" t="s">
+        <v>64</v>
+      </c>
+      <c r="U636" t="s">
+        <v>64</v>
+      </c>
+      <c r="V636" t="s">
+        <v>64</v>
+      </c>
+      <c r="W636" t="s">
+        <v>64</v>
+      </c>
+      <c r="X636" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y636" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z636" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA636" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB636" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC636" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD636" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE636" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF636" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG636" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH636" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI636" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ636" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK636" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL636" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM636" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN636" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO636" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP636" s="1">
+        <v>44751</v>
+      </c>
+      <c r="AQ636" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR636" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS636" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT636" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU636" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV636" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW636" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX636" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="637" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A637" t="s">
+        <v>49</v>
+      </c>
+      <c r="B637" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C637" t="s">
+        <v>107</v>
+      </c>
+      <c r="D637" t="s">
+        <v>51</v>
+      </c>
+      <c r="E637" t="s">
+        <v>109</v>
+      </c>
+      <c r="F637" t="s">
+        <v>110</v>
+      </c>
+      <c r="G637" t="s">
+        <v>53</v>
+      </c>
+      <c r="H637" t="s">
+        <v>664</v>
+      </c>
+      <c r="I637" t="s">
+        <v>63</v>
+      </c>
+      <c r="J637" t="s">
+        <v>60</v>
+      </c>
+      <c r="K637" t="s">
+        <v>60</v>
+      </c>
+      <c r="L637" t="s">
+        <v>63</v>
+      </c>
+      <c r="M637" t="s">
+        <v>60</v>
+      </c>
+      <c r="N637" t="s">
+        <v>63</v>
+      </c>
+      <c r="O637" t="s">
+        <v>60</v>
+      </c>
+      <c r="P637" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q637" t="s">
+        <v>63</v>
+      </c>
+      <c r="R637" t="s">
+        <v>63</v>
+      </c>
+      <c r="S637" t="s">
+        <v>60</v>
+      </c>
+      <c r="T637" t="s">
+        <v>64</v>
+      </c>
+      <c r="U637" t="s">
+        <v>63</v>
+      </c>
+      <c r="V637" t="s">
+        <v>64</v>
+      </c>
+      <c r="W637" t="s">
+        <v>64</v>
+      </c>
+      <c r="X637" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y637" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z637" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA637" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB637" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC637" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD637" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE637" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF637" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG637" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH637" t="s">
+        <v>145</v>
+      </c>
+      <c r="AI637" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ637" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK637" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL637" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM637" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN637" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO637" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP637" s="1">
+        <v>44751</v>
+      </c>
+      <c r="AQ637" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR637" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS637" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT637" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU637" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV637" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW637" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX637" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="638" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A638" t="s">
+        <v>49</v>
+      </c>
+      <c r="B638" s="1">
+        <v>44744</v>
+      </c>
+      <c r="C638" t="s">
+        <v>56</v>
+      </c>
+      <c r="D638" t="s">
+        <v>51</v>
+      </c>
+      <c r="E638" t="s">
+        <v>143</v>
+      </c>
+      <c r="F638" t="s">
+        <v>57</v>
+      </c>
+      <c r="G638" t="s">
+        <v>53</v>
+      </c>
+      <c r="H638" t="s">
+        <v>58</v>
+      </c>
+      <c r="I638" t="s">
+        <v>64</v>
+      </c>
+      <c r="J638" t="s">
+        <v>60</v>
+      </c>
+      <c r="K638" t="s">
+        <v>60</v>
+      </c>
+      <c r="L638" t="s">
+        <v>64</v>
+      </c>
+      <c r="M638" t="s">
+        <v>64</v>
+      </c>
+      <c r="N638" t="s">
+        <v>64</v>
+      </c>
+      <c r="O638" t="s">
+        <v>64</v>
+      </c>
+      <c r="P638" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q638" t="s">
+        <v>64</v>
+      </c>
+      <c r="R638" t="s">
+        <v>64</v>
+      </c>
+      <c r="S638" t="s">
+        <v>64</v>
+      </c>
+      <c r="T638" t="s">
+        <v>64</v>
+      </c>
+      <c r="U638" t="s">
+        <v>64</v>
+      </c>
+      <c r="V638" t="s">
+        <v>64</v>
+      </c>
+      <c r="W638" t="s">
+        <v>64</v>
+      </c>
+      <c r="X638" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y638" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z638" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA638" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB638" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC638" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD638" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE638" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF638" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG638" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH638" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI638" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ638" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK638" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL638" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM638" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN638" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO638" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP638" s="1">
+        <v>44747</v>
+      </c>
+      <c r="AQ638" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR638" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS638" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT638" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU638" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV638" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW638" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX638" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="639" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A639" t="s">
+        <v>49</v>
+      </c>
+      <c r="B639" s="1">
+        <v>44737</v>
+      </c>
+      <c r="C639" t="s">
+        <v>84</v>
+      </c>
+      <c r="D639" t="s">
+        <v>51</v>
+      </c>
+      <c r="E639" t="s">
+        <v>143</v>
+      </c>
+      <c r="F639" t="s">
+        <v>57</v>
+      </c>
+      <c r="G639" t="s">
+        <v>53</v>
+      </c>
+      <c r="H639" t="s">
+        <v>59</v>
+      </c>
+      <c r="I639" t="s">
+        <v>64</v>
+      </c>
+      <c r="J639" t="s">
+        <v>60</v>
+      </c>
+      <c r="K639" t="s">
+        <v>64</v>
+      </c>
+      <c r="L639" t="s">
+        <v>64</v>
+      </c>
+      <c r="M639" t="s">
+        <v>64</v>
+      </c>
+      <c r="N639" t="s">
+        <v>64</v>
+      </c>
+      <c r="O639" t="s">
+        <v>64</v>
+      </c>
+      <c r="P639" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q639" t="s">
+        <v>64</v>
+      </c>
+      <c r="R639" t="s">
+        <v>64</v>
+      </c>
+      <c r="S639" t="s">
+        <v>64</v>
+      </c>
+      <c r="T639" t="s">
+        <v>64</v>
+      </c>
+      <c r="U639" t="s">
+        <v>64</v>
+      </c>
+      <c r="V639" t="s">
+        <v>64</v>
+      </c>
+      <c r="W639" t="s">
+        <v>64</v>
+      </c>
+      <c r="X639" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y639" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z639" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA639" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB639" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC639" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD639" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE639" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF639" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG639" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH639" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI639" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ639" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK639" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL639" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM639" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN639" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO639" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP639" s="1">
+        <v>44747</v>
+      </c>
+      <c r="AQ639" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR639" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS639" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT639" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU639" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV639" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW639" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX639" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="640" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A640" t="s">
+        <v>49</v>
+      </c>
+      <c r="B640" s="1">
+        <v>44730</v>
+      </c>
+      <c r="C640" t="s">
+        <v>153</v>
+      </c>
+      <c r="D640" t="s">
+        <v>51</v>
+      </c>
+      <c r="E640" t="s">
+        <v>143</v>
+      </c>
+      <c r="F640" t="s">
+        <v>57</v>
+      </c>
+      <c r="G640" t="s">
+        <v>53</v>
+      </c>
+      <c r="H640" t="s">
+        <v>77</v>
+      </c>
+      <c r="I640" t="s">
+        <v>64</v>
+      </c>
+      <c r="J640" t="s">
+        <v>63</v>
+      </c>
+      <c r="K640" t="s">
+        <v>64</v>
+      </c>
+      <c r="L640" t="s">
+        <v>60</v>
+      </c>
+      <c r="M640" t="s">
+        <v>60</v>
+      </c>
+      <c r="N640" t="s">
+        <v>58</v>
+      </c>
+      <c r="O640" t="s">
+        <v>62</v>
+      </c>
+      <c r="P640" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q640" t="s">
+        <v>60</v>
+      </c>
+      <c r="R640" t="s">
+        <v>60</v>
+      </c>
+      <c r="S640" t="s">
+        <v>60</v>
+      </c>
+      <c r="T640" t="s">
+        <v>63</v>
+      </c>
+      <c r="U640" t="s">
+        <v>60</v>
+      </c>
+      <c r="V640" t="s">
+        <v>64</v>
+      </c>
+      <c r="W640" t="s">
+        <v>63</v>
+      </c>
+      <c r="X640" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y640" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z640" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA640" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB640" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC640" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD640" t="s">
+        <v>79</v>
+      </c>
+      <c r="AE640" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF640" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG640" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH640" t="s">
+        <v>79</v>
+      </c>
+      <c r="AI640" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ640" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK640" t="s">
+        <v>79</v>
+      </c>
+      <c r="AL640" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM640" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN640" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO640" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP640" s="1">
+        <v>44747</v>
+      </c>
+      <c r="AQ640" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR640" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS640" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT640" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU640" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV640" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW640" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX640" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="641" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A641" t="s">
+        <v>49</v>
+      </c>
+      <c r="B641" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C641" t="s">
+        <v>107</v>
+      </c>
+      <c r="D641" t="s">
+        <v>51</v>
+      </c>
+      <c r="E641" t="s">
+        <v>52</v>
+      </c>
+      <c r="F641" t="s">
+        <v>80</v>
+      </c>
+      <c r="G641" t="s">
+        <v>53</v>
+      </c>
+      <c r="H641" t="s">
+        <v>665</v>
+      </c>
+      <c r="I641" t="s">
+        <v>64</v>
+      </c>
+      <c r="J641" t="s">
+        <v>60</v>
+      </c>
+      <c r="K641" t="s">
+        <v>64</v>
+      </c>
+      <c r="L641" t="s">
+        <v>64</v>
+      </c>
+      <c r="M641" t="s">
+        <v>63</v>
+      </c>
+      <c r="N641" t="s">
+        <v>63</v>
+      </c>
+      <c r="O641" t="s">
+        <v>55</v>
+      </c>
+      <c r="P641" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q641" t="s">
+        <v>55</v>
+      </c>
+      <c r="R641" t="s">
+        <v>63</v>
+      </c>
+      <c r="S641" t="s">
+        <v>63</v>
+      </c>
+      <c r="T641" t="s">
+        <v>63</v>
+      </c>
+      <c r="U641" t="s">
+        <v>62</v>
+      </c>
+      <c r="V641" t="s">
+        <v>63</v>
+      </c>
+      <c r="W641" t="s">
+        <v>64</v>
+      </c>
+      <c r="X641" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y641" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z641" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA641" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB641" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC641" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD641" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE641" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF641" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG641" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH641" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI641" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ641" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK641" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL641" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM641" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN641" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO641" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP641" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ641" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR641" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS641" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT641" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU641" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV641" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW641" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX641" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="642" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A642" t="s">
+        <v>49</v>
+      </c>
+      <c r="B642" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C642" t="s">
+        <v>107</v>
+      </c>
+      <c r="D642" t="s">
+        <v>51</v>
+      </c>
+      <c r="E642" t="s">
+        <v>52</v>
+      </c>
+      <c r="F642" t="s">
+        <v>87</v>
+      </c>
+      <c r="G642" t="s">
+        <v>53</v>
+      </c>
+      <c r="H642" t="s">
+        <v>666</v>
+      </c>
+      <c r="I642" t="s">
+        <v>64</v>
+      </c>
+      <c r="J642" t="s">
+        <v>64</v>
+      </c>
+      <c r="K642" t="s">
+        <v>64</v>
+      </c>
+      <c r="L642" t="s">
+        <v>64</v>
+      </c>
+      <c r="M642" t="s">
+        <v>64</v>
+      </c>
+      <c r="N642" t="s">
+        <v>60</v>
+      </c>
+      <c r="O642" t="s">
+        <v>64</v>
+      </c>
+      <c r="P642" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q642" t="s">
+        <v>63</v>
+      </c>
+      <c r="R642" t="s">
+        <v>64</v>
+      </c>
+      <c r="S642" t="s">
+        <v>64</v>
+      </c>
+      <c r="T642" t="s">
+        <v>63</v>
+      </c>
+      <c r="U642" t="s">
+        <v>63</v>
+      </c>
+      <c r="V642" t="s">
+        <v>60</v>
+      </c>
+      <c r="W642" t="s">
+        <v>64</v>
+      </c>
+      <c r="X642" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y642" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z642" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA642" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB642" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC642" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD642" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE642" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF642" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG642" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH642" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI642" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ642" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK642" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL642" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM642" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN642" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO642" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP642" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ642" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR642" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS642" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT642" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU642" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV642" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW642" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX642" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="643" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A643" t="s">
+        <v>49</v>
+      </c>
+      <c r="B643" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C643" t="s">
+        <v>107</v>
+      </c>
+      <c r="D643" t="s">
+        <v>51</v>
+      </c>
+      <c r="E643" t="s">
+        <v>52</v>
+      </c>
+      <c r="F643" t="s">
+        <v>50</v>
+      </c>
+      <c r="G643" t="s">
+        <v>53</v>
+      </c>
+      <c r="H643" t="s">
+        <v>667</v>
+      </c>
+      <c r="I643" t="s">
+        <v>64</v>
+      </c>
+      <c r="J643" t="s">
+        <v>61</v>
+      </c>
+      <c r="K643" t="s">
+        <v>123</v>
+      </c>
+      <c r="L643" t="s">
+        <v>63</v>
+      </c>
+      <c r="M643" t="s">
+        <v>63</v>
+      </c>
+      <c r="N643" t="s">
+        <v>55</v>
+      </c>
+      <c r="O643" t="s">
+        <v>61</v>
+      </c>
+      <c r="P643" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q643" t="s">
+        <v>60</v>
+      </c>
+      <c r="R643" t="s">
+        <v>62</v>
+      </c>
+      <c r="S643" t="s">
+        <v>62</v>
+      </c>
+      <c r="T643" t="s">
+        <v>64</v>
+      </c>
+      <c r="U643" t="s">
+        <v>55</v>
+      </c>
+      <c r="V643" t="s">
+        <v>64</v>
+      </c>
+      <c r="W643" t="s">
+        <v>64</v>
+      </c>
+      <c r="X643" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y643" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z643" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA643" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB643" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC643" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD643" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE643" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF643" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG643" t="s">
+        <v>281</v>
+      </c>
+      <c r="AH643" t="s">
+        <v>268</v>
+      </c>
+      <c r="AI643" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ643" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK643" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL643" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM643" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN643" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO643" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP643" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ643" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR643" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS643" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT643" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU643" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV643" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW643" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX643" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="644" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A644" t="s">
+        <v>49</v>
+      </c>
+      <c r="B644" s="1">
+        <v>44750</v>
+      </c>
+      <c r="C644" t="s">
+        <v>107</v>
+      </c>
+      <c r="D644" t="s">
+        <v>51</v>
+      </c>
+      <c r="E644" t="s">
+        <v>120</v>
+      </c>
+      <c r="F644" t="s">
+        <v>121</v>
+      </c>
+      <c r="G644" t="s">
+        <v>53</v>
+      </c>
+      <c r="H644" t="s">
+        <v>668</v>
+      </c>
+      <c r="I644" t="s">
+        <v>60</v>
+      </c>
+      <c r="J644" t="s">
+        <v>55</v>
+      </c>
+      <c r="K644" t="s">
+        <v>63</v>
+      </c>
+      <c r="L644" t="s">
+        <v>64</v>
+      </c>
+      <c r="M644" t="s">
+        <v>64</v>
+      </c>
+      <c r="N644" t="s">
+        <v>60</v>
+      </c>
+      <c r="O644" t="s">
+        <v>64</v>
+      </c>
+      <c r="P644" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q644" t="s">
+        <v>60</v>
+      </c>
+      <c r="R644" t="s">
+        <v>60</v>
+      </c>
+      <c r="S644" t="s">
+        <v>64</v>
+      </c>
+      <c r="T644" t="s">
+        <v>64</v>
+      </c>
+      <c r="U644" t="s">
+        <v>63</v>
+      </c>
+      <c r="V644" t="s">
+        <v>60</v>
+      </c>
+      <c r="W644" t="s">
+        <v>64</v>
+      </c>
+      <c r="X644" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y644" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z644" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA644" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB644" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC644" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD644" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE644" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF644" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG644" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH644" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI644" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ644" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK644" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL644" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM644" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN644" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO644" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP644" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ644" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR644" t="s">
+        <v>124</v>
+      </c>
+      <c r="AS644" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT644" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU644" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV644" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW644" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX644" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="645" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A645" t="s">
+        <v>49</v>
+      </c>
+      <c r="B645" s="1">
+        <v>44750</v>
+      </c>
+      <c r="C645" t="s">
+        <v>107</v>
+      </c>
+      <c r="D645" t="s">
+        <v>51</v>
+      </c>
+      <c r="E645" t="s">
+        <v>120</v>
+      </c>
+      <c r="F645" t="s">
+        <v>84</v>
+      </c>
+      <c r="G645" t="s">
+        <v>53</v>
+      </c>
+      <c r="H645" t="s">
+        <v>520</v>
+      </c>
+      <c r="I645" t="s">
+        <v>63</v>
+      </c>
+      <c r="J645" t="s">
+        <v>60</v>
+      </c>
+      <c r="K645" t="s">
+        <v>60</v>
+      </c>
+      <c r="L645" t="s">
+        <v>60</v>
+      </c>
+      <c r="M645" t="s">
+        <v>60</v>
+      </c>
+      <c r="N645" t="s">
+        <v>63</v>
+      </c>
+      <c r="O645" t="s">
+        <v>60</v>
+      </c>
+      <c r="P645" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q645" t="s">
+        <v>64</v>
+      </c>
+      <c r="R645" t="s">
+        <v>60</v>
+      </c>
+      <c r="S645" t="s">
+        <v>64</v>
+      </c>
+      <c r="T645" t="s">
+        <v>64</v>
+      </c>
+      <c r="U645" t="s">
+        <v>64</v>
+      </c>
+      <c r="V645" t="s">
+        <v>60</v>
+      </c>
+      <c r="W645" t="s">
+        <v>60</v>
+      </c>
+      <c r="X645" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y645" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z645" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA645" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB645" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC645" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD645" t="s">
+        <v>220</v>
+      </c>
+      <c r="AE645" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF645" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG645" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH645" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI645" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ645" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK645" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL645" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM645" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN645" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO645" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP645" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ645" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR645" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS645" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT645" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU645" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV645" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW645" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX645" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="646" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A646" t="s">
+        <v>49</v>
+      </c>
+      <c r="B646" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C646" t="s">
+        <v>107</v>
+      </c>
+      <c r="D646" t="s">
+        <v>51</v>
+      </c>
+      <c r="E646" t="s">
+        <v>157</v>
+      </c>
+      <c r="F646" t="s">
+        <v>80</v>
+      </c>
+      <c r="G646" t="s">
+        <v>53</v>
+      </c>
+      <c r="H646" t="s">
+        <v>669</v>
+      </c>
+      <c r="I646" t="s">
+        <v>64</v>
+      </c>
+      <c r="J646" t="s">
+        <v>123</v>
+      </c>
+      <c r="K646" t="s">
+        <v>55</v>
+      </c>
+      <c r="L646" t="s">
+        <v>62</v>
+      </c>
+      <c r="M646" t="s">
+        <v>64</v>
+      </c>
+      <c r="N646" t="s">
+        <v>63</v>
+      </c>
+      <c r="O646" t="s">
+        <v>63</v>
+      </c>
+      <c r="P646" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q646" t="s">
+        <v>64</v>
+      </c>
+      <c r="R646" t="s">
+        <v>60</v>
+      </c>
+      <c r="S646" t="s">
+        <v>60</v>
+      </c>
+      <c r="T646" t="s">
+        <v>60</v>
+      </c>
+      <c r="U646" t="s">
+        <v>64</v>
+      </c>
+      <c r="V646" t="s">
+        <v>64</v>
+      </c>
+      <c r="W646" t="s">
+        <v>60</v>
+      </c>
+      <c r="X646" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y646" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z646" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA646" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB646" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC646" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD646" t="s">
+        <v>107</v>
+      </c>
+      <c r="AE646" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF646" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG646" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH646" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI646" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ646" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK646" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL646" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM646" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN646" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO646" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP646" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ646" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR646" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS646" t="s">
+        <v>162</v>
+      </c>
+      <c r="AT646" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU646" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV646" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW646" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX646" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="647" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A647" t="s">
+        <v>49</v>
+      </c>
+      <c r="B647" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C647" t="s">
+        <v>107</v>
+      </c>
+      <c r="D647" t="s">
+        <v>51</v>
+      </c>
+      <c r="E647" t="s">
+        <v>139</v>
+      </c>
+      <c r="F647" t="s">
+        <v>80</v>
+      </c>
+      <c r="G647" t="s">
+        <v>53</v>
+      </c>
+      <c r="H647" t="s">
+        <v>618</v>
+      </c>
+      <c r="I647" t="s">
+        <v>64</v>
+      </c>
+      <c r="J647" t="s">
+        <v>64</v>
+      </c>
+      <c r="K647" t="s">
+        <v>64</v>
+      </c>
+      <c r="L647" t="s">
+        <v>64</v>
+      </c>
+      <c r="M647" t="s">
+        <v>64</v>
+      </c>
+      <c r="N647" t="s">
+        <v>64</v>
+      </c>
+      <c r="O647" t="s">
+        <v>64</v>
+      </c>
+      <c r="P647" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q647" t="s">
+        <v>60</v>
+      </c>
+      <c r="R647" t="s">
+        <v>64</v>
+      </c>
+      <c r="S647" t="s">
+        <v>64</v>
+      </c>
+      <c r="T647" t="s">
+        <v>64</v>
+      </c>
+      <c r="U647" t="s">
+        <v>60</v>
+      </c>
+      <c r="V647" t="s">
+        <v>64</v>
+      </c>
+      <c r="W647" t="s">
+        <v>64</v>
+      </c>
+      <c r="X647" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y647" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z647" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA647" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB647" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC647" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD647" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE647" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF647" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG647" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH647" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI647" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ647" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK647" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL647" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM647" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN647" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO647" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP647" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ647" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR647" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS647" t="s">
+        <v>142</v>
+      </c>
+      <c r="AT647" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU647" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV647" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW647" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX647" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="648" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A648" t="s">
+        <v>49</v>
+      </c>
+      <c r="B648" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C648" t="s">
+        <v>107</v>
+      </c>
+      <c r="D648" t="s">
+        <v>51</v>
+      </c>
+      <c r="E648" t="s">
+        <v>96</v>
+      </c>
+      <c r="F648" t="s">
+        <v>97</v>
+      </c>
+      <c r="G648" t="s">
+        <v>53</v>
+      </c>
+      <c r="H648" t="s">
+        <v>65</v>
+      </c>
+      <c r="I648" t="s">
+        <v>64</v>
+      </c>
+      <c r="J648" t="s">
+        <v>60</v>
+      </c>
+      <c r="K648" t="s">
+        <v>64</v>
+      </c>
+      <c r="L648" t="s">
+        <v>64</v>
+      </c>
+      <c r="M648" t="s">
+        <v>64</v>
+      </c>
+      <c r="N648" t="s">
+        <v>64</v>
+      </c>
+      <c r="O648" t="s">
+        <v>64</v>
+      </c>
+      <c r="P648" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q648" t="s">
+        <v>64</v>
+      </c>
+      <c r="R648" t="s">
+        <v>64</v>
+      </c>
+      <c r="S648" t="s">
+        <v>64</v>
+      </c>
+      <c r="T648" t="s">
+        <v>64</v>
+      </c>
+      <c r="U648" t="s">
+        <v>64</v>
+      </c>
+      <c r="V648" t="s">
+        <v>64</v>
+      </c>
+      <c r="W648" t="s">
+        <v>64</v>
+      </c>
+      <c r="X648" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y648" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z648" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA648" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB648" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC648" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD648" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE648" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF648" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG648" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH648" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI648" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ648" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK648" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL648" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM648" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN648" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO648" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP648" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ648" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR648" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS648" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT648" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU648" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV648" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW648" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX648" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="649" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A649" t="s">
+        <v>49</v>
+      </c>
+      <c r="B649" s="1">
+        <v>44753</v>
+      </c>
+      <c r="C649" t="s">
+        <v>281</v>
+      </c>
+      <c r="D649" t="s">
+        <v>51</v>
+      </c>
+      <c r="E649" t="s">
+        <v>163</v>
+      </c>
+      <c r="F649" t="s">
+        <v>80</v>
+      </c>
+      <c r="G649" t="s">
+        <v>53</v>
+      </c>
+      <c r="H649" t="s">
+        <v>585</v>
+      </c>
+      <c r="I649" t="s">
+        <v>64</v>
+      </c>
+      <c r="J649" t="s">
+        <v>64</v>
+      </c>
+      <c r="K649" t="s">
+        <v>64</v>
+      </c>
+      <c r="L649" t="s">
+        <v>64</v>
+      </c>
+      <c r="M649" t="s">
+        <v>60</v>
+      </c>
+      <c r="N649" t="s">
+        <v>64</v>
+      </c>
+      <c r="O649" t="s">
+        <v>63</v>
+      </c>
+      <c r="P649" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q649" t="s">
+        <v>55</v>
+      </c>
+      <c r="R649" t="s">
+        <v>63</v>
+      </c>
+      <c r="S649" t="s">
+        <v>64</v>
+      </c>
+      <c r="T649" t="s">
+        <v>64</v>
+      </c>
+      <c r="U649" t="s">
+        <v>64</v>
+      </c>
+      <c r="V649" t="s">
+        <v>63</v>
+      </c>
+      <c r="W649" t="s">
+        <v>64</v>
+      </c>
+      <c r="X649" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y649" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z649" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA649" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB649" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC649" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD649" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE649" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF649" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG649" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH649" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI649" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ649" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK649" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL649" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM649" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN649" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO649" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP649" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ649" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR649" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS649" t="s">
+        <v>165</v>
+      </c>
+      <c r="AT649" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU649" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV649" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW649" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX649" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="650" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A650" t="s">
+        <v>49</v>
+      </c>
+      <c r="B650" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C650" t="s">
+        <v>107</v>
+      </c>
+      <c r="D650" t="s">
+        <v>51</v>
+      </c>
+      <c r="E650" t="s">
+        <v>166</v>
+      </c>
+      <c r="F650" t="s">
+        <v>121</v>
+      </c>
+      <c r="G650" t="s">
+        <v>53</v>
+      </c>
+      <c r="H650" t="s">
+        <v>55</v>
+      </c>
+      <c r="I650" t="s">
+        <v>64</v>
+      </c>
+      <c r="J650" t="s">
+        <v>64</v>
+      </c>
+      <c r="K650" t="s">
+        <v>64</v>
+      </c>
+      <c r="L650" t="s">
+        <v>60</v>
+      </c>
+      <c r="M650" t="s">
+        <v>60</v>
+      </c>
+      <c r="N650" t="s">
+        <v>64</v>
+      </c>
+      <c r="O650" t="s">
+        <v>64</v>
+      </c>
+      <c r="P650" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q650" t="s">
+        <v>64</v>
+      </c>
+      <c r="R650" t="s">
+        <v>60</v>
+      </c>
+      <c r="S650" t="s">
+        <v>64</v>
+      </c>
+      <c r="T650" t="s">
+        <v>64</v>
+      </c>
+      <c r="U650" t="s">
+        <v>64</v>
+      </c>
+      <c r="V650" t="s">
+        <v>64</v>
+      </c>
+      <c r="W650" t="s">
+        <v>64</v>
+      </c>
+      <c r="X650" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y650" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z650" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA650" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB650" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC650" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD650" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE650" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF650" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG650" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH650" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI650" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ650" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK650" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL650" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM650" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN650" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO650" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP650" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ650" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR650" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS650" t="s">
+        <v>169</v>
+      </c>
+      <c r="AT650" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU650" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV650" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW650" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX650" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="651" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A651" t="s">
+        <v>49</v>
+      </c>
+      <c r="B651" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C651" t="s">
+        <v>107</v>
+      </c>
+      <c r="D651" t="s">
+        <v>51</v>
+      </c>
+      <c r="E651" t="s">
+        <v>151</v>
+      </c>
+      <c r="F651" t="s">
+        <v>80</v>
+      </c>
+      <c r="G651" t="s">
+        <v>53</v>
+      </c>
+      <c r="H651" t="s">
+        <v>670</v>
+      </c>
+      <c r="I651" t="s">
+        <v>64</v>
+      </c>
+      <c r="J651" t="s">
+        <v>62</v>
+      </c>
+      <c r="K651" t="s">
+        <v>64</v>
+      </c>
+      <c r="L651" t="s">
+        <v>63</v>
+      </c>
+      <c r="M651" t="s">
+        <v>60</v>
+      </c>
+      <c r="N651" t="s">
+        <v>60</v>
+      </c>
+      <c r="O651" t="s">
+        <v>60</v>
+      </c>
+      <c r="P651" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q651" t="s">
+        <v>60</v>
+      </c>
+      <c r="R651" t="s">
+        <v>64</v>
+      </c>
+      <c r="S651" t="s">
+        <v>64</v>
+      </c>
+      <c r="T651" t="s">
+        <v>64</v>
+      </c>
+      <c r="U651" t="s">
+        <v>60</v>
+      </c>
+      <c r="V651" t="s">
+        <v>60</v>
+      </c>
+      <c r="W651" t="s">
+        <v>64</v>
+      </c>
+      <c r="X651" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y651" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z651" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA651" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB651" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC651" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD651" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE651" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF651" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG651" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH651" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI651" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ651" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK651" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL651" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM651" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN651" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO651" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP651" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ651" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR651" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS651" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT651" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU651" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV651" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW651" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX651" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="652" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A652" t="s">
+        <v>49</v>
+      </c>
+      <c r="B652" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C652" t="s">
+        <v>107</v>
+      </c>
+      <c r="D652" t="s">
+        <v>51</v>
+      </c>
+      <c r="E652" t="s">
+        <v>177</v>
+      </c>
+      <c r="F652" t="s">
+        <v>121</v>
+      </c>
+      <c r="G652" t="s">
+        <v>53</v>
+      </c>
+      <c r="H652" t="s">
+        <v>56</v>
+      </c>
+      <c r="I652" t="s">
+        <v>64</v>
+      </c>
+      <c r="J652" t="s">
+        <v>60</v>
+      </c>
+      <c r="K652" t="s">
+        <v>64</v>
+      </c>
+      <c r="L652" t="s">
+        <v>64</v>
+      </c>
+      <c r="M652" t="s">
+        <v>60</v>
+      </c>
+      <c r="N652" t="s">
+        <v>64</v>
+      </c>
+      <c r="O652" t="s">
+        <v>55</v>
+      </c>
+      <c r="P652" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q652" t="s">
+        <v>60</v>
+      </c>
+      <c r="R652" t="s">
+        <v>60</v>
+      </c>
+      <c r="S652" t="s">
+        <v>64</v>
+      </c>
+      <c r="T652" t="s">
+        <v>64</v>
+      </c>
+      <c r="U652" t="s">
+        <v>64</v>
+      </c>
+      <c r="V652" t="s">
+        <v>64</v>
+      </c>
+      <c r="W652" t="s">
+        <v>64</v>
+      </c>
+      <c r="X652" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y652" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z652" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA652" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB652" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC652" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD652" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE652" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF652" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG652" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH652" t="s">
+        <v>50</v>
+      </c>
+      <c r="AI652" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ652" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK652" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL652" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM652" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN652" t="s">
+        <v>671</v>
+      </c>
+      <c r="AO652" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP652" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ652" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR652" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS652" t="s">
+        <v>180</v>
+      </c>
+      <c r="AT652" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU652" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV652" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW652" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX652" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="653" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A653" t="s">
+        <v>49</v>
+      </c>
+      <c r="B653" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C653" t="s">
+        <v>107</v>
+      </c>
+      <c r="D653" t="s">
+        <v>51</v>
+      </c>
+      <c r="E653" t="s">
+        <v>170</v>
+      </c>
+      <c r="F653" t="s">
+        <v>80</v>
+      </c>
+      <c r="G653" t="s">
+        <v>53</v>
+      </c>
+      <c r="H653" t="s">
+        <v>321</v>
+      </c>
+      <c r="I653" t="s">
+        <v>62</v>
+      </c>
+      <c r="J653" t="s">
+        <v>59</v>
+      </c>
+      <c r="K653" t="s">
+        <v>123</v>
+      </c>
+      <c r="L653" t="s">
+        <v>64</v>
+      </c>
+      <c r="M653" t="s">
+        <v>64</v>
+      </c>
+      <c r="N653" t="s">
+        <v>55</v>
+      </c>
+      <c r="O653" t="s">
+        <v>62</v>
+      </c>
+      <c r="P653" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q653" t="s">
+        <v>63</v>
+      </c>
+      <c r="R653" t="s">
+        <v>59</v>
+      </c>
+      <c r="S653" t="s">
+        <v>55</v>
+      </c>
+      <c r="T653" t="s">
+        <v>60</v>
+      </c>
+      <c r="U653" t="s">
+        <v>64</v>
+      </c>
+      <c r="V653" t="s">
+        <v>58</v>
+      </c>
+      <c r="W653" t="s">
+        <v>63</v>
+      </c>
+      <c r="X653" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y653" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z653" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA653" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB653" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC653" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD653" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE653" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF653" t="s">
+        <v>311</v>
+      </c>
+      <c r="AG653" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH653" t="s">
+        <v>598</v>
+      </c>
+      <c r="AI653" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ653" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK653" t="s">
+        <v>598</v>
+      </c>
+      <c r="AL653" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM653" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN653" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO653" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP653" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ653" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR653" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS653" t="s">
+        <v>176</v>
+      </c>
+      <c r="AT653" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU653" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV653" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW653" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX653" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="654" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A654" t="s">
+        <v>49</v>
+      </c>
+      <c r="B654" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C654" t="s">
+        <v>107</v>
+      </c>
+      <c r="D654" t="s">
+        <v>51</v>
+      </c>
+      <c r="E654" t="s">
+        <v>109</v>
+      </c>
+      <c r="F654" t="s">
+        <v>270</v>
+      </c>
+      <c r="G654" t="s">
+        <v>53</v>
+      </c>
+      <c r="H654" t="s">
+        <v>65</v>
+      </c>
+      <c r="I654" t="s">
+        <v>64</v>
+      </c>
+      <c r="J654" t="s">
+        <v>64</v>
+      </c>
+      <c r="K654" t="s">
+        <v>64</v>
+      </c>
+      <c r="L654" t="s">
+        <v>60</v>
+      </c>
+      <c r="M654" t="s">
+        <v>64</v>
+      </c>
+      <c r="N654" t="s">
+        <v>60</v>
+      </c>
+      <c r="O654" t="s">
+        <v>60</v>
+      </c>
+      <c r="P654" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q654" t="s">
+        <v>64</v>
+      </c>
+      <c r="R654" t="s">
+        <v>60</v>
+      </c>
+      <c r="S654" t="s">
+        <v>64</v>
+      </c>
+      <c r="T654" t="s">
+        <v>60</v>
+      </c>
+      <c r="U654" t="s">
+        <v>64</v>
+      </c>
+      <c r="V654" t="s">
+        <v>64</v>
+      </c>
+      <c r="W654" t="s">
+        <v>64</v>
+      </c>
+      <c r="X654" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y654" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z654" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA654" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB654" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC654" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD654" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE654" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF654" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG654" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH654" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI654" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ654" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK654" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL654" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM654" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN654" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO654" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP654" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ654" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR654" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS654" t="s">
+        <v>433</v>
+      </c>
+      <c r="AT654" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU654" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV654" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW654" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX654" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="655" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A655" t="s">
+        <v>49</v>
+      </c>
+      <c r="B655" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C655" t="s">
+        <v>107</v>
+      </c>
+      <c r="D655" t="s">
+        <v>51</v>
+      </c>
+      <c r="E655" t="s">
+        <v>148</v>
+      </c>
+      <c r="F655" t="s">
+        <v>80</v>
+      </c>
+      <c r="G655" t="s">
+        <v>53</v>
+      </c>
+      <c r="H655" t="s">
+        <v>69</v>
+      </c>
+      <c r="I655" t="s">
+        <v>64</v>
+      </c>
+      <c r="J655" t="s">
+        <v>64</v>
+      </c>
+      <c r="K655" t="s">
+        <v>64</v>
+      </c>
+      <c r="L655" t="s">
+        <v>64</v>
+      </c>
+      <c r="M655" t="s">
+        <v>60</v>
+      </c>
+      <c r="N655" t="s">
+        <v>64</v>
+      </c>
+      <c r="O655" t="s">
+        <v>64</v>
+      </c>
+      <c r="P655" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q655" t="s">
+        <v>64</v>
+      </c>
+      <c r="R655" t="s">
+        <v>64</v>
+      </c>
+      <c r="S655" t="s">
+        <v>64</v>
+      </c>
+      <c r="T655" t="s">
+        <v>64</v>
+      </c>
+      <c r="U655" t="s">
+        <v>64</v>
+      </c>
+      <c r="V655" t="s">
+        <v>64</v>
+      </c>
+      <c r="W655" t="s">
+        <v>64</v>
+      </c>
+      <c r="X655" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y655" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z655" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA655" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB655" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC655" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD655" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE655" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF655" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG655" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH655" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI655" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ655" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK655" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL655" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM655" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN655" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO655" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP655" s="1">
+        <v>44753</v>
+      </c>
+      <c r="AQ655" t="s">
+        <v>530</v>
+      </c>
+      <c r="AR655" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS655" t="s">
+        <v>150</v>
+      </c>
+      <c r="AT655" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU655" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV655" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW655" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX655" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="656" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A656" t="s">
+        <v>49</v>
+      </c>
+      <c r="B656" s="1">
+        <v>44751</v>
+      </c>
+      <c r="C656" t="s">
+        <v>107</v>
+      </c>
+      <c r="D656" t="s">
+        <v>51</v>
+      </c>
+      <c r="E656" t="s">
+        <v>115</v>
+      </c>
+      <c r="F656" t="s">
+        <v>80</v>
+      </c>
+      <c r="G656" t="s">
+        <v>53</v>
+      </c>
+      <c r="H656" t="s">
+        <v>508</v>
+      </c>
+      <c r="I656" t="s">
+        <v>55</v>
+      </c>
+      <c r="J656" t="s">
+        <v>63</v>
+      </c>
+      <c r="K656" t="s">
+        <v>64</v>
+      </c>
+      <c r="L656" t="s">
+        <v>55</v>
+      </c>
+      <c r="M656" t="s">
+        <v>64</v>
+      </c>
+      <c r="N656" t="s">
+        <v>64</v>
+      </c>
+      <c r="O656" t="s">
+        <v>62</v>
+      </c>
+      <c r="P656" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q656" t="s">
+        <v>64</v>
+      </c>
+      <c r="R656" t="s">
+        <v>64</v>
+      </c>
+      <c r="S656" t="s">
+        <v>63</v>
+      </c>
+      <c r="T656" t="s">
+        <v>58</v>
+      </c>
+      <c r="U656" t="s">
+        <v>59</v>
+      </c>
+      <c r="V656" t="s">
+        <v>62</v>
+      </c>
+      <c r="W656" t="s">
+        <v>63</v>
+      </c>
+      <c r="X656" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y656" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z656" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA656" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB656" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC656" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD656" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE656" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF656" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG656" t="s">
+        <v>220</v>
+      </c>
+      <c r="AH656" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI656" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ656" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK656" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL656" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM656" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN656" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO656" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP656" s="1">
+        <v>44752</v>
+      </c>
+      <c r="AQ656" t="s">
+        <v>85</v>
+      </c>
+      <c r="AR656" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS656" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT656" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU656" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV656" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW656" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX656" t="s">
         <v>85</v>
       </c>
     </row>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20395"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69A4FA0A-76D9-4F0C-8629-772111E6C0DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'evento 998'!$A$1:$AY$228</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9851" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11174" uniqueCount="378">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1079,12 +1081,87 @@
   </si>
   <si>
     <t>VA LA REBECA</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>946</t>
+  </si>
+  <si>
+    <t>947</t>
+  </si>
+  <si>
+    <t>1245</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD CAIMALITO</t>
+  </si>
+  <si>
+    <t>1246</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD ARABIA</t>
+  </si>
+  <si>
+    <t>1247</t>
+  </si>
+  <si>
+    <t>PUESTO DE SALUD MORELIA</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>SIVIGILA - 2018 -18.6.0$0$0.0</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>6600161600</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>CARCEL LA 40</t>
+  </si>
+  <si>
+    <t>816001832</t>
+  </si>
+  <si>
+    <t>EPMSC PEREIRA</t>
+  </si>
+  <si>
+    <t>2087</t>
+  </si>
+  <si>
+    <t>2088</t>
+  </si>
+  <si>
+    <t>2089</t>
+  </si>
+  <si>
+    <t>CIRCUNVALAR</t>
+  </si>
+  <si>
+    <t>CRA 16 BIS  8-24 PINARES OKO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1216,7 +1293,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1228,7 +1305,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1245,9 +1322,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1275,31 +1352,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1327,23 +1387,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1496,9 +1539,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY201"/>
+  <dimension ref="A1:AY228"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -32657,7 +32702,4193 @@
         <v>72</v>
       </c>
     </row>
+    <row r="202" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>51</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C202" t="s">
+        <v>75</v>
+      </c>
+      <c r="D202" t="s">
+        <v>53</v>
+      </c>
+      <c r="E202" t="s">
+        <v>136</v>
+      </c>
+      <c r="F202" t="s">
+        <v>55</v>
+      </c>
+      <c r="G202" t="s">
+        <v>56</v>
+      </c>
+      <c r="H202" t="s">
+        <v>353</v>
+      </c>
+      <c r="I202" t="s">
+        <v>58</v>
+      </c>
+      <c r="J202" t="s">
+        <v>60</v>
+      </c>
+      <c r="K202" t="s">
+        <v>74</v>
+      </c>
+      <c r="L202" t="s">
+        <v>52</v>
+      </c>
+      <c r="M202" t="s">
+        <v>52</v>
+      </c>
+      <c r="N202" t="s">
+        <v>82</v>
+      </c>
+      <c r="O202" t="s">
+        <v>59</v>
+      </c>
+      <c r="P202" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q202" t="s">
+        <v>106</v>
+      </c>
+      <c r="R202" t="s">
+        <v>52</v>
+      </c>
+      <c r="S202" t="s">
+        <v>60</v>
+      </c>
+      <c r="T202" t="s">
+        <v>52</v>
+      </c>
+      <c r="U202" t="s">
+        <v>58</v>
+      </c>
+      <c r="V202" t="s">
+        <v>52</v>
+      </c>
+      <c r="W202" t="s">
+        <v>52</v>
+      </c>
+      <c r="X202" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y202" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD202" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF202" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG202" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH202" t="s">
+        <v>165</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK202" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL202" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM202" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN202" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP202" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ202" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR202" s="1">
+        <v>44996</v>
+      </c>
+      <c r="AS202" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT202" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU202" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV202" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW202" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX202" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY202" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="203" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C203" t="s">
+        <v>75</v>
+      </c>
+      <c r="D203" t="s">
+        <v>53</v>
+      </c>
+      <c r="E203" t="s">
+        <v>54</v>
+      </c>
+      <c r="F203" t="s">
+        <v>55</v>
+      </c>
+      <c r="G203" t="s">
+        <v>56</v>
+      </c>
+      <c r="H203" t="s">
+        <v>354</v>
+      </c>
+      <c r="I203" t="s">
+        <v>60</v>
+      </c>
+      <c r="J203" t="s">
+        <v>76</v>
+      </c>
+      <c r="K203" t="s">
+        <v>60</v>
+      </c>
+      <c r="L203" t="s">
+        <v>52</v>
+      </c>
+      <c r="M203" t="s">
+        <v>52</v>
+      </c>
+      <c r="N203" t="s">
+        <v>52</v>
+      </c>
+      <c r="O203" t="s">
+        <v>60</v>
+      </c>
+      <c r="P203" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q203" t="s">
+        <v>58</v>
+      </c>
+      <c r="R203" t="s">
+        <v>58</v>
+      </c>
+      <c r="S203" t="s">
+        <v>58</v>
+      </c>
+      <c r="T203" t="s">
+        <v>58</v>
+      </c>
+      <c r="U203" t="s">
+        <v>58</v>
+      </c>
+      <c r="V203" t="s">
+        <v>58</v>
+      </c>
+      <c r="W203" t="s">
+        <v>52</v>
+      </c>
+      <c r="X203" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y203" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD203" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF203" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG203" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH203" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ203" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK203" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL203" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM203" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN203" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP203" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ203" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR203" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS203" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT203" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU203" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV203" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW203" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX203" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY203" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="204" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>51</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44995</v>
+      </c>
+      <c r="C204" t="s">
+        <v>75</v>
+      </c>
+      <c r="D204" t="s">
+        <v>53</v>
+      </c>
+      <c r="E204" t="s">
+        <v>54</v>
+      </c>
+      <c r="F204" t="s">
+        <v>166</v>
+      </c>
+      <c r="G204" t="s">
+        <v>56</v>
+      </c>
+      <c r="H204" t="s">
+        <v>355</v>
+      </c>
+      <c r="I204" t="s">
+        <v>58</v>
+      </c>
+      <c r="J204" t="s">
+        <v>58</v>
+      </c>
+      <c r="K204" t="s">
+        <v>58</v>
+      </c>
+      <c r="L204" t="s">
+        <v>58</v>
+      </c>
+      <c r="M204" t="s">
+        <v>58</v>
+      </c>
+      <c r="N204" t="s">
+        <v>58</v>
+      </c>
+      <c r="O204" t="s">
+        <v>58</v>
+      </c>
+      <c r="P204" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q204" t="s">
+        <v>52</v>
+      </c>
+      <c r="R204" t="s">
+        <v>58</v>
+      </c>
+      <c r="S204" t="s">
+        <v>58</v>
+      </c>
+      <c r="T204" t="s">
+        <v>58</v>
+      </c>
+      <c r="U204" t="s">
+        <v>58</v>
+      </c>
+      <c r="V204" t="s">
+        <v>58</v>
+      </c>
+      <c r="W204" t="s">
+        <v>58</v>
+      </c>
+      <c r="X204" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y204" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z204" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD204" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF204" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG204" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH204" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ204" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK204" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL204" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM204" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN204" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP204" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ204" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR204" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS204" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT204" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU204" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV204" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW204" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX204" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY204" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="205" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>51</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C205" t="s">
+        <v>75</v>
+      </c>
+      <c r="D205" t="s">
+        <v>53</v>
+      </c>
+      <c r="E205" t="s">
+        <v>54</v>
+      </c>
+      <c r="F205" t="s">
+        <v>80</v>
+      </c>
+      <c r="G205" t="s">
+        <v>56</v>
+      </c>
+      <c r="H205" t="s">
+        <v>61</v>
+      </c>
+      <c r="I205" t="s">
+        <v>74</v>
+      </c>
+      <c r="J205" t="s">
+        <v>74</v>
+      </c>
+      <c r="K205" t="s">
+        <v>59</v>
+      </c>
+      <c r="L205" t="s">
+        <v>59</v>
+      </c>
+      <c r="M205" t="s">
+        <v>60</v>
+      </c>
+      <c r="N205" t="s">
+        <v>52</v>
+      </c>
+      <c r="O205" t="s">
+        <v>52</v>
+      </c>
+      <c r="P205" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q205" t="s">
+        <v>58</v>
+      </c>
+      <c r="R205" t="s">
+        <v>60</v>
+      </c>
+      <c r="S205" t="s">
+        <v>58</v>
+      </c>
+      <c r="T205" t="s">
+        <v>52</v>
+      </c>
+      <c r="U205" t="s">
+        <v>58</v>
+      </c>
+      <c r="V205" t="s">
+        <v>58</v>
+      </c>
+      <c r="W205" t="s">
+        <v>52</v>
+      </c>
+      <c r="X205" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y205" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z205" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD205" t="s">
+        <v>166</v>
+      </c>
+      <c r="AE205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF205" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG205" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH205" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ205" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK205" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL205" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM205" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN205" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP205" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ205" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR205" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS205" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT205" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU205" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV205" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW205" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX205" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY205" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="206" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>51</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C206" t="s">
+        <v>75</v>
+      </c>
+      <c r="D206" t="s">
+        <v>53</v>
+      </c>
+      <c r="E206" t="s">
+        <v>54</v>
+      </c>
+      <c r="F206" t="s">
+        <v>133</v>
+      </c>
+      <c r="G206" t="s">
+        <v>56</v>
+      </c>
+      <c r="H206" t="s">
+        <v>356</v>
+      </c>
+      <c r="I206" t="s">
+        <v>58</v>
+      </c>
+      <c r="J206" t="s">
+        <v>58</v>
+      </c>
+      <c r="K206" t="s">
+        <v>52</v>
+      </c>
+      <c r="L206" t="s">
+        <v>58</v>
+      </c>
+      <c r="M206" t="s">
+        <v>58</v>
+      </c>
+      <c r="N206" t="s">
+        <v>58</v>
+      </c>
+      <c r="O206" t="s">
+        <v>58</v>
+      </c>
+      <c r="P206" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q206" t="s">
+        <v>58</v>
+      </c>
+      <c r="R206" t="s">
+        <v>58</v>
+      </c>
+      <c r="S206" t="s">
+        <v>58</v>
+      </c>
+      <c r="T206" t="s">
+        <v>58</v>
+      </c>
+      <c r="U206" t="s">
+        <v>58</v>
+      </c>
+      <c r="V206" t="s">
+        <v>58</v>
+      </c>
+      <c r="W206" t="s">
+        <v>58</v>
+      </c>
+      <c r="X206" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y206" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z206" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD206" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF206" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG206" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH206" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ206" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK206" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL206" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM206" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN206" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP206" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ206" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR206" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS206" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT206" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU206" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV206" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW206" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX206" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY206" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="207" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>51</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C207" t="s">
+        <v>75</v>
+      </c>
+      <c r="D207" t="s">
+        <v>53</v>
+      </c>
+      <c r="E207" t="s">
+        <v>54</v>
+      </c>
+      <c r="F207" t="s">
+        <v>243</v>
+      </c>
+      <c r="G207" t="s">
+        <v>56</v>
+      </c>
+      <c r="H207" t="s">
+        <v>358</v>
+      </c>
+      <c r="I207" t="s">
+        <v>58</v>
+      </c>
+      <c r="J207" t="s">
+        <v>52</v>
+      </c>
+      <c r="K207" t="s">
+        <v>58</v>
+      </c>
+      <c r="L207" t="s">
+        <v>52</v>
+      </c>
+      <c r="M207" t="s">
+        <v>58</v>
+      </c>
+      <c r="N207" t="s">
+        <v>58</v>
+      </c>
+      <c r="O207" t="s">
+        <v>58</v>
+      </c>
+      <c r="P207" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q207" t="s">
+        <v>58</v>
+      </c>
+      <c r="R207" t="s">
+        <v>58</v>
+      </c>
+      <c r="S207" t="s">
+        <v>58</v>
+      </c>
+      <c r="T207" t="s">
+        <v>58</v>
+      </c>
+      <c r="U207" t="s">
+        <v>58</v>
+      </c>
+      <c r="V207" t="s">
+        <v>58</v>
+      </c>
+      <c r="W207" t="s">
+        <v>58</v>
+      </c>
+      <c r="X207" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y207" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z207" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD207" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF207" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG207" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH207" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ207" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK207" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL207" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM207" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN207" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP207" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ207" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR207" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS207" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT207" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU207" t="s">
+        <v>359</v>
+      </c>
+      <c r="AV207" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW207" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX207" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY207" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C208" t="s">
+        <v>75</v>
+      </c>
+      <c r="D208" t="s">
+        <v>53</v>
+      </c>
+      <c r="E208" t="s">
+        <v>54</v>
+      </c>
+      <c r="F208" t="s">
+        <v>120</v>
+      </c>
+      <c r="G208" t="s">
+        <v>56</v>
+      </c>
+      <c r="H208" t="s">
+        <v>360</v>
+      </c>
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+      <c r="J208" t="s">
+        <v>58</v>
+      </c>
+      <c r="K208" t="s">
+        <v>58</v>
+      </c>
+      <c r="L208" t="s">
+        <v>58</v>
+      </c>
+      <c r="M208" t="s">
+        <v>52</v>
+      </c>
+      <c r="N208" t="s">
+        <v>58</v>
+      </c>
+      <c r="O208" t="s">
+        <v>58</v>
+      </c>
+      <c r="P208" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q208" t="s">
+        <v>58</v>
+      </c>
+      <c r="R208" t="s">
+        <v>58</v>
+      </c>
+      <c r="S208" t="s">
+        <v>58</v>
+      </c>
+      <c r="T208" t="s">
+        <v>58</v>
+      </c>
+      <c r="U208" t="s">
+        <v>58</v>
+      </c>
+      <c r="V208" t="s">
+        <v>58</v>
+      </c>
+      <c r="W208" t="s">
+        <v>58</v>
+      </c>
+      <c r="X208" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y208" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD208" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG208" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH208" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK208" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL208" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM208" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN208" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP208" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ208" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR208" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS208" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT208" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU208" t="s">
+        <v>361</v>
+      </c>
+      <c r="AV208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW208" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX208" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY208" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="209" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>51</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C209" t="s">
+        <v>75</v>
+      </c>
+      <c r="D209" t="s">
+        <v>53</v>
+      </c>
+      <c r="E209" t="s">
+        <v>112</v>
+      </c>
+      <c r="F209" t="s">
+        <v>55</v>
+      </c>
+      <c r="G209" t="s">
+        <v>56</v>
+      </c>
+      <c r="H209" t="s">
+        <v>362</v>
+      </c>
+      <c r="I209" t="s">
+        <v>58</v>
+      </c>
+      <c r="J209" t="s">
+        <v>58</v>
+      </c>
+      <c r="K209" t="s">
+        <v>58</v>
+      </c>
+      <c r="L209" t="s">
+        <v>58</v>
+      </c>
+      <c r="M209" t="s">
+        <v>58</v>
+      </c>
+      <c r="N209" t="s">
+        <v>58</v>
+      </c>
+      <c r="O209" t="s">
+        <v>58</v>
+      </c>
+      <c r="P209" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q209" t="s">
+        <v>58</v>
+      </c>
+      <c r="R209" t="s">
+        <v>58</v>
+      </c>
+      <c r="S209" t="s">
+        <v>58</v>
+      </c>
+      <c r="T209" t="s">
+        <v>58</v>
+      </c>
+      <c r="U209" t="s">
+        <v>58</v>
+      </c>
+      <c r="V209" t="s">
+        <v>58</v>
+      </c>
+      <c r="W209" t="s">
+        <v>58</v>
+      </c>
+      <c r="X209" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y209" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD209" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF209" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH209" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK209" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL209" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM209" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN209" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP209" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ209" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR209" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS209" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT209" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU209" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV209" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW209" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX209" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY209" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="210" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44989</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>53</v>
+      </c>
+      <c r="E210" t="s">
+        <v>174</v>
+      </c>
+      <c r="F210" t="s">
+        <v>55</v>
+      </c>
+      <c r="G210" t="s">
+        <v>56</v>
+      </c>
+      <c r="H210" t="s">
+        <v>363</v>
+      </c>
+      <c r="I210" t="s">
+        <v>59</v>
+      </c>
+      <c r="J210" t="s">
+        <v>75</v>
+      </c>
+      <c r="K210" t="s">
+        <v>188</v>
+      </c>
+      <c r="L210" t="s">
+        <v>96</v>
+      </c>
+      <c r="M210" t="s">
+        <v>59</v>
+      </c>
+      <c r="N210" t="s">
+        <v>52</v>
+      </c>
+      <c r="O210" t="s">
+        <v>106</v>
+      </c>
+      <c r="P210" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q210" t="s">
+        <v>60</v>
+      </c>
+      <c r="R210" t="s">
+        <v>74</v>
+      </c>
+      <c r="S210" t="s">
+        <v>74</v>
+      </c>
+      <c r="T210" t="s">
+        <v>59</v>
+      </c>
+      <c r="U210" t="s">
+        <v>106</v>
+      </c>
+      <c r="V210" t="s">
+        <v>74</v>
+      </c>
+      <c r="W210" t="s">
+        <v>76</v>
+      </c>
+      <c r="X210" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y210" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z210" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD210" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF210" t="s">
+        <v>226</v>
+      </c>
+      <c r="AG210" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH210" t="s">
+        <v>364</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ210" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK210" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL210" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM210" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN210" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP210" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ210" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR210" s="1">
+        <v>44991</v>
+      </c>
+      <c r="AS210" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT210" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU210" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV210" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW210" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX210" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY210" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="211" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C211" t="s">
+        <v>75</v>
+      </c>
+      <c r="D211" t="s">
+        <v>53</v>
+      </c>
+      <c r="E211" t="s">
+        <v>118</v>
+      </c>
+      <c r="F211" t="s">
+        <v>183</v>
+      </c>
+      <c r="G211" t="s">
+        <v>56</v>
+      </c>
+      <c r="H211" t="s">
+        <v>60</v>
+      </c>
+      <c r="I211" t="s">
+        <v>58</v>
+      </c>
+      <c r="J211" t="s">
+        <v>58</v>
+      </c>
+      <c r="K211" t="s">
+        <v>58</v>
+      </c>
+      <c r="L211" t="s">
+        <v>58</v>
+      </c>
+      <c r="M211" t="s">
+        <v>58</v>
+      </c>
+      <c r="N211" t="s">
+        <v>52</v>
+      </c>
+      <c r="O211" t="s">
+        <v>52</v>
+      </c>
+      <c r="P211" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q211" t="s">
+        <v>58</v>
+      </c>
+      <c r="R211" t="s">
+        <v>58</v>
+      </c>
+      <c r="S211" t="s">
+        <v>52</v>
+      </c>
+      <c r="T211" t="s">
+        <v>58</v>
+      </c>
+      <c r="U211" t="s">
+        <v>58</v>
+      </c>
+      <c r="V211" t="s">
+        <v>58</v>
+      </c>
+      <c r="W211" t="s">
+        <v>58</v>
+      </c>
+      <c r="X211" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y211" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK211" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL211" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM211" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN211" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP211" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ211" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR211" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS211" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT211" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU211" t="s">
+        <v>186</v>
+      </c>
+      <c r="AV211" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW211" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX211" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY211" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="212" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C212" t="s">
+        <v>75</v>
+      </c>
+      <c r="D212" t="s">
+        <v>53</v>
+      </c>
+      <c r="E212" t="s">
+        <v>146</v>
+      </c>
+      <c r="F212" t="s">
+        <v>55</v>
+      </c>
+      <c r="G212" t="s">
+        <v>56</v>
+      </c>
+      <c r="H212" t="s">
+        <v>160</v>
+      </c>
+      <c r="I212" t="s">
+        <v>52</v>
+      </c>
+      <c r="J212" t="s">
+        <v>52</v>
+      </c>
+      <c r="K212" t="s">
+        <v>58</v>
+      </c>
+      <c r="L212" t="s">
+        <v>58</v>
+      </c>
+      <c r="M212" t="s">
+        <v>58</v>
+      </c>
+      <c r="N212" t="s">
+        <v>58</v>
+      </c>
+      <c r="O212" t="s">
+        <v>52</v>
+      </c>
+      <c r="P212" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q212" t="s">
+        <v>52</v>
+      </c>
+      <c r="R212" t="s">
+        <v>58</v>
+      </c>
+      <c r="S212" t="s">
+        <v>58</v>
+      </c>
+      <c r="T212" t="s">
+        <v>58</v>
+      </c>
+      <c r="U212" t="s">
+        <v>58</v>
+      </c>
+      <c r="V212" t="s">
+        <v>58</v>
+      </c>
+      <c r="W212" t="s">
+        <v>58</v>
+      </c>
+      <c r="X212" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y212" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z212" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD212" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF212" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH212" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK212" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL212" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM212" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN212" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP212" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ212" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR212" s="1">
+        <v>44997</v>
+      </c>
+      <c r="AS212" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT212" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU212" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV212" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW212" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX212" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY212" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="213" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D213" t="s">
+        <v>53</v>
+      </c>
+      <c r="E213" t="s">
+        <v>313</v>
+      </c>
+      <c r="F213" t="s">
+        <v>86</v>
+      </c>
+      <c r="G213" t="s">
+        <v>56</v>
+      </c>
+      <c r="H213" t="s">
+        <v>61</v>
+      </c>
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+      <c r="J213" t="s">
+        <v>58</v>
+      </c>
+      <c r="K213" t="s">
+        <v>52</v>
+      </c>
+      <c r="L213" t="s">
+        <v>58</v>
+      </c>
+      <c r="M213" t="s">
+        <v>58</v>
+      </c>
+      <c r="N213" t="s">
+        <v>58</v>
+      </c>
+      <c r="O213" t="s">
+        <v>58</v>
+      </c>
+      <c r="P213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q213" t="s">
+        <v>52</v>
+      </c>
+      <c r="R213" t="s">
+        <v>52</v>
+      </c>
+      <c r="S213" t="s">
+        <v>58</v>
+      </c>
+      <c r="T213" t="s">
+        <v>58</v>
+      </c>
+      <c r="U213" t="s">
+        <v>58</v>
+      </c>
+      <c r="V213" t="s">
+        <v>52</v>
+      </c>
+      <c r="W213" t="s">
+        <v>58</v>
+      </c>
+      <c r="X213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y213" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD213" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF213" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG213" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH213" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK213" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL213" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM213" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN213" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP213" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ213" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR213" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS213" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT213" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU213" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV213" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW213" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX213" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY213" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="214" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>51</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C214" t="s">
+        <v>75</v>
+      </c>
+      <c r="D214" t="s">
+        <v>53</v>
+      </c>
+      <c r="E214" t="s">
+        <v>54</v>
+      </c>
+      <c r="F214" t="s">
+        <v>73</v>
+      </c>
+      <c r="G214" t="s">
+        <v>56</v>
+      </c>
+      <c r="H214" t="s">
+        <v>61</v>
+      </c>
+      <c r="I214" t="s">
+        <v>58</v>
+      </c>
+      <c r="J214" t="s">
+        <v>96</v>
+      </c>
+      <c r="K214" t="s">
+        <v>74</v>
+      </c>
+      <c r="L214" t="s">
+        <v>58</v>
+      </c>
+      <c r="M214" t="s">
+        <v>52</v>
+      </c>
+      <c r="N214" t="s">
+        <v>59</v>
+      </c>
+      <c r="O214" t="s">
+        <v>59</v>
+      </c>
+      <c r="P214" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q214" t="s">
+        <v>59</v>
+      </c>
+      <c r="R214" t="s">
+        <v>58</v>
+      </c>
+      <c r="S214" t="s">
+        <v>59</v>
+      </c>
+      <c r="T214" t="s">
+        <v>58</v>
+      </c>
+      <c r="U214" t="s">
+        <v>58</v>
+      </c>
+      <c r="V214" t="s">
+        <v>52</v>
+      </c>
+      <c r="W214" t="s">
+        <v>60</v>
+      </c>
+      <c r="X214" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y214" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD214" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF214" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG214" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH214" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ214" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK214" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL214" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM214" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN214" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP214" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ214" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR214" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS214" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT214" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU214" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV214" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW214" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX214" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY214" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="215" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>51</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C215" t="s">
+        <v>75</v>
+      </c>
+      <c r="D215" t="s">
+        <v>53</v>
+      </c>
+      <c r="E215" t="s">
+        <v>54</v>
+      </c>
+      <c r="F215" t="s">
+        <v>126</v>
+      </c>
+      <c r="G215" t="s">
+        <v>56</v>
+      </c>
+      <c r="H215" t="s">
+        <v>275</v>
+      </c>
+      <c r="I215" t="s">
+        <v>58</v>
+      </c>
+      <c r="J215" t="s">
+        <v>58</v>
+      </c>
+      <c r="K215" t="s">
+        <v>58</v>
+      </c>
+      <c r="L215" t="s">
+        <v>58</v>
+      </c>
+      <c r="M215" t="s">
+        <v>58</v>
+      </c>
+      <c r="N215" t="s">
+        <v>58</v>
+      </c>
+      <c r="O215" t="s">
+        <v>58</v>
+      </c>
+      <c r="P215" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q215" t="s">
+        <v>58</v>
+      </c>
+      <c r="R215" t="s">
+        <v>58</v>
+      </c>
+      <c r="S215" t="s">
+        <v>58</v>
+      </c>
+      <c r="T215" t="s">
+        <v>58</v>
+      </c>
+      <c r="U215" t="s">
+        <v>58</v>
+      </c>
+      <c r="V215" t="s">
+        <v>58</v>
+      </c>
+      <c r="W215" t="s">
+        <v>58</v>
+      </c>
+      <c r="X215" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y215" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD215" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF215" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK215" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL215" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM215" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN215" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP215" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ215" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR215" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS215" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT215" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU215" t="s">
+        <v>349</v>
+      </c>
+      <c r="AV215" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW215" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX215" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY215" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="216" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>51</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C216" t="s">
+        <v>75</v>
+      </c>
+      <c r="D216" t="s">
+        <v>53</v>
+      </c>
+      <c r="E216" t="s">
+        <v>54</v>
+      </c>
+      <c r="F216" t="s">
+        <v>123</v>
+      </c>
+      <c r="G216" t="s">
+        <v>56</v>
+      </c>
+      <c r="H216" t="s">
+        <v>296</v>
+      </c>
+      <c r="I216" t="s">
+        <v>58</v>
+      </c>
+      <c r="J216" t="s">
+        <v>58</v>
+      </c>
+      <c r="K216" t="s">
+        <v>58</v>
+      </c>
+      <c r="L216" t="s">
+        <v>58</v>
+      </c>
+      <c r="M216" t="s">
+        <v>52</v>
+      </c>
+      <c r="N216" t="s">
+        <v>52</v>
+      </c>
+      <c r="O216" t="s">
+        <v>58</v>
+      </c>
+      <c r="P216" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q216" t="s">
+        <v>58</v>
+      </c>
+      <c r="R216" t="s">
+        <v>52</v>
+      </c>
+      <c r="S216" t="s">
+        <v>58</v>
+      </c>
+      <c r="T216" t="s">
+        <v>58</v>
+      </c>
+      <c r="U216" t="s">
+        <v>58</v>
+      </c>
+      <c r="V216" t="s">
+        <v>58</v>
+      </c>
+      <c r="W216" t="s">
+        <v>58</v>
+      </c>
+      <c r="X216" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y216" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK216" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL216" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM216" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN216" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP216" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ216" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR216" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS216" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT216" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU216" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV216" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW216" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX216" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY216" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="217" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>51</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C217" t="s">
+        <v>75</v>
+      </c>
+      <c r="D217" t="s">
+        <v>53</v>
+      </c>
+      <c r="E217" t="s">
+        <v>155</v>
+      </c>
+      <c r="F217" t="s">
+        <v>55</v>
+      </c>
+      <c r="G217" t="s">
+        <v>56</v>
+      </c>
+      <c r="H217" t="s">
+        <v>366</v>
+      </c>
+      <c r="I217" t="s">
+        <v>58</v>
+      </c>
+      <c r="J217" t="s">
+        <v>52</v>
+      </c>
+      <c r="K217" t="s">
+        <v>58</v>
+      </c>
+      <c r="L217" t="s">
+        <v>58</v>
+      </c>
+      <c r="M217" t="s">
+        <v>60</v>
+      </c>
+      <c r="N217" t="s">
+        <v>60</v>
+      </c>
+      <c r="O217" t="s">
+        <v>58</v>
+      </c>
+      <c r="P217" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q217" t="s">
+        <v>59</v>
+      </c>
+      <c r="R217" t="s">
+        <v>58</v>
+      </c>
+      <c r="S217" t="s">
+        <v>59</v>
+      </c>
+      <c r="T217" t="s">
+        <v>52</v>
+      </c>
+      <c r="U217" t="s">
+        <v>59</v>
+      </c>
+      <c r="V217" t="s">
+        <v>60</v>
+      </c>
+      <c r="W217" t="s">
+        <v>60</v>
+      </c>
+      <c r="X217" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y217" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z217" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD217" t="s">
+        <v>243</v>
+      </c>
+      <c r="AE217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF217" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG217" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH217" t="s">
+        <v>243</v>
+      </c>
+      <c r="AI217" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ217" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK217" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL217" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM217" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN217" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP217" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ217" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR217" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS217" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT217" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU217" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV217" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW217" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX217" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY217" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="218" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C218" t="s">
+        <v>75</v>
+      </c>
+      <c r="D218" t="s">
+        <v>53</v>
+      </c>
+      <c r="E218" t="s">
+        <v>104</v>
+      </c>
+      <c r="F218" t="s">
+        <v>55</v>
+      </c>
+      <c r="G218" t="s">
+        <v>56</v>
+      </c>
+      <c r="H218" t="s">
+        <v>335</v>
+      </c>
+      <c r="I218" t="s">
+        <v>58</v>
+      </c>
+      <c r="J218" t="s">
+        <v>77</v>
+      </c>
+      <c r="K218" t="s">
+        <v>96</v>
+      </c>
+      <c r="L218" t="s">
+        <v>96</v>
+      </c>
+      <c r="M218" t="s">
+        <v>59</v>
+      </c>
+      <c r="N218" t="s">
+        <v>59</v>
+      </c>
+      <c r="O218" t="s">
+        <v>75</v>
+      </c>
+      <c r="P218" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q218" t="s">
+        <v>106</v>
+      </c>
+      <c r="R218" t="s">
+        <v>60</v>
+      </c>
+      <c r="S218" t="s">
+        <v>60</v>
+      </c>
+      <c r="T218" t="s">
+        <v>52</v>
+      </c>
+      <c r="U218" t="s">
+        <v>60</v>
+      </c>
+      <c r="V218" t="s">
+        <v>52</v>
+      </c>
+      <c r="W218" t="s">
+        <v>58</v>
+      </c>
+      <c r="X218" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y218" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD218" t="s">
+        <v>367</v>
+      </c>
+      <c r="AE218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF218" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG218" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH218" t="s">
+        <v>367</v>
+      </c>
+      <c r="AI218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK218" t="s">
+        <v>367</v>
+      </c>
+      <c r="AL218" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM218" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN218" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP218" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ218" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR218" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS218" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT218" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU218" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV218" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW218" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX218" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY218" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="219" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>51</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C219" t="s">
+        <v>75</v>
+      </c>
+      <c r="D219" t="s">
+        <v>53</v>
+      </c>
+      <c r="E219" t="s">
+        <v>151</v>
+      </c>
+      <c r="F219" t="s">
+        <v>55</v>
+      </c>
+      <c r="G219" t="s">
+        <v>56</v>
+      </c>
+      <c r="H219" t="s">
+        <v>61</v>
+      </c>
+      <c r="I219" t="s">
+        <v>58</v>
+      </c>
+      <c r="J219" t="s">
+        <v>59</v>
+      </c>
+      <c r="K219" t="s">
+        <v>52</v>
+      </c>
+      <c r="L219" t="s">
+        <v>52</v>
+      </c>
+      <c r="M219" t="s">
+        <v>59</v>
+      </c>
+      <c r="N219" t="s">
+        <v>74</v>
+      </c>
+      <c r="O219" t="s">
+        <v>58</v>
+      </c>
+      <c r="P219" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q219" t="s">
+        <v>58</v>
+      </c>
+      <c r="R219" t="s">
+        <v>52</v>
+      </c>
+      <c r="S219" t="s">
+        <v>52</v>
+      </c>
+      <c r="T219" t="s">
+        <v>58</v>
+      </c>
+      <c r="U219" t="s">
+        <v>59</v>
+      </c>
+      <c r="V219" t="s">
+        <v>60</v>
+      </c>
+      <c r="W219" t="s">
+        <v>52</v>
+      </c>
+      <c r="X219" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y219" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z219" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD219" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF219" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG219" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH219" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK219" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL219" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM219" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN219" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP219" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ219" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR219" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS219" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT219" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU219" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV219" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW219" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX219" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY219" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="220" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>51</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C220" t="s">
+        <v>75</v>
+      </c>
+      <c r="D220" t="s">
+        <v>53</v>
+      </c>
+      <c r="E220" t="s">
+        <v>118</v>
+      </c>
+      <c r="F220" t="s">
+        <v>55</v>
+      </c>
+      <c r="G220" t="s">
+        <v>56</v>
+      </c>
+      <c r="H220" t="s">
+        <v>278</v>
+      </c>
+      <c r="I220" t="s">
+        <v>58</v>
+      </c>
+      <c r="J220" t="s">
+        <v>52</v>
+      </c>
+      <c r="K220" t="s">
+        <v>58</v>
+      </c>
+      <c r="L220" t="s">
+        <v>58</v>
+      </c>
+      <c r="M220" t="s">
+        <v>52</v>
+      </c>
+      <c r="N220" t="s">
+        <v>52</v>
+      </c>
+      <c r="O220" t="s">
+        <v>106</v>
+      </c>
+      <c r="P220" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q220" t="s">
+        <v>59</v>
+      </c>
+      <c r="R220" t="s">
+        <v>52</v>
+      </c>
+      <c r="S220" t="s">
+        <v>52</v>
+      </c>
+      <c r="T220" t="s">
+        <v>58</v>
+      </c>
+      <c r="U220" t="s">
+        <v>58</v>
+      </c>
+      <c r="V220" t="s">
+        <v>58</v>
+      </c>
+      <c r="W220" t="s">
+        <v>58</v>
+      </c>
+      <c r="X220" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y220" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF220" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG220" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK220" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL220" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM220" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN220" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP220" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ220" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR220" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS220" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT220" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU220" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV220" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW220" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX220" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY220" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="221" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>51</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C221" t="s">
+        <v>75</v>
+      </c>
+      <c r="D221" t="s">
+        <v>53</v>
+      </c>
+      <c r="E221" t="s">
+        <v>118</v>
+      </c>
+      <c r="F221" t="s">
+        <v>123</v>
+      </c>
+      <c r="G221" t="s">
+        <v>56</v>
+      </c>
+      <c r="H221" t="s">
+        <v>152</v>
+      </c>
+      <c r="I221" t="s">
+        <v>58</v>
+      </c>
+      <c r="J221" t="s">
+        <v>59</v>
+      </c>
+      <c r="K221" t="s">
+        <v>52</v>
+      </c>
+      <c r="L221" t="s">
+        <v>52</v>
+      </c>
+      <c r="M221" t="s">
+        <v>52</v>
+      </c>
+      <c r="N221" t="s">
+        <v>106</v>
+      </c>
+      <c r="O221" t="s">
+        <v>106</v>
+      </c>
+      <c r="P221" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q221" t="s">
+        <v>96</v>
+      </c>
+      <c r="R221" t="s">
+        <v>60</v>
+      </c>
+      <c r="S221" t="s">
+        <v>59</v>
+      </c>
+      <c r="T221" t="s">
+        <v>60</v>
+      </c>
+      <c r="U221" t="s">
+        <v>58</v>
+      </c>
+      <c r="V221" t="s">
+        <v>58</v>
+      </c>
+      <c r="W221" t="s">
+        <v>58</v>
+      </c>
+      <c r="X221" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y221" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z221" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD221" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF221" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG221" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH221" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI221" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ221" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK221" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL221" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM221" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN221" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP221" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ221" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR221" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS221" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT221" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU221" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV221" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW221" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX221" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY221" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="222" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>51</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C222" t="s">
+        <v>75</v>
+      </c>
+      <c r="D222" t="s">
+        <v>53</v>
+      </c>
+      <c r="E222" t="s">
+        <v>118</v>
+      </c>
+      <c r="F222" t="s">
+        <v>126</v>
+      </c>
+      <c r="G222" t="s">
+        <v>56</v>
+      </c>
+      <c r="H222" t="s">
+        <v>75</v>
+      </c>
+      <c r="I222" t="s">
+        <v>58</v>
+      </c>
+      <c r="J222" t="s">
+        <v>60</v>
+      </c>
+      <c r="K222" t="s">
+        <v>58</v>
+      </c>
+      <c r="L222" t="s">
+        <v>58</v>
+      </c>
+      <c r="M222" t="s">
+        <v>52</v>
+      </c>
+      <c r="N222" t="s">
+        <v>96</v>
+      </c>
+      <c r="O222" t="s">
+        <v>76</v>
+      </c>
+      <c r="P222" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q222" t="s">
+        <v>74</v>
+      </c>
+      <c r="R222" t="s">
+        <v>52</v>
+      </c>
+      <c r="S222" t="s">
+        <v>52</v>
+      </c>
+      <c r="T222" t="s">
+        <v>59</v>
+      </c>
+      <c r="U222" t="s">
+        <v>58</v>
+      </c>
+      <c r="V222" t="s">
+        <v>58</v>
+      </c>
+      <c r="W222" t="s">
+        <v>58</v>
+      </c>
+      <c r="X222" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y222" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD222" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF222" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG222" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH222" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK222" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL222" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM222" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN222" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP222" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ222" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR222" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS222" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT222" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU222" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV222" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW222" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX222" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY222" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="223" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>51</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C223" t="s">
+        <v>75</v>
+      </c>
+      <c r="D223" t="s">
+        <v>53</v>
+      </c>
+      <c r="E223" t="s">
+        <v>199</v>
+      </c>
+      <c r="F223" t="s">
+        <v>55</v>
+      </c>
+      <c r="G223" t="s">
+        <v>56</v>
+      </c>
+      <c r="H223" t="s">
+        <v>101</v>
+      </c>
+      <c r="I223" t="s">
+        <v>58</v>
+      </c>
+      <c r="J223" t="s">
+        <v>58</v>
+      </c>
+      <c r="K223" t="s">
+        <v>58</v>
+      </c>
+      <c r="L223" t="s">
+        <v>58</v>
+      </c>
+      <c r="M223" t="s">
+        <v>58</v>
+      </c>
+      <c r="N223" t="s">
+        <v>58</v>
+      </c>
+      <c r="O223" t="s">
+        <v>58</v>
+      </c>
+      <c r="P223" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q223" t="s">
+        <v>58</v>
+      </c>
+      <c r="R223" t="s">
+        <v>58</v>
+      </c>
+      <c r="S223" t="s">
+        <v>58</v>
+      </c>
+      <c r="T223" t="s">
+        <v>58</v>
+      </c>
+      <c r="U223" t="s">
+        <v>52</v>
+      </c>
+      <c r="V223" t="s">
+        <v>58</v>
+      </c>
+      <c r="W223" t="s">
+        <v>58</v>
+      </c>
+      <c r="X223" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y223" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD223" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF223" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH223" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK223" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL223" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM223" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN223" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP223" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ223" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR223" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS223" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT223" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU223" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV223" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW223" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX223" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY223" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="224" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>51</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C224" t="s">
+        <v>75</v>
+      </c>
+      <c r="D224" t="s">
+        <v>53</v>
+      </c>
+      <c r="E224" t="s">
+        <v>368</v>
+      </c>
+      <c r="F224" t="s">
+        <v>369</v>
+      </c>
+      <c r="G224" t="s">
+        <v>56</v>
+      </c>
+      <c r="H224" t="s">
+        <v>61</v>
+      </c>
+      <c r="I224" t="s">
+        <v>58</v>
+      </c>
+      <c r="J224" t="s">
+        <v>58</v>
+      </c>
+      <c r="K224" t="s">
+        <v>58</v>
+      </c>
+      <c r="L224" t="s">
+        <v>58</v>
+      </c>
+      <c r="M224" t="s">
+        <v>58</v>
+      </c>
+      <c r="N224" t="s">
+        <v>58</v>
+      </c>
+      <c r="O224" t="s">
+        <v>58</v>
+      </c>
+      <c r="P224" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q224" t="s">
+        <v>52</v>
+      </c>
+      <c r="R224" t="s">
+        <v>52</v>
+      </c>
+      <c r="S224" t="s">
+        <v>58</v>
+      </c>
+      <c r="T224" t="s">
+        <v>58</v>
+      </c>
+      <c r="U224" t="s">
+        <v>58</v>
+      </c>
+      <c r="V224" t="s">
+        <v>58</v>
+      </c>
+      <c r="W224" t="s">
+        <v>58</v>
+      </c>
+      <c r="X224" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y224" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK224" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL224" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM224" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN224" t="s">
+        <v>370</v>
+      </c>
+      <c r="AO224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP224" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ224" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR224" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS224" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT224" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU224" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV224" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW224" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX224" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY224" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="225" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>51</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C225" t="s">
+        <v>75</v>
+      </c>
+      <c r="D225" t="s">
+        <v>53</v>
+      </c>
+      <c r="E225" t="s">
+        <v>89</v>
+      </c>
+      <c r="F225" t="s">
+        <v>55</v>
+      </c>
+      <c r="G225" t="s">
+        <v>56</v>
+      </c>
+      <c r="H225" t="s">
+        <v>373</v>
+      </c>
+      <c r="I225" t="s">
+        <v>52</v>
+      </c>
+      <c r="J225" t="s">
+        <v>52</v>
+      </c>
+      <c r="K225" t="s">
+        <v>52</v>
+      </c>
+      <c r="L225" t="s">
+        <v>58</v>
+      </c>
+      <c r="M225" t="s">
+        <v>58</v>
+      </c>
+      <c r="N225" t="s">
+        <v>96</v>
+      </c>
+      <c r="O225" t="s">
+        <v>52</v>
+      </c>
+      <c r="P225" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q225" t="s">
+        <v>74</v>
+      </c>
+      <c r="R225" t="s">
+        <v>52</v>
+      </c>
+      <c r="S225" t="s">
+        <v>52</v>
+      </c>
+      <c r="T225" t="s">
+        <v>52</v>
+      </c>
+      <c r="U225" t="s">
+        <v>52</v>
+      </c>
+      <c r="V225" t="s">
+        <v>58</v>
+      </c>
+      <c r="W225" t="s">
+        <v>52</v>
+      </c>
+      <c r="X225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y225" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD225" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF225" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG225" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH225" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK225" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL225" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM225" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP225" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ225" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR225" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS225" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT225" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU225" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW225" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX225" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY225" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="226" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>51</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C226" t="s">
+        <v>75</v>
+      </c>
+      <c r="D226" t="s">
+        <v>53</v>
+      </c>
+      <c r="E226" t="s">
+        <v>89</v>
+      </c>
+      <c r="F226" t="s">
+        <v>94</v>
+      </c>
+      <c r="G226" t="s">
+        <v>56</v>
+      </c>
+      <c r="H226" t="s">
+        <v>374</v>
+      </c>
+      <c r="I226" t="s">
+        <v>58</v>
+      </c>
+      <c r="J226" t="s">
+        <v>74</v>
+      </c>
+      <c r="K226" t="s">
+        <v>60</v>
+      </c>
+      <c r="L226" t="s">
+        <v>52</v>
+      </c>
+      <c r="M226" t="s">
+        <v>52</v>
+      </c>
+      <c r="N226" t="s">
+        <v>58</v>
+      </c>
+      <c r="O226" t="s">
+        <v>74</v>
+      </c>
+      <c r="P226" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q226" t="s">
+        <v>58</v>
+      </c>
+      <c r="R226" t="s">
+        <v>58</v>
+      </c>
+      <c r="S226" t="s">
+        <v>58</v>
+      </c>
+      <c r="T226" t="s">
+        <v>58</v>
+      </c>
+      <c r="U226" t="s">
+        <v>58</v>
+      </c>
+      <c r="V226" t="s">
+        <v>52</v>
+      </c>
+      <c r="W226" t="s">
+        <v>58</v>
+      </c>
+      <c r="X226" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y226" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD226" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF226" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG226" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH226" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK226" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL226" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM226" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP226" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ226" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR226" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS226" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT226" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU226" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV226" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW226" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX226" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY226" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="227" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>51</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C227" t="s">
+        <v>75</v>
+      </c>
+      <c r="D227" t="s">
+        <v>53</v>
+      </c>
+      <c r="E227" t="s">
+        <v>89</v>
+      </c>
+      <c r="F227" t="s">
+        <v>75</v>
+      </c>
+      <c r="G227" t="s">
+        <v>56</v>
+      </c>
+      <c r="H227" t="s">
+        <v>375</v>
+      </c>
+      <c r="I227" t="s">
+        <v>58</v>
+      </c>
+      <c r="J227" t="s">
+        <v>74</v>
+      </c>
+      <c r="K227" t="s">
+        <v>106</v>
+      </c>
+      <c r="L227" t="s">
+        <v>74</v>
+      </c>
+      <c r="M227" t="s">
+        <v>58</v>
+      </c>
+      <c r="N227" t="s">
+        <v>60</v>
+      </c>
+      <c r="O227" t="s">
+        <v>60</v>
+      </c>
+      <c r="P227" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q227" t="s">
+        <v>76</v>
+      </c>
+      <c r="R227" t="s">
+        <v>52</v>
+      </c>
+      <c r="S227" t="s">
+        <v>52</v>
+      </c>
+      <c r="T227" t="s">
+        <v>52</v>
+      </c>
+      <c r="U227" t="s">
+        <v>59</v>
+      </c>
+      <c r="V227" t="s">
+        <v>52</v>
+      </c>
+      <c r="W227" t="s">
+        <v>52</v>
+      </c>
+      <c r="X227" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y227" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z227" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF227" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG227" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH227" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ227" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK227" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL227" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM227" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN227" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP227" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ227" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR227" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS227" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT227" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU227" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV227" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW227" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX227" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY227" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="228" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>51</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44996</v>
+      </c>
+      <c r="C228" t="s">
+        <v>75</v>
+      </c>
+      <c r="D228" t="s">
+        <v>53</v>
+      </c>
+      <c r="E228" t="s">
+        <v>136</v>
+      </c>
+      <c r="F228" t="s">
+        <v>80</v>
+      </c>
+      <c r="G228" t="s">
+        <v>56</v>
+      </c>
+      <c r="H228" t="s">
+        <v>184</v>
+      </c>
+      <c r="I228" t="s">
+        <v>52</v>
+      </c>
+      <c r="J228" t="s">
+        <v>74</v>
+      </c>
+      <c r="K228" t="s">
+        <v>52</v>
+      </c>
+      <c r="L228" t="s">
+        <v>58</v>
+      </c>
+      <c r="M228" t="s">
+        <v>58</v>
+      </c>
+      <c r="N228" t="s">
+        <v>52</v>
+      </c>
+      <c r="O228" t="s">
+        <v>96</v>
+      </c>
+      <c r="P228" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q228" t="s">
+        <v>58</v>
+      </c>
+      <c r="R228" t="s">
+        <v>52</v>
+      </c>
+      <c r="S228" t="s">
+        <v>58</v>
+      </c>
+      <c r="T228" t="s">
+        <v>52</v>
+      </c>
+      <c r="U228" t="s">
+        <v>58</v>
+      </c>
+      <c r="V228" t="s">
+        <v>58</v>
+      </c>
+      <c r="W228" t="s">
+        <v>58</v>
+      </c>
+      <c r="X228" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y228" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z228" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD228" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF228" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG228" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH228" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI228" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ228" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK228" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL228" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM228" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN228" t="s">
+        <v>377</v>
+      </c>
+      <c r="AO228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP228" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ228" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR228" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS228" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT228" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU228" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW228" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX228" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY228" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AY228"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E7F23-2C6D-402C-8C59-1F18840F34C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11174" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12497" uniqueCount="399">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1154,11 +1155,74 @@
   <si>
     <t>CRA 16 BIS  8-24 PINARES OKO</t>
   </si>
+  <si>
+    <t>6600103078</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>901417124</t>
+  </si>
+  <si>
+    <t>COOMEVA EMERGENCIA MEDICA SERVICIO DE AMBULANCIA P</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>1249</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>1251</t>
+  </si>
+  <si>
+    <t>1252</t>
+  </si>
+  <si>
+    <t>1253</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>2091</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>IPS  VS PINARES</t>
+  </si>
+  <si>
+    <t>IPS VS LAGO</t>
+  </si>
+  <si>
+    <t>VIRREY SOLIS LA REBECA</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1290,7 +1354,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1302,7 +1366,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1319,9 +1383,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1349,14 +1413,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1384,6 +1465,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1536,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY228"/>
+  <dimension ref="A1:AY255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -36882,6 +36980,4191 @@
         <v>72</v>
       </c>
     </row>
+    <row r="229" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44998</v>
+      </c>
+      <c r="C229" t="s">
+        <v>91</v>
+      </c>
+      <c r="D229" t="s">
+        <v>53</v>
+      </c>
+      <c r="E229" t="s">
+        <v>378</v>
+      </c>
+      <c r="F229" t="s">
+        <v>55</v>
+      </c>
+      <c r="G229" t="s">
+        <v>56</v>
+      </c>
+      <c r="H229" t="s">
+        <v>52</v>
+      </c>
+      <c r="I229" t="s">
+        <v>58</v>
+      </c>
+      <c r="J229" t="s">
+        <v>52</v>
+      </c>
+      <c r="K229" t="s">
+        <v>58</v>
+      </c>
+      <c r="L229" t="s">
+        <v>52</v>
+      </c>
+      <c r="M229" t="s">
+        <v>58</v>
+      </c>
+      <c r="N229" t="s">
+        <v>58</v>
+      </c>
+      <c r="O229" t="s">
+        <v>58</v>
+      </c>
+      <c r="P229" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q229" t="s">
+        <v>58</v>
+      </c>
+      <c r="R229" t="s">
+        <v>58</v>
+      </c>
+      <c r="S229" t="s">
+        <v>58</v>
+      </c>
+      <c r="T229" t="s">
+        <v>58</v>
+      </c>
+      <c r="U229" t="s">
+        <v>58</v>
+      </c>
+      <c r="V229" t="s">
+        <v>58</v>
+      </c>
+      <c r="W229" t="s">
+        <v>58</v>
+      </c>
+      <c r="X229" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y229" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD229" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF229" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH229" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK229" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL229" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM229" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN229" t="s">
+        <v>379</v>
+      </c>
+      <c r="AO229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP229" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ229" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR229" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS229" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT229" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU229" t="s">
+        <v>381</v>
+      </c>
+      <c r="AV229" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW229" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX229" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY229" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="230" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>51</v>
+      </c>
+      <c r="B230" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C230" t="s">
+        <v>91</v>
+      </c>
+      <c r="D230" t="s">
+        <v>53</v>
+      </c>
+      <c r="E230" t="s">
+        <v>155</v>
+      </c>
+      <c r="F230" t="s">
+        <v>55</v>
+      </c>
+      <c r="G230" t="s">
+        <v>56</v>
+      </c>
+      <c r="H230" t="s">
+        <v>61</v>
+      </c>
+      <c r="I230" t="s">
+        <v>58</v>
+      </c>
+      <c r="J230" t="s">
+        <v>52</v>
+      </c>
+      <c r="K230" t="s">
+        <v>58</v>
+      </c>
+      <c r="L230" t="s">
+        <v>58</v>
+      </c>
+      <c r="M230" t="s">
+        <v>60</v>
+      </c>
+      <c r="N230" t="s">
+        <v>52</v>
+      </c>
+      <c r="O230" t="s">
+        <v>58</v>
+      </c>
+      <c r="P230" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q230" t="s">
+        <v>59</v>
+      </c>
+      <c r="R230" t="s">
+        <v>60</v>
+      </c>
+      <c r="S230" t="s">
+        <v>74</v>
+      </c>
+      <c r="T230" t="s">
+        <v>60</v>
+      </c>
+      <c r="U230" t="s">
+        <v>60</v>
+      </c>
+      <c r="V230" t="s">
+        <v>52</v>
+      </c>
+      <c r="W230" t="s">
+        <v>52</v>
+      </c>
+      <c r="X230" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y230" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD230" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF230" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG230" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH230" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK230" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL230" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM230" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN230" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP230" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ230" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR230" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS230" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT230" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU230" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV230" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW230" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX230" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY230" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="231" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>51</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44993</v>
+      </c>
+      <c r="C231" t="s">
+        <v>75</v>
+      </c>
+      <c r="D231" t="s">
+        <v>53</v>
+      </c>
+      <c r="E231" t="s">
+        <v>174</v>
+      </c>
+      <c r="F231" t="s">
+        <v>55</v>
+      </c>
+      <c r="G231" t="s">
+        <v>56</v>
+      </c>
+      <c r="H231" t="s">
+        <v>382</v>
+      </c>
+      <c r="I231" t="s">
+        <v>60</v>
+      </c>
+      <c r="J231" t="s">
+        <v>106</v>
+      </c>
+      <c r="K231" t="s">
+        <v>188</v>
+      </c>
+      <c r="L231" t="s">
+        <v>100</v>
+      </c>
+      <c r="M231" t="s">
+        <v>188</v>
+      </c>
+      <c r="N231" t="s">
+        <v>74</v>
+      </c>
+      <c r="O231" t="s">
+        <v>59</v>
+      </c>
+      <c r="P231" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q231" t="s">
+        <v>74</v>
+      </c>
+      <c r="R231" t="s">
+        <v>59</v>
+      </c>
+      <c r="S231" t="s">
+        <v>60</v>
+      </c>
+      <c r="T231" t="s">
+        <v>52</v>
+      </c>
+      <c r="U231" t="s">
+        <v>96</v>
+      </c>
+      <c r="V231" t="s">
+        <v>59</v>
+      </c>
+      <c r="W231" t="s">
+        <v>74</v>
+      </c>
+      <c r="X231" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y231" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z231" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD231" t="s">
+        <v>383</v>
+      </c>
+      <c r="AE231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF231" t="s">
+        <v>384</v>
+      </c>
+      <c r="AG231" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH231" t="s">
+        <v>383</v>
+      </c>
+      <c r="AI231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK231" t="s">
+        <v>383</v>
+      </c>
+      <c r="AL231" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM231" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN231" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP231" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ231" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR231" s="1">
+        <v>44998</v>
+      </c>
+      <c r="AS231" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT231" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU231" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV231" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW231" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX231" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY231" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="232" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>51</v>
+      </c>
+      <c r="B232" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C232" t="s">
+        <v>91</v>
+      </c>
+      <c r="D232" t="s">
+        <v>53</v>
+      </c>
+      <c r="E232" t="s">
+        <v>54</v>
+      </c>
+      <c r="F232" t="s">
+        <v>80</v>
+      </c>
+      <c r="G232" t="s">
+        <v>56</v>
+      </c>
+      <c r="H232" t="s">
+        <v>61</v>
+      </c>
+      <c r="I232" t="s">
+        <v>58</v>
+      </c>
+      <c r="J232" t="s">
+        <v>60</v>
+      </c>
+      <c r="K232" t="s">
+        <v>58</v>
+      </c>
+      <c r="L232" t="s">
+        <v>52</v>
+      </c>
+      <c r="M232" t="s">
+        <v>58</v>
+      </c>
+      <c r="N232" t="s">
+        <v>60</v>
+      </c>
+      <c r="O232" t="s">
+        <v>58</v>
+      </c>
+      <c r="P232" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q232" t="s">
+        <v>58</v>
+      </c>
+      <c r="R232" t="s">
+        <v>58</v>
+      </c>
+      <c r="S232" t="s">
+        <v>206</v>
+      </c>
+      <c r="T232" t="s">
+        <v>52</v>
+      </c>
+      <c r="U232" t="s">
+        <v>58</v>
+      </c>
+      <c r="V232" t="s">
+        <v>58</v>
+      </c>
+      <c r="W232" t="s">
+        <v>58</v>
+      </c>
+      <c r="X232" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y232" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD232" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF232" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG232" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH232" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK232" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL232" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM232" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN232" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP232" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ232" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR232" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS232" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT232" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU232" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV232" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW232" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX232" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY232" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="233" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>51</v>
+      </c>
+      <c r="B233" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C233" t="s">
+        <v>91</v>
+      </c>
+      <c r="D233" t="s">
+        <v>53</v>
+      </c>
+      <c r="E233" t="s">
+        <v>54</v>
+      </c>
+      <c r="F233" t="s">
+        <v>94</v>
+      </c>
+      <c r="G233" t="s">
+        <v>56</v>
+      </c>
+      <c r="H233" t="s">
+        <v>385</v>
+      </c>
+      <c r="I233" t="s">
+        <v>52</v>
+      </c>
+      <c r="J233" t="s">
+        <v>58</v>
+      </c>
+      <c r="K233" t="s">
+        <v>58</v>
+      </c>
+      <c r="L233" t="s">
+        <v>58</v>
+      </c>
+      <c r="M233" t="s">
+        <v>58</v>
+      </c>
+      <c r="N233" t="s">
+        <v>58</v>
+      </c>
+      <c r="O233" t="s">
+        <v>58</v>
+      </c>
+      <c r="P233" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q233" t="s">
+        <v>58</v>
+      </c>
+      <c r="R233" t="s">
+        <v>58</v>
+      </c>
+      <c r="S233" t="s">
+        <v>58</v>
+      </c>
+      <c r="T233" t="s">
+        <v>58</v>
+      </c>
+      <c r="U233" t="s">
+        <v>58</v>
+      </c>
+      <c r="V233" t="s">
+        <v>58</v>
+      </c>
+      <c r="W233" t="s">
+        <v>58</v>
+      </c>
+      <c r="X233" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y233" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD233" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF233" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH233" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK233" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL233" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM233" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN233" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP233" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ233" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR233" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS233" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT233" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU233" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV233" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW233" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX233" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY233" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="234" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>51</v>
+      </c>
+      <c r="B234" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C234" t="s">
+        <v>91</v>
+      </c>
+      <c r="D234" t="s">
+        <v>53</v>
+      </c>
+      <c r="E234" t="s">
+        <v>54</v>
+      </c>
+      <c r="F234" t="s">
+        <v>75</v>
+      </c>
+      <c r="G234" t="s">
+        <v>56</v>
+      </c>
+      <c r="H234" t="s">
+        <v>386</v>
+      </c>
+      <c r="I234" t="s">
+        <v>58</v>
+      </c>
+      <c r="J234" t="s">
+        <v>58</v>
+      </c>
+      <c r="K234" t="s">
+        <v>58</v>
+      </c>
+      <c r="L234" t="s">
+        <v>58</v>
+      </c>
+      <c r="M234" t="s">
+        <v>58</v>
+      </c>
+      <c r="N234" t="s">
+        <v>58</v>
+      </c>
+      <c r="O234" t="s">
+        <v>58</v>
+      </c>
+      <c r="P234" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q234" t="s">
+        <v>58</v>
+      </c>
+      <c r="R234" t="s">
+        <v>58</v>
+      </c>
+      <c r="S234" t="s">
+        <v>58</v>
+      </c>
+      <c r="T234" t="s">
+        <v>58</v>
+      </c>
+      <c r="U234" t="s">
+        <v>58</v>
+      </c>
+      <c r="V234" t="s">
+        <v>58</v>
+      </c>
+      <c r="W234" t="s">
+        <v>58</v>
+      </c>
+      <c r="X234" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y234" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z234" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD234" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF234" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH234" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK234" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL234" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM234" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN234" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP234" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ234" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR234" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS234" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT234" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU234" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV234" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW234" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX234" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY234" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="235" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>51</v>
+      </c>
+      <c r="B235" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C235" t="s">
+        <v>91</v>
+      </c>
+      <c r="D235" t="s">
+        <v>53</v>
+      </c>
+      <c r="E235" t="s">
+        <v>54</v>
+      </c>
+      <c r="F235" t="s">
+        <v>133</v>
+      </c>
+      <c r="G235" t="s">
+        <v>56</v>
+      </c>
+      <c r="H235" t="s">
+        <v>387</v>
+      </c>
+      <c r="I235" t="s">
+        <v>58</v>
+      </c>
+      <c r="J235" t="s">
+        <v>52</v>
+      </c>
+      <c r="K235" t="s">
+        <v>58</v>
+      </c>
+      <c r="L235" t="s">
+        <v>58</v>
+      </c>
+      <c r="M235" t="s">
+        <v>58</v>
+      </c>
+      <c r="N235" t="s">
+        <v>58</v>
+      </c>
+      <c r="O235" t="s">
+        <v>58</v>
+      </c>
+      <c r="P235" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q235" t="s">
+        <v>58</v>
+      </c>
+      <c r="R235" t="s">
+        <v>58</v>
+      </c>
+      <c r="S235" t="s">
+        <v>58</v>
+      </c>
+      <c r="T235" t="s">
+        <v>58</v>
+      </c>
+      <c r="U235" t="s">
+        <v>58</v>
+      </c>
+      <c r="V235" t="s">
+        <v>58</v>
+      </c>
+      <c r="W235" t="s">
+        <v>58</v>
+      </c>
+      <c r="X235" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y235" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD235" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF235" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH235" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK235" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL235" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM235" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN235" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP235" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ235" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR235" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS235" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT235" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU235" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV235" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW235" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX235" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY235" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="236" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>51</v>
+      </c>
+      <c r="B236" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C236" t="s">
+        <v>91</v>
+      </c>
+      <c r="D236" t="s">
+        <v>53</v>
+      </c>
+      <c r="E236" t="s">
+        <v>54</v>
+      </c>
+      <c r="F236" t="s">
+        <v>243</v>
+      </c>
+      <c r="G236" t="s">
+        <v>56</v>
+      </c>
+      <c r="H236" t="s">
+        <v>388</v>
+      </c>
+      <c r="I236" t="s">
+        <v>52</v>
+      </c>
+      <c r="J236" t="s">
+        <v>52</v>
+      </c>
+      <c r="K236" t="s">
+        <v>58</v>
+      </c>
+      <c r="L236" t="s">
+        <v>58</v>
+      </c>
+      <c r="M236" t="s">
+        <v>58</v>
+      </c>
+      <c r="N236" t="s">
+        <v>58</v>
+      </c>
+      <c r="O236" t="s">
+        <v>58</v>
+      </c>
+      <c r="P236" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q236" t="s">
+        <v>58</v>
+      </c>
+      <c r="R236" t="s">
+        <v>58</v>
+      </c>
+      <c r="S236" t="s">
+        <v>58</v>
+      </c>
+      <c r="T236" t="s">
+        <v>58</v>
+      </c>
+      <c r="U236" t="s">
+        <v>58</v>
+      </c>
+      <c r="V236" t="s">
+        <v>58</v>
+      </c>
+      <c r="W236" t="s">
+        <v>58</v>
+      </c>
+      <c r="X236" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y236" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z236" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF236" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG236" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI236" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ236" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK236" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL236" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM236" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN236" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP236" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ236" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR236" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS236" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT236" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU236" t="s">
+        <v>359</v>
+      </c>
+      <c r="AV236" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW236" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX236" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY236" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="237" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>51</v>
+      </c>
+      <c r="B237" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C237" t="s">
+        <v>91</v>
+      </c>
+      <c r="D237" t="s">
+        <v>53</v>
+      </c>
+      <c r="E237" t="s">
+        <v>54</v>
+      </c>
+      <c r="F237" t="s">
+        <v>100</v>
+      </c>
+      <c r="G237" t="s">
+        <v>56</v>
+      </c>
+      <c r="H237" t="s">
+        <v>389</v>
+      </c>
+      <c r="I237" t="s">
+        <v>58</v>
+      </c>
+      <c r="J237" t="s">
+        <v>58</v>
+      </c>
+      <c r="K237" t="s">
+        <v>58</v>
+      </c>
+      <c r="L237" t="s">
+        <v>58</v>
+      </c>
+      <c r="M237" t="s">
+        <v>52</v>
+      </c>
+      <c r="N237" t="s">
+        <v>58</v>
+      </c>
+      <c r="O237" t="s">
+        <v>58</v>
+      </c>
+      <c r="P237" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q237" t="s">
+        <v>58</v>
+      </c>
+      <c r="R237" t="s">
+        <v>58</v>
+      </c>
+      <c r="S237" t="s">
+        <v>58</v>
+      </c>
+      <c r="T237" t="s">
+        <v>58</v>
+      </c>
+      <c r="U237" t="s">
+        <v>58</v>
+      </c>
+      <c r="V237" t="s">
+        <v>58</v>
+      </c>
+      <c r="W237" t="s">
+        <v>58</v>
+      </c>
+      <c r="X237" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y237" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD237" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG237" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH237" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK237" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL237" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM237" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN237" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP237" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ237" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR237" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS237" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT237" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU237" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV237" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW237" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX237" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY237" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="238" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>51</v>
+      </c>
+      <c r="B238" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C238" t="s">
+        <v>91</v>
+      </c>
+      <c r="D238" t="s">
+        <v>53</v>
+      </c>
+      <c r="E238" t="s">
+        <v>104</v>
+      </c>
+      <c r="F238" t="s">
+        <v>55</v>
+      </c>
+      <c r="G238" t="s">
+        <v>56</v>
+      </c>
+      <c r="H238" t="s">
+        <v>354</v>
+      </c>
+      <c r="I238" t="s">
+        <v>58</v>
+      </c>
+      <c r="J238" t="s">
+        <v>74</v>
+      </c>
+      <c r="K238" t="s">
+        <v>179</v>
+      </c>
+      <c r="L238" t="s">
+        <v>74</v>
+      </c>
+      <c r="M238" t="s">
+        <v>60</v>
+      </c>
+      <c r="N238" t="s">
+        <v>96</v>
+      </c>
+      <c r="O238" t="s">
+        <v>96</v>
+      </c>
+      <c r="P238" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q238" t="s">
+        <v>59</v>
+      </c>
+      <c r="R238" t="s">
+        <v>58</v>
+      </c>
+      <c r="S238" t="s">
+        <v>60</v>
+      </c>
+      <c r="T238" t="s">
+        <v>58</v>
+      </c>
+      <c r="U238" t="s">
+        <v>58</v>
+      </c>
+      <c r="V238" t="s">
+        <v>58</v>
+      </c>
+      <c r="W238" t="s">
+        <v>52</v>
+      </c>
+      <c r="X238" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y238" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z238" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD238" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF238" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG238" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH238" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI238" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ238" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK238" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL238" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM238" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN238" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP238" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ238" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR238" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS238" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT238" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU238" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV238" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW238" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX238" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY238" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="239" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>51</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C239" t="s">
+        <v>91</v>
+      </c>
+      <c r="D239" t="s">
+        <v>53</v>
+      </c>
+      <c r="E239" t="s">
+        <v>89</v>
+      </c>
+      <c r="F239" t="s">
+        <v>75</v>
+      </c>
+      <c r="G239" t="s">
+        <v>56</v>
+      </c>
+      <c r="H239" t="s">
+        <v>390</v>
+      </c>
+      <c r="I239" t="s">
+        <v>52</v>
+      </c>
+      <c r="J239" t="s">
+        <v>96</v>
+      </c>
+      <c r="K239" t="s">
+        <v>76</v>
+      </c>
+      <c r="L239" t="s">
+        <v>106</v>
+      </c>
+      <c r="M239" t="s">
+        <v>60</v>
+      </c>
+      <c r="N239" t="s">
+        <v>60</v>
+      </c>
+      <c r="O239" t="s">
+        <v>74</v>
+      </c>
+      <c r="P239" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q239" t="s">
+        <v>60</v>
+      </c>
+      <c r="R239" t="s">
+        <v>52</v>
+      </c>
+      <c r="S239" t="s">
+        <v>58</v>
+      </c>
+      <c r="T239" t="s">
+        <v>52</v>
+      </c>
+      <c r="U239" t="s">
+        <v>74</v>
+      </c>
+      <c r="V239" t="s">
+        <v>58</v>
+      </c>
+      <c r="W239" t="s">
+        <v>52</v>
+      </c>
+      <c r="X239" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y239" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD239" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF239" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG239" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH239" t="s">
+        <v>226</v>
+      </c>
+      <c r="AI239" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ239" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK239" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL239" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM239" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP239" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ239" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR239" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS239" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT239" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU239" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV239" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW239" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX239" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY239" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>51</v>
+      </c>
+      <c r="B240" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C240" t="s">
+        <v>91</v>
+      </c>
+      <c r="D240" t="s">
+        <v>53</v>
+      </c>
+      <c r="E240" t="s">
+        <v>89</v>
+      </c>
+      <c r="F240" t="s">
+        <v>55</v>
+      </c>
+      <c r="G240" t="s">
+        <v>56</v>
+      </c>
+      <c r="H240" t="s">
+        <v>391</v>
+      </c>
+      <c r="I240" t="s">
+        <v>58</v>
+      </c>
+      <c r="J240" t="s">
+        <v>60</v>
+      </c>
+      <c r="K240" t="s">
+        <v>58</v>
+      </c>
+      <c r="L240" t="s">
+        <v>52</v>
+      </c>
+      <c r="M240" t="s">
+        <v>52</v>
+      </c>
+      <c r="N240" t="s">
+        <v>60</v>
+      </c>
+      <c r="O240" t="s">
+        <v>52</v>
+      </c>
+      <c r="P240" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q240" t="s">
+        <v>58</v>
+      </c>
+      <c r="R240" t="s">
+        <v>74</v>
+      </c>
+      <c r="S240" t="s">
+        <v>60</v>
+      </c>
+      <c r="T240" t="s">
+        <v>59</v>
+      </c>
+      <c r="U240" t="s">
+        <v>52</v>
+      </c>
+      <c r="V240" t="s">
+        <v>58</v>
+      </c>
+      <c r="W240" t="s">
+        <v>58</v>
+      </c>
+      <c r="X240" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y240" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD240" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF240" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG240" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH240" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK240" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL240" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM240" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP240" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ240" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR240" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS240" t="s">
+        <v>83</v>
+      </c>
+      <c r="AT240" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU240" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV240" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW240" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX240" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY240" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="241" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>51</v>
+      </c>
+      <c r="B241" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C241" t="s">
+        <v>91</v>
+      </c>
+      <c r="D241" t="s">
+        <v>53</v>
+      </c>
+      <c r="E241" t="s">
+        <v>89</v>
+      </c>
+      <c r="F241" t="s">
+        <v>94</v>
+      </c>
+      <c r="G241" t="s">
+        <v>56</v>
+      </c>
+      <c r="H241" t="s">
+        <v>61</v>
+      </c>
+      <c r="I241" t="s">
+        <v>58</v>
+      </c>
+      <c r="J241" t="s">
+        <v>58</v>
+      </c>
+      <c r="K241" t="s">
+        <v>58</v>
+      </c>
+      <c r="L241" t="s">
+        <v>58</v>
+      </c>
+      <c r="M241" t="s">
+        <v>58</v>
+      </c>
+      <c r="N241" t="s">
+        <v>52</v>
+      </c>
+      <c r="O241" t="s">
+        <v>60</v>
+      </c>
+      <c r="P241" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q241" t="s">
+        <v>60</v>
+      </c>
+      <c r="R241" t="s">
+        <v>58</v>
+      </c>
+      <c r="S241" t="s">
+        <v>58</v>
+      </c>
+      <c r="T241" t="s">
+        <v>58</v>
+      </c>
+      <c r="U241" t="s">
+        <v>58</v>
+      </c>
+      <c r="V241" t="s">
+        <v>58</v>
+      </c>
+      <c r="W241" t="s">
+        <v>58</v>
+      </c>
+      <c r="X241" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y241" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD241" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF241" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG241" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH241" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK241" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL241" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM241" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP241" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ241" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR241" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS241" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT241" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU241" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV241" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW241" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX241" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY241" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="242" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>91</v>
+      </c>
+      <c r="D242" t="s">
+        <v>53</v>
+      </c>
+      <c r="E242" t="s">
+        <v>112</v>
+      </c>
+      <c r="F242" t="s">
+        <v>55</v>
+      </c>
+      <c r="G242" t="s">
+        <v>56</v>
+      </c>
+      <c r="H242" t="s">
+        <v>392</v>
+      </c>
+      <c r="I242" t="s">
+        <v>58</v>
+      </c>
+      <c r="J242" t="s">
+        <v>58</v>
+      </c>
+      <c r="K242" t="s">
+        <v>58</v>
+      </c>
+      <c r="L242" t="s">
+        <v>58</v>
+      </c>
+      <c r="M242" t="s">
+        <v>58</v>
+      </c>
+      <c r="N242" t="s">
+        <v>58</v>
+      </c>
+      <c r="O242" t="s">
+        <v>58</v>
+      </c>
+      <c r="P242" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q242" t="s">
+        <v>58</v>
+      </c>
+      <c r="R242" t="s">
+        <v>58</v>
+      </c>
+      <c r="S242" t="s">
+        <v>58</v>
+      </c>
+      <c r="T242" t="s">
+        <v>52</v>
+      </c>
+      <c r="U242" t="s">
+        <v>58</v>
+      </c>
+      <c r="V242" t="s">
+        <v>58</v>
+      </c>
+      <c r="W242" t="s">
+        <v>58</v>
+      </c>
+      <c r="X242" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y242" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD242" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF242" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH242" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK242" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL242" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM242" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN242" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP242" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ242" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR242" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS242" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT242" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU242" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV242" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW242" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX242" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY242" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="243" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C243" t="s">
+        <v>91</v>
+      </c>
+      <c r="D243" t="s">
+        <v>53</v>
+      </c>
+      <c r="E243" t="s">
+        <v>118</v>
+      </c>
+      <c r="F243" t="s">
+        <v>55</v>
+      </c>
+      <c r="G243" t="s">
+        <v>56</v>
+      </c>
+      <c r="H243" t="s">
+        <v>351</v>
+      </c>
+      <c r="I243" t="s">
+        <v>58</v>
+      </c>
+      <c r="J243" t="s">
+        <v>58</v>
+      </c>
+      <c r="K243" t="s">
+        <v>52</v>
+      </c>
+      <c r="L243" t="s">
+        <v>58</v>
+      </c>
+      <c r="M243" t="s">
+        <v>58</v>
+      </c>
+      <c r="N243" t="s">
+        <v>60</v>
+      </c>
+      <c r="O243" t="s">
+        <v>60</v>
+      </c>
+      <c r="P243" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q243" t="s">
+        <v>60</v>
+      </c>
+      <c r="R243" t="s">
+        <v>60</v>
+      </c>
+      <c r="S243" t="s">
+        <v>58</v>
+      </c>
+      <c r="T243" t="s">
+        <v>58</v>
+      </c>
+      <c r="U243" t="s">
+        <v>58</v>
+      </c>
+      <c r="V243" t="s">
+        <v>58</v>
+      </c>
+      <c r="W243" t="s">
+        <v>58</v>
+      </c>
+      <c r="X243" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y243" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD243" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF243" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG243" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH243" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK243" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL243" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM243" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN243" t="s">
+        <v>393</v>
+      </c>
+      <c r="AO243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP243" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ243" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR243" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS243" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT243" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU243" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV243" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW243" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX243" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY243" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="244" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>51</v>
+      </c>
+      <c r="B244" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C244" t="s">
+        <v>91</v>
+      </c>
+      <c r="D244" t="s">
+        <v>53</v>
+      </c>
+      <c r="E244" t="s">
+        <v>118</v>
+      </c>
+      <c r="F244" t="s">
+        <v>123</v>
+      </c>
+      <c r="G244" t="s">
+        <v>56</v>
+      </c>
+      <c r="H244" t="s">
+        <v>173</v>
+      </c>
+      <c r="I244" t="s">
+        <v>58</v>
+      </c>
+      <c r="J244" t="s">
+        <v>74</v>
+      </c>
+      <c r="K244" t="s">
+        <v>59</v>
+      </c>
+      <c r="L244" t="s">
+        <v>58</v>
+      </c>
+      <c r="M244" t="s">
+        <v>52</v>
+      </c>
+      <c r="N244" t="s">
+        <v>60</v>
+      </c>
+      <c r="O244" t="s">
+        <v>59</v>
+      </c>
+      <c r="P244" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q244" t="s">
+        <v>60</v>
+      </c>
+      <c r="R244" t="s">
+        <v>52</v>
+      </c>
+      <c r="S244" t="s">
+        <v>52</v>
+      </c>
+      <c r="T244" t="s">
+        <v>52</v>
+      </c>
+      <c r="U244" t="s">
+        <v>52</v>
+      </c>
+      <c r="V244" t="s">
+        <v>58</v>
+      </c>
+      <c r="W244" t="s">
+        <v>58</v>
+      </c>
+      <c r="X244" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y244" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF244" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG244" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK244" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL244" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM244" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN244" t="s">
+        <v>394</v>
+      </c>
+      <c r="AO244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP244" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ244" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR244" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS244" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT244" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU244" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV244" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW244" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX244" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY244" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="245" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>51</v>
+      </c>
+      <c r="B245" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C245" t="s">
+        <v>91</v>
+      </c>
+      <c r="D245" t="s">
+        <v>53</v>
+      </c>
+      <c r="E245" t="s">
+        <v>118</v>
+      </c>
+      <c r="F245" t="s">
+        <v>126</v>
+      </c>
+      <c r="G245" t="s">
+        <v>56</v>
+      </c>
+      <c r="H245" t="s">
+        <v>91</v>
+      </c>
+      <c r="I245" t="s">
+        <v>52</v>
+      </c>
+      <c r="J245" t="s">
+        <v>52</v>
+      </c>
+      <c r="K245" t="s">
+        <v>58</v>
+      </c>
+      <c r="L245" t="s">
+        <v>60</v>
+      </c>
+      <c r="M245" t="s">
+        <v>58</v>
+      </c>
+      <c r="N245" t="s">
+        <v>52</v>
+      </c>
+      <c r="O245" t="s">
+        <v>60</v>
+      </c>
+      <c r="P245" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q245" t="s">
+        <v>52</v>
+      </c>
+      <c r="R245" t="s">
+        <v>60</v>
+      </c>
+      <c r="S245" t="s">
+        <v>60</v>
+      </c>
+      <c r="T245" t="s">
+        <v>52</v>
+      </c>
+      <c r="U245" t="s">
+        <v>58</v>
+      </c>
+      <c r="V245" t="s">
+        <v>58</v>
+      </c>
+      <c r="W245" t="s">
+        <v>58</v>
+      </c>
+      <c r="X245" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y245" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD245" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF245" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG245" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH245" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK245" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL245" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM245" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN245" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP245" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ245" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR245" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS245" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT245" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU245" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV245" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW245" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX245" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY245" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="246" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C246" t="s">
+        <v>91</v>
+      </c>
+      <c r="D246" t="s">
+        <v>53</v>
+      </c>
+      <c r="E246" t="s">
+        <v>199</v>
+      </c>
+      <c r="F246" t="s">
+        <v>55</v>
+      </c>
+      <c r="G246" t="s">
+        <v>56</v>
+      </c>
+      <c r="H246" t="s">
+        <v>243</v>
+      </c>
+      <c r="I246" t="s">
+        <v>58</v>
+      </c>
+      <c r="J246" t="s">
+        <v>58</v>
+      </c>
+      <c r="K246" t="s">
+        <v>52</v>
+      </c>
+      <c r="L246" t="s">
+        <v>58</v>
+      </c>
+      <c r="M246" t="s">
+        <v>58</v>
+      </c>
+      <c r="N246" t="s">
+        <v>58</v>
+      </c>
+      <c r="O246" t="s">
+        <v>58</v>
+      </c>
+      <c r="P246" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q246" t="s">
+        <v>58</v>
+      </c>
+      <c r="R246" t="s">
+        <v>58</v>
+      </c>
+      <c r="S246" t="s">
+        <v>58</v>
+      </c>
+      <c r="T246" t="s">
+        <v>58</v>
+      </c>
+      <c r="U246" t="s">
+        <v>58</v>
+      </c>
+      <c r="V246" t="s">
+        <v>58</v>
+      </c>
+      <c r="W246" t="s">
+        <v>58</v>
+      </c>
+      <c r="X246" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y246" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD246" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF246" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH246" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK246" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL246" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM246" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN246" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP246" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ246" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR246" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS246" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT246" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU246" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV246" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW246" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX246" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY246" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="247" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>51</v>
+      </c>
+      <c r="B247" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C247" t="s">
+        <v>91</v>
+      </c>
+      <c r="D247" t="s">
+        <v>53</v>
+      </c>
+      <c r="E247" t="s">
+        <v>368</v>
+      </c>
+      <c r="F247" t="s">
+        <v>369</v>
+      </c>
+      <c r="G247" t="s">
+        <v>56</v>
+      </c>
+      <c r="H247" t="s">
+        <v>61</v>
+      </c>
+      <c r="I247" t="s">
+        <v>58</v>
+      </c>
+      <c r="J247" t="s">
+        <v>58</v>
+      </c>
+      <c r="K247" t="s">
+        <v>58</v>
+      </c>
+      <c r="L247" t="s">
+        <v>58</v>
+      </c>
+      <c r="M247" t="s">
+        <v>58</v>
+      </c>
+      <c r="N247" t="s">
+        <v>58</v>
+      </c>
+      <c r="O247" t="s">
+        <v>60</v>
+      </c>
+      <c r="P247" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q247" t="s">
+        <v>52</v>
+      </c>
+      <c r="R247" t="s">
+        <v>58</v>
+      </c>
+      <c r="S247" t="s">
+        <v>58</v>
+      </c>
+      <c r="T247" t="s">
+        <v>58</v>
+      </c>
+      <c r="U247" t="s">
+        <v>58</v>
+      </c>
+      <c r="V247" t="s">
+        <v>58</v>
+      </c>
+      <c r="W247" t="s">
+        <v>58</v>
+      </c>
+      <c r="X247" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y247" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK247" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL247" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM247" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN247" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP247" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ247" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR247" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS247" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT247" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU247" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV247" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW247" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX247" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY247" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="248" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>51</v>
+      </c>
+      <c r="B248" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C248" t="s">
+        <v>91</v>
+      </c>
+      <c r="D248" t="s">
+        <v>53</v>
+      </c>
+      <c r="E248" t="s">
+        <v>313</v>
+      </c>
+      <c r="F248" t="s">
+        <v>86</v>
+      </c>
+      <c r="G248" t="s">
+        <v>56</v>
+      </c>
+      <c r="H248" t="s">
+        <v>61</v>
+      </c>
+      <c r="I248" t="s">
+        <v>58</v>
+      </c>
+      <c r="J248" t="s">
+        <v>58</v>
+      </c>
+      <c r="K248" t="s">
+        <v>58</v>
+      </c>
+      <c r="L248" t="s">
+        <v>58</v>
+      </c>
+      <c r="M248" t="s">
+        <v>58</v>
+      </c>
+      <c r="N248" t="s">
+        <v>58</v>
+      </c>
+      <c r="O248" t="s">
+        <v>58</v>
+      </c>
+      <c r="P248" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q248" t="s">
+        <v>58</v>
+      </c>
+      <c r="R248" t="s">
+        <v>58</v>
+      </c>
+      <c r="S248" t="s">
+        <v>58</v>
+      </c>
+      <c r="T248" t="s">
+        <v>52</v>
+      </c>
+      <c r="U248" t="s">
+        <v>58</v>
+      </c>
+      <c r="V248" t="s">
+        <v>58</v>
+      </c>
+      <c r="W248" t="s">
+        <v>58</v>
+      </c>
+      <c r="X248" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y248" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD248" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG248" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH248" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK248" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL248" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM248" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN248" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP248" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ248" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR248" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS248" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT248" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU248" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV248" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW248" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX248" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY248" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="249" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>51</v>
+      </c>
+      <c r="B249" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C249" t="s">
+        <v>91</v>
+      </c>
+      <c r="D249" t="s">
+        <v>53</v>
+      </c>
+      <c r="E249" t="s">
+        <v>132</v>
+      </c>
+      <c r="F249" t="s">
+        <v>133</v>
+      </c>
+      <c r="G249" t="s">
+        <v>56</v>
+      </c>
+      <c r="H249" t="s">
+        <v>396</v>
+      </c>
+      <c r="I249" t="s">
+        <v>58</v>
+      </c>
+      <c r="J249" t="s">
+        <v>60</v>
+      </c>
+      <c r="K249" t="s">
+        <v>60</v>
+      </c>
+      <c r="L249" t="s">
+        <v>58</v>
+      </c>
+      <c r="M249" t="s">
+        <v>58</v>
+      </c>
+      <c r="N249" t="s">
+        <v>58</v>
+      </c>
+      <c r="O249" t="s">
+        <v>60</v>
+      </c>
+      <c r="P249" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q249" t="s">
+        <v>58</v>
+      </c>
+      <c r="R249" t="s">
+        <v>52</v>
+      </c>
+      <c r="S249" t="s">
+        <v>52</v>
+      </c>
+      <c r="T249" t="s">
+        <v>60</v>
+      </c>
+      <c r="U249" t="s">
+        <v>55</v>
+      </c>
+      <c r="V249" t="s">
+        <v>52</v>
+      </c>
+      <c r="W249" t="s">
+        <v>58</v>
+      </c>
+      <c r="X249" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y249" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD249" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF249" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG249" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH249" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK249" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL249" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM249" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN249" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP249" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ249" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR249" s="1">
+        <v>45003</v>
+      </c>
+      <c r="AS249" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT249" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU249" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW249" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX249" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY249" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="250" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>51</v>
+      </c>
+      <c r="B250" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C250" t="s">
+        <v>91</v>
+      </c>
+      <c r="D250" t="s">
+        <v>53</v>
+      </c>
+      <c r="E250" t="s">
+        <v>136</v>
+      </c>
+      <c r="F250" t="s">
+        <v>55</v>
+      </c>
+      <c r="G250" t="s">
+        <v>56</v>
+      </c>
+      <c r="H250" t="s">
+        <v>397</v>
+      </c>
+      <c r="I250" t="s">
+        <v>58</v>
+      </c>
+      <c r="J250" t="s">
+        <v>60</v>
+      </c>
+      <c r="K250" t="s">
+        <v>58</v>
+      </c>
+      <c r="L250" t="s">
+        <v>58</v>
+      </c>
+      <c r="M250" t="s">
+        <v>59</v>
+      </c>
+      <c r="N250" t="s">
+        <v>59</v>
+      </c>
+      <c r="O250" t="s">
+        <v>75</v>
+      </c>
+      <c r="P250" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q250" t="s">
+        <v>74</v>
+      </c>
+      <c r="R250" t="s">
+        <v>96</v>
+      </c>
+      <c r="S250" t="s">
+        <v>60</v>
+      </c>
+      <c r="T250" t="s">
+        <v>60</v>
+      </c>
+      <c r="U250" t="s">
+        <v>58</v>
+      </c>
+      <c r="V250" t="s">
+        <v>58</v>
+      </c>
+      <c r="W250" t="s">
+        <v>52</v>
+      </c>
+      <c r="X250" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y250" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD250" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF250" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG250" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH250" t="s">
+        <v>204</v>
+      </c>
+      <c r="AI250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK250" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL250" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM250" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN250" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP250" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ250" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR250" s="1">
+        <v>45003</v>
+      </c>
+      <c r="AS250" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT250" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU250" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV250" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW250" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX250" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY250" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="251" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>51</v>
+      </c>
+      <c r="B251" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C251" t="s">
+        <v>91</v>
+      </c>
+      <c r="D251" t="s">
+        <v>53</v>
+      </c>
+      <c r="E251" t="s">
+        <v>136</v>
+      </c>
+      <c r="F251" t="s">
+        <v>80</v>
+      </c>
+      <c r="G251" t="s">
+        <v>56</v>
+      </c>
+      <c r="H251" t="s">
+        <v>167</v>
+      </c>
+      <c r="I251" t="s">
+        <v>60</v>
+      </c>
+      <c r="J251" t="s">
+        <v>96</v>
+      </c>
+      <c r="K251" t="s">
+        <v>52</v>
+      </c>
+      <c r="L251" t="s">
+        <v>52</v>
+      </c>
+      <c r="M251" t="s">
+        <v>58</v>
+      </c>
+      <c r="N251" t="s">
+        <v>74</v>
+      </c>
+      <c r="O251" t="s">
+        <v>52</v>
+      </c>
+      <c r="P251" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q251" t="s">
+        <v>52</v>
+      </c>
+      <c r="R251" t="s">
+        <v>58</v>
+      </c>
+      <c r="S251" t="s">
+        <v>52</v>
+      </c>
+      <c r="T251" t="s">
+        <v>58</v>
+      </c>
+      <c r="U251" t="s">
+        <v>58</v>
+      </c>
+      <c r="V251" t="s">
+        <v>58</v>
+      </c>
+      <c r="W251" t="s">
+        <v>58</v>
+      </c>
+      <c r="X251" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y251" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z251" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD251" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF251" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG251" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH251" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK251" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL251" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM251" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN251" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP251" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ251" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR251" s="1">
+        <v>45003</v>
+      </c>
+      <c r="AS251" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT251" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU251" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV251" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW251" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX251" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY251" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="252" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>51</v>
+      </c>
+      <c r="B252" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C252" t="s">
+        <v>91</v>
+      </c>
+      <c r="D252" t="s">
+        <v>53</v>
+      </c>
+      <c r="E252" t="s">
+        <v>54</v>
+      </c>
+      <c r="F252" t="s">
+        <v>55</v>
+      </c>
+      <c r="G252" t="s">
+        <v>56</v>
+      </c>
+      <c r="H252" t="s">
+        <v>398</v>
+      </c>
+      <c r="I252" t="s">
+        <v>60</v>
+      </c>
+      <c r="J252" t="s">
+        <v>82</v>
+      </c>
+      <c r="K252" t="s">
+        <v>74</v>
+      </c>
+      <c r="L252" t="s">
+        <v>60</v>
+      </c>
+      <c r="M252" t="s">
+        <v>60</v>
+      </c>
+      <c r="N252" t="s">
+        <v>74</v>
+      </c>
+      <c r="O252" t="s">
+        <v>58</v>
+      </c>
+      <c r="P252" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q252" t="s">
+        <v>52</v>
+      </c>
+      <c r="R252" t="s">
+        <v>58</v>
+      </c>
+      <c r="S252" t="s">
+        <v>59</v>
+      </c>
+      <c r="T252" t="s">
+        <v>52</v>
+      </c>
+      <c r="U252" t="s">
+        <v>59</v>
+      </c>
+      <c r="V252" t="s">
+        <v>58</v>
+      </c>
+      <c r="W252" t="s">
+        <v>58</v>
+      </c>
+      <c r="X252" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y252" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD252" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF252" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG252" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH252" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ252" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK252" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL252" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM252" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN252" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP252" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ252" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR252" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS252" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT252" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU252" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV252" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW252" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX252" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY252" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="253" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>51</v>
+      </c>
+      <c r="B253" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C253" t="s">
+        <v>91</v>
+      </c>
+      <c r="D253" t="s">
+        <v>53</v>
+      </c>
+      <c r="E253" t="s">
+        <v>54</v>
+      </c>
+      <c r="F253" t="s">
+        <v>73</v>
+      </c>
+      <c r="G253" t="s">
+        <v>56</v>
+      </c>
+      <c r="H253" t="s">
+        <v>61</v>
+      </c>
+      <c r="I253" t="s">
+        <v>58</v>
+      </c>
+      <c r="J253" t="s">
+        <v>60</v>
+      </c>
+      <c r="K253" t="s">
+        <v>60</v>
+      </c>
+      <c r="L253" t="s">
+        <v>58</v>
+      </c>
+      <c r="M253" t="s">
+        <v>52</v>
+      </c>
+      <c r="N253" t="s">
+        <v>58</v>
+      </c>
+      <c r="O253" t="s">
+        <v>96</v>
+      </c>
+      <c r="P253" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q253" t="s">
+        <v>52</v>
+      </c>
+      <c r="R253" t="s">
+        <v>52</v>
+      </c>
+      <c r="S253" t="s">
+        <v>58</v>
+      </c>
+      <c r="T253" t="s">
+        <v>58</v>
+      </c>
+      <c r="U253" t="s">
+        <v>58</v>
+      </c>
+      <c r="V253" t="s">
+        <v>58</v>
+      </c>
+      <c r="W253" t="s">
+        <v>58</v>
+      </c>
+      <c r="X253" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y253" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD253" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF253" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG253" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH253" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK253" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL253" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM253" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN253" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP253" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ253" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR253" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS253" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT253" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU253" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV253" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW253" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX253" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY253" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="254" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>51</v>
+      </c>
+      <c r="B254" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C254" t="s">
+        <v>91</v>
+      </c>
+      <c r="D254" t="s">
+        <v>53</v>
+      </c>
+      <c r="E254" t="s">
+        <v>151</v>
+      </c>
+      <c r="F254" t="s">
+        <v>55</v>
+      </c>
+      <c r="G254" t="s">
+        <v>56</v>
+      </c>
+      <c r="H254" t="s">
+        <v>61</v>
+      </c>
+      <c r="I254" t="s">
+        <v>58</v>
+      </c>
+      <c r="J254" t="s">
+        <v>58</v>
+      </c>
+      <c r="K254" t="s">
+        <v>60</v>
+      </c>
+      <c r="L254" t="s">
+        <v>52</v>
+      </c>
+      <c r="M254" t="s">
+        <v>60</v>
+      </c>
+      <c r="N254" t="s">
+        <v>60</v>
+      </c>
+      <c r="O254" t="s">
+        <v>58</v>
+      </c>
+      <c r="P254" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q254" t="s">
+        <v>60</v>
+      </c>
+      <c r="R254" t="s">
+        <v>52</v>
+      </c>
+      <c r="S254" t="s">
+        <v>58</v>
+      </c>
+      <c r="T254" t="s">
+        <v>58</v>
+      </c>
+      <c r="U254" t="s">
+        <v>59</v>
+      </c>
+      <c r="V254" t="s">
+        <v>52</v>
+      </c>
+      <c r="W254" t="s">
+        <v>52</v>
+      </c>
+      <c r="X254" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y254" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z254" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD254" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF254" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG254" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH254" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK254" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL254" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM254" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN254" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP254" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ254" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR254" s="1">
+        <v>45005</v>
+      </c>
+      <c r="AS254" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT254" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU254" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV254" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW254" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX254" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY254" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="255" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>51</v>
+      </c>
+      <c r="B255" s="1">
+        <v>45003</v>
+      </c>
+      <c r="C255" t="s">
+        <v>91</v>
+      </c>
+      <c r="D255" t="s">
+        <v>53</v>
+      </c>
+      <c r="E255" t="s">
+        <v>146</v>
+      </c>
+      <c r="F255" t="s">
+        <v>55</v>
+      </c>
+      <c r="G255" t="s">
+        <v>56</v>
+      </c>
+      <c r="H255" t="s">
+        <v>203</v>
+      </c>
+      <c r="I255" t="s">
+        <v>60</v>
+      </c>
+      <c r="J255" t="s">
+        <v>60</v>
+      </c>
+      <c r="K255" t="s">
+        <v>60</v>
+      </c>
+      <c r="L255" t="s">
+        <v>60</v>
+      </c>
+      <c r="M255" t="s">
+        <v>60</v>
+      </c>
+      <c r="N255" t="s">
+        <v>59</v>
+      </c>
+      <c r="O255" t="s">
+        <v>58</v>
+      </c>
+      <c r="P255" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q255" t="s">
+        <v>58</v>
+      </c>
+      <c r="R255" t="s">
+        <v>58</v>
+      </c>
+      <c r="S255" t="s">
+        <v>52</v>
+      </c>
+      <c r="T255" t="s">
+        <v>52</v>
+      </c>
+      <c r="U255" t="s">
+        <v>58</v>
+      </c>
+      <c r="V255" t="s">
+        <v>59</v>
+      </c>
+      <c r="W255" t="s">
+        <v>60</v>
+      </c>
+      <c r="X255" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y255" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z255" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD255" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF255" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG255" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH255" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI255" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ255" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK255" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL255" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM255" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN255" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP255" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ255" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR255" s="1">
+        <v>45005</v>
+      </c>
+      <c r="AS255" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT255" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU255" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV255" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW255" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX255" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY255" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA2E7F23-2C6D-402C-8C59-1F18840F34C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12497" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13624" uniqueCount="416">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1218,11 +1217,62 @@
   <si>
     <t>948</t>
   </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>AV 30 AGOSTO  48 - 74</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>CLINICA PINARES</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>950</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>PINARES CRA 16 BIS 8-24 OKO TO</t>
+  </si>
+  <si>
+    <t>374</t>
+  </si>
+  <si>
+    <t>2093</t>
+  </si>
+  <si>
+    <t>2094</t>
+  </si>
+  <si>
+    <t>2095</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1354,7 +1404,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1366,7 +1416,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1383,9 +1433,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1413,31 +1463,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1465,23 +1498,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1634,7 +1650,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY255"/>
+  <dimension ref="A1:AY278"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -41165,6 +41181,3571 @@
         <v>72</v>
       </c>
     </row>
+    <row r="256" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>51</v>
+      </c>
+      <c r="B256" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C256" t="s">
+        <v>133</v>
+      </c>
+      <c r="D256" t="s">
+        <v>53</v>
+      </c>
+      <c r="E256" t="s">
+        <v>136</v>
+      </c>
+      <c r="F256" t="s">
+        <v>55</v>
+      </c>
+      <c r="G256" t="s">
+        <v>56</v>
+      </c>
+      <c r="H256" t="s">
+        <v>399</v>
+      </c>
+      <c r="I256" t="s">
+        <v>58</v>
+      </c>
+      <c r="J256" t="s">
+        <v>60</v>
+      </c>
+      <c r="K256" t="s">
+        <v>60</v>
+      </c>
+      <c r="L256" t="s">
+        <v>52</v>
+      </c>
+      <c r="M256" t="s">
+        <v>106</v>
+      </c>
+      <c r="N256" t="s">
+        <v>74</v>
+      </c>
+      <c r="O256" t="s">
+        <v>82</v>
+      </c>
+      <c r="P256" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q256" t="s">
+        <v>59</v>
+      </c>
+      <c r="R256" t="s">
+        <v>96</v>
+      </c>
+      <c r="S256" t="s">
+        <v>52</v>
+      </c>
+      <c r="T256" t="s">
+        <v>52</v>
+      </c>
+      <c r="U256" t="s">
+        <v>58</v>
+      </c>
+      <c r="V256" t="s">
+        <v>58</v>
+      </c>
+      <c r="W256" t="s">
+        <v>58</v>
+      </c>
+      <c r="X256" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y256" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z256" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF256" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG256" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI256" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ256" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK256" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL256" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM256" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN256" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP256" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ256" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR256" s="1">
+        <v>45010</v>
+      </c>
+      <c r="AS256" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT256" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU256" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV256" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW256" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX256" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY256" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="257" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>51</v>
+      </c>
+      <c r="B257" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C257" t="s">
+        <v>133</v>
+      </c>
+      <c r="D257" t="s">
+        <v>53</v>
+      </c>
+      <c r="E257" t="s">
+        <v>132</v>
+      </c>
+      <c r="F257" t="s">
+        <v>133</v>
+      </c>
+      <c r="G257" t="s">
+        <v>56</v>
+      </c>
+      <c r="H257" t="s">
+        <v>401</v>
+      </c>
+      <c r="I257" t="s">
+        <v>58</v>
+      </c>
+      <c r="J257" t="s">
+        <v>58</v>
+      </c>
+      <c r="K257" t="s">
+        <v>58</v>
+      </c>
+      <c r="L257" t="s">
+        <v>58</v>
+      </c>
+      <c r="M257" t="s">
+        <v>58</v>
+      </c>
+      <c r="N257" t="s">
+        <v>52</v>
+      </c>
+      <c r="O257" t="s">
+        <v>60</v>
+      </c>
+      <c r="P257" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q257" t="s">
+        <v>60</v>
+      </c>
+      <c r="R257" t="s">
+        <v>58</v>
+      </c>
+      <c r="S257" t="s">
+        <v>60</v>
+      </c>
+      <c r="T257" t="s">
+        <v>58</v>
+      </c>
+      <c r="U257" t="s">
+        <v>58</v>
+      </c>
+      <c r="V257" t="s">
+        <v>58</v>
+      </c>
+      <c r="W257" t="s">
+        <v>55</v>
+      </c>
+      <c r="X257" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y257" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z257" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD257" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF257" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG257" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH257" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI257" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ257" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK257" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL257" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM257" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN257" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP257" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ257" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR257" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS257" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT257" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU257" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV257" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW257" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX257" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY257" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="258" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>51</v>
+      </c>
+      <c r="B258" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C258" t="s">
+        <v>133</v>
+      </c>
+      <c r="D258" t="s">
+        <v>53</v>
+      </c>
+      <c r="E258" t="s">
+        <v>112</v>
+      </c>
+      <c r="F258" t="s">
+        <v>55</v>
+      </c>
+      <c r="G258" t="s">
+        <v>56</v>
+      </c>
+      <c r="H258" t="s">
+        <v>402</v>
+      </c>
+      <c r="I258" t="s">
+        <v>58</v>
+      </c>
+      <c r="J258" t="s">
+        <v>58</v>
+      </c>
+      <c r="K258" t="s">
+        <v>58</v>
+      </c>
+      <c r="L258" t="s">
+        <v>58</v>
+      </c>
+      <c r="M258" t="s">
+        <v>58</v>
+      </c>
+      <c r="N258" t="s">
+        <v>58</v>
+      </c>
+      <c r="O258" t="s">
+        <v>58</v>
+      </c>
+      <c r="P258" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q258" t="s">
+        <v>52</v>
+      </c>
+      <c r="R258" t="s">
+        <v>58</v>
+      </c>
+      <c r="S258" t="s">
+        <v>52</v>
+      </c>
+      <c r="T258" t="s">
+        <v>58</v>
+      </c>
+      <c r="U258" t="s">
+        <v>58</v>
+      </c>
+      <c r="V258" t="s">
+        <v>58</v>
+      </c>
+      <c r="W258" t="s">
+        <v>58</v>
+      </c>
+      <c r="X258" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y258" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD258" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG258" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH258" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK258" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL258" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM258" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN258" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP258" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ258" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR258" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS258" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT258" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU258" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV258" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW258" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX258" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY258" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="259" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>51</v>
+      </c>
+      <c r="B259" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C259" t="s">
+        <v>133</v>
+      </c>
+      <c r="D259" t="s">
+        <v>53</v>
+      </c>
+      <c r="E259" t="s">
+        <v>155</v>
+      </c>
+      <c r="F259" t="s">
+        <v>55</v>
+      </c>
+      <c r="G259" t="s">
+        <v>56</v>
+      </c>
+      <c r="H259" t="s">
+        <v>403</v>
+      </c>
+      <c r="I259" t="s">
+        <v>58</v>
+      </c>
+      <c r="J259" t="s">
+        <v>58</v>
+      </c>
+      <c r="K259" t="s">
+        <v>58</v>
+      </c>
+      <c r="L259" t="s">
+        <v>58</v>
+      </c>
+      <c r="M259" t="s">
+        <v>52</v>
+      </c>
+      <c r="N259" t="s">
+        <v>52</v>
+      </c>
+      <c r="O259" t="s">
+        <v>58</v>
+      </c>
+      <c r="P259" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q259" t="s">
+        <v>58</v>
+      </c>
+      <c r="R259" t="s">
+        <v>74</v>
+      </c>
+      <c r="S259" t="s">
+        <v>59</v>
+      </c>
+      <c r="T259" t="s">
+        <v>52</v>
+      </c>
+      <c r="U259" t="s">
+        <v>58</v>
+      </c>
+      <c r="V259" t="s">
+        <v>52</v>
+      </c>
+      <c r="W259" t="s">
+        <v>52</v>
+      </c>
+      <c r="X259" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y259" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD259" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF259" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG259" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH259" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK259" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL259" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM259" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN259" t="s">
+        <v>404</v>
+      </c>
+      <c r="AO259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP259" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ259" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR259" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS259" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT259" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU259" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV259" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW259" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX259" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY259" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="260" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>51</v>
+      </c>
+      <c r="B260" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C260" t="s">
+        <v>133</v>
+      </c>
+      <c r="D260" t="s">
+        <v>53</v>
+      </c>
+      <c r="E260" t="s">
+        <v>151</v>
+      </c>
+      <c r="F260" t="s">
+        <v>55</v>
+      </c>
+      <c r="G260" t="s">
+        <v>56</v>
+      </c>
+      <c r="H260" t="s">
+        <v>61</v>
+      </c>
+      <c r="I260" t="s">
+        <v>58</v>
+      </c>
+      <c r="J260" t="s">
+        <v>52</v>
+      </c>
+      <c r="K260" t="s">
+        <v>52</v>
+      </c>
+      <c r="L260" t="s">
+        <v>58</v>
+      </c>
+      <c r="M260" t="s">
+        <v>60</v>
+      </c>
+      <c r="N260" t="s">
+        <v>58</v>
+      </c>
+      <c r="O260" t="s">
+        <v>52</v>
+      </c>
+      <c r="P260" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q260" t="s">
+        <v>60</v>
+      </c>
+      <c r="R260" t="s">
+        <v>58</v>
+      </c>
+      <c r="S260" t="s">
+        <v>60</v>
+      </c>
+      <c r="T260" t="s">
+        <v>52</v>
+      </c>
+      <c r="U260" t="s">
+        <v>60</v>
+      </c>
+      <c r="V260" t="s">
+        <v>58</v>
+      </c>
+      <c r="W260" t="s">
+        <v>60</v>
+      </c>
+      <c r="X260" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y260" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z260" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD260" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF260" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG260" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH260" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI260" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ260" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK260" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL260" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM260" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN260" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP260" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ260" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR260" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS260" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT260" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU260" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV260" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW260" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX260" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY260" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="261" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>51</v>
+      </c>
+      <c r="B261" s="1">
+        <v>45002</v>
+      </c>
+      <c r="C261" t="s">
+        <v>91</v>
+      </c>
+      <c r="D261" t="s">
+        <v>53</v>
+      </c>
+      <c r="E261" t="s">
+        <v>174</v>
+      </c>
+      <c r="F261" t="s">
+        <v>55</v>
+      </c>
+      <c r="G261" t="s">
+        <v>56</v>
+      </c>
+      <c r="H261" t="s">
+        <v>405</v>
+      </c>
+      <c r="I261" t="s">
+        <v>60</v>
+      </c>
+      <c r="J261" t="s">
+        <v>133</v>
+      </c>
+      <c r="K261" t="s">
+        <v>188</v>
+      </c>
+      <c r="L261" t="s">
+        <v>96</v>
+      </c>
+      <c r="M261" t="s">
+        <v>106</v>
+      </c>
+      <c r="N261" t="s">
+        <v>74</v>
+      </c>
+      <c r="O261" t="s">
+        <v>74</v>
+      </c>
+      <c r="P261" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q261" t="s">
+        <v>60</v>
+      </c>
+      <c r="R261" t="s">
+        <v>106</v>
+      </c>
+      <c r="S261" t="s">
+        <v>59</v>
+      </c>
+      <c r="T261" t="s">
+        <v>58</v>
+      </c>
+      <c r="U261" t="s">
+        <v>96</v>
+      </c>
+      <c r="V261" t="s">
+        <v>59</v>
+      </c>
+      <c r="W261" t="s">
+        <v>60</v>
+      </c>
+      <c r="X261" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y261" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z261" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD261" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF261" t="s">
+        <v>129</v>
+      </c>
+      <c r="AG261" t="s">
+        <v>384</v>
+      </c>
+      <c r="AH261" t="s">
+        <v>406</v>
+      </c>
+      <c r="AI261" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ261" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK261" t="s">
+        <v>406</v>
+      </c>
+      <c r="AL261" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM261" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN261" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP261" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ261" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR261" s="1">
+        <v>45002</v>
+      </c>
+      <c r="AS261" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT261" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU261" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV261" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW261" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX261" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY261" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="262" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>51</v>
+      </c>
+      <c r="B262" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C262" t="s">
+        <v>133</v>
+      </c>
+      <c r="D262" t="s">
+        <v>53</v>
+      </c>
+      <c r="E262" t="s">
+        <v>368</v>
+      </c>
+      <c r="F262" t="s">
+        <v>369</v>
+      </c>
+      <c r="G262" t="s">
+        <v>56</v>
+      </c>
+      <c r="H262" t="s">
+        <v>61</v>
+      </c>
+      <c r="I262" t="s">
+        <v>58</v>
+      </c>
+      <c r="J262" t="s">
+        <v>58</v>
+      </c>
+      <c r="K262" t="s">
+        <v>58</v>
+      </c>
+      <c r="L262" t="s">
+        <v>58</v>
+      </c>
+      <c r="M262" t="s">
+        <v>58</v>
+      </c>
+      <c r="N262" t="s">
+        <v>58</v>
+      </c>
+      <c r="O262" t="s">
+        <v>58</v>
+      </c>
+      <c r="P262" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q262" t="s">
+        <v>58</v>
+      </c>
+      <c r="R262" t="s">
+        <v>58</v>
+      </c>
+      <c r="S262" t="s">
+        <v>58</v>
+      </c>
+      <c r="T262" t="s">
+        <v>58</v>
+      </c>
+      <c r="U262" t="s">
+        <v>58</v>
+      </c>
+      <c r="V262" t="s">
+        <v>58</v>
+      </c>
+      <c r="W262" t="s">
+        <v>58</v>
+      </c>
+      <c r="X262" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y262" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z262" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD262" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF262" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG262" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH262" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI262" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ262" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK262" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL262" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM262" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN262" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP262" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ262" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR262" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS262" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT262" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU262" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV262" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW262" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX262" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY262" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="263" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>51</v>
+      </c>
+      <c r="B263" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C263" t="s">
+        <v>133</v>
+      </c>
+      <c r="D263" t="s">
+        <v>53</v>
+      </c>
+      <c r="E263" t="s">
+        <v>146</v>
+      </c>
+      <c r="F263" t="s">
+        <v>55</v>
+      </c>
+      <c r="G263" t="s">
+        <v>56</v>
+      </c>
+      <c r="H263" t="s">
+        <v>225</v>
+      </c>
+      <c r="I263" t="s">
+        <v>60</v>
+      </c>
+      <c r="J263" t="s">
+        <v>60</v>
+      </c>
+      <c r="K263" t="s">
+        <v>52</v>
+      </c>
+      <c r="L263" t="s">
+        <v>58</v>
+      </c>
+      <c r="M263" t="s">
+        <v>58</v>
+      </c>
+      <c r="N263" t="s">
+        <v>58</v>
+      </c>
+      <c r="O263" t="s">
+        <v>58</v>
+      </c>
+      <c r="P263" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q263" t="s">
+        <v>58</v>
+      </c>
+      <c r="R263" t="s">
+        <v>52</v>
+      </c>
+      <c r="S263" t="s">
+        <v>60</v>
+      </c>
+      <c r="T263" t="s">
+        <v>52</v>
+      </c>
+      <c r="U263" t="s">
+        <v>58</v>
+      </c>
+      <c r="V263" t="s">
+        <v>58</v>
+      </c>
+      <c r="W263" t="s">
+        <v>58</v>
+      </c>
+      <c r="X263" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y263" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z263" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD263" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF263" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG263" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH263" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI263" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ263" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK263" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL263" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM263" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN263" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP263" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ263" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR263" s="1">
+        <v>45011</v>
+      </c>
+      <c r="AS263" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT263" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU263" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV263" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW263" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX263" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY263" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="264" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>51</v>
+      </c>
+      <c r="B264" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C264" t="s">
+        <v>133</v>
+      </c>
+      <c r="D264" t="s">
+        <v>53</v>
+      </c>
+      <c r="E264" t="s">
+        <v>313</v>
+      </c>
+      <c r="F264" t="s">
+        <v>86</v>
+      </c>
+      <c r="G264" t="s">
+        <v>56</v>
+      </c>
+      <c r="H264" t="s">
+        <v>61</v>
+      </c>
+      <c r="I264" t="s">
+        <v>58</v>
+      </c>
+      <c r="J264" t="s">
+        <v>58</v>
+      </c>
+      <c r="K264" t="s">
+        <v>58</v>
+      </c>
+      <c r="L264" t="s">
+        <v>58</v>
+      </c>
+      <c r="M264" t="s">
+        <v>58</v>
+      </c>
+      <c r="N264" t="s">
+        <v>58</v>
+      </c>
+      <c r="O264" t="s">
+        <v>60</v>
+      </c>
+      <c r="P264" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q264" t="s">
+        <v>58</v>
+      </c>
+      <c r="R264" t="s">
+        <v>58</v>
+      </c>
+      <c r="S264" t="s">
+        <v>58</v>
+      </c>
+      <c r="T264" t="s">
+        <v>58</v>
+      </c>
+      <c r="U264" t="s">
+        <v>58</v>
+      </c>
+      <c r="V264" t="s">
+        <v>58</v>
+      </c>
+      <c r="W264" t="s">
+        <v>58</v>
+      </c>
+      <c r="X264" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y264" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z264" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD264" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF264" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG264" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH264" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI264" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ264" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK264" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL264" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM264" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN264" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP264" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ264" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR264" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS264" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT264" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU264" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV264" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW264" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX264" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY264" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="265" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>51</v>
+      </c>
+      <c r="B265" s="1">
+        <v>45012</v>
+      </c>
+      <c r="C265" t="s">
+        <v>179</v>
+      </c>
+      <c r="D265" t="s">
+        <v>53</v>
+      </c>
+      <c r="E265" t="s">
+        <v>54</v>
+      </c>
+      <c r="F265" t="s">
+        <v>55</v>
+      </c>
+      <c r="G265" t="s">
+        <v>56</v>
+      </c>
+      <c r="H265" t="s">
+        <v>407</v>
+      </c>
+      <c r="I265" t="s">
+        <v>58</v>
+      </c>
+      <c r="J265" t="s">
+        <v>75</v>
+      </c>
+      <c r="K265" t="s">
+        <v>52</v>
+      </c>
+      <c r="L265" t="s">
+        <v>74</v>
+      </c>
+      <c r="M265" t="s">
+        <v>52</v>
+      </c>
+      <c r="N265" t="s">
+        <v>60</v>
+      </c>
+      <c r="O265" t="s">
+        <v>52</v>
+      </c>
+      <c r="P265" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q265" t="s">
+        <v>52</v>
+      </c>
+      <c r="R265" t="s">
+        <v>59</v>
+      </c>
+      <c r="S265" t="s">
+        <v>58</v>
+      </c>
+      <c r="T265" t="s">
+        <v>58</v>
+      </c>
+      <c r="U265" t="s">
+        <v>52</v>
+      </c>
+      <c r="V265" t="s">
+        <v>58</v>
+      </c>
+      <c r="W265" t="s">
+        <v>58</v>
+      </c>
+      <c r="X265" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y265" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z265" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD265" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF265" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG265" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH265" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI265" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ265" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK265" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL265" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM265" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN265" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP265" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ265" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR265" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS265" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT265" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU265" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV265" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW265" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX265" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY265" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="266" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>51</v>
+      </c>
+      <c r="B266" s="1">
+        <v>45009</v>
+      </c>
+      <c r="C266" t="s">
+        <v>133</v>
+      </c>
+      <c r="D266" t="s">
+        <v>53</v>
+      </c>
+      <c r="E266" t="s">
+        <v>54</v>
+      </c>
+      <c r="F266" t="s">
+        <v>166</v>
+      </c>
+      <c r="G266" t="s">
+        <v>56</v>
+      </c>
+      <c r="H266" t="s">
+        <v>408</v>
+      </c>
+      <c r="I266" t="s">
+        <v>58</v>
+      </c>
+      <c r="J266" t="s">
+        <v>58</v>
+      </c>
+      <c r="K266" t="s">
+        <v>58</v>
+      </c>
+      <c r="L266" t="s">
+        <v>58</v>
+      </c>
+      <c r="M266" t="s">
+        <v>58</v>
+      </c>
+      <c r="N266" t="s">
+        <v>58</v>
+      </c>
+      <c r="O266" t="s">
+        <v>58</v>
+      </c>
+      <c r="P266" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q266" t="s">
+        <v>52</v>
+      </c>
+      <c r="R266" t="s">
+        <v>58</v>
+      </c>
+      <c r="S266" t="s">
+        <v>58</v>
+      </c>
+      <c r="T266" t="s">
+        <v>58</v>
+      </c>
+      <c r="U266" t="s">
+        <v>58</v>
+      </c>
+      <c r="V266" t="s">
+        <v>58</v>
+      </c>
+      <c r="W266" t="s">
+        <v>58</v>
+      </c>
+      <c r="X266" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y266" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z266" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD266" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF266" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG266" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH266" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI266" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ266" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK266" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL266" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM266" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN266" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP266" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ266" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR266" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS266" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT266" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU266" t="s">
+        <v>257</v>
+      </c>
+      <c r="AV266" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW266" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX266" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY266" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="267" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>51</v>
+      </c>
+      <c r="B267" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C267" t="s">
+        <v>133</v>
+      </c>
+      <c r="D267" t="s">
+        <v>53</v>
+      </c>
+      <c r="E267" t="s">
+        <v>54</v>
+      </c>
+      <c r="F267" t="s">
+        <v>73</v>
+      </c>
+      <c r="G267" t="s">
+        <v>56</v>
+      </c>
+      <c r="H267" t="s">
+        <v>409</v>
+      </c>
+      <c r="I267" t="s">
+        <v>52</v>
+      </c>
+      <c r="J267" t="s">
+        <v>106</v>
+      </c>
+      <c r="K267" t="s">
+        <v>59</v>
+      </c>
+      <c r="L267" t="s">
+        <v>59</v>
+      </c>
+      <c r="M267" t="s">
+        <v>52</v>
+      </c>
+      <c r="N267" t="s">
+        <v>59</v>
+      </c>
+      <c r="O267" t="s">
+        <v>58</v>
+      </c>
+      <c r="P267" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q267" t="s">
+        <v>58</v>
+      </c>
+      <c r="R267" t="s">
+        <v>58</v>
+      </c>
+      <c r="S267" t="s">
+        <v>58</v>
+      </c>
+      <c r="T267" t="s">
+        <v>52</v>
+      </c>
+      <c r="U267" t="s">
+        <v>58</v>
+      </c>
+      <c r="V267" t="s">
+        <v>52</v>
+      </c>
+      <c r="W267" t="s">
+        <v>52</v>
+      </c>
+      <c r="X267" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y267" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD267" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF267" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG267" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH267" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ267" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK267" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL267" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM267" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN267" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP267" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ267" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR267" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS267" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT267" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU267" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV267" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW267" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX267" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY267" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="268" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>51</v>
+      </c>
+      <c r="B268" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C268" t="s">
+        <v>133</v>
+      </c>
+      <c r="D268" t="s">
+        <v>53</v>
+      </c>
+      <c r="E268" t="s">
+        <v>54</v>
+      </c>
+      <c r="F268" t="s">
+        <v>211</v>
+      </c>
+      <c r="G268" t="s">
+        <v>56</v>
+      </c>
+      <c r="H268" t="s">
+        <v>318</v>
+      </c>
+      <c r="I268" t="s">
+        <v>58</v>
+      </c>
+      <c r="J268" t="s">
+        <v>58</v>
+      </c>
+      <c r="K268" t="s">
+        <v>58</v>
+      </c>
+      <c r="L268" t="s">
+        <v>58</v>
+      </c>
+      <c r="M268" t="s">
+        <v>58</v>
+      </c>
+      <c r="N268" t="s">
+        <v>52</v>
+      </c>
+      <c r="O268" t="s">
+        <v>58</v>
+      </c>
+      <c r="P268" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q268" t="s">
+        <v>58</v>
+      </c>
+      <c r="R268" t="s">
+        <v>58</v>
+      </c>
+      <c r="S268" t="s">
+        <v>58</v>
+      </c>
+      <c r="T268" t="s">
+        <v>58</v>
+      </c>
+      <c r="U268" t="s">
+        <v>58</v>
+      </c>
+      <c r="V268" t="s">
+        <v>58</v>
+      </c>
+      <c r="W268" t="s">
+        <v>58</v>
+      </c>
+      <c r="X268" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y268" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD268" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF268" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH268" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK268" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL268" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM268" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN268" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP268" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ268" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR268" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS268" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT268" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU268" t="s">
+        <v>213</v>
+      </c>
+      <c r="AV268" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW268" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX268" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY268" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="269" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>51</v>
+      </c>
+      <c r="B269" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C269" t="s">
+        <v>133</v>
+      </c>
+      <c r="D269" t="s">
+        <v>53</v>
+      </c>
+      <c r="E269" t="s">
+        <v>199</v>
+      </c>
+      <c r="F269" t="s">
+        <v>55</v>
+      </c>
+      <c r="G269" t="s">
+        <v>56</v>
+      </c>
+      <c r="H269" t="s">
+        <v>60</v>
+      </c>
+      <c r="I269" t="s">
+        <v>58</v>
+      </c>
+      <c r="J269" t="s">
+        <v>58</v>
+      </c>
+      <c r="K269" t="s">
+        <v>52</v>
+      </c>
+      <c r="L269" t="s">
+        <v>58</v>
+      </c>
+      <c r="M269" t="s">
+        <v>58</v>
+      </c>
+      <c r="N269" t="s">
+        <v>58</v>
+      </c>
+      <c r="O269" t="s">
+        <v>58</v>
+      </c>
+      <c r="P269" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q269" t="s">
+        <v>58</v>
+      </c>
+      <c r="R269" t="s">
+        <v>58</v>
+      </c>
+      <c r="S269" t="s">
+        <v>58</v>
+      </c>
+      <c r="T269" t="s">
+        <v>58</v>
+      </c>
+      <c r="U269" t="s">
+        <v>58</v>
+      </c>
+      <c r="V269" t="s">
+        <v>58</v>
+      </c>
+      <c r="W269" t="s">
+        <v>58</v>
+      </c>
+      <c r="X269" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y269" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD269" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF269" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH269" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK269" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL269" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM269" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN269" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP269" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ269" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR269" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS269" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT269" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU269" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV269" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW269" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX269" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY269" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="270" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>51</v>
+      </c>
+      <c r="B270" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C270" t="s">
+        <v>133</v>
+      </c>
+      <c r="D270" t="s">
+        <v>53</v>
+      </c>
+      <c r="E270" t="s">
+        <v>54</v>
+      </c>
+      <c r="F270" t="s">
+        <v>80</v>
+      </c>
+      <c r="G270" t="s">
+        <v>56</v>
+      </c>
+      <c r="H270" t="s">
+        <v>61</v>
+      </c>
+      <c r="I270" t="s">
+        <v>52</v>
+      </c>
+      <c r="J270" t="s">
+        <v>59</v>
+      </c>
+      <c r="K270" t="s">
+        <v>58</v>
+      </c>
+      <c r="L270" t="s">
+        <v>59</v>
+      </c>
+      <c r="M270" t="s">
+        <v>52</v>
+      </c>
+      <c r="N270" t="s">
+        <v>59</v>
+      </c>
+      <c r="O270" t="s">
+        <v>58</v>
+      </c>
+      <c r="P270" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q270" t="s">
+        <v>58</v>
+      </c>
+      <c r="R270" t="s">
+        <v>58</v>
+      </c>
+      <c r="S270" t="s">
+        <v>58</v>
+      </c>
+      <c r="T270" t="s">
+        <v>58</v>
+      </c>
+      <c r="U270" t="s">
+        <v>58</v>
+      </c>
+      <c r="V270" t="s">
+        <v>58</v>
+      </c>
+      <c r="W270" t="s">
+        <v>52</v>
+      </c>
+      <c r="X270" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y270" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD270" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF270" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG270" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH270" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK270" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL270" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM270" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN270" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP270" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ270" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR270" s="1">
+        <v>45010</v>
+      </c>
+      <c r="AS270" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT270" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU270" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV270" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW270" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX270" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY270" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="271" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>51</v>
+      </c>
+      <c r="B271" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C271" t="s">
+        <v>133</v>
+      </c>
+      <c r="D271" t="s">
+        <v>53</v>
+      </c>
+      <c r="E271" t="s">
+        <v>136</v>
+      </c>
+      <c r="F271" t="s">
+        <v>80</v>
+      </c>
+      <c r="G271" t="s">
+        <v>56</v>
+      </c>
+      <c r="H271" t="s">
+        <v>195</v>
+      </c>
+      <c r="I271" t="s">
+        <v>58</v>
+      </c>
+      <c r="J271" t="s">
+        <v>60</v>
+      </c>
+      <c r="K271" t="s">
+        <v>52</v>
+      </c>
+      <c r="L271" t="s">
+        <v>60</v>
+      </c>
+      <c r="M271" t="s">
+        <v>52</v>
+      </c>
+      <c r="N271" t="s">
+        <v>52</v>
+      </c>
+      <c r="O271" t="s">
+        <v>60</v>
+      </c>
+      <c r="P271" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q271" t="s">
+        <v>52</v>
+      </c>
+      <c r="R271" t="s">
+        <v>58</v>
+      </c>
+      <c r="S271" t="s">
+        <v>58</v>
+      </c>
+      <c r="T271" t="s">
+        <v>52</v>
+      </c>
+      <c r="U271" t="s">
+        <v>58</v>
+      </c>
+      <c r="V271" t="s">
+        <v>58</v>
+      </c>
+      <c r="W271" t="s">
+        <v>58</v>
+      </c>
+      <c r="X271" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y271" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z271" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD271" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF271" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG271" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH271" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI271" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ271" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK271" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL271" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM271" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN271" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP271" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ271" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR271" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS271" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT271" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU271" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV271" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW271" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX271" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY271" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="272" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>51</v>
+      </c>
+      <c r="B272" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C272" t="s">
+        <v>133</v>
+      </c>
+      <c r="D272" t="s">
+        <v>53</v>
+      </c>
+      <c r="E272" t="s">
+        <v>118</v>
+      </c>
+      <c r="F272" t="s">
+        <v>55</v>
+      </c>
+      <c r="G272" t="s">
+        <v>56</v>
+      </c>
+      <c r="H272" t="s">
+        <v>366</v>
+      </c>
+      <c r="I272" t="s">
+        <v>52</v>
+      </c>
+      <c r="J272" t="s">
+        <v>59</v>
+      </c>
+      <c r="K272" t="s">
+        <v>58</v>
+      </c>
+      <c r="L272" t="s">
+        <v>58</v>
+      </c>
+      <c r="M272" t="s">
+        <v>58</v>
+      </c>
+      <c r="N272" t="s">
+        <v>60</v>
+      </c>
+      <c r="O272" t="s">
+        <v>96</v>
+      </c>
+      <c r="P272" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q272" t="s">
+        <v>52</v>
+      </c>
+      <c r="R272" t="s">
+        <v>52</v>
+      </c>
+      <c r="S272" t="s">
+        <v>58</v>
+      </c>
+      <c r="T272" t="s">
+        <v>52</v>
+      </c>
+      <c r="U272" t="s">
+        <v>52</v>
+      </c>
+      <c r="V272" t="s">
+        <v>58</v>
+      </c>
+      <c r="W272" t="s">
+        <v>58</v>
+      </c>
+      <c r="X272" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y272" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD272" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF272" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG272" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH272" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK272" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL272" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM272" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN272" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP272" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ272" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR272" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS272" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT272" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU272" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV272" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW272" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX272" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY272" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="273" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>51</v>
+      </c>
+      <c r="B273" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C273" t="s">
+        <v>133</v>
+      </c>
+      <c r="D273" t="s">
+        <v>53</v>
+      </c>
+      <c r="E273" t="s">
+        <v>118</v>
+      </c>
+      <c r="F273" t="s">
+        <v>123</v>
+      </c>
+      <c r="G273" t="s">
+        <v>56</v>
+      </c>
+      <c r="H273" t="s">
+        <v>411</v>
+      </c>
+      <c r="I273" t="s">
+        <v>58</v>
+      </c>
+      <c r="J273" t="s">
+        <v>59</v>
+      </c>
+      <c r="K273" t="s">
+        <v>52</v>
+      </c>
+      <c r="L273" t="s">
+        <v>52</v>
+      </c>
+      <c r="M273" t="s">
+        <v>58</v>
+      </c>
+      <c r="N273" t="s">
+        <v>59</v>
+      </c>
+      <c r="O273" t="s">
+        <v>60</v>
+      </c>
+      <c r="P273" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q273" t="s">
+        <v>59</v>
+      </c>
+      <c r="R273" t="s">
+        <v>52</v>
+      </c>
+      <c r="S273" t="s">
+        <v>60</v>
+      </c>
+      <c r="T273" t="s">
+        <v>52</v>
+      </c>
+      <c r="U273" t="s">
+        <v>58</v>
+      </c>
+      <c r="V273" t="s">
+        <v>58</v>
+      </c>
+      <c r="W273" t="s">
+        <v>58</v>
+      </c>
+      <c r="X273" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y273" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z273" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD273" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF273" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG273" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH273" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI273" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ273" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK273" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL273" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM273" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN273" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP273" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ273" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR273" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS273" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT273" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU273" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV273" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW273" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX273" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY273" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="274" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C274" t="s">
+        <v>133</v>
+      </c>
+      <c r="D274" t="s">
+        <v>53</v>
+      </c>
+      <c r="E274" t="s">
+        <v>89</v>
+      </c>
+      <c r="F274" t="s">
+        <v>55</v>
+      </c>
+      <c r="G274" t="s">
+        <v>56</v>
+      </c>
+      <c r="H274" t="s">
+        <v>412</v>
+      </c>
+      <c r="I274" t="s">
+        <v>58</v>
+      </c>
+      <c r="J274" t="s">
+        <v>58</v>
+      </c>
+      <c r="K274" t="s">
+        <v>58</v>
+      </c>
+      <c r="L274" t="s">
+        <v>59</v>
+      </c>
+      <c r="M274" t="s">
+        <v>74</v>
+      </c>
+      <c r="N274" t="s">
+        <v>52</v>
+      </c>
+      <c r="O274" t="s">
+        <v>58</v>
+      </c>
+      <c r="P274" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q274" t="s">
+        <v>52</v>
+      </c>
+      <c r="R274" t="s">
+        <v>52</v>
+      </c>
+      <c r="S274" t="s">
+        <v>60</v>
+      </c>
+      <c r="T274" t="s">
+        <v>59</v>
+      </c>
+      <c r="U274" t="s">
+        <v>52</v>
+      </c>
+      <c r="V274" t="s">
+        <v>58</v>
+      </c>
+      <c r="W274" t="s">
+        <v>58</v>
+      </c>
+      <c r="X274" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y274" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z274" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD274" t="s">
+        <v>100</v>
+      </c>
+      <c r="AE274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF274" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG274" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH274" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI274" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ274" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK274" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL274" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM274" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP274" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ274" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR274" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS274" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT274" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU274" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV274" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW274" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX274" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY274" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="275" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>51</v>
+      </c>
+      <c r="B275" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C275" t="s">
+        <v>133</v>
+      </c>
+      <c r="D275" t="s">
+        <v>53</v>
+      </c>
+      <c r="E275" t="s">
+        <v>89</v>
+      </c>
+      <c r="F275" t="s">
+        <v>94</v>
+      </c>
+      <c r="G275" t="s">
+        <v>56</v>
+      </c>
+      <c r="H275" t="s">
+        <v>413</v>
+      </c>
+      <c r="I275" t="s">
+        <v>52</v>
+      </c>
+      <c r="J275" t="s">
+        <v>52</v>
+      </c>
+      <c r="K275" t="s">
+        <v>58</v>
+      </c>
+      <c r="L275" t="s">
+        <v>58</v>
+      </c>
+      <c r="M275" t="s">
+        <v>52</v>
+      </c>
+      <c r="N275" t="s">
+        <v>60</v>
+      </c>
+      <c r="O275" t="s">
+        <v>74</v>
+      </c>
+      <c r="P275" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q275" t="s">
+        <v>60</v>
+      </c>
+      <c r="R275" t="s">
+        <v>58</v>
+      </c>
+      <c r="S275" t="s">
+        <v>58</v>
+      </c>
+      <c r="T275" t="s">
+        <v>52</v>
+      </c>
+      <c r="U275" t="s">
+        <v>58</v>
+      </c>
+      <c r="V275" t="s">
+        <v>58</v>
+      </c>
+      <c r="W275" t="s">
+        <v>58</v>
+      </c>
+      <c r="X275" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y275" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z275" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD275" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF275" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG275" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH275" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI275" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ275" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK275" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL275" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM275" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP275" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ275" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR275" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS275" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT275" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU275" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV275" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW275" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX275" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY275" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="276" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>51</v>
+      </c>
+      <c r="B276" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C276" t="s">
+        <v>133</v>
+      </c>
+      <c r="D276" t="s">
+        <v>53</v>
+      </c>
+      <c r="E276" t="s">
+        <v>89</v>
+      </c>
+      <c r="F276" t="s">
+        <v>75</v>
+      </c>
+      <c r="G276" t="s">
+        <v>56</v>
+      </c>
+      <c r="H276" t="s">
+        <v>414</v>
+      </c>
+      <c r="I276" t="s">
+        <v>58</v>
+      </c>
+      <c r="J276" t="s">
+        <v>59</v>
+      </c>
+      <c r="K276" t="s">
+        <v>59</v>
+      </c>
+      <c r="L276" t="s">
+        <v>59</v>
+      </c>
+      <c r="M276" t="s">
+        <v>52</v>
+      </c>
+      <c r="N276" t="s">
+        <v>74</v>
+      </c>
+      <c r="O276" t="s">
+        <v>52</v>
+      </c>
+      <c r="P276" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q276" t="s">
+        <v>60</v>
+      </c>
+      <c r="R276" t="s">
+        <v>60</v>
+      </c>
+      <c r="S276" t="s">
+        <v>58</v>
+      </c>
+      <c r="T276" t="s">
+        <v>59</v>
+      </c>
+      <c r="U276" t="s">
+        <v>60</v>
+      </c>
+      <c r="V276" t="s">
+        <v>52</v>
+      </c>
+      <c r="W276" t="s">
+        <v>58</v>
+      </c>
+      <c r="X276" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y276" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z276" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD276" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF276" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG276" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH276" t="s">
+        <v>140</v>
+      </c>
+      <c r="AI276" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ276" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK276" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL276" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM276" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP276" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ276" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR276" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS276" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT276" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU276" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV276" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW276" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX276" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY276" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="277" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>51</v>
+      </c>
+      <c r="B277" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C277" t="s">
+        <v>133</v>
+      </c>
+      <c r="D277" t="s">
+        <v>53</v>
+      </c>
+      <c r="E277" t="s">
+        <v>104</v>
+      </c>
+      <c r="F277" t="s">
+        <v>55</v>
+      </c>
+      <c r="G277" t="s">
+        <v>56</v>
+      </c>
+      <c r="H277" t="s">
+        <v>355</v>
+      </c>
+      <c r="I277" t="s">
+        <v>58</v>
+      </c>
+      <c r="J277" t="s">
+        <v>163</v>
+      </c>
+      <c r="K277" t="s">
+        <v>96</v>
+      </c>
+      <c r="L277" t="s">
+        <v>59</v>
+      </c>
+      <c r="M277" t="s">
+        <v>59</v>
+      </c>
+      <c r="N277" t="s">
+        <v>75</v>
+      </c>
+      <c r="O277" t="s">
+        <v>74</v>
+      </c>
+      <c r="P277" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q277" t="s">
+        <v>74</v>
+      </c>
+      <c r="R277" t="s">
+        <v>60</v>
+      </c>
+      <c r="S277" t="s">
+        <v>52</v>
+      </c>
+      <c r="T277" t="s">
+        <v>58</v>
+      </c>
+      <c r="U277" t="s">
+        <v>52</v>
+      </c>
+      <c r="V277" t="s">
+        <v>52</v>
+      </c>
+      <c r="W277" t="s">
+        <v>52</v>
+      </c>
+      <c r="X277" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y277" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD277" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF277" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG277" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH277" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK277" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL277" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM277" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN277" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP277" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ277" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR277" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS277" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT277" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU277" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV277" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW277" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX277" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY277" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="278" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>51</v>
+      </c>
+      <c r="B278" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C278" t="s">
+        <v>133</v>
+      </c>
+      <c r="D278" t="s">
+        <v>53</v>
+      </c>
+      <c r="E278" t="s">
+        <v>118</v>
+      </c>
+      <c r="F278" t="s">
+        <v>126</v>
+      </c>
+      <c r="G278" t="s">
+        <v>56</v>
+      </c>
+      <c r="H278" t="s">
+        <v>133</v>
+      </c>
+      <c r="I278" t="s">
+        <v>58</v>
+      </c>
+      <c r="J278" t="s">
+        <v>52</v>
+      </c>
+      <c r="K278" t="s">
+        <v>58</v>
+      </c>
+      <c r="L278" t="s">
+        <v>58</v>
+      </c>
+      <c r="M278" t="s">
+        <v>58</v>
+      </c>
+      <c r="N278" t="s">
+        <v>60</v>
+      </c>
+      <c r="O278" t="s">
+        <v>52</v>
+      </c>
+      <c r="P278" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q278" t="s">
+        <v>96</v>
+      </c>
+      <c r="R278" t="s">
+        <v>52</v>
+      </c>
+      <c r="S278" t="s">
+        <v>60</v>
+      </c>
+      <c r="T278" t="s">
+        <v>52</v>
+      </c>
+      <c r="U278" t="s">
+        <v>52</v>
+      </c>
+      <c r="V278" t="s">
+        <v>58</v>
+      </c>
+      <c r="W278" t="s">
+        <v>58</v>
+      </c>
+      <c r="X278" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y278" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD278" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF278" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG278" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH278" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK278" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL278" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM278" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN278" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP278" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ278" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR278" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS278" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT278" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU278" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV278" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW278" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX278" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY278" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13624" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14996" uniqueCount="434">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1268,6 +1268,60 @@
   <si>
     <t>55</t>
   </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>1255</t>
+  </si>
+  <si>
+    <t>1256</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>1258</t>
+  </si>
+  <si>
+    <t>1259</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>SANIDAD POLICIA</t>
+  </si>
+  <si>
+    <t>2096</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>CLINIC PINARES MEDICA</t>
+  </si>
+  <si>
+    <t>VA LAGO</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
 </sst>
 </file>
 
@@ -1650,7 +1704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY278"/>
+  <dimension ref="A1:AY306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -44746,6 +44800,4346 @@
         <v>72</v>
       </c>
     </row>
+    <row r="279" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>51</v>
+      </c>
+      <c r="B279" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C279" t="s">
+        <v>179</v>
+      </c>
+      <c r="D279" t="s">
+        <v>53</v>
+      </c>
+      <c r="E279" t="s">
+        <v>136</v>
+      </c>
+      <c r="F279" t="s">
+        <v>55</v>
+      </c>
+      <c r="G279" t="s">
+        <v>56</v>
+      </c>
+      <c r="H279" t="s">
+        <v>416</v>
+      </c>
+      <c r="I279" t="s">
+        <v>52</v>
+      </c>
+      <c r="J279" t="s">
+        <v>60</v>
+      </c>
+      <c r="K279" t="s">
+        <v>60</v>
+      </c>
+      <c r="L279" t="s">
+        <v>52</v>
+      </c>
+      <c r="M279" t="s">
+        <v>59</v>
+      </c>
+      <c r="N279" t="s">
+        <v>59</v>
+      </c>
+      <c r="O279" t="s">
+        <v>74</v>
+      </c>
+      <c r="P279" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q279" t="s">
+        <v>96</v>
+      </c>
+      <c r="R279" t="s">
+        <v>52</v>
+      </c>
+      <c r="S279" t="s">
+        <v>60</v>
+      </c>
+      <c r="T279" t="s">
+        <v>60</v>
+      </c>
+      <c r="U279" t="s">
+        <v>52</v>
+      </c>
+      <c r="V279" t="s">
+        <v>52</v>
+      </c>
+      <c r="W279" t="s">
+        <v>58</v>
+      </c>
+      <c r="X279" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y279" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z279" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD279" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF279" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG279" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH279" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI279" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ279" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK279" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL279" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM279" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN279" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP279" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ279" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR279" s="1">
+        <v>45017</v>
+      </c>
+      <c r="AS279" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT279" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU279" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV279" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW279" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX279" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY279" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="280" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>51</v>
+      </c>
+      <c r="B280" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C280" t="s">
+        <v>179</v>
+      </c>
+      <c r="D280" t="s">
+        <v>53</v>
+      </c>
+      <c r="E280" t="s">
+        <v>132</v>
+      </c>
+      <c r="F280" t="s">
+        <v>133</v>
+      </c>
+      <c r="G280" t="s">
+        <v>56</v>
+      </c>
+      <c r="H280" t="s">
+        <v>417</v>
+      </c>
+      <c r="I280" t="s">
+        <v>58</v>
+      </c>
+      <c r="J280" t="s">
+        <v>58</v>
+      </c>
+      <c r="K280" t="s">
+        <v>58</v>
+      </c>
+      <c r="L280" t="s">
+        <v>58</v>
+      </c>
+      <c r="M280" t="s">
+        <v>52</v>
+      </c>
+      <c r="N280" t="s">
+        <v>60</v>
+      </c>
+      <c r="O280" t="s">
+        <v>58</v>
+      </c>
+      <c r="P280" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q280" t="s">
+        <v>52</v>
+      </c>
+      <c r="R280" t="s">
+        <v>52</v>
+      </c>
+      <c r="S280" t="s">
+        <v>52</v>
+      </c>
+      <c r="T280" t="s">
+        <v>58</v>
+      </c>
+      <c r="U280" t="s">
+        <v>58</v>
+      </c>
+      <c r="V280" t="s">
+        <v>58</v>
+      </c>
+      <c r="W280" t="s">
+        <v>58</v>
+      </c>
+      <c r="X280" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y280" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD280" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF280" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG280" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH280" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK280" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL280" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM280" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN280" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP280" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ280" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR280" s="1">
+        <v>45017</v>
+      </c>
+      <c r="AS280" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT280" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU280" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV280" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW280" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX280" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY280" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="281" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>51</v>
+      </c>
+      <c r="B281" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C281" t="s">
+        <v>179</v>
+      </c>
+      <c r="D281" t="s">
+        <v>53</v>
+      </c>
+      <c r="E281" t="s">
+        <v>54</v>
+      </c>
+      <c r="F281" t="s">
+        <v>55</v>
+      </c>
+      <c r="G281" t="s">
+        <v>56</v>
+      </c>
+      <c r="H281" t="s">
+        <v>418</v>
+      </c>
+      <c r="I281" t="s">
+        <v>58</v>
+      </c>
+      <c r="J281" t="s">
+        <v>60</v>
+      </c>
+      <c r="K281" t="s">
+        <v>52</v>
+      </c>
+      <c r="L281" t="s">
+        <v>60</v>
+      </c>
+      <c r="M281" t="s">
+        <v>52</v>
+      </c>
+      <c r="N281" t="s">
+        <v>58</v>
+      </c>
+      <c r="O281" t="s">
+        <v>52</v>
+      </c>
+      <c r="P281" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q281" t="s">
+        <v>58</v>
+      </c>
+      <c r="R281" t="s">
+        <v>58</v>
+      </c>
+      <c r="S281" t="s">
+        <v>58</v>
+      </c>
+      <c r="T281" t="s">
+        <v>58</v>
+      </c>
+      <c r="U281" t="s">
+        <v>52</v>
+      </c>
+      <c r="V281" t="s">
+        <v>60</v>
+      </c>
+      <c r="W281" t="s">
+        <v>52</v>
+      </c>
+      <c r="X281" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y281" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z281" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD281" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF281" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG281" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH281" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI281" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ281" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK281" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL281" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM281" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN281" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP281" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ281" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR281" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS281" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT281" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU281" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV281" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW281" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX281" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY281" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="282" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>51</v>
+      </c>
+      <c r="B282" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C282" t="s">
+        <v>179</v>
+      </c>
+      <c r="D282" t="s">
+        <v>53</v>
+      </c>
+      <c r="E282" t="s">
+        <v>54</v>
+      </c>
+      <c r="F282" t="s">
+        <v>80</v>
+      </c>
+      <c r="G282" t="s">
+        <v>56</v>
+      </c>
+      <c r="H282" t="s">
+        <v>419</v>
+      </c>
+      <c r="I282" t="s">
+        <v>58</v>
+      </c>
+      <c r="J282" t="s">
+        <v>74</v>
+      </c>
+      <c r="K282" t="s">
+        <v>74</v>
+      </c>
+      <c r="L282" t="s">
+        <v>60</v>
+      </c>
+      <c r="M282" t="s">
+        <v>52</v>
+      </c>
+      <c r="N282" t="s">
+        <v>52</v>
+      </c>
+      <c r="O282" t="s">
+        <v>58</v>
+      </c>
+      <c r="P282" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q282" t="s">
+        <v>60</v>
+      </c>
+      <c r="R282" t="s">
+        <v>52</v>
+      </c>
+      <c r="S282" t="s">
+        <v>58</v>
+      </c>
+      <c r="T282" t="s">
+        <v>58</v>
+      </c>
+      <c r="U282" t="s">
+        <v>58</v>
+      </c>
+      <c r="V282" t="s">
+        <v>58</v>
+      </c>
+      <c r="W282" t="s">
+        <v>58</v>
+      </c>
+      <c r="X282" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y282" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z282" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD282" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF282" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG282" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH282" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI282" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ282" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK282" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL282" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM282" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN282" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP282" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ282" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR282" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS282" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT282" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU282" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV282" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW282" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX282" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY282" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="283" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>51</v>
+      </c>
+      <c r="B283" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C283" t="s">
+        <v>179</v>
+      </c>
+      <c r="D283" t="s">
+        <v>53</v>
+      </c>
+      <c r="E283" t="s">
+        <v>54</v>
+      </c>
+      <c r="F283" t="s">
+        <v>91</v>
+      </c>
+      <c r="G283" t="s">
+        <v>56</v>
+      </c>
+      <c r="H283" t="s">
+        <v>420</v>
+      </c>
+      <c r="I283" t="s">
+        <v>58</v>
+      </c>
+      <c r="J283" t="s">
+        <v>52</v>
+      </c>
+      <c r="K283" t="s">
+        <v>58</v>
+      </c>
+      <c r="L283" t="s">
+        <v>58</v>
+      </c>
+      <c r="M283" t="s">
+        <v>58</v>
+      </c>
+      <c r="N283" t="s">
+        <v>58</v>
+      </c>
+      <c r="O283" t="s">
+        <v>58</v>
+      </c>
+      <c r="P283" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q283" t="s">
+        <v>58</v>
+      </c>
+      <c r="R283" t="s">
+        <v>58</v>
+      </c>
+      <c r="S283" t="s">
+        <v>206</v>
+      </c>
+      <c r="T283" t="s">
+        <v>58</v>
+      </c>
+      <c r="U283" t="s">
+        <v>58</v>
+      </c>
+      <c r="V283" t="s">
+        <v>58</v>
+      </c>
+      <c r="W283" t="s">
+        <v>58</v>
+      </c>
+      <c r="X283" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y283" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z283" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD283" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF283" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG283" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH283" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI283" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ283" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK283" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL283" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM283" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN283" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP283" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ283" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR283" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS283" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT283" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU283" t="s">
+        <v>322</v>
+      </c>
+      <c r="AV283" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW283" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX283" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY283" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="284" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>51</v>
+      </c>
+      <c r="B284" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C284" t="s">
+        <v>179</v>
+      </c>
+      <c r="D284" t="s">
+        <v>53</v>
+      </c>
+      <c r="E284" t="s">
+        <v>54</v>
+      </c>
+      <c r="F284" t="s">
+        <v>133</v>
+      </c>
+      <c r="G284" t="s">
+        <v>56</v>
+      </c>
+      <c r="H284" t="s">
+        <v>421</v>
+      </c>
+      <c r="I284" t="s">
+        <v>58</v>
+      </c>
+      <c r="J284" t="s">
+        <v>58</v>
+      </c>
+      <c r="K284" t="s">
+        <v>52</v>
+      </c>
+      <c r="L284" t="s">
+        <v>58</v>
+      </c>
+      <c r="M284" t="s">
+        <v>58</v>
+      </c>
+      <c r="N284" t="s">
+        <v>58</v>
+      </c>
+      <c r="O284" t="s">
+        <v>58</v>
+      </c>
+      <c r="P284" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q284" t="s">
+        <v>58</v>
+      </c>
+      <c r="R284" t="s">
+        <v>58</v>
+      </c>
+      <c r="S284" t="s">
+        <v>58</v>
+      </c>
+      <c r="T284" t="s">
+        <v>58</v>
+      </c>
+      <c r="U284" t="s">
+        <v>58</v>
+      </c>
+      <c r="V284" t="s">
+        <v>58</v>
+      </c>
+      <c r="W284" t="s">
+        <v>58</v>
+      </c>
+      <c r="X284" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y284" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD284" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG284" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH284" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK284" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL284" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM284" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN284" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP284" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ284" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR284" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS284" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT284" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU284" t="s">
+        <v>357</v>
+      </c>
+      <c r="AV284" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW284" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX284" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY284" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="285" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>51</v>
+      </c>
+      <c r="B285" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C285" t="s">
+        <v>179</v>
+      </c>
+      <c r="D285" t="s">
+        <v>53</v>
+      </c>
+      <c r="E285" t="s">
+        <v>54</v>
+      </c>
+      <c r="F285" t="s">
+        <v>100</v>
+      </c>
+      <c r="G285" t="s">
+        <v>56</v>
+      </c>
+      <c r="H285" t="s">
+        <v>422</v>
+      </c>
+      <c r="I285" t="s">
+        <v>58</v>
+      </c>
+      <c r="J285" t="s">
+        <v>52</v>
+      </c>
+      <c r="K285" t="s">
+        <v>58</v>
+      </c>
+      <c r="L285" t="s">
+        <v>58</v>
+      </c>
+      <c r="M285" t="s">
+        <v>58</v>
+      </c>
+      <c r="N285" t="s">
+        <v>58</v>
+      </c>
+      <c r="O285" t="s">
+        <v>58</v>
+      </c>
+      <c r="P285" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q285" t="s">
+        <v>58</v>
+      </c>
+      <c r="R285" t="s">
+        <v>58</v>
+      </c>
+      <c r="S285" t="s">
+        <v>58</v>
+      </c>
+      <c r="T285" t="s">
+        <v>58</v>
+      </c>
+      <c r="U285" t="s">
+        <v>58</v>
+      </c>
+      <c r="V285" t="s">
+        <v>58</v>
+      </c>
+      <c r="W285" t="s">
+        <v>58</v>
+      </c>
+      <c r="X285" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y285" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD285" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG285" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH285" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK285" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL285" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM285" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN285" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP285" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ285" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR285" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS285" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT285" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU285" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV285" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW285" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX285" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY285" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="286" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>51</v>
+      </c>
+      <c r="B286" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C286" t="s">
+        <v>179</v>
+      </c>
+      <c r="D286" t="s">
+        <v>53</v>
+      </c>
+      <c r="E286" t="s">
+        <v>54</v>
+      </c>
+      <c r="F286" t="s">
+        <v>94</v>
+      </c>
+      <c r="G286" t="s">
+        <v>56</v>
+      </c>
+      <c r="H286" t="s">
+        <v>423</v>
+      </c>
+      <c r="I286" t="s">
+        <v>58</v>
+      </c>
+      <c r="J286" t="s">
+        <v>58</v>
+      </c>
+      <c r="K286" t="s">
+        <v>58</v>
+      </c>
+      <c r="L286" t="s">
+        <v>52</v>
+      </c>
+      <c r="M286" t="s">
+        <v>58</v>
+      </c>
+      <c r="N286" t="s">
+        <v>58</v>
+      </c>
+      <c r="O286" t="s">
+        <v>58</v>
+      </c>
+      <c r="P286" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q286" t="s">
+        <v>58</v>
+      </c>
+      <c r="R286" t="s">
+        <v>58</v>
+      </c>
+      <c r="S286" t="s">
+        <v>58</v>
+      </c>
+      <c r="T286" t="s">
+        <v>58</v>
+      </c>
+      <c r="U286" t="s">
+        <v>58</v>
+      </c>
+      <c r="V286" t="s">
+        <v>58</v>
+      </c>
+      <c r="W286" t="s">
+        <v>58</v>
+      </c>
+      <c r="X286" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y286" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD286" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF286" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH286" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK286" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL286" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM286" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN286" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP286" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ286" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR286" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS286" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT286" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU286" t="s">
+        <v>298</v>
+      </c>
+      <c r="AV286" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW286" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX286" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY286" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="287" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>51</v>
+      </c>
+      <c r="B287" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C287" t="s">
+        <v>179</v>
+      </c>
+      <c r="D287" t="s">
+        <v>53</v>
+      </c>
+      <c r="E287" t="s">
+        <v>54</v>
+      </c>
+      <c r="F287" t="s">
+        <v>73</v>
+      </c>
+      <c r="G287" t="s">
+        <v>56</v>
+      </c>
+      <c r="H287" t="s">
+        <v>320</v>
+      </c>
+      <c r="I287" t="s">
+        <v>52</v>
+      </c>
+      <c r="J287" t="s">
+        <v>52</v>
+      </c>
+      <c r="K287" t="s">
+        <v>52</v>
+      </c>
+      <c r="L287" t="s">
+        <v>60</v>
+      </c>
+      <c r="M287" t="s">
+        <v>74</v>
+      </c>
+      <c r="N287" t="s">
+        <v>60</v>
+      </c>
+      <c r="O287" t="s">
+        <v>58</v>
+      </c>
+      <c r="P287" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q287" t="s">
+        <v>58</v>
+      </c>
+      <c r="R287" t="s">
+        <v>58</v>
+      </c>
+      <c r="S287" t="s">
+        <v>58</v>
+      </c>
+      <c r="T287" t="s">
+        <v>58</v>
+      </c>
+      <c r="U287" t="s">
+        <v>52</v>
+      </c>
+      <c r="V287" t="s">
+        <v>52</v>
+      </c>
+      <c r="W287" t="s">
+        <v>58</v>
+      </c>
+      <c r="X287" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y287" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD287" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF287" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG287" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH287" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK287" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL287" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM287" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN287" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP287" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ287" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR287" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS287" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT287" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU287" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV287" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW287" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX287" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY287" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="288" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>51</v>
+      </c>
+      <c r="B288" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C288" t="s">
+        <v>179</v>
+      </c>
+      <c r="D288" t="s">
+        <v>53</v>
+      </c>
+      <c r="E288" t="s">
+        <v>54</v>
+      </c>
+      <c r="F288" t="s">
+        <v>126</v>
+      </c>
+      <c r="G288" t="s">
+        <v>56</v>
+      </c>
+      <c r="H288" t="s">
+        <v>343</v>
+      </c>
+      <c r="I288" t="s">
+        <v>58</v>
+      </c>
+      <c r="J288" t="s">
+        <v>58</v>
+      </c>
+      <c r="K288" t="s">
+        <v>58</v>
+      </c>
+      <c r="L288" t="s">
+        <v>58</v>
+      </c>
+      <c r="M288" t="s">
+        <v>58</v>
+      </c>
+      <c r="N288" t="s">
+        <v>58</v>
+      </c>
+      <c r="O288" t="s">
+        <v>58</v>
+      </c>
+      <c r="P288" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q288" t="s">
+        <v>58</v>
+      </c>
+      <c r="R288" t="s">
+        <v>58</v>
+      </c>
+      <c r="S288" t="s">
+        <v>58</v>
+      </c>
+      <c r="T288" t="s">
+        <v>58</v>
+      </c>
+      <c r="U288" t="s">
+        <v>58</v>
+      </c>
+      <c r="V288" t="s">
+        <v>58</v>
+      </c>
+      <c r="W288" t="s">
+        <v>52</v>
+      </c>
+      <c r="X288" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y288" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z288" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD288" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF288" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG288" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH288" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI288" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ288" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK288" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL288" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM288" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN288" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP288" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ288" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR288" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS288" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT288" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU288" t="s">
+        <v>349</v>
+      </c>
+      <c r="AV288" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW288" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX288" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY288" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="289" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>51</v>
+      </c>
+      <c r="B289" s="1">
+        <v>45016</v>
+      </c>
+      <c r="C289" t="s">
+        <v>179</v>
+      </c>
+      <c r="D289" t="s">
+        <v>53</v>
+      </c>
+      <c r="E289" t="s">
+        <v>54</v>
+      </c>
+      <c r="F289" t="s">
+        <v>169</v>
+      </c>
+      <c r="G289" t="s">
+        <v>56</v>
+      </c>
+      <c r="H289" t="s">
+        <v>344</v>
+      </c>
+      <c r="I289" t="s">
+        <v>58</v>
+      </c>
+      <c r="J289" t="s">
+        <v>52</v>
+      </c>
+      <c r="K289" t="s">
+        <v>58</v>
+      </c>
+      <c r="L289" t="s">
+        <v>58</v>
+      </c>
+      <c r="M289" t="s">
+        <v>58</v>
+      </c>
+      <c r="N289" t="s">
+        <v>58</v>
+      </c>
+      <c r="O289" t="s">
+        <v>58</v>
+      </c>
+      <c r="P289" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q289" t="s">
+        <v>58</v>
+      </c>
+      <c r="R289" t="s">
+        <v>58</v>
+      </c>
+      <c r="S289" t="s">
+        <v>58</v>
+      </c>
+      <c r="T289" t="s">
+        <v>58</v>
+      </c>
+      <c r="U289" t="s">
+        <v>58</v>
+      </c>
+      <c r="V289" t="s">
+        <v>58</v>
+      </c>
+      <c r="W289" t="s">
+        <v>58</v>
+      </c>
+      <c r="X289" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y289" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD289" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG289" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH289" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK289" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL289" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM289" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN289" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP289" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ289" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR289" s="1">
+        <v>45016</v>
+      </c>
+      <c r="AS289" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT289" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU289" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV289" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW289" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX289" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY289" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="290" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>51</v>
+      </c>
+      <c r="B290" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C290" t="s">
+        <v>179</v>
+      </c>
+      <c r="D290" t="s">
+        <v>53</v>
+      </c>
+      <c r="E290" t="s">
+        <v>112</v>
+      </c>
+      <c r="F290" t="s">
+        <v>55</v>
+      </c>
+      <c r="G290" t="s">
+        <v>56</v>
+      </c>
+      <c r="H290" t="s">
+        <v>424</v>
+      </c>
+      <c r="I290" t="s">
+        <v>58</v>
+      </c>
+      <c r="J290" t="s">
+        <v>58</v>
+      </c>
+      <c r="K290" t="s">
+        <v>58</v>
+      </c>
+      <c r="L290" t="s">
+        <v>58</v>
+      </c>
+      <c r="M290" t="s">
+        <v>52</v>
+      </c>
+      <c r="N290" t="s">
+        <v>58</v>
+      </c>
+      <c r="O290" t="s">
+        <v>58</v>
+      </c>
+      <c r="P290" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q290" t="s">
+        <v>58</v>
+      </c>
+      <c r="R290" t="s">
+        <v>52</v>
+      </c>
+      <c r="S290" t="s">
+        <v>58</v>
+      </c>
+      <c r="T290" t="s">
+        <v>58</v>
+      </c>
+      <c r="U290" t="s">
+        <v>58</v>
+      </c>
+      <c r="V290" t="s">
+        <v>52</v>
+      </c>
+      <c r="W290" t="s">
+        <v>58</v>
+      </c>
+      <c r="X290" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y290" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z290" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD290" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF290" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG290" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH290" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI290" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ290" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK290" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL290" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM290" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN290" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP290" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ290" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR290" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS290" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT290" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU290" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV290" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW290" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX290" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY290" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="291" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>51</v>
+      </c>
+      <c r="B291" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C291" t="s">
+        <v>179</v>
+      </c>
+      <c r="D291" t="s">
+        <v>53</v>
+      </c>
+      <c r="E291" t="s">
+        <v>368</v>
+      </c>
+      <c r="F291" t="s">
+        <v>369</v>
+      </c>
+      <c r="G291" t="s">
+        <v>56</v>
+      </c>
+      <c r="H291" t="s">
+        <v>61</v>
+      </c>
+      <c r="I291" t="s">
+        <v>58</v>
+      </c>
+      <c r="J291" t="s">
+        <v>58</v>
+      </c>
+      <c r="K291" t="s">
+        <v>58</v>
+      </c>
+      <c r="L291" t="s">
+        <v>58</v>
+      </c>
+      <c r="M291" t="s">
+        <v>58</v>
+      </c>
+      <c r="N291" t="s">
+        <v>60</v>
+      </c>
+      <c r="O291" t="s">
+        <v>74</v>
+      </c>
+      <c r="P291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q291" t="s">
+        <v>52</v>
+      </c>
+      <c r="R291" t="s">
+        <v>52</v>
+      </c>
+      <c r="S291" t="s">
+        <v>52</v>
+      </c>
+      <c r="T291" t="s">
+        <v>58</v>
+      </c>
+      <c r="U291" t="s">
+        <v>58</v>
+      </c>
+      <c r="V291" t="s">
+        <v>58</v>
+      </c>
+      <c r="W291" t="s">
+        <v>58</v>
+      </c>
+      <c r="X291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y291" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD291" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF291" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH291" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK291" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL291" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM291" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN291" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP291" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ291" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR291" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS291" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT291" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU291" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV291" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW291" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX291" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY291" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="292" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>51</v>
+      </c>
+      <c r="B292" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C292" t="s">
+        <v>179</v>
+      </c>
+      <c r="D292" t="s">
+        <v>53</v>
+      </c>
+      <c r="E292" t="s">
+        <v>146</v>
+      </c>
+      <c r="F292" t="s">
+        <v>55</v>
+      </c>
+      <c r="G292" t="s">
+        <v>56</v>
+      </c>
+      <c r="H292" t="s">
+        <v>244</v>
+      </c>
+      <c r="I292" t="s">
+        <v>60</v>
+      </c>
+      <c r="J292" t="s">
+        <v>52</v>
+      </c>
+      <c r="K292" t="s">
+        <v>58</v>
+      </c>
+      <c r="L292" t="s">
+        <v>58</v>
+      </c>
+      <c r="M292" t="s">
+        <v>58</v>
+      </c>
+      <c r="N292" t="s">
+        <v>52</v>
+      </c>
+      <c r="O292" t="s">
+        <v>60</v>
+      </c>
+      <c r="P292" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q292" t="s">
+        <v>58</v>
+      </c>
+      <c r="R292" t="s">
+        <v>58</v>
+      </c>
+      <c r="S292" t="s">
+        <v>58</v>
+      </c>
+      <c r="T292" t="s">
+        <v>58</v>
+      </c>
+      <c r="U292" t="s">
+        <v>52</v>
+      </c>
+      <c r="V292" t="s">
+        <v>52</v>
+      </c>
+      <c r="W292" t="s">
+        <v>60</v>
+      </c>
+      <c r="X292" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y292" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD292" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF292" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG292" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH292" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK292" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL292" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM292" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN292" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP292" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ292" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR292" s="1">
+        <v>45018</v>
+      </c>
+      <c r="AS292" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT292" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU292" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV292" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW292" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX292" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY292" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="293" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>51</v>
+      </c>
+      <c r="B293" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C293" t="s">
+        <v>179</v>
+      </c>
+      <c r="D293" t="s">
+        <v>53</v>
+      </c>
+      <c r="E293" t="s">
+        <v>313</v>
+      </c>
+      <c r="F293" t="s">
+        <v>86</v>
+      </c>
+      <c r="G293" t="s">
+        <v>56</v>
+      </c>
+      <c r="H293" t="s">
+        <v>61</v>
+      </c>
+      <c r="I293" t="s">
+        <v>58</v>
+      </c>
+      <c r="J293" t="s">
+        <v>52</v>
+      </c>
+      <c r="K293" t="s">
+        <v>58</v>
+      </c>
+      <c r="L293" t="s">
+        <v>58</v>
+      </c>
+      <c r="M293" t="s">
+        <v>58</v>
+      </c>
+      <c r="N293" t="s">
+        <v>58</v>
+      </c>
+      <c r="O293" t="s">
+        <v>58</v>
+      </c>
+      <c r="P293" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q293" t="s">
+        <v>58</v>
+      </c>
+      <c r="R293" t="s">
+        <v>58</v>
+      </c>
+      <c r="S293" t="s">
+        <v>52</v>
+      </c>
+      <c r="T293" t="s">
+        <v>52</v>
+      </c>
+      <c r="U293" t="s">
+        <v>58</v>
+      </c>
+      <c r="V293" t="s">
+        <v>58</v>
+      </c>
+      <c r="W293" t="s">
+        <v>58</v>
+      </c>
+      <c r="X293" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y293" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z293" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF293" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG293" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI293" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ293" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK293" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL293" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM293" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN293" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP293" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ293" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR293" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS293" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT293" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU293" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV293" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW293" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX293" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY293" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="294" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>51</v>
+      </c>
+      <c r="B294" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C294" t="s">
+        <v>179</v>
+      </c>
+      <c r="D294" t="s">
+        <v>53</v>
+      </c>
+      <c r="E294" t="s">
+        <v>89</v>
+      </c>
+      <c r="F294" t="s">
+        <v>55</v>
+      </c>
+      <c r="G294" t="s">
+        <v>56</v>
+      </c>
+      <c r="H294" t="s">
+        <v>426</v>
+      </c>
+      <c r="I294" t="s">
+        <v>58</v>
+      </c>
+      <c r="J294" t="s">
+        <v>59</v>
+      </c>
+      <c r="K294" t="s">
+        <v>52</v>
+      </c>
+      <c r="L294" t="s">
+        <v>52</v>
+      </c>
+      <c r="M294" t="s">
+        <v>52</v>
+      </c>
+      <c r="N294" t="s">
+        <v>60</v>
+      </c>
+      <c r="O294" t="s">
+        <v>60</v>
+      </c>
+      <c r="P294" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q294" t="s">
+        <v>59</v>
+      </c>
+      <c r="R294" t="s">
+        <v>58</v>
+      </c>
+      <c r="S294" t="s">
+        <v>60</v>
+      </c>
+      <c r="T294" t="s">
+        <v>60</v>
+      </c>
+      <c r="U294" t="s">
+        <v>58</v>
+      </c>
+      <c r="V294" t="s">
+        <v>58</v>
+      </c>
+      <c r="W294" t="s">
+        <v>52</v>
+      </c>
+      <c r="X294" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y294" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z294" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD294" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF294" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG294" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH294" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI294" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ294" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK294" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL294" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM294" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP294" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ294" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR294" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS294" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT294" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU294" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV294" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW294" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX294" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY294" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="295" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>51</v>
+      </c>
+      <c r="B295" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C295" t="s">
+        <v>179</v>
+      </c>
+      <c r="D295" t="s">
+        <v>53</v>
+      </c>
+      <c r="E295" t="s">
+        <v>89</v>
+      </c>
+      <c r="F295" t="s">
+        <v>94</v>
+      </c>
+      <c r="G295" t="s">
+        <v>56</v>
+      </c>
+      <c r="H295" t="s">
+        <v>427</v>
+      </c>
+      <c r="I295" t="s">
+        <v>58</v>
+      </c>
+      <c r="J295" t="s">
+        <v>58</v>
+      </c>
+      <c r="K295" t="s">
+        <v>52</v>
+      </c>
+      <c r="L295" t="s">
+        <v>52</v>
+      </c>
+      <c r="M295" t="s">
+        <v>58</v>
+      </c>
+      <c r="N295" t="s">
+        <v>74</v>
+      </c>
+      <c r="O295" t="s">
+        <v>60</v>
+      </c>
+      <c r="P295" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q295" t="s">
+        <v>52</v>
+      </c>
+      <c r="R295" t="s">
+        <v>52</v>
+      </c>
+      <c r="S295" t="s">
+        <v>52</v>
+      </c>
+      <c r="T295" t="s">
+        <v>52</v>
+      </c>
+      <c r="U295" t="s">
+        <v>52</v>
+      </c>
+      <c r="V295" t="s">
+        <v>58</v>
+      </c>
+      <c r="W295" t="s">
+        <v>58</v>
+      </c>
+      <c r="X295" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y295" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z295" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD295" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF295" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG295" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH295" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI295" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ295" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK295" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL295" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM295" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP295" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ295" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR295" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS295" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT295" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU295" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV295" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW295" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX295" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY295" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="296" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>51</v>
+      </c>
+      <c r="B296" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C296" t="s">
+        <v>179</v>
+      </c>
+      <c r="D296" t="s">
+        <v>53</v>
+      </c>
+      <c r="E296" t="s">
+        <v>89</v>
+      </c>
+      <c r="F296" t="s">
+        <v>75</v>
+      </c>
+      <c r="G296" t="s">
+        <v>56</v>
+      </c>
+      <c r="H296" t="s">
+        <v>428</v>
+      </c>
+      <c r="I296" t="s">
+        <v>59</v>
+      </c>
+      <c r="J296" t="s">
+        <v>76</v>
+      </c>
+      <c r="K296" t="s">
+        <v>106</v>
+      </c>
+      <c r="L296" t="s">
+        <v>74</v>
+      </c>
+      <c r="M296" t="s">
+        <v>52</v>
+      </c>
+      <c r="N296" t="s">
+        <v>60</v>
+      </c>
+      <c r="O296" t="s">
+        <v>74</v>
+      </c>
+      <c r="P296" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q296" t="s">
+        <v>60</v>
+      </c>
+      <c r="R296" t="s">
+        <v>96</v>
+      </c>
+      <c r="S296" t="s">
+        <v>60</v>
+      </c>
+      <c r="T296" t="s">
+        <v>52</v>
+      </c>
+      <c r="U296" t="s">
+        <v>59</v>
+      </c>
+      <c r="V296" t="s">
+        <v>52</v>
+      </c>
+      <c r="W296" t="s">
+        <v>60</v>
+      </c>
+      <c r="X296" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y296" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z296" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD296" t="s">
+        <v>327</v>
+      </c>
+      <c r="AE296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF296" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG296" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH296" t="s">
+        <v>327</v>
+      </c>
+      <c r="AI296" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ296" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK296" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL296" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM296" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP296" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ296" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR296" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS296" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT296" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU296" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV296" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW296" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX296" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY296" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="297" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>51</v>
+      </c>
+      <c r="B297" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C297" t="s">
+        <v>179</v>
+      </c>
+      <c r="D297" t="s">
+        <v>53</v>
+      </c>
+      <c r="E297" t="s">
+        <v>104</v>
+      </c>
+      <c r="F297" t="s">
+        <v>55</v>
+      </c>
+      <c r="G297" t="s">
+        <v>56</v>
+      </c>
+      <c r="H297" t="s">
+        <v>398</v>
+      </c>
+      <c r="I297" t="s">
+        <v>58</v>
+      </c>
+      <c r="J297" t="s">
+        <v>91</v>
+      </c>
+      <c r="K297" t="s">
+        <v>59</v>
+      </c>
+      <c r="L297" t="s">
+        <v>60</v>
+      </c>
+      <c r="M297" t="s">
+        <v>60</v>
+      </c>
+      <c r="N297" t="s">
+        <v>96</v>
+      </c>
+      <c r="O297" t="s">
+        <v>82</v>
+      </c>
+      <c r="P297" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q297" t="s">
+        <v>52</v>
+      </c>
+      <c r="R297" t="s">
+        <v>60</v>
+      </c>
+      <c r="S297" t="s">
+        <v>59</v>
+      </c>
+      <c r="T297" t="s">
+        <v>52</v>
+      </c>
+      <c r="U297" t="s">
+        <v>52</v>
+      </c>
+      <c r="V297" t="s">
+        <v>59</v>
+      </c>
+      <c r="W297" t="s">
+        <v>52</v>
+      </c>
+      <c r="X297" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y297" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z297" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD297" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF297" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG297" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH297" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI297" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ297" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK297" t="s">
+        <v>181</v>
+      </c>
+      <c r="AL297" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM297" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN297" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP297" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ297" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR297" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS297" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT297" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU297" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV297" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW297" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX297" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY297" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="298" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>51</v>
+      </c>
+      <c r="B298" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C298" t="s">
+        <v>179</v>
+      </c>
+      <c r="D298" t="s">
+        <v>53</v>
+      </c>
+      <c r="E298" t="s">
+        <v>155</v>
+      </c>
+      <c r="F298" t="s">
+        <v>55</v>
+      </c>
+      <c r="G298" t="s">
+        <v>56</v>
+      </c>
+      <c r="H298" t="s">
+        <v>429</v>
+      </c>
+      <c r="I298" t="s">
+        <v>58</v>
+      </c>
+      <c r="J298" t="s">
+        <v>58</v>
+      </c>
+      <c r="K298" t="s">
+        <v>58</v>
+      </c>
+      <c r="L298" t="s">
+        <v>52</v>
+      </c>
+      <c r="M298" t="s">
+        <v>58</v>
+      </c>
+      <c r="N298" t="s">
+        <v>60</v>
+      </c>
+      <c r="O298" t="s">
+        <v>58</v>
+      </c>
+      <c r="P298" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q298" t="s">
+        <v>52</v>
+      </c>
+      <c r="R298" t="s">
+        <v>106</v>
+      </c>
+      <c r="S298" t="s">
+        <v>74</v>
+      </c>
+      <c r="T298" t="s">
+        <v>60</v>
+      </c>
+      <c r="U298" t="s">
+        <v>58</v>
+      </c>
+      <c r="V298" t="s">
+        <v>59</v>
+      </c>
+      <c r="W298" t="s">
+        <v>58</v>
+      </c>
+      <c r="X298" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y298" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z298" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD298" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF298" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG298" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH298" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI298" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ298" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK298" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL298" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM298" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN298" t="s">
+        <v>430</v>
+      </c>
+      <c r="AO298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP298" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ298" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR298" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS298" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT298" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU298" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV298" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW298" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX298" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY298" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="299" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C299" t="s">
+        <v>179</v>
+      </c>
+      <c r="D299" t="s">
+        <v>53</v>
+      </c>
+      <c r="E299" t="s">
+        <v>151</v>
+      </c>
+      <c r="F299" t="s">
+        <v>55</v>
+      </c>
+      <c r="G299" t="s">
+        <v>56</v>
+      </c>
+      <c r="H299" t="s">
+        <v>61</v>
+      </c>
+      <c r="I299" t="s">
+        <v>58</v>
+      </c>
+      <c r="J299" t="s">
+        <v>74</v>
+      </c>
+      <c r="K299" t="s">
+        <v>74</v>
+      </c>
+      <c r="L299" t="s">
+        <v>58</v>
+      </c>
+      <c r="M299" t="s">
+        <v>58</v>
+      </c>
+      <c r="N299" t="s">
+        <v>58</v>
+      </c>
+      <c r="O299" t="s">
+        <v>60</v>
+      </c>
+      <c r="P299" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q299" t="s">
+        <v>58</v>
+      </c>
+      <c r="R299" t="s">
+        <v>58</v>
+      </c>
+      <c r="S299" t="s">
+        <v>58</v>
+      </c>
+      <c r="T299" t="s">
+        <v>52</v>
+      </c>
+      <c r="U299" t="s">
+        <v>58</v>
+      </c>
+      <c r="V299" t="s">
+        <v>52</v>
+      </c>
+      <c r="W299" t="s">
+        <v>60</v>
+      </c>
+      <c r="X299" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y299" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z299" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD299" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF299" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG299" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH299" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI299" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ299" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK299" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL299" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM299" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN299" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP299" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ299" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR299" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS299" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT299" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU299" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV299" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW299" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX299" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY299" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="300" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>51</v>
+      </c>
+      <c r="B300" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C300" t="s">
+        <v>179</v>
+      </c>
+      <c r="D300" t="s">
+        <v>53</v>
+      </c>
+      <c r="E300" t="s">
+        <v>136</v>
+      </c>
+      <c r="F300" t="s">
+        <v>80</v>
+      </c>
+      <c r="G300" t="s">
+        <v>56</v>
+      </c>
+      <c r="H300" t="s">
+        <v>165</v>
+      </c>
+      <c r="I300" t="s">
+        <v>58</v>
+      </c>
+      <c r="J300" t="s">
+        <v>52</v>
+      </c>
+      <c r="K300" t="s">
+        <v>58</v>
+      </c>
+      <c r="L300" t="s">
+        <v>58</v>
+      </c>
+      <c r="M300" t="s">
+        <v>58</v>
+      </c>
+      <c r="N300" t="s">
+        <v>58</v>
+      </c>
+      <c r="O300" t="s">
+        <v>52</v>
+      </c>
+      <c r="P300" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q300" t="s">
+        <v>58</v>
+      </c>
+      <c r="R300" t="s">
+        <v>52</v>
+      </c>
+      <c r="S300" t="s">
+        <v>58</v>
+      </c>
+      <c r="T300" t="s">
+        <v>60</v>
+      </c>
+      <c r="U300" t="s">
+        <v>58</v>
+      </c>
+      <c r="V300" t="s">
+        <v>58</v>
+      </c>
+      <c r="W300" t="s">
+        <v>58</v>
+      </c>
+      <c r="X300" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y300" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z300" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD300" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF300" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG300" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH300" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI300" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ300" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK300" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL300" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM300" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN300" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP300" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ300" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR300" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS300" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT300" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU300" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV300" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW300" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX300" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY300" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="301" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>51</v>
+      </c>
+      <c r="B301" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C301" t="s">
+        <v>179</v>
+      </c>
+      <c r="D301" t="s">
+        <v>53</v>
+      </c>
+      <c r="E301" t="s">
+        <v>118</v>
+      </c>
+      <c r="F301" t="s">
+        <v>55</v>
+      </c>
+      <c r="G301" t="s">
+        <v>56</v>
+      </c>
+      <c r="H301" t="s">
+        <v>429</v>
+      </c>
+      <c r="I301" t="s">
+        <v>58</v>
+      </c>
+      <c r="J301" t="s">
+        <v>52</v>
+      </c>
+      <c r="K301" t="s">
+        <v>58</v>
+      </c>
+      <c r="L301" t="s">
+        <v>52</v>
+      </c>
+      <c r="M301" t="s">
+        <v>52</v>
+      </c>
+      <c r="N301" t="s">
+        <v>59</v>
+      </c>
+      <c r="O301" t="s">
+        <v>52</v>
+      </c>
+      <c r="P301" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q301" t="s">
+        <v>58</v>
+      </c>
+      <c r="R301" t="s">
+        <v>52</v>
+      </c>
+      <c r="S301" t="s">
+        <v>52</v>
+      </c>
+      <c r="T301" t="s">
+        <v>52</v>
+      </c>
+      <c r="U301" t="s">
+        <v>52</v>
+      </c>
+      <c r="V301" t="s">
+        <v>58</v>
+      </c>
+      <c r="W301" t="s">
+        <v>58</v>
+      </c>
+      <c r="X301" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y301" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z301" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD301" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF301" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG301" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH301" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI301" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ301" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK301" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL301" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM301" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN301" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP301" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ301" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR301" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS301" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT301" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU301" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV301" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW301" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX301" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY301" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="302" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>51</v>
+      </c>
+      <c r="B302" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C302" t="s">
+        <v>179</v>
+      </c>
+      <c r="D302" t="s">
+        <v>53</v>
+      </c>
+      <c r="E302" t="s">
+        <v>118</v>
+      </c>
+      <c r="F302" t="s">
+        <v>123</v>
+      </c>
+      <c r="G302" t="s">
+        <v>56</v>
+      </c>
+      <c r="H302" t="s">
+        <v>403</v>
+      </c>
+      <c r="I302" t="s">
+        <v>58</v>
+      </c>
+      <c r="J302" t="s">
+        <v>59</v>
+      </c>
+      <c r="K302" t="s">
+        <v>58</v>
+      </c>
+      <c r="L302" t="s">
+        <v>58</v>
+      </c>
+      <c r="M302" t="s">
+        <v>52</v>
+      </c>
+      <c r="N302" t="s">
+        <v>52</v>
+      </c>
+      <c r="O302" t="s">
+        <v>52</v>
+      </c>
+      <c r="P302" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q302" t="s">
+        <v>60</v>
+      </c>
+      <c r="R302" t="s">
+        <v>52</v>
+      </c>
+      <c r="S302" t="s">
+        <v>58</v>
+      </c>
+      <c r="T302" t="s">
+        <v>58</v>
+      </c>
+      <c r="U302" t="s">
+        <v>58</v>
+      </c>
+      <c r="V302" t="s">
+        <v>58</v>
+      </c>
+      <c r="W302" t="s">
+        <v>58</v>
+      </c>
+      <c r="X302" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y302" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z302" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD302" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF302" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG302" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH302" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI302" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ302" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK302" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL302" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM302" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN302" t="s">
+        <v>431</v>
+      </c>
+      <c r="AO302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP302" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ302" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR302" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS302" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT302" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU302" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV302" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW302" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX302" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY302" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="303" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>51</v>
+      </c>
+      <c r="B303" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C303" t="s">
+        <v>179</v>
+      </c>
+      <c r="D303" t="s">
+        <v>53</v>
+      </c>
+      <c r="E303" t="s">
+        <v>118</v>
+      </c>
+      <c r="F303" t="s">
+        <v>126</v>
+      </c>
+      <c r="G303" t="s">
+        <v>56</v>
+      </c>
+      <c r="H303" t="s">
+        <v>179</v>
+      </c>
+      <c r="I303" t="s">
+        <v>58</v>
+      </c>
+      <c r="J303" t="s">
+        <v>96</v>
+      </c>
+      <c r="K303" t="s">
+        <v>52</v>
+      </c>
+      <c r="L303" t="s">
+        <v>60</v>
+      </c>
+      <c r="M303" t="s">
+        <v>60</v>
+      </c>
+      <c r="N303" t="s">
+        <v>59</v>
+      </c>
+      <c r="O303" t="s">
+        <v>52</v>
+      </c>
+      <c r="P303" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q303" t="s">
+        <v>58</v>
+      </c>
+      <c r="R303" t="s">
+        <v>58</v>
+      </c>
+      <c r="S303" t="s">
+        <v>52</v>
+      </c>
+      <c r="T303" t="s">
+        <v>60</v>
+      </c>
+      <c r="U303" t="s">
+        <v>58</v>
+      </c>
+      <c r="V303" t="s">
+        <v>58</v>
+      </c>
+      <c r="W303" t="s">
+        <v>58</v>
+      </c>
+      <c r="X303" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y303" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z303" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD303" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF303" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG303" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH303" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI303" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ303" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK303" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL303" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM303" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN303" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP303" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ303" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR303" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS303" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT303" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU303" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV303" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW303" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX303" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY303" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="304" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>51</v>
+      </c>
+      <c r="B304" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C304" t="s">
+        <v>179</v>
+      </c>
+      <c r="D304" t="s">
+        <v>53</v>
+      </c>
+      <c r="E304" t="s">
+        <v>199</v>
+      </c>
+      <c r="F304" t="s">
+        <v>55</v>
+      </c>
+      <c r="G304" t="s">
+        <v>56</v>
+      </c>
+      <c r="H304" t="s">
+        <v>59</v>
+      </c>
+      <c r="I304" t="s">
+        <v>52</v>
+      </c>
+      <c r="J304" t="s">
+        <v>52</v>
+      </c>
+      <c r="K304" t="s">
+        <v>52</v>
+      </c>
+      <c r="L304" t="s">
+        <v>58</v>
+      </c>
+      <c r="M304" t="s">
+        <v>58</v>
+      </c>
+      <c r="N304" t="s">
+        <v>58</v>
+      </c>
+      <c r="O304" t="s">
+        <v>58</v>
+      </c>
+      <c r="P304" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q304" t="s">
+        <v>58</v>
+      </c>
+      <c r="R304" t="s">
+        <v>58</v>
+      </c>
+      <c r="S304" t="s">
+        <v>58</v>
+      </c>
+      <c r="T304" t="s">
+        <v>58</v>
+      </c>
+      <c r="U304" t="s">
+        <v>58</v>
+      </c>
+      <c r="V304" t="s">
+        <v>58</v>
+      </c>
+      <c r="W304" t="s">
+        <v>58</v>
+      </c>
+      <c r="X304" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y304" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z304" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF304" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI304" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ304" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK304" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL304" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM304" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN304" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP304" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ304" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR304" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS304" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT304" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU304" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV304" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW304" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX304" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY304" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="305" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>51</v>
+      </c>
+      <c r="B305" s="1">
+        <v>45010</v>
+      </c>
+      <c r="C305" t="s">
+        <v>133</v>
+      </c>
+      <c r="D305" t="s">
+        <v>53</v>
+      </c>
+      <c r="E305" t="s">
+        <v>174</v>
+      </c>
+      <c r="F305" t="s">
+        <v>55</v>
+      </c>
+      <c r="G305" t="s">
+        <v>56</v>
+      </c>
+      <c r="H305" t="s">
+        <v>432</v>
+      </c>
+      <c r="I305" t="s">
+        <v>52</v>
+      </c>
+      <c r="J305" t="s">
+        <v>91</v>
+      </c>
+      <c r="K305" t="s">
+        <v>163</v>
+      </c>
+      <c r="L305" t="s">
+        <v>63</v>
+      </c>
+      <c r="M305" t="s">
+        <v>60</v>
+      </c>
+      <c r="N305" t="s">
+        <v>59</v>
+      </c>
+      <c r="O305" t="s">
+        <v>59</v>
+      </c>
+      <c r="P305" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q305" t="s">
+        <v>74</v>
+      </c>
+      <c r="R305" t="s">
+        <v>58</v>
+      </c>
+      <c r="S305" t="s">
+        <v>96</v>
+      </c>
+      <c r="T305" t="s">
+        <v>74</v>
+      </c>
+      <c r="U305" t="s">
+        <v>60</v>
+      </c>
+      <c r="V305" t="s">
+        <v>96</v>
+      </c>
+      <c r="W305" t="s">
+        <v>74</v>
+      </c>
+      <c r="X305" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y305" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z305" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD305" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF305" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG305" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH305" t="s">
+        <v>433</v>
+      </c>
+      <c r="AI305" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ305" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK305" t="s">
+        <v>433</v>
+      </c>
+      <c r="AL305" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM305" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN305" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP305" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ305" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR305" s="1">
+        <v>45012</v>
+      </c>
+      <c r="AS305" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT305" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU305" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV305" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW305" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX305" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY305" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="306" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>51</v>
+      </c>
+      <c r="B306" s="1">
+        <v>45017</v>
+      </c>
+      <c r="C306" t="s">
+        <v>179</v>
+      </c>
+      <c r="D306" t="s">
+        <v>53</v>
+      </c>
+      <c r="E306" t="s">
+        <v>174</v>
+      </c>
+      <c r="F306" t="s">
+        <v>55</v>
+      </c>
+      <c r="G306" t="s">
+        <v>56</v>
+      </c>
+      <c r="H306" t="s">
+        <v>61</v>
+      </c>
+      <c r="I306" t="s">
+        <v>60</v>
+      </c>
+      <c r="J306" t="s">
+        <v>64</v>
+      </c>
+      <c r="K306" t="s">
+        <v>64</v>
+      </c>
+      <c r="L306" t="s">
+        <v>82</v>
+      </c>
+      <c r="M306" t="s">
+        <v>59</v>
+      </c>
+      <c r="N306" t="s">
+        <v>52</v>
+      </c>
+      <c r="O306" t="s">
+        <v>59</v>
+      </c>
+      <c r="P306" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q306" t="s">
+        <v>59</v>
+      </c>
+      <c r="R306" t="s">
+        <v>59</v>
+      </c>
+      <c r="S306" t="s">
+        <v>58</v>
+      </c>
+      <c r="T306" t="s">
+        <v>96</v>
+      </c>
+      <c r="U306" t="s">
+        <v>74</v>
+      </c>
+      <c r="V306" t="s">
+        <v>74</v>
+      </c>
+      <c r="W306" t="s">
+        <v>96</v>
+      </c>
+      <c r="X306" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y306" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z306" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD306" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF306" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG306" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK306" t="s">
+        <v>334</v>
+      </c>
+      <c r="AL306" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM306" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN306" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP306" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ306" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR306" s="1">
+        <v>45019</v>
+      </c>
+      <c r="AS306" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT306" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU306" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV306" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW306" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX306" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY306" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14996" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16123" uniqueCount="449">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1322,6 +1322,51 @@
   <si>
     <t>92</t>
   </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>377</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>1244</t>
+  </si>
+  <si>
+    <t>1260</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>2100</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>378</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  13</t>
+  </si>
+  <si>
+    <t>VS REBECA</t>
+  </si>
 </sst>
 </file>
 
@@ -1704,7 +1749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY306"/>
+  <dimension ref="A1:AY329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -49140,6 +49185,3571 @@
         <v>72</v>
       </c>
     </row>
+    <row r="307" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>51</v>
+      </c>
+      <c r="B307" s="1">
+        <v>45021</v>
+      </c>
+      <c r="C307" t="s">
+        <v>163</v>
+      </c>
+      <c r="D307" t="s">
+        <v>53</v>
+      </c>
+      <c r="E307" t="s">
+        <v>199</v>
+      </c>
+      <c r="F307" t="s">
+        <v>55</v>
+      </c>
+      <c r="G307" t="s">
+        <v>56</v>
+      </c>
+      <c r="H307" t="s">
+        <v>74</v>
+      </c>
+      <c r="I307" t="s">
+        <v>58</v>
+      </c>
+      <c r="J307" t="s">
+        <v>58</v>
+      </c>
+      <c r="K307" t="s">
+        <v>58</v>
+      </c>
+      <c r="L307" t="s">
+        <v>58</v>
+      </c>
+      <c r="M307" t="s">
+        <v>58</v>
+      </c>
+      <c r="N307" t="s">
+        <v>58</v>
+      </c>
+      <c r="O307" t="s">
+        <v>58</v>
+      </c>
+      <c r="P307" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q307" t="s">
+        <v>58</v>
+      </c>
+      <c r="R307" t="s">
+        <v>58</v>
+      </c>
+      <c r="S307" t="s">
+        <v>58</v>
+      </c>
+      <c r="T307" t="s">
+        <v>58</v>
+      </c>
+      <c r="U307" t="s">
+        <v>58</v>
+      </c>
+      <c r="V307" t="s">
+        <v>52</v>
+      </c>
+      <c r="W307" t="s">
+        <v>58</v>
+      </c>
+      <c r="X307" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y307" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z307" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD307" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF307" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG307" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH307" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI307" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ307" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK307" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL307" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM307" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN307" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP307" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ307" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR307" s="1">
+        <v>45021</v>
+      </c>
+      <c r="AS307" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT307" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU307" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV307" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW307" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX307" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY307" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="308" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>51</v>
+      </c>
+      <c r="B308" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C308" t="s">
+        <v>163</v>
+      </c>
+      <c r="D308" t="s">
+        <v>53</v>
+      </c>
+      <c r="E308" t="s">
+        <v>136</v>
+      </c>
+      <c r="F308" t="s">
+        <v>55</v>
+      </c>
+      <c r="G308" t="s">
+        <v>56</v>
+      </c>
+      <c r="H308" t="s">
+        <v>434</v>
+      </c>
+      <c r="I308" t="s">
+        <v>58</v>
+      </c>
+      <c r="J308" t="s">
+        <v>52</v>
+      </c>
+      <c r="K308" t="s">
+        <v>52</v>
+      </c>
+      <c r="L308" t="s">
+        <v>52</v>
+      </c>
+      <c r="M308" t="s">
+        <v>96</v>
+      </c>
+      <c r="N308" t="s">
+        <v>60</v>
+      </c>
+      <c r="O308" t="s">
+        <v>74</v>
+      </c>
+      <c r="P308" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q308" t="s">
+        <v>74</v>
+      </c>
+      <c r="R308" t="s">
+        <v>106</v>
+      </c>
+      <c r="S308" t="s">
+        <v>52</v>
+      </c>
+      <c r="T308" t="s">
+        <v>52</v>
+      </c>
+      <c r="U308" t="s">
+        <v>52</v>
+      </c>
+      <c r="V308" t="s">
+        <v>58</v>
+      </c>
+      <c r="W308" t="s">
+        <v>58</v>
+      </c>
+      <c r="X308" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y308" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD308" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF308" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG308" t="s">
+        <v>179</v>
+      </c>
+      <c r="AH308" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK308" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL308" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM308" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN308" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP308" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ308" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR308" s="1">
+        <v>45024</v>
+      </c>
+      <c r="AS308" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT308" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU308" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV308" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW308" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX308" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY308" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="309" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>51</v>
+      </c>
+      <c r="B309" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C309" t="s">
+        <v>163</v>
+      </c>
+      <c r="D309" t="s">
+        <v>53</v>
+      </c>
+      <c r="E309" t="s">
+        <v>132</v>
+      </c>
+      <c r="F309" t="s">
+        <v>133</v>
+      </c>
+      <c r="G309" t="s">
+        <v>56</v>
+      </c>
+      <c r="H309" t="s">
+        <v>61</v>
+      </c>
+      <c r="I309" t="s">
+        <v>58</v>
+      </c>
+      <c r="J309" t="s">
+        <v>58</v>
+      </c>
+      <c r="K309" t="s">
+        <v>58</v>
+      </c>
+      <c r="L309" t="s">
+        <v>58</v>
+      </c>
+      <c r="M309" t="s">
+        <v>58</v>
+      </c>
+      <c r="N309" t="s">
+        <v>52</v>
+      </c>
+      <c r="O309" t="s">
+        <v>52</v>
+      </c>
+      <c r="P309" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q309" t="s">
+        <v>52</v>
+      </c>
+      <c r="R309" t="s">
+        <v>60</v>
+      </c>
+      <c r="S309" t="s">
+        <v>58</v>
+      </c>
+      <c r="T309" t="s">
+        <v>52</v>
+      </c>
+      <c r="U309" t="s">
+        <v>52</v>
+      </c>
+      <c r="V309" t="s">
+        <v>52</v>
+      </c>
+      <c r="W309" t="s">
+        <v>52</v>
+      </c>
+      <c r="X309" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y309" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z309" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD309" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF309" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG309" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH309" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI309" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ309" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK309" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL309" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM309" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN309" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP309" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ309" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR309" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS309" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT309" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU309" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV309" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW309" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX309" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY309" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="310" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>51</v>
+      </c>
+      <c r="B310" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C310" t="s">
+        <v>163</v>
+      </c>
+      <c r="D310" t="s">
+        <v>53</v>
+      </c>
+      <c r="E310" t="s">
+        <v>112</v>
+      </c>
+      <c r="F310" t="s">
+        <v>55</v>
+      </c>
+      <c r="G310" t="s">
+        <v>56</v>
+      </c>
+      <c r="H310" t="s">
+        <v>435</v>
+      </c>
+      <c r="I310" t="s">
+        <v>58</v>
+      </c>
+      <c r="J310" t="s">
+        <v>58</v>
+      </c>
+      <c r="K310" t="s">
+        <v>52</v>
+      </c>
+      <c r="L310" t="s">
+        <v>58</v>
+      </c>
+      <c r="M310" t="s">
+        <v>58</v>
+      </c>
+      <c r="N310" t="s">
+        <v>58</v>
+      </c>
+      <c r="O310" t="s">
+        <v>58</v>
+      </c>
+      <c r="P310" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q310" t="s">
+        <v>58</v>
+      </c>
+      <c r="R310" t="s">
+        <v>58</v>
+      </c>
+      <c r="S310" t="s">
+        <v>58</v>
+      </c>
+      <c r="T310" t="s">
+        <v>58</v>
+      </c>
+      <c r="U310" t="s">
+        <v>58</v>
+      </c>
+      <c r="V310" t="s">
+        <v>58</v>
+      </c>
+      <c r="W310" t="s">
+        <v>58</v>
+      </c>
+      <c r="X310" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y310" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z310" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD310" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF310" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG310" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH310" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI310" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ310" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK310" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL310" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM310" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN310" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP310" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ310" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR310" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS310" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT310" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU310" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV310" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW310" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX310" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY310" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="311" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>51</v>
+      </c>
+      <c r="B311" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C311" t="s">
+        <v>163</v>
+      </c>
+      <c r="D311" t="s">
+        <v>53</v>
+      </c>
+      <c r="E311" t="s">
+        <v>155</v>
+      </c>
+      <c r="F311" t="s">
+        <v>55</v>
+      </c>
+      <c r="G311" t="s">
+        <v>56</v>
+      </c>
+      <c r="H311" t="s">
+        <v>436</v>
+      </c>
+      <c r="I311" t="s">
+        <v>58</v>
+      </c>
+      <c r="J311" t="s">
+        <v>58</v>
+      </c>
+      <c r="K311" t="s">
+        <v>58</v>
+      </c>
+      <c r="L311" t="s">
+        <v>58</v>
+      </c>
+      <c r="M311" t="s">
+        <v>52</v>
+      </c>
+      <c r="N311" t="s">
+        <v>52</v>
+      </c>
+      <c r="O311" t="s">
+        <v>52</v>
+      </c>
+      <c r="P311" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q311" t="s">
+        <v>58</v>
+      </c>
+      <c r="R311" t="s">
+        <v>52</v>
+      </c>
+      <c r="S311" t="s">
+        <v>58</v>
+      </c>
+      <c r="T311" t="s">
+        <v>58</v>
+      </c>
+      <c r="U311" t="s">
+        <v>60</v>
+      </c>
+      <c r="V311" t="s">
+        <v>58</v>
+      </c>
+      <c r="W311" t="s">
+        <v>58</v>
+      </c>
+      <c r="X311" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y311" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z311" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD311" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF311" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG311" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH311" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI311" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ311" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK311" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL311" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM311" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN311" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP311" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ311" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR311" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS311" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT311" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU311" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV311" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW311" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX311" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY311" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="312" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>51</v>
+      </c>
+      <c r="B312" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C312" t="s">
+        <v>163</v>
+      </c>
+      <c r="D312" t="s">
+        <v>53</v>
+      </c>
+      <c r="E312" t="s">
+        <v>151</v>
+      </c>
+      <c r="F312" t="s">
+        <v>55</v>
+      </c>
+      <c r="G312" t="s">
+        <v>56</v>
+      </c>
+      <c r="H312" t="s">
+        <v>61</v>
+      </c>
+      <c r="I312" t="s">
+        <v>58</v>
+      </c>
+      <c r="J312" t="s">
+        <v>60</v>
+      </c>
+      <c r="K312" t="s">
+        <v>52</v>
+      </c>
+      <c r="L312" t="s">
+        <v>52</v>
+      </c>
+      <c r="M312" t="s">
+        <v>58</v>
+      </c>
+      <c r="N312" t="s">
+        <v>58</v>
+      </c>
+      <c r="O312" t="s">
+        <v>58</v>
+      </c>
+      <c r="P312" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q312" t="s">
+        <v>52</v>
+      </c>
+      <c r="R312" t="s">
+        <v>52</v>
+      </c>
+      <c r="S312" t="s">
+        <v>52</v>
+      </c>
+      <c r="T312" t="s">
+        <v>58</v>
+      </c>
+      <c r="U312" t="s">
+        <v>52</v>
+      </c>
+      <c r="V312" t="s">
+        <v>58</v>
+      </c>
+      <c r="W312" t="s">
+        <v>60</v>
+      </c>
+      <c r="X312" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y312" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z312" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD312" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF312" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG312" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH312" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI312" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ312" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK312" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL312" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM312" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN312" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP312" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ312" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR312" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS312" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT312" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU312" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV312" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW312" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX312" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY312" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="313" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>51</v>
+      </c>
+      <c r="B313" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C313" t="s">
+        <v>163</v>
+      </c>
+      <c r="D313" t="s">
+        <v>53</v>
+      </c>
+      <c r="E313" t="s">
+        <v>146</v>
+      </c>
+      <c r="F313" t="s">
+        <v>55</v>
+      </c>
+      <c r="G313" t="s">
+        <v>56</v>
+      </c>
+      <c r="H313" t="s">
+        <v>268</v>
+      </c>
+      <c r="I313" t="s">
+        <v>60</v>
+      </c>
+      <c r="J313" t="s">
+        <v>60</v>
+      </c>
+      <c r="K313" t="s">
+        <v>60</v>
+      </c>
+      <c r="L313" t="s">
+        <v>60</v>
+      </c>
+      <c r="M313" t="s">
+        <v>52</v>
+      </c>
+      <c r="N313" t="s">
+        <v>52</v>
+      </c>
+      <c r="O313" t="s">
+        <v>58</v>
+      </c>
+      <c r="P313" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q313" t="s">
+        <v>58</v>
+      </c>
+      <c r="R313" t="s">
+        <v>58</v>
+      </c>
+      <c r="S313" t="s">
+        <v>60</v>
+      </c>
+      <c r="T313" t="s">
+        <v>52</v>
+      </c>
+      <c r="U313" t="s">
+        <v>52</v>
+      </c>
+      <c r="V313" t="s">
+        <v>58</v>
+      </c>
+      <c r="W313" t="s">
+        <v>58</v>
+      </c>
+      <c r="X313" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y313" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z313" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD313" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF313" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG313" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH313" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI313" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ313" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK313" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL313" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM313" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN313" t="s">
+        <v>148</v>
+      </c>
+      <c r="AO313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP313" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ313" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR313" s="1">
+        <v>45025</v>
+      </c>
+      <c r="AS313" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT313" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU313" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV313" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW313" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX313" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY313" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="314" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>51</v>
+      </c>
+      <c r="B314" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C314" t="s">
+        <v>163</v>
+      </c>
+      <c r="D314" t="s">
+        <v>53</v>
+      </c>
+      <c r="E314" t="s">
+        <v>54</v>
+      </c>
+      <c r="F314" t="s">
+        <v>55</v>
+      </c>
+      <c r="G314" t="s">
+        <v>56</v>
+      </c>
+      <c r="H314" t="s">
+        <v>437</v>
+      </c>
+      <c r="I314" t="s">
+        <v>52</v>
+      </c>
+      <c r="J314" t="s">
+        <v>75</v>
+      </c>
+      <c r="K314" t="s">
+        <v>74</v>
+      </c>
+      <c r="L314" t="s">
+        <v>59</v>
+      </c>
+      <c r="M314" t="s">
+        <v>58</v>
+      </c>
+      <c r="N314" t="s">
+        <v>96</v>
+      </c>
+      <c r="O314" t="s">
+        <v>52</v>
+      </c>
+      <c r="P314" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>58</v>
+      </c>
+      <c r="R314" t="s">
+        <v>52</v>
+      </c>
+      <c r="S314" t="s">
+        <v>52</v>
+      </c>
+      <c r="T314" t="s">
+        <v>58</v>
+      </c>
+      <c r="U314" t="s">
+        <v>58</v>
+      </c>
+      <c r="V314" t="s">
+        <v>58</v>
+      </c>
+      <c r="W314" t="s">
+        <v>58</v>
+      </c>
+      <c r="X314" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y314" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z314" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD314" t="s">
+        <v>161</v>
+      </c>
+      <c r="AE314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF314" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG314" t="s">
+        <v>163</v>
+      </c>
+      <c r="AH314" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI314" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ314" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK314" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL314" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM314" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN314" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP314" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ314" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR314" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS314" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT314" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU314" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV314" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW314" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX314" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY314" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="315" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>51</v>
+      </c>
+      <c r="B315" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C315" t="s">
+        <v>163</v>
+      </c>
+      <c r="D315" t="s">
+        <v>53</v>
+      </c>
+      <c r="E315" t="s">
+        <v>313</v>
+      </c>
+      <c r="F315" t="s">
+        <v>86</v>
+      </c>
+      <c r="G315" t="s">
+        <v>56</v>
+      </c>
+      <c r="H315" t="s">
+        <v>61</v>
+      </c>
+      <c r="I315" t="s">
+        <v>58</v>
+      </c>
+      <c r="J315" t="s">
+        <v>58</v>
+      </c>
+      <c r="K315" t="s">
+        <v>52</v>
+      </c>
+      <c r="L315" t="s">
+        <v>58</v>
+      </c>
+      <c r="M315" t="s">
+        <v>58</v>
+      </c>
+      <c r="N315" t="s">
+        <v>58</v>
+      </c>
+      <c r="O315" t="s">
+        <v>58</v>
+      </c>
+      <c r="P315" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q315" t="s">
+        <v>58</v>
+      </c>
+      <c r="R315" t="s">
+        <v>58</v>
+      </c>
+      <c r="S315" t="s">
+        <v>58</v>
+      </c>
+      <c r="T315" t="s">
+        <v>58</v>
+      </c>
+      <c r="U315" t="s">
+        <v>58</v>
+      </c>
+      <c r="V315" t="s">
+        <v>58</v>
+      </c>
+      <c r="W315" t="s">
+        <v>58</v>
+      </c>
+      <c r="X315" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y315" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z315" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD315" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF315" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG315" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH315" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI315" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ315" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK315" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL315" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM315" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN315" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP315" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ315" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR315" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS315" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT315" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU315" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV315" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW315" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX315" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY315" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="316" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>51</v>
+      </c>
+      <c r="B316" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C316" t="s">
+        <v>163</v>
+      </c>
+      <c r="D316" t="s">
+        <v>53</v>
+      </c>
+      <c r="E316" t="s">
+        <v>54</v>
+      </c>
+      <c r="F316" t="s">
+        <v>73</v>
+      </c>
+      <c r="G316" t="s">
+        <v>56</v>
+      </c>
+      <c r="H316" t="s">
+        <v>61</v>
+      </c>
+      <c r="I316" t="s">
+        <v>60</v>
+      </c>
+      <c r="J316" t="s">
+        <v>82</v>
+      </c>
+      <c r="K316" t="s">
+        <v>60</v>
+      </c>
+      <c r="L316" t="s">
+        <v>52</v>
+      </c>
+      <c r="M316" t="s">
+        <v>52</v>
+      </c>
+      <c r="N316" t="s">
+        <v>58</v>
+      </c>
+      <c r="O316" t="s">
+        <v>60</v>
+      </c>
+      <c r="P316" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q316" t="s">
+        <v>52</v>
+      </c>
+      <c r="R316" t="s">
+        <v>58</v>
+      </c>
+      <c r="S316" t="s">
+        <v>52</v>
+      </c>
+      <c r="T316" t="s">
+        <v>58</v>
+      </c>
+      <c r="U316" t="s">
+        <v>52</v>
+      </c>
+      <c r="V316" t="s">
+        <v>58</v>
+      </c>
+      <c r="W316" t="s">
+        <v>58</v>
+      </c>
+      <c r="X316" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y316" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z316" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD316" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF316" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG316" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH316" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI316" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ316" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK316" t="s">
+        <v>243</v>
+      </c>
+      <c r="AL316" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM316" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN316" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP316" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ316" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR316" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS316" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT316" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU316" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV316" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW316" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX316" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY316" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="317" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>51</v>
+      </c>
+      <c r="B317" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C317" t="s">
+        <v>163</v>
+      </c>
+      <c r="D317" t="s">
+        <v>53</v>
+      </c>
+      <c r="E317" t="s">
+        <v>54</v>
+      </c>
+      <c r="F317" t="s">
+        <v>126</v>
+      </c>
+      <c r="G317" t="s">
+        <v>56</v>
+      </c>
+      <c r="H317" t="s">
+        <v>346</v>
+      </c>
+      <c r="I317" t="s">
+        <v>58</v>
+      </c>
+      <c r="J317" t="s">
+        <v>58</v>
+      </c>
+      <c r="K317" t="s">
+        <v>58</v>
+      </c>
+      <c r="L317" t="s">
+        <v>52</v>
+      </c>
+      <c r="M317" t="s">
+        <v>58</v>
+      </c>
+      <c r="N317" t="s">
+        <v>58</v>
+      </c>
+      <c r="O317" t="s">
+        <v>58</v>
+      </c>
+      <c r="P317" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q317" t="s">
+        <v>58</v>
+      </c>
+      <c r="R317" t="s">
+        <v>58</v>
+      </c>
+      <c r="S317" t="s">
+        <v>58</v>
+      </c>
+      <c r="T317" t="s">
+        <v>58</v>
+      </c>
+      <c r="U317" t="s">
+        <v>58</v>
+      </c>
+      <c r="V317" t="s">
+        <v>58</v>
+      </c>
+      <c r="W317" t="s">
+        <v>58</v>
+      </c>
+      <c r="X317" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y317" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z317" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD317" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF317" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG317" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH317" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI317" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ317" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK317" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL317" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM317" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN317" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP317" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ317" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR317" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS317" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT317" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU317" t="s">
+        <v>349</v>
+      </c>
+      <c r="AV317" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW317" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX317" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY317" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="318" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>51</v>
+      </c>
+      <c r="B318" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C318" t="s">
+        <v>163</v>
+      </c>
+      <c r="D318" t="s">
+        <v>53</v>
+      </c>
+      <c r="E318" t="s">
+        <v>54</v>
+      </c>
+      <c r="F318" t="s">
+        <v>169</v>
+      </c>
+      <c r="G318" t="s">
+        <v>56</v>
+      </c>
+      <c r="H318" t="s">
+        <v>438</v>
+      </c>
+      <c r="I318" t="s">
+        <v>52</v>
+      </c>
+      <c r="J318" t="s">
+        <v>58</v>
+      </c>
+      <c r="K318" t="s">
+        <v>58</v>
+      </c>
+      <c r="L318" t="s">
+        <v>52</v>
+      </c>
+      <c r="M318" t="s">
+        <v>58</v>
+      </c>
+      <c r="N318" t="s">
+        <v>52</v>
+      </c>
+      <c r="O318" t="s">
+        <v>58</v>
+      </c>
+      <c r="P318" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>58</v>
+      </c>
+      <c r="R318" t="s">
+        <v>58</v>
+      </c>
+      <c r="S318" t="s">
+        <v>58</v>
+      </c>
+      <c r="T318" t="s">
+        <v>58</v>
+      </c>
+      <c r="U318" t="s">
+        <v>58</v>
+      </c>
+      <c r="V318" t="s">
+        <v>58</v>
+      </c>
+      <c r="W318" t="s">
+        <v>58</v>
+      </c>
+      <c r="X318" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y318" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD318" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF318" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG318" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH318" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI318" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ318" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK318" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL318" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM318" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN318" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP318" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ318" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR318" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS318" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT318" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU318" t="s">
+        <v>171</v>
+      </c>
+      <c r="AV318" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW318" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX318" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY318" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="319" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>51</v>
+      </c>
+      <c r="B319" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C319" t="s">
+        <v>163</v>
+      </c>
+      <c r="D319" t="s">
+        <v>53</v>
+      </c>
+      <c r="E319" t="s">
+        <v>136</v>
+      </c>
+      <c r="F319" t="s">
+        <v>80</v>
+      </c>
+      <c r="G319" t="s">
+        <v>56</v>
+      </c>
+      <c r="H319" t="s">
+        <v>226</v>
+      </c>
+      <c r="I319" t="s">
+        <v>58</v>
+      </c>
+      <c r="J319" t="s">
+        <v>60</v>
+      </c>
+      <c r="K319" t="s">
+        <v>58</v>
+      </c>
+      <c r="L319" t="s">
+        <v>60</v>
+      </c>
+      <c r="M319" t="s">
+        <v>58</v>
+      </c>
+      <c r="N319" t="s">
+        <v>58</v>
+      </c>
+      <c r="O319" t="s">
+        <v>82</v>
+      </c>
+      <c r="P319" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>58</v>
+      </c>
+      <c r="R319" t="s">
+        <v>52</v>
+      </c>
+      <c r="S319" t="s">
+        <v>58</v>
+      </c>
+      <c r="T319" t="s">
+        <v>60</v>
+      </c>
+      <c r="U319" t="s">
+        <v>58</v>
+      </c>
+      <c r="V319" t="s">
+        <v>58</v>
+      </c>
+      <c r="W319" t="s">
+        <v>58</v>
+      </c>
+      <c r="X319" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y319" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD319" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF319" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG319" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH319" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI319" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ319" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK319" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL319" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM319" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN319" t="s">
+        <v>410</v>
+      </c>
+      <c r="AO319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP319" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ319" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR319" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS319" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT319" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU319" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV319" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW319" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX319" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY319" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="320" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>51</v>
+      </c>
+      <c r="B320" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C320" t="s">
+        <v>163</v>
+      </c>
+      <c r="D320" t="s">
+        <v>53</v>
+      </c>
+      <c r="E320" t="s">
+        <v>54</v>
+      </c>
+      <c r="F320" t="s">
+        <v>80</v>
+      </c>
+      <c r="G320" t="s">
+        <v>56</v>
+      </c>
+      <c r="H320" t="s">
+        <v>439</v>
+      </c>
+      <c r="I320" t="s">
+        <v>58</v>
+      </c>
+      <c r="J320" t="s">
+        <v>60</v>
+      </c>
+      <c r="K320" t="s">
+        <v>59</v>
+      </c>
+      <c r="L320" t="s">
+        <v>74</v>
+      </c>
+      <c r="M320" t="s">
+        <v>60</v>
+      </c>
+      <c r="N320" t="s">
+        <v>52</v>
+      </c>
+      <c r="O320" t="s">
+        <v>58</v>
+      </c>
+      <c r="P320" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>52</v>
+      </c>
+      <c r="R320" t="s">
+        <v>58</v>
+      </c>
+      <c r="S320" t="s">
+        <v>58</v>
+      </c>
+      <c r="T320" t="s">
+        <v>52</v>
+      </c>
+      <c r="U320" t="s">
+        <v>58</v>
+      </c>
+      <c r="V320" t="s">
+        <v>58</v>
+      </c>
+      <c r="W320" t="s">
+        <v>52</v>
+      </c>
+      <c r="X320" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y320" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD320" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF320" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG320" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH320" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI320" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ320" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK320" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL320" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM320" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN320" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP320" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ320" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR320" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS320" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT320" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU320" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV320" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW320" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX320" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY320" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="321" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>51</v>
+      </c>
+      <c r="B321" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C321" t="s">
+        <v>163</v>
+      </c>
+      <c r="D321" t="s">
+        <v>53</v>
+      </c>
+      <c r="E321" t="s">
+        <v>54</v>
+      </c>
+      <c r="F321" t="s">
+        <v>100</v>
+      </c>
+      <c r="G321" t="s">
+        <v>56</v>
+      </c>
+      <c r="H321" t="s">
+        <v>440</v>
+      </c>
+      <c r="I321" t="s">
+        <v>58</v>
+      </c>
+      <c r="J321" t="s">
+        <v>58</v>
+      </c>
+      <c r="K321" t="s">
+        <v>58</v>
+      </c>
+      <c r="L321" t="s">
+        <v>58</v>
+      </c>
+      <c r="M321" t="s">
+        <v>58</v>
+      </c>
+      <c r="N321" t="s">
+        <v>58</v>
+      </c>
+      <c r="O321" t="s">
+        <v>58</v>
+      </c>
+      <c r="P321" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>58</v>
+      </c>
+      <c r="R321" t="s">
+        <v>52</v>
+      </c>
+      <c r="S321" t="s">
+        <v>58</v>
+      </c>
+      <c r="T321" t="s">
+        <v>58</v>
+      </c>
+      <c r="U321" t="s">
+        <v>58</v>
+      </c>
+      <c r="V321" t="s">
+        <v>58</v>
+      </c>
+      <c r="W321" t="s">
+        <v>58</v>
+      </c>
+      <c r="X321" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y321" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD321" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF321" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG321" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH321" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI321" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ321" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK321" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL321" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM321" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN321" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP321" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ321" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR321" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS321" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT321" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU321" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV321" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW321" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX321" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY321" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="322" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>51</v>
+      </c>
+      <c r="B322" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C322" t="s">
+        <v>163</v>
+      </c>
+      <c r="D322" t="s">
+        <v>53</v>
+      </c>
+      <c r="E322" t="s">
+        <v>89</v>
+      </c>
+      <c r="F322" t="s">
+        <v>94</v>
+      </c>
+      <c r="G322" t="s">
+        <v>56</v>
+      </c>
+      <c r="H322" t="s">
+        <v>441</v>
+      </c>
+      <c r="I322" t="s">
+        <v>58</v>
+      </c>
+      <c r="J322" t="s">
+        <v>52</v>
+      </c>
+      <c r="K322" t="s">
+        <v>52</v>
+      </c>
+      <c r="L322" t="s">
+        <v>58</v>
+      </c>
+      <c r="M322" t="s">
+        <v>52</v>
+      </c>
+      <c r="N322" t="s">
+        <v>52</v>
+      </c>
+      <c r="O322" t="s">
+        <v>58</v>
+      </c>
+      <c r="P322" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>60</v>
+      </c>
+      <c r="R322" t="s">
+        <v>52</v>
+      </c>
+      <c r="S322" t="s">
+        <v>58</v>
+      </c>
+      <c r="T322" t="s">
+        <v>52</v>
+      </c>
+      <c r="U322" t="s">
+        <v>58</v>
+      </c>
+      <c r="V322" t="s">
+        <v>58</v>
+      </c>
+      <c r="W322" t="s">
+        <v>58</v>
+      </c>
+      <c r="X322" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y322" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD322" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG322" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH322" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK322" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL322" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM322" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP322" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ322" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR322" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS322" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT322" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU322" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV322" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW322" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX322" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY322" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="323" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>51</v>
+      </c>
+      <c r="B323" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C323" t="s">
+        <v>163</v>
+      </c>
+      <c r="D323" t="s">
+        <v>53</v>
+      </c>
+      <c r="E323" t="s">
+        <v>89</v>
+      </c>
+      <c r="F323" t="s">
+        <v>55</v>
+      </c>
+      <c r="G323" t="s">
+        <v>56</v>
+      </c>
+      <c r="H323" t="s">
+        <v>442</v>
+      </c>
+      <c r="I323" t="s">
+        <v>58</v>
+      </c>
+      <c r="J323" t="s">
+        <v>58</v>
+      </c>
+      <c r="K323" t="s">
+        <v>58</v>
+      </c>
+      <c r="L323" t="s">
+        <v>58</v>
+      </c>
+      <c r="M323" t="s">
+        <v>58</v>
+      </c>
+      <c r="N323" t="s">
+        <v>60</v>
+      </c>
+      <c r="O323" t="s">
+        <v>59</v>
+      </c>
+      <c r="P323" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>58</v>
+      </c>
+      <c r="R323" t="s">
+        <v>59</v>
+      </c>
+      <c r="S323" t="s">
+        <v>52</v>
+      </c>
+      <c r="T323" t="s">
+        <v>60</v>
+      </c>
+      <c r="U323" t="s">
+        <v>52</v>
+      </c>
+      <c r="V323" t="s">
+        <v>58</v>
+      </c>
+      <c r="W323" t="s">
+        <v>58</v>
+      </c>
+      <c r="X323" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y323" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD323" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF323" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG323" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH323" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI323" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ323" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK323" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL323" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM323" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP323" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ323" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR323" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS323" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT323" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU323" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW323" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX323" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY323" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="324" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>51</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C324" t="s">
+        <v>163</v>
+      </c>
+      <c r="D324" t="s">
+        <v>53</v>
+      </c>
+      <c r="E324" t="s">
+        <v>89</v>
+      </c>
+      <c r="F324" t="s">
+        <v>75</v>
+      </c>
+      <c r="G324" t="s">
+        <v>56</v>
+      </c>
+      <c r="H324" t="s">
+        <v>443</v>
+      </c>
+      <c r="I324" t="s">
+        <v>60</v>
+      </c>
+      <c r="J324" t="s">
+        <v>188</v>
+      </c>
+      <c r="K324" t="s">
+        <v>63</v>
+      </c>
+      <c r="L324" t="s">
+        <v>58</v>
+      </c>
+      <c r="M324" t="s">
+        <v>60</v>
+      </c>
+      <c r="N324" t="s">
+        <v>76</v>
+      </c>
+      <c r="O324" t="s">
+        <v>96</v>
+      </c>
+      <c r="P324" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>58</v>
+      </c>
+      <c r="R324" t="s">
+        <v>74</v>
+      </c>
+      <c r="S324" t="s">
+        <v>58</v>
+      </c>
+      <c r="T324" t="s">
+        <v>60</v>
+      </c>
+      <c r="U324" t="s">
+        <v>59</v>
+      </c>
+      <c r="V324" t="s">
+        <v>52</v>
+      </c>
+      <c r="W324" t="s">
+        <v>52</v>
+      </c>
+      <c r="X324" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y324" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD324" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF324" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG324" t="s">
+        <v>262</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI324" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ324" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK324" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL324" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM324" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP324" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ324" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR324" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS324" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT324" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU324" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV324" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW324" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX324" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY324" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="325" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>51</v>
+      </c>
+      <c r="B325" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C325" t="s">
+        <v>163</v>
+      </c>
+      <c r="D325" t="s">
+        <v>53</v>
+      </c>
+      <c r="E325" t="s">
+        <v>104</v>
+      </c>
+      <c r="F325" t="s">
+        <v>55</v>
+      </c>
+      <c r="G325" t="s">
+        <v>56</v>
+      </c>
+      <c r="H325" t="s">
+        <v>407</v>
+      </c>
+      <c r="I325" t="s">
+        <v>58</v>
+      </c>
+      <c r="J325" t="s">
+        <v>77</v>
+      </c>
+      <c r="K325" t="s">
+        <v>96</v>
+      </c>
+      <c r="L325" t="s">
+        <v>74</v>
+      </c>
+      <c r="M325" t="s">
+        <v>74</v>
+      </c>
+      <c r="N325" t="s">
+        <v>74</v>
+      </c>
+      <c r="O325" t="s">
+        <v>106</v>
+      </c>
+      <c r="P325" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>60</v>
+      </c>
+      <c r="R325" t="s">
+        <v>59</v>
+      </c>
+      <c r="S325" t="s">
+        <v>58</v>
+      </c>
+      <c r="T325" t="s">
+        <v>58</v>
+      </c>
+      <c r="U325" t="s">
+        <v>52</v>
+      </c>
+      <c r="V325" t="s">
+        <v>60</v>
+      </c>
+      <c r="W325" t="s">
+        <v>60</v>
+      </c>
+      <c r="X325" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y325" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD325" t="s">
+        <v>444</v>
+      </c>
+      <c r="AE325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF325" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG325" t="s">
+        <v>165</v>
+      </c>
+      <c r="AH325" t="s">
+        <v>444</v>
+      </c>
+      <c r="AI325" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ325" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK325" t="s">
+        <v>444</v>
+      </c>
+      <c r="AL325" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM325" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN325" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP325" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ325" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR325" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS325" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT325" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU325" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV325" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW325" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX325" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY325" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="326" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>51</v>
+      </c>
+      <c r="B326" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C326" t="s">
+        <v>163</v>
+      </c>
+      <c r="D326" t="s">
+        <v>53</v>
+      </c>
+      <c r="E326" t="s">
+        <v>174</v>
+      </c>
+      <c r="F326" t="s">
+        <v>55</v>
+      </c>
+      <c r="G326" t="s">
+        <v>56</v>
+      </c>
+      <c r="H326" t="s">
+        <v>61</v>
+      </c>
+      <c r="I326" t="s">
+        <v>58</v>
+      </c>
+      <c r="J326" t="s">
+        <v>82</v>
+      </c>
+      <c r="K326" t="s">
+        <v>106</v>
+      </c>
+      <c r="L326" t="s">
+        <v>96</v>
+      </c>
+      <c r="M326" t="s">
+        <v>59</v>
+      </c>
+      <c r="N326" t="s">
+        <v>52</v>
+      </c>
+      <c r="O326" t="s">
+        <v>59</v>
+      </c>
+      <c r="P326" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>59</v>
+      </c>
+      <c r="R326" t="s">
+        <v>74</v>
+      </c>
+      <c r="S326" t="s">
+        <v>58</v>
+      </c>
+      <c r="T326" t="s">
+        <v>60</v>
+      </c>
+      <c r="U326" t="s">
+        <v>74</v>
+      </c>
+      <c r="V326" t="s">
+        <v>59</v>
+      </c>
+      <c r="W326" t="s">
+        <v>52</v>
+      </c>
+      <c r="X326" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y326" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD326" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF326" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG326" t="s">
+        <v>327</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>445</v>
+      </c>
+      <c r="AI326" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ326" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK326" t="s">
+        <v>445</v>
+      </c>
+      <c r="AL326" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM326" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN326" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP326" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ326" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR326" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS326" t="s">
+        <v>68</v>
+      </c>
+      <c r="AT326" t="s">
+        <v>176</v>
+      </c>
+      <c r="AU326" t="s">
+        <v>177</v>
+      </c>
+      <c r="AV326" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW326" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX326" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY326" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="327" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>51</v>
+      </c>
+      <c r="B327" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C327" t="s">
+        <v>163</v>
+      </c>
+      <c r="D327" t="s">
+        <v>53</v>
+      </c>
+      <c r="E327" t="s">
+        <v>118</v>
+      </c>
+      <c r="F327" t="s">
+        <v>55</v>
+      </c>
+      <c r="G327" t="s">
+        <v>56</v>
+      </c>
+      <c r="H327" t="s">
+        <v>436</v>
+      </c>
+      <c r="I327" t="s">
+        <v>58</v>
+      </c>
+      <c r="J327" t="s">
+        <v>52</v>
+      </c>
+      <c r="K327" t="s">
+        <v>58</v>
+      </c>
+      <c r="L327" t="s">
+        <v>52</v>
+      </c>
+      <c r="M327" t="s">
+        <v>58</v>
+      </c>
+      <c r="N327" t="s">
+        <v>60</v>
+      </c>
+      <c r="O327" t="s">
+        <v>58</v>
+      </c>
+      <c r="P327" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>58</v>
+      </c>
+      <c r="R327" t="s">
+        <v>52</v>
+      </c>
+      <c r="S327" t="s">
+        <v>60</v>
+      </c>
+      <c r="T327" t="s">
+        <v>58</v>
+      </c>
+      <c r="U327" t="s">
+        <v>58</v>
+      </c>
+      <c r="V327" t="s">
+        <v>58</v>
+      </c>
+      <c r="W327" t="s">
+        <v>58</v>
+      </c>
+      <c r="X327" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y327" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD327" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF327" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG327" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI327" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ327" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK327" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL327" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM327" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN327" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP327" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ327" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR327" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS327" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT327" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU327" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV327" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW327" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX327" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY327" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="328" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>51</v>
+      </c>
+      <c r="B328" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C328" t="s">
+        <v>163</v>
+      </c>
+      <c r="D328" t="s">
+        <v>53</v>
+      </c>
+      <c r="E328" t="s">
+        <v>118</v>
+      </c>
+      <c r="F328" t="s">
+        <v>123</v>
+      </c>
+      <c r="G328" t="s">
+        <v>56</v>
+      </c>
+      <c r="H328" t="s">
+        <v>446</v>
+      </c>
+      <c r="I328" t="s">
+        <v>60</v>
+      </c>
+      <c r="J328" t="s">
+        <v>58</v>
+      </c>
+      <c r="K328" t="s">
+        <v>58</v>
+      </c>
+      <c r="L328" t="s">
+        <v>58</v>
+      </c>
+      <c r="M328" t="s">
+        <v>60</v>
+      </c>
+      <c r="N328" t="s">
+        <v>52</v>
+      </c>
+      <c r="O328" t="s">
+        <v>59</v>
+      </c>
+      <c r="P328" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>58</v>
+      </c>
+      <c r="R328" t="s">
+        <v>58</v>
+      </c>
+      <c r="S328" t="s">
+        <v>58</v>
+      </c>
+      <c r="T328" t="s">
+        <v>52</v>
+      </c>
+      <c r="U328" t="s">
+        <v>58</v>
+      </c>
+      <c r="V328" t="s">
+        <v>58</v>
+      </c>
+      <c r="W328" t="s">
+        <v>58</v>
+      </c>
+      <c r="X328" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y328" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD328" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF328" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG328" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH328" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI328" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ328" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK328" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL328" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM328" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN328" t="s">
+        <v>329</v>
+      </c>
+      <c r="AO328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP328" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ328" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR328" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS328" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT328" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU328" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW328" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX328" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY328" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="329" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>51</v>
+      </c>
+      <c r="B329" s="1">
+        <v>45024</v>
+      </c>
+      <c r="C329" t="s">
+        <v>163</v>
+      </c>
+      <c r="D329" t="s">
+        <v>53</v>
+      </c>
+      <c r="E329" t="s">
+        <v>118</v>
+      </c>
+      <c r="F329" t="s">
+        <v>126</v>
+      </c>
+      <c r="G329" t="s">
+        <v>56</v>
+      </c>
+      <c r="H329" t="s">
+        <v>61</v>
+      </c>
+      <c r="I329" t="s">
+        <v>60</v>
+      </c>
+      <c r="J329" t="s">
+        <v>52</v>
+      </c>
+      <c r="K329" t="s">
+        <v>58</v>
+      </c>
+      <c r="L329" t="s">
+        <v>52</v>
+      </c>
+      <c r="M329" t="s">
+        <v>58</v>
+      </c>
+      <c r="N329" t="s">
+        <v>60</v>
+      </c>
+      <c r="O329" t="s">
+        <v>52</v>
+      </c>
+      <c r="P329" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>60</v>
+      </c>
+      <c r="R329" t="s">
+        <v>58</v>
+      </c>
+      <c r="S329" t="s">
+        <v>58</v>
+      </c>
+      <c r="T329" t="s">
+        <v>60</v>
+      </c>
+      <c r="U329" t="s">
+        <v>58</v>
+      </c>
+      <c r="V329" t="s">
+        <v>58</v>
+      </c>
+      <c r="W329" t="s">
+        <v>58</v>
+      </c>
+      <c r="X329" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y329" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD329" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF329" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG329" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH329" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI329" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ329" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK329" t="s">
+        <v>447</v>
+      </c>
+      <c r="AL329" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM329" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN329" t="s">
+        <v>448</v>
+      </c>
+      <c r="AO329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP329" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ329" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR329" s="1">
+        <v>45026</v>
+      </c>
+      <c r="AS329" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT329" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU329" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV329" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW329" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX329" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY329" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'evento 998'!$A$1:$AY$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16123" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17348" uniqueCount="466">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1367,6 +1370,57 @@
   <si>
     <t>VS REBECA</t>
   </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>953</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>POLICIA NACIONAL</t>
+  </si>
+  <si>
+    <t>1262</t>
+  </si>
+  <si>
+    <t>1263</t>
+  </si>
+  <si>
+    <t>1264</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>380</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>EL LAGO</t>
+  </si>
 </sst>
 </file>
 
@@ -1749,9 +1803,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY329"/>
+  <dimension ref="A1:AY354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:IV1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -52750,7 +52806,3883 @@
         <v>72</v>
       </c>
     </row>
+    <row r="330" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>51</v>
+      </c>
+      <c r="B330" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C330" t="s">
+        <v>188</v>
+      </c>
+      <c r="D330" t="s">
+        <v>53</v>
+      </c>
+      <c r="E330" t="s">
+        <v>136</v>
+      </c>
+      <c r="F330" t="s">
+        <v>55</v>
+      </c>
+      <c r="G330" t="s">
+        <v>56</v>
+      </c>
+      <c r="H330" t="s">
+        <v>449</v>
+      </c>
+      <c r="I330" t="s">
+        <v>52</v>
+      </c>
+      <c r="J330" t="s">
+        <v>58</v>
+      </c>
+      <c r="K330" t="s">
+        <v>52</v>
+      </c>
+      <c r="L330" t="s">
+        <v>58</v>
+      </c>
+      <c r="M330" t="s">
+        <v>58</v>
+      </c>
+      <c r="N330" t="s">
+        <v>96</v>
+      </c>
+      <c r="O330" t="s">
+        <v>74</v>
+      </c>
+      <c r="P330" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>74</v>
+      </c>
+      <c r="R330" t="s">
+        <v>60</v>
+      </c>
+      <c r="S330" t="s">
+        <v>59</v>
+      </c>
+      <c r="T330" t="s">
+        <v>58</v>
+      </c>
+      <c r="U330" t="s">
+        <v>60</v>
+      </c>
+      <c r="V330" t="s">
+        <v>58</v>
+      </c>
+      <c r="W330" t="s">
+        <v>52</v>
+      </c>
+      <c r="X330" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y330" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD330" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF330" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG330" t="s">
+        <v>139</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI330" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ330" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK330" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL330" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM330" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN330" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP330" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ330" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR330" s="1">
+        <v>45031</v>
+      </c>
+      <c r="AS330" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT330" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU330" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV330" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW330" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX330" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY330" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="331" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>51</v>
+      </c>
+      <c r="B331" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C331" t="s">
+        <v>188</v>
+      </c>
+      <c r="D331" t="s">
+        <v>53</v>
+      </c>
+      <c r="E331" t="s">
+        <v>132</v>
+      </c>
+      <c r="F331" t="s">
+        <v>133</v>
+      </c>
+      <c r="G331" t="s">
+        <v>56</v>
+      </c>
+      <c r="H331" t="s">
+        <v>450</v>
+      </c>
+      <c r="I331" t="s">
+        <v>58</v>
+      </c>
+      <c r="J331" t="s">
+        <v>58</v>
+      </c>
+      <c r="K331" t="s">
+        <v>58</v>
+      </c>
+      <c r="L331" t="s">
+        <v>58</v>
+      </c>
+      <c r="M331" t="s">
+        <v>52</v>
+      </c>
+      <c r="N331" t="s">
+        <v>58</v>
+      </c>
+      <c r="O331" t="s">
+        <v>60</v>
+      </c>
+      <c r="P331" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>60</v>
+      </c>
+      <c r="R331" t="s">
+        <v>59</v>
+      </c>
+      <c r="S331" t="s">
+        <v>60</v>
+      </c>
+      <c r="T331" t="s">
+        <v>58</v>
+      </c>
+      <c r="U331" t="s">
+        <v>58</v>
+      </c>
+      <c r="V331" t="s">
+        <v>58</v>
+      </c>
+      <c r="W331" t="s">
+        <v>58</v>
+      </c>
+      <c r="X331" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y331" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD331" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF331" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG331" t="s">
+        <v>96</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI331" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ331" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK331" t="s">
+        <v>91</v>
+      </c>
+      <c r="AL331" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM331" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN331" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP331" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ331" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR331" s="1">
+        <v>45031</v>
+      </c>
+      <c r="AS331" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT331" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU331" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV331" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW331" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX331" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY331" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="332" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>51</v>
+      </c>
+      <c r="B332" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C332" t="s">
+        <v>188</v>
+      </c>
+      <c r="D332" t="s">
+        <v>53</v>
+      </c>
+      <c r="E332" t="s">
+        <v>54</v>
+      </c>
+      <c r="F332" t="s">
+        <v>55</v>
+      </c>
+      <c r="G332" t="s">
+        <v>56</v>
+      </c>
+      <c r="H332" t="s">
+        <v>451</v>
+      </c>
+      <c r="I332" t="s">
+        <v>59</v>
+      </c>
+      <c r="J332" t="s">
+        <v>82</v>
+      </c>
+      <c r="K332" t="s">
+        <v>52</v>
+      </c>
+      <c r="L332" t="s">
+        <v>58</v>
+      </c>
+      <c r="M332" t="s">
+        <v>52</v>
+      </c>
+      <c r="N332" t="s">
+        <v>59</v>
+      </c>
+      <c r="O332" t="s">
+        <v>60</v>
+      </c>
+      <c r="P332" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>58</v>
+      </c>
+      <c r="R332" t="s">
+        <v>52</v>
+      </c>
+      <c r="S332" t="s">
+        <v>52</v>
+      </c>
+      <c r="T332" t="s">
+        <v>52</v>
+      </c>
+      <c r="U332" t="s">
+        <v>52</v>
+      </c>
+      <c r="V332" t="s">
+        <v>60</v>
+      </c>
+      <c r="W332" t="s">
+        <v>58</v>
+      </c>
+      <c r="X332" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y332" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD332" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF332" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG332" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH332" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI332" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ332" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK332" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL332" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM332" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN332" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP332" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ332" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR332" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS332" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT332" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU332" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV332" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW332" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX332" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY332" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="333" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>51</v>
+      </c>
+      <c r="B333" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C333" t="s">
+        <v>188</v>
+      </c>
+      <c r="D333" t="s">
+        <v>53</v>
+      </c>
+      <c r="E333" t="s">
+        <v>54</v>
+      </c>
+      <c r="F333" t="s">
+        <v>73</v>
+      </c>
+      <c r="G333" t="s">
+        <v>56</v>
+      </c>
+      <c r="H333" t="s">
+        <v>356</v>
+      </c>
+      <c r="I333" t="s">
+        <v>60</v>
+      </c>
+      <c r="J333" t="s">
+        <v>133</v>
+      </c>
+      <c r="K333" t="s">
+        <v>60</v>
+      </c>
+      <c r="L333" t="s">
+        <v>74</v>
+      </c>
+      <c r="M333" t="s">
+        <v>52</v>
+      </c>
+      <c r="N333" t="s">
+        <v>60</v>
+      </c>
+      <c r="O333" t="s">
+        <v>52</v>
+      </c>
+      <c r="P333" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>59</v>
+      </c>
+      <c r="R333" t="s">
+        <v>58</v>
+      </c>
+      <c r="S333" t="s">
+        <v>58</v>
+      </c>
+      <c r="T333" t="s">
+        <v>58</v>
+      </c>
+      <c r="U333" t="s">
+        <v>52</v>
+      </c>
+      <c r="V333" t="s">
+        <v>58</v>
+      </c>
+      <c r="W333" t="s">
+        <v>60</v>
+      </c>
+      <c r="X333" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y333" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD333" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF333" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG333" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH333" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI333" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ333" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK333" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL333" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM333" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN333" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP333" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ333" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR333" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS333" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT333" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU333" t="s">
+        <v>79</v>
+      </c>
+      <c r="AV333" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW333" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX333" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY333" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="334" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>51</v>
+      </c>
+      <c r="B334" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C334" t="s">
+        <v>188</v>
+      </c>
+      <c r="D334" t="s">
+        <v>53</v>
+      </c>
+      <c r="E334" t="s">
+        <v>54</v>
+      </c>
+      <c r="F334" t="s">
+        <v>126</v>
+      </c>
+      <c r="G334" t="s">
+        <v>56</v>
+      </c>
+      <c r="H334" t="s">
+        <v>358</v>
+      </c>
+      <c r="I334" t="s">
+        <v>58</v>
+      </c>
+      <c r="J334" t="s">
+        <v>58</v>
+      </c>
+      <c r="K334" t="s">
+        <v>58</v>
+      </c>
+      <c r="L334" t="s">
+        <v>58</v>
+      </c>
+      <c r="M334" t="s">
+        <v>58</v>
+      </c>
+      <c r="N334" t="s">
+        <v>52</v>
+      </c>
+      <c r="O334" t="s">
+        <v>58</v>
+      </c>
+      <c r="P334" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>58</v>
+      </c>
+      <c r="R334" t="s">
+        <v>58</v>
+      </c>
+      <c r="S334" t="s">
+        <v>58</v>
+      </c>
+      <c r="T334" t="s">
+        <v>58</v>
+      </c>
+      <c r="U334" t="s">
+        <v>58</v>
+      </c>
+      <c r="V334" t="s">
+        <v>58</v>
+      </c>
+      <c r="W334" t="s">
+        <v>58</v>
+      </c>
+      <c r="X334" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y334" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD334" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF334" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG334" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH334" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI334" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ334" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK334" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL334" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM334" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN334" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP334" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ334" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR334" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS334" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT334" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU334" t="s">
+        <v>349</v>
+      </c>
+      <c r="AV334" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW334" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX334" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY334" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="335" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>51</v>
+      </c>
+      <c r="B335" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C335" t="s">
+        <v>188</v>
+      </c>
+      <c r="D335" t="s">
+        <v>53</v>
+      </c>
+      <c r="E335" t="s">
+        <v>54</v>
+      </c>
+      <c r="F335" t="s">
+        <v>123</v>
+      </c>
+      <c r="G335" t="s">
+        <v>56</v>
+      </c>
+      <c r="H335" t="s">
+        <v>360</v>
+      </c>
+      <c r="I335" t="s">
+        <v>58</v>
+      </c>
+      <c r="J335" t="s">
+        <v>58</v>
+      </c>
+      <c r="K335" t="s">
+        <v>58</v>
+      </c>
+      <c r="L335" t="s">
+        <v>58</v>
+      </c>
+      <c r="M335" t="s">
+        <v>58</v>
+      </c>
+      <c r="N335" t="s">
+        <v>58</v>
+      </c>
+      <c r="O335" t="s">
+        <v>58</v>
+      </c>
+      <c r="P335" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>58</v>
+      </c>
+      <c r="R335" t="s">
+        <v>58</v>
+      </c>
+      <c r="S335" t="s">
+        <v>52</v>
+      </c>
+      <c r="T335" t="s">
+        <v>58</v>
+      </c>
+      <c r="U335" t="s">
+        <v>58</v>
+      </c>
+      <c r="V335" t="s">
+        <v>58</v>
+      </c>
+      <c r="W335" t="s">
+        <v>58</v>
+      </c>
+      <c r="X335" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y335" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD335" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF335" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG335" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH335" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI335" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ335" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK335" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL335" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM335" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN335" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP335" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ335" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR335" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS335" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT335" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU335" t="s">
+        <v>250</v>
+      </c>
+      <c r="AV335" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW335" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX335" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY335" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="336" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>51</v>
+      </c>
+      <c r="B336" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C336" t="s">
+        <v>188</v>
+      </c>
+      <c r="D336" t="s">
+        <v>53</v>
+      </c>
+      <c r="E336" t="s">
+        <v>112</v>
+      </c>
+      <c r="F336" t="s">
+        <v>55</v>
+      </c>
+      <c r="G336" t="s">
+        <v>56</v>
+      </c>
+      <c r="H336" t="s">
+        <v>452</v>
+      </c>
+      <c r="I336" t="s">
+        <v>58</v>
+      </c>
+      <c r="J336" t="s">
+        <v>52</v>
+      </c>
+      <c r="K336" t="s">
+        <v>58</v>
+      </c>
+      <c r="L336" t="s">
+        <v>58</v>
+      </c>
+      <c r="M336" t="s">
+        <v>58</v>
+      </c>
+      <c r="N336" t="s">
+        <v>58</v>
+      </c>
+      <c r="O336" t="s">
+        <v>58</v>
+      </c>
+      <c r="P336" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>58</v>
+      </c>
+      <c r="R336" t="s">
+        <v>58</v>
+      </c>
+      <c r="S336" t="s">
+        <v>58</v>
+      </c>
+      <c r="T336" t="s">
+        <v>58</v>
+      </c>
+      <c r="U336" t="s">
+        <v>58</v>
+      </c>
+      <c r="V336" t="s">
+        <v>52</v>
+      </c>
+      <c r="W336" t="s">
+        <v>52</v>
+      </c>
+      <c r="X336" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y336" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD336" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF336" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG336" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH336" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI336" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ336" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK336" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL336" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM336" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN336" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP336" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ336" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR336" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS336" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT336" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU336" t="s">
+        <v>115</v>
+      </c>
+      <c r="AV336" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW336" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX336" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY336" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="337" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>51</v>
+      </c>
+      <c r="B337" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C337" t="s">
+        <v>188</v>
+      </c>
+      <c r="D337" t="s">
+        <v>53</v>
+      </c>
+      <c r="E337" t="s">
+        <v>155</v>
+      </c>
+      <c r="F337" t="s">
+        <v>55</v>
+      </c>
+      <c r="G337" t="s">
+        <v>56</v>
+      </c>
+      <c r="H337" t="s">
+        <v>446</v>
+      </c>
+      <c r="I337" t="s">
+        <v>58</v>
+      </c>
+      <c r="J337" t="s">
+        <v>58</v>
+      </c>
+      <c r="K337" t="s">
+        <v>58</v>
+      </c>
+      <c r="L337" t="s">
+        <v>58</v>
+      </c>
+      <c r="M337" t="s">
+        <v>58</v>
+      </c>
+      <c r="N337" t="s">
+        <v>58</v>
+      </c>
+      <c r="O337" t="s">
+        <v>52</v>
+      </c>
+      <c r="P337" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>60</v>
+      </c>
+      <c r="R337" t="s">
+        <v>59</v>
+      </c>
+      <c r="S337" t="s">
+        <v>52</v>
+      </c>
+      <c r="T337" t="s">
+        <v>60</v>
+      </c>
+      <c r="U337" t="s">
+        <v>52</v>
+      </c>
+      <c r="V337" t="s">
+        <v>58</v>
+      </c>
+      <c r="W337" t="s">
+        <v>59</v>
+      </c>
+      <c r="X337" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y337" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD337" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF337" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG337" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH337" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI337" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ337" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK337" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL337" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM337" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN337" t="s">
+        <v>208</v>
+      </c>
+      <c r="AO337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP337" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ337" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR337" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS337" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT337" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU337" t="s">
+        <v>159</v>
+      </c>
+      <c r="AV337" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW337" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX337" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY337" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="338" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>51</v>
+      </c>
+      <c r="B338" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C338" t="s">
+        <v>188</v>
+      </c>
+      <c r="D338" t="s">
+        <v>53</v>
+      </c>
+      <c r="E338" t="s">
+        <v>151</v>
+      </c>
+      <c r="F338" t="s">
+        <v>55</v>
+      </c>
+      <c r="G338" t="s">
+        <v>56</v>
+      </c>
+      <c r="H338" t="s">
+        <v>61</v>
+      </c>
+      <c r="I338" t="s">
+        <v>58</v>
+      </c>
+      <c r="J338" t="s">
+        <v>59</v>
+      </c>
+      <c r="K338" t="s">
+        <v>58</v>
+      </c>
+      <c r="L338" t="s">
+        <v>60</v>
+      </c>
+      <c r="M338" t="s">
+        <v>58</v>
+      </c>
+      <c r="N338" t="s">
+        <v>52</v>
+      </c>
+      <c r="O338" t="s">
+        <v>52</v>
+      </c>
+      <c r="P338" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>58</v>
+      </c>
+      <c r="R338" t="s">
+        <v>58</v>
+      </c>
+      <c r="S338" t="s">
+        <v>52</v>
+      </c>
+      <c r="T338" t="s">
+        <v>60</v>
+      </c>
+      <c r="U338" t="s">
+        <v>58</v>
+      </c>
+      <c r="V338" t="s">
+        <v>60</v>
+      </c>
+      <c r="W338" t="s">
+        <v>52</v>
+      </c>
+      <c r="X338" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y338" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD338" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF338" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG338" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI338" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ338" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK338" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL338" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM338" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN338" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP338" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ338" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR338" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS338" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT338" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU338" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV338" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW338" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX338" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY338" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="339" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>51</v>
+      </c>
+      <c r="B339" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C339" t="s">
+        <v>188</v>
+      </c>
+      <c r="D339" t="s">
+        <v>53</v>
+      </c>
+      <c r="E339" t="s">
+        <v>368</v>
+      </c>
+      <c r="F339" t="s">
+        <v>369</v>
+      </c>
+      <c r="G339" t="s">
+        <v>56</v>
+      </c>
+      <c r="H339" t="s">
+        <v>453</v>
+      </c>
+      <c r="I339" t="s">
+        <v>58</v>
+      </c>
+      <c r="J339" t="s">
+        <v>58</v>
+      </c>
+      <c r="K339" t="s">
+        <v>58</v>
+      </c>
+      <c r="L339" t="s">
+        <v>58</v>
+      </c>
+      <c r="M339" t="s">
+        <v>58</v>
+      </c>
+      <c r="N339" t="s">
+        <v>58</v>
+      </c>
+      <c r="O339" t="s">
+        <v>58</v>
+      </c>
+      <c r="P339" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>52</v>
+      </c>
+      <c r="R339" t="s">
+        <v>58</v>
+      </c>
+      <c r="S339" t="s">
+        <v>58</v>
+      </c>
+      <c r="T339" t="s">
+        <v>58</v>
+      </c>
+      <c r="U339" t="s">
+        <v>58</v>
+      </c>
+      <c r="V339" t="s">
+        <v>58</v>
+      </c>
+      <c r="W339" t="s">
+        <v>58</v>
+      </c>
+      <c r="X339" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y339" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD339" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF339" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH339" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI339" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ339" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK339" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL339" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM339" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN339" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP339" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ339" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR339" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS339" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT339" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU339" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV339" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW339" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX339" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY339" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="340" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>51</v>
+      </c>
+      <c r="B340" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C340" t="s">
+        <v>188</v>
+      </c>
+      <c r="D340" t="s">
+        <v>53</v>
+      </c>
+      <c r="E340" t="s">
+        <v>146</v>
+      </c>
+      <c r="F340" t="s">
+        <v>55</v>
+      </c>
+      <c r="G340" t="s">
+        <v>56</v>
+      </c>
+      <c r="H340" t="s">
+        <v>285</v>
+      </c>
+      <c r="I340" t="s">
+        <v>52</v>
+      </c>
+      <c r="J340" t="s">
+        <v>58</v>
+      </c>
+      <c r="K340" t="s">
+        <v>58</v>
+      </c>
+      <c r="L340" t="s">
+        <v>52</v>
+      </c>
+      <c r="M340" t="s">
+        <v>58</v>
+      </c>
+      <c r="N340" t="s">
+        <v>58</v>
+      </c>
+      <c r="O340" t="s">
+        <v>52</v>
+      </c>
+      <c r="P340" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>52</v>
+      </c>
+      <c r="R340" t="s">
+        <v>52</v>
+      </c>
+      <c r="S340" t="s">
+        <v>52</v>
+      </c>
+      <c r="T340" t="s">
+        <v>58</v>
+      </c>
+      <c r="U340" t="s">
+        <v>58</v>
+      </c>
+      <c r="V340" t="s">
+        <v>58</v>
+      </c>
+      <c r="W340" t="s">
+        <v>58</v>
+      </c>
+      <c r="X340" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y340" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD340" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF340" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG340" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK340" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL340" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM340" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN340" t="s">
+        <v>454</v>
+      </c>
+      <c r="AO340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP340" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ340" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR340" s="1">
+        <v>45032</v>
+      </c>
+      <c r="AS340" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT340" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU340" t="s">
+        <v>150</v>
+      </c>
+      <c r="AV340" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW340" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX340" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY340" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="341" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>51</v>
+      </c>
+      <c r="B341" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C341" t="s">
+        <v>188</v>
+      </c>
+      <c r="D341" t="s">
+        <v>53</v>
+      </c>
+      <c r="E341" t="s">
+        <v>136</v>
+      </c>
+      <c r="F341" t="s">
+        <v>80</v>
+      </c>
+      <c r="G341" t="s">
+        <v>56</v>
+      </c>
+      <c r="H341" t="s">
+        <v>102</v>
+      </c>
+      <c r="I341" t="s">
+        <v>52</v>
+      </c>
+      <c r="J341" t="s">
+        <v>60</v>
+      </c>
+      <c r="K341" t="s">
+        <v>58</v>
+      </c>
+      <c r="L341" t="s">
+        <v>60</v>
+      </c>
+      <c r="M341" t="s">
+        <v>58</v>
+      </c>
+      <c r="N341" t="s">
+        <v>52</v>
+      </c>
+      <c r="O341" t="s">
+        <v>52</v>
+      </c>
+      <c r="P341" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>58</v>
+      </c>
+      <c r="R341" t="s">
+        <v>52</v>
+      </c>
+      <c r="S341" t="s">
+        <v>52</v>
+      </c>
+      <c r="T341" t="s">
+        <v>52</v>
+      </c>
+      <c r="U341" t="s">
+        <v>60</v>
+      </c>
+      <c r="V341" t="s">
+        <v>58</v>
+      </c>
+      <c r="W341" t="s">
+        <v>58</v>
+      </c>
+      <c r="X341" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y341" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD341" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF341" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG341" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>179</v>
+      </c>
+      <c r="AI341" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ341" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK341" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL341" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM341" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN341" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP341" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ341" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR341" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS341" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT341" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU341" t="s">
+        <v>143</v>
+      </c>
+      <c r="AV341" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW341" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX341" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY341" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="342" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>51</v>
+      </c>
+      <c r="B342" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C342" t="s">
+        <v>188</v>
+      </c>
+      <c r="D342" t="s">
+        <v>53</v>
+      </c>
+      <c r="E342" t="s">
+        <v>199</v>
+      </c>
+      <c r="F342" t="s">
+        <v>55</v>
+      </c>
+      <c r="G342" t="s">
+        <v>56</v>
+      </c>
+      <c r="H342" t="s">
+        <v>96</v>
+      </c>
+      <c r="I342" t="s">
+        <v>58</v>
+      </c>
+      <c r="J342" t="s">
+        <v>52</v>
+      </c>
+      <c r="K342" t="s">
+        <v>52</v>
+      </c>
+      <c r="L342" t="s">
+        <v>58</v>
+      </c>
+      <c r="M342" t="s">
+        <v>58</v>
+      </c>
+      <c r="N342" t="s">
+        <v>58</v>
+      </c>
+      <c r="O342" t="s">
+        <v>58</v>
+      </c>
+      <c r="P342" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>58</v>
+      </c>
+      <c r="R342" t="s">
+        <v>58</v>
+      </c>
+      <c r="S342" t="s">
+        <v>58</v>
+      </c>
+      <c r="T342" t="s">
+        <v>58</v>
+      </c>
+      <c r="U342" t="s">
+        <v>58</v>
+      </c>
+      <c r="V342" t="s">
+        <v>58</v>
+      </c>
+      <c r="W342" t="s">
+        <v>58</v>
+      </c>
+      <c r="X342" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y342" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD342" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF342" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG342" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH342" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI342" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ342" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK342" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL342" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM342" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN342" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP342" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ342" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR342" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS342" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT342" t="s">
+        <v>200</v>
+      </c>
+      <c r="AU342" t="s">
+        <v>201</v>
+      </c>
+      <c r="AV342" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW342" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX342" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY342" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="343" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>51</v>
+      </c>
+      <c r="B343" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C343" t="s">
+        <v>188</v>
+      </c>
+      <c r="D343" t="s">
+        <v>53</v>
+      </c>
+      <c r="E343" t="s">
+        <v>54</v>
+      </c>
+      <c r="F343" t="s">
+        <v>80</v>
+      </c>
+      <c r="G343" t="s">
+        <v>56</v>
+      </c>
+      <c r="H343" t="s">
+        <v>455</v>
+      </c>
+      <c r="I343" t="s">
+        <v>74</v>
+      </c>
+      <c r="J343" t="s">
+        <v>76</v>
+      </c>
+      <c r="K343" t="s">
+        <v>52</v>
+      </c>
+      <c r="L343" t="s">
+        <v>74</v>
+      </c>
+      <c r="M343" t="s">
+        <v>60</v>
+      </c>
+      <c r="N343" t="s">
+        <v>52</v>
+      </c>
+      <c r="O343" t="s">
+        <v>58</v>
+      </c>
+      <c r="P343" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>52</v>
+      </c>
+      <c r="R343" t="s">
+        <v>58</v>
+      </c>
+      <c r="S343" t="s">
+        <v>58</v>
+      </c>
+      <c r="T343" t="s">
+        <v>52</v>
+      </c>
+      <c r="U343" t="s">
+        <v>58</v>
+      </c>
+      <c r="V343" t="s">
+        <v>60</v>
+      </c>
+      <c r="W343" t="s">
+        <v>58</v>
+      </c>
+      <c r="X343" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y343" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD343" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF343" t="s">
+        <v>91</v>
+      </c>
+      <c r="AG343" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH343" t="s">
+        <v>120</v>
+      </c>
+      <c r="AI343" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ343" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK343" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL343" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM343" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN343" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP343" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ343" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR343" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS343" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT343" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU343" t="s">
+        <v>84</v>
+      </c>
+      <c r="AV343" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW343" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX343" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY343" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="344" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>51</v>
+      </c>
+      <c r="B344" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C344" t="s">
+        <v>188</v>
+      </c>
+      <c r="D344" t="s">
+        <v>53</v>
+      </c>
+      <c r="E344" t="s">
+        <v>54</v>
+      </c>
+      <c r="F344" t="s">
+        <v>75</v>
+      </c>
+      <c r="G344" t="s">
+        <v>56</v>
+      </c>
+      <c r="H344" t="s">
+        <v>456</v>
+      </c>
+      <c r="I344" t="s">
+        <v>58</v>
+      </c>
+      <c r="J344" t="s">
+        <v>58</v>
+      </c>
+      <c r="K344" t="s">
+        <v>206</v>
+      </c>
+      <c r="L344" t="s">
+        <v>58</v>
+      </c>
+      <c r="M344" t="s">
+        <v>58</v>
+      </c>
+      <c r="N344" t="s">
+        <v>58</v>
+      </c>
+      <c r="O344" t="s">
+        <v>58</v>
+      </c>
+      <c r="P344" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>52</v>
+      </c>
+      <c r="R344" t="s">
+        <v>58</v>
+      </c>
+      <c r="S344" t="s">
+        <v>58</v>
+      </c>
+      <c r="T344" t="s">
+        <v>58</v>
+      </c>
+      <c r="U344" t="s">
+        <v>58</v>
+      </c>
+      <c r="V344" t="s">
+        <v>58</v>
+      </c>
+      <c r="W344" t="s">
+        <v>58</v>
+      </c>
+      <c r="X344" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y344" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD344" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF344" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG344" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH344" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI344" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ344" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK344" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL344" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM344" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN344" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP344" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ344" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR344" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS344" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT344" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU344" t="s">
+        <v>319</v>
+      </c>
+      <c r="AV344" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW344" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX344" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY344" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="345" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>51</v>
+      </c>
+      <c r="B345" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C345" t="s">
+        <v>188</v>
+      </c>
+      <c r="D345" t="s">
+        <v>53</v>
+      </c>
+      <c r="E345" t="s">
+        <v>54</v>
+      </c>
+      <c r="F345" t="s">
+        <v>243</v>
+      </c>
+      <c r="G345" t="s">
+        <v>56</v>
+      </c>
+      <c r="H345" t="s">
+        <v>457</v>
+      </c>
+      <c r="I345" t="s">
+        <v>58</v>
+      </c>
+      <c r="J345" t="s">
+        <v>58</v>
+      </c>
+      <c r="K345" t="s">
+        <v>58</v>
+      </c>
+      <c r="L345" t="s">
+        <v>58</v>
+      </c>
+      <c r="M345" t="s">
+        <v>52</v>
+      </c>
+      <c r="N345" t="s">
+        <v>58</v>
+      </c>
+      <c r="O345" t="s">
+        <v>58</v>
+      </c>
+      <c r="P345" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>58</v>
+      </c>
+      <c r="R345" t="s">
+        <v>58</v>
+      </c>
+      <c r="S345" t="s">
+        <v>58</v>
+      </c>
+      <c r="T345" t="s">
+        <v>58</v>
+      </c>
+      <c r="U345" t="s">
+        <v>58</v>
+      </c>
+      <c r="V345" t="s">
+        <v>58</v>
+      </c>
+      <c r="W345" t="s">
+        <v>58</v>
+      </c>
+      <c r="X345" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y345" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD345" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF345" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG345" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH345" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI345" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ345" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK345" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL345" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM345" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN345" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP345" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ345" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR345" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS345" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT345" t="s">
+        <v>69</v>
+      </c>
+      <c r="AU345" t="s">
+        <v>359</v>
+      </c>
+      <c r="AV345" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW345" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX345" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY345" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="346" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>51</v>
+      </c>
+      <c r="B346" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C346" t="s">
+        <v>188</v>
+      </c>
+      <c r="D346" t="s">
+        <v>53</v>
+      </c>
+      <c r="E346" t="s">
+        <v>313</v>
+      </c>
+      <c r="F346" t="s">
+        <v>86</v>
+      </c>
+      <c r="G346" t="s">
+        <v>56</v>
+      </c>
+      <c r="H346" t="s">
+        <v>223</v>
+      </c>
+      <c r="I346" t="s">
+        <v>58</v>
+      </c>
+      <c r="J346" t="s">
+        <v>58</v>
+      </c>
+      <c r="K346" t="s">
+        <v>58</v>
+      </c>
+      <c r="L346" t="s">
+        <v>58</v>
+      </c>
+      <c r="M346" t="s">
+        <v>58</v>
+      </c>
+      <c r="N346" t="s">
+        <v>58</v>
+      </c>
+      <c r="O346" t="s">
+        <v>58</v>
+      </c>
+      <c r="P346" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>58</v>
+      </c>
+      <c r="R346" t="s">
+        <v>52</v>
+      </c>
+      <c r="S346" t="s">
+        <v>58</v>
+      </c>
+      <c r="T346" t="s">
+        <v>58</v>
+      </c>
+      <c r="U346" t="s">
+        <v>58</v>
+      </c>
+      <c r="V346" t="s">
+        <v>58</v>
+      </c>
+      <c r="W346" t="s">
+        <v>58</v>
+      </c>
+      <c r="X346" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y346" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD346" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF346" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG346" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH346" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI346" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ346" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK346" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL346" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM346" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN346" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP346" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ346" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR346" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS346" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT346" t="s">
+        <v>87</v>
+      </c>
+      <c r="AU346" t="s">
+        <v>314</v>
+      </c>
+      <c r="AV346" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW346" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX346" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY346" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="347" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>51</v>
+      </c>
+      <c r="B347" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C347" t="s">
+        <v>188</v>
+      </c>
+      <c r="D347" t="s">
+        <v>53</v>
+      </c>
+      <c r="E347" t="s">
+        <v>303</v>
+      </c>
+      <c r="F347" t="s">
+        <v>55</v>
+      </c>
+      <c r="G347" t="s">
+        <v>56</v>
+      </c>
+      <c r="H347" t="s">
+        <v>458</v>
+      </c>
+      <c r="I347" t="s">
+        <v>58</v>
+      </c>
+      <c r="J347" t="s">
+        <v>58</v>
+      </c>
+      <c r="K347" t="s">
+        <v>58</v>
+      </c>
+      <c r="L347" t="s">
+        <v>58</v>
+      </c>
+      <c r="M347" t="s">
+        <v>58</v>
+      </c>
+      <c r="N347" t="s">
+        <v>58</v>
+      </c>
+      <c r="O347" t="s">
+        <v>58</v>
+      </c>
+      <c r="P347" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>58</v>
+      </c>
+      <c r="R347" t="s">
+        <v>58</v>
+      </c>
+      <c r="S347" t="s">
+        <v>58</v>
+      </c>
+      <c r="T347" t="s">
+        <v>52</v>
+      </c>
+      <c r="U347" t="s">
+        <v>58</v>
+      </c>
+      <c r="V347" t="s">
+        <v>58</v>
+      </c>
+      <c r="W347" t="s">
+        <v>58</v>
+      </c>
+      <c r="X347" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y347" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD347" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF347" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG347" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH347" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI347" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ347" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK347" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL347" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM347" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN347" t="s">
+        <v>305</v>
+      </c>
+      <c r="AO347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP347" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ347" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR347" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS347" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT347" t="s">
+        <v>306</v>
+      </c>
+      <c r="AU347" t="s">
+        <v>307</v>
+      </c>
+      <c r="AV347" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW347" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX347" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY347" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="348" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>51</v>
+      </c>
+      <c r="B348" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C348" t="s">
+        <v>188</v>
+      </c>
+      <c r="D348" t="s">
+        <v>53</v>
+      </c>
+      <c r="E348" t="s">
+        <v>104</v>
+      </c>
+      <c r="F348" t="s">
+        <v>55</v>
+      </c>
+      <c r="G348" t="s">
+        <v>56</v>
+      </c>
+      <c r="H348" t="s">
+        <v>408</v>
+      </c>
+      <c r="I348" t="s">
+        <v>58</v>
+      </c>
+      <c r="J348" t="s">
+        <v>188</v>
+      </c>
+      <c r="K348" t="s">
+        <v>74</v>
+      </c>
+      <c r="L348" t="s">
+        <v>52</v>
+      </c>
+      <c r="M348" t="s">
+        <v>52</v>
+      </c>
+      <c r="N348" t="s">
+        <v>96</v>
+      </c>
+      <c r="O348" t="s">
+        <v>76</v>
+      </c>
+      <c r="P348" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>58</v>
+      </c>
+      <c r="R348" t="s">
+        <v>74</v>
+      </c>
+      <c r="S348" t="s">
+        <v>59</v>
+      </c>
+      <c r="T348" t="s">
+        <v>60</v>
+      </c>
+      <c r="U348" t="s">
+        <v>60</v>
+      </c>
+      <c r="V348" t="s">
+        <v>52</v>
+      </c>
+      <c r="W348" t="s">
+        <v>58</v>
+      </c>
+      <c r="X348" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y348" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD348" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF348" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG348" t="s">
+        <v>161</v>
+      </c>
+      <c r="AH348" t="s">
+        <v>459</v>
+      </c>
+      <c r="AI348" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ348" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK348" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL348" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM348" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN348" t="s">
+        <v>109</v>
+      </c>
+      <c r="AO348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP348" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ348" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR348" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS348" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT348" t="s">
+        <v>110</v>
+      </c>
+      <c r="AU348" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV348" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW348" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX348" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY348" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="349" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>51</v>
+      </c>
+      <c r="B349" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C349" t="s">
+        <v>188</v>
+      </c>
+      <c r="D349" t="s">
+        <v>53</v>
+      </c>
+      <c r="E349" t="s">
+        <v>89</v>
+      </c>
+      <c r="F349" t="s">
+        <v>55</v>
+      </c>
+      <c r="G349" t="s">
+        <v>56</v>
+      </c>
+      <c r="H349" t="s">
+        <v>460</v>
+      </c>
+      <c r="I349" t="s">
+        <v>58</v>
+      </c>
+      <c r="J349" t="s">
+        <v>52</v>
+      </c>
+      <c r="K349" t="s">
+        <v>58</v>
+      </c>
+      <c r="L349" t="s">
+        <v>58</v>
+      </c>
+      <c r="M349" t="s">
+        <v>59</v>
+      </c>
+      <c r="N349" t="s">
+        <v>76</v>
+      </c>
+      <c r="O349" t="s">
+        <v>59</v>
+      </c>
+      <c r="P349" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>60</v>
+      </c>
+      <c r="R349" t="s">
+        <v>59</v>
+      </c>
+      <c r="S349" t="s">
+        <v>58</v>
+      </c>
+      <c r="T349" t="s">
+        <v>60</v>
+      </c>
+      <c r="U349" t="s">
+        <v>52</v>
+      </c>
+      <c r="V349" t="s">
+        <v>206</v>
+      </c>
+      <c r="W349" t="s">
+        <v>58</v>
+      </c>
+      <c r="X349" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y349" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD349" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF349" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG349" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH349" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI349" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ349" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK349" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL349" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM349" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP349" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ349" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR349" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS349" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT349" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU349" t="s">
+        <v>93</v>
+      </c>
+      <c r="AV349" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW349" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX349" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY349" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="350" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>51</v>
+      </c>
+      <c r="B350" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C350" t="s">
+        <v>188</v>
+      </c>
+      <c r="D350" t="s">
+        <v>53</v>
+      </c>
+      <c r="E350" t="s">
+        <v>89</v>
+      </c>
+      <c r="F350" t="s">
+        <v>94</v>
+      </c>
+      <c r="G350" t="s">
+        <v>56</v>
+      </c>
+      <c r="H350" t="s">
+        <v>461</v>
+      </c>
+      <c r="I350" t="s">
+        <v>58</v>
+      </c>
+      <c r="J350" t="s">
+        <v>60</v>
+      </c>
+      <c r="K350" t="s">
+        <v>58</v>
+      </c>
+      <c r="L350" t="s">
+        <v>52</v>
+      </c>
+      <c r="M350" t="s">
+        <v>58</v>
+      </c>
+      <c r="N350" t="s">
+        <v>52</v>
+      </c>
+      <c r="O350" t="s">
+        <v>60</v>
+      </c>
+      <c r="P350" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>52</v>
+      </c>
+      <c r="R350" t="s">
+        <v>60</v>
+      </c>
+      <c r="S350" t="s">
+        <v>52</v>
+      </c>
+      <c r="T350" t="s">
+        <v>58</v>
+      </c>
+      <c r="U350" t="s">
+        <v>60</v>
+      </c>
+      <c r="V350" t="s">
+        <v>58</v>
+      </c>
+      <c r="W350" t="s">
+        <v>58</v>
+      </c>
+      <c r="X350" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y350" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD350" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF350" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG350" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>163</v>
+      </c>
+      <c r="AI350" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ350" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK350" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL350" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM350" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP350" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ350" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR350" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS350" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT350" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU350" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV350" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW350" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX350" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY350" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="351" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>51</v>
+      </c>
+      <c r="B351" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C351" t="s">
+        <v>188</v>
+      </c>
+      <c r="D351" t="s">
+        <v>53</v>
+      </c>
+      <c r="E351" t="s">
+        <v>89</v>
+      </c>
+      <c r="F351" t="s">
+        <v>75</v>
+      </c>
+      <c r="G351" t="s">
+        <v>56</v>
+      </c>
+      <c r="H351" t="s">
+        <v>462</v>
+      </c>
+      <c r="I351" t="s">
+        <v>52</v>
+      </c>
+      <c r="J351" t="s">
+        <v>82</v>
+      </c>
+      <c r="K351" t="s">
+        <v>59</v>
+      </c>
+      <c r="L351" t="s">
+        <v>96</v>
+      </c>
+      <c r="M351" t="s">
+        <v>60</v>
+      </c>
+      <c r="N351" t="s">
+        <v>52</v>
+      </c>
+      <c r="O351" t="s">
+        <v>74</v>
+      </c>
+      <c r="P351" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>96</v>
+      </c>
+      <c r="R351" t="s">
+        <v>74</v>
+      </c>
+      <c r="S351" t="s">
+        <v>58</v>
+      </c>
+      <c r="T351" t="s">
+        <v>60</v>
+      </c>
+      <c r="U351" t="s">
+        <v>59</v>
+      </c>
+      <c r="V351" t="s">
+        <v>52</v>
+      </c>
+      <c r="W351" t="s">
+        <v>52</v>
+      </c>
+      <c r="X351" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y351" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD351" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF351" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG351" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>241</v>
+      </c>
+      <c r="AI351" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ351" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK351" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL351" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM351" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP351" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ351" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR351" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS351" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT351" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU351" t="s">
+        <v>103</v>
+      </c>
+      <c r="AV351" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW351" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX351" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY351" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="352" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>51</v>
+      </c>
+      <c r="B352" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C352" t="s">
+        <v>188</v>
+      </c>
+      <c r="D352" t="s">
+        <v>53</v>
+      </c>
+      <c r="E352" t="s">
+        <v>118</v>
+      </c>
+      <c r="F352" t="s">
+        <v>55</v>
+      </c>
+      <c r="G352" t="s">
+        <v>56</v>
+      </c>
+      <c r="H352" t="s">
+        <v>463</v>
+      </c>
+      <c r="I352" t="s">
+        <v>58</v>
+      </c>
+      <c r="J352" t="s">
+        <v>52</v>
+      </c>
+      <c r="K352" t="s">
+        <v>52</v>
+      </c>
+      <c r="L352" t="s">
+        <v>58</v>
+      </c>
+      <c r="M352" t="s">
+        <v>58</v>
+      </c>
+      <c r="N352" t="s">
+        <v>59</v>
+      </c>
+      <c r="O352" t="s">
+        <v>60</v>
+      </c>
+      <c r="P352" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>52</v>
+      </c>
+      <c r="R352" t="s">
+        <v>58</v>
+      </c>
+      <c r="S352" t="s">
+        <v>58</v>
+      </c>
+      <c r="T352" t="s">
+        <v>58</v>
+      </c>
+      <c r="U352" t="s">
+        <v>58</v>
+      </c>
+      <c r="V352" t="s">
+        <v>58</v>
+      </c>
+      <c r="W352" t="s">
+        <v>58</v>
+      </c>
+      <c r="X352" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y352" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD352" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF352" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG352" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH352" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI352" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ352" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK352" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL352" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM352" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN352" t="s">
+        <v>264</v>
+      </c>
+      <c r="AO352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP352" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ352" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR352" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS352" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT352" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU352" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV352" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW352" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX352" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY352" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="353" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>51</v>
+      </c>
+      <c r="B353" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C353" t="s">
+        <v>188</v>
+      </c>
+      <c r="D353" t="s">
+        <v>53</v>
+      </c>
+      <c r="E353" t="s">
+        <v>118</v>
+      </c>
+      <c r="F353" t="s">
+        <v>123</v>
+      </c>
+      <c r="G353" t="s">
+        <v>56</v>
+      </c>
+      <c r="H353" t="s">
+        <v>464</v>
+      </c>
+      <c r="I353" t="s">
+        <v>58</v>
+      </c>
+      <c r="J353" t="s">
+        <v>52</v>
+      </c>
+      <c r="K353" t="s">
+        <v>52</v>
+      </c>
+      <c r="L353" t="s">
+        <v>59</v>
+      </c>
+      <c r="M353" t="s">
+        <v>60</v>
+      </c>
+      <c r="N353" t="s">
+        <v>74</v>
+      </c>
+      <c r="O353" t="s">
+        <v>74</v>
+      </c>
+      <c r="P353" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>59</v>
+      </c>
+      <c r="R353" t="s">
+        <v>60</v>
+      </c>
+      <c r="S353" t="s">
+        <v>58</v>
+      </c>
+      <c r="T353" t="s">
+        <v>58</v>
+      </c>
+      <c r="U353" t="s">
+        <v>52</v>
+      </c>
+      <c r="V353" t="s">
+        <v>58</v>
+      </c>
+      <c r="W353" t="s">
+        <v>58</v>
+      </c>
+      <c r="X353" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y353" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD353" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF353" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG353" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI353" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ353" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK353" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL353" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM353" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN353" t="s">
+        <v>465</v>
+      </c>
+      <c r="AO353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP353" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ353" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR353" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS353" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT353" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU353" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV353" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW353" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX353" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY353" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="354" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>51</v>
+      </c>
+      <c r="B354" s="1">
+        <v>45031</v>
+      </c>
+      <c r="C354" t="s">
+        <v>188</v>
+      </c>
+      <c r="D354" t="s">
+        <v>53</v>
+      </c>
+      <c r="E354" t="s">
+        <v>118</v>
+      </c>
+      <c r="F354" t="s">
+        <v>126</v>
+      </c>
+      <c r="G354" t="s">
+        <v>56</v>
+      </c>
+      <c r="H354" t="s">
+        <v>188</v>
+      </c>
+      <c r="I354" t="s">
+        <v>58</v>
+      </c>
+      <c r="J354" t="s">
+        <v>74</v>
+      </c>
+      <c r="K354" t="s">
+        <v>52</v>
+      </c>
+      <c r="L354" t="s">
+        <v>52</v>
+      </c>
+      <c r="M354" t="s">
+        <v>58</v>
+      </c>
+      <c r="N354" t="s">
+        <v>96</v>
+      </c>
+      <c r="O354" t="s">
+        <v>76</v>
+      </c>
+      <c r="P354" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>52</v>
+      </c>
+      <c r="R354" t="s">
+        <v>60</v>
+      </c>
+      <c r="S354" t="s">
+        <v>52</v>
+      </c>
+      <c r="T354" t="s">
+        <v>58</v>
+      </c>
+      <c r="U354" t="s">
+        <v>58</v>
+      </c>
+      <c r="V354" t="s">
+        <v>58</v>
+      </c>
+      <c r="W354" t="s">
+        <v>58</v>
+      </c>
+      <c r="X354" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y354" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AD354" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF354" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG354" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH354" t="s">
+        <v>128</v>
+      </c>
+      <c r="AI354" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ354" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK354" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL354" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM354" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN354" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AP354" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ354" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR354" s="1">
+        <v>45033</v>
+      </c>
+      <c r="AS354" t="s">
+        <v>336</v>
+      </c>
+      <c r="AT354" t="s">
+        <v>130</v>
+      </c>
+      <c r="AU354" t="s">
+        <v>131</v>
+      </c>
+      <c r="AV354" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW354" t="s">
+        <v>72</v>
+      </c>
+      <c r="AX354" t="s">
+        <v>71</v>
+      </c>
+      <c r="AY354" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:AY1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCF6EA5-097E-4E6D-A519-ED2DC1661D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18426" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19749" uniqueCount="496">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1457,11 +1458,62 @@
   <si>
     <t>382</t>
   </si>
+  <si>
+    <t>SANIDAD POLICÍA NACIONAL</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>384</t>
+  </si>
+  <si>
+    <t>IPS LA REBECA</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>956</t>
+  </si>
+  <si>
+    <t>957</t>
+  </si>
+  <si>
+    <t>1268</t>
+  </si>
+  <si>
+    <t>1269</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1593,7 +1645,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1605,7 +1657,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1622,9 +1674,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1652,14 +1704,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1687,6 +1756,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1839,7 +1925,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY376"/>
+  <dimension ref="A1:AY403"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -60125,6 +60211,4191 @@
         <v>71</v>
       </c>
     </row>
+    <row r="377" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A377" t="s">
+        <v>51</v>
+      </c>
+      <c r="B377" s="1">
+        <v>45041</v>
+      </c>
+      <c r="C377" t="s">
+        <v>77</v>
+      </c>
+      <c r="D377" t="s">
+        <v>53</v>
+      </c>
+      <c r="E377" t="s">
+        <v>378</v>
+      </c>
+      <c r="F377" t="s">
+        <v>55</v>
+      </c>
+      <c r="G377" t="s">
+        <v>56</v>
+      </c>
+      <c r="H377" t="s">
+        <v>60</v>
+      </c>
+      <c r="I377" t="s">
+        <v>58</v>
+      </c>
+      <c r="J377" t="s">
+        <v>58</v>
+      </c>
+      <c r="K377" t="s">
+        <v>58</v>
+      </c>
+      <c r="L377" t="s">
+        <v>58</v>
+      </c>
+      <c r="M377" t="s">
+        <v>58</v>
+      </c>
+      <c r="N377" t="s">
+        <v>58</v>
+      </c>
+      <c r="O377" t="s">
+        <v>59</v>
+      </c>
+      <c r="P377" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q377" t="s">
+        <v>58</v>
+      </c>
+      <c r="R377" t="s">
+        <v>58</v>
+      </c>
+      <c r="S377" t="s">
+        <v>58</v>
+      </c>
+      <c r="T377" t="s">
+        <v>59</v>
+      </c>
+      <c r="U377" t="s">
+        <v>58</v>
+      </c>
+      <c r="V377" t="s">
+        <v>58</v>
+      </c>
+      <c r="W377" t="s">
+        <v>58</v>
+      </c>
+      <c r="X377" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y377" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z377" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD377" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF377" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG377" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH377" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI377" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ377" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK377" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL377" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM377" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN377" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP377" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ377" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR377" s="1">
+        <v>45041</v>
+      </c>
+      <c r="AS377" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT377" t="s">
+        <v>380</v>
+      </c>
+      <c r="AU377" t="s">
+        <v>381</v>
+      </c>
+      <c r="AV377" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW377" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX377" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY377" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="378" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A378" t="s">
+        <v>51</v>
+      </c>
+      <c r="B378" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C378" t="s">
+        <v>52</v>
+      </c>
+      <c r="D378" t="s">
+        <v>53</v>
+      </c>
+      <c r="E378" t="s">
+        <v>150</v>
+      </c>
+      <c r="F378" t="s">
+        <v>55</v>
+      </c>
+      <c r="G378" t="s">
+        <v>56</v>
+      </c>
+      <c r="H378" t="s">
+        <v>310</v>
+      </c>
+      <c r="I378" t="s">
+        <v>59</v>
+      </c>
+      <c r="J378" t="s">
+        <v>59</v>
+      </c>
+      <c r="K378" t="s">
+        <v>63</v>
+      </c>
+      <c r="L378" t="s">
+        <v>74</v>
+      </c>
+      <c r="M378" t="s">
+        <v>101</v>
+      </c>
+      <c r="N378" t="s">
+        <v>60</v>
+      </c>
+      <c r="O378" t="s">
+        <v>58</v>
+      </c>
+      <c r="P378" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q378" t="s">
+        <v>58</v>
+      </c>
+      <c r="R378" t="s">
+        <v>58</v>
+      </c>
+      <c r="S378" t="s">
+        <v>59</v>
+      </c>
+      <c r="T378" t="s">
+        <v>58</v>
+      </c>
+      <c r="U378" t="s">
+        <v>58</v>
+      </c>
+      <c r="V378" t="s">
+        <v>58</v>
+      </c>
+      <c r="W378" t="s">
+        <v>58</v>
+      </c>
+      <c r="X378" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y378" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z378" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD378" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF378" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG378" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH378" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI378" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ378" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK378" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL378" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM378" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN378" t="s">
+        <v>479</v>
+      </c>
+      <c r="AO378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP378" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ378" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR378" s="1">
+        <v>45041</v>
+      </c>
+      <c r="AS378" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT378" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU378" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV378" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW378" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX378" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY378" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="379" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A379" t="s">
+        <v>51</v>
+      </c>
+      <c r="B379" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C379" t="s">
+        <v>77</v>
+      </c>
+      <c r="D379" t="s">
+        <v>53</v>
+      </c>
+      <c r="E379" t="s">
+        <v>156</v>
+      </c>
+      <c r="F379" t="s">
+        <v>55</v>
+      </c>
+      <c r="G379" t="s">
+        <v>56</v>
+      </c>
+      <c r="H379" t="s">
+        <v>463</v>
+      </c>
+      <c r="I379" t="s">
+        <v>58</v>
+      </c>
+      <c r="J379" t="s">
+        <v>58</v>
+      </c>
+      <c r="K379" t="s">
+        <v>58</v>
+      </c>
+      <c r="L379" t="s">
+        <v>58</v>
+      </c>
+      <c r="M379" t="s">
+        <v>58</v>
+      </c>
+      <c r="N379" t="s">
+        <v>59</v>
+      </c>
+      <c r="O379" t="s">
+        <v>58</v>
+      </c>
+      <c r="P379" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q379" t="s">
+        <v>59</v>
+      </c>
+      <c r="R379" t="s">
+        <v>59</v>
+      </c>
+      <c r="S379" t="s">
+        <v>58</v>
+      </c>
+      <c r="T379" t="s">
+        <v>59</v>
+      </c>
+      <c r="U379" t="s">
+        <v>59</v>
+      </c>
+      <c r="V379" t="s">
+        <v>58</v>
+      </c>
+      <c r="W379" t="s">
+        <v>58</v>
+      </c>
+      <c r="X379" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y379" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z379" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD379" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF379" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG379" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH379" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI379" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ379" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK379" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL379" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM379" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN379" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP379" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ379" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR379" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS379" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT379" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU379" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV379" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW379" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX379" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY379" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="380" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>51</v>
+      </c>
+      <c r="B380" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C380" t="s">
+        <v>77</v>
+      </c>
+      <c r="D380" t="s">
+        <v>53</v>
+      </c>
+      <c r="E380" t="s">
+        <v>94</v>
+      </c>
+      <c r="F380" t="s">
+        <v>55</v>
+      </c>
+      <c r="G380" t="s">
+        <v>56</v>
+      </c>
+      <c r="H380" t="s">
+        <v>57</v>
+      </c>
+      <c r="I380" t="s">
+        <v>58</v>
+      </c>
+      <c r="J380" t="s">
+        <v>58</v>
+      </c>
+      <c r="K380" t="s">
+        <v>59</v>
+      </c>
+      <c r="L380" t="s">
+        <v>58</v>
+      </c>
+      <c r="M380" t="s">
+        <v>59</v>
+      </c>
+      <c r="N380" t="s">
+        <v>59</v>
+      </c>
+      <c r="O380" t="s">
+        <v>74</v>
+      </c>
+      <c r="P380" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q380" t="s">
+        <v>59</v>
+      </c>
+      <c r="R380" t="s">
+        <v>111</v>
+      </c>
+      <c r="S380" t="s">
+        <v>59</v>
+      </c>
+      <c r="T380" t="s">
+        <v>74</v>
+      </c>
+      <c r="U380" t="s">
+        <v>59</v>
+      </c>
+      <c r="V380" t="s">
+        <v>58</v>
+      </c>
+      <c r="W380" t="s">
+        <v>59</v>
+      </c>
+      <c r="X380" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y380" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD380" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF380" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG380" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH380" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK380" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL380" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM380" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN380" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP380" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ380" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR380" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS380" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT380" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU380" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV380" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW380" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX380" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY380" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="381" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A381" t="s">
+        <v>51</v>
+      </c>
+      <c r="B381" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C381" t="s">
+        <v>77</v>
+      </c>
+      <c r="D381" t="s">
+        <v>53</v>
+      </c>
+      <c r="E381" t="s">
+        <v>94</v>
+      </c>
+      <c r="F381" t="s">
+        <v>82</v>
+      </c>
+      <c r="G381" t="s">
+        <v>56</v>
+      </c>
+      <c r="H381" t="s">
+        <v>480</v>
+      </c>
+      <c r="I381" t="s">
+        <v>58</v>
+      </c>
+      <c r="J381" t="s">
+        <v>58</v>
+      </c>
+      <c r="K381" t="s">
+        <v>58</v>
+      </c>
+      <c r="L381" t="s">
+        <v>58</v>
+      </c>
+      <c r="M381" t="s">
+        <v>59</v>
+      </c>
+      <c r="N381" t="s">
+        <v>59</v>
+      </c>
+      <c r="O381" t="s">
+        <v>58</v>
+      </c>
+      <c r="P381" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q381" t="s">
+        <v>59</v>
+      </c>
+      <c r="R381" t="s">
+        <v>58</v>
+      </c>
+      <c r="S381" t="s">
+        <v>60</v>
+      </c>
+      <c r="T381" t="s">
+        <v>58</v>
+      </c>
+      <c r="U381" t="s">
+        <v>58</v>
+      </c>
+      <c r="V381" t="s">
+        <v>58</v>
+      </c>
+      <c r="W381" t="s">
+        <v>58</v>
+      </c>
+      <c r="X381" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y381" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z381" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD381" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF381" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG381" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH381" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI381" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ381" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK381" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL381" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM381" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN381" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP381" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ381" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR381" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS381" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT381" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU381" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV381" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW381" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX381" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY381" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="382" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A382" t="s">
+        <v>51</v>
+      </c>
+      <c r="B382" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C382" t="s">
+        <v>77</v>
+      </c>
+      <c r="D382" t="s">
+        <v>53</v>
+      </c>
+      <c r="E382" t="s">
+        <v>94</v>
+      </c>
+      <c r="F382" t="s">
+        <v>82</v>
+      </c>
+      <c r="G382" t="s">
+        <v>56</v>
+      </c>
+      <c r="H382" t="s">
+        <v>481</v>
+      </c>
+      <c r="I382" t="s">
+        <v>59</v>
+      </c>
+      <c r="J382" t="s">
+        <v>83</v>
+      </c>
+      <c r="K382" t="s">
+        <v>59</v>
+      </c>
+      <c r="L382" t="s">
+        <v>60</v>
+      </c>
+      <c r="M382" t="s">
+        <v>59</v>
+      </c>
+      <c r="N382" t="s">
+        <v>60</v>
+      </c>
+      <c r="O382" t="s">
+        <v>59</v>
+      </c>
+      <c r="P382" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q382" t="s">
+        <v>63</v>
+      </c>
+      <c r="R382" t="s">
+        <v>58</v>
+      </c>
+      <c r="S382" t="s">
+        <v>58</v>
+      </c>
+      <c r="T382" t="s">
+        <v>58</v>
+      </c>
+      <c r="U382" t="s">
+        <v>59</v>
+      </c>
+      <c r="V382" t="s">
+        <v>58</v>
+      </c>
+      <c r="W382" t="s">
+        <v>59</v>
+      </c>
+      <c r="X382" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y382" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z382" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD382" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF382" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG382" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH382" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI382" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ382" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK382" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL382" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM382" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN382" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP382" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ382" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR382" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS382" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT382" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU382" t="s">
+        <v>108</v>
+      </c>
+      <c r="AV382" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW382" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX382" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY382" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="383" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A383" t="s">
+        <v>51</v>
+      </c>
+      <c r="B383" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C383" t="s">
+        <v>77</v>
+      </c>
+      <c r="D383" t="s">
+        <v>53</v>
+      </c>
+      <c r="E383" t="s">
+        <v>117</v>
+      </c>
+      <c r="F383" t="s">
+        <v>55</v>
+      </c>
+      <c r="G383" t="s">
+        <v>56</v>
+      </c>
+      <c r="H383" t="s">
+        <v>482</v>
+      </c>
+      <c r="I383" t="s">
+        <v>58</v>
+      </c>
+      <c r="J383" t="s">
+        <v>58</v>
+      </c>
+      <c r="K383" t="s">
+        <v>58</v>
+      </c>
+      <c r="L383" t="s">
+        <v>60</v>
+      </c>
+      <c r="M383" t="s">
+        <v>58</v>
+      </c>
+      <c r="N383" t="s">
+        <v>58</v>
+      </c>
+      <c r="O383" t="s">
+        <v>58</v>
+      </c>
+      <c r="P383" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q383" t="s">
+        <v>58</v>
+      </c>
+      <c r="R383" t="s">
+        <v>58</v>
+      </c>
+      <c r="S383" t="s">
+        <v>58</v>
+      </c>
+      <c r="T383" t="s">
+        <v>58</v>
+      </c>
+      <c r="U383" t="s">
+        <v>59</v>
+      </c>
+      <c r="V383" t="s">
+        <v>58</v>
+      </c>
+      <c r="W383" t="s">
+        <v>58</v>
+      </c>
+      <c r="X383" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y383" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z383" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD383" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF383" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG383" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH383" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI383" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ383" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK383" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL383" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM383" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN383" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP383" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ383" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR383" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS383" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT383" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU383" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV383" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW383" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX383" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY383" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="384" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>51</v>
+      </c>
+      <c r="B384" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C384" t="s">
+        <v>77</v>
+      </c>
+      <c r="D384" t="s">
+        <v>53</v>
+      </c>
+      <c r="E384" t="s">
+        <v>140</v>
+      </c>
+      <c r="F384" t="s">
+        <v>55</v>
+      </c>
+      <c r="G384" t="s">
+        <v>56</v>
+      </c>
+      <c r="H384" t="s">
+        <v>483</v>
+      </c>
+      <c r="I384" t="s">
+        <v>58</v>
+      </c>
+      <c r="J384" t="s">
+        <v>63</v>
+      </c>
+      <c r="K384" t="s">
+        <v>59</v>
+      </c>
+      <c r="L384" t="s">
+        <v>60</v>
+      </c>
+      <c r="M384" t="s">
+        <v>60</v>
+      </c>
+      <c r="N384" t="s">
+        <v>60</v>
+      </c>
+      <c r="O384" t="s">
+        <v>76</v>
+      </c>
+      <c r="P384" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q384" t="s">
+        <v>60</v>
+      </c>
+      <c r="R384" t="s">
+        <v>74</v>
+      </c>
+      <c r="S384" t="s">
+        <v>58</v>
+      </c>
+      <c r="T384" t="s">
+        <v>59</v>
+      </c>
+      <c r="U384" t="s">
+        <v>58</v>
+      </c>
+      <c r="V384" t="s">
+        <v>58</v>
+      </c>
+      <c r="W384" t="s">
+        <v>58</v>
+      </c>
+      <c r="X384" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y384" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z384" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD384" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF384" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG384" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH384" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI384" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ384" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK384" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL384" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM384" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN384" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP384" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ384" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR384" s="1">
+        <v>45045</v>
+      </c>
+      <c r="AS384" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT384" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU384" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV384" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW384" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX384" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY384" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="385" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A385" t="s">
+        <v>51</v>
+      </c>
+      <c r="B385" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C385" t="s">
+        <v>77</v>
+      </c>
+      <c r="D385" t="s">
+        <v>53</v>
+      </c>
+      <c r="E385" t="s">
+        <v>123</v>
+      </c>
+      <c r="F385" t="s">
+        <v>55</v>
+      </c>
+      <c r="G385" t="s">
+        <v>56</v>
+      </c>
+      <c r="H385" t="s">
+        <v>484</v>
+      </c>
+      <c r="I385" t="s">
+        <v>58</v>
+      </c>
+      <c r="J385" t="s">
+        <v>58</v>
+      </c>
+      <c r="K385" t="s">
+        <v>59</v>
+      </c>
+      <c r="L385" t="s">
+        <v>58</v>
+      </c>
+      <c r="M385" t="s">
+        <v>58</v>
+      </c>
+      <c r="N385" t="s">
+        <v>101</v>
+      </c>
+      <c r="O385" t="s">
+        <v>63</v>
+      </c>
+      <c r="P385" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q385" t="s">
+        <v>60</v>
+      </c>
+      <c r="R385" t="s">
+        <v>59</v>
+      </c>
+      <c r="S385" t="s">
+        <v>58</v>
+      </c>
+      <c r="T385" t="s">
+        <v>59</v>
+      </c>
+      <c r="U385" t="s">
+        <v>58</v>
+      </c>
+      <c r="V385" t="s">
+        <v>58</v>
+      </c>
+      <c r="W385" t="s">
+        <v>58</v>
+      </c>
+      <c r="X385" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y385" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z385" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD385" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF385" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG385" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH385" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI385" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ385" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK385" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL385" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM385" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN385" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP385" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ385" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR385" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS385" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT385" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU385" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV385" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW385" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX385" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY385" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="386" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A386" t="s">
+        <v>51</v>
+      </c>
+      <c r="B386" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C386" t="s">
+        <v>77</v>
+      </c>
+      <c r="D386" t="s">
+        <v>53</v>
+      </c>
+      <c r="E386" t="s">
+        <v>123</v>
+      </c>
+      <c r="F386" t="s">
+        <v>128</v>
+      </c>
+      <c r="G386" t="s">
+        <v>56</v>
+      </c>
+      <c r="H386" t="s">
+        <v>485</v>
+      </c>
+      <c r="I386" t="s">
+        <v>58</v>
+      </c>
+      <c r="J386" t="s">
+        <v>59</v>
+      </c>
+      <c r="K386" t="s">
+        <v>59</v>
+      </c>
+      <c r="L386" t="s">
+        <v>58</v>
+      </c>
+      <c r="M386" t="s">
+        <v>60</v>
+      </c>
+      <c r="N386" t="s">
+        <v>59</v>
+      </c>
+      <c r="O386" t="s">
+        <v>74</v>
+      </c>
+      <c r="P386" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q386" t="s">
+        <v>59</v>
+      </c>
+      <c r="R386" t="s">
+        <v>59</v>
+      </c>
+      <c r="S386" t="s">
+        <v>59</v>
+      </c>
+      <c r="T386" t="s">
+        <v>58</v>
+      </c>
+      <c r="U386" t="s">
+        <v>58</v>
+      </c>
+      <c r="V386" t="s">
+        <v>58</v>
+      </c>
+      <c r="W386" t="s">
+        <v>58</v>
+      </c>
+      <c r="X386" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y386" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z386" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD386" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF386" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG386" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH386" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI386" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ386" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK386" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL386" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM386" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN386" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP386" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ386" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR386" s="1">
+        <v>45045</v>
+      </c>
+      <c r="AS386" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT386" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU386" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV386" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW386" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX386" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY386" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="387" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A387" t="s">
+        <v>51</v>
+      </c>
+      <c r="B387" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C387" t="s">
+        <v>77</v>
+      </c>
+      <c r="D387" t="s">
+        <v>53</v>
+      </c>
+      <c r="E387" t="s">
+        <v>123</v>
+      </c>
+      <c r="F387" t="s">
+        <v>131</v>
+      </c>
+      <c r="G387" t="s">
+        <v>56</v>
+      </c>
+      <c r="H387" t="s">
+        <v>77</v>
+      </c>
+      <c r="I387" t="s">
+        <v>58</v>
+      </c>
+      <c r="J387" t="s">
+        <v>60</v>
+      </c>
+      <c r="K387" t="s">
+        <v>59</v>
+      </c>
+      <c r="L387" t="s">
+        <v>59</v>
+      </c>
+      <c r="M387" t="s">
+        <v>60</v>
+      </c>
+      <c r="N387" t="s">
+        <v>60</v>
+      </c>
+      <c r="O387" t="s">
+        <v>74</v>
+      </c>
+      <c r="P387" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q387" t="s">
+        <v>58</v>
+      </c>
+      <c r="R387" t="s">
+        <v>60</v>
+      </c>
+      <c r="S387" t="s">
+        <v>58</v>
+      </c>
+      <c r="T387" t="s">
+        <v>59</v>
+      </c>
+      <c r="U387" t="s">
+        <v>58</v>
+      </c>
+      <c r="V387" t="s">
+        <v>58</v>
+      </c>
+      <c r="W387" t="s">
+        <v>58</v>
+      </c>
+      <c r="X387" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y387" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z387" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD387" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF387" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG387" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH387" t="s">
+        <v>189</v>
+      </c>
+      <c r="AI387" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ387" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK387" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL387" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM387" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN387" t="s">
+        <v>486</v>
+      </c>
+      <c r="AO387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP387" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ387" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR387" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS387" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT387" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU387" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV387" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW387" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX387" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY387" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="388" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>51</v>
+      </c>
+      <c r="B388" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C388" t="s">
+        <v>77</v>
+      </c>
+      <c r="D388" t="s">
+        <v>53</v>
+      </c>
+      <c r="E388" t="s">
+        <v>200</v>
+      </c>
+      <c r="F388" t="s">
+        <v>55</v>
+      </c>
+      <c r="G388" t="s">
+        <v>56</v>
+      </c>
+      <c r="H388" t="s">
+        <v>83</v>
+      </c>
+      <c r="I388" t="s">
+        <v>58</v>
+      </c>
+      <c r="J388" t="s">
+        <v>59</v>
+      </c>
+      <c r="K388" t="s">
+        <v>58</v>
+      </c>
+      <c r="L388" t="s">
+        <v>58</v>
+      </c>
+      <c r="M388" t="s">
+        <v>58</v>
+      </c>
+      <c r="N388" t="s">
+        <v>58</v>
+      </c>
+      <c r="O388" t="s">
+        <v>58</v>
+      </c>
+      <c r="P388" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q388" t="s">
+        <v>58</v>
+      </c>
+      <c r="R388" t="s">
+        <v>58</v>
+      </c>
+      <c r="S388" t="s">
+        <v>58</v>
+      </c>
+      <c r="T388" t="s">
+        <v>58</v>
+      </c>
+      <c r="U388" t="s">
+        <v>58</v>
+      </c>
+      <c r="V388" t="s">
+        <v>58</v>
+      </c>
+      <c r="W388" t="s">
+        <v>58</v>
+      </c>
+      <c r="X388" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y388" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z388" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD388" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF388" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG388" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH388" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI388" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ388" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK388" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL388" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM388" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN388" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP388" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ388" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR388" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS388" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT388" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU388" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV388" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW388" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX388" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY388" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="389" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A389" t="s">
+        <v>51</v>
+      </c>
+      <c r="B389" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C389" t="s">
+        <v>77</v>
+      </c>
+      <c r="D389" t="s">
+        <v>53</v>
+      </c>
+      <c r="E389" t="s">
+        <v>368</v>
+      </c>
+      <c r="F389" t="s">
+        <v>369</v>
+      </c>
+      <c r="G389" t="s">
+        <v>56</v>
+      </c>
+      <c r="H389" t="s">
+        <v>487</v>
+      </c>
+      <c r="I389" t="s">
+        <v>58</v>
+      </c>
+      <c r="J389" t="s">
+        <v>58</v>
+      </c>
+      <c r="K389" t="s">
+        <v>58</v>
+      </c>
+      <c r="L389" t="s">
+        <v>58</v>
+      </c>
+      <c r="M389" t="s">
+        <v>58</v>
+      </c>
+      <c r="N389" t="s">
+        <v>58</v>
+      </c>
+      <c r="O389" t="s">
+        <v>59</v>
+      </c>
+      <c r="P389" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q389" t="s">
+        <v>58</v>
+      </c>
+      <c r="R389" t="s">
+        <v>58</v>
+      </c>
+      <c r="S389" t="s">
+        <v>58</v>
+      </c>
+      <c r="T389" t="s">
+        <v>58</v>
+      </c>
+      <c r="U389" t="s">
+        <v>58</v>
+      </c>
+      <c r="V389" t="s">
+        <v>58</v>
+      </c>
+      <c r="W389" t="s">
+        <v>58</v>
+      </c>
+      <c r="X389" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y389" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z389" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD389" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF389" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG389" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH389" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI389" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ389" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK389" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL389" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM389" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN389" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP389" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ389" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR389" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS389" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT389" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU389" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV389" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW389" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX389" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY389" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="390" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A390" t="s">
+        <v>51</v>
+      </c>
+      <c r="B390" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C390" t="s">
+        <v>77</v>
+      </c>
+      <c r="D390" t="s">
+        <v>53</v>
+      </c>
+      <c r="E390" t="s">
+        <v>314</v>
+      </c>
+      <c r="F390" t="s">
+        <v>91</v>
+      </c>
+      <c r="G390" t="s">
+        <v>56</v>
+      </c>
+      <c r="H390" t="s">
+        <v>57</v>
+      </c>
+      <c r="I390" t="s">
+        <v>58</v>
+      </c>
+      <c r="J390" t="s">
+        <v>58</v>
+      </c>
+      <c r="K390" t="s">
+        <v>58</v>
+      </c>
+      <c r="L390" t="s">
+        <v>58</v>
+      </c>
+      <c r="M390" t="s">
+        <v>58</v>
+      </c>
+      <c r="N390" t="s">
+        <v>58</v>
+      </c>
+      <c r="O390" t="s">
+        <v>59</v>
+      </c>
+      <c r="P390" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q390" t="s">
+        <v>58</v>
+      </c>
+      <c r="R390" t="s">
+        <v>58</v>
+      </c>
+      <c r="S390" t="s">
+        <v>59</v>
+      </c>
+      <c r="T390" t="s">
+        <v>58</v>
+      </c>
+      <c r="U390" t="s">
+        <v>58</v>
+      </c>
+      <c r="V390" t="s">
+        <v>58</v>
+      </c>
+      <c r="W390" t="s">
+        <v>58</v>
+      </c>
+      <c r="X390" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y390" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z390" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD390" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF390" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG390" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH390" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI390" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ390" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK390" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL390" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM390" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN390" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP390" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ390" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR390" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS390" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT390" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU390" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV390" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW390" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX390" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY390" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="391" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A391" t="s">
+        <v>51</v>
+      </c>
+      <c r="B391" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C391" t="s">
+        <v>77</v>
+      </c>
+      <c r="D391" t="s">
+        <v>53</v>
+      </c>
+      <c r="E391" t="s">
+        <v>109</v>
+      </c>
+      <c r="F391" t="s">
+        <v>55</v>
+      </c>
+      <c r="G391" t="s">
+        <v>56</v>
+      </c>
+      <c r="H391" t="s">
+        <v>437</v>
+      </c>
+      <c r="I391" t="s">
+        <v>58</v>
+      </c>
+      <c r="J391" t="s">
+        <v>82</v>
+      </c>
+      <c r="K391" t="s">
+        <v>60</v>
+      </c>
+      <c r="L391" t="s">
+        <v>62</v>
+      </c>
+      <c r="M391" t="s">
+        <v>74</v>
+      </c>
+      <c r="N391" t="s">
+        <v>101</v>
+      </c>
+      <c r="O391" t="s">
+        <v>83</v>
+      </c>
+      <c r="P391" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q391" t="s">
+        <v>60</v>
+      </c>
+      <c r="R391" t="s">
+        <v>59</v>
+      </c>
+      <c r="S391" t="s">
+        <v>74</v>
+      </c>
+      <c r="T391" t="s">
+        <v>59</v>
+      </c>
+      <c r="U391" t="s">
+        <v>59</v>
+      </c>
+      <c r="V391" t="s">
+        <v>74</v>
+      </c>
+      <c r="W391" t="s">
+        <v>60</v>
+      </c>
+      <c r="X391" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y391" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z391" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD391" t="s">
+        <v>384</v>
+      </c>
+      <c r="AE391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF391" t="s">
+        <v>244</v>
+      </c>
+      <c r="AG391" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH391" t="s">
+        <v>384</v>
+      </c>
+      <c r="AI391" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ391" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK391" t="s">
+        <v>384</v>
+      </c>
+      <c r="AL391" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM391" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN391" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP391" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ391" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR391" s="1">
+        <v>45045</v>
+      </c>
+      <c r="AS391" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT391" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU391" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV391" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW391" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX391" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY391" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="392" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>51</v>
+      </c>
+      <c r="B392" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C392" t="s">
+        <v>77</v>
+      </c>
+      <c r="D392" t="s">
+        <v>53</v>
+      </c>
+      <c r="E392" t="s">
+        <v>140</v>
+      </c>
+      <c r="F392" t="s">
+        <v>86</v>
+      </c>
+      <c r="G392" t="s">
+        <v>56</v>
+      </c>
+      <c r="H392" t="s">
+        <v>104</v>
+      </c>
+      <c r="I392" t="s">
+        <v>58</v>
+      </c>
+      <c r="J392" t="s">
+        <v>74</v>
+      </c>
+      <c r="K392" t="s">
+        <v>63</v>
+      </c>
+      <c r="L392" t="s">
+        <v>58</v>
+      </c>
+      <c r="M392" t="s">
+        <v>59</v>
+      </c>
+      <c r="N392" t="s">
+        <v>60</v>
+      </c>
+      <c r="O392" t="s">
+        <v>59</v>
+      </c>
+      <c r="P392" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q392" t="s">
+        <v>58</v>
+      </c>
+      <c r="R392" t="s">
+        <v>58</v>
+      </c>
+      <c r="S392" t="s">
+        <v>58</v>
+      </c>
+      <c r="T392" t="s">
+        <v>59</v>
+      </c>
+      <c r="U392" t="s">
+        <v>58</v>
+      </c>
+      <c r="V392" t="s">
+        <v>58</v>
+      </c>
+      <c r="W392" t="s">
+        <v>59</v>
+      </c>
+      <c r="X392" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y392" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z392" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD392" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF392" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG392" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH392" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI392" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ392" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK392" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL392" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM392" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN392" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP392" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ392" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR392" s="1">
+        <v>45045</v>
+      </c>
+      <c r="AS392" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT392" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU392" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV392" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW392" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX392" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY392" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="393" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A393" t="s">
+        <v>51</v>
+      </c>
+      <c r="B393" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C393" t="s">
+        <v>77</v>
+      </c>
+      <c r="D393" t="s">
+        <v>53</v>
+      </c>
+      <c r="E393" t="s">
+        <v>72</v>
+      </c>
+      <c r="F393" t="s">
+        <v>55</v>
+      </c>
+      <c r="G393" t="s">
+        <v>56</v>
+      </c>
+      <c r="H393" t="s">
+        <v>488</v>
+      </c>
+      <c r="I393" t="s">
+        <v>58</v>
+      </c>
+      <c r="J393" t="s">
+        <v>74</v>
+      </c>
+      <c r="K393" t="s">
+        <v>59</v>
+      </c>
+      <c r="L393" t="s">
+        <v>59</v>
+      </c>
+      <c r="M393" t="s">
+        <v>60</v>
+      </c>
+      <c r="N393" t="s">
+        <v>59</v>
+      </c>
+      <c r="O393" t="s">
+        <v>58</v>
+      </c>
+      <c r="P393" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q393" t="s">
+        <v>59</v>
+      </c>
+      <c r="R393" t="s">
+        <v>58</v>
+      </c>
+      <c r="S393" t="s">
+        <v>58</v>
+      </c>
+      <c r="T393" t="s">
+        <v>58</v>
+      </c>
+      <c r="U393" t="s">
+        <v>74</v>
+      </c>
+      <c r="V393" t="s">
+        <v>60</v>
+      </c>
+      <c r="W393" t="s">
+        <v>58</v>
+      </c>
+      <c r="X393" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y393" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z393" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD393" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF393" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG393" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH393" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI393" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ393" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK393" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL393" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM393" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN393" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP393" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ393" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR393" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS393" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT393" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU393" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV393" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW393" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX393" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY393" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="394" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A394" t="s">
+        <v>51</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C394" t="s">
+        <v>77</v>
+      </c>
+      <c r="D394" t="s">
+        <v>53</v>
+      </c>
+      <c r="E394" t="s">
+        <v>72</v>
+      </c>
+      <c r="F394" t="s">
+        <v>217</v>
+      </c>
+      <c r="G394" t="s">
+        <v>56</v>
+      </c>
+      <c r="H394" t="s">
+        <v>489</v>
+      </c>
+      <c r="I394" t="s">
+        <v>58</v>
+      </c>
+      <c r="J394" t="s">
+        <v>58</v>
+      </c>
+      <c r="K394" t="s">
+        <v>58</v>
+      </c>
+      <c r="L394" t="s">
+        <v>58</v>
+      </c>
+      <c r="M394" t="s">
+        <v>59</v>
+      </c>
+      <c r="N394" t="s">
+        <v>58</v>
+      </c>
+      <c r="O394" t="s">
+        <v>59</v>
+      </c>
+      <c r="P394" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q394" t="s">
+        <v>58</v>
+      </c>
+      <c r="R394" t="s">
+        <v>58</v>
+      </c>
+      <c r="S394" t="s">
+        <v>58</v>
+      </c>
+      <c r="T394" t="s">
+        <v>58</v>
+      </c>
+      <c r="U394" t="s">
+        <v>59</v>
+      </c>
+      <c r="V394" t="s">
+        <v>58</v>
+      </c>
+      <c r="W394" t="s">
+        <v>58</v>
+      </c>
+      <c r="X394" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y394" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z394" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD394" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF394" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG394" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH394" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI394" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ394" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK394" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL394" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM394" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN394" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP394" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ394" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR394" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS394" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT394" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU394" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV394" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW394" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX394" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY394" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="395" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A395" t="s">
+        <v>51</v>
+      </c>
+      <c r="B395" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C395" t="s">
+        <v>77</v>
+      </c>
+      <c r="D395" t="s">
+        <v>53</v>
+      </c>
+      <c r="E395" t="s">
+        <v>72</v>
+      </c>
+      <c r="F395" t="s">
+        <v>86</v>
+      </c>
+      <c r="G395" t="s">
+        <v>56</v>
+      </c>
+      <c r="H395" t="s">
+        <v>490</v>
+      </c>
+      <c r="I395" t="s">
+        <v>60</v>
+      </c>
+      <c r="J395" t="s">
+        <v>101</v>
+      </c>
+      <c r="K395" t="s">
+        <v>58</v>
+      </c>
+      <c r="L395" t="s">
+        <v>74</v>
+      </c>
+      <c r="M395" t="s">
+        <v>74</v>
+      </c>
+      <c r="N395" t="s">
+        <v>63</v>
+      </c>
+      <c r="O395" t="s">
+        <v>58</v>
+      </c>
+      <c r="P395" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q395" t="s">
+        <v>59</v>
+      </c>
+      <c r="R395" t="s">
+        <v>58</v>
+      </c>
+      <c r="S395" t="s">
+        <v>58</v>
+      </c>
+      <c r="T395" t="s">
+        <v>58</v>
+      </c>
+      <c r="U395" t="s">
+        <v>58</v>
+      </c>
+      <c r="V395" t="s">
+        <v>59</v>
+      </c>
+      <c r="W395" t="s">
+        <v>58</v>
+      </c>
+      <c r="X395" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y395" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z395" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD395" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF395" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG395" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH395" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI395" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ395" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK395" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL395" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM395" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN395" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP395" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ395" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR395" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS395" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT395" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU395" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV395" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW395" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX395" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY395" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="396" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>51</v>
+      </c>
+      <c r="B396" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C396" t="s">
+        <v>77</v>
+      </c>
+      <c r="D396" t="s">
+        <v>53</v>
+      </c>
+      <c r="E396" t="s">
+        <v>72</v>
+      </c>
+      <c r="F396" t="s">
+        <v>82</v>
+      </c>
+      <c r="G396" t="s">
+        <v>56</v>
+      </c>
+      <c r="H396" t="s">
+        <v>491</v>
+      </c>
+      <c r="I396" t="s">
+        <v>58</v>
+      </c>
+      <c r="J396" t="s">
+        <v>58</v>
+      </c>
+      <c r="K396" t="s">
+        <v>58</v>
+      </c>
+      <c r="L396" t="s">
+        <v>59</v>
+      </c>
+      <c r="M396" t="s">
+        <v>58</v>
+      </c>
+      <c r="N396" t="s">
+        <v>58</v>
+      </c>
+      <c r="O396" t="s">
+        <v>58</v>
+      </c>
+      <c r="P396" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q396" t="s">
+        <v>58</v>
+      </c>
+      <c r="R396" t="s">
+        <v>58</v>
+      </c>
+      <c r="S396" t="s">
+        <v>58</v>
+      </c>
+      <c r="T396" t="s">
+        <v>58</v>
+      </c>
+      <c r="U396" t="s">
+        <v>58</v>
+      </c>
+      <c r="V396" t="s">
+        <v>58</v>
+      </c>
+      <c r="W396" t="s">
+        <v>58</v>
+      </c>
+      <c r="X396" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y396" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z396" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD396" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF396" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG396" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH396" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI396" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ396" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK396" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL396" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM396" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN396" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP396" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ396" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR396" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS396" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT396" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU396" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV396" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW396" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX396" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY396" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="397" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A397" t="s">
+        <v>51</v>
+      </c>
+      <c r="B397" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C397" t="s">
+        <v>77</v>
+      </c>
+      <c r="D397" t="s">
+        <v>53</v>
+      </c>
+      <c r="E397" t="s">
+        <v>72</v>
+      </c>
+      <c r="F397" t="s">
+        <v>105</v>
+      </c>
+      <c r="G397" t="s">
+        <v>56</v>
+      </c>
+      <c r="H397" t="s">
+        <v>492</v>
+      </c>
+      <c r="I397" t="s">
+        <v>58</v>
+      </c>
+      <c r="J397" t="s">
+        <v>58</v>
+      </c>
+      <c r="K397" t="s">
+        <v>58</v>
+      </c>
+      <c r="L397" t="s">
+        <v>58</v>
+      </c>
+      <c r="M397" t="s">
+        <v>59</v>
+      </c>
+      <c r="N397" t="s">
+        <v>58</v>
+      </c>
+      <c r="O397" t="s">
+        <v>58</v>
+      </c>
+      <c r="P397" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q397" t="s">
+        <v>58</v>
+      </c>
+      <c r="R397" t="s">
+        <v>58</v>
+      </c>
+      <c r="S397" t="s">
+        <v>58</v>
+      </c>
+      <c r="T397" t="s">
+        <v>58</v>
+      </c>
+      <c r="U397" t="s">
+        <v>58</v>
+      </c>
+      <c r="V397" t="s">
+        <v>58</v>
+      </c>
+      <c r="W397" t="s">
+        <v>58</v>
+      </c>
+      <c r="X397" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y397" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z397" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD397" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF397" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG397" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH397" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI397" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ397" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK397" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL397" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM397" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN397" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP397" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ397" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR397" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS397" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT397" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU397" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV397" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW397" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX397" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY397" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="398" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A398" t="s">
+        <v>51</v>
+      </c>
+      <c r="B398" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C398" t="s">
+        <v>77</v>
+      </c>
+      <c r="D398" t="s">
+        <v>53</v>
+      </c>
+      <c r="E398" t="s">
+        <v>72</v>
+      </c>
+      <c r="F398" t="s">
+        <v>81</v>
+      </c>
+      <c r="G398" t="s">
+        <v>56</v>
+      </c>
+      <c r="H398" t="s">
+        <v>385</v>
+      </c>
+      <c r="I398" t="s">
+        <v>59</v>
+      </c>
+      <c r="J398" t="s">
+        <v>63</v>
+      </c>
+      <c r="K398" t="s">
+        <v>101</v>
+      </c>
+      <c r="L398" t="s">
+        <v>59</v>
+      </c>
+      <c r="M398" t="s">
+        <v>60</v>
+      </c>
+      <c r="N398" t="s">
+        <v>58</v>
+      </c>
+      <c r="O398" t="s">
+        <v>58</v>
+      </c>
+      <c r="P398" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q398" t="s">
+        <v>58</v>
+      </c>
+      <c r="R398" t="s">
+        <v>58</v>
+      </c>
+      <c r="S398" t="s">
+        <v>58</v>
+      </c>
+      <c r="T398" t="s">
+        <v>58</v>
+      </c>
+      <c r="U398" t="s">
+        <v>59</v>
+      </c>
+      <c r="V398" t="s">
+        <v>60</v>
+      </c>
+      <c r="W398" t="s">
+        <v>58</v>
+      </c>
+      <c r="X398" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y398" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z398" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD398" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF398" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG398" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH398" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI398" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ398" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK398" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL398" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM398" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN398" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP398" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ398" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR398" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS398" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT398" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU398" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV398" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW398" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX398" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY398" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="399" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A399" t="s">
+        <v>51</v>
+      </c>
+      <c r="B399" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C399" t="s">
+        <v>77</v>
+      </c>
+      <c r="D399" t="s">
+        <v>53</v>
+      </c>
+      <c r="E399" t="s">
+        <v>72</v>
+      </c>
+      <c r="F399" t="s">
+        <v>212</v>
+      </c>
+      <c r="G399" t="s">
+        <v>56</v>
+      </c>
+      <c r="H399" t="s">
+        <v>386</v>
+      </c>
+      <c r="I399" t="s">
+        <v>58</v>
+      </c>
+      <c r="J399" t="s">
+        <v>58</v>
+      </c>
+      <c r="K399" t="s">
+        <v>59</v>
+      </c>
+      <c r="L399" t="s">
+        <v>58</v>
+      </c>
+      <c r="M399" t="s">
+        <v>58</v>
+      </c>
+      <c r="N399" t="s">
+        <v>58</v>
+      </c>
+      <c r="O399" t="s">
+        <v>58</v>
+      </c>
+      <c r="P399" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q399" t="s">
+        <v>58</v>
+      </c>
+      <c r="R399" t="s">
+        <v>58</v>
+      </c>
+      <c r="S399" t="s">
+        <v>58</v>
+      </c>
+      <c r="T399" t="s">
+        <v>58</v>
+      </c>
+      <c r="U399" t="s">
+        <v>58</v>
+      </c>
+      <c r="V399" t="s">
+        <v>58</v>
+      </c>
+      <c r="W399" t="s">
+        <v>58</v>
+      </c>
+      <c r="X399" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y399" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z399" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD399" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF399" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG399" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH399" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI399" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ399" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK399" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL399" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM399" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN399" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP399" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ399" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR399" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS399" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT399" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU399" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV399" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW399" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX399" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY399" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="400" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>51</v>
+      </c>
+      <c r="B400" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C400" t="s">
+        <v>77</v>
+      </c>
+      <c r="D400" t="s">
+        <v>53</v>
+      </c>
+      <c r="E400" t="s">
+        <v>137</v>
+      </c>
+      <c r="F400" t="s">
+        <v>61</v>
+      </c>
+      <c r="G400" t="s">
+        <v>56</v>
+      </c>
+      <c r="H400" t="s">
+        <v>493</v>
+      </c>
+      <c r="I400" t="s">
+        <v>58</v>
+      </c>
+      <c r="J400" t="s">
+        <v>58</v>
+      </c>
+      <c r="K400" t="s">
+        <v>58</v>
+      </c>
+      <c r="L400" t="s">
+        <v>58</v>
+      </c>
+      <c r="M400" t="s">
+        <v>58</v>
+      </c>
+      <c r="N400" t="s">
+        <v>60</v>
+      </c>
+      <c r="O400" t="s">
+        <v>60</v>
+      </c>
+      <c r="P400" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q400" t="s">
+        <v>60</v>
+      </c>
+      <c r="R400" t="s">
+        <v>74</v>
+      </c>
+      <c r="S400" t="s">
+        <v>60</v>
+      </c>
+      <c r="T400" t="s">
+        <v>60</v>
+      </c>
+      <c r="U400" t="s">
+        <v>74</v>
+      </c>
+      <c r="V400" t="s">
+        <v>59</v>
+      </c>
+      <c r="W400" t="s">
+        <v>74</v>
+      </c>
+      <c r="X400" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y400" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z400" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD400" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF400" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG400" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH400" t="s">
+        <v>167</v>
+      </c>
+      <c r="AI400" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ400" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK400" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL400" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM400" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN400" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP400" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ400" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR400" s="1">
+        <v>45045</v>
+      </c>
+      <c r="AS400" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT400" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU400" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV400" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW400" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX400" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY400" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="401" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A401" t="s">
+        <v>51</v>
+      </c>
+      <c r="B401" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C401" t="s">
+        <v>77</v>
+      </c>
+      <c r="D401" t="s">
+        <v>53</v>
+      </c>
+      <c r="E401" t="s">
+        <v>54</v>
+      </c>
+      <c r="F401" t="s">
+        <v>55</v>
+      </c>
+      <c r="G401" t="s">
+        <v>56</v>
+      </c>
+      <c r="H401" t="s">
+        <v>57</v>
+      </c>
+      <c r="I401" t="s">
+        <v>58</v>
+      </c>
+      <c r="J401" t="s">
+        <v>58</v>
+      </c>
+      <c r="K401" t="s">
+        <v>59</v>
+      </c>
+      <c r="L401" t="s">
+        <v>58</v>
+      </c>
+      <c r="M401" t="s">
+        <v>59</v>
+      </c>
+      <c r="N401" t="s">
+        <v>60</v>
+      </c>
+      <c r="O401" t="s">
+        <v>58</v>
+      </c>
+      <c r="P401" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q401" t="s">
+        <v>58</v>
+      </c>
+      <c r="R401" t="s">
+        <v>58</v>
+      </c>
+      <c r="S401" t="s">
+        <v>58</v>
+      </c>
+      <c r="T401" t="s">
+        <v>58</v>
+      </c>
+      <c r="U401" t="s">
+        <v>59</v>
+      </c>
+      <c r="V401" t="s">
+        <v>58</v>
+      </c>
+      <c r="W401" t="s">
+        <v>58</v>
+      </c>
+      <c r="X401" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y401" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z401" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD401" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF401" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG401" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH401" t="s">
+        <v>82</v>
+      </c>
+      <c r="AI401" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ401" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK401" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL401" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM401" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN401" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP401" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ401" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR401" s="1">
+        <v>45047</v>
+      </c>
+      <c r="AS401" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT401" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU401" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV401" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW401" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX401" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY401" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="402" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A402" t="s">
+        <v>51</v>
+      </c>
+      <c r="B402" s="1">
+        <v>45045</v>
+      </c>
+      <c r="C402" t="s">
+        <v>77</v>
+      </c>
+      <c r="D402" t="s">
+        <v>53</v>
+      </c>
+      <c r="E402" t="s">
+        <v>150</v>
+      </c>
+      <c r="F402" t="s">
+        <v>55</v>
+      </c>
+      <c r="G402" t="s">
+        <v>56</v>
+      </c>
+      <c r="H402" t="s">
+        <v>332</v>
+      </c>
+      <c r="I402" t="s">
+        <v>60</v>
+      </c>
+      <c r="J402" t="s">
+        <v>60</v>
+      </c>
+      <c r="K402" t="s">
+        <v>59</v>
+      </c>
+      <c r="L402" t="s">
+        <v>74</v>
+      </c>
+      <c r="M402" t="s">
+        <v>58</v>
+      </c>
+      <c r="N402" t="s">
+        <v>58</v>
+      </c>
+      <c r="O402" t="s">
+        <v>58</v>
+      </c>
+      <c r="P402" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q402" t="s">
+        <v>59</v>
+      </c>
+      <c r="R402" t="s">
+        <v>59</v>
+      </c>
+      <c r="S402" t="s">
+        <v>59</v>
+      </c>
+      <c r="T402" t="s">
+        <v>58</v>
+      </c>
+      <c r="U402" t="s">
+        <v>58</v>
+      </c>
+      <c r="V402" t="s">
+        <v>60</v>
+      </c>
+      <c r="W402" t="s">
+        <v>60</v>
+      </c>
+      <c r="X402" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y402" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z402" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD402" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF402" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG402" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH402" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI402" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ402" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK402" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL402" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM402" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN402" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP402" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ402" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR402" s="1">
+        <v>45047</v>
+      </c>
+      <c r="AS402" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT402" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU402" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV402" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW402" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX402" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY402" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="403" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A403" t="s">
+        <v>51</v>
+      </c>
+      <c r="B403" s="1">
+        <v>45038</v>
+      </c>
+      <c r="C403" t="s">
+        <v>52</v>
+      </c>
+      <c r="D403" t="s">
+        <v>53</v>
+      </c>
+      <c r="E403" t="s">
+        <v>175</v>
+      </c>
+      <c r="F403" t="s">
+        <v>55</v>
+      </c>
+      <c r="G403" t="s">
+        <v>56</v>
+      </c>
+      <c r="H403" t="s">
+        <v>163</v>
+      </c>
+      <c r="I403" t="s">
+        <v>74</v>
+      </c>
+      <c r="J403" t="s">
+        <v>189</v>
+      </c>
+      <c r="K403" t="s">
+        <v>61</v>
+      </c>
+      <c r="L403" t="s">
+        <v>101</v>
+      </c>
+      <c r="M403" t="s">
+        <v>60</v>
+      </c>
+      <c r="N403" t="s">
+        <v>101</v>
+      </c>
+      <c r="O403" t="s">
+        <v>111</v>
+      </c>
+      <c r="P403" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q403" t="s">
+        <v>111</v>
+      </c>
+      <c r="R403" t="s">
+        <v>74</v>
+      </c>
+      <c r="S403" t="s">
+        <v>58</v>
+      </c>
+      <c r="T403" t="s">
+        <v>63</v>
+      </c>
+      <c r="U403" t="s">
+        <v>60</v>
+      </c>
+      <c r="V403" t="s">
+        <v>83</v>
+      </c>
+      <c r="W403" t="s">
+        <v>60</v>
+      </c>
+      <c r="X403" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y403" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z403" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD403" t="s">
+        <v>494</v>
+      </c>
+      <c r="AE403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF403" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG403" t="s">
+        <v>495</v>
+      </c>
+      <c r="AH403" t="s">
+        <v>494</v>
+      </c>
+      <c r="AI403" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ403" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK403" t="s">
+        <v>494</v>
+      </c>
+      <c r="AL403" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM403" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN403" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP403" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ403" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR403" s="1">
+        <v>45040</v>
+      </c>
+      <c r="AS403" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT403" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU403" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV403" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW403" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX403" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY403" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
+++ b/Boletin_ Epi_Pereira/Datos/evento 998.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cont_vtrujillov\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDCF6EA5-097E-4E6D-A519-ED2DC1661D03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="7485" windowHeight="4140"/>
   </bookViews>
   <sheets>
     <sheet name="evento 998" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19749" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20925" uniqueCount="506">
   <si>
     <t>cod_eve</t>
   </si>
@@ -1509,11 +1508,41 @@
   <si>
     <t>59</t>
   </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>1271</t>
+  </si>
+  <si>
+    <t>1272</t>
+  </si>
+  <si>
+    <t>386</t>
+  </si>
+  <si>
+    <t>385</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2113</t>
+  </si>
+  <si>
+    <t>VS LAREBECA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1645,7 +1674,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -1657,7 +1686,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -1674,9 +1703,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1704,31 +1733,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1756,23 +1768,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1925,7 +1920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY403"/>
+  <dimension ref="A1:AY427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -64396,6 +64391,3726 @@
         <v>71</v>
       </c>
     </row>
+    <row r="404" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A404" t="s">
+        <v>51</v>
+      </c>
+      <c r="B404" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C404" t="s">
+        <v>75</v>
+      </c>
+      <c r="D404" t="s">
+        <v>53</v>
+      </c>
+      <c r="E404" t="s">
+        <v>140</v>
+      </c>
+      <c r="F404" t="s">
+        <v>55</v>
+      </c>
+      <c r="G404" t="s">
+        <v>56</v>
+      </c>
+      <c r="H404" t="s">
+        <v>496</v>
+      </c>
+      <c r="I404" t="s">
+        <v>59</v>
+      </c>
+      <c r="J404" t="s">
+        <v>60</v>
+      </c>
+      <c r="K404" t="s">
+        <v>58</v>
+      </c>
+      <c r="L404" t="s">
+        <v>58</v>
+      </c>
+      <c r="M404" t="s">
+        <v>58</v>
+      </c>
+      <c r="N404" t="s">
+        <v>101</v>
+      </c>
+      <c r="O404" t="s">
+        <v>101</v>
+      </c>
+      <c r="P404" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q404" t="s">
+        <v>60</v>
+      </c>
+      <c r="R404" t="s">
+        <v>59</v>
+      </c>
+      <c r="S404" t="s">
+        <v>59</v>
+      </c>
+      <c r="T404" t="s">
+        <v>58</v>
+      </c>
+      <c r="U404" t="s">
+        <v>58</v>
+      </c>
+      <c r="V404" t="s">
+        <v>58</v>
+      </c>
+      <c r="W404" t="s">
+        <v>58</v>
+      </c>
+      <c r="X404" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y404" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z404" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD404" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF404" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG404" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH404" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI404" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ404" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK404" t="s">
+        <v>263</v>
+      </c>
+      <c r="AL404" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM404" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN404" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP404" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ404" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR404" s="1">
+        <v>45052</v>
+      </c>
+      <c r="AS404" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT404" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU404" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV404" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW404" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX404" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY404" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="405" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A405" t="s">
+        <v>51</v>
+      </c>
+      <c r="B405" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C405" t="s">
+        <v>75</v>
+      </c>
+      <c r="D405" t="s">
+        <v>53</v>
+      </c>
+      <c r="E405" t="s">
+        <v>137</v>
+      </c>
+      <c r="F405" t="s">
+        <v>61</v>
+      </c>
+      <c r="G405" t="s">
+        <v>56</v>
+      </c>
+      <c r="H405" t="s">
+        <v>57</v>
+      </c>
+      <c r="I405" t="s">
+        <v>58</v>
+      </c>
+      <c r="J405" t="s">
+        <v>58</v>
+      </c>
+      <c r="K405" t="s">
+        <v>59</v>
+      </c>
+      <c r="L405" t="s">
+        <v>60</v>
+      </c>
+      <c r="M405" t="s">
+        <v>58</v>
+      </c>
+      <c r="N405" t="s">
+        <v>58</v>
+      </c>
+      <c r="O405" t="s">
+        <v>60</v>
+      </c>
+      <c r="P405" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q405" t="s">
+        <v>58</v>
+      </c>
+      <c r="R405" t="s">
+        <v>63</v>
+      </c>
+      <c r="S405" t="s">
+        <v>59</v>
+      </c>
+      <c r="T405" t="s">
+        <v>59</v>
+      </c>
+      <c r="U405" t="s">
+        <v>60</v>
+      </c>
+      <c r="V405" t="s">
+        <v>59</v>
+      </c>
+      <c r="W405" t="s">
+        <v>60</v>
+      </c>
+      <c r="X405" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y405" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z405" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD405" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF405" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG405" t="s">
+        <v>82</v>
+      </c>
+      <c r="AH405" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI405" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ405" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK405" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL405" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM405" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN405" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP405" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ405" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR405" s="1">
+        <v>45052</v>
+      </c>
+      <c r="AS405" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT405" t="s">
+        <v>138</v>
+      </c>
+      <c r="AU405" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV405" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW405" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX405" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY405" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="406" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A406" t="s">
+        <v>51</v>
+      </c>
+      <c r="B406" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C406" t="s">
+        <v>75</v>
+      </c>
+      <c r="D406" t="s">
+        <v>53</v>
+      </c>
+      <c r="E406" t="s">
+        <v>117</v>
+      </c>
+      <c r="F406" t="s">
+        <v>55</v>
+      </c>
+      <c r="G406" t="s">
+        <v>56</v>
+      </c>
+      <c r="H406" t="s">
+        <v>497</v>
+      </c>
+      <c r="I406" t="s">
+        <v>58</v>
+      </c>
+      <c r="J406" t="s">
+        <v>58</v>
+      </c>
+      <c r="K406" t="s">
+        <v>58</v>
+      </c>
+      <c r="L406" t="s">
+        <v>58</v>
+      </c>
+      <c r="M406" t="s">
+        <v>58</v>
+      </c>
+      <c r="N406" t="s">
+        <v>58</v>
+      </c>
+      <c r="O406" t="s">
+        <v>59</v>
+      </c>
+      <c r="P406" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q406" t="s">
+        <v>59</v>
+      </c>
+      <c r="R406" t="s">
+        <v>59</v>
+      </c>
+      <c r="S406" t="s">
+        <v>58</v>
+      </c>
+      <c r="T406" t="s">
+        <v>59</v>
+      </c>
+      <c r="U406" t="s">
+        <v>58</v>
+      </c>
+      <c r="V406" t="s">
+        <v>58</v>
+      </c>
+      <c r="W406" t="s">
+        <v>58</v>
+      </c>
+      <c r="X406" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y406" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z406" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD406" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF406" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG406" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH406" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI406" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ406" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK406" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL406" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM406" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN406" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP406" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ406" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR406" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS406" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT406" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU406" t="s">
+        <v>120</v>
+      </c>
+      <c r="AV406" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW406" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX406" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY406" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="407" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A407" t="s">
+        <v>51</v>
+      </c>
+      <c r="B407" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C407" t="s">
+        <v>75</v>
+      </c>
+      <c r="D407" t="s">
+        <v>53</v>
+      </c>
+      <c r="E407" t="s">
+        <v>156</v>
+      </c>
+      <c r="F407" t="s">
+        <v>55</v>
+      </c>
+      <c r="G407" t="s">
+        <v>56</v>
+      </c>
+      <c r="H407" t="s">
+        <v>477</v>
+      </c>
+      <c r="I407" t="s">
+        <v>58</v>
+      </c>
+      <c r="J407" t="s">
+        <v>58</v>
+      </c>
+      <c r="K407" t="s">
+        <v>59</v>
+      </c>
+      <c r="L407" t="s">
+        <v>58</v>
+      </c>
+      <c r="M407" t="s">
+        <v>74</v>
+      </c>
+      <c r="N407" t="s">
+        <v>59</v>
+      </c>
+      <c r="O407" t="s">
+        <v>59</v>
+      </c>
+      <c r="P407" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q407" t="s">
+        <v>74</v>
+      </c>
+      <c r="R407" t="s">
+        <v>60</v>
+      </c>
+      <c r="S407" t="s">
+        <v>74</v>
+      </c>
+      <c r="T407" t="s">
+        <v>60</v>
+      </c>
+      <c r="U407" t="s">
+        <v>59</v>
+      </c>
+      <c r="V407" t="s">
+        <v>58</v>
+      </c>
+      <c r="W407" t="s">
+        <v>59</v>
+      </c>
+      <c r="X407" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y407" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z407" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD407" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF407" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG407" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH407" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI407" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ407" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK407" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL407" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM407" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN407" t="s">
+        <v>209</v>
+      </c>
+      <c r="AO407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP407" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ407" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR407" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS407" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT407" t="s">
+        <v>159</v>
+      </c>
+      <c r="AU407" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV407" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW407" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX407" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY407" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="408" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A408" t="s">
+        <v>51</v>
+      </c>
+      <c r="B408" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C408" t="s">
+        <v>75</v>
+      </c>
+      <c r="D408" t="s">
+        <v>53</v>
+      </c>
+      <c r="E408" t="s">
+        <v>54</v>
+      </c>
+      <c r="F408" t="s">
+        <v>55</v>
+      </c>
+      <c r="G408" t="s">
+        <v>56</v>
+      </c>
+      <c r="H408" t="s">
+        <v>57</v>
+      </c>
+      <c r="I408" t="s">
+        <v>58</v>
+      </c>
+      <c r="J408" t="s">
+        <v>60</v>
+      </c>
+      <c r="K408" t="s">
+        <v>58</v>
+      </c>
+      <c r="L408" t="s">
+        <v>59</v>
+      </c>
+      <c r="M408" t="s">
+        <v>58</v>
+      </c>
+      <c r="N408" t="s">
+        <v>58</v>
+      </c>
+      <c r="O408" t="s">
+        <v>59</v>
+      </c>
+      <c r="P408" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q408" t="s">
+        <v>59</v>
+      </c>
+      <c r="R408" t="s">
+        <v>60</v>
+      </c>
+      <c r="S408" t="s">
+        <v>58</v>
+      </c>
+      <c r="T408" t="s">
+        <v>60</v>
+      </c>
+      <c r="U408" t="s">
+        <v>59</v>
+      </c>
+      <c r="V408" t="s">
+        <v>63</v>
+      </c>
+      <c r="W408" t="s">
+        <v>58</v>
+      </c>
+      <c r="X408" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y408" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z408" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD408" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF408" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG408" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH408" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI408" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ408" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK408" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL408" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM408" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN408" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP408" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ408" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR408" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS408" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT408" t="s">
+        <v>68</v>
+      </c>
+      <c r="AU408" t="s">
+        <v>69</v>
+      </c>
+      <c r="AV408" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW408" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX408" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY408" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="409" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A409" t="s">
+        <v>51</v>
+      </c>
+      <c r="B409" s="1">
+        <v>45044</v>
+      </c>
+      <c r="C409" t="s">
+        <v>77</v>
+      </c>
+      <c r="D409" t="s">
+        <v>53</v>
+      </c>
+      <c r="E409" t="s">
+        <v>175</v>
+      </c>
+      <c r="F409" t="s">
+        <v>55</v>
+      </c>
+      <c r="G409" t="s">
+        <v>56</v>
+      </c>
+      <c r="H409" t="s">
+        <v>203</v>
+      </c>
+      <c r="I409" t="s">
+        <v>60</v>
+      </c>
+      <c r="J409" t="s">
+        <v>180</v>
+      </c>
+      <c r="K409" t="s">
+        <v>96</v>
+      </c>
+      <c r="L409" t="s">
+        <v>63</v>
+      </c>
+      <c r="M409" t="s">
+        <v>63</v>
+      </c>
+      <c r="N409" t="s">
+        <v>59</v>
+      </c>
+      <c r="O409" t="s">
+        <v>74</v>
+      </c>
+      <c r="P409" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q409" t="s">
+        <v>59</v>
+      </c>
+      <c r="R409" t="s">
+        <v>59</v>
+      </c>
+      <c r="S409" t="s">
+        <v>58</v>
+      </c>
+      <c r="T409" t="s">
+        <v>58</v>
+      </c>
+      <c r="U409" t="s">
+        <v>60</v>
+      </c>
+      <c r="V409" t="s">
+        <v>60</v>
+      </c>
+      <c r="W409" t="s">
+        <v>60</v>
+      </c>
+      <c r="X409" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y409" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z409" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD409" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF409" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG409" t="s">
+        <v>312</v>
+      </c>
+      <c r="AH409" t="s">
+        <v>194</v>
+      </c>
+      <c r="AI409" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ409" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK409" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL409" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM409" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN409" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP409" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ409" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR409" s="1">
+        <v>45044</v>
+      </c>
+      <c r="AS409" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT409" t="s">
+        <v>177</v>
+      </c>
+      <c r="AU409" t="s">
+        <v>178</v>
+      </c>
+      <c r="AV409" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW409" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX409" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY409" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="410" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A410" t="s">
+        <v>51</v>
+      </c>
+      <c r="B410" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C410" t="s">
+        <v>75</v>
+      </c>
+      <c r="D410" t="s">
+        <v>53</v>
+      </c>
+      <c r="E410" t="s">
+        <v>368</v>
+      </c>
+      <c r="F410" t="s">
+        <v>369</v>
+      </c>
+      <c r="G410" t="s">
+        <v>56</v>
+      </c>
+      <c r="H410" t="s">
+        <v>383</v>
+      </c>
+      <c r="I410" t="s">
+        <v>58</v>
+      </c>
+      <c r="J410" t="s">
+        <v>58</v>
+      </c>
+      <c r="K410" t="s">
+        <v>58</v>
+      </c>
+      <c r="L410" t="s">
+        <v>58</v>
+      </c>
+      <c r="M410" t="s">
+        <v>58</v>
+      </c>
+      <c r="N410" t="s">
+        <v>58</v>
+      </c>
+      <c r="O410" t="s">
+        <v>59</v>
+      </c>
+      <c r="P410" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q410" t="s">
+        <v>58</v>
+      </c>
+      <c r="R410" t="s">
+        <v>58</v>
+      </c>
+      <c r="S410" t="s">
+        <v>58</v>
+      </c>
+      <c r="T410" t="s">
+        <v>58</v>
+      </c>
+      <c r="U410" t="s">
+        <v>58</v>
+      </c>
+      <c r="V410" t="s">
+        <v>58</v>
+      </c>
+      <c r="W410" t="s">
+        <v>58</v>
+      </c>
+      <c r="X410" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y410" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z410" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD410" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF410" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG410" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH410" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI410" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ410" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK410" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL410" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM410" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN410" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP410" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ410" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR410" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS410" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT410" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU410" t="s">
+        <v>372</v>
+      </c>
+      <c r="AV410" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW410" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX410" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY410" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="411" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A411" t="s">
+        <v>51</v>
+      </c>
+      <c r="B411" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C411" t="s">
+        <v>75</v>
+      </c>
+      <c r="D411" t="s">
+        <v>53</v>
+      </c>
+      <c r="E411" t="s">
+        <v>150</v>
+      </c>
+      <c r="F411" t="s">
+        <v>55</v>
+      </c>
+      <c r="G411" t="s">
+        <v>56</v>
+      </c>
+      <c r="H411" t="s">
+        <v>353</v>
+      </c>
+      <c r="I411" t="s">
+        <v>60</v>
+      </c>
+      <c r="J411" t="s">
+        <v>59</v>
+      </c>
+      <c r="K411" t="s">
+        <v>60</v>
+      </c>
+      <c r="L411" t="s">
+        <v>58</v>
+      </c>
+      <c r="M411" t="s">
+        <v>58</v>
+      </c>
+      <c r="N411" t="s">
+        <v>58</v>
+      </c>
+      <c r="O411" t="s">
+        <v>58</v>
+      </c>
+      <c r="P411" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q411" t="s">
+        <v>58</v>
+      </c>
+      <c r="R411" t="s">
+        <v>59</v>
+      </c>
+      <c r="S411" t="s">
+        <v>59</v>
+      </c>
+      <c r="T411" t="s">
+        <v>58</v>
+      </c>
+      <c r="U411" t="s">
+        <v>58</v>
+      </c>
+      <c r="V411" t="s">
+        <v>58</v>
+      </c>
+      <c r="W411" t="s">
+        <v>58</v>
+      </c>
+      <c r="X411" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y411" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z411" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD411" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF411" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG411" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH411" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI411" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ411" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK411" t="s">
+        <v>62</v>
+      </c>
+      <c r="AL411" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM411" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN411" t="s">
+        <v>425</v>
+      </c>
+      <c r="AO411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP411" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ411" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR411" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS411" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT411" t="s">
+        <v>153</v>
+      </c>
+      <c r="AU411" t="s">
+        <v>154</v>
+      </c>
+      <c r="AV411" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW411" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX411" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY411" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="412" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A412" t="s">
+        <v>51</v>
+      </c>
+      <c r="B412" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C412" t="s">
+        <v>75</v>
+      </c>
+      <c r="D412" t="s">
+        <v>53</v>
+      </c>
+      <c r="E412" t="s">
+        <v>72</v>
+      </c>
+      <c r="F412" t="s">
+        <v>81</v>
+      </c>
+      <c r="G412" t="s">
+        <v>56</v>
+      </c>
+      <c r="H412" t="s">
+        <v>387</v>
+      </c>
+      <c r="I412" t="s">
+        <v>60</v>
+      </c>
+      <c r="J412" t="s">
+        <v>62</v>
+      </c>
+      <c r="K412" t="s">
+        <v>111</v>
+      </c>
+      <c r="L412" t="s">
+        <v>60</v>
+      </c>
+      <c r="M412" t="s">
+        <v>59</v>
+      </c>
+      <c r="N412" t="s">
+        <v>60</v>
+      </c>
+      <c r="O412" t="s">
+        <v>59</v>
+      </c>
+      <c r="P412" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q412" t="s">
+        <v>60</v>
+      </c>
+      <c r="R412" t="s">
+        <v>58</v>
+      </c>
+      <c r="S412" t="s">
+        <v>58</v>
+      </c>
+      <c r="T412" t="s">
+        <v>60</v>
+      </c>
+      <c r="U412" t="s">
+        <v>58</v>
+      </c>
+      <c r="V412" t="s">
+        <v>59</v>
+      </c>
+      <c r="W412" t="s">
+        <v>63</v>
+      </c>
+      <c r="X412" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y412" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z412" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD412" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF412" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG412" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH412" t="s">
+        <v>263</v>
+      </c>
+      <c r="AI412" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ412" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK412" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL412" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM412" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN412" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP412" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ412" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR412" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS412" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT412" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU412" t="s">
+        <v>85</v>
+      </c>
+      <c r="AV412" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW412" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX412" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY412" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="413" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A413" t="s">
+        <v>51</v>
+      </c>
+      <c r="B413" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C413" t="s">
+        <v>75</v>
+      </c>
+      <c r="D413" t="s">
+        <v>53</v>
+      </c>
+      <c r="E413" t="s">
+        <v>72</v>
+      </c>
+      <c r="F413" t="s">
+        <v>212</v>
+      </c>
+      <c r="G413" t="s">
+        <v>56</v>
+      </c>
+      <c r="H413" t="s">
+        <v>388</v>
+      </c>
+      <c r="I413" t="s">
+        <v>58</v>
+      </c>
+      <c r="J413" t="s">
+        <v>58</v>
+      </c>
+      <c r="K413" t="s">
+        <v>58</v>
+      </c>
+      <c r="L413" t="s">
+        <v>58</v>
+      </c>
+      <c r="M413" t="s">
+        <v>58</v>
+      </c>
+      <c r="N413" t="s">
+        <v>58</v>
+      </c>
+      <c r="O413" t="s">
+        <v>58</v>
+      </c>
+      <c r="P413" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q413" t="s">
+        <v>58</v>
+      </c>
+      <c r="R413" t="s">
+        <v>58</v>
+      </c>
+      <c r="S413" t="s">
+        <v>58</v>
+      </c>
+      <c r="T413" t="s">
+        <v>58</v>
+      </c>
+      <c r="U413" t="s">
+        <v>59</v>
+      </c>
+      <c r="V413" t="s">
+        <v>58</v>
+      </c>
+      <c r="W413" t="s">
+        <v>58</v>
+      </c>
+      <c r="X413" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y413" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z413" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD413" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF413" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG413" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH413" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI413" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ413" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK413" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL413" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM413" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN413" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP413" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ413" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR413" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS413" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT413" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU413" t="s">
+        <v>214</v>
+      </c>
+      <c r="AV413" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW413" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX413" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY413" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="414" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A414" t="s">
+        <v>51</v>
+      </c>
+      <c r="B414" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C414" t="s">
+        <v>75</v>
+      </c>
+      <c r="D414" t="s">
+        <v>53</v>
+      </c>
+      <c r="E414" t="s">
+        <v>72</v>
+      </c>
+      <c r="F414" t="s">
+        <v>170</v>
+      </c>
+      <c r="G414" t="s">
+        <v>56</v>
+      </c>
+      <c r="H414" t="s">
+        <v>389</v>
+      </c>
+      <c r="I414" t="s">
+        <v>58</v>
+      </c>
+      <c r="J414" t="s">
+        <v>58</v>
+      </c>
+      <c r="K414" t="s">
+        <v>58</v>
+      </c>
+      <c r="L414" t="s">
+        <v>58</v>
+      </c>
+      <c r="M414" t="s">
+        <v>58</v>
+      </c>
+      <c r="N414" t="s">
+        <v>58</v>
+      </c>
+      <c r="O414" t="s">
+        <v>58</v>
+      </c>
+      <c r="P414" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q414" t="s">
+        <v>58</v>
+      </c>
+      <c r="R414" t="s">
+        <v>58</v>
+      </c>
+      <c r="S414" t="s">
+        <v>58</v>
+      </c>
+      <c r="T414" t="s">
+        <v>58</v>
+      </c>
+      <c r="U414" t="s">
+        <v>59</v>
+      </c>
+      <c r="V414" t="s">
+        <v>58</v>
+      </c>
+      <c r="W414" t="s">
+        <v>58</v>
+      </c>
+      <c r="X414" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y414" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z414" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD414" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF414" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG414" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH414" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI414" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ414" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK414" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL414" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM414" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN414" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP414" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ414" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR414" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS414" t="s">
+        <v>365</v>
+      </c>
+      <c r="AT414" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU414" t="s">
+        <v>172</v>
+      </c>
+      <c r="AV414" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW414" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX414" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY414" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="415" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A415" t="s">
+        <v>51</v>
+      </c>
+      <c r="B415" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C415" t="s">
+        <v>75</v>
+      </c>
+      <c r="D415" t="s">
+        <v>53</v>
+      </c>
+      <c r="E415" t="s">
+        <v>314</v>
+      </c>
+      <c r="F415" t="s">
+        <v>91</v>
+      </c>
+      <c r="G415" t="s">
+        <v>56</v>
+      </c>
+      <c r="H415" t="s">
+        <v>57</v>
+      </c>
+      <c r="I415" t="s">
+        <v>58</v>
+      </c>
+      <c r="J415" t="s">
+        <v>58</v>
+      </c>
+      <c r="K415" t="s">
+        <v>58</v>
+      </c>
+      <c r="L415" t="s">
+        <v>58</v>
+      </c>
+      <c r="M415" t="s">
+        <v>58</v>
+      </c>
+      <c r="N415" t="s">
+        <v>58</v>
+      </c>
+      <c r="O415" t="s">
+        <v>58</v>
+      </c>
+      <c r="P415" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q415" t="s">
+        <v>58</v>
+      </c>
+      <c r="R415" t="s">
+        <v>58</v>
+      </c>
+      <c r="S415" t="s">
+        <v>58</v>
+      </c>
+      <c r="T415" t="s">
+        <v>59</v>
+      </c>
+      <c r="U415" t="s">
+        <v>58</v>
+      </c>
+      <c r="V415" t="s">
+        <v>58</v>
+      </c>
+      <c r="W415" t="s">
+        <v>58</v>
+      </c>
+      <c r="X415" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y415" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z415" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD415" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF415" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG415" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH415" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI415" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ415" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK415" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL415" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM415" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN415" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP415" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ415" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR415" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS415" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT415" t="s">
+        <v>92</v>
+      </c>
+      <c r="AU415" t="s">
+        <v>315</v>
+      </c>
+      <c r="AV415" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW415" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX415" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY415" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="416" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A416" t="s">
+        <v>51</v>
+      </c>
+      <c r="B416" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C416" t="s">
+        <v>75</v>
+      </c>
+      <c r="D416" t="s">
+        <v>53</v>
+      </c>
+      <c r="E416" t="s">
+        <v>72</v>
+      </c>
+      <c r="F416" t="s">
+        <v>86</v>
+      </c>
+      <c r="G416" t="s">
+        <v>56</v>
+      </c>
+      <c r="H416" t="s">
+        <v>498</v>
+      </c>
+      <c r="I416" t="s">
+        <v>58</v>
+      </c>
+      <c r="J416" t="s">
+        <v>101</v>
+      </c>
+      <c r="K416" t="s">
+        <v>59</v>
+      </c>
+      <c r="L416" t="s">
+        <v>59</v>
+      </c>
+      <c r="M416" t="s">
+        <v>59</v>
+      </c>
+      <c r="N416" t="s">
+        <v>60</v>
+      </c>
+      <c r="O416" t="s">
+        <v>74</v>
+      </c>
+      <c r="P416" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q416" t="s">
+        <v>59</v>
+      </c>
+      <c r="R416" t="s">
+        <v>59</v>
+      </c>
+      <c r="S416" t="s">
+        <v>59</v>
+      </c>
+      <c r="T416" t="s">
+        <v>59</v>
+      </c>
+      <c r="U416" t="s">
+        <v>59</v>
+      </c>
+      <c r="V416" t="s">
+        <v>59</v>
+      </c>
+      <c r="W416" t="s">
+        <v>58</v>
+      </c>
+      <c r="X416" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y416" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z416" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD416" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF416" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG416" t="s">
+        <v>180</v>
+      </c>
+      <c r="AH416" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI416" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ416" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK416" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL416" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM416" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN416" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP416" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ416" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR416" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS416" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT416" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU416" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV416" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW416" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX416" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY416" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="417" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A417" t="s">
+        <v>51</v>
+      </c>
+      <c r="B417" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C417" t="s">
+        <v>75</v>
+      </c>
+      <c r="D417" t="s">
+        <v>53</v>
+      </c>
+      <c r="E417" t="s">
+        <v>72</v>
+      </c>
+      <c r="F417" t="s">
+        <v>82</v>
+      </c>
+      <c r="G417" t="s">
+        <v>56</v>
+      </c>
+      <c r="H417" t="s">
+        <v>499</v>
+      </c>
+      <c r="I417" t="s">
+        <v>58</v>
+      </c>
+      <c r="J417" t="s">
+        <v>58</v>
+      </c>
+      <c r="K417" t="s">
+        <v>58</v>
+      </c>
+      <c r="L417" t="s">
+        <v>58</v>
+      </c>
+      <c r="M417" t="s">
+        <v>59</v>
+      </c>
+      <c r="N417" t="s">
+        <v>59</v>
+      </c>
+      <c r="O417" t="s">
+        <v>58</v>
+      </c>
+      <c r="P417" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q417" t="s">
+        <v>58</v>
+      </c>
+      <c r="R417" t="s">
+        <v>58</v>
+      </c>
+      <c r="S417" t="s">
+        <v>58</v>
+      </c>
+      <c r="T417" t="s">
+        <v>58</v>
+      </c>
+      <c r="U417" t="s">
+        <v>58</v>
+      </c>
+      <c r="V417" t="s">
+        <v>58</v>
+      </c>
+      <c r="W417" t="s">
+        <v>58</v>
+      </c>
+      <c r="X417" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y417" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z417" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD417" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF417" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG417" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH417" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI417" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ417" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK417" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL417" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM417" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN417" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP417" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ417" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR417" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS417" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT417" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU417" t="s">
+        <v>320</v>
+      </c>
+      <c r="AV417" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW417" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX417" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY417" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="418" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A418" t="s">
+        <v>51</v>
+      </c>
+      <c r="B418" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C418" t="s">
+        <v>75</v>
+      </c>
+      <c r="D418" t="s">
+        <v>53</v>
+      </c>
+      <c r="E418" t="s">
+        <v>140</v>
+      </c>
+      <c r="F418" t="s">
+        <v>86</v>
+      </c>
+      <c r="G418" t="s">
+        <v>56</v>
+      </c>
+      <c r="H418" t="s">
+        <v>242</v>
+      </c>
+      <c r="I418" t="s">
+        <v>58</v>
+      </c>
+      <c r="J418" t="s">
+        <v>60</v>
+      </c>
+      <c r="K418" t="s">
+        <v>59</v>
+      </c>
+      <c r="L418" t="s">
+        <v>58</v>
+      </c>
+      <c r="M418" t="s">
+        <v>58</v>
+      </c>
+      <c r="N418" t="s">
+        <v>59</v>
+      </c>
+      <c r="O418" t="s">
+        <v>60</v>
+      </c>
+      <c r="P418" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q418" t="s">
+        <v>60</v>
+      </c>
+      <c r="R418" t="s">
+        <v>58</v>
+      </c>
+      <c r="S418" t="s">
+        <v>58</v>
+      </c>
+      <c r="T418" t="s">
+        <v>58</v>
+      </c>
+      <c r="U418" t="s">
+        <v>58</v>
+      </c>
+      <c r="V418" t="s">
+        <v>58</v>
+      </c>
+      <c r="W418" t="s">
+        <v>59</v>
+      </c>
+      <c r="X418" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y418" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z418" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD418" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF418" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG418" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH418" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI418" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ418" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK418" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL418" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM418" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN418" t="s">
+        <v>149</v>
+      </c>
+      <c r="AO418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP418" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ418" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR418" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS418" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT418" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU418" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV418" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW418" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX418" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY418" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="419" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A419" t="s">
+        <v>51</v>
+      </c>
+      <c r="B419" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C419" t="s">
+        <v>75</v>
+      </c>
+      <c r="D419" t="s">
+        <v>53</v>
+      </c>
+      <c r="E419" t="s">
+        <v>123</v>
+      </c>
+      <c r="F419" t="s">
+        <v>55</v>
+      </c>
+      <c r="G419" t="s">
+        <v>56</v>
+      </c>
+      <c r="H419" t="s">
+        <v>500</v>
+      </c>
+      <c r="I419" t="s">
+        <v>58</v>
+      </c>
+      <c r="J419" t="s">
+        <v>58</v>
+      </c>
+      <c r="K419" t="s">
+        <v>58</v>
+      </c>
+      <c r="L419" t="s">
+        <v>58</v>
+      </c>
+      <c r="M419" t="s">
+        <v>58</v>
+      </c>
+      <c r="N419" t="s">
+        <v>58</v>
+      </c>
+      <c r="O419" t="s">
+        <v>60</v>
+      </c>
+      <c r="P419" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q419" t="s">
+        <v>58</v>
+      </c>
+      <c r="R419" t="s">
+        <v>59</v>
+      </c>
+      <c r="S419" t="s">
+        <v>60</v>
+      </c>
+      <c r="T419" t="s">
+        <v>58</v>
+      </c>
+      <c r="U419" t="s">
+        <v>58</v>
+      </c>
+      <c r="V419" t="s">
+        <v>58</v>
+      </c>
+      <c r="W419" t="s">
+        <v>58</v>
+      </c>
+      <c r="X419" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y419" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z419" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD419" t="s">
+        <v>83</v>
+      </c>
+      <c r="AE419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF419" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG419" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH419" t="s">
+        <v>83</v>
+      </c>
+      <c r="AI419" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ419" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK419" t="s">
+        <v>83</v>
+      </c>
+      <c r="AL419" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM419" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN419" t="s">
+        <v>265</v>
+      </c>
+      <c r="AO419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP419" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ419" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR419" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS419" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT419" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU419" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV419" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW419" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX419" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY419" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="420" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A420" t="s">
+        <v>51</v>
+      </c>
+      <c r="B420" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C420" t="s">
+        <v>75</v>
+      </c>
+      <c r="D420" t="s">
+        <v>53</v>
+      </c>
+      <c r="E420" t="s">
+        <v>123</v>
+      </c>
+      <c r="F420" t="s">
+        <v>128</v>
+      </c>
+      <c r="G420" t="s">
+        <v>56</v>
+      </c>
+      <c r="H420" t="s">
+        <v>501</v>
+      </c>
+      <c r="I420" t="s">
+        <v>58</v>
+      </c>
+      <c r="J420" t="s">
+        <v>60</v>
+      </c>
+      <c r="K420" t="s">
+        <v>59</v>
+      </c>
+      <c r="L420" t="s">
+        <v>59</v>
+      </c>
+      <c r="M420" t="s">
+        <v>74</v>
+      </c>
+      <c r="N420" t="s">
+        <v>74</v>
+      </c>
+      <c r="O420" t="s">
+        <v>58</v>
+      </c>
+      <c r="P420" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q420" t="s">
+        <v>58</v>
+      </c>
+      <c r="R420" t="s">
+        <v>59</v>
+      </c>
+      <c r="S420" t="s">
+        <v>59</v>
+      </c>
+      <c r="T420" t="s">
+        <v>58</v>
+      </c>
+      <c r="U420" t="s">
+        <v>60</v>
+      </c>
+      <c r="V420" t="s">
+        <v>58</v>
+      </c>
+      <c r="W420" t="s">
+        <v>58</v>
+      </c>
+      <c r="X420" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y420" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z420" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD420" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF420" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG420" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH420" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI420" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ420" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK420" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL420" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM420" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN420" t="s">
+        <v>330</v>
+      </c>
+      <c r="AO420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP420" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ420" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR420" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS420" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT420" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU420" t="s">
+        <v>130</v>
+      </c>
+      <c r="AV420" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW420" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX420" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY420" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="421" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A421" t="s">
+        <v>51</v>
+      </c>
+      <c r="B421" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C421" t="s">
+        <v>75</v>
+      </c>
+      <c r="D421" t="s">
+        <v>53</v>
+      </c>
+      <c r="E421" t="s">
+        <v>109</v>
+      </c>
+      <c r="F421" t="s">
+        <v>55</v>
+      </c>
+      <c r="G421" t="s">
+        <v>56</v>
+      </c>
+      <c r="H421" t="s">
+        <v>451</v>
+      </c>
+      <c r="I421" t="s">
+        <v>58</v>
+      </c>
+      <c r="J421" t="s">
+        <v>96</v>
+      </c>
+      <c r="K421" t="s">
+        <v>83</v>
+      </c>
+      <c r="L421" t="s">
+        <v>59</v>
+      </c>
+      <c r="M421" t="s">
+        <v>58</v>
+      </c>
+      <c r="N421" t="s">
+        <v>82</v>
+      </c>
+      <c r="O421" t="s">
+        <v>111</v>
+      </c>
+      <c r="P421" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q421" t="s">
+        <v>63</v>
+      </c>
+      <c r="R421" t="s">
+        <v>59</v>
+      </c>
+      <c r="S421" t="s">
+        <v>58</v>
+      </c>
+      <c r="T421" t="s">
+        <v>59</v>
+      </c>
+      <c r="U421" t="s">
+        <v>58</v>
+      </c>
+      <c r="V421" t="s">
+        <v>60</v>
+      </c>
+      <c r="W421" t="s">
+        <v>59</v>
+      </c>
+      <c r="X421" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y421" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z421" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD421" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF421" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG421" t="s">
+        <v>81</v>
+      </c>
+      <c r="AH421" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI421" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ421" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK421" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL421" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM421" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN421" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP421" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ421" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR421" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS421" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT421" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU421" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV421" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW421" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX421" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY421" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="422" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A422" t="s">
+        <v>51</v>
+      </c>
+      <c r="B422" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C422" t="s">
+        <v>75</v>
+      </c>
+      <c r="D422" t="s">
+        <v>53</v>
+      </c>
+      <c r="E422" t="s">
+        <v>304</v>
+      </c>
+      <c r="F422" t="s">
+        <v>55</v>
+      </c>
+      <c r="G422" t="s">
+        <v>56</v>
+      </c>
+      <c r="H422" t="s">
+        <v>57</v>
+      </c>
+      <c r="I422" t="s">
+        <v>58</v>
+      </c>
+      <c r="J422" t="s">
+        <v>58</v>
+      </c>
+      <c r="K422" t="s">
+        <v>58</v>
+      </c>
+      <c r="L422" t="s">
+        <v>58</v>
+      </c>
+      <c r="M422" t="s">
+        <v>58</v>
+      </c>
+      <c r="N422" t="s">
+        <v>58</v>
+      </c>
+      <c r="O422" t="s">
+        <v>59</v>
+      </c>
+      <c r="P422" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q422" t="s">
+        <v>58</v>
+      </c>
+      <c r="R422" t="s">
+        <v>58</v>
+      </c>
+      <c r="S422" t="s">
+        <v>58</v>
+      </c>
+      <c r="T422" t="s">
+        <v>58</v>
+      </c>
+      <c r="U422" t="s">
+        <v>58</v>
+      </c>
+      <c r="V422" t="s">
+        <v>58</v>
+      </c>
+      <c r="W422" t="s">
+        <v>58</v>
+      </c>
+      <c r="X422" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y422" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z422" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD422" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF422" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG422" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH422" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI422" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ422" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK422" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL422" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM422" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN422" t="s">
+        <v>306</v>
+      </c>
+      <c r="AO422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP422" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ422" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR422" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS422" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT422" t="s">
+        <v>307</v>
+      </c>
+      <c r="AU422" t="s">
+        <v>308</v>
+      </c>
+      <c r="AV422" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW422" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX422" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY422" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="423" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A423" t="s">
+        <v>51</v>
+      </c>
+      <c r="B423" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C423" t="s">
+        <v>75</v>
+      </c>
+      <c r="D423" t="s">
+        <v>53</v>
+      </c>
+      <c r="E423" t="s">
+        <v>94</v>
+      </c>
+      <c r="F423" t="s">
+        <v>55</v>
+      </c>
+      <c r="G423" t="s">
+        <v>56</v>
+      </c>
+      <c r="H423" t="s">
+        <v>502</v>
+      </c>
+      <c r="I423" t="s">
+        <v>58</v>
+      </c>
+      <c r="J423" t="s">
+        <v>59</v>
+      </c>
+      <c r="K423" t="s">
+        <v>58</v>
+      </c>
+      <c r="L423" t="s">
+        <v>74</v>
+      </c>
+      <c r="M423" t="s">
+        <v>60</v>
+      </c>
+      <c r="N423" t="s">
+        <v>59</v>
+      </c>
+      <c r="O423" t="s">
+        <v>63</v>
+      </c>
+      <c r="P423" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q423" t="s">
+        <v>59</v>
+      </c>
+      <c r="R423" t="s">
+        <v>59</v>
+      </c>
+      <c r="S423" t="s">
+        <v>59</v>
+      </c>
+      <c r="T423" t="s">
+        <v>59</v>
+      </c>
+      <c r="U423" t="s">
+        <v>58</v>
+      </c>
+      <c r="V423" t="s">
+        <v>58</v>
+      </c>
+      <c r="W423" t="s">
+        <v>58</v>
+      </c>
+      <c r="X423" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y423" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z423" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD423" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF423" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG423" t="s">
+        <v>76</v>
+      </c>
+      <c r="AH423" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI423" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ423" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK423" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL423" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM423" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN423" t="s">
+        <v>114</v>
+      </c>
+      <c r="AO423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP423" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ423" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR423" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS423" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT423" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU423" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV423" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW423" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX423" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY423" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="424" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A424" t="s">
+        <v>51</v>
+      </c>
+      <c r="B424" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C424" t="s">
+        <v>75</v>
+      </c>
+      <c r="D424" t="s">
+        <v>53</v>
+      </c>
+      <c r="E424" t="s">
+        <v>94</v>
+      </c>
+      <c r="F424" t="s">
+        <v>99</v>
+      </c>
+      <c r="G424" t="s">
+        <v>56</v>
+      </c>
+      <c r="H424" t="s">
+        <v>503</v>
+      </c>
+      <c r="I424" t="s">
+        <v>58</v>
+      </c>
+      <c r="J424" t="s">
+        <v>59</v>
+      </c>
+      <c r="K424" t="s">
+        <v>59</v>
+      </c>
+      <c r="L424" t="s">
+        <v>58</v>
+      </c>
+      <c r="M424" t="s">
+        <v>60</v>
+      </c>
+      <c r="N424" t="s">
+        <v>59</v>
+      </c>
+      <c r="O424" t="s">
+        <v>83</v>
+      </c>
+      <c r="P424" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q424" t="s">
+        <v>63</v>
+      </c>
+      <c r="R424" t="s">
+        <v>60</v>
+      </c>
+      <c r="S424" t="s">
+        <v>63</v>
+      </c>
+      <c r="T424" t="s">
+        <v>58</v>
+      </c>
+      <c r="U424" t="s">
+        <v>59</v>
+      </c>
+      <c r="V424" t="s">
+        <v>58</v>
+      </c>
+      <c r="W424" t="s">
+        <v>58</v>
+      </c>
+      <c r="X424" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y424" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z424" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD424" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF424" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG424" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH424" t="s">
+        <v>148</v>
+      </c>
+      <c r="AI424" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ424" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK424" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL424" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM424" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN424" t="s">
+        <v>376</v>
+      </c>
+      <c r="AO424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP424" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ424" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR424" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS424" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT424" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU424" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV424" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW424" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX424" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY424" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="425" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A425" t="s">
+        <v>51</v>
+      </c>
+      <c r="B425" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C425" t="s">
+        <v>75</v>
+      </c>
+      <c r="D425" t="s">
+        <v>53</v>
+      </c>
+      <c r="E425" t="s">
+        <v>94</v>
+      </c>
+      <c r="F425" t="s">
+        <v>99</v>
+      </c>
+      <c r="G425" t="s">
+        <v>56</v>
+      </c>
+      <c r="H425" t="s">
+        <v>504</v>
+      </c>
+      <c r="I425" t="s">
+        <v>59</v>
+      </c>
+      <c r="J425" t="s">
+        <v>96</v>
+      </c>
+      <c r="K425" t="s">
+        <v>62</v>
+      </c>
+      <c r="L425" t="s">
+        <v>63</v>
+      </c>
+      <c r="M425" t="s">
+        <v>63</v>
+      </c>
+      <c r="N425" t="s">
+        <v>111</v>
+      </c>
+      <c r="O425" t="s">
+        <v>63</v>
+      </c>
+      <c r="P425" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q425" t="s">
+        <v>58</v>
+      </c>
+      <c r="R425" t="s">
+        <v>101</v>
+      </c>
+      <c r="S425" t="s">
+        <v>58</v>
+      </c>
+      <c r="T425" t="s">
+        <v>59</v>
+      </c>
+      <c r="U425" t="s">
+        <v>58</v>
+      </c>
+      <c r="V425" t="s">
+        <v>58</v>
+      </c>
+      <c r="W425" t="s">
+        <v>74</v>
+      </c>
+      <c r="X425" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y425" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z425" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD425" t="s">
+        <v>415</v>
+      </c>
+      <c r="AE425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF425" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG425" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH425" t="s">
+        <v>415</v>
+      </c>
+      <c r="AI425" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ425" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK425" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL425" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM425" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN425" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP425" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ425" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR425" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS425" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT425" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU425" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV425" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW425" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX425" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY425" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="426" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A426" t="s">
+        <v>51</v>
+      </c>
+      <c r="B426" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C426" t="s">
+        <v>75</v>
+      </c>
+      <c r="D426" t="s">
+        <v>53</v>
+      </c>
+      <c r="E426" t="s">
+        <v>123</v>
+      </c>
+      <c r="F426" t="s">
+        <v>131</v>
+      </c>
+      <c r="G426" t="s">
+        <v>56</v>
+      </c>
+      <c r="H426" t="s">
+        <v>75</v>
+      </c>
+      <c r="I426" t="s">
+        <v>58</v>
+      </c>
+      <c r="J426" t="s">
+        <v>59</v>
+      </c>
+      <c r="K426" t="s">
+        <v>58</v>
+      </c>
+      <c r="L426" t="s">
+        <v>58</v>
+      </c>
+      <c r="M426" t="s">
+        <v>58</v>
+      </c>
+      <c r="N426" t="s">
+        <v>63</v>
+      </c>
+      <c r="O426" t="s">
+        <v>59</v>
+      </c>
+      <c r="P426" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q426" t="s">
+        <v>59</v>
+      </c>
+      <c r="R426" t="s">
+        <v>59</v>
+      </c>
+      <c r="S426" t="s">
+        <v>59</v>
+      </c>
+      <c r="T426" t="s">
+        <v>60</v>
+      </c>
+      <c r="U426" t="s">
+        <v>59</v>
+      </c>
+      <c r="V426" t="s">
+        <v>58</v>
+      </c>
+      <c r="W426" t="s">
+        <v>58</v>
+      </c>
+      <c r="X426" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y426" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z426" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD426" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF426" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG426" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH426" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI426" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ426" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK426" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL426" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM426" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN426" t="s">
+        <v>505</v>
+      </c>
+      <c r="AO426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP426" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ426" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR426" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS426" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT426" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU426" t="s">
+        <v>136</v>
+      </c>
+      <c r="AV426" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW426" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX426" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY426" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="427" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A427" t="s">
+        <v>51</v>
+      </c>
+      <c r="B427" s="1">
+        <v>45052</v>
+      </c>
+      <c r="C427" t="s">
+        <v>75</v>
+      </c>
+      <c r="D427" t="s">
+        <v>53</v>
+      </c>
+      <c r="E427" t="s">
+        <v>200</v>
+      </c>
+      <c r="F427" t="s">
+        <v>55</v>
+      </c>
+      <c r="G427" t="s">
+        <v>56</v>
+      </c>
+      <c r="H427" t="s">
+        <v>62</v>
+      </c>
+      <c r="I427" t="s">
+        <v>59</v>
+      </c>
+      <c r="J427" t="s">
+        <v>59</v>
+      </c>
+      <c r="K427" t="s">
+        <v>58</v>
+      </c>
+      <c r="L427" t="s">
+        <v>59</v>
+      </c>
+      <c r="M427" t="s">
+        <v>58</v>
+      </c>
+      <c r="N427" t="s">
+        <v>58</v>
+      </c>
+      <c r="O427" t="s">
+        <v>58</v>
+      </c>
+      <c r="P427" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q427" t="s">
+        <v>58</v>
+      </c>
+      <c r="R427" t="s">
+        <v>58</v>
+      </c>
+      <c r="S427" t="s">
+        <v>58</v>
+      </c>
+      <c r="T427" t="s">
+        <v>58</v>
+      </c>
+      <c r="U427" t="s">
+        <v>58</v>
+      </c>
+      <c r="V427" t="s">
+        <v>58</v>
+      </c>
+      <c r="W427" t="s">
+        <v>58</v>
+      </c>
+      <c r="X427" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y427" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z427" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD427" t="s">
+        <v>74</v>
+      </c>
+      <c r="AE427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF427" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG427" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH427" t="s">
+        <v>74</v>
+      </c>
+      <c r="AI427" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ427" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK427" t="s">
+        <v>74</v>
+      </c>
+      <c r="AL427" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM427" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN427" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP427" t="s">
+        <v>57</v>
+      </c>
+      <c r="AQ427" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR427" s="1">
+        <v>45054</v>
+      </c>
+      <c r="AS427" t="s">
+        <v>67</v>
+      </c>
+      <c r="AT427" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU427" t="s">
+        <v>202</v>
+      </c>
+      <c r="AV427" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW427" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX427" t="s">
+        <v>70</v>
+      </c>
+      <c r="AY427" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
